--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -10909,6 +10909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10963,7 +10964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24360,13 +24360,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="308" t="s">
+      <c r="H3" s="309" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="310"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="311"/>
       <c r="P3" t="s">
         <v>3078</v>
       </c>
@@ -24400,20 +24400,20 @@
         <v>3075</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="311" t="s">
+      <c r="G6" s="312" t="s">
         <v>3072</v>
       </c>
-      <c r="H6" s="312"/>
+      <c r="H6" s="313"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="311" t="s">
+      <c r="J6" s="312" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="312"/>
+      <c r="K6" s="313"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="311" t="s">
+      <c r="M6" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="312"/>
+      <c r="N6" s="313"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -24434,20 +24434,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="313" t="s">
+      <c r="G8" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="314"/>
+      <c r="H8" s="315"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="313" t="s">
+      <c r="J8" s="314" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="314"/>
+      <c r="K8" s="315"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="313" t="s">
+      <c r="M8" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="314"/>
+      <c r="N8" s="315"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -24463,29 +24463,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="304" t="s">
+      <c r="F10" s="305" t="s">
         <v>3073</v>
       </c>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="305"/>
-      <c r="K10" s="305"/>
-      <c r="L10" s="305"/>
-      <c r="M10" s="305"/>
-      <c r="N10" s="305"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="306"/>
+      <c r="J10" s="306"/>
+      <c r="K10" s="306"/>
+      <c r="L10" s="306"/>
+      <c r="M10" s="306"/>
+      <c r="N10" s="306"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="306"/>
-      <c r="G11" s="307"/>
-      <c r="H11" s="307"/>
-      <c r="I11" s="307"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="307"/>
-      <c r="L11" s="307"/>
-      <c r="M11" s="307"/>
-      <c r="N11" s="307"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="308"/>
+      <c r="H11" s="308"/>
+      <c r="I11" s="308"/>
+      <c r="J11" s="308"/>
+      <c r="K11" s="308"/>
+      <c r="L11" s="308"/>
+      <c r="M11" s="308"/>
+      <c r="N11" s="308"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -24708,7 +24708,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="322"/>
+      <c r="J23" s="304"/>
       <c r="K23" s="21"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -28552,7 +28552,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="320" t="s">
+      <c r="O235" s="321" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -28577,7 +28577,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="320"/>
+      <c r="O236" s="321"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -28600,7 +28600,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="320"/>
+      <c r="O237" s="321"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -28623,7 +28623,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="320"/>
+      <c r="O238" s="321"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -28640,7 +28640,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="320"/>
+      <c r="O239" s="321"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -28659,7 +28659,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="320"/>
+      <c r="O240" s="321"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -28684,7 +28684,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="320"/>
+      <c r="O241" s="321"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -28703,7 +28703,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="320"/>
+      <c r="O242" s="321"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -41894,11 +41894,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="321" t="s">
+      <c r="M6" s="322" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="321"/>
-      <c r="O6" s="321"/>
+      <c r="N6" s="322"/>
+      <c r="O6" s="322"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -43911,11 +43911,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="315" t="s">
+      <c r="D223" s="316" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="317"/>
-      <c r="F223" s="316"/>
+      <c r="E223" s="318"/>
+      <c r="F223" s="317"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -43967,19 +43967,19 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="315" t="s">
+      <c r="D227" s="316" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="317"/>
-      <c r="F227" s="316"/>
-      <c r="H227" s="315" t="s">
+      <c r="E227" s="318"/>
+      <c r="F227" s="317"/>
+      <c r="H227" s="316" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="316"/>
-      <c r="K227" s="315" t="s">
+      <c r="I227" s="317"/>
+      <c r="K227" s="316" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="316"/>
+      <c r="L227" s="317"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -47383,23 +47383,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="320" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="I1" s="319" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="I1" s="320" t="s">
         <v>2945</v>
       </c>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="319"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="320"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -47555,28 +47555,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="311" t="s">
+      <c r="A12" s="312" t="s">
         <v>2947</v>
       </c>
-      <c r="B12" s="318"/>
-      <c r="C12" s="318"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="318"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="312"/>
-      <c r="I12" s="311" t="s">
+      <c r="B12" s="319"/>
+      <c r="C12" s="319"/>
+      <c r="D12" s="319"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="313"/>
+      <c r="I12" s="312" t="s">
         <v>2947</v>
       </c>
-      <c r="J12" s="318"/>
-      <c r="K12" s="318"/>
-      <c r="L12" s="318"/>
-      <c r="M12" s="318"/>
-      <c r="N12" s="318"/>
-      <c r="O12" s="318"/>
-      <c r="P12" s="318"/>
-      <c r="Q12" s="318"/>
-      <c r="R12" s="312"/>
+      <c r="J12" s="319"/>
+      <c r="K12" s="319"/>
+      <c r="L12" s="319"/>
+      <c r="M12" s="319"/>
+      <c r="N12" s="319"/>
+      <c r="O12" s="319"/>
+      <c r="P12" s="319"/>
+      <c r="Q12" s="319"/>
+      <c r="R12" s="313"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -47804,14 +47804,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="319" t="s">
+      <c r="A24" s="320" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="319"/>
-      <c r="C24" s="319"/>
-      <c r="D24" s="319"/>
-      <c r="E24" s="319"/>
-      <c r="F24" s="319"/>
+      <c r="B24" s="320"/>
+      <c r="C24" s="320"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="320"/>
+      <c r="F24" s="320"/>
       <c r="H24" s="273" t="s">
         <v>2945</v>
       </c>
@@ -47821,11 +47821,11 @@
       <c r="L24" s="273"/>
       <c r="M24" s="273"/>
       <c r="N24" s="273"/>
-      <c r="P24" s="319" t="s">
+      <c r="P24" s="320" t="s">
         <v>2986</v>
       </c>
-      <c r="Q24" s="319"/>
-      <c r="R24" s="319"/>
+      <c r="Q24" s="320"/>
+      <c r="R24" s="320"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -48065,28 +48065,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="311" t="s">
+      <c r="A35" s="312" t="s">
         <v>2987</v>
       </c>
-      <c r="B35" s="318"/>
-      <c r="C35" s="318"/>
-      <c r="D35" s="318"/>
-      <c r="E35" s="318"/>
-      <c r="F35" s="318"/>
-      <c r="G35" s="318"/>
-      <c r="H35" s="312"/>
-      <c r="I35" s="311" t="s">
+      <c r="B35" s="319"/>
+      <c r="C35" s="319"/>
+      <c r="D35" s="319"/>
+      <c r="E35" s="319"/>
+      <c r="F35" s="319"/>
+      <c r="G35" s="319"/>
+      <c r="H35" s="313"/>
+      <c r="I35" s="312" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="318"/>
-      <c r="K35" s="318"/>
-      <c r="L35" s="318"/>
-      <c r="M35" s="318"/>
-      <c r="N35" s="318"/>
-      <c r="O35" s="318"/>
-      <c r="P35" s="318"/>
-      <c r="Q35" s="318"/>
-      <c r="R35" s="312"/>
+      <c r="J35" s="319"/>
+      <c r="K35" s="319"/>
+      <c r="L35" s="319"/>
+      <c r="M35" s="319"/>
+      <c r="N35" s="319"/>
+      <c r="O35" s="319"/>
+      <c r="P35" s="319"/>
+      <c r="Q35" s="319"/>
+      <c r="R35" s="313"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="3143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5803" uniqueCount="3142">
   <si>
     <t>USER</t>
   </si>
@@ -9076,12 +9076,6 @@
     <t>cal.add(</t>
   </si>
   <si>
-    <t>x ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y </t>
-  </si>
-  <si>
     <t>);</t>
   </si>
   <si>
@@ -9095,15 +9089,6 @@
   </si>
   <si>
     <t>int b</t>
-  </si>
-  <si>
-    <t>String c)</t>
-  </si>
-  <si>
-    <t>String p</t>
-  </si>
-  <si>
-    <t>"john";</t>
   </si>
   <si>
     <t>x , y, p are int, int ,String as needed by callee program</t>
@@ -9734,6 +9719,18 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>"john"</t>
+  </si>
+  <si>
+    <t>,String n)</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>x,</t>
   </si>
 </sst>
 </file>
@@ -9941,13 +9938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10832,20 +10829,16 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -10861,7 +10854,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10962,6 +10955,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15803,7 +15800,7 @@
     </row>
     <row r="179" spans="1:18" ht="15.75" thickBot="1">
       <c r="B179" t="s">
-        <v>3031</v>
+        <v>3026</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="26" t="s">
@@ -15825,11 +15822,11 @@
     </row>
     <row r="180" spans="1:18">
       <c r="B180" t="s">
-        <v>3011</v>
+        <v>3006</v>
       </c>
       <c r="F180" s="32"/>
       <c r="G180" s="50" t="s">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="H180" s="50" t="s">
         <v>2017</v>
@@ -15875,7 +15872,7 @@
     </row>
     <row r="182" spans="1:18" ht="15.75" thickBot="1">
       <c r="B182" t="s">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="F182" s="32"/>
       <c r="G182" s="50" t="s">
@@ -15897,7 +15894,7 @@
     </row>
     <row r="183" spans="1:18">
       <c r="B183" t="s">
-        <v>3013</v>
+        <v>3008</v>
       </c>
       <c r="F183" s="32"/>
       <c r="G183" s="50" t="s">
@@ -15955,7 +15952,7 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186" t="s">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="F186" s="32"/>
       <c r="G186" s="50"/>
@@ -15997,7 +15994,7 @@
     </row>
     <row r="188" spans="1:18" ht="15.75" thickBot="1">
       <c r="B188" t="s">
-        <v>3032</v>
+        <v>3027</v>
       </c>
       <c r="F188" s="32"/>
       <c r="G188" s="26"/>
@@ -16019,7 +16016,7 @@
       </c>
       <c r="F189" s="32"/>
       <c r="G189" t="s">
-        <v>3039</v>
+        <v>3034</v>
       </c>
       <c r="H189" s="26"/>
       <c r="I189" s="26"/>
@@ -16035,7 +16032,7 @@
     </row>
     <row r="190" spans="1:18">
       <c r="B190" t="s">
-        <v>3010</v>
+        <v>3005</v>
       </c>
       <c r="F190" s="32"/>
       <c r="G190" s="26"/>
@@ -16071,7 +16068,7 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192" t="s">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="F192" s="32"/>
       <c r="G192" s="26"/>
@@ -16107,11 +16104,11 @@
     </row>
     <row r="194" spans="1:18">
       <c r="B194" t="s">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="F194" s="32"/>
       <c r="G194" s="26" t="s">
-        <v>3038</v>
+        <v>3033</v>
       </c>
       <c r="H194" s="26"/>
       <c r="I194" s="26"/>
@@ -16131,7 +16128,7 @@
       </c>
       <c r="F195" s="32"/>
       <c r="G195" s="26" t="s">
-        <v>3037</v>
+        <v>3032</v>
       </c>
       <c r="H195" s="26"/>
       <c r="I195" s="26"/>
@@ -16147,7 +16144,7 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" t="s">
-        <v>3035</v>
+        <v>3030</v>
       </c>
       <c r="F196" s="32"/>
       <c r="G196" s="37"/>
@@ -16165,7 +16162,7 @@
     </row>
     <row r="197" spans="1:18">
       <c r="B197" t="s">
-        <v>3036</v>
+        <v>3031</v>
       </c>
       <c r="F197" s="32"/>
       <c r="G197" s="26"/>
@@ -18594,7 +18591,7 @@
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56" t="s">
-        <v>3046</v>
+        <v>3041</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
@@ -18616,7 +18613,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
       <c r="E4" s="126" t="s">
-        <v>3028</v>
+        <v>3023</v>
       </c>
       <c r="F4" s="64"/>
       <c r="G4" s="56"/>
@@ -18680,7 +18677,7 @@
         <v>576</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>3047</v>
+        <v>3042</v>
       </c>
       <c r="F7" s="56" t="s">
         <v>589</v>
@@ -18697,7 +18694,7 @@
       </c>
       <c r="N7" s="56"/>
       <c r="O7" t="s">
-        <v>3030</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -18706,7 +18703,7 @@
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="126" t="s">
-        <v>3027</v>
+        <v>3022</v>
       </c>
       <c r="F8" s="56" t="s">
         <v>590</v>
@@ -18726,7 +18723,7 @@
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="150"/>
-      <c r="F9" s="285"/>
+      <c r="F9" s="283"/>
       <c r="G9" s="56"/>
       <c r="H9" s="64"/>
       <c r="I9" s="56"/>
@@ -18771,7 +18768,7 @@
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
       <c r="F11" s="126" t="s">
-        <v>3048</v>
+        <v>3043</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="60" t="s">
@@ -18888,7 +18885,7 @@
       </c>
       <c r="B16" s="56"/>
       <c r="C16" s="126" t="s">
-        <v>3053</v>
+        <v>3048</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>581</v>
@@ -18947,8 +18944,8 @@
       <c r="H18" s="151" t="s">
         <v>1724</v>
       </c>
-      <c r="I18" s="289" t="s">
-        <v>3052</v>
+      <c r="I18" s="287" t="s">
+        <v>3047</v>
       </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56" t="s">
@@ -18975,8 +18972,8 @@
       <c r="F19" s="95"/>
       <c r="G19" s="148"/>
       <c r="H19" s="151"/>
-      <c r="I19" s="289" t="s">
-        <v>3051</v>
+      <c r="I19" s="287" t="s">
+        <v>3046</v>
       </c>
       <c r="J19" s="56"/>
       <c r="K19" s="66" t="s">
@@ -19001,7 +18998,7 @@
         <v>585</v>
       </c>
       <c r="F20" s="126" t="s">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="63" t="s">
@@ -19025,7 +19022,7 @@
         <v>586</v>
       </c>
       <c r="F21" s="126" t="s">
-        <v>3051</v>
+        <v>3046</v>
       </c>
       <c r="G21" s="56"/>
       <c r="H21" s="64" t="s">
@@ -19048,8 +19045,8 @@
       <c r="C22" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="D22" s="288" t="s">
-        <v>3049</v>
+      <c r="D22" s="286" t="s">
+        <v>3044</v>
       </c>
       <c r="E22" s="56" t="s">
         <v>575</v>
@@ -19068,7 +19065,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="126" t="s">
-        <v>3029</v>
+        <v>3024</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="56" t="s">
@@ -19903,7 +19900,7 @@
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="26" t="s">
-        <v>3059</v>
+        <v>3054</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>1438</v>
@@ -19956,7 +19953,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="B6" t="s">
-        <v>3054</v>
+        <v>3049</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="37" t="s">
@@ -19974,7 +19971,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="C7" t="s">
-        <v>3055</v>
+        <v>3050</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="26"/>
@@ -20046,7 +20043,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="26"/>
@@ -20064,7 +20061,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>3057</v>
+        <v>3052</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="26"/>
@@ -20078,7 +20075,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>3058</v>
+        <v>3053</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="26"/>
@@ -21446,10 +21443,10 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="H2" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
       <c r="I2" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="J2" t="s">
         <v>761</v>
@@ -21457,36 +21454,36 @@
     </row>
     <row r="4" spans="2:13">
       <c r="H4" t="s">
-        <v>3064</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="H5" t="s">
-        <v>3065</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="H6" s="55" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:13">
-      <c r="B9" s="297"/>
-      <c r="C9" s="298"/>
-      <c r="D9" s="299"/>
+      <c r="B9" s="295"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="297"/>
       <c r="F9" s="29"/>
       <c r="G9" s="78" t="s">
-        <v>3061</v>
+        <v>3056</v>
       </c>
       <c r="H9" s="31"/>
-      <c r="K9" s="297"/>
-      <c r="L9" s="300" t="s">
-        <v>3061</v>
-      </c>
-      <c r="M9" s="299"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="298" t="s">
+        <v>3056</v>
+      </c>
+      <c r="M9" s="297"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="32"/>
@@ -21526,13 +21523,13 @@
       <c r="C13" s="26"/>
       <c r="D13" s="33"/>
       <c r="E13" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="26"/>
       <c r="H13" s="33"/>
-      <c r="J13" s="290" t="s">
-        <v>3071</v>
+      <c r="J13" s="288" t="s">
+        <v>3066</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="26"/>
@@ -21540,25 +21537,25 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="32" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="33" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="33" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="33" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -21575,41 +21572,41 @@
     <row r="16" spans="2:13">
       <c r="B16" s="32"/>
       <c r="C16" s="26" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="D16" s="33"/>
       <c r="F16" s="32"/>
       <c r="G16" s="26" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="H16" s="33"/>
       <c r="K16" s="32"/>
       <c r="L16" s="26" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="M16" s="33"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="291"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="293"/>
+      <c r="B17" s="289"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="291"/>
       <c r="F17" s="32"/>
       <c r="G17" s="26"/>
       <c r="H17" s="33"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="292"/>
-      <c r="M17" s="293"/>
+      <c r="K17" s="289"/>
+      <c r="L17" s="290"/>
+      <c r="M17" s="291"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B18" s="294"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="296"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="294"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
-      <c r="K18" s="294"/>
-      <c r="L18" s="295"/>
-      <c r="M18" s="296"/>
+      <c r="K18" s="292"/>
+      <c r="L18" s="293"/>
+      <c r="M18" s="294"/>
     </row>
     <row r="19" spans="2:13">
       <c r="C19" t="s">
@@ -21671,7 +21668,7 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" t="s">
-        <v>3060</v>
+        <v>3055</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="26" t="s">
@@ -24339,7 +24336,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="E1" t="s">
-        <v>3077</v>
+        <v>3072</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -24360,25 +24357,25 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="310"/>
-      <c r="L3" s="311"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="308"/>
+      <c r="K3" s="308"/>
+      <c r="L3" s="309"/>
       <c r="P3" t="s">
-        <v>3078</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="E5" t="s">
-        <v>3074</v>
+        <v>3069</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -24392,35 +24389,35 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
       <c r="P5" t="s">
-        <v>3080</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="E6" t="s">
-        <v>3075</v>
+        <v>3070</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="312" t="s">
-        <v>3072</v>
-      </c>
-      <c r="H6" s="313"/>
+      <c r="G6" s="310" t="s">
+        <v>3067</v>
+      </c>
+      <c r="H6" s="311"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="312" t="s">
+      <c r="J6" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="313"/>
+      <c r="K6" s="311"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="312" t="s">
+      <c r="M6" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="313"/>
+      <c r="N6" s="311"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
@@ -24434,20 +24431,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="314" t="s">
+      <c r="G8" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="315"/>
+      <c r="H8" s="313"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="314" t="s">
+      <c r="J8" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="315"/>
+      <c r="K8" s="313"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="314" t="s">
+      <c r="M8" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="315"/>
+      <c r="N8" s="313"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -24463,29 +24460,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="305" t="s">
-        <v>3073</v>
-      </c>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
-      <c r="I10" s="306"/>
-      <c r="J10" s="306"/>
-      <c r="K10" s="306"/>
-      <c r="L10" s="306"/>
-      <c r="M10" s="306"/>
-      <c r="N10" s="306"/>
+      <c r="F10" s="303" t="s">
+        <v>3068</v>
+      </c>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="304"/>
+      <c r="K10" s="304"/>
+      <c r="L10" s="304"/>
+      <c r="M10" s="304"/>
+      <c r="N10" s="304"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="307"/>
-      <c r="G11" s="308"/>
-      <c r="H11" s="308"/>
-      <c r="I11" s="308"/>
-      <c r="J11" s="308"/>
-      <c r="K11" s="308"/>
-      <c r="L11" s="308"/>
-      <c r="M11" s="308"/>
-      <c r="N11" s="308"/>
+      <c r="F11" s="305"/>
+      <c r="G11" s="306"/>
+      <c r="H11" s="306"/>
+      <c r="I11" s="306"/>
+      <c r="J11" s="306"/>
+      <c r="K11" s="306"/>
+      <c r="L11" s="306"/>
+      <c r="M11" s="306"/>
+      <c r="N11" s="306"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -24536,7 +24533,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
       <c r="P14" t="s">
-        <v>3090</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -24561,7 +24558,7 @@
       <c r="M15" s="137"/>
       <c r="N15" s="18"/>
       <c r="P15" t="s">
-        <v>3089</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1">
@@ -24579,10 +24576,10 @@
       <c r="M16" s="17"/>
       <c r="N16" s="18"/>
       <c r="P16" t="s">
-        <v>3087</v>
+        <v>3082</v>
       </c>
       <c r="Q16" t="s">
-        <v>3088</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -24601,10 +24598,10 @@
       <c r="M17" s="17"/>
       <c r="N17" s="18"/>
       <c r="P17" t="s">
-        <v>3085</v>
+        <v>3080</v>
       </c>
       <c r="Q17" t="s">
-        <v>3086</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -24622,10 +24619,10 @@
       </c>
       <c r="N18" s="18"/>
       <c r="P18" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="Q18" s="143" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -24648,10 +24645,10 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="P19" t="s">
-        <v>3081</v>
+        <v>3076</v>
       </c>
       <c r="Q19" s="143" t="s">
-        <v>3082</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1">
@@ -24662,7 +24659,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
       <c r="J20" s="16" t="s">
-        <v>3109</v>
+        <v>3104</v>
       </c>
       <c r="K20" s="18">
         <v>1234</v>
@@ -24679,7 +24676,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
       <c r="J21" s="16" t="s">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="K21" s="18">
         <v>100</v>
@@ -24708,7 +24705,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="304"/>
+      <c r="J23" s="302"/>
       <c r="K23" s="21"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -24716,7 +24713,7 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1">
       <c r="I27" t="s">
-        <v>3127</v>
+        <v>3122</v>
       </c>
       <c r="K27" s="165"/>
     </row>
@@ -24726,7 +24723,7 @@
     <row r="29" spans="1:17">
       <c r="G29" s="26"/>
       <c r="J29" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -24800,22 +24797,22 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>3095</v>
+        <v>3090</v>
       </c>
       <c r="I32" s="133" t="s">
-        <v>3094</v>
+        <v>3089</v>
       </c>
       <c r="J32" s="133" t="s">
-        <v>3093</v>
+        <v>3088</v>
       </c>
       <c r="K32" s="133" t="s">
-        <v>3092</v>
+        <v>3087</v>
       </c>
       <c r="L32" s="133" t="s">
-        <v>3091</v>
+        <v>3086</v>
       </c>
       <c r="M32" s="133" t="s">
         <v>2758</v>
@@ -25458,7 +25455,7 @@
         <v>1884</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="F145" s="42" t="s">
         <v>1885</v>
@@ -25477,24 +25474,24 @@
         <v>2638</v>
       </c>
       <c r="H149" t="s">
-        <v>3098</v>
+        <v>3093</v>
       </c>
       <c r="J149" t="s">
-        <v>3099</v>
+        <v>3094</v>
       </c>
       <c r="O149" t="s">
         <v>1902</v>
       </c>
       <c r="Q149" t="s">
-        <v>3104</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="150" spans="2:17">
       <c r="K150" t="s">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="O150" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="151" spans="2:17">
@@ -25512,18 +25509,18 @@
     </row>
     <row r="155" spans="2:17">
       <c r="J155" t="s">
-        <v>3100</v>
+        <v>3095</v>
       </c>
       <c r="O155" t="s">
         <v>1670</v>
       </c>
       <c r="Q155" t="s">
-        <v>3105</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="156" spans="2:17">
       <c r="O156" t="s">
-        <v>3108</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="158" spans="2:17">
@@ -25536,24 +25533,24 @@
     </row>
     <row r="161" spans="1:10">
       <c r="C161" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="J161" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="C165" t="s">
-        <v>3103</v>
+        <v>3098</v>
       </c>
       <c r="H165" t="s">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="J165" t="s">
-        <v>3103</v>
+        <v>3098</v>
       </c>
     </row>
   </sheetData>
@@ -28552,7 +28549,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="321" t="s">
+      <c r="O235" s="319" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -28577,7 +28574,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="321"/>
+      <c r="O236" s="319"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -28600,7 +28597,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="321"/>
+      <c r="O237" s="319"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -28623,7 +28620,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="321"/>
+      <c r="O238" s="319"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -28640,7 +28637,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="321"/>
+      <c r="O239" s="319"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -28659,7 +28656,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="321"/>
+      <c r="O240" s="319"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -28684,7 +28681,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="321"/>
+      <c r="O241" s="319"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -28703,7 +28700,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="321"/>
+      <c r="O242" s="319"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -41894,11 +41891,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="322" t="s">
+      <c r="M6" s="320" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="322"/>
-      <c r="O6" s="322"/>
+      <c r="N6" s="320"/>
+      <c r="O6" s="320"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -43715,23 +43712,23 @@
       </c>
     </row>
     <row r="210" spans="2:18">
-      <c r="D210" s="282"/>
-      <c r="E210" s="282"/>
-      <c r="F210" s="282"/>
-      <c r="G210" s="282"/>
-      <c r="H210" s="286">
+      <c r="D210" s="280"/>
+      <c r="E210" s="280"/>
+      <c r="F210" s="280"/>
+      <c r="G210" s="280"/>
+      <c r="H210" s="284">
         <v>1</v>
       </c>
-      <c r="I210" s="286">
+      <c r="I210" s="284">
         <v>1</v>
       </c>
-      <c r="J210" s="286">
+      <c r="J210" s="284">
         <v>0</v>
       </c>
-      <c r="K210" s="286">
+      <c r="K210" s="284">
         <v>0</v>
       </c>
-      <c r="L210" s="287">
+      <c r="L210" s="285">
         <v>12</v>
       </c>
       <c r="N210" s="73">
@@ -43746,19 +43743,19 @@
       <c r="E211" s="56"/>
       <c r="F211" s="56"/>
       <c r="G211" s="56"/>
-      <c r="H211" s="287">
+      <c r="H211" s="285">
         <v>1</v>
       </c>
-      <c r="I211" s="287">
+      <c r="I211" s="285">
         <v>0</v>
       </c>
-      <c r="J211" s="287">
+      <c r="J211" s="285">
         <v>1</v>
       </c>
-      <c r="K211" s="287">
+      <c r="K211" s="285">
         <v>0</v>
       </c>
-      <c r="L211" s="287">
+      <c r="L211" s="285">
         <v>10</v>
       </c>
     </row>
@@ -43776,7 +43773,7 @@
         <v>0</v>
       </c>
       <c r="M212" t="s">
-        <v>3042</v>
+        <v>3037</v>
       </c>
       <c r="N212" s="73">
         <v>8</v>
@@ -43796,13 +43793,13 @@
         <v>0</v>
       </c>
       <c r="M213" t="s">
-        <v>3043</v>
+        <v>3038</v>
       </c>
       <c r="N213" s="73">
         <v>14</v>
       </c>
       <c r="P213" t="s">
-        <v>3125</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="214" spans="2:18">
@@ -43819,25 +43816,25 @@
         <v>0</v>
       </c>
       <c r="M214" t="s">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="N214" s="73">
         <v>6</v>
       </c>
       <c r="P214" t="s">
-        <v>3126</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="217" spans="2:18">
       <c r="N217" t="s">
-        <v>3045</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="218" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="219" spans="2:18">
       <c r="D219" s="29"/>
       <c r="E219" s="30" t="s">
-        <v>3120</v>
+        <v>3115</v>
       </c>
       <c r="F219" s="31"/>
       <c r="H219" s="29" t="s">
@@ -43845,7 +43842,7 @@
       </c>
       <c r="I219" s="31"/>
       <c r="K219" s="29" t="s">
-        <v>3111</v>
+        <v>3106</v>
       </c>
       <c r="L219" s="31"/>
     </row>
@@ -43856,11 +43853,11 @@
       </c>
       <c r="F220" s="33"/>
       <c r="H220" s="32" t="s">
-        <v>3112</v>
+        <v>3107</v>
       </c>
       <c r="I220" s="33"/>
       <c r="K220" s="32" t="s">
-        <v>3113</v>
+        <v>3108</v>
       </c>
       <c r="L220" s="33"/>
     </row>
@@ -43870,7 +43867,7 @@
       </c>
       <c r="D221" s="32"/>
       <c r="E221" s="26" t="s">
-        <v>3121</v>
+        <v>3116</v>
       </c>
       <c r="F221" s="33"/>
       <c r="H221" s="32"/>
@@ -43881,13 +43878,13 @@
         <v>37</v>
       </c>
       <c r="O221" t="s">
-        <v>3124</v>
+        <v>3119</v>
       </c>
       <c r="P221" t="s">
         <v>2446</v>
       </c>
       <c r="Q221" t="s">
-        <v>3124</v>
+        <v>3119</v>
       </c>
       <c r="R221" t="s">
         <v>36</v>
@@ -43911,11 +43908,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="316" t="s">
+      <c r="D223" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="318"/>
-      <c r="F223" s="317"/>
+      <c r="E223" s="316"/>
+      <c r="F223" s="315"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -43930,19 +43927,19 @@
       </c>
       <c r="D224" s="32"/>
       <c r="E224" s="37" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="F224" s="33"/>
       <c r="H224" s="37" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="I224" s="33"/>
       <c r="K224" s="37" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="L224" s="33"/>
       <c r="P224" t="s">
-        <v>3123</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="225" spans="2:12">
@@ -43967,32 +43964,32 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="316" t="s">
+      <c r="D227" s="314" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="318"/>
-      <c r="F227" s="317"/>
-      <c r="H227" s="316" t="s">
+      <c r="E227" s="316"/>
+      <c r="F227" s="315"/>
+      <c r="H227" s="314" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="317"/>
-      <c r="K227" s="316" t="s">
+      <c r="I227" s="315"/>
+      <c r="K227" s="314" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="317"/>
+      <c r="L227" s="315"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
-        <v>3119</v>
+        <v>3114</v>
       </c>
       <c r="E228" s="26"/>
       <c r="F228" s="33"/>
       <c r="H228" s="32" t="s">
-        <v>3115</v>
+        <v>3110</v>
       </c>
       <c r="I228" s="33"/>
       <c r="K228" s="32" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="L228" s="33"/>
     </row>
@@ -44007,16 +44004,16 @@
     </row>
     <row r="230" spans="2:12" ht="15.75" thickBot="1">
       <c r="D230" s="34" t="s">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="E230" s="35"/>
       <c r="F230" s="36"/>
       <c r="H230" s="34" t="s">
-        <v>3114</v>
+        <v>3109</v>
       </c>
       <c r="I230" s="36"/>
       <c r="K230" s="34" t="s">
-        <v>3116</v>
+        <v>3111</v>
       </c>
       <c r="L230" s="36"/>
     </row>
@@ -44232,7 +44229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:H8"/>
     </sheetView>
   </sheetViews>
@@ -44245,7 +44242,7 @@
     <row r="1" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:17">
       <c r="B2" s="29" t="s">
-        <v>3135</v>
+        <v>3130</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="31"/>
@@ -44255,7 +44252,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
       <c r="J2" s="29" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
@@ -44317,7 +44314,7 @@
         <v>177</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>3140</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -44326,7 +44323,7 @@
         <v>2344</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="26" t="s">
@@ -44348,16 +44345,16 @@
         <v>187</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="32"/>
       <c r="C6" s="26" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>3136</v>
+        <v>3131</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="26" t="s">
@@ -44384,7 +44381,7 @@
         <v>180</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="26" t="s">
@@ -44426,7 +44423,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="26"/>
       <c r="H11" s="33" t="s">
-        <v>3142</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -44450,7 +44447,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>3128</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -44464,32 +44461,32 @@
     </row>
     <row r="17" spans="3:15">
       <c r="C17" t="s">
-        <v>3129</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="18" spans="3:15">
       <c r="C18" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="19" spans="3:15">
       <c r="C19" t="s">
-        <v>3131</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="20" spans="3:15">
       <c r="C20" t="s">
-        <v>3132</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="21" spans="3:15">
       <c r="C21" t="s">
-        <v>3133</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="22" spans="3:15">
       <c r="D22" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -45603,28 +45600,28 @@
       <c r="A282">
         <v>0</v>
       </c>
-      <c r="G282" s="303">
+      <c r="G282" s="301">
         <v>0</v>
       </c>
-      <c r="H282" s="303">
+      <c r="H282" s="301">
         <v>1</v>
       </c>
-      <c r="I282" s="303">
+      <c r="I282" s="301">
         <v>1</v>
       </c>
-      <c r="J282" s="303">
+      <c r="J282" s="301">
         <v>1</v>
       </c>
-      <c r="K282" s="303">
+      <c r="K282" s="301">
         <v>1</v>
       </c>
-      <c r="L282" s="303">
+      <c r="L282" s="301">
         <v>1</v>
       </c>
-      <c r="M282" s="303">
+      <c r="M282" s="301">
         <v>1</v>
       </c>
-      <c r="N282" s="303">
+      <c r="N282" s="301">
         <v>1</v>
       </c>
       <c r="O282" s="250"/>
@@ -45787,7 +45784,7 @@
       <c r="F298" s="38">
         <v>9</v>
       </c>
-      <c r="G298" s="301" t="s">
+      <c r="G298" s="299" t="s">
         <v>2854</v>
       </c>
       <c r="I298" s="55" t="s">
@@ -45808,7 +45805,7 @@
       <c r="F299" s="38">
         <v>15</v>
       </c>
-      <c r="G299" s="302"/>
+      <c r="G299" s="300"/>
       <c r="I299" s="171" t="s">
         <v>2850</v>
       </c>
@@ -45891,24 +45888,24 @@
       <c r="P304" s="36"/>
     </row>
     <row r="311" spans="3:14" ht="18">
-      <c r="C311" s="283" t="s">
-        <v>3018</v>
+      <c r="C311" s="281" t="s">
+        <v>3013</v>
       </c>
     </row>
     <row r="312" spans="3:14" ht="18">
-      <c r="D312" s="283" t="s">
-        <v>3019</v>
+      <c r="D312" s="281" t="s">
+        <v>3014</v>
       </c>
       <c r="N312" t="s">
-        <v>3026</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="313" spans="3:14" ht="18">
-      <c r="D313" s="284" t="s">
+      <c r="D313" s="282" t="s">
+        <v>3015</v>
+      </c>
+      <c r="N313" t="s">
         <v>3020</v>
-      </c>
-      <c r="N313" t="s">
-        <v>3025</v>
       </c>
     </row>
     <row r="315" spans="3:14">
@@ -45982,18 +45979,18 @@
       </c>
     </row>
     <row r="318" spans="3:14">
-      <c r="C318" s="303"/>
-      <c r="D318" s="303"/>
-      <c r="E318" s="303"/>
-      <c r="F318" s="303"/>
-      <c r="G318" s="303"/>
-      <c r="H318" s="303">
+      <c r="C318" s="301"/>
+      <c r="D318" s="301"/>
+      <c r="E318" s="301"/>
+      <c r="F318" s="301"/>
+      <c r="G318" s="301"/>
+      <c r="H318" s="301">
         <v>1</v>
       </c>
-      <c r="I318" s="303">
+      <c r="I318" s="301">
         <v>0</v>
       </c>
-      <c r="J318" s="303">
+      <c r="J318" s="301">
         <v>1</v>
       </c>
       <c r="K318" s="56">
@@ -46046,10 +46043,10 @@
         <v>0</v>
       </c>
       <c r="K321" s="56" t="s">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="L321" t="s">
-        <v>3022</v>
+        <v>3017</v>
       </c>
       <c r="N321">
         <v>4</v>
@@ -46071,7 +46068,7 @@
         <v>1</v>
       </c>
       <c r="K322" s="56" t="s">
-        <v>3023</v>
+        <v>3018</v>
       </c>
       <c r="N322">
         <v>5</v>
@@ -46093,7 +46090,7 @@
         <v>1</v>
       </c>
       <c r="K323" s="56" t="s">
-        <v>3024</v>
+        <v>3019</v>
       </c>
       <c r="N323">
         <v>1</v>
@@ -47364,8 +47361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R411"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47383,23 +47380,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="318" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="I1" s="320" t="s">
-        <v>2945</v>
-      </c>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
-      <c r="N1" s="320"/>
-      <c r="O1" s="320"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="I1" s="318" t="s">
+        <v>2943</v>
+      </c>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -47414,7 +47411,7 @@
         <v>366</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="J3" t="s">
         <v>217</v>
@@ -47440,10 +47437,10 @@
         <v>2932</v>
       </c>
       <c r="F4" s="153" t="s">
-        <v>2948</v>
-      </c>
-      <c r="G4" s="267" t="s">
-        <v>2949</v>
+        <v>2946</v>
+      </c>
+      <c r="G4" s="321" t="s">
+        <v>3139</v>
       </c>
       <c r="J4" t="s">
         <v>366</v>
@@ -47465,7 +47462,7 @@
         <v>1773</v>
       </c>
       <c r="F6" t="s">
-        <v>3000</v>
+        <v>2995</v>
       </c>
       <c r="K6" s="163" t="s">
         <v>2937</v>
@@ -47483,7 +47480,7 @@
       </c>
       <c r="D7" s="107"/>
       <c r="F7" t="s">
-        <v>2997</v>
+        <v>2992</v>
       </c>
       <c r="K7" s="266" t="s">
         <v>2939</v>
@@ -47500,24 +47497,18 @@
         <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>2999</v>
-      </c>
-      <c r="K8" s="268" t="s">
-        <v>2950</v>
-      </c>
-      <c r="L8" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>2951</v>
-      </c>
+        <v>2994</v>
+      </c>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>2998</v>
+        <v>2993</v>
       </c>
       <c r="K9" s="63" t="s">
         <v>2940</v>
@@ -47529,16 +47520,16 @@
         <v>2941</v>
       </c>
       <c r="N9" s="163" t="s">
+        <v>3141</v>
+      </c>
+      <c r="O9" s="266" t="s">
+        <v>3140</v>
+      </c>
+      <c r="P9" s="322" t="s">
+        <v>3138</v>
+      </c>
+      <c r="Q9" s="56" t="s">
         <v>2942</v>
-      </c>
-      <c r="O9" s="266" t="s">
-        <v>2943</v>
-      </c>
-      <c r="P9" s="268" t="s">
-        <v>1260</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>2944</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -47546,7 +47537,7 @@
         <v>144</v>
       </c>
       <c r="M10" s="124" t="s">
-        <v>2962</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
@@ -47555,32 +47546,32 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="312" t="s">
-        <v>2947</v>
-      </c>
-      <c r="B12" s="319"/>
-      <c r="C12" s="319"/>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="319"/>
-      <c r="H12" s="313"/>
-      <c r="I12" s="312" t="s">
-        <v>2947</v>
-      </c>
-      <c r="J12" s="319"/>
-      <c r="K12" s="319"/>
-      <c r="L12" s="319"/>
-      <c r="M12" s="319"/>
-      <c r="N12" s="319"/>
-      <c r="O12" s="319"/>
-      <c r="P12" s="319"/>
-      <c r="Q12" s="319"/>
-      <c r="R12" s="313"/>
+      <c r="A12" s="310" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B12" s="317"/>
+      <c r="C12" s="317"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="317"/>
+      <c r="F12" s="317"/>
+      <c r="G12" s="317"/>
+      <c r="H12" s="311"/>
+      <c r="I12" s="310" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J12" s="317"/>
+      <c r="K12" s="317"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="317"/>
+      <c r="N12" s="317"/>
+      <c r="O12" s="317"/>
+      <c r="P12" s="317"/>
+      <c r="Q12" s="317"/>
+      <c r="R12" s="311"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
-        <v>2996</v>
+        <v>2991</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -47590,13 +47581,13 @@
       <c r="G13" s="30"/>
       <c r="H13" s="31"/>
       <c r="I13" s="32" t="s">
-        <v>3002</v>
+        <v>2997</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
@@ -47607,24 +47598,24 @@
     <row r="14" spans="1:18">
       <c r="A14" s="32"/>
       <c r="B14" s="26" t="s">
-        <v>2965</v>
+        <v>2960</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>2964</v>
+        <v>2959</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="33"/>
       <c r="I14" s="32" t="s">
-        <v>3003</v>
+        <v>2998</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26" t="s">
-        <v>2952</v>
+        <v>2947</v>
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
@@ -47638,18 +47629,18 @@
         <v>1685</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>2967</v>
+        <v>2962</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>2968</v>
+        <v>2963</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="33"/>
       <c r="I15" s="32"/>
       <c r="J15" s="26" t="s">
-        <v>2955</v>
+        <v>2950</v>
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
@@ -47663,21 +47654,21 @@
     <row r="16" spans="1:18">
       <c r="A16" s="32"/>
       <c r="B16" s="26" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>2969</v>
+        <v>2964</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>2970</v>
+        <v>2965</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="33"/>
       <c r="I16" s="32"/>
       <c r="J16" s="26" t="s">
-        <v>2956</v>
+        <v>2951</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
@@ -47691,26 +47682,26 @@
     <row r="17" spans="1:18">
       <c r="A17" s="32"/>
       <c r="B17" s="37" t="s">
-        <v>2971</v>
+        <v>2966</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>2972</v>
+        <v>2967</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="37" t="s">
-        <v>2973</v>
+        <v>2968</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="33"/>
       <c r="I17" s="32" t="s">
-        <v>3004</v>
+        <v>2999</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26" t="s">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
@@ -47720,7 +47711,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="32" t="s">
-        <v>2959</v>
+        <v>2954</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -47730,7 +47721,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="33"/>
       <c r="I18" s="32" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -47745,7 +47736,7 @@
     <row r="19" spans="1:18">
       <c r="A19" s="32"/>
       <c r="B19" s="26" t="s">
-        <v>2963</v>
+        <v>2958</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -47755,7 +47746,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="32"/>
       <c r="J19" s="26" t="s">
-        <v>2958</v>
+        <v>2953</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
@@ -47768,7 +47759,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="32" t="s">
-        <v>2960</v>
+        <v>2955</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -47784,7 +47775,7 @@
     <row r="21" spans="1:18" ht="15.75" thickBot="1">
       <c r="A21" s="34"/>
       <c r="B21" s="35" t="s">
-        <v>2961</v>
+        <v>2956</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -47804,32 +47795,32 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="320" t="s">
+      <c r="A24" s="318" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="320"/>
-      <c r="C24" s="320"/>
-      <c r="D24" s="320"/>
-      <c r="E24" s="320"/>
-      <c r="F24" s="320"/>
-      <c r="H24" s="273" t="s">
-        <v>2945</v>
-      </c>
-      <c r="I24" s="273"/>
-      <c r="J24" s="273"/>
-      <c r="K24" s="273"/>
-      <c r="L24" s="273"/>
-      <c r="M24" s="273"/>
-      <c r="N24" s="273"/>
-      <c r="P24" s="320" t="s">
-        <v>2986</v>
-      </c>
-      <c r="Q24" s="320"/>
-      <c r="R24" s="320"/>
+      <c r="B24" s="318"/>
+      <c r="C24" s="318"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="H24" s="271" t="s">
+        <v>2943</v>
+      </c>
+      <c r="I24" s="271"/>
+      <c r="J24" s="271"/>
+      <c r="K24" s="271"/>
+      <c r="L24" s="271"/>
+      <c r="M24" s="271"/>
+      <c r="N24" s="271"/>
+      <c r="P24" s="318" t="s">
+        <v>2981</v>
+      </c>
+      <c r="Q24" s="318"/>
+      <c r="R24" s="318"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
-        <v>2977</v>
+        <v>2972</v>
       </c>
       <c r="B25" s="105"/>
       <c r="C25" s="105"/>
@@ -47838,7 +47829,7 @@
       <c r="F25" s="105"/>
       <c r="G25" s="105"/>
       <c r="H25" s="105" t="s">
-        <v>2976</v>
+        <v>2971</v>
       </c>
       <c r="I25" s="105"/>
       <c r="J25" s="105"/>
@@ -47857,7 +47848,7 @@
         <v>366</v>
       </c>
       <c r="B26" s="105"/>
-      <c r="C26" s="269"/>
+      <c r="C26" s="267"/>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
       <c r="F26" s="105"/>
@@ -47886,13 +47877,13 @@
         <v>180</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>2974</v>
-      </c>
-      <c r="E27" s="271"/>
-      <c r="F27" s="270"/>
+        <v>2969</v>
+      </c>
+      <c r="E27" s="269"/>
+      <c r="F27" s="268"/>
       <c r="G27" s="105"/>
       <c r="H27" s="105" t="s">
-        <v>2978</v>
+        <v>2973</v>
       </c>
       <c r="I27" s="105"/>
       <c r="J27" s="105"/>
@@ -47917,15 +47908,15 @@
       <c r="F28" s="105"/>
       <c r="G28" s="105"/>
       <c r="H28" s="105" t="s">
-        <v>2979</v>
-      </c>
-      <c r="I28" s="280" t="s">
-        <v>2989</v>
+        <v>2974</v>
+      </c>
+      <c r="I28" s="278" t="s">
+        <v>2984</v>
       </c>
       <c r="J28" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="K28" s="272" t="s">
+      <c r="K28" s="270" t="s">
         <v>1853</v>
       </c>
       <c r="L28" s="105"/>
@@ -47956,9 +47947,9 @@
         <v>2938</v>
       </c>
       <c r="L29" s="106"/>
-      <c r="M29" s="278"/>
-      <c r="N29" s="279"/>
-      <c r="O29" s="279"/>
+      <c r="M29" s="276"/>
+      <c r="N29" s="277"/>
+      <c r="O29" s="277"/>
       <c r="Q29" s="105"/>
     </row>
     <row r="30" spans="1:18">
@@ -47969,13 +47960,13 @@
       <c r="G30" s="105"/>
       <c r="H30" s="105"/>
       <c r="I30" s="105" t="s">
-        <v>2981</v>
+        <v>2976</v>
       </c>
       <c r="J30" s="56"/>
       <c r="L30" s="106"/>
       <c r="M30" s="106"/>
-      <c r="N30" s="279"/>
-      <c r="O30" s="279"/>
+      <c r="N30" s="277"/>
+      <c r="O30" s="277"/>
       <c r="P30" s="105"/>
       <c r="Q30" s="105"/>
     </row>
@@ -47983,30 +47974,30 @@
       <c r="A31" s="105"/>
       <c r="B31" s="105"/>
       <c r="C31" s="105" t="s">
-        <v>2975</v>
+        <v>2970</v>
       </c>
       <c r="D31" s="171"/>
       <c r="E31" s="105"/>
       <c r="F31" s="105"/>
       <c r="G31" s="105"/>
       <c r="H31" s="105"/>
-      <c r="I31" s="275" t="s">
-        <v>2982</v>
+      <c r="I31" s="273" t="s">
+        <v>2977</v>
       </c>
       <c r="J31" s="106" t="s">
         <v>293</v>
       </c>
       <c r="K31" s="106" t="s">
+        <v>2978</v>
+      </c>
+      <c r="L31" s="272" t="s">
+        <v>2979</v>
+      </c>
+      <c r="M31" s="191" t="s">
+        <v>2980</v>
+      </c>
+      <c r="N31" s="279" t="s">
         <v>2983</v>
-      </c>
-      <c r="L31" s="274" t="s">
-        <v>2984</v>
-      </c>
-      <c r="M31" s="191" t="s">
-        <v>2985</v>
-      </c>
-      <c r="N31" s="281" t="s">
-        <v>2988</v>
       </c>
       <c r="O31" s="105"/>
       <c r="P31" s="105"/>
@@ -48024,7 +48015,7 @@
       <c r="G32" s="105"/>
       <c r="H32" s="105"/>
       <c r="I32" s="105" t="s">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="L32" t="s">
         <v>524</v>
@@ -48046,14 +48037,14 @@
       <c r="G33" s="105"/>
       <c r="H33" s="105"/>
       <c r="I33" s="105" t="s">
-        <v>2991</v>
+        <v>2986</v>
       </c>
       <c r="J33" s="105"/>
       <c r="K33" s="105"/>
       <c r="L33">
         <v>10</v>
       </c>
-      <c r="M33" s="276"/>
+      <c r="M33" s="274"/>
       <c r="N33" s="105"/>
       <c r="O33" s="105"/>
       <c r="P33" s="105"/>
@@ -48065,32 +48056,32 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="312" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B35" s="319"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="319"/>
-      <c r="E35" s="319"/>
-      <c r="F35" s="319"/>
-      <c r="G35" s="319"/>
-      <c r="H35" s="313"/>
-      <c r="I35" s="312" t="s">
+      <c r="A35" s="310" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B35" s="317"/>
+      <c r="C35" s="317"/>
+      <c r="D35" s="317"/>
+      <c r="E35" s="317"/>
+      <c r="F35" s="317"/>
+      <c r="G35" s="317"/>
+      <c r="H35" s="311"/>
+      <c r="I35" s="310" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="319"/>
-      <c r="K35" s="319"/>
-      <c r="L35" s="319"/>
-      <c r="M35" s="319"/>
-      <c r="N35" s="319"/>
-      <c r="O35" s="319"/>
-      <c r="P35" s="319"/>
-      <c r="Q35" s="319"/>
-      <c r="R35" s="313"/>
+      <c r="J35" s="317"/>
+      <c r="K35" s="317"/>
+      <c r="L35" s="317"/>
+      <c r="M35" s="317"/>
+      <c r="N35" s="317"/>
+      <c r="O35" s="317"/>
+      <c r="P35" s="317"/>
+      <c r="Q35" s="317"/>
+      <c r="R35" s="311"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">
-        <v>2966</v>
+        <v>2961</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -48117,19 +48108,19 @@
     <row r="37" spans="1:18">
       <c r="A37" s="32"/>
       <c r="B37" s="26" t="s">
-        <v>2965</v>
+        <v>2960</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26" t="s">
-        <v>2964</v>
+        <v>2959</v>
       </c>
       <c r="G37" s="26"/>
       <c r="H37" s="33"/>
       <c r="I37" s="32"/>
       <c r="J37" s="50" t="s">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="K37" s="50" t="s">
         <v>413</v>
@@ -48148,16 +48139,16 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="32"/>
-      <c r="B38" s="277" t="s">
-        <v>2980</v>
+      <c r="B38" s="275" t="s">
+        <v>2975</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>2992</v>
+        <v>2987</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26" t="s">
-        <v>2994</v>
+        <v>2989</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="33"/>
@@ -48169,7 +48160,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>3007</v>
+        <v>3002</v>
       </c>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
@@ -48188,12 +48179,12 @@
         <v>1685</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>2993</v>
+        <v>2988</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26" t="s">
-        <v>2995</v>
+        <v>2990</v>
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="33"/>
@@ -48247,10 +48238,10 @@
       <c r="H41" s="33"/>
       <c r="I41" s="32"/>
       <c r="J41" s="73" t="s">
-        <v>3005</v>
+        <v>3000</v>
       </c>
       <c r="K41" s="73" t="s">
-        <v>3006</v>
+        <v>3001</v>
       </c>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
@@ -48323,7 +48314,7 @@
     <row r="45" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="46" spans="1:18" ht="15.75" thickBot="1">
       <c r="B46" t="s">
-        <v>3008</v>
+        <v>3003</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
@@ -48340,7 +48331,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="C47" t="s">
-        <v>3009</v>
+        <v>3004</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="50" t="s">
@@ -48363,11 +48354,11 @@
     </row>
     <row r="48" spans="1:18">
       <c r="C48" t="s">
-        <v>3017</v>
+        <v>3012</v>
       </c>
       <c r="G48" s="32"/>
       <c r="H48" s="56" t="s">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="I48" s="50" t="s">
         <v>2017</v>
@@ -48388,7 +48379,7 @@
     </row>
     <row r="49" spans="2:18" ht="15.75" thickBot="1">
       <c r="C49" t="s">
-        <v>3010</v>
+        <v>3005</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="50" t="s">
@@ -48430,7 +48421,7 @@
     </row>
     <row r="51" spans="2:18" ht="15.75" thickBot="1">
       <c r="B51" t="s">
-        <v>3015</v>
+        <v>3010</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="73" t="s">
@@ -48491,7 +48482,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1">
       <c r="C54" t="s">
-        <v>3016</v>
+        <v>3011</v>
       </c>
       <c r="G54" s="32"/>
       <c r="H54" s="26"/>
@@ -48528,7 +48519,7 @@
         <v>2405</v>
       </c>
       <c r="C56" t="s">
-        <v>3014</v>
+        <v>3009</v>
       </c>
       <c r="G56" s="32"/>
       <c r="H56" s="26"/>
@@ -48545,7 +48536,7 @@
     </row>
     <row r="57" spans="2:18">
       <c r="C57" t="s">
-        <v>3011</v>
+        <v>3006</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="26"/>
@@ -48562,7 +48553,7 @@
     </row>
     <row r="58" spans="2:18">
       <c r="C58" t="s">
-        <v>3012</v>
+        <v>3007</v>
       </c>
       <c r="G58" s="32"/>
       <c r="H58" s="26"/>
@@ -48579,7 +48570,7 @@
     </row>
     <row r="59" spans="2:18">
       <c r="C59" t="s">
-        <v>3013</v>
+        <v>3008</v>
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="26"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5803" uniqueCount="3142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5816" uniqueCount="3145">
   <si>
     <t>USER</t>
   </si>
@@ -9731,6 +9731,15 @@
   </si>
   <si>
     <t>x,</t>
+  </si>
+  <si>
+    <t>Enter Amount &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>amount is substracted from total bank balance</t>
+  </si>
+  <si>
+    <t>amount is added to total bank balance</t>
   </si>
 </sst>
 </file>
@@ -10903,6 +10912,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10955,10 +10968,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -24357,13 +24366,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="308"/>
-      <c r="J3" s="308"/>
-      <c r="K3" s="308"/>
-      <c r="L3" s="309"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="311"/>
       <c r="P3" t="s">
         <v>3073</v>
       </c>
@@ -24397,20 +24406,20 @@
         <v>3070</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="310" t="s">
+      <c r="G6" s="312" t="s">
         <v>3067</v>
       </c>
-      <c r="H6" s="311"/>
+      <c r="H6" s="313"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="310" t="s">
+      <c r="J6" s="312" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="311"/>
+      <c r="K6" s="313"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="310" t="s">
+      <c r="M6" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="311"/>
+      <c r="N6" s="313"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -24431,20 +24440,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="312" t="s">
+      <c r="G8" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="313"/>
+      <c r="H8" s="315"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="312" t="s">
+      <c r="J8" s="314" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="313"/>
+      <c r="K8" s="315"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="312" t="s">
+      <c r="M8" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="313"/>
+      <c r="N8" s="315"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -24460,29 +24469,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="303" t="s">
+      <c r="F10" s="305" t="s">
         <v>3068</v>
       </c>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="304"/>
-      <c r="J10" s="304"/>
-      <c r="K10" s="304"/>
-      <c r="L10" s="304"/>
-      <c r="M10" s="304"/>
-      <c r="N10" s="304"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="306"/>
+      <c r="J10" s="306"/>
+      <c r="K10" s="306"/>
+      <c r="L10" s="306"/>
+      <c r="M10" s="306"/>
+      <c r="N10" s="306"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="305"/>
-      <c r="G11" s="306"/>
-      <c r="H11" s="306"/>
-      <c r="I11" s="306"/>
-      <c r="J11" s="306"/>
-      <c r="K11" s="306"/>
-      <c r="L11" s="306"/>
-      <c r="M11" s="306"/>
-      <c r="N11" s="306"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="308"/>
+      <c r="H11" s="308"/>
+      <c r="I11" s="308"/>
+      <c r="J11" s="308"/>
+      <c r="K11" s="308"/>
+      <c r="L11" s="308"/>
+      <c r="M11" s="308"/>
+      <c r="N11" s="308"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -28549,7 +28558,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="319" t="s">
+      <c r="O235" s="321" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -28574,7 +28583,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="319"/>
+      <c r="O236" s="321"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -28597,7 +28606,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="319"/>
+      <c r="O237" s="321"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -28620,7 +28629,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="319"/>
+      <c r="O238" s="321"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -28637,7 +28646,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="319"/>
+      <c r="O239" s="321"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -28656,7 +28665,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="319"/>
+      <c r="O240" s="321"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -28681,7 +28690,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="319"/>
+      <c r="O241" s="321"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -28700,7 +28709,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="319"/>
+      <c r="O242" s="321"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -41891,11 +41900,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="320" t="s">
+      <c r="M6" s="322" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="320"/>
-      <c r="O6" s="320"/>
+      <c r="N6" s="322"/>
+      <c r="O6" s="322"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -43908,11 +43917,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="314" t="s">
+      <c r="D223" s="316" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="316"/>
-      <c r="F223" s="315"/>
+      <c r="E223" s="318"/>
+      <c r="F223" s="317"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -43964,19 +43973,19 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="314" t="s">
+      <c r="D227" s="316" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="316"/>
-      <c r="F227" s="315"/>
-      <c r="H227" s="314" t="s">
+      <c r="E227" s="318"/>
+      <c r="F227" s="317"/>
+      <c r="H227" s="316" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="315"/>
-      <c r="K227" s="314" t="s">
+      <c r="I227" s="317"/>
+      <c r="K227" s="316" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="315"/>
+      <c r="L227" s="317"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -47361,8 +47370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R411"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47380,23 +47389,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="320" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="I1" s="318" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="I1" s="320" t="s">
         <v>2943</v>
       </c>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="318"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="320"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -47439,7 +47448,7 @@
       <c r="F4" s="153" t="s">
         <v>2946</v>
       </c>
-      <c r="G4" s="321" t="s">
+      <c r="G4" s="303" t="s">
         <v>3139</v>
       </c>
       <c r="J4" t="s">
@@ -47525,7 +47534,7 @@
       <c r="O9" s="266" t="s">
         <v>3140</v>
       </c>
-      <c r="P9" s="322" t="s">
+      <c r="P9" s="304" t="s">
         <v>3138</v>
       </c>
       <c r="Q9" s="56" t="s">
@@ -47546,28 +47555,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="310" t="s">
+      <c r="A12" s="312" t="s">
         <v>2945</v>
       </c>
-      <c r="B12" s="317"/>
-      <c r="C12" s="317"/>
-      <c r="D12" s="317"/>
-      <c r="E12" s="317"/>
-      <c r="F12" s="317"/>
-      <c r="G12" s="317"/>
-      <c r="H12" s="311"/>
-      <c r="I12" s="310" t="s">
+      <c r="B12" s="319"/>
+      <c r="C12" s="319"/>
+      <c r="D12" s="319"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="313"/>
+      <c r="I12" s="312" t="s">
         <v>2945</v>
       </c>
-      <c r="J12" s="317"/>
-      <c r="K12" s="317"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="317"/>
-      <c r="N12" s="317"/>
-      <c r="O12" s="317"/>
-      <c r="P12" s="317"/>
-      <c r="Q12" s="317"/>
-      <c r="R12" s="311"/>
+      <c r="J12" s="319"/>
+      <c r="K12" s="319"/>
+      <c r="L12" s="319"/>
+      <c r="M12" s="319"/>
+      <c r="N12" s="319"/>
+      <c r="O12" s="319"/>
+      <c r="P12" s="319"/>
+      <c r="Q12" s="319"/>
+      <c r="R12" s="313"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -47795,14 +47804,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="318" t="s">
+      <c r="A24" s="320" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="318"/>
-      <c r="C24" s="318"/>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
+      <c r="B24" s="320"/>
+      <c r="C24" s="320"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="320"/>
+      <c r="F24" s="320"/>
       <c r="H24" s="271" t="s">
         <v>2943</v>
       </c>
@@ -47812,11 +47821,11 @@
       <c r="L24" s="271"/>
       <c r="M24" s="271"/>
       <c r="N24" s="271"/>
-      <c r="P24" s="318" t="s">
+      <c r="P24" s="320" t="s">
         <v>2981</v>
       </c>
-      <c r="Q24" s="318"/>
-      <c r="R24" s="318"/>
+      <c r="Q24" s="320"/>
+      <c r="R24" s="320"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -48056,28 +48065,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="310" t="s">
+      <c r="A35" s="312" t="s">
         <v>2982</v>
       </c>
-      <c r="B35" s="317"/>
-      <c r="C35" s="317"/>
-      <c r="D35" s="317"/>
-      <c r="E35" s="317"/>
-      <c r="F35" s="317"/>
-      <c r="G35" s="317"/>
-      <c r="H35" s="311"/>
-      <c r="I35" s="310" t="s">
+      <c r="B35" s="319"/>
+      <c r="C35" s="319"/>
+      <c r="D35" s="319"/>
+      <c r="E35" s="319"/>
+      <c r="F35" s="319"/>
+      <c r="G35" s="319"/>
+      <c r="H35" s="313"/>
+      <c r="I35" s="312" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="317"/>
-      <c r="K35" s="317"/>
-      <c r="L35" s="317"/>
-      <c r="M35" s="317"/>
-      <c r="N35" s="317"/>
-      <c r="O35" s="317"/>
-      <c r="P35" s="317"/>
-      <c r="Q35" s="317"/>
-      <c r="R35" s="311"/>
+      <c r="J35" s="319"/>
+      <c r="K35" s="319"/>
+      <c r="L35" s="319"/>
+      <c r="M35" s="319"/>
+      <c r="N35" s="319"/>
+      <c r="O35" s="319"/>
+      <c r="P35" s="319"/>
+      <c r="Q35" s="319"/>
+      <c r="R35" s="313"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">
@@ -48635,6 +48644,68 @@
     </row>
     <row r="63" spans="2:18">
       <c r="B63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="5:16">
+      <c r="I85" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="86" spans="5:16">
+      <c r="I86" t="s">
+        <v>132</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K86" t="s">
+        <v>3144</v>
+      </c>
+      <c r="P86">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="5:16">
+      <c r="F87" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G87">
+        <v>20</v>
+      </c>
+      <c r="I87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="5:16">
+      <c r="G88" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="89" spans="5:16">
+      <c r="I89" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="5:16">
+      <c r="E90" t="s">
+        <v>3105</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="I90" t="s">
+        <v>134</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K90" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="91" spans="5:16">
+      <c r="I91" t="s">
         <v>144</v>
       </c>
     </row>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5816" uniqueCount="3145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="3148">
   <si>
     <t>USER</t>
   </si>
@@ -9740,6 +9740,15 @@
   </si>
   <si>
     <t>amount is added to total bank balance</t>
+  </si>
+  <si>
+    <t>14 &amp; 11</t>
+  </si>
+  <si>
+    <t>14 | 11</t>
+  </si>
+  <si>
+    <t>14 ^ 11</t>
   </si>
 </sst>
 </file>
@@ -10300,7 +10309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10916,6 +10925,12 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -18546,8 +18561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24332,8 +24347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD165"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A32:N33"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24366,13 +24381,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="310"/>
-      <c r="L3" s="311"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="313"/>
       <c r="P3" t="s">
         <v>3073</v>
       </c>
@@ -24406,20 +24421,20 @@
         <v>3070</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="312" t="s">
+      <c r="G6" s="314" t="s">
         <v>3067</v>
       </c>
-      <c r="H6" s="313"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="312" t="s">
+      <c r="J6" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="313"/>
+      <c r="K6" s="315"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="312" t="s">
+      <c r="M6" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="313"/>
+      <c r="N6" s="315"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -24440,20 +24455,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="314" t="s">
+      <c r="G8" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="315"/>
+      <c r="H8" s="317"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="314" t="s">
+      <c r="J8" s="316" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="315"/>
+      <c r="K8" s="317"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="314" t="s">
+      <c r="M8" s="316" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="315"/>
+      <c r="N8" s="317"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -24469,29 +24484,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="305" t="s">
+      <c r="F10" s="307" t="s">
         <v>3068</v>
       </c>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
-      <c r="I10" s="306"/>
-      <c r="J10" s="306"/>
-      <c r="K10" s="306"/>
-      <c r="L10" s="306"/>
-      <c r="M10" s="306"/>
-      <c r="N10" s="306"/>
+      <c r="G10" s="308"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="308"/>
+      <c r="J10" s="308"/>
+      <c r="K10" s="308"/>
+      <c r="L10" s="308"/>
+      <c r="M10" s="308"/>
+      <c r="N10" s="308"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="307"/>
-      <c r="G11" s="308"/>
-      <c r="H11" s="308"/>
-      <c r="I11" s="308"/>
-      <c r="J11" s="308"/>
-      <c r="K11" s="308"/>
-      <c r="L11" s="308"/>
-      <c r="M11" s="308"/>
-      <c r="N11" s="308"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="310"/>
+      <c r="H11" s="310"/>
+      <c r="I11" s="310"/>
+      <c r="J11" s="310"/>
+      <c r="K11" s="310"/>
+      <c r="L11" s="310"/>
+      <c r="M11" s="310"/>
+      <c r="N11" s="310"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -24847,61 +24862,75 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="146">
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="172">
+        <v>1</v>
+      </c>
+      <c r="L33" s="172">
+        <v>1</v>
+      </c>
+      <c r="M33" s="172">
+        <v>1</v>
+      </c>
+      <c r="N33" s="172">
         <v>0</v>
       </c>
-      <c r="H33" s="146">
-        <v>0</v>
-      </c>
-      <c r="I33" s="146">
-        <v>0</v>
-      </c>
-      <c r="J33" s="146">
-        <v>0</v>
-      </c>
-      <c r="K33" s="146">
-        <v>0</v>
-      </c>
-      <c r="L33" s="146">
-        <v>1</v>
-      </c>
-      <c r="M33" s="146">
-        <v>0</v>
-      </c>
-      <c r="N33" s="146">
-        <v>1</v>
-      </c>
       <c r="O33" s="250">
-        <v>127</v>
-      </c>
-      <c r="P33" s="56">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="P33" s="56"/>
     </row>
     <row r="34" spans="2:17 16384:16384">
+      <c r="F34" s="56"/>
       <c r="G34" s="191"/>
       <c r="H34" s="191"/>
       <c r="I34" s="191"/>
       <c r="J34" s="191"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="191"/>
-      <c r="N34" s="191"/>
-      <c r="O34" s="110"/>
+      <c r="K34" s="306">
+        <v>1</v>
+      </c>
+      <c r="L34" s="306">
+        <v>0</v>
+      </c>
+      <c r="M34" s="306">
+        <v>1</v>
+      </c>
+      <c r="N34" s="306">
+        <v>1</v>
+      </c>
+      <c r="O34" s="191">
+        <v>11</v>
+      </c>
       <c r="P34" s="191"/>
       <c r="Q34" s="191"/>
     </row>
     <row r="35" spans="2:17 16384:16384">
+      <c r="F35" s="56"/>
       <c r="G35" s="191"/>
       <c r="H35" s="191"/>
       <c r="I35" s="191"/>
       <c r="J35" s="191"/>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="192"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
+      <c r="K35" s="191">
+        <v>1</v>
+      </c>
+      <c r="L35" s="192">
+        <v>0</v>
+      </c>
+      <c r="M35" s="192">
+        <v>1</v>
+      </c>
+      <c r="N35" s="192">
+        <v>0</v>
+      </c>
+      <c r="O35" s="191" t="s">
+        <v>3145</v>
+      </c>
+      <c r="P35" s="110">
+        <v>10</v>
+      </c>
       <c r="Q35" s="192"/>
     </row>
     <row r="36" spans="2:17 16384:16384">
@@ -24909,12 +24938,24 @@
       <c r="H36" s="191"/>
       <c r="I36" s="191"/>
       <c r="J36" s="191"/>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="110"/>
+      <c r="K36" s="191">
+        <v>1</v>
+      </c>
+      <c r="L36" s="192">
+        <v>1</v>
+      </c>
+      <c r="M36" s="192">
+        <v>1</v>
+      </c>
+      <c r="N36" s="192">
+        <v>1</v>
+      </c>
+      <c r="O36" s="110" t="s">
+        <v>3146</v>
+      </c>
+      <c r="P36" s="110">
+        <v>15</v>
+      </c>
       <c r="Q36" s="192"/>
     </row>
     <row r="37" spans="2:17 16384:16384">
@@ -24934,11 +24975,24 @@
         <v>1662</v>
       </c>
       <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
+      <c r="K37" s="305">
+        <v>0</v>
+      </c>
+      <c r="L37" s="305">
+        <v>1</v>
+      </c>
+      <c r="M37" s="305">
+        <v>0</v>
+      </c>
+      <c r="N37" s="305">
+        <v>1</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>3147</v>
+      </c>
+      <c r="P37" s="305">
+        <v>5</v>
+      </c>
       <c r="XFD37" s="38" t="s">
         <v>1662</v>
       </c>
@@ -28558,7 +28612,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="321" t="s">
+      <c r="O235" s="323" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -28583,7 +28637,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="321"/>
+      <c r="O236" s="323"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -28606,7 +28660,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="321"/>
+      <c r="O237" s="323"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -28629,7 +28683,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="321"/>
+      <c r="O238" s="323"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -28646,7 +28700,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="321"/>
+      <c r="O239" s="323"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -28665,7 +28719,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="321"/>
+      <c r="O240" s="323"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -28690,7 +28744,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="321"/>
+      <c r="O241" s="323"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -28709,7 +28763,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="321"/>
+      <c r="O242" s="323"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -41900,11 +41954,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="322" t="s">
+      <c r="M6" s="324" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="322"/>
-      <c r="O6" s="322"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="324"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -43917,11 +43971,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="316" t="s">
+      <c r="D223" s="318" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="318"/>
-      <c r="F223" s="317"/>
+      <c r="E223" s="320"/>
+      <c r="F223" s="319"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -43973,19 +44027,19 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="316" t="s">
+      <c r="D227" s="318" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="318"/>
-      <c r="F227" s="317"/>
-      <c r="H227" s="316" t="s">
+      <c r="E227" s="320"/>
+      <c r="F227" s="319"/>
+      <c r="H227" s="318" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="317"/>
-      <c r="K227" s="316" t="s">
+      <c r="I227" s="319"/>
+      <c r="K227" s="318" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="317"/>
+      <c r="L227" s="319"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -47370,7 +47424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
@@ -47389,23 +47443,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="322" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="I1" s="320" t="s">
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="I1" s="322" t="s">
         <v>2943</v>
       </c>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
-      <c r="N1" s="320"/>
-      <c r="O1" s="320"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
+      <c r="L1" s="322"/>
+      <c r="M1" s="322"/>
+      <c r="N1" s="322"/>
+      <c r="O1" s="322"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -47555,28 +47609,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="312" t="s">
+      <c r="A12" s="314" t="s">
         <v>2945</v>
       </c>
-      <c r="B12" s="319"/>
-      <c r="C12" s="319"/>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="319"/>
-      <c r="H12" s="313"/>
-      <c r="I12" s="312" t="s">
+      <c r="B12" s="321"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="321"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="314" t="s">
         <v>2945</v>
       </c>
-      <c r="J12" s="319"/>
-      <c r="K12" s="319"/>
-      <c r="L12" s="319"/>
-      <c r="M12" s="319"/>
-      <c r="N12" s="319"/>
-      <c r="O12" s="319"/>
-      <c r="P12" s="319"/>
-      <c r="Q12" s="319"/>
-      <c r="R12" s="313"/>
+      <c r="J12" s="321"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="321"/>
+      <c r="M12" s="321"/>
+      <c r="N12" s="321"/>
+      <c r="O12" s="321"/>
+      <c r="P12" s="321"/>
+      <c r="Q12" s="321"/>
+      <c r="R12" s="315"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -47804,14 +47858,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="320" t="s">
+      <c r="A24" s="322" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="320"/>
-      <c r="C24" s="320"/>
-      <c r="D24" s="320"/>
-      <c r="E24" s="320"/>
-      <c r="F24" s="320"/>
+      <c r="B24" s="322"/>
+      <c r="C24" s="322"/>
+      <c r="D24" s="322"/>
+      <c r="E24" s="322"/>
+      <c r="F24" s="322"/>
       <c r="H24" s="271" t="s">
         <v>2943</v>
       </c>
@@ -47821,11 +47875,11 @@
       <c r="L24" s="271"/>
       <c r="M24" s="271"/>
       <c r="N24" s="271"/>
-      <c r="P24" s="320" t="s">
+      <c r="P24" s="322" t="s">
         <v>2981</v>
       </c>
-      <c r="Q24" s="320"/>
-      <c r="R24" s="320"/>
+      <c r="Q24" s="322"/>
+      <c r="R24" s="322"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -48065,28 +48119,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="312" t="s">
+      <c r="A35" s="314" t="s">
         <v>2982</v>
       </c>
-      <c r="B35" s="319"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="319"/>
-      <c r="E35" s="319"/>
-      <c r="F35" s="319"/>
-      <c r="G35" s="319"/>
-      <c r="H35" s="313"/>
-      <c r="I35" s="312" t="s">
+      <c r="B35" s="321"/>
+      <c r="C35" s="321"/>
+      <c r="D35" s="321"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="321"/>
+      <c r="G35" s="321"/>
+      <c r="H35" s="315"/>
+      <c r="I35" s="314" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="319"/>
-      <c r="K35" s="319"/>
-      <c r="L35" s="319"/>
-      <c r="M35" s="319"/>
-      <c r="N35" s="319"/>
-      <c r="O35" s="319"/>
-      <c r="P35" s="319"/>
-      <c r="Q35" s="319"/>
-      <c r="R35" s="313"/>
+      <c r="J35" s="321"/>
+      <c r="K35" s="321"/>
+      <c r="L35" s="321"/>
+      <c r="M35" s="321"/>
+      <c r="N35" s="321"/>
+      <c r="O35" s="321"/>
+      <c r="P35" s="321"/>
+      <c r="Q35" s="321"/>
+      <c r="R35" s="315"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -18562,7 +18562,7 @@
   <dimension ref="A1:O187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="3148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5902" uniqueCount="3174">
   <si>
     <t>USER</t>
   </si>
@@ -9749,6 +9749,84 @@
   </si>
   <si>
     <t>14 ^ 11</t>
+  </si>
+  <si>
+    <t>String customerName="john";</t>
+  </si>
+  <si>
+    <t>int age=21;</t>
+  </si>
+  <si>
+    <t>String dob="01/05/1990";</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t>public void method1(int x,Customer c1) {</t>
+  </si>
+  <si>
+    <t>x=30;</t>
+  </si>
+  <si>
+    <t>c1.age=20;</t>
+  </si>
+  <si>
+    <t>public void method2(int y,Customer c2) {</t>
+  </si>
+  <si>
+    <t>y=30;</t>
+  </si>
+  <si>
+    <t>Customer c=new Customer();</t>
+  </si>
+  <si>
+    <t>int p=12;</t>
+  </si>
+  <si>
+    <t>a.method1(p,c);</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>int p</t>
+  </si>
+  <si>
+    <t>Customer c</t>
+  </si>
+  <si>
+    <t>reference variable</t>
+  </si>
+  <si>
+    <t>Literal</t>
+  </si>
+  <si>
+    <t>c2.age=30;</t>
+  </si>
+  <si>
+    <t>method2(x,c1);</t>
+  </si>
+  <si>
+    <t>y=40;</t>
+  </si>
+  <si>
+    <t>c1.customerName="jane";</t>
+  </si>
+  <si>
+    <t>c2.customerName="mike";</t>
+  </si>
+  <si>
+    <t>System.out.println(c.customerName);</t>
+  </si>
+  <si>
+    <t>System.out.println(p);</t>
+  </si>
+  <si>
+    <t>c2=new Customer();</t>
   </si>
 </sst>
 </file>
@@ -10309,7 +10387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10985,6 +11063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13714,195 +13793,251 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T200"/>
+  <dimension ref="A1:T313"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16" ht="15.75" thickBot="1">
-      <c r="G2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="4:16">
-      <c r="D3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>2424</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="K3" s="29"/>
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="4:16" ht="15.75" thickBot="1">
-      <c r="D4" s="32"/>
-      <c r="E4" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>3162</v>
+      </c>
+      <c r="F4" s="50">
+        <v>12</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>3165</v>
+      </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="K4" s="32" t="s">
+        <v>3160</v>
+      </c>
       <c r="L4" s="26"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="4:16" ht="15.75" thickBot="1">
-      <c r="D5" s="32"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="M4" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>3164</v>
+      </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>412</v>
+      <c r="J5" s="26"/>
+      <c r="K5" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="L5" s="26"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="4:16">
-      <c r="D6" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="F6" s="26">
-        <v>10</v>
+      <c r="M5" s="33">
+        <v>30</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A6" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F6" s="50">
+        <v>30</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="4:16" ht="15.75" thickBot="1">
-      <c r="D7" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>414</v>
-      </c>
+      <c r="K6" s="34" t="s">
+        <v>3161</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="325">
+        <v>32878</v>
+      </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="4:16">
-      <c r="D8" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="F8" s="26" t="b">
-        <v>1</v>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F8" s="50">
+        <v>40</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="4:16">
-      <c r="D9" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>417</v>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>413</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="4:16">
-      <c r="D10" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>413</v>
-      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="C10" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="O10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16">
-      <c r="D11" s="32"/>
-      <c r="E11" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" s="32"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="P11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16" ht="15.75" thickBot="1">
-      <c r="D12" s="32"/>
-      <c r="E12" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="33"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="32"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="33"/>
-      <c r="P12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16">
-      <c r="D13" s="32"/>
-      <c r="E13" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E13" s="32"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
@@ -13910,14 +14045,15 @@
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="33"/>
-      <c r="P13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16">
-      <c r="D14" s="32"/>
-      <c r="E14" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="33"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -13925,14 +14061,15 @@
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
-      <c r="M14" s="33"/>
-      <c r="P14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16">
-      <c r="D15" s="32"/>
-      <c r="E15" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="C15" t="s">
+        <v>3166</v>
+      </c>
+      <c r="E15" s="32"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
@@ -13940,14 +14077,15 @@
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
-      <c r="M15" s="33"/>
-      <c r="P15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16">
-      <c r="D16" s="32"/>
-      <c r="E16" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="33"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="32"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -13955,14 +14093,12 @@
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
-      <c r="M16" s="33"/>
-      <c r="O16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17">
-      <c r="D17" s="32"/>
-      <c r="E17" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="E17" s="32"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -13970,11 +14106,12 @@
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" spans="4:17">
-      <c r="D18" s="32"/>
-      <c r="E18" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="33"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="E18" s="32"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -13982,2273 +14119,2976 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="4:17" ht="15.75" thickBot="1">
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="21" spans="4:17" ht="15.75" thickBot="1"/>
-    <row r="22" spans="4:17">
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="4:17">
-      <c r="D23" s="32"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="24" spans="4:17" ht="15.75" thickBot="1">
-      <c r="D24" s="32"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="4:17">
-      <c r="D25" s="32"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="H25" s="47">
-        <v>0</v>
-      </c>
-      <c r="I25" s="48"/>
-      <c r="M25" s="33"/>
-      <c r="P25" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17">
-      <c r="D26" s="32"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="H26" s="50">
-        <v>20</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="K26" t="s">
-        <v>418</v>
-      </c>
-      <c r="L26" t="s">
-        <v>429</v>
-      </c>
-      <c r="M26" s="33"/>
-      <c r="P26" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17">
-      <c r="D27" s="32"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="49" t="s">
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="33"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="C20" s="55" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="33"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C21" s="55" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A25" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="C27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="H27" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="M27" s="33"/>
-      <c r="P27" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17">
-      <c r="D28" s="32"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="M28" s="33"/>
-      <c r="P28" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17">
-      <c r="D29" s="32"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>435</v>
-      </c>
-      <c r="I29" s="51"/>
-      <c r="M29" s="33"/>
-    </row>
-    <row r="30" spans="4:17" ht="15.75" thickBot="1">
-      <c r="D30" s="32"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="I30" s="54"/>
-      <c r="M30" s="33"/>
-      <c r="O30" t="s">
-        <v>48</v>
-      </c>
-      <c r="P30" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" ht="15.75" thickBot="1">
-      <c r="D31" s="32"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="F27" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="32" t="s">
+        <v>3160</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="M27" s="26"/>
+      <c r="N27" s="33"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="C28" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F28" s="50">
+        <v>12</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="26"/>
+      <c r="L28" s="33">
+        <v>21</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="F29" s="50">
+        <v>30</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="34" t="s">
+        <v>3161</v>
+      </c>
+      <c r="K29" s="35"/>
+      <c r="L29" s="325">
+        <v>32878</v>
+      </c>
+      <c r="M29" s="26"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B31" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F31" s="50">
+        <v>30</v>
+      </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
       <c r="L31" s="26"/>
-      <c r="M31" s="33"/>
-      <c r="O31" t="s">
-        <v>49</v>
-      </c>
-      <c r="P31" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17">
-      <c r="D32" s="32"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="M31" s="26"/>
+      <c r="N31" s="33"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26" t="s">
+        <v>2017</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="33"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="33"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="32" t="s">
+        <v>3160</v>
+      </c>
+      <c r="K34" s="26"/>
+      <c r="L34" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="M34" s="26"/>
+      <c r="N34" s="33"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="55" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="33">
+        <v>21</v>
+      </c>
+      <c r="M35" s="26"/>
+      <c r="N35" s="33"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="55" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="34" t="s">
+        <v>3161</v>
+      </c>
+      <c r="K36" s="35"/>
+      <c r="L36" s="325">
+        <v>32878</v>
+      </c>
+      <c r="M36" s="26"/>
+      <c r="N36" s="33"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="55" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="E37" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="33"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="55" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="E38" s="49">
+        <v>12</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="33"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="55" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="33"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="55" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="E40" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="33"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="55" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="E41" s="49">
+        <v>12</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="33"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="33"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="33"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B44" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="36"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="4:16" ht="15.75" thickBot="1">
+      <c r="G115" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="116" spans="4:16">
+      <c r="D116" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+      <c r="M116" s="31"/>
+    </row>
+    <row r="117" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D117" s="32"/>
+      <c r="E117" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="33"/>
+    </row>
+    <row r="118" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D118" s="32"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="K118" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="L118" s="26"/>
+      <c r="M118" s="33"/>
+    </row>
+    <row r="119" spans="4:16">
+      <c r="D119" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="F119" s="26">
+        <v>10</v>
+      </c>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="33"/>
+    </row>
+    <row r="120" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D120" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="G120" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="33"/>
+    </row>
+    <row r="121" spans="4:16">
+      <c r="D121" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="E121" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="F121" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="31"/>
+      <c r="M121" s="33"/>
+    </row>
+    <row r="122" spans="4:16">
+      <c r="D122" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="G122" s="26"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+    </row>
+    <row r="123" spans="4:16">
+      <c r="D123" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="O123" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="4:16">
+      <c r="D124" s="32"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="P124" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D125" s="32"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="34"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="33"/>
+      <c r="P125" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="4:16">
+      <c r="D126" s="32"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="33"/>
+      <c r="P126" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="4:16">
+      <c r="D127" s="32"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="33"/>
+      <c r="P127" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="4:16">
+      <c r="D128" s="32"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="33"/>
+      <c r="P128" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="4:17">
+      <c r="D129" s="32"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="33"/>
+      <c r="O129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="4:17">
+      <c r="D130" s="32"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="26"/>
+      <c r="M130" s="33"/>
+    </row>
+    <row r="131" spans="4:17">
+      <c r="D131" s="32"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="33"/>
+    </row>
+    <row r="132" spans="4:17" ht="15.75" thickBot="1">
+      <c r="D132" s="34"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="36"/>
+    </row>
+    <row r="134" spans="4:17" ht="15.75" thickBot="1"/>
+    <row r="135" spans="4:17">
+      <c r="D135" s="29"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="30"/>
+      <c r="M135" s="31"/>
+    </row>
+    <row r="136" spans="4:17">
+      <c r="D136" s="32"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26"/>
+      <c r="M136" s="33"/>
+    </row>
+    <row r="137" spans="4:17" ht="15.75" thickBot="1">
+      <c r="D137" s="32"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="33"/>
+    </row>
+    <row r="138" spans="4:17">
+      <c r="D138" s="32"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="G138" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="H138" s="47">
+        <v>0</v>
+      </c>
+      <c r="I138" s="48"/>
+      <c r="M138" s="33"/>
+      <c r="P138" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="139" spans="4:17">
+      <c r="D139" s="32"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="H139" s="50">
+        <v>20</v>
+      </c>
+      <c r="I139" s="51"/>
+      <c r="K139" t="s">
+        <v>418</v>
+      </c>
+      <c r="L139" t="s">
+        <v>429</v>
+      </c>
+      <c r="M139" s="33"/>
+      <c r="P139" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="140" spans="4:17">
+      <c r="D140" s="32"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="H140" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="I140" s="51"/>
+      <c r="M140" s="33"/>
+      <c r="P140" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="141" spans="4:17">
+      <c r="D141" s="32"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="H141" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="I141" s="51"/>
+      <c r="M141" s="33"/>
+      <c r="P141" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="142" spans="4:17">
+      <c r="D142" s="32"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="H142" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="G32" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="H32" s="47">
-        <v>0</v>
-      </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="K32" s="48">
-        <v>0</v>
-      </c>
-      <c r="L32" s="26"/>
-      <c r="M32" s="33"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="D33" s="32"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="H33" s="50" t="s">
+      <c r="I142" s="51"/>
+      <c r="M142" s="33"/>
+    </row>
+    <row r="143" spans="4:17" ht="15.75" thickBot="1">
+      <c r="D143" s="32"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="H143" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="K33" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="33"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="D34" s="32"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="33"/>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="D35" s="32"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="33"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1">
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="36"/>
-      <c r="P36" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B38" t="s">
-        <v>419</v>
-      </c>
-      <c r="G38" t="s">
-        <v>425</v>
-      </c>
-      <c r="M38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="C39" t="s">
-        <v>267</v>
-      </c>
-      <c r="N39" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>448</v>
-      </c>
-      <c r="R39" s="29"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="31"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="C40" t="s">
-        <v>420</v>
-      </c>
-      <c r="H40" t="s">
-        <v>426</v>
-      </c>
-      <c r="N40" t="s">
-        <v>438</v>
-      </c>
-      <c r="R40" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="S40" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="T40" s="33"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="C41" t="s">
-        <v>421</v>
-      </c>
-      <c r="I41" t="s">
-        <v>428</v>
-      </c>
-      <c r="N41" t="s">
-        <v>439</v>
-      </c>
-      <c r="R41" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="S41" s="26">
-        <v>12</v>
-      </c>
-      <c r="T41" s="33"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="C42" t="s">
-        <v>422</v>
-      </c>
-      <c r="I42" t="s">
-        <v>427</v>
-      </c>
-      <c r="N42" t="s">
-        <v>440</v>
-      </c>
-      <c r="R42" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="S42" s="26">
-        <v>0</v>
-      </c>
-      <c r="T42" s="33"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1">
-      <c r="C43" t="s">
-        <v>423</v>
-      </c>
-      <c r="I43" t="s">
-        <v>452</v>
-      </c>
-      <c r="N43" t="s">
-        <v>441</v>
-      </c>
-      <c r="R43" s="34"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="36"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="C44" t="s">
-        <v>424</v>
-      </c>
-      <c r="I44" t="s">
-        <v>451</v>
-      </c>
-      <c r="N44" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="B45" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="M46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="48" spans="1:20">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="31"/>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="32"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="33"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="33"/>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="J51" s="29"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="N51" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="O51" s="26"/>
-      <c r="P51" s="33"/>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="32"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="K52" s="51" t="s">
-        <v>412</v>
-      </c>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="N52" s="26">
-        <v>0</v>
-      </c>
-      <c r="O52" s="26"/>
-      <c r="P52" s="33"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="32"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="F53" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="K53" s="51">
-        <v>0</v>
-      </c>
-      <c r="L53" s="26"/>
-      <c r="M53" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="N53" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="O53" s="26"/>
-      <c r="P53" s="33"/>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="32"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>470</v>
-      </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="33"/>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="32"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="N55" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="O55" s="26"/>
-      <c r="P55" s="33"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="33"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="32"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="33"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="32"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="33"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="32"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="33"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="32"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="33"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A61" s="34"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="36"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" t="s">
-        <v>453</v>
-      </c>
-      <c r="F63" t="s">
-        <v>457</v>
-      </c>
-      <c r="K63" t="s">
-        <v>459</v>
-      </c>
-      <c r="O63" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="O64" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="B65" t="s">
-        <v>454</v>
-      </c>
-      <c r="G65" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" t="s">
-        <v>58</v>
-      </c>
-      <c r="I65" t="s">
-        <v>412</v>
-      </c>
-      <c r="L65" t="s">
-        <v>460</v>
-      </c>
-      <c r="O65" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="B66" t="s">
-        <v>455</v>
-      </c>
-      <c r="G66" t="s">
-        <v>458</v>
-      </c>
-      <c r="L66" t="s">
-        <v>461</v>
-      </c>
-      <c r="O66" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="B67" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="F69" t="s">
-        <v>144</v>
-      </c>
-      <c r="K69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="B76" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="B77" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="B78" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="B80" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="C81" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="C82" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="C83" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="C84" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="C85" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="C86" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="B87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="B93" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="B105" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="B106" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="B107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="B112" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18">
-      <c r="B113" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
-      <c r="C114" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
-      <c r="C115" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18">
-      <c r="B116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18">
-      <c r="A117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A122" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C123" t="s">
-        <v>273</v>
-      </c>
-      <c r="G123" s="46"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47"/>
-      <c r="J123" s="47"/>
-      <c r="K123" s="47"/>
-      <c r="L123" s="47"/>
-      <c r="M123" s="47"/>
-      <c r="N123" s="47"/>
-      <c r="O123" s="47"/>
-      <c r="P123" s="47"/>
-      <c r="Q123" s="47"/>
-      <c r="R123" s="48"/>
-    </row>
-    <row r="124" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C124" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G124" s="49"/>
-      <c r="H124" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="I124" s="50">
-        <v>10</v>
-      </c>
-      <c r="J124" s="50"/>
-      <c r="K124" s="50"/>
-      <c r="L124" s="50"/>
-      <c r="M124" s="50"/>
-      <c r="N124" s="50"/>
-      <c r="O124" s="57"/>
-      <c r="P124" s="50"/>
-      <c r="Q124" s="50"/>
-      <c r="R124" s="51"/>
-    </row>
-    <row r="125" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C125" t="s">
-        <v>342</v>
-      </c>
-      <c r="G125" s="49"/>
-      <c r="H125" s="50" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I125" s="50" t="s">
-        <v>1851</v>
-      </c>
-      <c r="J125" s="50"/>
-      <c r="K125" s="50" t="s">
-        <v>1854</v>
-      </c>
-      <c r="L125" s="50"/>
-      <c r="M125" s="50"/>
-      <c r="N125" s="50"/>
-      <c r="O125" s="162" t="s">
-        <v>1853</v>
-      </c>
-      <c r="P125" s="50"/>
-      <c r="Q125" s="50"/>
-      <c r="R125" s="51"/>
-    </row>
-    <row r="126" spans="1:18">
-      <c r="C126" t="s">
-        <v>1684</v>
-      </c>
-      <c r="G126" s="49"/>
-      <c r="H126" s="50" t="s">
-        <v>1857</v>
-      </c>
-      <c r="I126" s="50" t="s">
-        <v>1856</v>
-      </c>
-      <c r="J126" s="50"/>
-      <c r="K126" s="50"/>
-      <c r="L126" s="50"/>
-      <c r="M126" s="50"/>
-      <c r="N126" s="50" t="s">
-        <v>1851</v>
-      </c>
-      <c r="O126" s="46"/>
-      <c r="P126" s="47"/>
-      <c r="Q126" s="48"/>
-      <c r="R126" s="51"/>
-    </row>
-    <row r="127" spans="1:18">
-      <c r="C127" t="s">
-        <v>1839</v>
-      </c>
-      <c r="G127" s="49"/>
-      <c r="H127" s="50"/>
-      <c r="I127" s="50"/>
-      <c r="J127" s="50"/>
-      <c r="K127" s="50"/>
-      <c r="L127" s="50"/>
-      <c r="M127" s="50"/>
-      <c r="N127" s="50"/>
-      <c r="O127" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="P127" s="50" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q127" s="51"/>
-      <c r="R127" s="51"/>
-    </row>
-    <row r="128" spans="1:18">
-      <c r="C128" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G128" s="49"/>
-      <c r="H128" s="50"/>
-      <c r="I128" s="50"/>
-      <c r="J128" s="50"/>
-      <c r="K128" s="50"/>
-      <c r="L128" s="50"/>
-      <c r="M128" s="50"/>
-      <c r="N128" s="50"/>
-      <c r="O128" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="P128" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="51"/>
-      <c r="R128" s="51"/>
-    </row>
-    <row r="129" spans="2:18">
-      <c r="C129" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G129" s="49"/>
-      <c r="H129" s="50"/>
-      <c r="I129" s="50"/>
-      <c r="J129" s="50"/>
-      <c r="K129" s="50"/>
-      <c r="L129" s="50"/>
-      <c r="M129" s="50"/>
-      <c r="N129" s="50"/>
-      <c r="O129" s="49" t="s">
-        <v>1852</v>
-      </c>
-      <c r="P129" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q129" s="51"/>
-      <c r="R129" s="51"/>
-    </row>
-    <row r="130" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C130" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G130" s="49"/>
-      <c r="H130" s="50"/>
-      <c r="I130" s="50"/>
-      <c r="J130" s="50"/>
-      <c r="K130" s="50"/>
-      <c r="L130" s="50"/>
-      <c r="M130" s="50"/>
-      <c r="N130" s="50"/>
-      <c r="O130" s="52"/>
-      <c r="P130" s="53"/>
-      <c r="Q130" s="54"/>
-      <c r="R130" s="51"/>
-    </row>
-    <row r="131" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C131" t="s">
-        <v>1855</v>
-      </c>
-      <c r="G131" s="49"/>
-      <c r="H131" s="50"/>
-      <c r="I131" s="50"/>
-      <c r="J131" s="50"/>
-      <c r="K131" s="50"/>
-      <c r="L131" s="50"/>
-      <c r="M131" s="50"/>
-      <c r="N131" s="50"/>
-      <c r="O131" s="50"/>
-      <c r="P131" s="50"/>
-      <c r="Q131" s="50"/>
-      <c r="R131" s="51"/>
-    </row>
-    <row r="132" spans="2:18">
-      <c r="G132" s="49"/>
-      <c r="H132" s="50"/>
-      <c r="I132" s="50"/>
-      <c r="J132" s="50"/>
-      <c r="K132" s="50"/>
-      <c r="L132" s="50"/>
-      <c r="M132" s="50"/>
-      <c r="N132" s="50" t="s">
-        <v>1856</v>
-      </c>
-      <c r="O132" s="46"/>
-      <c r="P132" s="47"/>
-      <c r="Q132" s="48"/>
-      <c r="R132" s="51"/>
-    </row>
-    <row r="133" spans="2:18">
-      <c r="G133" s="49"/>
-      <c r="H133" s="50"/>
-      <c r="I133" s="50"/>
-      <c r="J133" s="50"/>
-      <c r="K133" s="50"/>
-      <c r="L133" s="50"/>
-      <c r="M133" s="50"/>
-      <c r="N133" s="50"/>
-      <c r="O133" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="P133" s="50" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q133" s="51"/>
-      <c r="R133" s="51"/>
-    </row>
-    <row r="134" spans="2:18">
-      <c r="B134" t="s">
-        <v>144</v>
-      </c>
-      <c r="G134" s="49"/>
-      <c r="H134" s="50"/>
-      <c r="I134" s="50"/>
-      <c r="J134" s="50"/>
-      <c r="K134" s="50"/>
-      <c r="L134" s="50"/>
-      <c r="M134" s="50"/>
-      <c r="N134" s="50"/>
-      <c r="O134" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="P134" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="51"/>
-      <c r="R134" s="51"/>
-    </row>
-    <row r="135" spans="2:18">
-      <c r="B135" t="s">
-        <v>1841</v>
-      </c>
-      <c r="G135" s="49"/>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
-      <c r="J135" s="50"/>
-      <c r="K135" s="50"/>
-      <c r="L135" s="50"/>
-      <c r="M135" s="50"/>
-      <c r="N135" s="50"/>
-      <c r="O135" s="49" t="s">
-        <v>1852</v>
-      </c>
-      <c r="P135" s="50" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q135" s="51"/>
-      <c r="R135" s="51"/>
-    </row>
-    <row r="136" spans="2:18" ht="15.75" thickBot="1">
-      <c r="C136" t="s">
-        <v>1842</v>
-      </c>
-      <c r="G136" s="49"/>
-      <c r="H136" s="50"/>
-      <c r="I136" s="50"/>
-      <c r="J136" s="50"/>
-      <c r="K136" s="50"/>
-      <c r="L136" s="50"/>
-      <c r="M136" s="50"/>
-      <c r="N136" s="50"/>
-      <c r="O136" s="52"/>
-      <c r="P136" s="53"/>
-      <c r="Q136" s="54"/>
-      <c r="R136" s="51"/>
-    </row>
-    <row r="137" spans="2:18">
-      <c r="C137" t="s">
-        <v>1843</v>
-      </c>
-      <c r="G137" s="49"/>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
-      <c r="J137" s="50"/>
-      <c r="K137" s="50"/>
-      <c r="L137" s="50"/>
-      <c r="M137" s="50"/>
-      <c r="N137" s="50"/>
-      <c r="O137" s="50"/>
-      <c r="P137" s="50"/>
-      <c r="Q137" s="50"/>
-      <c r="R137" s="51"/>
-    </row>
-    <row r="138" spans="2:18">
-      <c r="C138" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G138" s="49"/>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
-      <c r="J138" s="50"/>
-      <c r="K138" s="50"/>
-      <c r="L138" s="50"/>
-      <c r="M138" s="50"/>
-      <c r="N138" s="50"/>
-      <c r="O138" s="50"/>
-      <c r="P138" s="50"/>
-      <c r="Q138" s="50"/>
-      <c r="R138" s="51"/>
-    </row>
-    <row r="139" spans="2:18">
-      <c r="B139" t="s">
-        <v>144</v>
-      </c>
-      <c r="G139" s="49"/>
-      <c r="H139" s="50"/>
-      <c r="I139" s="50"/>
-      <c r="J139" s="50"/>
-      <c r="K139" s="50"/>
-      <c r="L139" s="50"/>
-      <c r="M139" s="50"/>
-      <c r="N139" s="50"/>
-      <c r="O139" s="50"/>
-      <c r="P139" s="50"/>
-      <c r="Q139" s="50"/>
-      <c r="R139" s="51"/>
-    </row>
-    <row r="140" spans="2:18">
-      <c r="B140" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G140" s="49"/>
-      <c r="H140" s="50"/>
-      <c r="I140" s="50"/>
-      <c r="J140" s="50"/>
-      <c r="K140" s="50"/>
-      <c r="L140" s="50"/>
-      <c r="M140" s="50"/>
-      <c r="N140" s="50"/>
-      <c r="O140" s="50"/>
-      <c r="P140" s="50"/>
-      <c r="Q140" s="50"/>
-      <c r="R140" s="51"/>
-    </row>
-    <row r="141" spans="2:18">
-      <c r="C141" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G141" s="49"/>
-      <c r="H141" s="50"/>
-      <c r="I141" s="50"/>
-      <c r="J141" s="50"/>
-      <c r="K141" s="50"/>
-      <c r="L141" s="50"/>
-      <c r="M141" s="50"/>
-      <c r="N141" s="50"/>
-      <c r="O141" s="50"/>
-      <c r="P141" s="50"/>
-      <c r="Q141" s="50"/>
-      <c r="R141" s="51"/>
-    </row>
-    <row r="142" spans="2:18">
-      <c r="C142" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G142" s="49"/>
-      <c r="H142" s="50"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="50"/>
-      <c r="K142" s="50"/>
-      <c r="L142" s="50"/>
-      <c r="M142" s="50"/>
-      <c r="N142" s="50"/>
-      <c r="O142" s="50"/>
-      <c r="P142" s="50"/>
-      <c r="Q142" s="50"/>
-      <c r="R142" s="51"/>
-    </row>
-    <row r="143" spans="2:18">
-      <c r="B143" t="s">
-        <v>144</v>
-      </c>
-      <c r="G143" s="49"/>
-      <c r="H143" s="50"/>
-      <c r="I143" s="50"/>
-      <c r="J143" s="50"/>
-      <c r="K143" s="50"/>
-      <c r="L143" s="50"/>
-      <c r="M143" s="50"/>
-      <c r="N143" s="50"/>
-      <c r="O143" s="50"/>
-      <c r="P143" s="50"/>
-      <c r="Q143" s="50"/>
-      <c r="R143" s="51"/>
-    </row>
-    <row r="144" spans="2:18">
-      <c r="G144" s="32"/>
+      <c r="I143" s="54"/>
+      <c r="M143" s="33"/>
+      <c r="O143" t="s">
+        <v>48</v>
+      </c>
+      <c r="P143" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="144" spans="4:17" ht="15.75" thickBot="1">
+      <c r="D144" s="32"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
       <c r="H144" s="26"/>
       <c r="I144" s="26"/>
       <c r="J144" s="26"/>
       <c r="K144" s="26"/>
       <c r="L144" s="26"/>
-      <c r="M144" s="26"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="26"/>
-      <c r="P144" s="26"/>
-      <c r="Q144" s="26"/>
-      <c r="R144" s="33"/>
-    </row>
-    <row r="145" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A145" t="s">
+      <c r="M144" s="33"/>
+      <c r="O144" t="s">
+        <v>49</v>
+      </c>
+      <c r="P144" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20">
+      <c r="D145" s="32"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G145" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="H145" s="47">
+        <v>0</v>
+      </c>
+      <c r="I145" s="47"/>
+      <c r="J145" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="K145" s="48">
+        <v>0</v>
+      </c>
+      <c r="L145" s="26"/>
+      <c r="M145" s="33"/>
+    </row>
+    <row r="146" spans="2:20">
+      <c r="D146" s="32"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="H146" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="I146" s="50"/>
+      <c r="J146" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="K146" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="L146" s="26"/>
+      <c r="M146" s="33"/>
+    </row>
+    <row r="147" spans="2:20">
+      <c r="D147" s="32"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="H147" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="I147" s="50"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="51"/>
+      <c r="L147" s="26"/>
+      <c r="M147" s="33"/>
+    </row>
+    <row r="148" spans="2:20" ht="15.75" thickBot="1">
+      <c r="D148" s="32"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="H148" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="I148" s="53"/>
+      <c r="J148" s="53"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="26"/>
+      <c r="M148" s="33"/>
+    </row>
+    <row r="149" spans="2:20" ht="15.75" thickBot="1">
+      <c r="D149" s="34"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="35"/>
+      <c r="K149" s="35"/>
+      <c r="L149" s="35"/>
+      <c r="M149" s="36"/>
+      <c r="P149" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B151" t="s">
+        <v>419</v>
+      </c>
+      <c r="G151" t="s">
+        <v>425</v>
+      </c>
+      <c r="M151" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20">
+      <c r="C152" t="s">
+        <v>267</v>
+      </c>
+      <c r="N152" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>448</v>
+      </c>
+      <c r="R152" s="29"/>
+      <c r="S152" s="30"/>
+      <c r="T152" s="31"/>
+    </row>
+    <row r="153" spans="2:20">
+      <c r="C153" t="s">
+        <v>420</v>
+      </c>
+      <c r="H153" t="s">
+        <v>426</v>
+      </c>
+      <c r="N153" t="s">
+        <v>438</v>
+      </c>
+      <c r="R153" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S153" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="T153" s="33"/>
+    </row>
+    <row r="154" spans="2:20">
+      <c r="C154" t="s">
+        <v>421</v>
+      </c>
+      <c r="I154" t="s">
+        <v>428</v>
+      </c>
+      <c r="N154" t="s">
+        <v>439</v>
+      </c>
+      <c r="R154" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="S154" s="26">
+        <v>12</v>
+      </c>
+      <c r="T154" s="33"/>
+    </row>
+    <row r="155" spans="2:20">
+      <c r="C155" t="s">
+        <v>422</v>
+      </c>
+      <c r="I155" t="s">
+        <v>427</v>
+      </c>
+      <c r="N155" t="s">
+        <v>440</v>
+      </c>
+      <c r="R155" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="S155" s="26">
+        <v>0</v>
+      </c>
+      <c r="T155" s="33"/>
+    </row>
+    <row r="156" spans="2:20" ht="15.75" thickBot="1">
+      <c r="C156" t="s">
+        <v>423</v>
+      </c>
+      <c r="I156" t="s">
+        <v>452</v>
+      </c>
+      <c r="N156" t="s">
+        <v>441</v>
+      </c>
+      <c r="R156" s="34"/>
+      <c r="S156" s="35"/>
+      <c r="T156" s="36"/>
+    </row>
+    <row r="157" spans="2:20">
+      <c r="C157" t="s">
+        <v>424</v>
+      </c>
+      <c r="I157" t="s">
+        <v>451</v>
+      </c>
+      <c r="N157" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20">
+      <c r="B158" t="s">
+        <v>144</v>
+      </c>
+      <c r="G158" t="s">
+        <v>144</v>
+      </c>
+      <c r="H158" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20">
+      <c r="M159" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="161" spans="1:16">
+      <c r="A161" s="29"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
+      <c r="M161" s="30"/>
+      <c r="N161" s="30"/>
+      <c r="O161" s="30"/>
+      <c r="P161" s="31"/>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" s="32"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="26"/>
+      <c r="M162" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="N162" s="26"/>
+      <c r="O162" s="26"/>
+      <c r="P162" s="33"/>
+    </row>
+    <row r="163" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A163" s="32"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="26"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="26"/>
+      <c r="M163" s="26"/>
+      <c r="N163" s="26"/>
+      <c r="O163" s="26"/>
+      <c r="P163" s="33"/>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B164" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="E164" s="29"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="J164" s="29"/>
+      <c r="K164" s="31"/>
+      <c r="L164" s="26"/>
+      <c r="M164" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="N164" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="O164" s="26"/>
+      <c r="P164" s="33"/>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" s="32"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="F165" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="G165" s="51"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="26"/>
+      <c r="J165" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K165" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="L165" s="26"/>
+      <c r="M165" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="N165" s="26">
+        <v>0</v>
+      </c>
+      <c r="O165" s="26"/>
+      <c r="P165" s="33"/>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" s="32"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="F166" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G166" s="51"/>
+      <c r="H166" s="26"/>
+      <c r="I166" s="26"/>
+      <c r="J166" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="K166" s="51">
+        <v>0</v>
+      </c>
+      <c r="L166" s="26"/>
+      <c r="M166" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="N166" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="O166" s="26"/>
+      <c r="P166" s="33"/>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" s="32"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F167" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="G167" s="51"/>
+      <c r="H167" s="26"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="33"/>
+      <c r="L167" s="26"/>
+      <c r="M167" s="26"/>
+      <c r="N167" s="26"/>
+      <c r="O167" s="26"/>
+      <c r="P167" s="33"/>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" s="32"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="51"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="33"/>
+      <c r="L168" s="26"/>
+      <c r="M168" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="N168" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="O168" s="26"/>
+      <c r="P168" s="33"/>
+    </row>
+    <row r="169" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A169" s="32"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="35"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="26"/>
+      <c r="I169" s="26"/>
+      <c r="J169" s="34"/>
+      <c r="K169" s="36"/>
+      <c r="L169" s="26"/>
+      <c r="M169" s="26"/>
+      <c r="N169" s="26"/>
+      <c r="O169" s="26"/>
+      <c r="P169" s="33"/>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" s="32"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="26"/>
+      <c r="J170" s="26"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="26"/>
+      <c r="M170" s="26"/>
+      <c r="N170" s="26"/>
+      <c r="O170" s="26"/>
+      <c r="P170" s="33"/>
+    </row>
+    <row r="171" spans="1:16">
+      <c r="A171" s="32"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="26"/>
+      <c r="I171" s="26"/>
+      <c r="J171" s="26"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="26"/>
+      <c r="M171" s="26"/>
+      <c r="N171" s="26"/>
+      <c r="O171" s="26"/>
+      <c r="P171" s="33"/>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" s="32"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="26"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="26"/>
+      <c r="N172" s="26"/>
+      <c r="O172" s="26"/>
+      <c r="P172" s="33"/>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" s="32"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="26"/>
+      <c r="J173" s="26"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="26"/>
+      <c r="M173" s="26"/>
+      <c r="N173" s="26"/>
+      <c r="O173" s="26"/>
+      <c r="P173" s="33"/>
+    </row>
+    <row r="174" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A174" s="34"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="35"/>
+      <c r="E174" s="35"/>
+      <c r="F174" s="35"/>
+      <c r="G174" s="35"/>
+      <c r="H174" s="35"/>
+      <c r="I174" s="35"/>
+      <c r="J174" s="35"/>
+      <c r="K174" s="35"/>
+      <c r="L174" s="35"/>
+      <c r="M174" s="35"/>
+      <c r="N174" s="35"/>
+      <c r="O174" s="35"/>
+      <c r="P174" s="36"/>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176" t="s">
+        <v>453</v>
+      </c>
+      <c r="F176" t="s">
+        <v>457</v>
+      </c>
+      <c r="K176" t="s">
+        <v>459</v>
+      </c>
+      <c r="O176" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="O177" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="B178" t="s">
+        <v>454</v>
+      </c>
+      <c r="G178" t="s">
+        <v>180</v>
+      </c>
+      <c r="H178" t="s">
+        <v>58</v>
+      </c>
+      <c r="I178" t="s">
+        <v>412</v>
+      </c>
+      <c r="L178" t="s">
+        <v>460</v>
+      </c>
+      <c r="O178" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="B179" t="s">
+        <v>455</v>
+      </c>
+      <c r="G179" t="s">
+        <v>458</v>
+      </c>
+      <c r="L179" t="s">
+        <v>461</v>
+      </c>
+      <c r="O179" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="B180" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="F182" t="s">
+        <v>144</v>
+      </c>
+      <c r="K182" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="B189" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="B190" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="B191" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="B193" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="C194" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="C195" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="C196" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="C197" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="C198" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="C199" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="B200" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="B206" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="B218" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="B220" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
+      <c r="B225" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
+      <c r="B226" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
+      <c r="C227" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
+      <c r="C228" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
+      <c r="B229" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
+      <c r="A230" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A235" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C236" t="s">
+        <v>273</v>
+      </c>
+      <c r="G236" s="46"/>
+      <c r="H236" s="47"/>
+      <c r="I236" s="47"/>
+      <c r="J236" s="47"/>
+      <c r="K236" s="47"/>
+      <c r="L236" s="47"/>
+      <c r="M236" s="47"/>
+      <c r="N236" s="47"/>
+      <c r="O236" s="47"/>
+      <c r="P236" s="47"/>
+      <c r="Q236" s="47"/>
+      <c r="R236" s="48"/>
+    </row>
+    <row r="237" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C237" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G237" s="49"/>
+      <c r="H237" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="I237" s="50">
+        <v>10</v>
+      </c>
+      <c r="J237" s="50"/>
+      <c r="K237" s="50"/>
+      <c r="L237" s="50"/>
+      <c r="M237" s="50"/>
+      <c r="N237" s="50"/>
+      <c r="O237" s="57"/>
+      <c r="P237" s="50"/>
+      <c r="Q237" s="50"/>
+      <c r="R237" s="51"/>
+    </row>
+    <row r="238" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C238" t="s">
+        <v>342</v>
+      </c>
+      <c r="G238" s="49"/>
+      <c r="H238" s="50" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I238" s="50" t="s">
+        <v>1851</v>
+      </c>
+      <c r="J238" s="50"/>
+      <c r="K238" s="50" t="s">
+        <v>1854</v>
+      </c>
+      <c r="L238" s="50"/>
+      <c r="M238" s="50"/>
+      <c r="N238" s="50"/>
+      <c r="O238" s="162" t="s">
+        <v>1853</v>
+      </c>
+      <c r="P238" s="50"/>
+      <c r="Q238" s="50"/>
+      <c r="R238" s="51"/>
+    </row>
+    <row r="239" spans="1:18">
+      <c r="C239" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G239" s="49"/>
+      <c r="H239" s="50" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I239" s="50" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J239" s="50"/>
+      <c r="K239" s="50"/>
+      <c r="L239" s="50"/>
+      <c r="M239" s="50"/>
+      <c r="N239" s="50" t="s">
+        <v>1851</v>
+      </c>
+      <c r="O239" s="46"/>
+      <c r="P239" s="47"/>
+      <c r="Q239" s="48"/>
+      <c r="R239" s="51"/>
+    </row>
+    <row r="240" spans="1:18">
+      <c r="C240" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G240" s="49"/>
+      <c r="H240" s="50"/>
+      <c r="I240" s="50"/>
+      <c r="J240" s="50"/>
+      <c r="K240" s="50"/>
+      <c r="L240" s="50"/>
+      <c r="M240" s="50"/>
+      <c r="N240" s="50"/>
+      <c r="O240" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P240" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q240" s="51"/>
+      <c r="R240" s="51"/>
+    </row>
+    <row r="241" spans="2:18">
+      <c r="C241" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G241" s="49"/>
+      <c r="H241" s="50"/>
+      <c r="I241" s="50"/>
+      <c r="J241" s="50"/>
+      <c r="K241" s="50"/>
+      <c r="L241" s="50"/>
+      <c r="M241" s="50"/>
+      <c r="N241" s="50"/>
+      <c r="O241" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="P241" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="51"/>
+      <c r="R241" s="51"/>
+    </row>
+    <row r="242" spans="2:18">
+      <c r="C242" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G242" s="49"/>
+      <c r="H242" s="50"/>
+      <c r="I242" s="50"/>
+      <c r="J242" s="50"/>
+      <c r="K242" s="50"/>
+      <c r="L242" s="50"/>
+      <c r="M242" s="50"/>
+      <c r="N242" s="50"/>
+      <c r="O242" s="49" t="s">
+        <v>1852</v>
+      </c>
+      <c r="P242" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q242" s="51"/>
+      <c r="R242" s="51"/>
+    </row>
+    <row r="243" spans="2:18" ht="15.75" thickBot="1">
+      <c r="C243" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G243" s="49"/>
+      <c r="H243" s="50"/>
+      <c r="I243" s="50"/>
+      <c r="J243" s="50"/>
+      <c r="K243" s="50"/>
+      <c r="L243" s="50"/>
+      <c r="M243" s="50"/>
+      <c r="N243" s="50"/>
+      <c r="O243" s="52"/>
+      <c r="P243" s="53"/>
+      <c r="Q243" s="54"/>
+      <c r="R243" s="51"/>
+    </row>
+    <row r="244" spans="2:18" ht="15.75" thickBot="1">
+      <c r="C244" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G244" s="49"/>
+      <c r="H244" s="50"/>
+      <c r="I244" s="50"/>
+      <c r="J244" s="50"/>
+      <c r="K244" s="50"/>
+      <c r="L244" s="50"/>
+      <c r="M244" s="50"/>
+      <c r="N244" s="50"/>
+      <c r="O244" s="50"/>
+      <c r="P244" s="50"/>
+      <c r="Q244" s="50"/>
+      <c r="R244" s="51"/>
+    </row>
+    <row r="245" spans="2:18">
+      <c r="G245" s="49"/>
+      <c r="H245" s="50"/>
+      <c r="I245" s="50"/>
+      <c r="J245" s="50"/>
+      <c r="K245" s="50"/>
+      <c r="L245" s="50"/>
+      <c r="M245" s="50"/>
+      <c r="N245" s="50" t="s">
+        <v>1856</v>
+      </c>
+      <c r="O245" s="46"/>
+      <c r="P245" s="47"/>
+      <c r="Q245" s="48"/>
+      <c r="R245" s="51"/>
+    </row>
+    <row r="246" spans="2:18">
+      <c r="G246" s="49"/>
+      <c r="H246" s="50"/>
+      <c r="I246" s="50"/>
+      <c r="J246" s="50"/>
+      <c r="K246" s="50"/>
+      <c r="L246" s="50"/>
+      <c r="M246" s="50"/>
+      <c r="N246" s="50"/>
+      <c r="O246" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P246" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q246" s="51"/>
+      <c r="R246" s="51"/>
+    </row>
+    <row r="247" spans="2:18">
+      <c r="B247" t="s">
+        <v>144</v>
+      </c>
+      <c r="G247" s="49"/>
+      <c r="H247" s="50"/>
+      <c r="I247" s="50"/>
+      <c r="J247" s="50"/>
+      <c r="K247" s="50"/>
+      <c r="L247" s="50"/>
+      <c r="M247" s="50"/>
+      <c r="N247" s="50"/>
+      <c r="O247" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="P247" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="51"/>
+      <c r="R247" s="51"/>
+    </row>
+    <row r="248" spans="2:18">
+      <c r="B248" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G248" s="49"/>
+      <c r="H248" s="50"/>
+      <c r="I248" s="50"/>
+      <c r="J248" s="50"/>
+      <c r="K248" s="50"/>
+      <c r="L248" s="50"/>
+      <c r="M248" s="50"/>
+      <c r="N248" s="50"/>
+      <c r="O248" s="49" t="s">
+        <v>1852</v>
+      </c>
+      <c r="P248" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q248" s="51"/>
+      <c r="R248" s="51"/>
+    </row>
+    <row r="249" spans="2:18" ht="15.75" thickBot="1">
+      <c r="C249" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G249" s="49"/>
+      <c r="H249" s="50"/>
+      <c r="I249" s="50"/>
+      <c r="J249" s="50"/>
+      <c r="K249" s="50"/>
+      <c r="L249" s="50"/>
+      <c r="M249" s="50"/>
+      <c r="N249" s="50"/>
+      <c r="O249" s="52"/>
+      <c r="P249" s="53"/>
+      <c r="Q249" s="54"/>
+      <c r="R249" s="51"/>
+    </row>
+    <row r="250" spans="2:18">
+      <c r="C250" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G250" s="49"/>
+      <c r="H250" s="50"/>
+      <c r="I250" s="50"/>
+      <c r="J250" s="50"/>
+      <c r="K250" s="50"/>
+      <c r="L250" s="50"/>
+      <c r="M250" s="50"/>
+      <c r="N250" s="50"/>
+      <c r="O250" s="50"/>
+      <c r="P250" s="50"/>
+      <c r="Q250" s="50"/>
+      <c r="R250" s="51"/>
+    </row>
+    <row r="251" spans="2:18">
+      <c r="C251" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G251" s="49"/>
+      <c r="H251" s="50"/>
+      <c r="I251" s="50"/>
+      <c r="J251" s="50"/>
+      <c r="K251" s="50"/>
+      <c r="L251" s="50"/>
+      <c r="M251" s="50"/>
+      <c r="N251" s="50"/>
+      <c r="O251" s="50"/>
+      <c r="P251" s="50"/>
+      <c r="Q251" s="50"/>
+      <c r="R251" s="51"/>
+    </row>
+    <row r="252" spans="2:18">
+      <c r="B252" t="s">
+        <v>144</v>
+      </c>
+      <c r="G252" s="49"/>
+      <c r="H252" s="50"/>
+      <c r="I252" s="50"/>
+      <c r="J252" s="50"/>
+      <c r="K252" s="50"/>
+      <c r="L252" s="50"/>
+      <c r="M252" s="50"/>
+      <c r="N252" s="50"/>
+      <c r="O252" s="50"/>
+      <c r="P252" s="50"/>
+      <c r="Q252" s="50"/>
+      <c r="R252" s="51"/>
+    </row>
+    <row r="253" spans="2:18">
+      <c r="B253" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G253" s="49"/>
+      <c r="H253" s="50"/>
+      <c r="I253" s="50"/>
+      <c r="J253" s="50"/>
+      <c r="K253" s="50"/>
+      <c r="L253" s="50"/>
+      <c r="M253" s="50"/>
+      <c r="N253" s="50"/>
+      <c r="O253" s="50"/>
+      <c r="P253" s="50"/>
+      <c r="Q253" s="50"/>
+      <c r="R253" s="51"/>
+    </row>
+    <row r="254" spans="2:18">
+      <c r="C254" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G254" s="49"/>
+      <c r="H254" s="50"/>
+      <c r="I254" s="50"/>
+      <c r="J254" s="50"/>
+      <c r="K254" s="50"/>
+      <c r="L254" s="50"/>
+      <c r="M254" s="50"/>
+      <c r="N254" s="50"/>
+      <c r="O254" s="50"/>
+      <c r="P254" s="50"/>
+      <c r="Q254" s="50"/>
+      <c r="R254" s="51"/>
+    </row>
+    <row r="255" spans="2:18">
+      <c r="C255" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G255" s="49"/>
+      <c r="H255" s="50"/>
+      <c r="I255" s="50"/>
+      <c r="J255" s="50"/>
+      <c r="K255" s="50"/>
+      <c r="L255" s="50"/>
+      <c r="M255" s="50"/>
+      <c r="N255" s="50"/>
+      <c r="O255" s="50"/>
+      <c r="P255" s="50"/>
+      <c r="Q255" s="50"/>
+      <c r="R255" s="51"/>
+    </row>
+    <row r="256" spans="2:18">
+      <c r="B256" t="s">
+        <v>144</v>
+      </c>
+      <c r="G256" s="49"/>
+      <c r="H256" s="50"/>
+      <c r="I256" s="50"/>
+      <c r="J256" s="50"/>
+      <c r="K256" s="50"/>
+      <c r="L256" s="50"/>
+      <c r="M256" s="50"/>
+      <c r="N256" s="50"/>
+      <c r="O256" s="50"/>
+      <c r="P256" s="50"/>
+      <c r="Q256" s="50"/>
+      <c r="R256" s="51"/>
+    </row>
+    <row r="257" spans="1:18">
+      <c r="G257" s="32"/>
+      <c r="H257" s="26"/>
+      <c r="I257" s="26"/>
+      <c r="J257" s="26"/>
+      <c r="K257" s="26"/>
+      <c r="L257" s="26"/>
+      <c r="M257" s="26"/>
+      <c r="N257" s="26"/>
+      <c r="O257" s="26"/>
+      <c r="P257" s="26"/>
+      <c r="Q257" s="26"/>
+      <c r="R257" s="33"/>
+    </row>
+    <row r="258" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A258" t="s">
         <v>1848</v>
       </c>
-      <c r="G145" s="34"/>
-      <c r="H145" s="35"/>
-      <c r="I145" s="35"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="35"/>
-      <c r="L145" s="35"/>
-      <c r="M145" s="35"/>
-      <c r="N145" s="35"/>
-      <c r="O145" s="35"/>
-      <c r="P145" s="35"/>
-      <c r="Q145" s="35"/>
-      <c r="R145" s="36"/>
-    </row>
-    <row r="146" spans="1:18">
-      <c r="B146" t="s">
+      <c r="G258" s="34"/>
+      <c r="H258" s="35"/>
+      <c r="I258" s="35"/>
+      <c r="J258" s="35"/>
+      <c r="K258" s="35"/>
+      <c r="L258" s="35"/>
+      <c r="M258" s="35"/>
+      <c r="N258" s="35"/>
+      <c r="O258" s="35"/>
+      <c r="P258" s="35"/>
+      <c r="Q258" s="35"/>
+      <c r="R258" s="36"/>
+    </row>
+    <row r="259" spans="1:18">
+      <c r="B259" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
-      <c r="B147" t="s">
+    <row r="260" spans="1:18">
+      <c r="B260" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
-      <c r="B148" t="s">
+    <row r="261" spans="1:18">
+      <c r="B261" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
-      <c r="A149" t="s">
+    <row r="262" spans="1:18">
+      <c r="A262" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A152" t="s">
+    <row r="265" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A265" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
-      <c r="C153" t="s">
+    <row r="266" spans="1:18">
+      <c r="C266" t="s">
         <v>273</v>
       </c>
-      <c r="G153" s="46"/>
-      <c r="H153" s="47" t="s">
+      <c r="G266" s="46"/>
+      <c r="H266" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="I153" s="47" t="s">
+      <c r="I266" s="47" t="s">
         <v>1438</v>
       </c>
-      <c r="J153" s="47"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="47"/>
-      <c r="M153" s="47"/>
-      <c r="N153" s="47"/>
-      <c r="O153" s="47"/>
-      <c r="P153" s="47"/>
-      <c r="Q153" s="47"/>
-      <c r="R153" s="48"/>
-    </row>
-    <row r="154" spans="1:18">
-      <c r="C154" t="s">
+      <c r="J266" s="47"/>
+      <c r="K266" s="47"/>
+      <c r="L266" s="47"/>
+      <c r="M266" s="47"/>
+      <c r="N266" s="47"/>
+      <c r="O266" s="47"/>
+      <c r="P266" s="47"/>
+      <c r="Q266" s="47"/>
+      <c r="R266" s="48"/>
+    </row>
+    <row r="267" spans="1:18">
+      <c r="C267" t="s">
         <v>342</v>
       </c>
-      <c r="G154" s="49"/>
-      <c r="H154" s="50" t="s">
+      <c r="G267" s="49"/>
+      <c r="H267" s="50" t="s">
         <v>402</v>
       </c>
-      <c r="I154" s="50">
+      <c r="I267" s="50">
         <v>10</v>
       </c>
-      <c r="J154" s="50"/>
-      <c r="K154" s="50"/>
-      <c r="L154" s="50"/>
-      <c r="M154" s="50"/>
-      <c r="N154" s="50"/>
-      <c r="O154" s="50"/>
-      <c r="P154" s="50"/>
-      <c r="Q154" s="50"/>
-      <c r="R154" s="51"/>
-    </row>
-    <row r="155" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C155" t="s">
+      <c r="J267" s="50"/>
+      <c r="K267" s="50"/>
+      <c r="L267" s="50"/>
+      <c r="M267" s="50"/>
+      <c r="N267" s="50"/>
+      <c r="O267" s="50"/>
+      <c r="P267" s="50"/>
+      <c r="Q267" s="50"/>
+      <c r="R267" s="51"/>
+    </row>
+    <row r="268" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C268" t="s">
         <v>1839</v>
       </c>
-      <c r="G155" s="49"/>
-      <c r="H155" s="50" t="s">
+      <c r="G268" s="49"/>
+      <c r="H268" s="50" t="s">
         <v>1260</v>
       </c>
-      <c r="I155" s="50" t="s">
+      <c r="I268" s="50" t="s">
         <v>1851</v>
       </c>
-      <c r="J155" s="116" t="s">
+      <c r="J268" s="116" t="s">
         <v>1865</v>
       </c>
-      <c r="K155" s="50"/>
-      <c r="L155" s="50"/>
-      <c r="M155" s="50"/>
-      <c r="N155" s="50"/>
-      <c r="O155" s="162" t="s">
+      <c r="K268" s="50"/>
+      <c r="L268" s="50"/>
+      <c r="M268" s="50"/>
+      <c r="N268" s="50"/>
+      <c r="O268" s="162" t="s">
         <v>1853</v>
       </c>
-      <c r="P155" s="50"/>
-      <c r="Q155" s="50"/>
-      <c r="R155" s="51"/>
-    </row>
-    <row r="156" spans="1:18">
-      <c r="C156" t="s">
+      <c r="P268" s="50"/>
+      <c r="Q268" s="50"/>
+      <c r="R268" s="51"/>
+    </row>
+    <row r="269" spans="1:18">
+      <c r="C269" t="s">
         <v>1859</v>
       </c>
-      <c r="G156" s="49"/>
-      <c r="H156" s="50" t="s">
+      <c r="G269" s="49"/>
+      <c r="H269" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="I156" s="50">
+      <c r="I269" s="50">
         <v>20</v>
       </c>
-      <c r="J156" s="50"/>
-      <c r="K156" s="50"/>
-      <c r="L156" s="50"/>
-      <c r="M156" s="50"/>
-      <c r="N156" s="50" t="s">
+      <c r="J269" s="50"/>
+      <c r="K269" s="50"/>
+      <c r="L269" s="50"/>
+      <c r="M269" s="50"/>
+      <c r="N269" s="50" t="s">
         <v>1851</v>
       </c>
-      <c r="O156" s="46"/>
-      <c r="P156" s="47"/>
-      <c r="Q156" s="48"/>
-      <c r="R156" s="51"/>
-    </row>
-    <row r="157" spans="1:18">
-      <c r="C157" t="s">
+      <c r="O269" s="46"/>
+      <c r="P269" s="47"/>
+      <c r="Q269" s="48"/>
+      <c r="R269" s="51"/>
+    </row>
+    <row r="270" spans="1:18">
+      <c r="C270" t="s">
         <v>1840</v>
       </c>
-      <c r="G157" s="49"/>
-      <c r="H157" s="50" t="s">
+      <c r="G270" s="49"/>
+      <c r="H270" s="50" t="s">
         <v>1871</v>
       </c>
-      <c r="I157" s="50" t="s">
+      <c r="I270" s="50" t="s">
         <v>1851</v>
       </c>
-      <c r="J157" s="50"/>
-      <c r="K157" s="50"/>
-      <c r="L157" s="50"/>
-      <c r="M157" s="50"/>
-      <c r="N157" s="50"/>
-      <c r="O157" s="49" t="s">
+      <c r="J270" s="50"/>
+      <c r="K270" s="50"/>
+      <c r="L270" s="50"/>
+      <c r="M270" s="50"/>
+      <c r="N270" s="50"/>
+      <c r="O270" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="P157" s="50" t="s">
+      <c r="P270" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="Q157" s="51"/>
-      <c r="R157" s="51"/>
-    </row>
-    <row r="158" spans="1:18">
-      <c r="C158" t="s">
+      <c r="Q270" s="51"/>
+      <c r="R270" s="51"/>
+    </row>
+    <row r="271" spans="1:18">
+      <c r="C271" t="s">
         <v>507</v>
       </c>
-      <c r="G158" s="49"/>
-      <c r="H158" s="50"/>
-      <c r="I158" s="50"/>
-      <c r="J158" s="50"/>
-      <c r="K158" s="50"/>
-      <c r="L158" s="50"/>
-      <c r="M158" s="50"/>
-      <c r="N158" s="50"/>
-      <c r="O158" s="49" t="s">
+      <c r="G271" s="49"/>
+      <c r="H271" s="50"/>
+      <c r="I271" s="50"/>
+      <c r="J271" s="50"/>
+      <c r="K271" s="50"/>
+      <c r="L271" s="50"/>
+      <c r="M271" s="50"/>
+      <c r="N271" s="50"/>
+      <c r="O271" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="P158" s="50">
+      <c r="P271" s="50">
         <v>0</v>
       </c>
-      <c r="Q158" s="51"/>
-      <c r="R158" s="51"/>
-    </row>
-    <row r="159" spans="1:18">
-      <c r="B159" t="s">
+      <c r="Q271" s="51"/>
+      <c r="R271" s="51"/>
+    </row>
+    <row r="272" spans="1:18">
+      <c r="B272" t="s">
         <v>144</v>
       </c>
-      <c r="G159" s="49"/>
-      <c r="H159" s="50"/>
-      <c r="I159" s="50"/>
-      <c r="J159" s="50"/>
-      <c r="K159" s="50"/>
-      <c r="L159" s="50"/>
-      <c r="M159" s="50"/>
-      <c r="N159" s="50"/>
-      <c r="O159" s="49" t="s">
+      <c r="G272" s="49"/>
+      <c r="H272" s="50"/>
+      <c r="I272" s="50"/>
+      <c r="J272" s="50"/>
+      <c r="K272" s="50"/>
+      <c r="L272" s="50"/>
+      <c r="M272" s="50"/>
+      <c r="N272" s="50"/>
+      <c r="O272" s="49" t="s">
         <v>1852</v>
       </c>
-      <c r="P159" s="50" t="s">
+      <c r="P272" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="Q159" s="51"/>
-      <c r="R159" s="51"/>
-    </row>
-    <row r="160" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B160" t="s">
+      <c r="Q272" s="51"/>
+      <c r="R272" s="51"/>
+    </row>
+    <row r="273" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B273" t="s">
         <v>1860</v>
       </c>
-      <c r="G160" s="49"/>
-      <c r="H160" s="50"/>
-      <c r="I160" s="50"/>
-      <c r="J160" s="50"/>
-      <c r="K160" s="50"/>
-      <c r="L160" s="50"/>
-      <c r="M160" s="50"/>
-      <c r="N160" s="50"/>
-      <c r="O160" s="52"/>
-      <c r="P160" s="53"/>
-      <c r="Q160" s="54"/>
-      <c r="R160" s="51"/>
-    </row>
-    <row r="161" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C161" t="s">
+      <c r="G273" s="49"/>
+      <c r="H273" s="50"/>
+      <c r="I273" s="50"/>
+      <c r="J273" s="50"/>
+      <c r="K273" s="50"/>
+      <c r="L273" s="50"/>
+      <c r="M273" s="50"/>
+      <c r="N273" s="50"/>
+      <c r="O273" s="52"/>
+      <c r="P273" s="53"/>
+      <c r="Q273" s="54"/>
+      <c r="R273" s="51"/>
+    </row>
+    <row r="274" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C274" t="s">
         <v>1861</v>
       </c>
-      <c r="G161" s="49"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="50"/>
-      <c r="J161" s="50"/>
-      <c r="K161" s="50"/>
-      <c r="L161" s="50"/>
-      <c r="M161" s="50"/>
-      <c r="N161" s="50"/>
-      <c r="O161" s="50"/>
-      <c r="P161" s="50"/>
-      <c r="Q161" s="50"/>
-      <c r="R161" s="51"/>
-    </row>
-    <row r="162" spans="1:18">
-      <c r="C162" t="s">
+      <c r="G274" s="49"/>
+      <c r="H274" s="50"/>
+      <c r="I274" s="50"/>
+      <c r="J274" s="50"/>
+      <c r="K274" s="50"/>
+      <c r="L274" s="50"/>
+      <c r="M274" s="50"/>
+      <c r="N274" s="50"/>
+      <c r="O274" s="50"/>
+      <c r="P274" s="50"/>
+      <c r="Q274" s="50"/>
+      <c r="R274" s="51"/>
+    </row>
+    <row r="275" spans="1:18">
+      <c r="C275" t="s">
         <v>1842</v>
       </c>
-      <c r="G162" s="49"/>
-      <c r="H162" s="50"/>
-      <c r="I162" s="50"/>
-      <c r="J162" s="50"/>
-      <c r="K162" s="50"/>
-      <c r="L162" s="50"/>
-      <c r="M162" s="50"/>
-      <c r="N162" s="50"/>
-      <c r="O162" s="46"/>
-      <c r="P162" s="47"/>
-      <c r="Q162" s="48"/>
-      <c r="R162" s="51"/>
-    </row>
-    <row r="163" spans="1:18">
-      <c r="C163" t="s">
+      <c r="G275" s="49"/>
+      <c r="H275" s="50"/>
+      <c r="I275" s="50"/>
+      <c r="J275" s="50"/>
+      <c r="K275" s="50"/>
+      <c r="L275" s="50"/>
+      <c r="M275" s="50"/>
+      <c r="N275" s="50"/>
+      <c r="O275" s="46"/>
+      <c r="P275" s="47"/>
+      <c r="Q275" s="48"/>
+      <c r="R275" s="51"/>
+    </row>
+    <row r="276" spans="1:18">
+      <c r="C276" t="s">
         <v>1843</v>
       </c>
-      <c r="G163" s="49"/>
-      <c r="H163" s="50"/>
-      <c r="I163" s="50"/>
-      <c r="J163" s="50"/>
-      <c r="K163" s="50"/>
-      <c r="L163" s="50"/>
-      <c r="M163" s="50"/>
-      <c r="N163" s="50"/>
-      <c r="O163" s="49"/>
-      <c r="P163" s="50"/>
-      <c r="Q163" s="51"/>
-      <c r="R163" s="51"/>
-    </row>
-    <row r="164" spans="1:18">
-      <c r="C164" t="s">
+      <c r="G276" s="49"/>
+      <c r="H276" s="50"/>
+      <c r="I276" s="50"/>
+      <c r="J276" s="50"/>
+      <c r="K276" s="50"/>
+      <c r="L276" s="50"/>
+      <c r="M276" s="50"/>
+      <c r="N276" s="50"/>
+      <c r="O276" s="49"/>
+      <c r="P276" s="50"/>
+      <c r="Q276" s="51"/>
+      <c r="R276" s="51"/>
+    </row>
+    <row r="277" spans="1:18">
+      <c r="C277" t="s">
         <v>1862</v>
       </c>
-      <c r="G164" s="49"/>
-      <c r="H164" s="50"/>
-      <c r="I164" s="50"/>
-      <c r="J164" s="50"/>
-      <c r="K164" s="50"/>
-      <c r="L164" s="50"/>
-      <c r="M164" s="50"/>
-      <c r="N164" s="50"/>
-      <c r="O164" s="49"/>
-      <c r="P164" s="50"/>
-      <c r="Q164" s="51"/>
-      <c r="R164" s="51"/>
-    </row>
-    <row r="165" spans="1:18">
-      <c r="B165" t="s">
+      <c r="G277" s="49"/>
+      <c r="H277" s="50"/>
+      <c r="I277" s="50"/>
+      <c r="J277" s="50"/>
+      <c r="K277" s="50"/>
+      <c r="L277" s="50"/>
+      <c r="M277" s="50"/>
+      <c r="N277" s="50"/>
+      <c r="O277" s="49"/>
+      <c r="P277" s="50"/>
+      <c r="Q277" s="51"/>
+      <c r="R277" s="51"/>
+    </row>
+    <row r="278" spans="1:18">
+      <c r="B278" t="s">
         <v>144</v>
       </c>
-      <c r="G165" s="49"/>
-      <c r="H165" s="50" t="s">
+      <c r="G278" s="49"/>
+      <c r="H278" s="50" t="s">
         <v>1866</v>
       </c>
-      <c r="I165" s="50"/>
-      <c r="J165" s="50"/>
-      <c r="K165" s="50"/>
-      <c r="L165" s="50"/>
-      <c r="M165" s="50"/>
-      <c r="N165" s="50"/>
-      <c r="O165" s="49"/>
-      <c r="P165" s="50"/>
-      <c r="Q165" s="51"/>
-      <c r="R165" s="51"/>
-    </row>
-    <row r="166" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B166" t="s">
+      <c r="I278" s="50"/>
+      <c r="J278" s="50"/>
+      <c r="K278" s="50"/>
+      <c r="L278" s="50"/>
+      <c r="M278" s="50"/>
+      <c r="N278" s="50"/>
+      <c r="O278" s="49"/>
+      <c r="P278" s="50"/>
+      <c r="Q278" s="51"/>
+      <c r="R278" s="51"/>
+    </row>
+    <row r="279" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B279" t="s">
         <v>1863</v>
       </c>
-      <c r="G166" s="49"/>
-      <c r="H166" s="50" t="s">
+      <c r="G279" s="49"/>
+      <c r="H279" s="50" t="s">
         <v>1870</v>
       </c>
-      <c r="I166" s="50"/>
-      <c r="J166" s="50"/>
-      <c r="K166" s="50"/>
-      <c r="L166" s="50"/>
-      <c r="M166" s="50"/>
-      <c r="N166" s="50"/>
-      <c r="O166" s="52"/>
-      <c r="P166" s="53"/>
-      <c r="Q166" s="54"/>
-      <c r="R166" s="51"/>
-    </row>
-    <row r="167" spans="1:18">
-      <c r="C167" t="s">
+      <c r="I279" s="50"/>
+      <c r="J279" s="50"/>
+      <c r="K279" s="50"/>
+      <c r="L279" s="50"/>
+      <c r="M279" s="50"/>
+      <c r="N279" s="50"/>
+      <c r="O279" s="52"/>
+      <c r="P279" s="53"/>
+      <c r="Q279" s="54"/>
+      <c r="R279" s="51"/>
+    </row>
+    <row r="280" spans="1:18">
+      <c r="C280" t="s">
         <v>1864</v>
       </c>
-      <c r="G167" s="49"/>
-      <c r="H167" s="50" t="s">
+      <c r="G280" s="49"/>
+      <c r="H280" s="50" t="s">
         <v>1867</v>
       </c>
-      <c r="I167" s="50"/>
-      <c r="J167" s="50"/>
-      <c r="K167" s="50"/>
-      <c r="L167" s="50"/>
-      <c r="M167" s="50"/>
-      <c r="N167" s="50"/>
-      <c r="O167" s="50"/>
-      <c r="P167" s="50"/>
-      <c r="Q167" s="50"/>
-      <c r="R167" s="51"/>
-    </row>
-    <row r="168" spans="1:18">
-      <c r="C168" t="s">
+      <c r="I280" s="50"/>
+      <c r="J280" s="50"/>
+      <c r="K280" s="50"/>
+      <c r="L280" s="50"/>
+      <c r="M280" s="50"/>
+      <c r="N280" s="50"/>
+      <c r="O280" s="50"/>
+      <c r="P280" s="50"/>
+      <c r="Q280" s="50"/>
+      <c r="R280" s="51"/>
+    </row>
+    <row r="281" spans="1:18">
+      <c r="C281" t="s">
         <v>1846</v>
       </c>
-      <c r="G168" s="49"/>
-      <c r="H168" s="50" t="s">
+      <c r="G281" s="49"/>
+      <c r="H281" s="50" t="s">
         <v>1868</v>
       </c>
-      <c r="I168" s="50"/>
-      <c r="J168" s="50"/>
-      <c r="K168" s="50"/>
-      <c r="L168" s="50"/>
-      <c r="M168" s="50"/>
-      <c r="N168" s="50"/>
-      <c r="O168" s="50"/>
-      <c r="P168" s="50"/>
-      <c r="Q168" s="50"/>
-      <c r="R168" s="51"/>
-    </row>
-    <row r="169" spans="1:18">
-      <c r="C169" t="s">
+      <c r="I281" s="50"/>
+      <c r="J281" s="50"/>
+      <c r="K281" s="50"/>
+      <c r="L281" s="50"/>
+      <c r="M281" s="50"/>
+      <c r="N281" s="50"/>
+      <c r="O281" s="50"/>
+      <c r="P281" s="50"/>
+      <c r="Q281" s="50"/>
+      <c r="R281" s="51"/>
+    </row>
+    <row r="282" spans="1:18">
+      <c r="C282" t="s">
         <v>1847</v>
       </c>
-      <c r="G169" s="49"/>
-      <c r="H169" s="50" t="s">
+      <c r="G282" s="49"/>
+      <c r="H282" s="50" t="s">
         <v>1869</v>
       </c>
-      <c r="I169" s="50"/>
-      <c r="J169" s="50"/>
-      <c r="K169" s="50"/>
-      <c r="L169" s="50"/>
-      <c r="M169" s="50"/>
-      <c r="N169" s="50"/>
-      <c r="O169" s="50"/>
-      <c r="P169" s="50"/>
-      <c r="Q169" s="50"/>
-      <c r="R169" s="51"/>
-    </row>
-    <row r="170" spans="1:18">
-      <c r="B170" t="s">
+      <c r="I282" s="50"/>
+      <c r="J282" s="50"/>
+      <c r="K282" s="50"/>
+      <c r="L282" s="50"/>
+      <c r="M282" s="50"/>
+      <c r="N282" s="50"/>
+      <c r="O282" s="50"/>
+      <c r="P282" s="50"/>
+      <c r="Q282" s="50"/>
+      <c r="R282" s="51"/>
+    </row>
+    <row r="283" spans="1:18">
+      <c r="B283" t="s">
         <v>144</v>
       </c>
-      <c r="G170" s="49"/>
-      <c r="H170" s="50"/>
-      <c r="I170" s="50"/>
-      <c r="J170" s="50"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="50"/>
-      <c r="M170" s="50"/>
-      <c r="N170" s="50"/>
-      <c r="O170" s="50"/>
-      <c r="P170" s="50"/>
-      <c r="Q170" s="50"/>
-      <c r="R170" s="51"/>
-    </row>
-    <row r="171" spans="1:18">
-      <c r="A171" t="s">
+      <c r="G283" s="49"/>
+      <c r="H283" s="50"/>
+      <c r="I283" s="50"/>
+      <c r="J283" s="50"/>
+      <c r="K283" s="50"/>
+      <c r="L283" s="50"/>
+      <c r="M283" s="50"/>
+      <c r="N283" s="50"/>
+      <c r="O283" s="50"/>
+      <c r="P283" s="50"/>
+      <c r="Q283" s="50"/>
+      <c r="R283" s="51"/>
+    </row>
+    <row r="284" spans="1:18">
+      <c r="A284" t="s">
         <v>144</v>
       </c>
-      <c r="G171" s="49"/>
-      <c r="H171" s="50"/>
-      <c r="I171" s="50"/>
-      <c r="J171" s="50"/>
-      <c r="K171" s="50"/>
-      <c r="L171" s="50"/>
-      <c r="M171" s="50"/>
-      <c r="N171" s="50"/>
-      <c r="O171" s="50"/>
-      <c r="P171" s="50"/>
-      <c r="Q171" s="50"/>
-      <c r="R171" s="51"/>
-    </row>
-    <row r="172" spans="1:18">
-      <c r="A172" t="s">
+      <c r="G284" s="49"/>
+      <c r="H284" s="50"/>
+      <c r="I284" s="50"/>
+      <c r="J284" s="50"/>
+      <c r="K284" s="50"/>
+      <c r="L284" s="50"/>
+      <c r="M284" s="50"/>
+      <c r="N284" s="50"/>
+      <c r="O284" s="50"/>
+      <c r="P284" s="50"/>
+      <c r="Q284" s="50"/>
+      <c r="R284" s="51"/>
+    </row>
+    <row r="285" spans="1:18">
+      <c r="A285" t="s">
         <v>1848</v>
       </c>
-      <c r="G172" s="49"/>
-      <c r="H172" s="50"/>
-      <c r="I172" s="50"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="50"/>
-      <c r="L172" s="50"/>
-      <c r="M172" s="50"/>
-      <c r="N172" s="50"/>
-      <c r="O172" s="50"/>
-      <c r="P172" s="50"/>
-      <c r="Q172" s="50"/>
-      <c r="R172" s="51"/>
-    </row>
-    <row r="173" spans="1:18">
-      <c r="B173" t="s">
+      <c r="G285" s="49"/>
+      <c r="H285" s="50"/>
+      <c r="I285" s="50"/>
+      <c r="J285" s="50"/>
+      <c r="K285" s="50"/>
+      <c r="L285" s="50"/>
+      <c r="M285" s="50"/>
+      <c r="N285" s="50"/>
+      <c r="O285" s="50"/>
+      <c r="P285" s="50"/>
+      <c r="Q285" s="50"/>
+      <c r="R285" s="51"/>
+    </row>
+    <row r="286" spans="1:18">
+      <c r="B286" t="s">
         <v>460</v>
       </c>
-      <c r="G173" s="49"/>
-      <c r="H173" s="50"/>
-      <c r="I173" s="50"/>
-      <c r="J173" s="50"/>
-      <c r="K173" s="50"/>
-      <c r="L173" s="50"/>
-      <c r="M173" s="50"/>
-      <c r="N173" s="50"/>
-      <c r="O173" s="50"/>
-      <c r="P173" s="50"/>
-      <c r="Q173" s="50"/>
-      <c r="R173" s="51"/>
-    </row>
-    <row r="174" spans="1:18">
-      <c r="B174" t="s">
+      <c r="G286" s="49"/>
+      <c r="H286" s="50"/>
+      <c r="I286" s="50"/>
+      <c r="J286" s="50"/>
+      <c r="K286" s="50"/>
+      <c r="L286" s="50"/>
+      <c r="M286" s="50"/>
+      <c r="N286" s="50"/>
+      <c r="O286" s="50"/>
+      <c r="P286" s="50"/>
+      <c r="Q286" s="50"/>
+      <c r="R286" s="51"/>
+    </row>
+    <row r="287" spans="1:18">
+      <c r="B287" t="s">
         <v>1849</v>
       </c>
-      <c r="G174" s="32"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="26"/>
-      <c r="J174" s="26"/>
-      <c r="K174" s="26"/>
-      <c r="L174" s="26"/>
-      <c r="M174" s="26"/>
-      <c r="N174" s="26"/>
-      <c r="O174" s="26"/>
-      <c r="P174" s="26"/>
-      <c r="Q174" s="26"/>
-      <c r="R174" s="33"/>
-    </row>
-    <row r="175" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B175" t="s">
+      <c r="G287" s="32"/>
+      <c r="H287" s="26"/>
+      <c r="I287" s="26"/>
+      <c r="J287" s="26"/>
+      <c r="K287" s="26"/>
+      <c r="L287" s="26"/>
+      <c r="M287" s="26"/>
+      <c r="N287" s="26"/>
+      <c r="O287" s="26"/>
+      <c r="P287" s="26"/>
+      <c r="Q287" s="26"/>
+      <c r="R287" s="33"/>
+    </row>
+    <row r="288" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B288" t="s">
         <v>1850</v>
       </c>
-      <c r="G175" s="34"/>
-      <c r="H175" s="35"/>
-      <c r="I175" s="35"/>
-      <c r="J175" s="35"/>
-      <c r="K175" s="35"/>
-      <c r="L175" s="35"/>
-      <c r="M175" s="35"/>
-      <c r="N175" s="35"/>
-      <c r="O175" s="35"/>
-      <c r="P175" s="35"/>
-      <c r="Q175" s="35"/>
-      <c r="R175" s="36"/>
-    </row>
-    <row r="176" spans="1:18">
-      <c r="A176" t="s">
+      <c r="G288" s="34"/>
+      <c r="H288" s="35"/>
+      <c r="I288" s="35"/>
+      <c r="J288" s="35"/>
+      <c r="K288" s="35"/>
+      <c r="L288" s="35"/>
+      <c r="M288" s="35"/>
+      <c r="N288" s="35"/>
+      <c r="O288" s="35"/>
+      <c r="P288" s="35"/>
+      <c r="Q288" s="35"/>
+      <c r="R288" s="36"/>
+    </row>
+    <row r="289" spans="1:18">
+      <c r="A289" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="178" spans="1:18">
-      <c r="A178" t="s">
+    <row r="290" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="291" spans="1:18">
+      <c r="A291" t="s">
         <v>426</v>
       </c>
-      <c r="F178" s="29"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="30"/>
-      <c r="I178" s="30"/>
-      <c r="J178" s="30"/>
-      <c r="K178" s="30"/>
-      <c r="L178" s="30"/>
-      <c r="M178" s="30"/>
-      <c r="N178" s="30"/>
-      <c r="O178" s="30"/>
-      <c r="P178" s="30"/>
-      <c r="Q178" s="30"/>
-      <c r="R178" s="31"/>
-    </row>
-    <row r="179" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B179" t="s">
+      <c r="F291" s="29"/>
+      <c r="G291" s="30"/>
+      <c r="H291" s="30"/>
+      <c r="I291" s="30"/>
+      <c r="J291" s="30"/>
+      <c r="K291" s="30"/>
+      <c r="L291" s="30"/>
+      <c r="M291" s="30"/>
+      <c r="N291" s="30"/>
+      <c r="O291" s="30"/>
+      <c r="P291" s="30"/>
+      <c r="Q291" s="30"/>
+      <c r="R291" s="31"/>
+    </row>
+    <row r="292" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B292" t="s">
         <v>3026</v>
       </c>
-      <c r="F179" s="32"/>
-      <c r="G179" s="26" t="s">
+      <c r="F292" s="32"/>
+      <c r="G292" s="26" t="s">
         <v>2104</v>
       </c>
-      <c r="H179" s="26" t="s">
+      <c r="H292" s="26" t="s">
         <v>2424</v>
       </c>
-      <c r="I179" s="26"/>
-      <c r="J179" s="26"/>
-      <c r="K179" s="26"/>
-      <c r="L179" s="26"/>
-      <c r="M179" s="26"/>
-      <c r="N179" s="26"/>
-      <c r="O179" s="26"/>
-      <c r="P179" s="26"/>
-      <c r="Q179" s="26"/>
-      <c r="R179" s="33"/>
-    </row>
-    <row r="180" spans="1:18">
-      <c r="B180" t="s">
+      <c r="I292" s="26"/>
+      <c r="J292" s="26"/>
+      <c r="K292" s="26"/>
+      <c r="L292" s="26"/>
+      <c r="M292" s="26"/>
+      <c r="N292" s="26"/>
+      <c r="O292" s="26"/>
+      <c r="P292" s="26"/>
+      <c r="Q292" s="26"/>
+      <c r="R292" s="33"/>
+    </row>
+    <row r="293" spans="1:18">
+      <c r="B293" t="s">
         <v>3006</v>
       </c>
-      <c r="F180" s="32"/>
-      <c r="G180" s="50" t="s">
+      <c r="F293" s="32"/>
+      <c r="G293" s="50" t="s">
         <v>2996</v>
       </c>
-      <c r="H180" s="50" t="s">
+      <c r="H293" s="50" t="s">
         <v>2017</v>
       </c>
-      <c r="I180" s="26"/>
-      <c r="J180" s="26" t="s">
+      <c r="I293" s="26"/>
+      <c r="J293" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="K180" s="29"/>
-      <c r="L180" s="31"/>
-      <c r="M180" s="26"/>
-      <c r="N180" s="26"/>
-      <c r="O180" s="26"/>
-      <c r="P180" s="26"/>
-      <c r="Q180" s="26"/>
-      <c r="R180" s="33"/>
-    </row>
-    <row r="181" spans="1:18">
-      <c r="B181" t="s">
+      <c r="K293" s="29"/>
+      <c r="L293" s="31"/>
+      <c r="M293" s="26"/>
+      <c r="N293" s="26"/>
+      <c r="O293" s="26"/>
+      <c r="P293" s="26"/>
+      <c r="Q293" s="26"/>
+      <c r="R293" s="33"/>
+    </row>
+    <row r="294" spans="1:18">
+      <c r="B294" t="s">
         <v>273</v>
       </c>
-      <c r="F181" s="32"/>
-      <c r="G181" s="50" t="s">
+      <c r="F294" s="32"/>
+      <c r="G294" s="50" t="s">
         <v>402</v>
       </c>
-      <c r="H181" s="50">
+      <c r="H294" s="50">
         <v>10</v>
       </c>
-      <c r="I181" s="26"/>
-      <c r="J181" s="26"/>
-      <c r="K181" s="32" t="s">
+      <c r="I294" s="26"/>
+      <c r="J294" s="26"/>
+      <c r="K294" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="L181" s="33" t="s">
+      <c r="L294" s="33" t="s">
         <v>1026</v>
       </c>
-      <c r="M181" s="26"/>
-      <c r="N181" s="26"/>
-      <c r="O181" s="26"/>
-      <c r="P181" s="26"/>
-      <c r="Q181" s="26"/>
-      <c r="R181" s="33"/>
-    </row>
-    <row r="182" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B182" t="s">
+      <c r="M294" s="26"/>
+      <c r="N294" s="26"/>
+      <c r="O294" s="26"/>
+      <c r="P294" s="26"/>
+      <c r="Q294" s="26"/>
+      <c r="R294" s="33"/>
+    </row>
+    <row r="295" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B295" t="s">
         <v>3036</v>
       </c>
-      <c r="F182" s="32"/>
-      <c r="G182" s="50" t="s">
+      <c r="F295" s="32"/>
+      <c r="G295" s="50" t="s">
         <v>1260</v>
       </c>
-      <c r="H182" s="50" t="s">
+      <c r="H295" s="50" t="s">
         <v>2017</v>
       </c>
-      <c r="I182" s="26"/>
-      <c r="J182" s="26"/>
-      <c r="K182" s="34"/>
-      <c r="L182" s="36"/>
-      <c r="M182" s="26"/>
-      <c r="N182" s="26"/>
-      <c r="O182" s="26"/>
-      <c r="P182" s="26"/>
-      <c r="Q182" s="26"/>
-      <c r="R182" s="33"/>
-    </row>
-    <row r="183" spans="1:18">
-      <c r="B183" t="s">
+      <c r="I295" s="26"/>
+      <c r="J295" s="26"/>
+      <c r="K295" s="34"/>
+      <c r="L295" s="36"/>
+      <c r="M295" s="26"/>
+      <c r="N295" s="26"/>
+      <c r="O295" s="26"/>
+      <c r="P295" s="26"/>
+      <c r="Q295" s="26"/>
+      <c r="R295" s="33"/>
+    </row>
+    <row r="296" spans="1:18">
+      <c r="B296" t="s">
         <v>3008</v>
       </c>
-      <c r="F183" s="32"/>
-      <c r="G183" s="50" t="s">
+      <c r="F296" s="32"/>
+      <c r="G296" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="H183" s="50">
+      <c r="H296" s="50">
         <v>10</v>
       </c>
-      <c r="I183" s="26"/>
-      <c r="J183" s="26"/>
-      <c r="K183" s="26"/>
-      <c r="L183" s="26"/>
-      <c r="M183" s="26"/>
-      <c r="N183" s="26"/>
-      <c r="O183" s="26"/>
-      <c r="P183" s="26"/>
-      <c r="Q183" s="26"/>
-      <c r="R183" s="33"/>
-    </row>
-    <row r="184" spans="1:18">
-      <c r="B184" t="s">
+      <c r="I296" s="26"/>
+      <c r="J296" s="26"/>
+      <c r="K296" s="26"/>
+      <c r="L296" s="26"/>
+      <c r="M296" s="26"/>
+      <c r="N296" s="26"/>
+      <c r="O296" s="26"/>
+      <c r="P296" s="26"/>
+      <c r="Q296" s="26"/>
+      <c r="R296" s="33"/>
+    </row>
+    <row r="297" spans="1:18">
+      <c r="B297" t="s">
         <v>507</v>
       </c>
-      <c r="F184" s="32"/>
-      <c r="G184" s="50"/>
-      <c r="H184" s="50"/>
-      <c r="I184" s="26"/>
-      <c r="J184" s="26"/>
-      <c r="K184" s="26"/>
-      <c r="L184" s="26"/>
-      <c r="M184" s="26"/>
-      <c r="N184" s="26"/>
-      <c r="O184" s="26"/>
-      <c r="P184" s="26"/>
-      <c r="Q184" s="26"/>
-      <c r="R184" s="33"/>
-    </row>
-    <row r="185" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A185" t="s">
+      <c r="F297" s="32"/>
+      <c r="G297" s="50"/>
+      <c r="H297" s="50"/>
+      <c r="I297" s="26"/>
+      <c r="J297" s="26"/>
+      <c r="K297" s="26"/>
+      <c r="L297" s="26"/>
+      <c r="M297" s="26"/>
+      <c r="N297" s="26"/>
+      <c r="O297" s="26"/>
+      <c r="P297" s="26"/>
+      <c r="Q297" s="26"/>
+      <c r="R297" s="33"/>
+    </row>
+    <row r="298" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A298" t="s">
         <v>144</v>
       </c>
-      <c r="F185" s="32"/>
-      <c r="G185" s="50"/>
-      <c r="H185" s="50"/>
-      <c r="I185" s="26"/>
-      <c r="J185" s="26"/>
-      <c r="K185" s="26"/>
-      <c r="L185" s="26"/>
-      <c r="M185" s="26"/>
-      <c r="N185" s="26"/>
-      <c r="O185" s="26"/>
-      <c r="P185" s="26"/>
-      <c r="Q185" s="26"/>
-      <c r="R185" s="33"/>
-    </row>
-    <row r="186" spans="1:18">
-      <c r="A186" t="s">
+      <c r="F298" s="32"/>
+      <c r="G298" s="50"/>
+      <c r="H298" s="50"/>
+      <c r="I298" s="26"/>
+      <c r="J298" s="26"/>
+      <c r="K298" s="26"/>
+      <c r="L298" s="26"/>
+      <c r="M298" s="26"/>
+      <c r="N298" s="26"/>
+      <c r="O298" s="26"/>
+      <c r="P298" s="26"/>
+      <c r="Q298" s="26"/>
+      <c r="R298" s="33"/>
+    </row>
+    <row r="299" spans="1:18">
+      <c r="A299" t="s">
         <v>3035</v>
       </c>
-      <c r="F186" s="32"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="50"/>
-      <c r="I186" s="26"/>
-      <c r="J186" s="26" t="s">
+      <c r="F299" s="32"/>
+      <c r="G299" s="50"/>
+      <c r="H299" s="50"/>
+      <c r="I299" s="26"/>
+      <c r="J299" s="26" t="s">
         <v>2017</v>
       </c>
-      <c r="K186" s="29"/>
-      <c r="L186" s="31"/>
-      <c r="M186" s="26"/>
-      <c r="N186" s="26"/>
-      <c r="O186" s="26"/>
-      <c r="P186" s="26"/>
-      <c r="Q186" s="26"/>
-      <c r="R186" s="33"/>
-    </row>
-    <row r="187" spans="1:18">
-      <c r="B187" t="s">
+      <c r="K299" s="29"/>
+      <c r="L299" s="31"/>
+      <c r="M299" s="26"/>
+      <c r="N299" s="26"/>
+      <c r="O299" s="26"/>
+      <c r="P299" s="26"/>
+      <c r="Q299" s="26"/>
+      <c r="R299" s="33"/>
+    </row>
+    <row r="300" spans="1:18">
+      <c r="B300" t="s">
         <v>1839</v>
       </c>
-      <c r="F187" s="32"/>
-      <c r="G187" s="50"/>
-      <c r="H187" s="50"/>
-      <c r="I187" s="26"/>
-      <c r="J187" s="26"/>
-      <c r="K187" s="32" t="s">
+      <c r="F300" s="32"/>
+      <c r="G300" s="50"/>
+      <c r="H300" s="50"/>
+      <c r="I300" s="26"/>
+      <c r="J300" s="26"/>
+      <c r="K300" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="L187" s="33" t="s">
+      <c r="L300" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="M187" s="26"/>
-      <c r="N187" s="26"/>
-      <c r="O187" s="26"/>
-      <c r="P187" s="26"/>
-      <c r="Q187" s="26"/>
-      <c r="R187" s="33"/>
-    </row>
-    <row r="188" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B188" t="s">
+      <c r="M300" s="26"/>
+      <c r="N300" s="26"/>
+      <c r="O300" s="26"/>
+      <c r="P300" s="26"/>
+      <c r="Q300" s="26"/>
+      <c r="R300" s="33"/>
+    </row>
+    <row r="301" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B301" t="s">
         <v>3027</v>
       </c>
-      <c r="F188" s="32"/>
-      <c r="G188" s="26"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="26"/>
-      <c r="J188" s="26"/>
-      <c r="K188" s="34"/>
-      <c r="L188" s="36"/>
-      <c r="M188" s="26"/>
-      <c r="N188" s="26"/>
-      <c r="O188" s="26"/>
-      <c r="P188" s="26"/>
-      <c r="Q188" s="26"/>
-      <c r="R188" s="33"/>
-    </row>
-    <row r="189" spans="1:18">
-      <c r="B189" t="s">
+      <c r="F301" s="32"/>
+      <c r="G301" s="26"/>
+      <c r="H301" s="26"/>
+      <c r="I301" s="26"/>
+      <c r="J301" s="26"/>
+      <c r="K301" s="34"/>
+      <c r="L301" s="36"/>
+      <c r="M301" s="26"/>
+      <c r="N301" s="26"/>
+      <c r="O301" s="26"/>
+      <c r="P301" s="26"/>
+      <c r="Q301" s="26"/>
+      <c r="R301" s="33"/>
+    </row>
+    <row r="302" spans="1:18">
+      <c r="B302" t="s">
         <v>2077</v>
       </c>
-      <c r="F189" s="32"/>
-      <c r="G189" t="s">
+      <c r="F302" s="32"/>
+      <c r="G302" t="s">
         <v>3034</v>
       </c>
-      <c r="H189" s="26"/>
-      <c r="I189" s="26"/>
-      <c r="J189" s="26"/>
-      <c r="K189" s="26"/>
-      <c r="L189" s="26"/>
-      <c r="M189" s="26"/>
-      <c r="N189" s="26"/>
-      <c r="O189" s="26"/>
-      <c r="P189" s="26"/>
-      <c r="Q189" s="26"/>
-      <c r="R189" s="33"/>
-    </row>
-    <row r="190" spans="1:18">
-      <c r="B190" t="s">
+      <c r="H302" s="26"/>
+      <c r="I302" s="26"/>
+      <c r="J302" s="26"/>
+      <c r="K302" s="26"/>
+      <c r="L302" s="26"/>
+      <c r="M302" s="26"/>
+      <c r="N302" s="26"/>
+      <c r="O302" s="26"/>
+      <c r="P302" s="26"/>
+      <c r="Q302" s="26"/>
+      <c r="R302" s="33"/>
+    </row>
+    <row r="303" spans="1:18">
+      <c r="B303" t="s">
         <v>3005</v>
       </c>
-      <c r="F190" s="32"/>
-      <c r="G190" s="26"/>
-      <c r="H190" s="26"/>
-      <c r="I190" s="26"/>
-      <c r="J190" s="26"/>
-      <c r="K190" s="26"/>
-      <c r="L190" s="26"/>
-      <c r="M190" s="26"/>
-      <c r="N190" s="26"/>
-      <c r="O190" s="26"/>
-      <c r="P190" s="26"/>
-      <c r="Q190" s="26"/>
-      <c r="R190" s="33"/>
-    </row>
-    <row r="191" spans="1:18">
-      <c r="A191" t="s">
+      <c r="F303" s="32"/>
+      <c r="G303" s="26"/>
+      <c r="H303" s="26"/>
+      <c r="I303" s="26"/>
+      <c r="J303" s="26"/>
+      <c r="K303" s="26"/>
+      <c r="L303" s="26"/>
+      <c r="M303" s="26"/>
+      <c r="N303" s="26"/>
+      <c r="O303" s="26"/>
+      <c r="P303" s="26"/>
+      <c r="Q303" s="26"/>
+      <c r="R303" s="33"/>
+    </row>
+    <row r="304" spans="1:18">
+      <c r="A304" t="s">
         <v>144</v>
       </c>
-      <c r="F191" s="32"/>
-      <c r="G191" s="26"/>
-      <c r="H191" s="26"/>
-      <c r="I191" s="26"/>
-      <c r="J191" s="26"/>
-      <c r="K191" s="26"/>
-      <c r="L191" s="26"/>
-      <c r="M191" s="26"/>
-      <c r="N191" s="26"/>
-      <c r="O191" s="26"/>
-      <c r="P191" s="26"/>
-      <c r="Q191" s="26"/>
-      <c r="R191" s="33"/>
-    </row>
-    <row r="192" spans="1:18">
-      <c r="A192" t="s">
+      <c r="F304" s="32"/>
+      <c r="G304" s="26"/>
+      <c r="H304" s="26"/>
+      <c r="I304" s="26"/>
+      <c r="J304" s="26"/>
+      <c r="K304" s="26"/>
+      <c r="L304" s="26"/>
+      <c r="M304" s="26"/>
+      <c r="N304" s="26"/>
+      <c r="O304" s="26"/>
+      <c r="P304" s="26"/>
+      <c r="Q304" s="26"/>
+      <c r="R304" s="33"/>
+    </row>
+    <row r="305" spans="1:18">
+      <c r="A305" t="s">
         <v>3028</v>
       </c>
-      <c r="F192" s="32"/>
-      <c r="G192" s="26"/>
-      <c r="H192" s="26"/>
-      <c r="I192" s="26"/>
-      <c r="J192" s="26"/>
-      <c r="K192" s="26"/>
-      <c r="L192" s="26"/>
-      <c r="M192" s="26"/>
-      <c r="N192" s="26"/>
-      <c r="O192" s="26"/>
-      <c r="P192" s="26"/>
-      <c r="Q192" s="26"/>
-      <c r="R192" s="33"/>
-    </row>
-    <row r="193" spans="1:18">
-      <c r="B193" t="s">
+      <c r="F305" s="32"/>
+      <c r="G305" s="26"/>
+      <c r="H305" s="26"/>
+      <c r="I305" s="26"/>
+      <c r="J305" s="26"/>
+      <c r="K305" s="26"/>
+      <c r="L305" s="26"/>
+      <c r="M305" s="26"/>
+      <c r="N305" s="26"/>
+      <c r="O305" s="26"/>
+      <c r="P305" s="26"/>
+      <c r="Q305" s="26"/>
+      <c r="R305" s="33"/>
+    </row>
+    <row r="306" spans="1:18">
+      <c r="B306" t="s">
         <v>1847</v>
       </c>
-      <c r="F193" s="32"/>
-      <c r="G193" s="26"/>
-      <c r="H193" s="26"/>
-      <c r="I193" s="26"/>
-      <c r="J193" s="26"/>
-      <c r="K193" s="26"/>
-      <c r="L193" s="26"/>
-      <c r="M193" s="26"/>
-      <c r="N193" s="26"/>
-      <c r="O193" s="26"/>
-      <c r="P193" s="26"/>
-      <c r="Q193" s="26"/>
-      <c r="R193" s="33"/>
-    </row>
-    <row r="194" spans="1:18">
-      <c r="B194" t="s">
+      <c r="F306" s="32"/>
+      <c r="G306" s="26"/>
+      <c r="H306" s="26"/>
+      <c r="I306" s="26"/>
+      <c r="J306" s="26"/>
+      <c r="K306" s="26"/>
+      <c r="L306" s="26"/>
+      <c r="M306" s="26"/>
+      <c r="N306" s="26"/>
+      <c r="O306" s="26"/>
+      <c r="P306" s="26"/>
+      <c r="Q306" s="26"/>
+      <c r="R306" s="33"/>
+    </row>
+    <row r="307" spans="1:18">
+      <c r="B307" t="s">
         <v>3029</v>
       </c>
-      <c r="F194" s="32"/>
-      <c r="G194" s="26" t="s">
+      <c r="F307" s="32"/>
+      <c r="G307" s="26" t="s">
         <v>3033</v>
       </c>
-      <c r="H194" s="26"/>
-      <c r="I194" s="26"/>
-      <c r="J194" s="26"/>
-      <c r="K194" s="26"/>
-      <c r="L194" s="26"/>
-      <c r="M194" s="26"/>
-      <c r="N194" s="26"/>
-      <c r="O194" s="26"/>
-      <c r="P194" s="26"/>
-      <c r="Q194" s="26"/>
-      <c r="R194" s="33"/>
-    </row>
-    <row r="195" spans="1:18">
-      <c r="A195" t="s">
+      <c r="H307" s="26"/>
+      <c r="I307" s="26"/>
+      <c r="J307" s="26"/>
+      <c r="K307" s="26"/>
+      <c r="L307" s="26"/>
+      <c r="M307" s="26"/>
+      <c r="N307" s="26"/>
+      <c r="O307" s="26"/>
+      <c r="P307" s="26"/>
+      <c r="Q307" s="26"/>
+      <c r="R307" s="33"/>
+    </row>
+    <row r="308" spans="1:18">
+      <c r="A308" t="s">
         <v>144</v>
       </c>
-      <c r="F195" s="32"/>
-      <c r="G195" s="26" t="s">
+      <c r="F308" s="32"/>
+      <c r="G308" s="26" t="s">
         <v>3032</v>
       </c>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="26"/>
-      <c r="K195" s="26"/>
-      <c r="L195" s="26"/>
-      <c r="M195" s="26"/>
-      <c r="N195" s="26"/>
-      <c r="O195" s="26"/>
-      <c r="P195" s="26"/>
-      <c r="Q195" s="26"/>
-      <c r="R195" s="33"/>
-    </row>
-    <row r="196" spans="1:18">
-      <c r="A196" t="s">
+      <c r="H308" s="26"/>
+      <c r="I308" s="26"/>
+      <c r="J308" s="26"/>
+      <c r="K308" s="26"/>
+      <c r="L308" s="26"/>
+      <c r="M308" s="26"/>
+      <c r="N308" s="26"/>
+      <c r="O308" s="26"/>
+      <c r="P308" s="26"/>
+      <c r="Q308" s="26"/>
+      <c r="R308" s="33"/>
+    </row>
+    <row r="309" spans="1:18">
+      <c r="A309" t="s">
         <v>3030</v>
       </c>
-      <c r="F196" s="32"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="26"/>
-      <c r="I196" s="37"/>
-      <c r="J196" s="26"/>
-      <c r="K196" s="26"/>
-      <c r="L196" s="26"/>
-      <c r="M196" s="26"/>
-      <c r="N196" s="26"/>
-      <c r="O196" s="26"/>
-      <c r="P196" s="26"/>
-      <c r="Q196" s="26"/>
-      <c r="R196" s="33"/>
-    </row>
-    <row r="197" spans="1:18">
-      <c r="B197" t="s">
+      <c r="F309" s="32"/>
+      <c r="G309" s="37"/>
+      <c r="H309" s="26"/>
+      <c r="I309" s="37"/>
+      <c r="J309" s="26"/>
+      <c r="K309" s="26"/>
+      <c r="L309" s="26"/>
+      <c r="M309" s="26"/>
+      <c r="N309" s="26"/>
+      <c r="O309" s="26"/>
+      <c r="P309" s="26"/>
+      <c r="Q309" s="26"/>
+      <c r="R309" s="33"/>
+    </row>
+    <row r="310" spans="1:18">
+      <c r="B310" t="s">
         <v>3031</v>
       </c>
-      <c r="F197" s="32"/>
-      <c r="G197" s="26"/>
-      <c r="H197" s="26"/>
-      <c r="I197" s="26"/>
-      <c r="J197" s="26"/>
-      <c r="K197" s="26"/>
-      <c r="L197" s="26"/>
-      <c r="M197" s="26"/>
-      <c r="N197" s="26"/>
-      <c r="O197" s="26"/>
-      <c r="P197" s="26"/>
-      <c r="Q197" s="26"/>
-      <c r="R197" s="33"/>
-    </row>
-    <row r="198" spans="1:18">
-      <c r="A198" t="s">
+      <c r="F310" s="32"/>
+      <c r="G310" s="26"/>
+      <c r="H310" s="26"/>
+      <c r="I310" s="26"/>
+      <c r="J310" s="26"/>
+      <c r="K310" s="26"/>
+      <c r="L310" s="26"/>
+      <c r="M310" s="26"/>
+      <c r="N310" s="26"/>
+      <c r="O310" s="26"/>
+      <c r="P310" s="26"/>
+      <c r="Q310" s="26"/>
+      <c r="R310" s="33"/>
+    </row>
+    <row r="311" spans="1:18">
+      <c r="A311" t="s">
         <v>144</v>
       </c>
-      <c r="F198" s="32"/>
-      <c r="G198" s="26"/>
-      <c r="H198" s="26"/>
-      <c r="I198" s="26"/>
-      <c r="J198" s="26"/>
-      <c r="K198" s="26"/>
-      <c r="L198" s="26"/>
-      <c r="M198" s="26"/>
-      <c r="N198" s="26"/>
-      <c r="O198" s="26"/>
-      <c r="P198" s="26"/>
-      <c r="Q198" s="26"/>
-      <c r="R198" s="33"/>
-    </row>
-    <row r="199" spans="1:18">
-      <c r="F199" s="32"/>
-      <c r="G199" s="26"/>
-      <c r="H199" s="26"/>
-      <c r="I199" s="26"/>
-      <c r="J199" s="26"/>
-      <c r="K199" s="26"/>
-      <c r="L199" s="26"/>
-      <c r="M199" s="26"/>
-      <c r="N199" s="26"/>
-      <c r="O199" s="26"/>
-      <c r="P199" s="26"/>
-      <c r="Q199" s="26"/>
-      <c r="R199" s="33"/>
-    </row>
-    <row r="200" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F200" s="34"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="35"/>
-      <c r="I200" s="35"/>
-      <c r="J200" s="35"/>
-      <c r="K200" s="35"/>
-      <c r="L200" s="35"/>
-      <c r="M200" s="35"/>
-      <c r="N200" s="35"/>
-      <c r="O200" s="35"/>
-      <c r="P200" s="35"/>
-      <c r="Q200" s="35"/>
-      <c r="R200" s="36"/>
+      <c r="F311" s="32"/>
+      <c r="G311" s="26"/>
+      <c r="H311" s="26"/>
+      <c r="I311" s="26"/>
+      <c r="J311" s="26"/>
+      <c r="K311" s="26"/>
+      <c r="L311" s="26"/>
+      <c r="M311" s="26"/>
+      <c r="N311" s="26"/>
+      <c r="O311" s="26"/>
+      <c r="P311" s="26"/>
+      <c r="Q311" s="26"/>
+      <c r="R311" s="33"/>
+    </row>
+    <row r="312" spans="1:18">
+      <c r="F312" s="32"/>
+      <c r="G312" s="26"/>
+      <c r="H312" s="26"/>
+      <c r="I312" s="26"/>
+      <c r="J312" s="26"/>
+      <c r="K312" s="26"/>
+      <c r="L312" s="26"/>
+      <c r="M312" s="26"/>
+      <c r="N312" s="26"/>
+      <c r="O312" s="26"/>
+      <c r="P312" s="26"/>
+      <c r="Q312" s="26"/>
+      <c r="R312" s="33"/>
+    </row>
+    <row r="313" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F313" s="34"/>
+      <c r="G313" s="35"/>
+      <c r="H313" s="35"/>
+      <c r="I313" s="35"/>
+      <c r="J313" s="35"/>
+      <c r="K313" s="35"/>
+      <c r="L313" s="35"/>
+      <c r="M313" s="35"/>
+      <c r="N313" s="35"/>
+      <c r="O313" s="35"/>
+      <c r="P313" s="35"/>
+      <c r="Q313" s="35"/>
+      <c r="R313" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18561,7 +19401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5902" uniqueCount="3174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5988" uniqueCount="3186">
   <si>
     <t>USER</t>
   </si>
@@ -9827,6 +9827,42 @@
   </si>
   <si>
     <t>c2=new Customer();</t>
+  </si>
+  <si>
+    <t>c1=new Customer();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variables </t>
+  </si>
+  <si>
+    <t>return c1;</t>
+  </si>
+  <si>
+    <t>public Customer method1(int x,Customer c1) {</t>
+  </si>
+  <si>
+    <t>c=a.method1(p,c);</t>
+  </si>
+  <si>
+    <t>customername</t>
+  </si>
+  <si>
+    <t>public Customer(String cn){</t>
+  </si>
+  <si>
+    <t>Customer c1=new Customer("john");</t>
+  </si>
+  <si>
+    <t>Customer c2=new Customer("jane");</t>
+  </si>
+  <si>
+    <t>Customer c3=new Customer("mike");</t>
+  </si>
+  <si>
+    <t>Customer c4=new Customer("andy");</t>
+  </si>
+  <si>
+    <t>constructor call</t>
   </si>
 </sst>
 </file>
@@ -10387,7 +10423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11009,6 +11045,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11063,7 +11100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13795,8 +13832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E41"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13922,7 +13959,7 @@
         <v>3161</v>
       </c>
       <c r="L6" s="35"/>
-      <c r="M6" s="325">
+      <c r="M6" s="307">
         <v>32878</v>
       </c>
       <c r="N6" s="26"/>
@@ -14277,7 +14314,7 @@
         <v>3161</v>
       </c>
       <c r="K29" s="35"/>
-      <c r="L29" s="325">
+      <c r="L29" s="307">
         <v>32878</v>
       </c>
       <c r="M29" s="26"/>
@@ -14412,7 +14449,7 @@
         <v>3161</v>
       </c>
       <c r="K36" s="35"/>
-      <c r="L36" s="325">
+      <c r="L36" s="307">
         <v>32878</v>
       </c>
       <c r="M36" s="26"/>
@@ -14561,9 +14598,375 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" ht="15.75" thickBot="1">
       <c r="A46" t="s">
         <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E47" s="77" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>2424</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="31"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B48" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="176"/>
+      <c r="L48" s="176"/>
+      <c r="M48" s="176"/>
+      <c r="N48" s="208"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="B49" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F49" s="50">
+        <v>12</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="176"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="205"/>
+      <c r="K49" s="206"/>
+      <c r="L49" s="204"/>
+      <c r="M49" s="205"/>
+      <c r="N49" s="206"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="B50" t="s">
+        <v>3150</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="F50" s="50">
+        <v>30</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="208"/>
+      <c r="L50" s="207"/>
+      <c r="M50" s="176"/>
+      <c r="N50" s="208"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="176"/>
+      <c r="I51" s="207"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="208"/>
+      <c r="L51" s="207"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="208"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1">
+      <c r="E52" s="49" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F52" s="50">
+        <v>30</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="209"/>
+      <c r="J52" s="210"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="209"/>
+      <c r="M52" s="210"/>
+      <c r="N52" s="326"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="33"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" thickBot="1">
+      <c r="C54" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E54" s="49"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="33"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1">
+      <c r="C55" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E55" s="207"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="176"/>
+      <c r="H55" s="26" t="s">
+        <v>2017</v>
+      </c>
+      <c r="I55" s="29"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="204"/>
+      <c r="M55" s="205"/>
+      <c r="N55" s="206"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="C56" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E56" s="204"/>
+      <c r="F56" s="205"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="32" t="s">
+        <v>3160</v>
+      </c>
+      <c r="J56" s="26"/>
+      <c r="K56" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="L56" s="207"/>
+      <c r="M56" s="176"/>
+      <c r="N56" s="208"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="C57" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E57" s="207"/>
+      <c r="F57" s="176"/>
+      <c r="G57" s="208"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="26"/>
+      <c r="K57" s="33">
+        <v>21</v>
+      </c>
+      <c r="L57" s="207"/>
+      <c r="M57" s="176"/>
+      <c r="N57" s="208"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" thickBot="1">
+      <c r="C58" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E58" s="207"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="208"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="34" t="s">
+        <v>3161</v>
+      </c>
+      <c r="J58" s="35"/>
+      <c r="K58" s="307">
+        <v>32878</v>
+      </c>
+      <c r="L58" s="209"/>
+      <c r="M58" s="210"/>
+      <c r="N58" s="326"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="209"/>
+      <c r="F59" s="210"/>
+      <c r="G59" s="326"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="176"/>
+      <c r="M59" s="176"/>
+      <c r="N59" s="208"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B60" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E60" s="207"/>
+      <c r="F60" s="176"/>
+      <c r="G60" s="176"/>
+      <c r="H60" s="176"/>
+      <c r="I60" s="176"/>
+      <c r="J60" s="176"/>
+      <c r="K60" s="176"/>
+      <c r="L60" s="176"/>
+      <c r="M60" s="176"/>
+      <c r="N60" s="208"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="C61" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E61" s="204"/>
+      <c r="F61" s="205"/>
+      <c r="G61" s="206"/>
+      <c r="H61" s="176"/>
+      <c r="I61" s="204"/>
+      <c r="J61" s="205"/>
+      <c r="K61" s="206"/>
+      <c r="L61" s="204"/>
+      <c r="M61" s="205"/>
+      <c r="N61" s="206"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="C62" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E62" s="207"/>
+      <c r="F62" s="176"/>
+      <c r="G62" s="208"/>
+      <c r="H62" s="176"/>
+      <c r="I62" s="207"/>
+      <c r="J62" s="176"/>
+      <c r="K62" s="208"/>
+      <c r="L62" s="207"/>
+      <c r="M62" s="176"/>
+      <c r="N62" s="208"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="207"/>
+      <c r="F63" s="176"/>
+      <c r="G63" s="208"/>
+      <c r="H63" s="176"/>
+      <c r="I63" s="207"/>
+      <c r="J63" s="176"/>
+      <c r="K63" s="208"/>
+      <c r="L63" s="207"/>
+      <c r="M63" s="176"/>
+      <c r="N63" s="208"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B64" s="55" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E64" s="209"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="326"/>
+      <c r="H64" s="176"/>
+      <c r="I64" s="209"/>
+      <c r="J64" s="210"/>
+      <c r="K64" s="326"/>
+      <c r="L64" s="209"/>
+      <c r="M64" s="210"/>
+      <c r="N64" s="326"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B65" s="55" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="210"/>
+      <c r="M65" s="210"/>
+      <c r="N65" s="211"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="55" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="55" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="55" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="55" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="55" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="4:16" ht="15.75" thickBot="1">
@@ -20736,8 +21139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20746,10 +21149,21 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>2159</v>
+      </c>
+    </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="B2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>1438</v>
+      </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -20759,73 +21173,81 @@
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="26" t="s">
-        <v>3054</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>1438</v>
-      </c>
+      <c r="B3" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="29" t="s">
+        <v>3179</v>
+      </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
+      <c r="L3" s="31" t="s">
+        <v>412</v>
+      </c>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="E4" s="32"/>
-      <c r="F4" s="26" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>413</v>
-      </c>
+      <c r="B4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>524</v>
+      <c r="J4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="33">
+        <v>21</v>
       </c>
       <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="26" t="s">
-        <v>1857</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>2017</v>
-      </c>
+      <c r="E5" s="49" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
-      <c r="J5" s="34"/>
+      <c r="J5" s="34" t="s">
+        <v>3161</v>
+      </c>
       <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
+      <c r="L5" s="307">
+        <v>32878</v>
+      </c>
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="B6" t="s">
-        <v>3049</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="37" t="s">
-        <v>2452</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>2742</v>
-      </c>
+        <v>3180</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
@@ -20834,54 +21256,59 @@
       <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="C7" t="s">
-        <v>3050</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26" t="s">
         <v>2017</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="29" t="s">
+        <v>3179</v>
+      </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
+      <c r="L7" s="31" t="s">
+        <v>524</v>
+      </c>
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="26"/>
+        <v>2489</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>559</v>
+      <c r="J8" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="33">
+        <v>21</v>
       </c>
       <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
       <c r="E9" s="32"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="34"/>
+      <c r="J9" s="34" t="s">
+        <v>3161</v>
+      </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="L9" s="307">
+        <v>32878</v>
+      </c>
       <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
       <c r="E10" s="32"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -20893,53 +21320,64 @@
       <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
       <c r="E11" s="32"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26" t="s">
-        <v>2742</v>
-      </c>
-      <c r="J11" s="29"/>
+        <v>1960</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>3179</v>
+      </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
+      <c r="L11" s="31" t="s">
+        <v>559</v>
+      </c>
       <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>3051</v>
+      <c r="C12" t="s">
+        <v>3185</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>1026</v>
+      <c r="J12" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="33">
+        <v>21</v>
       </c>
       <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>3052</v>
+        <v>3181</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="34"/>
+      <c r="J13" s="34" t="s">
+        <v>3161</v>
+      </c>
       <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="L13" s="307">
+        <v>32878</v>
+      </c>
       <c r="M13" s="33"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>3053</v>
+        <v>3182</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="26"/>
@@ -20952,54 +21390,323 @@
       <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>3183</v>
+      </c>
       <c r="E15" s="32"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="26" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>3179</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31" t="s">
+        <v>1026</v>
+      </c>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="19" spans="16:16" ht="15.75" thickBot="1"/>
-    <row r="20" spans="16:16">
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="33">
+        <v>21</v>
+      </c>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="5:16" ht="15.75" thickBot="1">
+      <c r="E17" s="32"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="34" t="s">
+        <v>3161</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="307">
+        <v>32878</v>
+      </c>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" thickBot="1">
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+    </row>
+    <row r="19" spans="5:16" ht="15.75" thickBot="1"/>
+    <row r="20" spans="5:16">
       <c r="P20" s="31"/>
     </row>
-    <row r="21" spans="16:16">
+    <row r="21" spans="5:16">
       <c r="P21" s="33"/>
     </row>
-    <row r="22" spans="16:16">
+    <row r="22" spans="5:16">
       <c r="P22" s="33"/>
     </row>
-    <row r="23" spans="16:16">
+    <row r="23" spans="5:16">
       <c r="P23" s="33"/>
     </row>
-    <row r="24" spans="16:16">
+    <row r="24" spans="5:16">
       <c r="P24" s="33"/>
     </row>
-    <row r="25" spans="16:16">
+    <row r="25" spans="5:16">
       <c r="P25" s="33"/>
     </row>
-    <row r="26" spans="16:16">
+    <row r="26" spans="5:16">
       <c r="P26" s="33"/>
     </row>
-    <row r="27" spans="16:16">
+    <row r="27" spans="5:16">
       <c r="P27" s="33"/>
     </row>
-    <row r="28" spans="16:16" ht="15.75" thickBot="1">
+    <row r="28" spans="5:16" ht="15.75" thickBot="1">
       <c r="P28" s="36"/>
+    </row>
+    <row r="80" ht="15.75" thickBot="1"/>
+    <row r="81" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E81" s="29"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="31"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E82" s="32"/>
+      <c r="F82" s="26" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="J82" s="29"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="33"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="E83" s="32"/>
+      <c r="F83" s="26" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L83" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="M83" s="33"/>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B84" t="s">
+        <v>356</v>
+      </c>
+      <c r="E84" s="32"/>
+      <c r="F84" s="26" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="33"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B85" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E85" s="32"/>
+      <c r="F85" s="37" t="s">
+        <v>2452</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>2742</v>
+      </c>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="33"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="C86" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E86" s="32"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26" t="s">
+        <v>2017</v>
+      </c>
+      <c r="J86" s="29"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="33"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="32"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L87" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="M87" s="33"/>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="32"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="33"/>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E89" s="32"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="33"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="E90" s="32"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26" t="s">
+        <v>2742</v>
+      </c>
+      <c r="J90" s="29"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="33"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E91" s="32"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L91" s="33" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M91" s="33"/>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A92" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E92" s="32"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="33"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E93" s="32"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="33"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="E94" s="32"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="33"/>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E95" s="34"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="36"/>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1">
       <c r="A118" t="s">
@@ -25221,13 +25928,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="311" t="s">
+      <c r="H3" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="314"/>
       <c r="P3" t="s">
         <v>3073</v>
       </c>
@@ -25261,20 +25968,20 @@
         <v>3070</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="314" t="s">
+      <c r="G6" s="315" t="s">
         <v>3067</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="314" t="s">
+      <c r="J6" s="315" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="315"/>
+      <c r="K6" s="316"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="314" t="s">
+      <c r="M6" s="315" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="315"/>
+      <c r="N6" s="316"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -25295,20 +26002,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="316" t="s">
+      <c r="G8" s="317" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="317"/>
+      <c r="H8" s="318"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="316" t="s">
+      <c r="J8" s="317" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="317"/>
+      <c r="K8" s="318"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="316" t="s">
+      <c r="M8" s="317" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="317"/>
+      <c r="N8" s="318"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -25324,29 +26031,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="307" t="s">
+      <c r="F10" s="308" t="s">
         <v>3068</v>
       </c>
-      <c r="G10" s="308"/>
-      <c r="H10" s="308"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="308"/>
-      <c r="L10" s="308"/>
-      <c r="M10" s="308"/>
-      <c r="N10" s="308"/>
+      <c r="G10" s="309"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="309"/>
+      <c r="L10" s="309"/>
+      <c r="M10" s="309"/>
+      <c r="N10" s="309"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="309"/>
-      <c r="G11" s="310"/>
-      <c r="H11" s="310"/>
-      <c r="I11" s="310"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="310"/>
-      <c r="L11" s="310"/>
-      <c r="M11" s="310"/>
-      <c r="N11" s="310"/>
+      <c r="F11" s="310"/>
+      <c r="G11" s="311"/>
+      <c r="H11" s="311"/>
+      <c r="I11" s="311"/>
+      <c r="J11" s="311"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="311"/>
+      <c r="M11" s="311"/>
+      <c r="N11" s="311"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -29452,7 +30159,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="323" t="s">
+      <c r="O235" s="324" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -29477,7 +30184,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="323"/>
+      <c r="O236" s="324"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -29500,7 +30207,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="323"/>
+      <c r="O237" s="324"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -29523,7 +30230,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="323"/>
+      <c r="O238" s="324"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -29540,7 +30247,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="323"/>
+      <c r="O239" s="324"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -29559,7 +30266,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="323"/>
+      <c r="O240" s="324"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -29584,7 +30291,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="323"/>
+      <c r="O241" s="324"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -29603,7 +30310,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="323"/>
+      <c r="O242" s="324"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -42794,11 +43501,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="324" t="s">
+      <c r="M6" s="325" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="324"/>
-      <c r="O6" s="324"/>
+      <c r="N6" s="325"/>
+      <c r="O6" s="325"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -44811,11 +45518,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="318" t="s">
+      <c r="D223" s="319" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="320"/>
-      <c r="F223" s="319"/>
+      <c r="E223" s="321"/>
+      <c r="F223" s="320"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -44867,19 +45574,19 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="318" t="s">
+      <c r="D227" s="319" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="320"/>
-      <c r="F227" s="319"/>
-      <c r="H227" s="318" t="s">
+      <c r="E227" s="321"/>
+      <c r="F227" s="320"/>
+      <c r="H227" s="319" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="319"/>
-      <c r="K227" s="318" t="s">
+      <c r="I227" s="320"/>
+      <c r="K227" s="319" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="319"/>
+      <c r="L227" s="320"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -48283,23 +48990,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="323" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="I1" s="322" t="s">
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="I1" s="323" t="s">
         <v>2943</v>
       </c>
-      <c r="J1" s="322"/>
-      <c r="K1" s="322"/>
-      <c r="L1" s="322"/>
-      <c r="M1" s="322"/>
-      <c r="N1" s="322"/>
-      <c r="O1" s="322"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -48449,28 +49156,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="314" t="s">
+      <c r="A12" s="315" t="s">
         <v>2945</v>
       </c>
-      <c r="B12" s="321"/>
-      <c r="C12" s="321"/>
-      <c r="D12" s="321"/>
-      <c r="E12" s="321"/>
-      <c r="F12" s="321"/>
-      <c r="G12" s="321"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="314" t="s">
+      <c r="B12" s="322"/>
+      <c r="C12" s="322"/>
+      <c r="D12" s="322"/>
+      <c r="E12" s="322"/>
+      <c r="F12" s="322"/>
+      <c r="G12" s="322"/>
+      <c r="H12" s="316"/>
+      <c r="I12" s="315" t="s">
         <v>2945</v>
       </c>
-      <c r="J12" s="321"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="321"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="321"/>
-      <c r="Q12" s="321"/>
-      <c r="R12" s="315"/>
+      <c r="J12" s="322"/>
+      <c r="K12" s="322"/>
+      <c r="L12" s="322"/>
+      <c r="M12" s="322"/>
+      <c r="N12" s="322"/>
+      <c r="O12" s="322"/>
+      <c r="P12" s="322"/>
+      <c r="Q12" s="322"/>
+      <c r="R12" s="316"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -48698,14 +49405,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="322" t="s">
+      <c r="A24" s="323" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="322"/>
-      <c r="C24" s="322"/>
-      <c r="D24" s="322"/>
-      <c r="E24" s="322"/>
-      <c r="F24" s="322"/>
+      <c r="B24" s="323"/>
+      <c r="C24" s="323"/>
+      <c r="D24" s="323"/>
+      <c r="E24" s="323"/>
+      <c r="F24" s="323"/>
       <c r="H24" s="271" t="s">
         <v>2943</v>
       </c>
@@ -48715,11 +49422,11 @@
       <c r="L24" s="271"/>
       <c r="M24" s="271"/>
       <c r="N24" s="271"/>
-      <c r="P24" s="322" t="s">
+      <c r="P24" s="323" t="s">
         <v>2981</v>
       </c>
-      <c r="Q24" s="322"/>
-      <c r="R24" s="322"/>
+      <c r="Q24" s="323"/>
+      <c r="R24" s="323"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -48959,28 +49666,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="314" t="s">
+      <c r="A35" s="315" t="s">
         <v>2982</v>
       </c>
-      <c r="B35" s="321"/>
-      <c r="C35" s="321"/>
-      <c r="D35" s="321"/>
-      <c r="E35" s="321"/>
-      <c r="F35" s="321"/>
-      <c r="G35" s="321"/>
-      <c r="H35" s="315"/>
-      <c r="I35" s="314" t="s">
+      <c r="B35" s="322"/>
+      <c r="C35" s="322"/>
+      <c r="D35" s="322"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="322"/>
+      <c r="G35" s="322"/>
+      <c r="H35" s="316"/>
+      <c r="I35" s="315" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="321"/>
-      <c r="K35" s="321"/>
-      <c r="L35" s="321"/>
-      <c r="M35" s="321"/>
-      <c r="N35" s="321"/>
-      <c r="O35" s="321"/>
-      <c r="P35" s="321"/>
-      <c r="Q35" s="321"/>
-      <c r="R35" s="315"/>
+      <c r="J35" s="322"/>
+      <c r="K35" s="322"/>
+      <c r="L35" s="322"/>
+      <c r="M35" s="322"/>
+      <c r="N35" s="322"/>
+      <c r="O35" s="322"/>
+      <c r="P35" s="322"/>
+      <c r="Q35" s="322"/>
+      <c r="R35" s="316"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -11046,6 +11046,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11100,7 +11101,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14714,10 +14714,10 @@
       <c r="H52" s="176"/>
       <c r="I52" s="209"/>
       <c r="J52" s="210"/>
-      <c r="K52" s="326"/>
+      <c r="K52" s="308"/>
       <c r="L52" s="209"/>
       <c r="M52" s="210"/>
-      <c r="N52" s="326"/>
+      <c r="N52" s="308"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
@@ -14825,7 +14825,7 @@
       </c>
       <c r="L58" s="209"/>
       <c r="M58" s="210"/>
-      <c r="N58" s="326"/>
+      <c r="N58" s="308"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" thickBot="1">
       <c r="B59" t="s">
@@ -14833,7 +14833,7 @@
       </c>
       <c r="E59" s="209"/>
       <c r="F59" s="210"/>
-      <c r="G59" s="326"/>
+      <c r="G59" s="308"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
@@ -14908,14 +14908,14 @@
       </c>
       <c r="E64" s="209"/>
       <c r="F64" s="210"/>
-      <c r="G64" s="326"/>
+      <c r="G64" s="308"/>
       <c r="H64" s="176"/>
       <c r="I64" s="209"/>
       <c r="J64" s="210"/>
-      <c r="K64" s="326"/>
+      <c r="K64" s="308"/>
       <c r="L64" s="209"/>
       <c r="M64" s="210"/>
-      <c r="N64" s="326"/>
+      <c r="N64" s="308"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" thickBot="1">
       <c r="B65" s="55" t="s">
@@ -21140,7 +21140,7 @@
   <dimension ref="A1:P229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25928,13 +25928,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="313" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="315"/>
       <c r="P3" t="s">
         <v>3073</v>
       </c>
@@ -25968,20 +25968,20 @@
         <v>3070</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="315" t="s">
+      <c r="G6" s="316" t="s">
         <v>3067</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="317"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="315" t="s">
+      <c r="J6" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="316"/>
+      <c r="K6" s="317"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="315" t="s">
+      <c r="M6" s="316" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="316"/>
+      <c r="N6" s="317"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -26002,20 +26002,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="318"/>
+      <c r="H8" s="319"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="317" t="s">
+      <c r="J8" s="318" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="318"/>
+      <c r="K8" s="319"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="317" t="s">
+      <c r="M8" s="318" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="318"/>
+      <c r="N8" s="319"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -26031,29 +26031,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="308" t="s">
+      <c r="F10" s="309" t="s">
         <v>3068</v>
       </c>
-      <c r="G10" s="309"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="309"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="309"/>
-      <c r="N10" s="309"/>
+      <c r="G10" s="310"/>
+      <c r="H10" s="310"/>
+      <c r="I10" s="310"/>
+      <c r="J10" s="310"/>
+      <c r="K10" s="310"/>
+      <c r="L10" s="310"/>
+      <c r="M10" s="310"/>
+      <c r="N10" s="310"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="310"/>
-      <c r="G11" s="311"/>
-      <c r="H11" s="311"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="311"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="311"/>
-      <c r="M11" s="311"/>
-      <c r="N11" s="311"/>
+      <c r="F11" s="311"/>
+      <c r="G11" s="312"/>
+      <c r="H11" s="312"/>
+      <c r="I11" s="312"/>
+      <c r="J11" s="312"/>
+      <c r="K11" s="312"/>
+      <c r="L11" s="312"/>
+      <c r="M11" s="312"/>
+      <c r="N11" s="312"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -30159,7 +30159,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="324" t="s">
+      <c r="O235" s="325" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -30184,7 +30184,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="324"/>
+      <c r="O236" s="325"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -30207,7 +30207,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="324"/>
+      <c r="O237" s="325"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -30230,7 +30230,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="324"/>
+      <c r="O238" s="325"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -30247,7 +30247,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="324"/>
+      <c r="O239" s="325"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -30266,7 +30266,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="324"/>
+      <c r="O240" s="325"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -30291,7 +30291,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="324"/>
+      <c r="O241" s="325"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -30310,7 +30310,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="324"/>
+      <c r="O242" s="325"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -43501,11 +43501,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="325" t="s">
+      <c r="M6" s="326" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="325"/>
-      <c r="O6" s="325"/>
+      <c r="N6" s="326"/>
+      <c r="O6" s="326"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -45518,11 +45518,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="319" t="s">
+      <c r="D223" s="320" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="321"/>
-      <c r="F223" s="320"/>
+      <c r="E223" s="322"/>
+      <c r="F223" s="321"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -45574,19 +45574,19 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="319" t="s">
+      <c r="D227" s="320" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="321"/>
-      <c r="F227" s="320"/>
-      <c r="H227" s="319" t="s">
+      <c r="E227" s="322"/>
+      <c r="F227" s="321"/>
+      <c r="H227" s="320" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="320"/>
-      <c r="K227" s="319" t="s">
+      <c r="I227" s="321"/>
+      <c r="K227" s="320" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="320"/>
+      <c r="L227" s="321"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -48990,23 +48990,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="324" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="I1" s="323" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="I1" s="324" t="s">
         <v>2943</v>
       </c>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="324"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -49156,28 +49156,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="315" t="s">
+      <c r="A12" s="316" t="s">
         <v>2945</v>
       </c>
-      <c r="B12" s="322"/>
-      <c r="C12" s="322"/>
-      <c r="D12" s="322"/>
-      <c r="E12" s="322"/>
-      <c r="F12" s="322"/>
-      <c r="G12" s="322"/>
-      <c r="H12" s="316"/>
-      <c r="I12" s="315" t="s">
+      <c r="B12" s="323"/>
+      <c r="C12" s="323"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="323"/>
+      <c r="F12" s="323"/>
+      <c r="G12" s="323"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="316" t="s">
         <v>2945</v>
       </c>
-      <c r="J12" s="322"/>
-      <c r="K12" s="322"/>
-      <c r="L12" s="322"/>
-      <c r="M12" s="322"/>
-      <c r="N12" s="322"/>
-      <c r="O12" s="322"/>
-      <c r="P12" s="322"/>
-      <c r="Q12" s="322"/>
-      <c r="R12" s="316"/>
+      <c r="J12" s="323"/>
+      <c r="K12" s="323"/>
+      <c r="L12" s="323"/>
+      <c r="M12" s="323"/>
+      <c r="N12" s="323"/>
+      <c r="O12" s="323"/>
+      <c r="P12" s="323"/>
+      <c r="Q12" s="323"/>
+      <c r="R12" s="317"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -49405,14 +49405,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="323" t="s">
+      <c r="A24" s="324" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="323"/>
-      <c r="C24" s="323"/>
-      <c r="D24" s="323"/>
-      <c r="E24" s="323"/>
-      <c r="F24" s="323"/>
+      <c r="B24" s="324"/>
+      <c r="C24" s="324"/>
+      <c r="D24" s="324"/>
+      <c r="E24" s="324"/>
+      <c r="F24" s="324"/>
       <c r="H24" s="271" t="s">
         <v>2943</v>
       </c>
@@ -49422,11 +49422,11 @@
       <c r="L24" s="271"/>
       <c r="M24" s="271"/>
       <c r="N24" s="271"/>
-      <c r="P24" s="323" t="s">
+      <c r="P24" s="324" t="s">
         <v>2981</v>
       </c>
-      <c r="Q24" s="323"/>
-      <c r="R24" s="323"/>
+      <c r="Q24" s="324"/>
+      <c r="R24" s="324"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -49666,28 +49666,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="315" t="s">
+      <c r="A35" s="316" t="s">
         <v>2982</v>
       </c>
-      <c r="B35" s="322"/>
-      <c r="C35" s="322"/>
-      <c r="D35" s="322"/>
-      <c r="E35" s="322"/>
-      <c r="F35" s="322"/>
-      <c r="G35" s="322"/>
-      <c r="H35" s="316"/>
-      <c r="I35" s="315" t="s">
+      <c r="B35" s="323"/>
+      <c r="C35" s="323"/>
+      <c r="D35" s="323"/>
+      <c r="E35" s="323"/>
+      <c r="F35" s="323"/>
+      <c r="G35" s="323"/>
+      <c r="H35" s="317"/>
+      <c r="I35" s="316" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="322"/>
-      <c r="K35" s="322"/>
-      <c r="L35" s="322"/>
-      <c r="M35" s="322"/>
-      <c r="N35" s="322"/>
-      <c r="O35" s="322"/>
-      <c r="P35" s="322"/>
-      <c r="Q35" s="322"/>
-      <c r="R35" s="316"/>
+      <c r="J35" s="323"/>
+      <c r="K35" s="323"/>
+      <c r="L35" s="323"/>
+      <c r="M35" s="323"/>
+      <c r="N35" s="323"/>
+      <c r="O35" s="323"/>
+      <c r="P35" s="323"/>
+      <c r="Q35" s="323"/>
+      <c r="R35" s="317"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -37,11 +37,12 @@
     <sheet name="file" sheetId="27" r:id="rId28"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5988" uniqueCount="3186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="3190">
   <si>
     <t>USER</t>
   </si>
@@ -9484,15 +9485,6 @@
     <t>Iphone6 &gt;</t>
   </si>
   <si>
-    <t>Iphone i1=new Iphone();</t>
-  </si>
-  <si>
-    <t>Iphone i2=new Iphone6();</t>
-  </si>
-  <si>
-    <t>Iphone i3=new IphoneX();</t>
-  </si>
-  <si>
     <t>Phone Calls</t>
   </si>
   <si>
@@ -9502,12 +9494,6 @@
     <t>Browse</t>
   </si>
   <si>
-    <t>COVERS &gt;&gt;</t>
-  </si>
-  <si>
-    <t>====</t>
-  </si>
-  <si>
     <t>skype-java</t>
   </si>
   <si>
@@ -9863,13 +9849,40 @@
   </si>
   <si>
     <t>constructor call</t>
+  </si>
+  <si>
+    <t>Iphone6</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Iphone6 i6=new Iphone6();</t>
+  </si>
+  <si>
+    <t>i6=ix;</t>
+  </si>
+  <si>
+    <t>i6.phoneCalls();</t>
+  </si>
+  <si>
+    <t>i6.Text();</t>
+  </si>
+  <si>
+    <t>i6.Browse();</t>
+  </si>
+  <si>
+    <t>i6.faceRecog();</t>
+  </si>
+  <si>
+    <t>IphoneX is covered with Iphone6 body</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9960,6 +9973,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10423,7 +10443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11014,7 +11034,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11024,7 +11043,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11101,6 +11119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13851,10 +13873,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="B2" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -13869,7 +13891,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="B3" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="E3" s="79" t="s">
         <v>204</v>
@@ -13891,22 +13913,22 @@
     </row>
     <row r="4" spans="1:15">
       <c r="B4" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>3162</v>
+        <v>3157</v>
       </c>
       <c r="F4" s="50">
         <v>12</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>3165</v>
+        <v>3160</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="32" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="L4" s="26"/>
       <c r="M4" s="33" t="s">
@@ -13920,13 +13942,13 @@
         <v>144</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>3163</v>
+        <v>3158</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>413</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>3164</v>
+        <v>3159</v>
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
@@ -13956,10 +13978,10 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="34" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="L6" s="35"/>
-      <c r="M6" s="307">
+      <c r="M6" s="305">
         <v>32878</v>
       </c>
       <c r="N6" s="26"/>
@@ -13967,7 +13989,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7" t="s">
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>2161</v>
@@ -13987,7 +14009,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="C8" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>2716</v>
@@ -14007,7 +14029,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="C9" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>2162</v>
@@ -14027,7 +14049,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="C10" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="26"/>
@@ -14072,7 +14094,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="26"/>
@@ -14088,7 +14110,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="C14" t="s">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="26"/>
@@ -14104,7 +14126,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="C15" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="26"/>
@@ -14165,7 +14187,7 @@
         <v>144</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="32"/>
@@ -14182,7 +14204,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="C20" s="55" t="s">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="32"/>
@@ -14199,7 +14221,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="C21" s="55" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="34"/>
@@ -14217,7 +14239,7 @@
     <row r="24" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" t="s">
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="30"/>
@@ -14232,7 +14254,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="C26" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="E26" s="79" t="s">
         <v>204</v>
@@ -14253,7 +14275,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="C27" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="E27" s="49" t="s">
         <v>405</v>
@@ -14265,7 +14287,7 @@
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="32" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="K27" s="26"/>
       <c r="L27" s="33" t="s">
@@ -14276,7 +14298,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="C28" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>1260</v>
@@ -14311,10 +14333,10 @@
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="34" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="K29" s="35"/>
-      <c r="L29" s="307">
+      <c r="L29" s="305">
         <v>32878</v>
       </c>
       <c r="M29" s="26"/>
@@ -14322,7 +14344,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="E30" s="49" t="s">
         <v>2161</v>
@@ -14341,7 +14363,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1">
       <c r="B31" t="s">
-        <v>3173</v>
+        <v>3168</v>
       </c>
       <c r="E31" s="49" t="s">
         <v>2716</v>
@@ -14360,7 +14382,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="B32" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
       <c r="E32" s="49" t="s">
         <v>2162</v>
@@ -14381,7 +14403,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="B33" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="26"/>
@@ -14404,7 +14426,7 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="32" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="33" t="s">
@@ -14415,7 +14437,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="55" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -14436,7 +14458,7 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1">
       <c r="A36" s="55" t="s">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -14446,10 +14468,10 @@
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
       <c r="J36" s="34" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="K36" s="35"/>
-      <c r="L36" s="307">
+      <c r="L36" s="305">
         <v>32878</v>
       </c>
       <c r="M36" s="26"/>
@@ -14457,7 +14479,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="55" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -14476,7 +14498,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="55" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -14495,7 +14517,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="55" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -14512,7 +14534,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="55" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -14531,7 +14553,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="55" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -14565,7 +14587,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="B43" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="26"/>
@@ -14580,7 +14602,7 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1">
       <c r="B44" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="35"/>
@@ -14595,7 +14617,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="B45" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1">
@@ -14603,7 +14625,7 @@
         <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -14611,7 +14633,7 @@
         <v>2159</v>
       </c>
       <c r="E47" s="77" t="s">
-        <v>3175</v>
+        <v>3170</v>
       </c>
       <c r="F47" s="78" t="s">
         <v>2424</v>
@@ -14629,7 +14651,7 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1">
       <c r="B48" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="E48" s="49" t="s">
         <v>405</v>
@@ -14648,7 +14670,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="B49" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>1260</v>
@@ -14667,7 +14689,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="B50" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="E50" s="49" t="s">
         <v>536</v>
@@ -14714,14 +14736,14 @@
       <c r="H52" s="176"/>
       <c r="I52" s="209"/>
       <c r="J52" s="210"/>
-      <c r="K52" s="308"/>
+      <c r="K52" s="306"/>
       <c r="L52" s="209"/>
       <c r="M52" s="210"/>
-      <c r="N52" s="308"/>
+      <c r="N52" s="306"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>3177</v>
+        <v>3172</v>
       </c>
       <c r="E53" s="49" t="s">
         <v>2162</v>
@@ -14740,7 +14762,7 @@
     </row>
     <row r="54" spans="1:14" ht="15.75" thickBot="1">
       <c r="C54" t="s">
-        <v>3174</v>
+        <v>3169</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="50"/>
@@ -14755,7 +14777,7 @@
     </row>
     <row r="55" spans="1:14" ht="15.75" thickBot="1">
       <c r="C55" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="E55" s="207"/>
       <c r="F55" s="176"/>
@@ -14772,14 +14794,14 @@
     </row>
     <row r="56" spans="1:14">
       <c r="C56" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="E56" s="204"/>
       <c r="F56" s="205"/>
       <c r="G56" s="206"/>
       <c r="H56" s="26"/>
       <c r="I56" s="32" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="J56" s="26"/>
       <c r="K56" s="33" t="s">
@@ -14791,7 +14813,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="C57" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="E57" s="207"/>
       <c r="F57" s="176"/>
@@ -14810,22 +14832,22 @@
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1">
       <c r="C58" t="s">
-        <v>3176</v>
+        <v>3171</v>
       </c>
       <c r="E58" s="207"/>
       <c r="F58" s="176"/>
       <c r="G58" s="208"/>
       <c r="H58" s="26"/>
       <c r="I58" s="34" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="J58" s="35"/>
-      <c r="K58" s="307">
+      <c r="K58" s="305">
         <v>32878</v>
       </c>
       <c r="L58" s="209"/>
       <c r="M58" s="210"/>
-      <c r="N58" s="308"/>
+      <c r="N58" s="306"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" thickBot="1">
       <c r="B59" t="s">
@@ -14833,7 +14855,7 @@
       </c>
       <c r="E59" s="209"/>
       <c r="F59" s="210"/>
-      <c r="G59" s="308"/>
+      <c r="G59" s="306"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
@@ -14844,7 +14866,7 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" thickBot="1">
       <c r="B60" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="E60" s="207"/>
       <c r="F60" s="176"/>
@@ -14859,7 +14881,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="C61" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
       <c r="E61" s="204"/>
       <c r="F61" s="205"/>
@@ -14874,7 +14896,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="C62" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="E62" s="207"/>
       <c r="F62" s="176"/>
@@ -14904,22 +14926,22 @@
     </row>
     <row r="64" spans="1:14" ht="15.75" thickBot="1">
       <c r="B64" s="55" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="E64" s="209"/>
       <c r="F64" s="210"/>
-      <c r="G64" s="308"/>
+      <c r="G64" s="306"/>
       <c r="H64" s="176"/>
       <c r="I64" s="209"/>
       <c r="J64" s="210"/>
-      <c r="K64" s="308"/>
+      <c r="K64" s="306"/>
       <c r="L64" s="209"/>
       <c r="M64" s="210"/>
-      <c r="N64" s="308"/>
+      <c r="N64" s="306"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" thickBot="1">
       <c r="B65" s="55" t="s">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="E65" s="34"/>
       <c r="F65" s="35"/>
@@ -14934,7 +14956,7 @@
     </row>
     <row r="66" spans="2:14">
       <c r="B66" s="55" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="E66" t="s">
         <v>412</v>
@@ -14942,7 +14964,7 @@
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="55" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="E67">
         <v>12</v>
@@ -14950,12 +14972,12 @@
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="55" t="s">
-        <v>3178</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="69" spans="2:14">
       <c r="B69" s="55" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="E69" t="s">
         <v>524</v>
@@ -14963,7 +14985,7 @@
     </row>
     <row r="70" spans="2:14">
       <c r="B70" s="55" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="E70">
         <v>12</v>
@@ -21139,7 +21161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -21156,7 +21178,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="B2" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="E2" s="77" t="s">
         <v>204</v>
@@ -21174,7 +21196,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>2161</v>
@@ -21188,7 +21210,7 @@
         <v>413</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="31" t="s">
@@ -21198,7 +21220,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>2162</v>
@@ -21229,17 +21251,17 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="34" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="K5" s="35"/>
-      <c r="L5" s="307">
+      <c r="L5" s="305">
         <v>32878</v>
       </c>
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="B6" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>2167</v>
@@ -21264,7 +21286,7 @@
         <v>2017</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="31" t="s">
@@ -21297,10 +21319,10 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="34" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="307">
+      <c r="L9" s="305">
         <v>32878</v>
       </c>
       <c r="M9" s="33"/>
@@ -21331,7 +21353,7 @@
         <v>1960</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="31" t="s">
@@ -21341,7 +21363,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="C12" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="26"/>
@@ -21359,7 +21381,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="26"/>
@@ -21367,17 +21389,17 @@
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="34" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="K13" s="35"/>
-      <c r="L13" s="307">
+      <c r="L13" s="305">
         <v>32878</v>
       </c>
       <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>3182</v>
+        <v>3177</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="26"/>
@@ -21391,7 +21413,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>3183</v>
+        <v>3178</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="26"/>
@@ -21401,7 +21423,7 @@
         <v>1974</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="31" t="s">
@@ -21411,7 +21433,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>3184</v>
+        <v>3179</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="26"/>
@@ -21434,10 +21456,10 @@
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="34" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="K17" s="35"/>
-      <c r="L17" s="307">
+      <c r="L17" s="305">
         <v>32878</v>
       </c>
       <c r="M17" s="33"/>
@@ -23004,1566 +23026,1842 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V272"/>
+  <dimension ref="A2:V276"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:16">
+      <c r="F2" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3058</v>
+      </c>
       <c r="H2" t="s">
-        <v>3057</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3058</v>
-      </c>
-      <c r="J2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
-      <c r="H4" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="H5" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="H6" s="55" t="s">
-        <v>3061</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:13">
-      <c r="B9" s="295"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="297"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="78" t="s">
+    <row r="5" spans="2:16">
+      <c r="C5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3181</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3182</v>
+      </c>
+      <c r="K5" t="s">
+        <v>761</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:16">
+      <c r="B7" s="294"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="296"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="296"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="325" t="s">
         <v>3056</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="K9" s="295"/>
-      <c r="L9" s="298" t="s">
+      <c r="L7" s="82"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="328" t="s">
         <v>3056</v>
       </c>
-      <c r="M9" s="297"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="P7" s="296"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="32"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="33"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="74"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="32"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="33"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="74"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="32"/>
       <c r="C10" s="26"/>
       <c r="D10" s="33"/>
       <c r="F10" s="32"/>
       <c r="G10" s="26"/>
       <c r="H10" s="33"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="J10" s="83"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="74"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="32"/>
       <c r="C11" s="26"/>
       <c r="D11" s="33"/>
       <c r="F11" s="32"/>
       <c r="G11" s="26"/>
       <c r="H11" s="33"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="32"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="74"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="32" t="s">
+        <v>3059</v>
+      </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="33"/>
-      <c r="F12" s="32"/>
+      <c r="D12" s="33" t="s">
+        <v>3060</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>3059</v>
+      </c>
       <c r="G12" s="26"/>
-      <c r="H12" s="33"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="H12" s="33" t="s">
+        <v>3060</v>
+      </c>
+      <c r="J12" s="83" t="s">
+        <v>3059</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="74" t="s">
+        <v>3060</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>3059</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="33" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="32"/>
       <c r="C13" s="26"/>
       <c r="D13" s="33"/>
-      <c r="E13" t="s">
-        <v>3065</v>
-      </c>
       <c r="F13" s="32"/>
       <c r="G13" s="26"/>
       <c r="H13" s="33"/>
-      <c r="J13" s="288" t="s">
-        <v>3066</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="32" t="s">
-        <v>3062</v>
-      </c>
+      <c r="J13" s="83"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="74"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="32"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="33" t="s">
-        <v>3063</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>3062</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="33" t="s">
-        <v>3063</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>3062</v>
-      </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="33" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="32"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="33"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="33"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="32"/>
-      <c r="C16" s="26" t="s">
-        <v>3064</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="26" t="s">
-        <v>3064</v>
-      </c>
-      <c r="H16" s="33"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="26" t="s">
-        <v>3064</v>
-      </c>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="289"/>
-      <c r="C17" s="290"/>
-      <c r="D17" s="291"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="33"/>
-      <c r="K17" s="289"/>
-      <c r="L17" s="290"/>
-      <c r="M17" s="291"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B18" s="292"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="294"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="K18" s="292"/>
-      <c r="L18" s="293"/>
-      <c r="M18" s="294"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="C19" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G19" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
+      <c r="D14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26" t="s">
+        <v>3061</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="37" t="s">
+        <v>3061</v>
+      </c>
+      <c r="L14" s="74"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="26" t="s">
+        <v>3061</v>
+      </c>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="288"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="290"/>
+      <c r="F15" s="288"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="290"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="74"/>
+      <c r="N15" s="288"/>
+      <c r="O15" s="289"/>
+      <c r="P15" s="290"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B16" s="291"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="293"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="293"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="N16" s="291"/>
+      <c r="O16" s="292"/>
+      <c r="P16" s="293"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="N18" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="N19" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="N20" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="N21" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="N22" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="177" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="327"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="326"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" t="s">
         <v>2145</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" t="s">
         <v>2147</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E50" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
+    <row r="51" spans="1:20">
+      <c r="A51" t="s">
         <v>2146</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" t="s">
         <v>2149</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E51" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1">
-      <c r="E48" t="s">
+    <row r="52" spans="1:20" ht="15.75" thickBot="1">
+      <c r="E52" t="s">
         <v>718</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K52" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="49" spans="2:22">
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="31"/>
-    </row>
-    <row r="50" spans="2:22">
-      <c r="E50" s="32" t="s">
+    <row r="53" spans="1:20">
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="31"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="E54" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="33"/>
-      <c r="K50" s="32" t="s">
+      <c r="F54" s="26"/>
+      <c r="G54" s="33"/>
+      <c r="K54" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="L50" s="26"/>
-      <c r="M50" s="33"/>
-    </row>
-    <row r="51" spans="2:22">
-      <c r="B51" t="s">
+      <c r="L54" s="26"/>
+      <c r="M54" s="33"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="B55" t="s">
         <v>3055</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="26" t="s">
+      <c r="E55" s="79"/>
+      <c r="F55" s="38" t="s">
         <v>728</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="26" t="s">
+      <c r="G55" s="40"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="38" t="s">
         <v>727</v>
       </c>
-      <c r="M51" s="33"/>
-    </row>
-    <row r="52" spans="2:22" ht="15.75" thickBot="1">
-      <c r="E52" s="34" t="s">
+      <c r="M55" s="40"/>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" thickBot="1">
+      <c r="E56" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="K52" s="34" t="s">
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
+      <c r="K56" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="L52" s="35"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="2:22">
-      <c r="B53" t="s">
+      <c r="L56" s="35"/>
+      <c r="M56" s="36"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="B57" t="s">
         <v>2543</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P57" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="54" spans="2:22">
-      <c r="P54" t="s">
+    <row r="58" spans="1:20">
+      <c r="P58" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B55" t="s">
+    <row r="59" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B59" t="s">
         <v>729</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H59" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="56" spans="2:22">
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="31"/>
-    </row>
-    <row r="57" spans="2:22">
-      <c r="H57" s="32"/>
-      <c r="I57" t="s">
+    <row r="60" spans="1:20">
+      <c r="H60" s="29"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="31"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="H61" s="32"/>
+      <c r="I61" t="s">
         <v>730</v>
       </c>
-      <c r="J57" s="33"/>
-      <c r="P57" t="s">
+      <c r="J61" s="33"/>
+      <c r="P61" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="58" spans="2:22">
-      <c r="H58" s="32"/>
-      <c r="I58" t="s">
+    <row r="62" spans="1:20">
+      <c r="H62" s="32"/>
+      <c r="I62" t="s">
         <v>731</v>
       </c>
-      <c r="J58" s="33"/>
-    </row>
-    <row r="59" spans="2:22">
-      <c r="H59" s="32"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="33"/>
-      <c r="P59" t="s">
+      <c r="J62" s="33"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="H63" s="32"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="33"/>
+      <c r="P63" t="s">
         <v>737</v>
       </c>
-      <c r="T59" t="s">
+      <c r="T63" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="60" spans="2:22">
-      <c r="H60" s="32"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="33"/>
-    </row>
-    <row r="61" spans="2:22" ht="15.75" thickBot="1">
-      <c r="H61" s="34"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="36"/>
-      <c r="P61" t="s">
+    <row r="64" spans="1:20">
+      <c r="H64" s="32"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="33"/>
+    </row>
+    <row r="65" spans="2:22" ht="15.75" thickBot="1">
+      <c r="H65" s="34"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36"/>
+      <c r="P65" t="s">
         <v>738</v>
       </c>
-      <c r="T61" t="s">
+      <c r="T65" t="s">
         <v>741</v>
       </c>
-      <c r="V61" t="s">
+      <c r="V65" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="63" spans="2:22">
-      <c r="B63" t="s">
+    <row r="67" spans="2:22">
+      <c r="B67" t="s">
         <v>732</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D67" t="s">
         <v>733</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P67" t="s">
         <v>739</v>
       </c>
-      <c r="U63" t="s">
+      <c r="U67" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="66" spans="9:21" ht="15.75" thickBot="1"/>
-    <row r="67" spans="9:21">
-      <c r="I67" s="29"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="31"/>
-    </row>
-    <row r="68" spans="9:21" ht="15.75" thickBot="1">
-      <c r="I68" s="32"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="33"/>
-    </row>
-    <row r="69" spans="9:21">
-      <c r="I69" s="32"/>
-      <c r="J69" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="K69" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="O69" s="46"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="33"/>
-    </row>
-    <row r="70" spans="9:21">
-      <c r="I70" s="32"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="50" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q70" s="33" t="s">
-        <v>750</v>
-      </c>
-      <c r="R70" s="26"/>
-      <c r="S70" s="26"/>
-      <c r="T70" s="26"/>
-      <c r="U70" s="33"/>
-    </row>
-    <row r="71" spans="9:21">
-      <c r="I71" s="32"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q71" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="R71" s="50"/>
-      <c r="S71" s="50"/>
-      <c r="T71" s="26"/>
-      <c r="U71" s="33"/>
-    </row>
-    <row r="72" spans="9:21">
+    <row r="70" spans="2:22" ht="15.75" thickBot="1"/>
+    <row r="71" spans="2:22">
+      <c r="I71" s="29"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="31"/>
+    </row>
+    <row r="72" spans="2:22" ht="15.75" thickBot="1">
       <c r="I72" s="32"/>
       <c r="J72" s="26"/>
       <c r="K72" s="26"/>
       <c r="L72" s="26"/>
-      <c r="M72" s="50"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="26"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q72" s="33">
-        <v>10</v>
-      </c>
-      <c r="R72" s="73"/>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50"/>
-      <c r="U72" s="74"/>
-    </row>
-    <row r="73" spans="9:21" ht="15.75" thickBot="1">
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="33"/>
+    </row>
+    <row r="73" spans="2:22">
       <c r="I73" s="32"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
+      <c r="J73" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="K73" s="26" t="s">
+        <v>517</v>
+      </c>
       <c r="L73" s="26"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q73" s="36">
-        <v>5</v>
-      </c>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="O73" s="46"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="31"/>
       <c r="R73" s="26"/>
-      <c r="S73" s="50"/>
-      <c r="T73" s="50"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
       <c r="U73" s="33"/>
     </row>
-    <row r="74" spans="9:21">
+    <row r="74" spans="2:22">
       <c r="I74" s="32"/>
       <c r="J74" s="26"/>
       <c r="K74" s="26"/>
       <c r="L74" s="26"/>
       <c r="M74" s="26"/>
       <c r="N74" s="26"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
-      <c r="Q74" s="26"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q74" s="33" t="s">
+        <v>750</v>
+      </c>
       <c r="R74" s="26"/>
-      <c r="S74" s="50"/>
-      <c r="T74" s="50"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
       <c r="U74" s="33"/>
     </row>
-    <row r="75" spans="9:21" ht="15.75" thickBot="1">
-      <c r="I75" s="34"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="36"/>
-    </row>
-    <row r="77" spans="9:21">
-      <c r="I77" t="s">
+    <row r="75" spans="2:22">
+      <c r="I75" s="32"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q75" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="33"/>
+    </row>
+    <row r="76" spans="2:22">
+      <c r="I76" s="32"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q76" s="33">
+        <v>10</v>
+      </c>
+      <c r="R76" s="73"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="74"/>
+    </row>
+    <row r="77" spans="2:22" ht="15.75" thickBot="1">
+      <c r="I77" s="32"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q77" s="36">
+        <v>5</v>
+      </c>
+      <c r="R77" s="26"/>
+      <c r="S77" s="50"/>
+      <c r="T77" s="50"/>
+      <c r="U77" s="33"/>
+    </row>
+    <row r="78" spans="2:22">
+      <c r="I78" s="32"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="33"/>
+    </row>
+    <row r="79" spans="2:22" ht="15.75" thickBot="1">
+      <c r="I79" s="34"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="36"/>
+    </row>
+    <row r="81" spans="9:20">
+      <c r="I81" t="s">
         <v>743</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N81" t="s">
         <v>745</v>
       </c>
-      <c r="S77" t="s">
+      <c r="S81" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="78" spans="9:21">
-      <c r="J78" t="s">
+    <row r="82" spans="9:20">
+      <c r="J82" t="s">
         <v>744</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O82" t="s">
         <v>356</v>
       </c>
-      <c r="T78" t="s">
+      <c r="T82" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="79" spans="9:21">
-      <c r="I79" t="s">
+    <row r="83" spans="9:20">
+      <c r="I83" t="s">
         <v>144</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O83" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="80" spans="9:21">
-      <c r="N80" t="s">
+    <row r="84" spans="9:20">
+      <c r="N84" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="10:10">
-      <c r="J82" t="s">
+    <row r="86" spans="9:20">
+      <c r="J86" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="87" spans="10:10">
-      <c r="J87" t="s">
+    <row r="91" spans="9:20">
+      <c r="J91" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="88" spans="10:10">
-      <c r="J88" t="s">
+    <row r="92" spans="9:20">
+      <c r="J92" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="89" spans="10:10">
-      <c r="J89" t="s">
+    <row r="93" spans="9:20">
+      <c r="J93" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="93" spans="10:10">
-      <c r="J93" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="94" spans="10:10">
-      <c r="J94" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="95" spans="10:10">
-      <c r="J95" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="97" spans="10:11">
       <c r="J97" t="s">
-        <v>793</v>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11">
+      <c r="J98" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="99" spans="10:11">
       <c r="J99" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="100" spans="10:11">
-      <c r="J100" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="101" spans="10:11">
       <c r="J101" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="102" spans="10:11">
-      <c r="J102" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="103" spans="10:11">
       <c r="J103" t="s">
-        <v>798</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="104" spans="10:11">
+      <c r="J104" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="105" spans="10:11">
+      <c r="J105" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="106" spans="10:11">
       <c r="J106" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="107" spans="10:11">
+      <c r="J107" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="110" spans="10:11">
+      <c r="J110" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="107" spans="10:11">
-      <c r="K107" t="s">
+    <row r="111" spans="10:11">
+      <c r="K111" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="10:11">
-      <c r="K108" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="10:11">
-      <c r="K109" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="10:11">
-      <c r="K110" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="10:11">
-      <c r="J111" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="112" spans="10:11">
       <c r="K112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="10:11">
+      <c r="K113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11">
+      <c r="K114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11">
+      <c r="J115" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11">
+      <c r="K116" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="114" spans="10:10">
-      <c r="J114" t="s">
+    <row r="118" spans="10:11">
+      <c r="J118" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="115" spans="10:10">
-      <c r="J115" t="s">
+    <row r="119" spans="10:11">
+      <c r="J119" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="117" spans="10:10">
-      <c r="J117" t="s">
+    <row r="121" spans="10:11">
+      <c r="J121" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="10:10">
-      <c r="J118" t="s">
+    <row r="122" spans="10:11">
+      <c r="J122" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="120" spans="10:10">
-      <c r="J120" t="s">
+    <row r="124" spans="10:11">
+      <c r="J124" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="121" spans="10:10">
-      <c r="J121" t="s">
+    <row r="125" spans="10:11">
+      <c r="J125" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="122" spans="10:10">
-      <c r="J122" t="s">
+    <row r="126" spans="10:11">
+      <c r="J126" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="124" spans="10:10">
-      <c r="J124" t="s">
+    <row r="128" spans="10:11">
+      <c r="J128" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="135" spans="2:12">
-      <c r="C135" t="s">
+    <row r="139" spans="2:12">
+      <c r="C139" t="s">
         <v>765</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J139" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="136" spans="2:12">
-      <c r="D136" t="s">
+    <row r="140" spans="2:12">
+      <c r="D140" t="s">
         <v>761</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K140" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="15.75" thickBot="1"/>
-    <row r="138" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B138" s="76" t="s">
-        <v>755</v>
-      </c>
-      <c r="C138" s="77" t="s">
-        <v>758</v>
-      </c>
-      <c r="D138" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="E138" s="31"/>
-      <c r="I138" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="J138" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="K138" s="30"/>
-      <c r="L138" s="31"/>
-    </row>
-    <row r="139" spans="2:12" ht="15.75" thickBot="1">
-      <c r="C139" s="32"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="33"/>
-      <c r="J139" s="32"/>
-      <c r="K139" s="26"/>
-      <c r="L139" s="33"/>
-    </row>
-    <row r="140" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B140" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="E140" s="33"/>
-      <c r="I140" s="75"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="26"/>
-      <c r="L140" s="33"/>
-    </row>
-    <row r="141" spans="2:12" ht="15.75" thickBot="1">
-      <c r="C141" s="32"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="33"/>
-      <c r="J141" s="32"/>
-      <c r="K141" s="26"/>
-      <c r="L141" s="33"/>
-    </row>
+    <row r="141" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="142" spans="2:12" ht="15.75" thickBot="1">
       <c r="B142" s="76" t="s">
-        <v>757</v>
-      </c>
-      <c r="C142" s="79" t="s">
-        <v>760</v>
+        <v>755</v>
+      </c>
+      <c r="C142" s="77" t="s">
+        <v>758</v>
       </c>
       <c r="D142" s="78" t="s">
         <v>763</v>
       </c>
-      <c r="E142" s="33"/>
+      <c r="E142" s="31"/>
       <c r="I142" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="J142" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="K142" s="30"/>
+      <c r="L142" s="31"/>
+    </row>
+    <row r="143" spans="2:12" ht="15.75" thickBot="1">
+      <c r="C143" s="32"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="33"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="33"/>
+    </row>
+    <row r="144" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B144" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="E144" s="33"/>
+      <c r="I144" s="75"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="33"/>
+    </row>
+    <row r="145" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C145" s="32"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="33"/>
+      <c r="J145" s="32"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="33"/>
+    </row>
+    <row r="146" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B146" s="76" t="s">
         <v>757</v>
       </c>
-      <c r="J142" s="32" t="s">
+      <c r="C146" s="79" t="s">
         <v>760</v>
-      </c>
-      <c r="K142" s="26"/>
-      <c r="L142" s="33"/>
-    </row>
-    <row r="143" spans="2:12" ht="15.75" thickBot="1">
-      <c r="C143" s="34"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="36"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="36"/>
-    </row>
-    <row r="145" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C145" t="s">
-        <v>754</v>
-      </c>
-      <c r="J145" s="55" t="s">
-        <v>770</v>
-      </c>
-      <c r="K145" s="55"/>
-      <c r="L145" s="55"/>
-    </row>
-    <row r="146" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B146" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="C146" s="77" t="s">
-        <v>758</v>
       </c>
       <c r="D146" s="78" t="s">
         <v>763</v>
       </c>
-      <c r="E146" s="31"/>
-      <c r="I146" s="76" t="s">
-        <v>755</v>
-      </c>
-      <c r="J146" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="K146" s="30"/>
-      <c r="L146" s="31"/>
+      <c r="E146" s="33"/>
+      <c r="I146" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="J146" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="K146" s="26"/>
+      <c r="L146" s="33"/>
     </row>
     <row r="147" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C147" s="32"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="33"/>
-      <c r="J147" s="32"/>
-      <c r="K147" s="26"/>
-      <c r="L147" s="33"/>
-    </row>
-    <row r="148" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B148" s="75"/>
-      <c r="C148" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="E148" s="33"/>
-      <c r="F148" t="s">
-        <v>772</v>
-      </c>
-      <c r="I148" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="J148" s="26"/>
-      <c r="K148" s="26"/>
-      <c r="L148" s="33"/>
-      <c r="M148" t="s">
-        <v>771</v>
-      </c>
+      <c r="C147" s="34"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="36"/>
+      <c r="J147" s="34"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="36"/>
     </row>
     <row r="149" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C149" s="32"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="33"/>
-      <c r="J149" s="32"/>
-      <c r="K149" s="26"/>
-      <c r="L149" s="33"/>
+      <c r="C149" t="s">
+        <v>754</v>
+      </c>
+      <c r="J149" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="K149" s="55"/>
+      <c r="L149" s="55"/>
     </row>
     <row r="150" spans="2:13" ht="15.75" thickBot="1">
       <c r="B150" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="C150" s="79" t="s">
-        <v>760</v>
+        <v>755</v>
+      </c>
+      <c r="C150" s="77" t="s">
+        <v>758</v>
       </c>
       <c r="D150" s="78" t="s">
         <v>763</v>
       </c>
-      <c r="E150" s="33"/>
+      <c r="E150" s="31"/>
       <c r="I150" s="76" t="s">
+        <v>755</v>
+      </c>
+      <c r="J150" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="K150" s="30"/>
+      <c r="L150" s="31"/>
+    </row>
+    <row r="151" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C151" s="32"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="33"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="33"/>
+    </row>
+    <row r="152" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B152" s="75"/>
+      <c r="C152" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="E152" s="33"/>
+      <c r="F152" t="s">
+        <v>772</v>
+      </c>
+      <c r="I152" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="J152" s="26"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="33"/>
+      <c r="M152" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C153" s="32"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="33"/>
+      <c r="J153" s="32"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="33"/>
+    </row>
+    <row r="154" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B154" s="45" t="s">
         <v>757</v>
       </c>
-      <c r="J150" s="32" t="s">
+      <c r="C154" s="79" t="s">
         <v>760</v>
       </c>
-      <c r="K150" s="26"/>
-      <c r="L150" s="33"/>
-    </row>
-    <row r="151" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C151" s="34"/>
-      <c r="D151" s="35"/>
-      <c r="E151" s="36"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="35"/>
-      <c r="L151" s="36"/>
-    </row>
-    <row r="153" spans="2:13">
-      <c r="C153" t="s">
+      <c r="D154" s="78" t="s">
+        <v>763</v>
+      </c>
+      <c r="E154" s="33"/>
+      <c r="I154" s="76" t="s">
+        <v>757</v>
+      </c>
+      <c r="J154" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="K154" s="26"/>
+      <c r="L154" s="33"/>
+    </row>
+    <row r="155" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C155" s="34"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="36"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="35"/>
+      <c r="L155" s="36"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="C157" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="154" spans="2:13">
-      <c r="C154" t="s">
+    <row r="158" spans="2:13">
+      <c r="C158" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="155" spans="2:13">
-      <c r="C155" t="s">
+    <row r="159" spans="2:13">
+      <c r="C159" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="159" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C159" t="s">
+    <row r="163" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C163" t="s">
         <v>774</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H163" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="160" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B160" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C160" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="D160" s="81"/>
-      <c r="E160" s="82"/>
-      <c r="G160" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="H160" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="I160" s="81"/>
-      <c r="J160" s="82"/>
-    </row>
-    <row r="161" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C161" s="83"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="74"/>
-      <c r="H161" s="83"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="74"/>
-    </row>
-    <row r="162" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B162" s="75"/>
-      <c r="C162" s="83"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="74"/>
-      <c r="G162" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H162" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="I162" s="37"/>
-      <c r="J162" s="74"/>
-    </row>
-    <row r="163" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C163" s="83"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="74"/>
-      <c r="H163" s="83"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="74"/>
     </row>
     <row r="164" spans="2:10" ht="15.75" thickBot="1">
       <c r="B164" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C164" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D164" s="81"/>
+      <c r="E164" s="82"/>
+      <c r="G164" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="H164" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="I164" s="81"/>
+      <c r="J164" s="82"/>
+    </row>
+    <row r="165" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C165" s="83"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="74"/>
+      <c r="H165" s="83"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="74"/>
+    </row>
+    <row r="166" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B166" s="75"/>
+      <c r="C166" s="83"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="74"/>
+      <c r="G166" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="H166" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="I166" s="37"/>
+      <c r="J166" s="74"/>
+    </row>
+    <row r="167" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C167" s="83"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="74"/>
+      <c r="H167" s="83"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="74"/>
+    </row>
+    <row r="168" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B168" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C164" s="83" t="s">
+      <c r="C168" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="D164" s="81"/>
-      <c r="E164" s="74"/>
-      <c r="G164" s="76" t="s">
+      <c r="D168" s="81"/>
+      <c r="E168" s="74"/>
+      <c r="G168" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="H164" s="79" t="s">
+      <c r="H168" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="I164" s="81"/>
-      <c r="J164" s="74"/>
-    </row>
-    <row r="165" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C165" s="84"/>
-      <c r="D165" s="85"/>
-      <c r="E165" s="86"/>
-      <c r="H165" s="84"/>
-      <c r="I165" s="85"/>
-      <c r="J165" s="86"/>
-    </row>
-    <row r="168" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D168" t="s">
+      <c r="I168" s="81"/>
+      <c r="J168" s="74"/>
+    </row>
+    <row r="169" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C169" s="84"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="86"/>
+      <c r="H169" s="84"/>
+      <c r="I169" s="85"/>
+      <c r="J169" s="86"/>
+    </row>
+    <row r="172" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D172" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B169" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C169" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="D169" s="81"/>
-      <c r="E169" s="82"/>
-    </row>
-    <row r="170" spans="2:10">
-      <c r="C170" s="83"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="74"/>
-    </row>
-    <row r="171" spans="2:10">
-      <c r="B171" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C171" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="D171" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="E171" s="74"/>
-      <c r="G171" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C172" s="83"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="74"/>
-      <c r="G172" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="173" spans="2:10" ht="15.75" thickBot="1">
       <c r="B173" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C173" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" s="81"/>
+      <c r="E173" s="82"/>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="C174" s="83"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="74"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C175" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="D175" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="E175" s="74"/>
+      <c r="G175" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C176" s="83"/>
+      <c r="D176" s="37"/>
+      <c r="E176" s="74"/>
+      <c r="G176" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="177" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B177" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C173" s="79" t="s">
+      <c r="C177" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="D173" s="81"/>
-      <c r="E173" s="74"/>
-      <c r="G173" t="s">
+      <c r="D177" s="81"/>
+      <c r="E177" s="74"/>
+      <c r="G177" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C174" s="84"/>
-      <c r="D174" s="85"/>
-      <c r="E174" s="86"/>
-      <c r="H174" t="s">
+    <row r="178" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C178" s="84"/>
+      <c r="D178" s="85"/>
+      <c r="E178" s="86"/>
+      <c r="H178" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="177" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="178" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B178" s="29"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="31"/>
-    </row>
-    <row r="179" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B179" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="C179" s="77" t="s">
-        <v>758</v>
-      </c>
-      <c r="D179" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="E179" s="31"/>
-      <c r="F179" s="33"/>
-      <c r="J179" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="K179" s="77" t="s">
-        <v>758</v>
-      </c>
-      <c r="L179" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="M179" s="31"/>
-    </row>
-    <row r="180" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B180" s="32"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="I180" t="s">
-        <v>787</v>
-      </c>
-      <c r="K180" s="32"/>
-      <c r="L180" s="26"/>
-      <c r="M180" s="33"/>
-    </row>
-    <row r="181" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B181" s="194"/>
-      <c r="C181" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="I181" t="s">
-        <v>782</v>
-      </c>
-      <c r="J181" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="K181" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="L181" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="M181" s="33"/>
-    </row>
+    <row r="181" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="182" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
-      <c r="K182" s="32"/>
-      <c r="L182" s="26"/>
-      <c r="M182" s="33"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="31"/>
     </row>
     <row r="183" spans="2:13" ht="15.75" thickBot="1">
       <c r="B183" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="C183" s="79" t="s">
-        <v>760</v>
+        <v>755</v>
+      </c>
+      <c r="C183" s="77" t="s">
+        <v>758</v>
       </c>
       <c r="D183" s="78" t="s">
         <v>763</v>
       </c>
-      <c r="E183" s="33"/>
+      <c r="E183" s="31"/>
       <c r="F183" s="33"/>
-      <c r="I183" t="s">
-        <v>783</v>
-      </c>
       <c r="J183" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="K183" s="79" t="s">
-        <v>760</v>
+        <v>755</v>
+      </c>
+      <c r="K183" s="77" t="s">
+        <v>758</v>
       </c>
       <c r="L183" s="78" t="s">
         <v>763</v>
       </c>
-      <c r="M183" s="33"/>
+      <c r="M183" s="31"/>
     </row>
     <row r="184" spans="2:13" ht="15.75" thickBot="1">
       <c r="B184" s="32"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="36"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="33"/>
       <c r="F184" s="33"/>
       <c r="I184" t="s">
+        <v>787</v>
+      </c>
+      <c r="K184" s="32"/>
+      <c r="L184" s="26"/>
+      <c r="M184" s="33"/>
+    </row>
+    <row r="185" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B185" s="194"/>
+      <c r="C185" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="I185" t="s">
+        <v>782</v>
+      </c>
+      <c r="J185" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="K185" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="L185" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="M185" s="33"/>
+    </row>
+    <row r="186" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="K186" s="32"/>
+      <c r="L186" s="26"/>
+      <c r="M186" s="33"/>
+    </row>
+    <row r="187" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B187" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="C187" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="D187" s="78" t="s">
+        <v>763</v>
+      </c>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="I187" t="s">
+        <v>783</v>
+      </c>
+      <c r="J187" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="K187" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="L187" s="78" t="s">
+        <v>763</v>
+      </c>
+      <c r="M187" s="33"/>
+    </row>
+    <row r="188" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B188" s="32"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="33"/>
+      <c r="I188" t="s">
         <v>784</v>
       </c>
-      <c r="K184" s="34"/>
-      <c r="L184" s="35"/>
-      <c r="M184" s="36"/>
-    </row>
-    <row r="185" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B185" s="34"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="36"/>
-      <c r="I185" t="s">
+      <c r="K188" s="34"/>
+      <c r="L188" s="35"/>
+      <c r="M188" s="36"/>
+    </row>
+    <row r="189" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B189" s="34"/>
+      <c r="C189" s="35"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="35"/>
+      <c r="F189" s="36"/>
+      <c r="I189" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="186" spans="2:13">
-      <c r="I186" t="s">
+    <row r="190" spans="2:13">
+      <c r="I190" t="s">
         <v>786</v>
       </c>
-      <c r="K186" t="s">
+      <c r="K190" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="187" spans="2:13">
-      <c r="K187" t="s">
+    <row r="191" spans="2:13">
+      <c r="K191" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="188" spans="2:13">
-      <c r="C188" t="s">
+    <row r="192" spans="2:13">
+      <c r="C192" t="s">
         <v>773</v>
       </c>
-      <c r="K188" t="s">
+      <c r="K192" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="189" spans="2:13">
-      <c r="C189" t="s">
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="190" spans="2:13">
-      <c r="C190" t="s">
+    <row r="194" spans="3:3">
+      <c r="C194" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="191" spans="2:13">
-      <c r="C191" t="s">
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="222" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C222" t="s">
+    <row r="226" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C226" t="s">
         <v>2462</v>
       </c>
     </row>
-    <row r="223" spans="3:10">
-      <c r="D223" s="29" t="s">
+    <row r="227" spans="2:10">
+      <c r="D227" s="29" t="s">
         <v>1919</v>
       </c>
-      <c r="E223" s="30"/>
-      <c r="F223" s="31"/>
-      <c r="H223" s="29" t="s">
+      <c r="E227" s="30"/>
+      <c r="F227" s="31"/>
+      <c r="H227" s="29" t="s">
         <v>2453</v>
       </c>
-      <c r="I223" s="30"/>
-      <c r="J223" s="31"/>
-    </row>
-    <row r="224" spans="3:10">
-      <c r="D224" s="32" t="s">
+      <c r="I227" s="30"/>
+      <c r="J227" s="31"/>
+    </row>
+    <row r="228" spans="2:10">
+      <c r="D228" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="E224" s="26"/>
-      <c r="F224" s="33"/>
-      <c r="H224" s="32" t="s">
+      <c r="E228" s="26"/>
+      <c r="F228" s="33"/>
+      <c r="H228" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="I224" s="26"/>
-      <c r="J224" s="33"/>
-    </row>
-    <row r="225" spans="2:10">
-      <c r="D225" s="32"/>
-      <c r="E225" s="26" t="s">
+      <c r="I228" s="26"/>
+      <c r="J228" s="33"/>
+    </row>
+    <row r="229" spans="2:10">
+      <c r="D229" s="32"/>
+      <c r="E229" s="26" t="s">
         <v>2455</v>
       </c>
-      <c r="F225" s="33"/>
-      <c r="H225" s="32"/>
-      <c r="I225" s="32" t="s">
+      <c r="F229" s="33"/>
+      <c r="H229" s="32"/>
+      <c r="I229" s="32" t="s">
         <v>2454</v>
       </c>
-      <c r="J225" s="33"/>
-    </row>
-    <row r="226" spans="2:10">
-      <c r="D226" s="32" t="s">
+      <c r="J229" s="33"/>
+    </row>
+    <row r="230" spans="2:10">
+      <c r="D230" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E226" s="26"/>
-      <c r="F226" s="33"/>
-      <c r="H226" s="32" t="s">
+      <c r="E230" s="26"/>
+      <c r="F230" s="33"/>
+      <c r="H230" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="I226" s="26"/>
-      <c r="J226" s="33"/>
-    </row>
-    <row r="227" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D227" s="34"/>
-      <c r="E227" s="35"/>
-      <c r="F227" s="36"/>
-      <c r="H227" s="34"/>
-      <c r="I227" s="35"/>
-      <c r="J227" s="36"/>
-    </row>
-    <row r="228" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B228" t="s">
+      <c r="I230" s="26"/>
+      <c r="J230" s="33"/>
+    </row>
+    <row r="231" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D231" s="34"/>
+      <c r="E231" s="35"/>
+      <c r="F231" s="36"/>
+      <c r="H231" s="34"/>
+      <c r="I231" s="35"/>
+      <c r="J231" s="36"/>
+    </row>
+    <row r="232" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B232" t="s">
         <v>2459</v>
       </c>
     </row>
-    <row r="229" spans="2:10">
-      <c r="B229" t="s">
+    <row r="233" spans="2:10">
+      <c r="B233" t="s">
         <v>2460</v>
       </c>
-      <c r="F229" s="29" t="s">
+      <c r="F233" s="29" t="s">
         <v>729</v>
       </c>
-      <c r="G229" s="30"/>
-      <c r="H229" s="31"/>
-    </row>
-    <row r="230" spans="2:10">
-      <c r="F230" s="32"/>
-      <c r="G230" s="26"/>
-      <c r="H230" s="33"/>
-    </row>
-    <row r="231" spans="2:10">
-      <c r="F231" s="32"/>
-      <c r="G231" s="26"/>
-      <c r="H231" s="33"/>
-    </row>
-    <row r="232" spans="2:10">
-      <c r="B232" t="s">
+      <c r="G233" s="30"/>
+      <c r="H233" s="31"/>
+    </row>
+    <row r="234" spans="2:10">
+      <c r="F234" s="32"/>
+      <c r="G234" s="26"/>
+      <c r="H234" s="33"/>
+    </row>
+    <row r="235" spans="2:10">
+      <c r="F235" s="32"/>
+      <c r="G235" s="26"/>
+      <c r="H235" s="33"/>
+    </row>
+    <row r="236" spans="2:10">
+      <c r="B236" t="s">
         <v>2458</v>
       </c>
-      <c r="F232" s="32"/>
-      <c r="G232" s="26"/>
-      <c r="H232" s="33"/>
-    </row>
-    <row r="233" spans="2:10" ht="15.75" thickBot="1">
-      <c r="F233" s="34"/>
-      <c r="G233" s="35"/>
-      <c r="H233" s="36"/>
-    </row>
-    <row r="235" spans="2:10">
-      <c r="F235" t="s">
+      <c r="F236" s="32"/>
+      <c r="G236" s="26"/>
+      <c r="H236" s="33"/>
+    </row>
+    <row r="237" spans="2:10" ht="15.75" thickBot="1">
+      <c r="F237" s="34"/>
+      <c r="G237" s="35"/>
+      <c r="H237" s="36"/>
+    </row>
+    <row r="239" spans="2:10">
+      <c r="F239" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="236" spans="2:10">
-      <c r="F236" t="s">
+    <row r="240" spans="2:10">
+      <c r="F240" t="s">
         <v>731</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H240" t="s">
         <v>2456</v>
       </c>
-      <c r="J236" t="s">
+      <c r="J240" t="s">
         <v>2457</v>
       </c>
     </row>
-    <row r="238" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C238" t="s">
+    <row r="242" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C242" t="s">
         <v>2461</v>
       </c>
     </row>
-    <row r="239" spans="2:10">
-      <c r="D239" s="29" t="s">
+    <row r="243" spans="2:10">
+      <c r="D243" s="29" t="s">
         <v>1919</v>
       </c>
-      <c r="E239" s="30"/>
-      <c r="F239" s="31"/>
-      <c r="H239" s="29" t="s">
+      <c r="E243" s="30"/>
+      <c r="F243" s="31"/>
+      <c r="H243" s="29" t="s">
         <v>2453</v>
       </c>
-      <c r="I239" s="30"/>
-      <c r="J239" s="31"/>
-    </row>
-    <row r="240" spans="2:10">
-      <c r="D240" s="32" t="s">
+      <c r="I243" s="30"/>
+      <c r="J243" s="31"/>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="D244" s="32" t="s">
         <v>819</v>
       </c>
-      <c r="E240" s="26"/>
-      <c r="F240" s="33"/>
-      <c r="H240" s="32" t="s">
+      <c r="E244" s="26"/>
+      <c r="F244" s="33"/>
+      <c r="H244" s="32" t="s">
         <v>819</v>
       </c>
-      <c r="I240" s="26"/>
-      <c r="J240" s="33"/>
-    </row>
-    <row r="241" spans="2:10">
-      <c r="D241" s="32" t="s">
+      <c r="I244" s="26"/>
+      <c r="J244" s="33"/>
+    </row>
+    <row r="245" spans="2:10">
+      <c r="D245" s="32" t="s">
         <v>2463</v>
       </c>
-      <c r="E241" s="26"/>
-      <c r="F241" s="33"/>
-      <c r="H241" s="32" t="s">
+      <c r="E245" s="26"/>
+      <c r="F245" s="33"/>
+      <c r="H245" s="32" t="s">
         <v>2463</v>
       </c>
-      <c r="I241" s="26"/>
-      <c r="J241" s="33"/>
-    </row>
-    <row r="242" spans="2:10">
-      <c r="D242" s="32"/>
-      <c r="E242" s="26" t="s">
+      <c r="I245" s="26"/>
+      <c r="J245" s="33"/>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="D246" s="32"/>
+      <c r="E246" s="26" t="s">
         <v>2464</v>
       </c>
-      <c r="F242" s="33"/>
-      <c r="H242" s="32"/>
-      <c r="I242" s="26" t="s">
+      <c r="F246" s="33"/>
+      <c r="H246" s="32"/>
+      <c r="I246" s="26" t="s">
         <v>2465</v>
       </c>
-      <c r="J242" s="33"/>
-    </row>
-    <row r="243" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D243" s="34" t="s">
+      <c r="J246" s="33"/>
+    </row>
+    <row r="247" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D247" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E243" s="35"/>
-      <c r="F243" s="36"/>
-      <c r="H243" s="34" t="s">
+      <c r="E247" s="35"/>
+      <c r="F247" s="36"/>
+      <c r="H247" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="I243" s="35"/>
-      <c r="J243" s="36"/>
-    </row>
-    <row r="244" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B244" t="s">
+      <c r="I247" s="35"/>
+      <c r="J247" s="36"/>
+    </row>
+    <row r="248" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B248" t="s">
         <v>2459</v>
       </c>
     </row>
-    <row r="245" spans="2:10">
-      <c r="B245" t="s">
+    <row r="249" spans="2:10">
+      <c r="B249" t="s">
         <v>2460</v>
       </c>
-      <c r="F245" s="29" t="s">
+      <c r="F249" s="29" t="s">
         <v>729</v>
       </c>
-      <c r="G245" s="30"/>
-      <c r="H245" s="31"/>
-    </row>
-    <row r="246" spans="2:10">
-      <c r="F246" s="32" t="s">
+      <c r="G249" s="30"/>
+      <c r="H249" s="31"/>
+    </row>
+    <row r="250" spans="2:10">
+      <c r="F250" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="G246" s="26"/>
-      <c r="H246" s="33"/>
-    </row>
-    <row r="247" spans="2:10">
-      <c r="F247" s="32" t="s">
+      <c r="G250" s="26"/>
+      <c r="H250" s="33"/>
+    </row>
+    <row r="251" spans="2:10">
+      <c r="F251" s="32" t="s">
         <v>2468</v>
       </c>
-      <c r="G247" s="26"/>
-      <c r="H247" s="33"/>
-    </row>
-    <row r="248" spans="2:10">
-      <c r="B248" t="s">
+      <c r="G251" s="26"/>
+      <c r="H251" s="33"/>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="B252" t="s">
         <v>2458</v>
       </c>
-      <c r="F248" s="32" t="s">
+      <c r="F252" s="32" t="s">
         <v>2466</v>
       </c>
-      <c r="G248" s="26"/>
-      <c r="H248" s="33"/>
-    </row>
-    <row r="249" spans="2:10" ht="15.75" thickBot="1">
-      <c r="F249" s="34"/>
-      <c r="G249" s="35" t="s">
+      <c r="G252" s="26"/>
+      <c r="H252" s="33"/>
+    </row>
+    <row r="253" spans="2:10" ht="15.75" thickBot="1">
+      <c r="F253" s="34"/>
+      <c r="G253" s="35" t="s">
         <v>2467</v>
       </c>
-      <c r="H249" s="36"/>
-    </row>
-    <row r="258" spans="4:11" ht="15.75" thickBot="1"/>
-    <row r="259" spans="4:11">
-      <c r="D259" s="29" t="s">
+      <c r="H253" s="36"/>
+    </row>
+    <row r="262" spans="4:10" ht="15.75" thickBot="1"/>
+    <row r="263" spans="4:10">
+      <c r="D263" s="29" t="s">
         <v>2469</v>
       </c>
-      <c r="E259" s="30"/>
-      <c r="F259" s="30"/>
-      <c r="G259" s="31"/>
-      <c r="I259" t="s">
+      <c r="E263" s="30"/>
+      <c r="F263" s="30"/>
+      <c r="G263" s="31"/>
+      <c r="I263" t="s">
         <v>2471</v>
       </c>
     </row>
-    <row r="260" spans="4:11" ht="15.75" thickBot="1">
-      <c r="D260" s="32"/>
-      <c r="E260" s="26"/>
-      <c r="F260" s="26"/>
-      <c r="G260" s="33"/>
-      <c r="J260" t="s">
+    <row r="264" spans="4:10" ht="15.75" thickBot="1">
+      <c r="D264" s="32"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="26"/>
+      <c r="G264" s="33"/>
+      <c r="J264" t="s">
         <v>2474</v>
       </c>
     </row>
-    <row r="261" spans="4:11">
-      <c r="D261" s="32"/>
-      <c r="E261" s="29" t="s">
+    <row r="265" spans="4:10">
+      <c r="D265" s="32"/>
+      <c r="E265" s="29" t="s">
         <v>2469</v>
       </c>
-      <c r="F261" s="31"/>
-      <c r="G261" s="33"/>
-      <c r="J261" t="s">
+      <c r="F265" s="31"/>
+      <c r="G265" s="33"/>
+      <c r="J265" t="s">
         <v>2475</v>
       </c>
     </row>
-    <row r="262" spans="4:11">
-      <c r="D262" s="32"/>
-      <c r="E262" s="32"/>
-      <c r="F262" s="33"/>
-      <c r="G262" s="33"/>
-      <c r="J262" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="263" spans="4:11">
-      <c r="D263" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E263" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F263" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G263" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J263" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="264" spans="4:11">
-      <c r="D264" s="32"/>
-      <c r="E264" s="32"/>
-      <c r="F264" s="33"/>
-      <c r="G264" s="33"/>
-    </row>
-    <row r="265" spans="4:11">
-      <c r="D265" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E265" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F265" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G265" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I265" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="266" spans="4:11">
+    <row r="266" spans="4:10">
       <c r="D266" s="32"/>
       <c r="E266" s="32"/>
       <c r="F266" s="33"/>
       <c r="G266" s="33"/>
-    </row>
-    <row r="267" spans="4:11">
+      <c r="J266" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="267" spans="4:10">
       <c r="D267" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E267" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F267" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G267" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J267" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="268" spans="4:10">
+      <c r="D268" s="32"/>
+      <c r="E268" s="32"/>
+      <c r="F268" s="33"/>
+      <c r="G268" s="33"/>
+    </row>
+    <row r="269" spans="4:10">
+      <c r="D269" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E269" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F269" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G269" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I269" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="270" spans="4:10">
+      <c r="D270" s="32"/>
+      <c r="E270" s="32"/>
+      <c r="F270" s="33"/>
+      <c r="G270" s="33"/>
+    </row>
+    <row r="271" spans="4:10">
+      <c r="D271" s="32" t="s">
         <v>2470</v>
       </c>
-      <c r="E267" s="32" t="s">
+      <c r="E271" s="32" t="s">
         <v>2470</v>
       </c>
-      <c r="F267" s="33"/>
-      <c r="G267" s="33"/>
-      <c r="J267" t="s">
+      <c r="F271" s="33"/>
+      <c r="G271" s="33"/>
+      <c r="J271" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="268" spans="4:11" ht="15.75" thickBot="1">
-      <c r="D268" s="32"/>
-      <c r="E268" s="34"/>
-      <c r="F268" s="36"/>
-      <c r="G268" s="33"/>
-    </row>
-    <row r="269" spans="4:11">
-      <c r="D269" s="32"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="26"/>
-      <c r="G269" s="33"/>
-      <c r="I269" t="s">
+    <row r="272" spans="4:10" ht="15.75" thickBot="1">
+      <c r="D272" s="32"/>
+      <c r="E272" s="34"/>
+      <c r="F272" s="36"/>
+      <c r="G272" s="33"/>
+    </row>
+    <row r="273" spans="4:11">
+      <c r="D273" s="32"/>
+      <c r="E273" s="26"/>
+      <c r="F273" s="26"/>
+      <c r="G273" s="33"/>
+      <c r="I273" t="s">
         <v>2478</v>
       </c>
     </row>
-    <row r="270" spans="4:11" ht="15.75" thickBot="1">
-      <c r="D270" s="34"/>
-      <c r="E270" s="35"/>
-      <c r="F270" s="35"/>
-      <c r="G270" s="36"/>
-      <c r="I270" t="s">
+    <row r="274" spans="4:11" ht="15.75" thickBot="1">
+      <c r="D274" s="34"/>
+      <c r="E274" s="35"/>
+      <c r="F274" s="35"/>
+      <c r="G274" s="36"/>
+      <c r="I274" t="s">
         <v>2479</v>
       </c>
-      <c r="K270" t="s">
+      <c r="K274" t="s">
         <v>2481</v>
       </c>
     </row>
-    <row r="271" spans="4:11">
-      <c r="I271" t="s">
+    <row r="275" spans="4:11">
+      <c r="I275" t="s">
         <v>2480</v>
       </c>
-      <c r="K271" t="s">
+      <c r="K275" t="s">
         <v>2482</v>
       </c>
     </row>
-    <row r="272" spans="4:11">
-      <c r="J272" s="55" t="s">
+    <row r="276" spans="4:11">
+      <c r="J276" s="55" t="s">
         <v>2483</v>
       </c>
     </row>
@@ -25907,7 +26205,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="E1" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -25928,25 +26226,25 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="313" t="s">
+      <c r="H3" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="315"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="313"/>
       <c r="P3" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="P4" t="s">
-        <v>3074</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="E5" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -25960,35 +26258,35 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
       <c r="P5" t="s">
-        <v>3075</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="E6" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="316" t="s">
-        <v>3067</v>
-      </c>
-      <c r="H6" s="317"/>
+      <c r="G6" s="314" t="s">
+        <v>3062</v>
+      </c>
+      <c r="H6" s="315"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="316" t="s">
+      <c r="J6" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="317"/>
+      <c r="K6" s="315"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="316" t="s">
+      <c r="M6" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="317"/>
+      <c r="N6" s="315"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>3071</v>
+        <v>3066</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
@@ -26002,20 +26300,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="318" t="s">
+      <c r="G8" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="319"/>
+      <c r="H8" s="317"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="318" t="s">
+      <c r="J8" s="316" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="319"/>
+      <c r="K8" s="317"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="318" t="s">
+      <c r="M8" s="316" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="319"/>
+      <c r="N8" s="317"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -26031,29 +26329,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="309" t="s">
-        <v>3068</v>
-      </c>
-      <c r="G10" s="310"/>
-      <c r="H10" s="310"/>
-      <c r="I10" s="310"/>
-      <c r="J10" s="310"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="310"/>
+      <c r="F10" s="307" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G10" s="308"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="308"/>
+      <c r="J10" s="308"/>
+      <c r="K10" s="308"/>
+      <c r="L10" s="308"/>
+      <c r="M10" s="308"/>
+      <c r="N10" s="308"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="311"/>
-      <c r="G11" s="312"/>
-      <c r="H11" s="312"/>
-      <c r="I11" s="312"/>
-      <c r="J11" s="312"/>
-      <c r="K11" s="312"/>
-      <c r="L11" s="312"/>
-      <c r="M11" s="312"/>
-      <c r="N11" s="312"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="310"/>
+      <c r="H11" s="310"/>
+      <c r="I11" s="310"/>
+      <c r="J11" s="310"/>
+      <c r="K11" s="310"/>
+      <c r="L11" s="310"/>
+      <c r="M11" s="310"/>
+      <c r="N11" s="310"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -26104,7 +26402,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
       <c r="P14" t="s">
-        <v>3085</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -26129,7 +26427,7 @@
       <c r="M15" s="137"/>
       <c r="N15" s="18"/>
       <c r="P15" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1">
@@ -26147,10 +26445,10 @@
       <c r="M16" s="17"/>
       <c r="N16" s="18"/>
       <c r="P16" t="s">
-        <v>3082</v>
+        <v>3077</v>
       </c>
       <c r="Q16" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -26169,10 +26467,10 @@
       <c r="M17" s="17"/>
       <c r="N17" s="18"/>
       <c r="P17" t="s">
-        <v>3080</v>
+        <v>3075</v>
       </c>
       <c r="Q17" t="s">
-        <v>3081</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -26190,10 +26488,10 @@
       </c>
       <c r="N18" s="18"/>
       <c r="P18" t="s">
-        <v>3078</v>
+        <v>3073</v>
       </c>
       <c r="Q18" s="143" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -26216,10 +26514,10 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="P19" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="Q19" s="143" t="s">
-        <v>3077</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1">
@@ -26230,7 +26528,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
       <c r="J20" s="16" t="s">
-        <v>3104</v>
+        <v>3099</v>
       </c>
       <c r="K20" s="18">
         <v>1234</v>
@@ -26247,7 +26545,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
       <c r="J21" s="16" t="s">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="K21" s="18">
         <v>100</v>
@@ -26276,7 +26574,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="302"/>
+      <c r="J23" s="300"/>
       <c r="K23" s="21"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -26284,7 +26582,7 @@
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1">
       <c r="I27" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="K27" s="165"/>
     </row>
@@ -26294,7 +26592,7 @@
     <row r="29" spans="1:17">
       <c r="G29" s="26"/>
       <c r="J29" t="s">
-        <v>3091</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -26368,22 +26666,22 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>3090</v>
+        <v>3085</v>
       </c>
       <c r="I32" s="133" t="s">
-        <v>3089</v>
+        <v>3084</v>
       </c>
       <c r="J32" s="133" t="s">
-        <v>3088</v>
+        <v>3083</v>
       </c>
       <c r="K32" s="133" t="s">
-        <v>3087</v>
+        <v>3082</v>
       </c>
       <c r="L32" s="133" t="s">
-        <v>3086</v>
+        <v>3081</v>
       </c>
       <c r="M32" s="133" t="s">
         <v>2758</v>
@@ -26436,16 +26734,16 @@
       <c r="H34" s="191"/>
       <c r="I34" s="191"/>
       <c r="J34" s="191"/>
-      <c r="K34" s="306">
+      <c r="K34" s="304">
         <v>1</v>
       </c>
-      <c r="L34" s="306">
+      <c r="L34" s="304">
         <v>0</v>
       </c>
-      <c r="M34" s="306">
+      <c r="M34" s="304">
         <v>1</v>
       </c>
-      <c r="N34" s="306">
+      <c r="N34" s="304">
         <v>1</v>
       </c>
       <c r="O34" s="191">
@@ -26473,7 +26771,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="191" t="s">
-        <v>3145</v>
+        <v>3140</v>
       </c>
       <c r="P35" s="110">
         <v>10</v>
@@ -26498,7 +26796,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="110" t="s">
-        <v>3146</v>
+        <v>3141</v>
       </c>
       <c r="P36" s="110">
         <v>15</v>
@@ -26522,22 +26820,22 @@
         <v>1662</v>
       </c>
       <c r="J37" s="38"/>
-      <c r="K37" s="305">
+      <c r="K37" s="303">
         <v>0</v>
       </c>
-      <c r="L37" s="305">
+      <c r="L37" s="303">
         <v>1</v>
       </c>
-      <c r="M37" s="305">
+      <c r="M37" s="303">
         <v>0</v>
       </c>
-      <c r="N37" s="305">
+      <c r="N37" s="303">
         <v>1</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>3147</v>
-      </c>
-      <c r="P37" s="305">
+        <v>3142</v>
+      </c>
+      <c r="P37" s="303">
         <v>5</v>
       </c>
       <c r="XFD37" s="38" t="s">
@@ -27065,7 +27363,7 @@
         <v>1884</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>3092</v>
+        <v>3087</v>
       </c>
       <c r="F145" s="42" t="s">
         <v>1885</v>
@@ -27084,24 +27382,24 @@
         <v>2638</v>
       </c>
       <c r="H149" t="s">
-        <v>3093</v>
+        <v>3088</v>
       </c>
       <c r="J149" t="s">
-        <v>3094</v>
+        <v>3089</v>
       </c>
       <c r="O149" t="s">
         <v>1902</v>
       </c>
       <c r="Q149" t="s">
-        <v>3099</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="150" spans="2:17">
       <c r="K150" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="O150" t="s">
-        <v>3102</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="151" spans="2:17">
@@ -27119,18 +27417,18 @@
     </row>
     <row r="155" spans="2:17">
       <c r="J155" t="s">
-        <v>3095</v>
+        <v>3090</v>
       </c>
       <c r="O155" t="s">
         <v>1670</v>
       </c>
       <c r="Q155" t="s">
-        <v>3100</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="156" spans="2:17">
       <c r="O156" t="s">
-        <v>3103</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="158" spans="2:17">
@@ -27143,24 +27441,24 @@
     </row>
     <row r="161" spans="1:10">
       <c r="C161" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
       <c r="J161" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="C165" t="s">
-        <v>3098</v>
+        <v>3093</v>
       </c>
       <c r="H165" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="J165" t="s">
-        <v>3098</v>
+        <v>3093</v>
       </c>
     </row>
   </sheetData>
@@ -30159,7 +30457,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="325" t="s">
+      <c r="O235" s="323" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -30184,7 +30482,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="325"/>
+      <c r="O236" s="323"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -30207,7 +30505,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="325"/>
+      <c r="O237" s="323"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -30230,7 +30528,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="325"/>
+      <c r="O238" s="323"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -30247,7 +30545,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="325"/>
+      <c r="O239" s="323"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -30266,7 +30564,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="325"/>
+      <c r="O240" s="323"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -30291,7 +30589,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="325"/>
+      <c r="O241" s="323"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -30310,7 +30608,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="325"/>
+      <c r="O242" s="323"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -43501,11 +43799,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="326" t="s">
+      <c r="M6" s="324" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="326"/>
-      <c r="O6" s="326"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="324"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -45409,7 +45707,7 @@
         <v>14</v>
       </c>
       <c r="P213" t="s">
-        <v>3120</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="214" spans="2:18">
@@ -45432,7 +45730,7 @@
         <v>6</v>
       </c>
       <c r="P214" t="s">
-        <v>3121</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="217" spans="2:18">
@@ -45444,7 +45742,7 @@
     <row r="219" spans="2:18">
       <c r="D219" s="29"/>
       <c r="E219" s="30" t="s">
-        <v>3115</v>
+        <v>3110</v>
       </c>
       <c r="F219" s="31"/>
       <c r="H219" s="29" t="s">
@@ -45452,7 +45750,7 @@
       </c>
       <c r="I219" s="31"/>
       <c r="K219" s="29" t="s">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="L219" s="31"/>
     </row>
@@ -45463,11 +45761,11 @@
       </c>
       <c r="F220" s="33"/>
       <c r="H220" s="32" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="I220" s="33"/>
       <c r="K220" s="32" t="s">
-        <v>3108</v>
+        <v>3103</v>
       </c>
       <c r="L220" s="33"/>
     </row>
@@ -45477,7 +45775,7 @@
       </c>
       <c r="D221" s="32"/>
       <c r="E221" s="26" t="s">
-        <v>3116</v>
+        <v>3111</v>
       </c>
       <c r="F221" s="33"/>
       <c r="H221" s="32"/>
@@ -45488,13 +45786,13 @@
         <v>37</v>
       </c>
       <c r="O221" t="s">
-        <v>3119</v>
+        <v>3114</v>
       </c>
       <c r="P221" t="s">
         <v>2446</v>
       </c>
       <c r="Q221" t="s">
-        <v>3119</v>
+        <v>3114</v>
       </c>
       <c r="R221" t="s">
         <v>36</v>
@@ -45518,11 +45816,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="320" t="s">
+      <c r="D223" s="318" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="322"/>
-      <c r="F223" s="321"/>
+      <c r="E223" s="320"/>
+      <c r="F223" s="319"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -45537,19 +45835,19 @@
       </c>
       <c r="D224" s="32"/>
       <c r="E224" s="37" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="F224" s="33"/>
       <c r="H224" s="37" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="I224" s="33"/>
       <c r="K224" s="37" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="L224" s="33"/>
       <c r="P224" t="s">
-        <v>3118</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="225" spans="2:12">
@@ -45574,32 +45872,32 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="320" t="s">
+      <c r="D227" s="318" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="322"/>
-      <c r="F227" s="321"/>
-      <c r="H227" s="320" t="s">
+      <c r="E227" s="320"/>
+      <c r="F227" s="319"/>
+      <c r="H227" s="318" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="321"/>
-      <c r="K227" s="320" t="s">
+      <c r="I227" s="319"/>
+      <c r="K227" s="318" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="321"/>
+      <c r="L227" s="319"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
-        <v>3114</v>
+        <v>3109</v>
       </c>
       <c r="E228" s="26"/>
       <c r="F228" s="33"/>
       <c r="H228" s="32" t="s">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="I228" s="33"/>
       <c r="K228" s="32" t="s">
-        <v>3112</v>
+        <v>3107</v>
       </c>
       <c r="L228" s="33"/>
     </row>
@@ -45614,16 +45912,16 @@
     </row>
     <row r="230" spans="2:12" ht="15.75" thickBot="1">
       <c r="D230" s="34" t="s">
-        <v>3113</v>
+        <v>3108</v>
       </c>
       <c r="E230" s="35"/>
       <c r="F230" s="36"/>
       <c r="H230" s="34" t="s">
-        <v>3109</v>
+        <v>3104</v>
       </c>
       <c r="I230" s="36"/>
       <c r="K230" s="34" t="s">
-        <v>3111</v>
+        <v>3106</v>
       </c>
       <c r="L230" s="36"/>
     </row>
@@ -45852,7 +46150,7 @@
     <row r="1" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:17">
       <c r="B2" s="29" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="31"/>
@@ -45862,7 +46160,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
       <c r="J2" s="29" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
@@ -45924,7 +46222,7 @@
         <v>177</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>3135</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -45933,7 +46231,7 @@
         <v>2344</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>3133</v>
+        <v>3128</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="26" t="s">
@@ -45955,16 +46253,16 @@
         <v>187</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>3136</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="32"/>
       <c r="C6" s="26" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>3131</v>
+        <v>3126</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="26" t="s">
@@ -45991,7 +46289,7 @@
         <v>180</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>3132</v>
+        <v>3127</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="26" t="s">
@@ -46033,7 +46331,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="26"/>
       <c r="H11" s="33" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -46057,7 +46355,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>3123</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -46071,32 +46369,32 @@
     </row>
     <row r="17" spans="3:15">
       <c r="C17" t="s">
-        <v>3124</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="18" spans="3:15">
       <c r="C18" t="s">
-        <v>3125</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="19" spans="3:15">
       <c r="C19" t="s">
-        <v>3126</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="20" spans="3:15">
       <c r="C20" t="s">
-        <v>3127</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="21" spans="3:15">
       <c r="C21" t="s">
-        <v>3128</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="22" spans="3:15">
       <c r="D22" t="s">
-        <v>3129</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -47210,28 +47508,28 @@
       <c r="A282">
         <v>0</v>
       </c>
-      <c r="G282" s="301">
+      <c r="G282" s="299">
         <v>0</v>
       </c>
-      <c r="H282" s="301">
+      <c r="H282" s="299">
         <v>1</v>
       </c>
-      <c r="I282" s="301">
+      <c r="I282" s="299">
         <v>1</v>
       </c>
-      <c r="J282" s="301">
+      <c r="J282" s="299">
         <v>1</v>
       </c>
-      <c r="K282" s="301">
+      <c r="K282" s="299">
         <v>1</v>
       </c>
-      <c r="L282" s="301">
+      <c r="L282" s="299">
         <v>1</v>
       </c>
-      <c r="M282" s="301">
+      <c r="M282" s="299">
         <v>1</v>
       </c>
-      <c r="N282" s="301">
+      <c r="N282" s="299">
         <v>1</v>
       </c>
       <c r="O282" s="250"/>
@@ -47394,7 +47692,7 @@
       <c r="F298" s="38">
         <v>9</v>
       </c>
-      <c r="G298" s="299" t="s">
+      <c r="G298" s="297" t="s">
         <v>2854</v>
       </c>
       <c r="I298" s="55" t="s">
@@ -47415,7 +47713,7 @@
       <c r="F299" s="38">
         <v>15</v>
       </c>
-      <c r="G299" s="300"/>
+      <c r="G299" s="298"/>
       <c r="I299" s="171" t="s">
         <v>2850</v>
       </c>
@@ -47589,18 +47887,18 @@
       </c>
     </row>
     <row r="318" spans="3:14">
-      <c r="C318" s="301"/>
-      <c r="D318" s="301"/>
-      <c r="E318" s="301"/>
-      <c r="F318" s="301"/>
-      <c r="G318" s="301"/>
-      <c r="H318" s="301">
+      <c r="C318" s="299"/>
+      <c r="D318" s="299"/>
+      <c r="E318" s="299"/>
+      <c r="F318" s="299"/>
+      <c r="G318" s="299"/>
+      <c r="H318" s="299">
         <v>1</v>
       </c>
-      <c r="I318" s="301">
+      <c r="I318" s="299">
         <v>0</v>
       </c>
-      <c r="J318" s="301">
+      <c r="J318" s="299">
         <v>1</v>
       </c>
       <c r="K318" s="56">
@@ -48990,23 +49288,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="322" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="I1" s="324" t="s">
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="I1" s="322" t="s">
         <v>2943</v>
       </c>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="324"/>
-      <c r="O1" s="324"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
+      <c r="L1" s="322"/>
+      <c r="M1" s="322"/>
+      <c r="N1" s="322"/>
+      <c r="O1" s="322"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -49049,8 +49347,8 @@
       <c r="F4" s="153" t="s">
         <v>2946</v>
       </c>
-      <c r="G4" s="303" t="s">
-        <v>3139</v>
+      <c r="G4" s="301" t="s">
+        <v>3134</v>
       </c>
       <c r="J4" t="s">
         <v>366</v>
@@ -49130,13 +49428,13 @@
         <v>2941</v>
       </c>
       <c r="N9" s="163" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="O9" s="266" t="s">
-        <v>3140</v>
-      </c>
-      <c r="P9" s="304" t="s">
-        <v>3138</v>
+        <v>3135</v>
+      </c>
+      <c r="P9" s="302" t="s">
+        <v>3133</v>
       </c>
       <c r="Q9" s="56" t="s">
         <v>2942</v>
@@ -49156,28 +49454,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="316" t="s">
+      <c r="A12" s="314" t="s">
         <v>2945</v>
       </c>
-      <c r="B12" s="323"/>
-      <c r="C12" s="323"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="323"/>
-      <c r="F12" s="323"/>
-      <c r="G12" s="323"/>
-      <c r="H12" s="317"/>
-      <c r="I12" s="316" t="s">
+      <c r="B12" s="321"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="321"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="314" t="s">
         <v>2945</v>
       </c>
-      <c r="J12" s="323"/>
-      <c r="K12" s="323"/>
-      <c r="L12" s="323"/>
-      <c r="M12" s="323"/>
-      <c r="N12" s="323"/>
-      <c r="O12" s="323"/>
-      <c r="P12" s="323"/>
-      <c r="Q12" s="323"/>
-      <c r="R12" s="317"/>
+      <c r="J12" s="321"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="321"/>
+      <c r="M12" s="321"/>
+      <c r="N12" s="321"/>
+      <c r="O12" s="321"/>
+      <c r="P12" s="321"/>
+      <c r="Q12" s="321"/>
+      <c r="R12" s="315"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -49405,14 +49703,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="324" t="s">
+      <c r="A24" s="322" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="324"/>
-      <c r="C24" s="324"/>
-      <c r="D24" s="324"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="324"/>
+      <c r="B24" s="322"/>
+      <c r="C24" s="322"/>
+      <c r="D24" s="322"/>
+      <c r="E24" s="322"/>
+      <c r="F24" s="322"/>
       <c r="H24" s="271" t="s">
         <v>2943</v>
       </c>
@@ -49422,11 +49720,11 @@
       <c r="L24" s="271"/>
       <c r="M24" s="271"/>
       <c r="N24" s="271"/>
-      <c r="P24" s="324" t="s">
+      <c r="P24" s="322" t="s">
         <v>2981</v>
       </c>
-      <c r="Q24" s="324"/>
-      <c r="R24" s="324"/>
+      <c r="Q24" s="322"/>
+      <c r="R24" s="322"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -49666,28 +49964,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="316" t="s">
+      <c r="A35" s="314" t="s">
         <v>2982</v>
       </c>
-      <c r="B35" s="323"/>
-      <c r="C35" s="323"/>
-      <c r="D35" s="323"/>
-      <c r="E35" s="323"/>
-      <c r="F35" s="323"/>
-      <c r="G35" s="323"/>
-      <c r="H35" s="317"/>
-      <c r="I35" s="316" t="s">
+      <c r="B35" s="321"/>
+      <c r="C35" s="321"/>
+      <c r="D35" s="321"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="321"/>
+      <c r="G35" s="321"/>
+      <c r="H35" s="315"/>
+      <c r="I35" s="314" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="323"/>
-      <c r="K35" s="323"/>
-      <c r="L35" s="323"/>
-      <c r="M35" s="323"/>
-      <c r="N35" s="323"/>
-      <c r="O35" s="323"/>
-      <c r="P35" s="323"/>
-      <c r="Q35" s="323"/>
-      <c r="R35" s="317"/>
+      <c r="J35" s="321"/>
+      <c r="K35" s="321"/>
+      <c r="L35" s="321"/>
+      <c r="M35" s="321"/>
+      <c r="N35" s="321"/>
+      <c r="O35" s="321"/>
+      <c r="P35" s="321"/>
+      <c r="Q35" s="321"/>
+      <c r="R35" s="315"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">
@@ -50261,7 +50559,7 @@
         <v>1500</v>
       </c>
       <c r="K86" t="s">
-        <v>3144</v>
+        <v>3139</v>
       </c>
       <c r="P86">
         <v>120</v>
@@ -50280,7 +50578,7 @@
     </row>
     <row r="88" spans="5:16">
       <c r="G88" t="s">
-        <v>3142</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="89" spans="5:16">
@@ -50290,7 +50588,7 @@
     </row>
     <row r="90" spans="5:16">
       <c r="E90" t="s">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="F90">
         <v>100</v>
@@ -50302,7 +50600,7 @@
         <v>1500</v>
       </c>
       <c r="K90" t="s">
-        <v>3143</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="91" spans="5:16">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -37,7 +37,6 @@
     <sheet name="file" sheetId="27" r:id="rId28"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -11065,6 +11064,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11119,10 +11122,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23029,7 +23028,7 @@
   <dimension ref="A2:V276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23074,12 +23073,12 @@
       <c r="G7" s="295"/>
       <c r="H7" s="296"/>
       <c r="J7" s="80"/>
-      <c r="K7" s="325" t="s">
+      <c r="K7" s="307" t="s">
         <v>3056</v>
       </c>
       <c r="L7" s="82"/>
       <c r="N7" s="294"/>
-      <c r="O7" s="328" t="s">
+      <c r="O7" s="310" t="s">
         <v>3056</v>
       </c>
       <c r="P7" s="296"/>
@@ -23305,7 +23304,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="327"/>
+      <c r="L25" s="309"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
     </row>
@@ -23367,7 +23366,7 @@
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
-      <c r="J29" s="326"/>
+      <c r="J29" s="308"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
@@ -26226,13 +26225,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="311" t="s">
+      <c r="H3" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="313"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="317"/>
       <c r="P3" t="s">
         <v>3068</v>
       </c>
@@ -26266,20 +26265,20 @@
         <v>3065</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="314" t="s">
+      <c r="G6" s="318" t="s">
         <v>3062</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="319"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="314" t="s">
+      <c r="J6" s="318" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="315"/>
+      <c r="K6" s="319"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="314" t="s">
+      <c r="M6" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="315"/>
+      <c r="N6" s="319"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -26300,20 +26299,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="316" t="s">
+      <c r="G8" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="317"/>
+      <c r="H8" s="321"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="316" t="s">
+      <c r="J8" s="320" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="317"/>
+      <c r="K8" s="321"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="316" t="s">
+      <c r="M8" s="320" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="317"/>
+      <c r="N8" s="321"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -26329,29 +26328,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="307" t="s">
+      <c r="F10" s="311" t="s">
         <v>3063</v>
       </c>
-      <c r="G10" s="308"/>
-      <c r="H10" s="308"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="308"/>
-      <c r="L10" s="308"/>
-      <c r="M10" s="308"/>
-      <c r="N10" s="308"/>
+      <c r="G10" s="312"/>
+      <c r="H10" s="312"/>
+      <c r="I10" s="312"/>
+      <c r="J10" s="312"/>
+      <c r="K10" s="312"/>
+      <c r="L10" s="312"/>
+      <c r="M10" s="312"/>
+      <c r="N10" s="312"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="309"/>
-      <c r="G11" s="310"/>
-      <c r="H11" s="310"/>
-      <c r="I11" s="310"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="310"/>
-      <c r="L11" s="310"/>
-      <c r="M11" s="310"/>
-      <c r="N11" s="310"/>
+      <c r="F11" s="313"/>
+      <c r="G11" s="314"/>
+      <c r="H11" s="314"/>
+      <c r="I11" s="314"/>
+      <c r="J11" s="314"/>
+      <c r="K11" s="314"/>
+      <c r="L11" s="314"/>
+      <c r="M11" s="314"/>
+      <c r="N11" s="314"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -30457,7 +30456,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="323" t="s">
+      <c r="O235" s="327" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -30482,7 +30481,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="323"/>
+      <c r="O236" s="327"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -30505,7 +30504,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="323"/>
+      <c r="O237" s="327"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -30528,7 +30527,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="323"/>
+      <c r="O238" s="327"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -30545,7 +30544,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="323"/>
+      <c r="O239" s="327"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -30564,7 +30563,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="323"/>
+      <c r="O240" s="327"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -30589,7 +30588,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="323"/>
+      <c r="O241" s="327"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -30608,7 +30607,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="323"/>
+      <c r="O242" s="327"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -43799,11 +43798,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="324" t="s">
+      <c r="M6" s="328" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="324"/>
-      <c r="O6" s="324"/>
+      <c r="N6" s="328"/>
+      <c r="O6" s="328"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -45816,11 +45815,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="318" t="s">
+      <c r="D223" s="322" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="320"/>
-      <c r="F223" s="319"/>
+      <c r="E223" s="324"/>
+      <c r="F223" s="323"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -45872,19 +45871,19 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="318" t="s">
+      <c r="D227" s="322" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="320"/>
-      <c r="F227" s="319"/>
-      <c r="H227" s="318" t="s">
+      <c r="E227" s="324"/>
+      <c r="F227" s="323"/>
+      <c r="H227" s="322" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="319"/>
-      <c r="K227" s="318" t="s">
+      <c r="I227" s="323"/>
+      <c r="K227" s="322" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="319"/>
+      <c r="L227" s="323"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -49288,23 +49287,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="326" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="I1" s="322" t="s">
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="I1" s="326" t="s">
         <v>2943</v>
       </c>
-      <c r="J1" s="322"/>
-      <c r="K1" s="322"/>
-      <c r="L1" s="322"/>
-      <c r="M1" s="322"/>
-      <c r="N1" s="322"/>
-      <c r="O1" s="322"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -49454,28 +49453,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="314" t="s">
+      <c r="A12" s="318" t="s">
         <v>2945</v>
       </c>
-      <c r="B12" s="321"/>
-      <c r="C12" s="321"/>
-      <c r="D12" s="321"/>
-      <c r="E12" s="321"/>
-      <c r="F12" s="321"/>
-      <c r="G12" s="321"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="314" t="s">
+      <c r="B12" s="325"/>
+      <c r="C12" s="325"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="325"/>
+      <c r="G12" s="325"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="318" t="s">
         <v>2945</v>
       </c>
-      <c r="J12" s="321"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="321"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="321"/>
-      <c r="Q12" s="321"/>
-      <c r="R12" s="315"/>
+      <c r="J12" s="325"/>
+      <c r="K12" s="325"/>
+      <c r="L12" s="325"/>
+      <c r="M12" s="325"/>
+      <c r="N12" s="325"/>
+      <c r="O12" s="325"/>
+      <c r="P12" s="325"/>
+      <c r="Q12" s="325"/>
+      <c r="R12" s="319"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -49703,14 +49702,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="322" t="s">
+      <c r="A24" s="326" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="322"/>
-      <c r="C24" s="322"/>
-      <c r="D24" s="322"/>
-      <c r="E24" s="322"/>
-      <c r="F24" s="322"/>
+      <c r="B24" s="326"/>
+      <c r="C24" s="326"/>
+      <c r="D24" s="326"/>
+      <c r="E24" s="326"/>
+      <c r="F24" s="326"/>
       <c r="H24" s="271" t="s">
         <v>2943</v>
       </c>
@@ -49720,11 +49719,11 @@
       <c r="L24" s="271"/>
       <c r="M24" s="271"/>
       <c r="N24" s="271"/>
-      <c r="P24" s="322" t="s">
+      <c r="P24" s="326" t="s">
         <v>2981</v>
       </c>
-      <c r="Q24" s="322"/>
-      <c r="R24" s="322"/>
+      <c r="Q24" s="326"/>
+      <c r="R24" s="326"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -49964,28 +49963,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="314" t="s">
+      <c r="A35" s="318" t="s">
         <v>2982</v>
       </c>
-      <c r="B35" s="321"/>
-      <c r="C35" s="321"/>
-      <c r="D35" s="321"/>
-      <c r="E35" s="321"/>
-      <c r="F35" s="321"/>
-      <c r="G35" s="321"/>
-      <c r="H35" s="315"/>
-      <c r="I35" s="314" t="s">
+      <c r="B35" s="325"/>
+      <c r="C35" s="325"/>
+      <c r="D35" s="325"/>
+      <c r="E35" s="325"/>
+      <c r="F35" s="325"/>
+      <c r="G35" s="325"/>
+      <c r="H35" s="319"/>
+      <c r="I35" s="318" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="321"/>
-      <c r="K35" s="321"/>
-      <c r="L35" s="321"/>
-      <c r="M35" s="321"/>
-      <c r="N35" s="321"/>
-      <c r="O35" s="321"/>
-      <c r="P35" s="321"/>
-      <c r="Q35" s="321"/>
-      <c r="R35" s="315"/>
+      <c r="J35" s="325"/>
+      <c r="K35" s="325"/>
+      <c r="L35" s="325"/>
+      <c r="M35" s="325"/>
+      <c r="N35" s="325"/>
+      <c r="O35" s="325"/>
+      <c r="P35" s="325"/>
+      <c r="Q35" s="325"/>
+      <c r="R35" s="319"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="3190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="3197">
   <si>
     <t>USER</t>
   </si>
@@ -9876,12 +9876,33 @@
   <si>
     <t>IphoneX is covered with Iphone6 body</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Liberal parent</t>
+  </si>
+  <si>
+    <t>sysout("astronaut");</t>
+  </si>
+  <si>
+    <t>SUB CLASS</t>
+  </si>
+  <si>
+    <t>default void occupation();</t>
+  </si>
+  <si>
+    <t>void occupation(){</t>
+  </si>
+  <si>
+    <t>OVERRIDING</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9979,6 +10000,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10442,7 +10470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11065,7 +11093,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11122,6 +11149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23025,10 +23056,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V276"/>
+  <dimension ref="A2:V275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23078,7 +23109,7 @@
       </c>
       <c r="L7" s="82"/>
       <c r="N7" s="294"/>
-      <c r="O7" s="310" t="s">
+      <c r="O7" s="309" t="s">
         <v>3056</v>
       </c>
       <c r="P7" s="296"/>
@@ -23231,32 +23262,32 @@
       <c r="O16" s="292"/>
       <c r="P16" s="293"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:19">
       <c r="N18" t="s">
         <v>3183</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:19">
       <c r="N19" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:19">
       <c r="N20" t="s">
         <v>3184</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:19">
       <c r="N21" t="s">
         <v>3185</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:19">
       <c r="N22" t="s">
         <v>3186</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:19">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -23274,7 +23305,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:19">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -23292,1287 +23323,1331 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:19">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="37" t="s">
+        <v>3191</v>
+      </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="J25" s="328"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="309"/>
+      <c r="L25" s="308"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:19">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="E26" s="37" t="s">
+        <v>1754</v>
+      </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="328"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="308"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="O26" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A27" t="s">
+        <v>718</v>
+      </c>
+      <c r="G27" t="s">
+        <v>725</v>
+      </c>
+      <c r="J27" s="328"/>
+      <c r="K27" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="328"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="31"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="32" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="33"/>
+      <c r="G29" s="32" t="s">
+        <v>3194</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="329"/>
+      <c r="K29" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="33"/>
+      <c r="Q29" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="R29" s="26"/>
+      <c r="S29" s="33"/>
+    </row>
+    <row r="30" spans="1:19" ht="23.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="38" t="s">
+        <v>727</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="328"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="M30" s="40"/>
+      <c r="O30" s="331" t="s">
+        <v>3190</v>
+      </c>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="38" t="s">
+        <v>727</v>
+      </c>
+      <c r="S30" s="40"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A31" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="G31" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="328"/>
+      <c r="K31" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="Q31" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="R31" s="35"/>
+      <c r="S31" s="36"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="J32" s="328"/>
+    </row>
+    <row r="33" spans="2:16" ht="15.75" thickBot="1">
+      <c r="D33" t="s">
+        <v>729</v>
+      </c>
+      <c r="J33" s="328"/>
+    </row>
+    <row r="34" spans="2:16" ht="15.75" thickBot="1">
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="J34" s="328"/>
+      <c r="N34" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="D35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="J35" s="328"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="31"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="33"/>
+      <c r="J36" s="330"/>
+      <c r="N36" s="32"/>
+      <c r="O36" t="s">
+        <v>730</v>
+      </c>
+      <c r="P36" s="33"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="D37" s="32"/>
+      <c r="E37" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="J37" s="330"/>
+      <c r="N37" s="32"/>
+      <c r="O37" t="s">
+        <v>731</v>
+      </c>
+      <c r="P37" s="33"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="D38" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="33"/>
+      <c r="J38" s="330"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="33"/>
+    </row>
+    <row r="39" spans="2:16" ht="15.75" thickBot="1">
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="J39" s="330"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="33"/>
+    </row>
+    <row r="40" spans="2:16" ht="15.75" thickBot="1">
+      <c r="J40" s="330"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="J41" s="330"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="J42" s="330"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="J43" s="330"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="C50" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="E50" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" t="s">
-        <v>2146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2149</v>
-      </c>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" thickBot="1">
       <c r="E51" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="15.75" thickBot="1">
-      <c r="E52" t="s">
         <v>718</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K51" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="31"/>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="E54" s="32" t="s">
+    <row r="52" spans="1:22">
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="31"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="31"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="E53" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="33"/>
-      <c r="K54" s="32" t="s">
+      <c r="F53" s="26"/>
+      <c r="G53" s="33"/>
+      <c r="K53" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="L54" s="26"/>
-      <c r="M54" s="33"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="B55" t="s">
+      <c r="L53" s="26"/>
+      <c r="M53" s="33"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="B54" t="s">
         <v>3055</v>
       </c>
-      <c r="E55" s="79"/>
-      <c r="F55" s="38" t="s">
+      <c r="E54" s="79"/>
+      <c r="F54" s="38" t="s">
         <v>728</v>
       </c>
-      <c r="G55" s="40"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="38" t="s">
+      <c r="G54" s="40"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="38" t="s">
         <v>727</v>
       </c>
-      <c r="M55" s="40"/>
-    </row>
-    <row r="56" spans="1:20" ht="15.75" thickBot="1">
-      <c r="E56" s="34" t="s">
+      <c r="M54" s="40"/>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" thickBot="1">
+      <c r="E55" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-      <c r="K56" s="34" t="s">
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
+      <c r="K55" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="L56" s="35"/>
-      <c r="M56" s="36"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="B57" t="s">
+      <c r="L55" s="35"/>
+      <c r="M55" s="36"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="B56" t="s">
         <v>2543</v>
       </c>
+      <c r="P56" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="P57" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="P58" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B59" t="s">
+    <row r="58" spans="1:22" ht="15.75" thickBot="1">
+      <c r="B58" t="s">
         <v>729</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H58" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
-      <c r="H60" s="29"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="31"/>
-    </row>
-    <row r="61" spans="1:20">
+    <row r="59" spans="1:22">
+      <c r="H59" s="29"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="H60" s="32"/>
+      <c r="I60" t="s">
+        <v>730</v>
+      </c>
+      <c r="J60" s="33"/>
+      <c r="P60" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="H61" s="32"/>
       <c r="I61" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J61" s="33"/>
-      <c r="P61" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+    </row>
+    <row r="62" spans="1:22">
       <c r="H62" s="32"/>
-      <c r="I62" t="s">
-        <v>731</v>
-      </c>
+      <c r="I62" s="26"/>
       <c r="J62" s="33"/>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="P62" t="s">
+        <v>737</v>
+      </c>
+      <c r="T62" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="H63" s="32"/>
       <c r="I63" s="26"/>
       <c r="J63" s="33"/>
-      <c r="P63" t="s">
-        <v>737</v>
-      </c>
-      <c r="T63" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="H64" s="32"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="33"/>
-    </row>
-    <row r="65" spans="2:22" ht="15.75" thickBot="1">
-      <c r="H65" s="34"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="36"/>
-      <c r="P65" t="s">
+    </row>
+    <row r="64" spans="1:22" ht="15.75" thickBot="1">
+      <c r="H64" s="34"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="36"/>
+      <c r="P64" t="s">
         <v>738</v>
       </c>
-      <c r="T65" t="s">
+      <c r="T64" t="s">
         <v>741</v>
       </c>
-      <c r="V65" t="s">
+      <c r="V64" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="67" spans="2:22">
-      <c r="B67" t="s">
+    <row r="66" spans="2:21">
+      <c r="B66" t="s">
         <v>732</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D66" t="s">
         <v>733</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P66" t="s">
         <v>739</v>
       </c>
-      <c r="U67" t="s">
+      <c r="U66" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="70" spans="2:22" ht="15.75" thickBot="1"/>
-    <row r="71" spans="2:22">
-      <c r="I71" s="29"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="31"/>
-    </row>
-    <row r="72" spans="2:22" ht="15.75" thickBot="1">
+    <row r="69" spans="2:21" ht="15.75" thickBot="1"/>
+    <row r="70" spans="2:21">
+      <c r="I70" s="29"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="31"/>
+    </row>
+    <row r="71" spans="2:21" ht="15.75" thickBot="1">
+      <c r="I71" s="32"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="33"/>
+    </row>
+    <row r="72" spans="2:21">
       <c r="I72" s="32"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
+      <c r="J72" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>517</v>
+      </c>
       <c r="L72" s="26"/>
       <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="26"/>
+      <c r="N72" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="O72" s="46"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="31"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26"/>
       <c r="T72" s="26"/>
       <c r="U72" s="33"/>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="2:21">
       <c r="I73" s="32"/>
-      <c r="J73" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="K73" s="26" t="s">
-        <v>517</v>
-      </c>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
       <c r="L73" s="26"/>
       <c r="M73" s="26"/>
-      <c r="N73" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="O73" s="46"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="31"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q73" s="33" t="s">
+        <v>750</v>
+      </c>
       <c r="R73" s="26"/>
       <c r="S73" s="26"/>
       <c r="T73" s="26"/>
       <c r="U73" s="33"/>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="2:21">
       <c r="I74" s="32"/>
       <c r="J74" s="26"/>
       <c r="K74" s="26"/>
       <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
       <c r="O74" s="49"/>
-      <c r="P74" s="50" t="s">
-        <v>749</v>
+      <c r="P74" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="Q74" s="33" t="s">
-        <v>750</v>
-      </c>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
+        <v>412</v>
+      </c>
+      <c r="R74" s="50"/>
+      <c r="S74" s="50"/>
       <c r="T74" s="26"/>
       <c r="U74" s="33"/>
     </row>
-    <row r="75" spans="2:22">
+    <row r="75" spans="2:21">
       <c r="I75" s="32"/>
       <c r="J75" s="26"/>
       <c r="K75" s="26"/>
       <c r="L75" s="26"/>
       <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
+      <c r="N75" s="26"/>
       <c r="O75" s="49"/>
-      <c r="P75" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q75" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="R75" s="50"/>
+      <c r="P75" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q75" s="33">
+        <v>10</v>
+      </c>
+      <c r="R75" s="73"/>
       <c r="S75" s="50"/>
-      <c r="T75" s="26"/>
-      <c r="U75" s="33"/>
-    </row>
-    <row r="76" spans="2:22">
+      <c r="T75" s="50"/>
+      <c r="U75" s="74"/>
+    </row>
+    <row r="76" spans="2:21" ht="15.75" thickBot="1">
       <c r="I76" s="32"/>
       <c r="J76" s="26"/>
       <c r="K76" s="26"/>
       <c r="L76" s="26"/>
       <c r="M76" s="50"/>
       <c r="N76" s="26"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q76" s="33">
-        <v>10</v>
-      </c>
-      <c r="R76" s="73"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q76" s="36">
+        <v>5</v>
+      </c>
+      <c r="R76" s="26"/>
       <c r="S76" s="50"/>
       <c r="T76" s="50"/>
-      <c r="U76" s="74"/>
-    </row>
-    <row r="77" spans="2:22" ht="15.75" thickBot="1">
+      <c r="U76" s="33"/>
+    </row>
+    <row r="77" spans="2:21">
       <c r="I77" s="32"/>
       <c r="J77" s="26"/>
       <c r="K77" s="26"/>
       <c r="L77" s="26"/>
-      <c r="M77" s="50"/>
+      <c r="M77" s="26"/>
       <c r="N77" s="26"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q77" s="36">
-        <v>5</v>
-      </c>
+      <c r="O77" s="50"/>
+      <c r="P77" s="50"/>
+      <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
       <c r="S77" s="50"/>
       <c r="T77" s="50"/>
       <c r="U77" s="33"/>
     </row>
-    <row r="78" spans="2:22">
-      <c r="I78" s="32"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="26"/>
-      <c r="S78" s="50"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="33"/>
-    </row>
-    <row r="79" spans="2:22" ht="15.75" thickBot="1">
-      <c r="I79" s="34"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
-      <c r="U79" s="36"/>
+    <row r="78" spans="2:21" ht="15.75" thickBot="1">
+      <c r="I78" s="34"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="36"/>
+    </row>
+    <row r="80" spans="2:21">
+      <c r="I80" t="s">
+        <v>743</v>
+      </c>
+      <c r="N80" t="s">
+        <v>745</v>
+      </c>
+      <c r="S80" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="81" spans="9:20">
-      <c r="I81" t="s">
-        <v>743</v>
-      </c>
-      <c r="N81" t="s">
-        <v>745</v>
-      </c>
-      <c r="S81" t="s">
-        <v>746</v>
+      <c r="J81" t="s">
+        <v>744</v>
+      </c>
+      <c r="O81" t="s">
+        <v>356</v>
+      </c>
+      <c r="T81" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="82" spans="9:20">
-      <c r="J82" t="s">
-        <v>744</v>
+      <c r="I82" t="s">
+        <v>144</v>
       </c>
       <c r="O82" t="s">
-        <v>356</v>
-      </c>
-      <c r="T82" t="s">
-        <v>747</v>
+        <v>708</v>
       </c>
     </row>
     <row r="83" spans="9:20">
-      <c r="I83" t="s">
+      <c r="N83" t="s">
         <v>144</v>
       </c>
-      <c r="O83" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="84" spans="9:20">
-      <c r="N84" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="9:20">
-      <c r="J86" t="s">
+    </row>
+    <row r="85" spans="9:20">
+      <c r="J85" t="s">
         <v>748</v>
+      </c>
+    </row>
+    <row r="90" spans="9:20">
+      <c r="J90" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="91" spans="9:20">
       <c r="J91" t="s">
-        <v>751</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92" spans="9:20">
       <c r="J92" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="93" spans="9:20">
-      <c r="J93" t="s">
         <v>789</v>
+      </c>
+    </row>
+    <row r="96" spans="9:20">
+      <c r="J96" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="97" spans="10:11">
       <c r="J97" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="98" spans="10:11">
       <c r="J98" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="99" spans="10:11">
-      <c r="J99" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="101" spans="10:11">
-      <c r="J101" t="s">
+    <row r="100" spans="10:11">
+      <c r="J100" t="s">
         <v>793</v>
+      </c>
+    </row>
+    <row r="102" spans="10:11">
+      <c r="J102" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="103" spans="10:11">
       <c r="J103" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="104" spans="10:11">
       <c r="J104" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="105" spans="10:11">
       <c r="J105" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="106" spans="10:11">
       <c r="J106" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="107" spans="10:11">
-      <c r="J107" t="s">
         <v>798</v>
       </c>
     </row>
+    <row r="109" spans="10:11">
+      <c r="J109" t="s">
+        <v>762</v>
+      </c>
+    </row>
     <row r="110" spans="10:11">
-      <c r="J110" t="s">
-        <v>762</v>
+      <c r="K110" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="10:11">
       <c r="K111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="10:11">
       <c r="K112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="10:11">
       <c r="K113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="10:11">
-      <c r="K114" t="s">
-        <v>85</v>
+      <c r="J114" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="115" spans="10:11">
-      <c r="J115" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11">
-      <c r="K116" t="s">
+      <c r="K115" t="s">
         <v>800</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11">
+      <c r="J117" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="118" spans="10:11">
       <c r="J118" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="119" spans="10:11">
-      <c r="J119" t="s">
         <v>801</v>
+      </c>
+    </row>
+    <row r="120" spans="10:11">
+      <c r="J120" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="121" spans="10:11">
       <c r="J121" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="122" spans="10:11">
-      <c r="J122" t="s">
         <v>803</v>
+      </c>
+    </row>
+    <row r="123" spans="10:11">
+      <c r="J123" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="124" spans="10:11">
       <c r="J124" t="s">
-        <v>754</v>
+        <v>804</v>
       </c>
     </row>
     <row r="125" spans="10:11">
       <c r="J125" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="126" spans="10:11">
-      <c r="J126" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="128" spans="10:11">
-      <c r="J128" t="s">
+    <row r="127" spans="10:11">
+      <c r="J127" t="s">
         <v>496</v>
       </c>
     </row>
+    <row r="138" spans="2:12">
+      <c r="C138" t="s">
+        <v>765</v>
+      </c>
+      <c r="J138" t="s">
+        <v>766</v>
+      </c>
+    </row>
     <row r="139" spans="2:12">
-      <c r="C139" t="s">
-        <v>765</v>
-      </c>
-      <c r="J139" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12">
-      <c r="D140" t="s">
+      <c r="D139" t="s">
         <v>761</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K139" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="140" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="141" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B141" s="76" t="s">
+        <v>755</v>
+      </c>
+      <c r="C141" s="77" t="s">
+        <v>758</v>
+      </c>
+      <c r="D141" s="78" t="s">
+        <v>763</v>
+      </c>
+      <c r="E141" s="31"/>
+      <c r="I141" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="J141" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="K141" s="30"/>
+      <c r="L141" s="31"/>
+    </row>
     <row r="142" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B142" s="76" t="s">
-        <v>755</v>
-      </c>
-      <c r="C142" s="77" t="s">
-        <v>758</v>
-      </c>
-      <c r="D142" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="E142" s="31"/>
-      <c r="I142" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="J142" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="K142" s="30"/>
-      <c r="L142" s="31"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="33"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="33"/>
     </row>
     <row r="143" spans="2:12" ht="15.75" thickBot="1">
-      <c r="C143" s="32"/>
-      <c r="D143" s="26"/>
+      <c r="B143" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>764</v>
+      </c>
       <c r="E143" s="33"/>
-      <c r="J143" s="32"/>
+      <c r="I143" s="75"/>
+      <c r="J143" s="26"/>
       <c r="K143" s="26"/>
       <c r="L143" s="33"/>
     </row>
     <row r="144" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B144" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>764</v>
-      </c>
+      <c r="C144" s="32"/>
+      <c r="D144" s="26"/>
       <c r="E144" s="33"/>
-      <c r="I144" s="75"/>
-      <c r="J144" s="26"/>
+      <c r="J144" s="32"/>
       <c r="K144" s="26"/>
       <c r="L144" s="33"/>
     </row>
     <row r="145" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C145" s="32"/>
-      <c r="D145" s="26"/>
+      <c r="B145" s="76" t="s">
+        <v>757</v>
+      </c>
+      <c r="C145" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="D145" s="78" t="s">
+        <v>763</v>
+      </c>
       <c r="E145" s="33"/>
-      <c r="J145" s="32"/>
+      <c r="I145" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="J145" s="32" t="s">
+        <v>760</v>
+      </c>
       <c r="K145" s="26"/>
       <c r="L145" s="33"/>
     </row>
     <row r="146" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B146" s="76" t="s">
-        <v>757</v>
-      </c>
-      <c r="C146" s="79" t="s">
-        <v>760</v>
-      </c>
-      <c r="D146" s="78" t="s">
+      <c r="C146" s="34"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="36"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="36"/>
+    </row>
+    <row r="148" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C148" t="s">
+        <v>754</v>
+      </c>
+      <c r="J148" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="K148" s="55"/>
+      <c r="L148" s="55"/>
+    </row>
+    <row r="149" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B149" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="C149" s="77" t="s">
+        <v>758</v>
+      </c>
+      <c r="D149" s="78" t="s">
         <v>763</v>
       </c>
-      <c r="E146" s="33"/>
-      <c r="I146" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="J146" s="32" t="s">
-        <v>760</v>
-      </c>
-      <c r="K146" s="26"/>
-      <c r="L146" s="33"/>
-    </row>
-    <row r="147" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="36"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="35"/>
-      <c r="L147" s="36"/>
-    </row>
-    <row r="149" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C149" t="s">
-        <v>754</v>
-      </c>
-      <c r="J149" s="55" t="s">
-        <v>770</v>
-      </c>
-      <c r="K149" s="55"/>
-      <c r="L149" s="55"/>
+      <c r="E149" s="31"/>
+      <c r="I149" s="76" t="s">
+        <v>755</v>
+      </c>
+      <c r="J149" s="29" t="s">
+        <v>758</v>
+      </c>
+      <c r="K149" s="30"/>
+      <c r="L149" s="31"/>
     </row>
     <row r="150" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B150" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="C150" s="77" t="s">
-        <v>758</v>
-      </c>
-      <c r="D150" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="E150" s="31"/>
-      <c r="I150" s="76" t="s">
-        <v>755</v>
-      </c>
-      <c r="J150" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="K150" s="30"/>
-      <c r="L150" s="31"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="33"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="33"/>
     </row>
     <row r="151" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C151" s="32"/>
-      <c r="D151" s="26"/>
+      <c r="B151" s="75"/>
+      <c r="C151" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>764</v>
+      </c>
       <c r="E151" s="33"/>
-      <c r="J151" s="32"/>
+      <c r="F151" t="s">
+        <v>772</v>
+      </c>
+      <c r="I151" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="J151" s="26"/>
       <c r="K151" s="26"/>
       <c r="L151" s="33"/>
+      <c r="M151" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="152" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B152" s="75"/>
-      <c r="C152" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>764</v>
-      </c>
+      <c r="C152" s="32"/>
+      <c r="D152" s="26"/>
       <c r="E152" s="33"/>
-      <c r="F152" t="s">
-        <v>772</v>
-      </c>
-      <c r="I152" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="J152" s="26"/>
+      <c r="J152" s="32"/>
       <c r="K152" s="26"/>
       <c r="L152" s="33"/>
-      <c r="M152" t="s">
-        <v>771</v>
-      </c>
     </row>
     <row r="153" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C153" s="32"/>
-      <c r="D153" s="26"/>
+      <c r="B153" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="C153" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="D153" s="78" t="s">
+        <v>763</v>
+      </c>
       <c r="E153" s="33"/>
-      <c r="J153" s="32"/>
+      <c r="I153" s="76" t="s">
+        <v>757</v>
+      </c>
+      <c r="J153" s="32" t="s">
+        <v>760</v>
+      </c>
       <c r="K153" s="26"/>
       <c r="L153" s="33"/>
     </row>
     <row r="154" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B154" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="C154" s="79" t="s">
-        <v>760</v>
-      </c>
-      <c r="D154" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="E154" s="33"/>
-      <c r="I154" s="76" t="s">
-        <v>757</v>
-      </c>
-      <c r="J154" s="32" t="s">
-        <v>760</v>
-      </c>
-      <c r="K154" s="26"/>
-      <c r="L154" s="33"/>
-    </row>
-    <row r="155" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C155" s="34"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="36"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="35"/>
-      <c r="L155" s="36"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="36"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="35"/>
+      <c r="L154" s="36"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="C156" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="157" spans="2:13">
       <c r="C157" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="158" spans="2:13">
       <c r="C158" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="159" spans="2:13">
-      <c r="C159" t="s">
         <v>768</v>
       </c>
     </row>
+    <row r="162" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C162" t="s">
+        <v>774</v>
+      </c>
+      <c r="H162" t="s">
+        <v>775</v>
+      </c>
+    </row>
     <row r="163" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C163" t="s">
-        <v>774</v>
-      </c>
-      <c r="H163" t="s">
-        <v>775</v>
-      </c>
+      <c r="B163" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D163" s="81"/>
+      <c r="E163" s="82"/>
+      <c r="G163" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="H163" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="I163" s="81"/>
+      <c r="J163" s="82"/>
     </row>
     <row r="164" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B164" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C164" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="D164" s="81"/>
-      <c r="E164" s="82"/>
-      <c r="G164" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="H164" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="I164" s="81"/>
-      <c r="J164" s="82"/>
+      <c r="C164" s="83"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="74"/>
+      <c r="H164" s="83"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="74"/>
     </row>
     <row r="165" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B165" s="75"/>
       <c r="C165" s="83"/>
       <c r="D165" s="37"/>
       <c r="E165" s="74"/>
-      <c r="H165" s="83"/>
+      <c r="G165" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="H165" s="83" t="s">
+        <v>190</v>
+      </c>
       <c r="I165" s="37"/>
       <c r="J165" s="74"/>
     </row>
     <row r="166" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B166" s="75"/>
       <c r="C166" s="83"/>
       <c r="D166" s="37"/>
       <c r="E166" s="74"/>
-      <c r="G166" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H166" s="83" t="s">
-        <v>190</v>
-      </c>
+      <c r="H166" s="83"/>
       <c r="I166" s="37"/>
       <c r="J166" s="74"/>
     </row>
     <row r="167" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C167" s="83"/>
-      <c r="D167" s="37"/>
+      <c r="B167" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D167" s="81"/>
       <c r="E167" s="74"/>
-      <c r="H167" s="83"/>
-      <c r="I167" s="37"/>
+      <c r="G167" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="H167" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="I167" s="81"/>
       <c r="J167" s="74"/>
     </row>
     <row r="168" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B168" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C168" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="D168" s="81"/>
-      <c r="E168" s="74"/>
-      <c r="G168" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="H168" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="I168" s="81"/>
-      <c r="J168" s="74"/>
-    </row>
-    <row r="169" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C169" s="84"/>
-      <c r="D169" s="85"/>
-      <c r="E169" s="86"/>
-      <c r="H169" s="84"/>
-      <c r="I169" s="85"/>
-      <c r="J169" s="86"/>
+      <c r="C168" s="84"/>
+      <c r="D168" s="85"/>
+      <c r="E168" s="86"/>
+      <c r="H168" s="84"/>
+      <c r="I168" s="85"/>
+      <c r="J168" s="86"/>
+    </row>
+    <row r="171" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D171" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="172" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D172" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B173" s="45" t="s">
+      <c r="B172" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C173" s="77" t="s">
+      <c r="C172" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D173" s="81"/>
-      <c r="E173" s="82"/>
+      <c r="D172" s="81"/>
+      <c r="E172" s="82"/>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="C173" s="83"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="74"/>
     </row>
     <row r="174" spans="2:10">
-      <c r="C174" s="83"/>
-      <c r="D174" s="37"/>
+      <c r="B174" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C174" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="D174" s="37" t="s">
+        <v>780</v>
+      </c>
       <c r="E174" s="74"/>
-    </row>
-    <row r="175" spans="2:10">
-      <c r="B175" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C175" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="D175" s="37" t="s">
-        <v>780</v>
-      </c>
+      <c r="G174" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C175" s="83"/>
+      <c r="D175" s="37"/>
       <c r="E175" s="74"/>
       <c r="G175" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="176" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C176" s="83"/>
-      <c r="D176" s="37"/>
+      <c r="B176" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176" s="81"/>
       <c r="E176" s="74"/>
       <c r="G176" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="177" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B177" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C177" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D177" s="81"/>
-      <c r="E177" s="74"/>
-      <c r="G177" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="178" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C178" s="84"/>
-      <c r="D178" s="85"/>
-      <c r="E178" s="86"/>
-      <c r="H178" t="s">
+      <c r="C177" s="84"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="86"/>
+      <c r="H177" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="181" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="180" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="181" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B181" s="29"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="31"/>
+    </row>
     <row r="182" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B182" s="29"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30"/>
-      <c r="F182" s="31"/>
+      <c r="B182" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="C182" s="77" t="s">
+        <v>758</v>
+      </c>
+      <c r="D182" s="78" t="s">
+        <v>763</v>
+      </c>
+      <c r="E182" s="31"/>
+      <c r="F182" s="33"/>
+      <c r="J182" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="K182" s="77" t="s">
+        <v>758</v>
+      </c>
+      <c r="L182" s="78" t="s">
+        <v>763</v>
+      </c>
+      <c r="M182" s="31"/>
     </row>
     <row r="183" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B183" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="C183" s="77" t="s">
-        <v>758</v>
-      </c>
-      <c r="D183" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="E183" s="31"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="33"/>
       <c r="F183" s="33"/>
-      <c r="J183" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="K183" s="77" t="s">
-        <v>758</v>
-      </c>
-      <c r="L183" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="M183" s="31"/>
+      <c r="I183" t="s">
+        <v>787</v>
+      </c>
+      <c r="K183" s="32"/>
+      <c r="L183" s="26"/>
+      <c r="M183" s="33"/>
     </row>
     <row r="184" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="26"/>
+      <c r="B184" s="194"/>
+      <c r="C184" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>764</v>
+      </c>
       <c r="E184" s="33"/>
       <c r="F184" s="33"/>
       <c r="I184" t="s">
-        <v>787</v>
-      </c>
-      <c r="K184" s="32"/>
-      <c r="L184" s="26"/>
+        <v>782</v>
+      </c>
+      <c r="J184" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="K184" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="L184" s="26" t="s">
+        <v>764</v>
+      </c>
       <c r="M184" s="33"/>
     </row>
     <row r="185" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B185" s="194"/>
-      <c r="C185" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="D185" s="26" t="s">
-        <v>764</v>
-      </c>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="26"/>
       <c r="E185" s="33"/>
       <c r="F185" s="33"/>
-      <c r="I185" t="s">
-        <v>782</v>
-      </c>
-      <c r="J185" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="K185" s="32" t="s">
-        <v>759</v>
-      </c>
-      <c r="L185" s="26" t="s">
-        <v>764</v>
-      </c>
+      <c r="K185" s="32"/>
+      <c r="L185" s="26"/>
       <c r="M185" s="33"/>
     </row>
     <row r="186" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B186" s="32"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="26"/>
+      <c r="B186" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="C186" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="D186" s="78" t="s">
+        <v>763</v>
+      </c>
       <c r="E186" s="33"/>
       <c r="F186" s="33"/>
-      <c r="K186" s="32"/>
-      <c r="L186" s="26"/>
+      <c r="I186" t="s">
+        <v>783</v>
+      </c>
+      <c r="J186" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="K186" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="L186" s="78" t="s">
+        <v>763</v>
+      </c>
       <c r="M186" s="33"/>
     </row>
     <row r="187" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B187" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="C187" s="79" t="s">
-        <v>760</v>
-      </c>
-      <c r="D187" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="E187" s="33"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="34"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="36"/>
       <c r="F187" s="33"/>
       <c r="I187" t="s">
-        <v>783</v>
-      </c>
-      <c r="J187" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="K187" s="79" t="s">
-        <v>760</v>
-      </c>
-      <c r="L187" s="78" t="s">
-        <v>763</v>
-      </c>
-      <c r="M187" s="33"/>
+        <v>784</v>
+      </c>
+      <c r="K187" s="34"/>
+      <c r="L187" s="35"/>
+      <c r="M187" s="36"/>
     </row>
     <row r="188" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B188" s="32"/>
-      <c r="C188" s="34"/>
+      <c r="B188" s="34"/>
+      <c r="C188" s="35"/>
       <c r="D188" s="35"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="33"/>
+      <c r="E188" s="35"/>
+      <c r="F188" s="36"/>
       <c r="I188" t="s">
-        <v>784</v>
-      </c>
-      <c r="K188" s="34"/>
-      <c r="L188" s="35"/>
-      <c r="M188" s="36"/>
-    </row>
-    <row r="189" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B189" s="34"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="36"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13">
       <c r="I189" t="s">
-        <v>785</v>
+        <v>786</v>
+      </c>
+      <c r="K189" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="190" spans="2:13">
-      <c r="I190" t="s">
-        <v>786</v>
-      </c>
       <c r="K190" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="191" spans="2:13">
+      <c r="C191" t="s">
+        <v>773</v>
+      </c>
       <c r="K191" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="192" spans="2:13">
       <c r="C192" t="s">
-        <v>773</v>
-      </c>
-      <c r="K192" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="193" spans="3:3">
       <c r="C193" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="194" spans="3:3">
       <c r="C194" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3">
-      <c r="C195" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="226" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C226" t="s">
+    <row r="225" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C225" t="s">
         <v>2462</v>
       </c>
     </row>
+    <row r="226" spans="2:10">
+      <c r="D226" s="29" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E226" s="30"/>
+      <c r="F226" s="31"/>
+      <c r="H226" s="29" t="s">
+        <v>2453</v>
+      </c>
+      <c r="I226" s="30"/>
+      <c r="J226" s="31"/>
+    </row>
     <row r="227" spans="2:10">
-      <c r="D227" s="29" t="s">
-        <v>1919</v>
-      </c>
-      <c r="E227" s="30"/>
-      <c r="F227" s="31"/>
-      <c r="H227" s="29" t="s">
-        <v>2453</v>
-      </c>
-      <c r="I227" s="30"/>
-      <c r="J227" s="31"/>
+      <c r="D227" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="E227" s="26"/>
+      <c r="F227" s="33"/>
+      <c r="H227" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="I227" s="26"/>
+      <c r="J227" s="33"/>
     </row>
     <row r="228" spans="2:10">
-      <c r="D228" s="32" t="s">
-        <v>726</v>
-      </c>
-      <c r="E228" s="26"/>
+      <c r="D228" s="32"/>
+      <c r="E228" s="26" t="s">
+        <v>2455</v>
+      </c>
       <c r="F228" s="33"/>
-      <c r="H228" s="32" t="s">
-        <v>726</v>
-      </c>
-      <c r="I228" s="26"/>
+      <c r="H228" s="32"/>
+      <c r="I228" s="32" t="s">
+        <v>2454</v>
+      </c>
       <c r="J228" s="33"/>
     </row>
     <row r="229" spans="2:10">
-      <c r="D229" s="32"/>
-      <c r="E229" s="26" t="s">
-        <v>2455</v>
-      </c>
+      <c r="D229" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E229" s="26"/>
       <c r="F229" s="33"/>
-      <c r="H229" s="32"/>
-      <c r="I229" s="32" t="s">
-        <v>2454</v>
-      </c>
+      <c r="H229" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I229" s="26"/>
       <c r="J229" s="33"/>
     </row>
-    <row r="230" spans="2:10">
-      <c r="D230" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E230" s="26"/>
-      <c r="F230" s="33"/>
-      <c r="H230" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="I230" s="26"/>
-      <c r="J230" s="33"/>
+    <row r="230" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D230" s="34"/>
+      <c r="E230" s="35"/>
+      <c r="F230" s="36"/>
+      <c r="H230" s="34"/>
+      <c r="I230" s="35"/>
+      <c r="J230" s="36"/>
     </row>
     <row r="231" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D231" s="34"/>
-      <c r="E231" s="35"/>
-      <c r="F231" s="36"/>
-      <c r="H231" s="34"/>
-      <c r="I231" s="35"/>
-      <c r="J231" s="36"/>
-    </row>
-    <row r="232" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B231" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10">
       <c r="B232" t="s">
-        <v>2459</v>
-      </c>
+        <v>2460</v>
+      </c>
+      <c r="F232" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="G232" s="30"/>
+      <c r="H232" s="31"/>
     </row>
     <row r="233" spans="2:10">
-      <c r="B233" t="s">
-        <v>2460</v>
-      </c>
-      <c r="F233" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="G233" s="30"/>
-      <c r="H233" s="31"/>
+      <c r="F233" s="32"/>
+      <c r="G233" s="26"/>
+      <c r="H233" s="33"/>
     </row>
     <row r="234" spans="2:10">
       <c r="F234" s="32"/>
@@ -24580,287 +24655,282 @@
       <c r="H234" s="33"/>
     </row>
     <row r="235" spans="2:10">
+      <c r="B235" t="s">
+        <v>2458</v>
+      </c>
       <c r="F235" s="32"/>
       <c r="G235" s="26"/>
       <c r="H235" s="33"/>
     </row>
-    <row r="236" spans="2:10">
-      <c r="B236" t="s">
-        <v>2458</v>
-      </c>
-      <c r="F236" s="32"/>
-      <c r="G236" s="26"/>
-      <c r="H236" s="33"/>
-    </row>
-    <row r="237" spans="2:10" ht="15.75" thickBot="1">
-      <c r="F237" s="34"/>
-      <c r="G237" s="35"/>
-      <c r="H237" s="36"/>
+    <row r="236" spans="2:10" ht="15.75" thickBot="1">
+      <c r="F236" s="34"/>
+      <c r="G236" s="35"/>
+      <c r="H236" s="36"/>
+    </row>
+    <row r="238" spans="2:10">
+      <c r="F238" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="239" spans="2:10">
       <c r="F239" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="240" spans="2:10">
-      <c r="F240" t="s">
         <v>731</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H239" t="s">
         <v>2456</v>
       </c>
-      <c r="J240" t="s">
+      <c r="J239" t="s">
         <v>2457</v>
       </c>
     </row>
-    <row r="242" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C242" t="s">
+    <row r="241" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C241" t="s">
         <v>2461</v>
       </c>
     </row>
+    <row r="242" spans="2:10">
+      <c r="D242" s="29" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E242" s="30"/>
+      <c r="F242" s="31"/>
+      <c r="H242" s="29" t="s">
+        <v>2453</v>
+      </c>
+      <c r="I242" s="30"/>
+      <c r="J242" s="31"/>
+    </row>
     <row r="243" spans="2:10">
-      <c r="D243" s="29" t="s">
-        <v>1919</v>
-      </c>
-      <c r="E243" s="30"/>
-      <c r="F243" s="31"/>
-      <c r="H243" s="29" t="s">
-        <v>2453</v>
-      </c>
-      <c r="I243" s="30"/>
-      <c r="J243" s="31"/>
+      <c r="D243" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="E243" s="26"/>
+      <c r="F243" s="33"/>
+      <c r="H243" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="I243" s="26"/>
+      <c r="J243" s="33"/>
     </row>
     <row r="244" spans="2:10">
       <c r="D244" s="32" t="s">
-        <v>819</v>
+        <v>2463</v>
       </c>
       <c r="E244" s="26"/>
       <c r="F244" s="33"/>
       <c r="H244" s="32" t="s">
-        <v>819</v>
+        <v>2463</v>
       </c>
       <c r="I244" s="26"/>
       <c r="J244" s="33"/>
     </row>
     <row r="245" spans="2:10">
-      <c r="D245" s="32" t="s">
-        <v>2463</v>
-      </c>
-      <c r="E245" s="26"/>
+      <c r="D245" s="32"/>
+      <c r="E245" s="26" t="s">
+        <v>2464</v>
+      </c>
       <c r="F245" s="33"/>
-      <c r="H245" s="32" t="s">
-        <v>2463</v>
-      </c>
-      <c r="I245" s="26"/>
+      <c r="H245" s="32"/>
+      <c r="I245" s="26" t="s">
+        <v>2465</v>
+      </c>
       <c r="J245" s="33"/>
     </row>
-    <row r="246" spans="2:10">
-      <c r="D246" s="32"/>
-      <c r="E246" s="26" t="s">
-        <v>2464</v>
-      </c>
-      <c r="F246" s="33"/>
-      <c r="H246" s="32"/>
-      <c r="I246" s="26" t="s">
-        <v>2465</v>
-      </c>
-      <c r="J246" s="33"/>
+    <row r="246" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D246" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E246" s="35"/>
+      <c r="F246" s="36"/>
+      <c r="H246" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I246" s="35"/>
+      <c r="J246" s="36"/>
     </row>
     <row r="247" spans="2:10" ht="15.75" thickBot="1">
-      <c r="D247" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="E247" s="35"/>
-      <c r="F247" s="36"/>
-      <c r="H247" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I247" s="35"/>
-      <c r="J247" s="36"/>
-    </row>
-    <row r="248" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B247" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10">
       <c r="B248" t="s">
-        <v>2459</v>
-      </c>
+        <v>2460</v>
+      </c>
+      <c r="F248" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="G248" s="30"/>
+      <c r="H248" s="31"/>
     </row>
     <row r="249" spans="2:10">
-      <c r="B249" t="s">
-        <v>2460</v>
-      </c>
-      <c r="F249" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="G249" s="30"/>
-      <c r="H249" s="31"/>
+      <c r="F249" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="G249" s="26"/>
+      <c r="H249" s="33"/>
     </row>
     <row r="250" spans="2:10">
       <c r="F250" s="32" t="s">
-        <v>726</v>
+        <v>2468</v>
       </c>
       <c r="G250" s="26"/>
       <c r="H250" s="33"/>
     </row>
     <row r="251" spans="2:10">
+      <c r="B251" t="s">
+        <v>2458</v>
+      </c>
       <c r="F251" s="32" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="G251" s="26"/>
       <c r="H251" s="33"/>
     </row>
-    <row r="252" spans="2:10">
-      <c r="B252" t="s">
-        <v>2458</v>
-      </c>
-      <c r="F252" s="32" t="s">
-        <v>2466</v>
-      </c>
-      <c r="G252" s="26"/>
-      <c r="H252" s="33"/>
-    </row>
-    <row r="253" spans="2:10" ht="15.75" thickBot="1">
-      <c r="F253" s="34"/>
-      <c r="G253" s="35" t="s">
+    <row r="252" spans="2:10" ht="15.75" thickBot="1">
+      <c r="F252" s="34"/>
+      <c r="G252" s="35" t="s">
         <v>2467</v>
       </c>
-      <c r="H253" s="36"/>
-    </row>
-    <row r="262" spans="4:10" ht="15.75" thickBot="1"/>
-    <row r="263" spans="4:10">
-      <c r="D263" s="29" t="s">
+      <c r="H252" s="36"/>
+    </row>
+    <row r="261" spans="4:10" ht="15.75" thickBot="1"/>
+    <row r="262" spans="4:10">
+      <c r="D262" s="29" t="s">
         <v>2469</v>
       </c>
-      <c r="E263" s="30"/>
-      <c r="F263" s="30"/>
-      <c r="G263" s="31"/>
-      <c r="I263" t="s">
+      <c r="E262" s="30"/>
+      <c r="F262" s="30"/>
+      <c r="G262" s="31"/>
+      <c r="I262" t="s">
         <v>2471</v>
       </c>
     </row>
-    <row r="264" spans="4:10" ht="15.75" thickBot="1">
+    <row r="263" spans="4:10" ht="15.75" thickBot="1">
+      <c r="D263" s="32"/>
+      <c r="E263" s="26"/>
+      <c r="F263" s="26"/>
+      <c r="G263" s="33"/>
+      <c r="J263" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="264" spans="4:10">
       <c r="D264" s="32"/>
-      <c r="E264" s="26"/>
-      <c r="F264" s="26"/>
+      <c r="E264" s="29" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F264" s="31"/>
       <c r="G264" s="33"/>
       <c r="J264" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="265" spans="4:10">
       <c r="D265" s="32"/>
-      <c r="E265" s="29" t="s">
-        <v>2469</v>
-      </c>
-      <c r="F265" s="31"/>
+      <c r="E265" s="32"/>
+      <c r="F265" s="33"/>
       <c r="G265" s="33"/>
       <c r="J265" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="266" spans="4:10">
-      <c r="D266" s="32"/>
-      <c r="E266" s="32"/>
-      <c r="F266" s="33"/>
-      <c r="G266" s="33"/>
+      <c r="D266" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E266" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F266" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G266" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="J266" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="267" spans="4:10">
-      <c r="D267" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E267" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F267" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G267" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J267" t="s">
-        <v>2473</v>
-      </c>
+      <c r="D267" s="32"/>
+      <c r="E267" s="32"/>
+      <c r="F267" s="33"/>
+      <c r="G267" s="33"/>
     </row>
     <row r="268" spans="4:10">
-      <c r="D268" s="32"/>
-      <c r="E268" s="32"/>
-      <c r="F268" s="33"/>
-      <c r="G268" s="33"/>
+      <c r="D268" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E268" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F268" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G268" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I268" t="s">
+        <v>2476</v>
+      </c>
     </row>
     <row r="269" spans="4:10">
-      <c r="D269" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E269" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F269" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G269" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="I269" t="s">
-        <v>2476</v>
-      </c>
+      <c r="D269" s="32"/>
+      <c r="E269" s="32"/>
+      <c r="F269" s="33"/>
+      <c r="G269" s="33"/>
     </row>
     <row r="270" spans="4:10">
-      <c r="D270" s="32"/>
-      <c r="E270" s="32"/>
+      <c r="D270" s="32" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E270" s="32" t="s">
+        <v>2470</v>
+      </c>
       <c r="F270" s="33"/>
       <c r="G270" s="33"/>
-    </row>
-    <row r="271" spans="4:10">
-      <c r="D271" s="32" t="s">
-        <v>2470</v>
-      </c>
-      <c r="E271" s="32" t="s">
-        <v>2470</v>
-      </c>
-      <c r="F271" s="33"/>
+      <c r="J270" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="271" spans="4:10" ht="15.75" thickBot="1">
+      <c r="D271" s="32"/>
+      <c r="E271" s="34"/>
+      <c r="F271" s="36"/>
       <c r="G271" s="33"/>
-      <c r="J271" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="272" spans="4:10" ht="15.75" thickBot="1">
+    </row>
+    <row r="272" spans="4:10">
       <c r="D272" s="32"/>
-      <c r="E272" s="34"/>
-      <c r="F272" s="36"/>
+      <c r="E272" s="26"/>
+      <c r="F272" s="26"/>
       <c r="G272" s="33"/>
-    </row>
-    <row r="273" spans="4:11">
-      <c r="D273" s="32"/>
-      <c r="E273" s="26"/>
-      <c r="F273" s="26"/>
-      <c r="G273" s="33"/>
+      <c r="I272" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="273" spans="4:11" ht="15.75" thickBot="1">
+      <c r="D273" s="34"/>
+      <c r="E273" s="35"/>
+      <c r="F273" s="35"/>
+      <c r="G273" s="36"/>
       <c r="I273" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="274" spans="4:11" ht="15.75" thickBot="1">
-      <c r="D274" s="34"/>
-      <c r="E274" s="35"/>
-      <c r="F274" s="35"/>
-      <c r="G274" s="36"/>
+        <v>2479</v>
+      </c>
+      <c r="K273" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="274" spans="4:11">
       <c r="I274" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="K274" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="275" spans="4:11">
-      <c r="I275" t="s">
-        <v>2480</v>
-      </c>
-      <c r="K275" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="276" spans="4:11">
-      <c r="J276" s="55" t="s">
+      <c r="J275" s="55" t="s">
         <v>2483</v>
       </c>
     </row>
@@ -26225,13 +26295,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="315" t="s">
+      <c r="H3" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="317"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="316"/>
       <c r="P3" t="s">
         <v>3068</v>
       </c>
@@ -26265,20 +26335,20 @@
         <v>3065</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="317" t="s">
         <v>3062</v>
       </c>
-      <c r="H6" s="319"/>
+      <c r="H6" s="318"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="318" t="s">
+      <c r="J6" s="317" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="319"/>
+      <c r="K6" s="318"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="318" t="s">
+      <c r="M6" s="317" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="319"/>
+      <c r="N6" s="318"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -26299,20 +26369,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="320" t="s">
+      <c r="G8" s="319" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="321"/>
+      <c r="H8" s="320"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="320" t="s">
+      <c r="J8" s="319" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="321"/>
+      <c r="K8" s="320"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="320" t="s">
+      <c r="M8" s="319" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="321"/>
+      <c r="N8" s="320"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -26328,29 +26398,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="311" t="s">
+      <c r="F10" s="310" t="s">
         <v>3063</v>
       </c>
-      <c r="G10" s="312"/>
-      <c r="H10" s="312"/>
-      <c r="I10" s="312"/>
-      <c r="J10" s="312"/>
-      <c r="K10" s="312"/>
-      <c r="L10" s="312"/>
-      <c r="M10" s="312"/>
-      <c r="N10" s="312"/>
+      <c r="G10" s="311"/>
+      <c r="H10" s="311"/>
+      <c r="I10" s="311"/>
+      <c r="J10" s="311"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="311"/>
+      <c r="N10" s="311"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="313"/>
-      <c r="G11" s="314"/>
-      <c r="H11" s="314"/>
-      <c r="I11" s="314"/>
-      <c r="J11" s="314"/>
-      <c r="K11" s="314"/>
-      <c r="L11" s="314"/>
-      <c r="M11" s="314"/>
-      <c r="N11" s="314"/>
+      <c r="F11" s="312"/>
+      <c r="G11" s="313"/>
+      <c r="H11" s="313"/>
+      <c r="I11" s="313"/>
+      <c r="J11" s="313"/>
+      <c r="K11" s="313"/>
+      <c r="L11" s="313"/>
+      <c r="M11" s="313"/>
+      <c r="N11" s="313"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -30456,7 +30526,7 @@
       <c r="N235" s="48">
         <v>10</v>
       </c>
-      <c r="O235" s="327" t="s">
+      <c r="O235" s="326" t="s">
         <v>2745</v>
       </c>
       <c r="P235" s="50"/>
@@ -30481,7 +30551,7 @@
       <c r="L236" s="50"/>
       <c r="M236" s="52"/>
       <c r="N236" s="54"/>
-      <c r="O236" s="327"/>
+      <c r="O236" s="326"/>
       <c r="P236" s="50"/>
       <c r="Q236" s="51"/>
     </row>
@@ -30504,7 +30574,7 @@
       <c r="L237" s="50"/>
       <c r="M237" s="50"/>
       <c r="N237" s="50"/>
-      <c r="O237" s="327"/>
+      <c r="O237" s="326"/>
       <c r="P237" s="50"/>
       <c r="Q237" s="51"/>
     </row>
@@ -30527,7 +30597,7 @@
       <c r="N238" s="48">
         <v>10</v>
       </c>
-      <c r="O238" s="327"/>
+      <c r="O238" s="326"/>
       <c r="P238" s="50"/>
       <c r="Q238" s="51"/>
     </row>
@@ -30544,7 +30614,7 @@
       <c r="L239" s="50"/>
       <c r="M239" s="52"/>
       <c r="N239" s="54"/>
-      <c r="O239" s="327"/>
+      <c r="O239" s="326"/>
       <c r="P239" s="50"/>
       <c r="Q239" s="51"/>
     </row>
@@ -30563,7 +30633,7 @@
       <c r="L240" s="50"/>
       <c r="M240" s="50"/>
       <c r="N240" s="50"/>
-      <c r="O240" s="327"/>
+      <c r="O240" s="326"/>
       <c r="P240" s="50"/>
       <c r="Q240" s="51"/>
     </row>
@@ -30588,7 +30658,7 @@
       <c r="N241" s="48">
         <v>10</v>
       </c>
-      <c r="O241" s="327"/>
+      <c r="O241" s="326"/>
       <c r="P241" s="50"/>
       <c r="Q241" s="51"/>
     </row>
@@ -30607,7 +30677,7 @@
       <c r="L242" s="50"/>
       <c r="M242" s="52"/>
       <c r="N242" s="54"/>
-      <c r="O242" s="327"/>
+      <c r="O242" s="326"/>
       <c r="P242" s="50"/>
       <c r="Q242" s="51"/>
     </row>
@@ -43798,11 +43868,11 @@
       <c r="L6" s="42" t="s">
         <v>1596</v>
       </c>
-      <c r="M6" s="328" t="s">
+      <c r="M6" s="327" t="s">
         <v>1597</v>
       </c>
-      <c r="N6" s="328"/>
-      <c r="O6" s="328"/>
+      <c r="N6" s="327"/>
+      <c r="O6" s="327"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -45815,11 +45885,11 @@
       <c r="B223" t="s">
         <v>1884</v>
       </c>
-      <c r="D223" s="322" t="s">
+      <c r="D223" s="321" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="324"/>
-      <c r="F223" s="323"/>
+      <c r="E223" s="323"/>
+      <c r="F223" s="322"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -45871,19 +45941,19 @@
       <c r="B227" t="s">
         <v>2446</v>
       </c>
-      <c r="D227" s="322" t="s">
+      <c r="D227" s="321" t="s">
         <v>1906</v>
       </c>
-      <c r="E227" s="324"/>
-      <c r="F227" s="323"/>
-      <c r="H227" s="322" t="s">
+      <c r="E227" s="323"/>
+      <c r="F227" s="322"/>
+      <c r="H227" s="321" t="s">
         <v>1909</v>
       </c>
-      <c r="I227" s="323"/>
-      <c r="K227" s="322" t="s">
+      <c r="I227" s="322"/>
+      <c r="K227" s="321" t="s">
         <v>1908</v>
       </c>
-      <c r="L227" s="323"/>
+      <c r="L227" s="322"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -49287,23 +49357,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="325" t="s">
         <v>2933</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="I1" s="326" t="s">
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="I1" s="325" t="s">
         <v>2943</v>
       </c>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -49453,28 +49523,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="318" t="s">
+      <c r="A12" s="317" t="s">
         <v>2945</v>
       </c>
-      <c r="B12" s="325"/>
-      <c r="C12" s="325"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325"/>
-      <c r="F12" s="325"/>
-      <c r="G12" s="325"/>
-      <c r="H12" s="319"/>
-      <c r="I12" s="318" t="s">
+      <c r="B12" s="324"/>
+      <c r="C12" s="324"/>
+      <c r="D12" s="324"/>
+      <c r="E12" s="324"/>
+      <c r="F12" s="324"/>
+      <c r="G12" s="324"/>
+      <c r="H12" s="318"/>
+      <c r="I12" s="317" t="s">
         <v>2945</v>
       </c>
-      <c r="J12" s="325"/>
-      <c r="K12" s="325"/>
-      <c r="L12" s="325"/>
-      <c r="M12" s="325"/>
-      <c r="N12" s="325"/>
-      <c r="O12" s="325"/>
-      <c r="P12" s="325"/>
-      <c r="Q12" s="325"/>
-      <c r="R12" s="319"/>
+      <c r="J12" s="324"/>
+      <c r="K12" s="324"/>
+      <c r="L12" s="324"/>
+      <c r="M12" s="324"/>
+      <c r="N12" s="324"/>
+      <c r="O12" s="324"/>
+      <c r="P12" s="324"/>
+      <c r="Q12" s="324"/>
+      <c r="R12" s="318"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -49702,14 +49772,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="326" t="s">
+      <c r="A24" s="325" t="s">
         <v>2933</v>
       </c>
-      <c r="B24" s="326"/>
-      <c r="C24" s="326"/>
-      <c r="D24" s="326"/>
-      <c r="E24" s="326"/>
-      <c r="F24" s="326"/>
+      <c r="B24" s="325"/>
+      <c r="C24" s="325"/>
+      <c r="D24" s="325"/>
+      <c r="E24" s="325"/>
+      <c r="F24" s="325"/>
       <c r="H24" s="271" t="s">
         <v>2943</v>
       </c>
@@ -49719,11 +49789,11 @@
       <c r="L24" s="271"/>
       <c r="M24" s="271"/>
       <c r="N24" s="271"/>
-      <c r="P24" s="326" t="s">
+      <c r="P24" s="325" t="s">
         <v>2981</v>
       </c>
-      <c r="Q24" s="326"/>
-      <c r="R24" s="326"/>
+      <c r="Q24" s="325"/>
+      <c r="R24" s="325"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -49963,28 +50033,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="318" t="s">
+      <c r="A35" s="317" t="s">
         <v>2982</v>
       </c>
-      <c r="B35" s="325"/>
-      <c r="C35" s="325"/>
-      <c r="D35" s="325"/>
-      <c r="E35" s="325"/>
-      <c r="F35" s="325"/>
-      <c r="G35" s="325"/>
-      <c r="H35" s="319"/>
-      <c r="I35" s="318" t="s">
+      <c r="B35" s="324"/>
+      <c r="C35" s="324"/>
+      <c r="D35" s="324"/>
+      <c r="E35" s="324"/>
+      <c r="F35" s="324"/>
+      <c r="G35" s="324"/>
+      <c r="H35" s="318"/>
+      <c r="I35" s="317" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="325"/>
-      <c r="K35" s="325"/>
-      <c r="L35" s="325"/>
-      <c r="M35" s="325"/>
-      <c r="N35" s="325"/>
-      <c r="O35" s="325"/>
-      <c r="P35" s="325"/>
-      <c r="Q35" s="325"/>
-      <c r="R35" s="319"/>
+      <c r="J35" s="324"/>
+      <c r="K35" s="324"/>
+      <c r="L35" s="324"/>
+      <c r="M35" s="324"/>
+      <c r="N35" s="324"/>
+      <c r="O35" s="324"/>
+      <c r="P35" s="324"/>
+      <c r="Q35" s="324"/>
+      <c r="R35" s="318"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5781" uniqueCount="3070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="3078">
   <si>
     <t>USER</t>
   </si>
@@ -9516,6 +9516,30 @@
   </si>
   <si>
     <t>names[2][1]</t>
+  </si>
+  <si>
+    <t>sysout(  p.name  );</t>
+  </si>
+  <si>
+    <t>sysout(  p2.name  );</t>
+  </si>
+  <si>
+    <t>Customer1</t>
+  </si>
+  <si>
+    <t>Customer2</t>
+  </si>
+  <si>
+    <t>Customer3</t>
+  </si>
+  <si>
+    <t>withd(1000);</t>
+  </si>
+  <si>
+    <t>withd(10);</t>
+  </si>
+  <si>
+    <t>withd(20);</t>
   </si>
 </sst>
 </file>
@@ -10090,7 +10114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10727,6 +10751,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10775,9 +10803,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10787,10 +10812,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25933,13 +25963,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="320" t="s">
+      <c r="H3" s="322" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="322"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="324"/>
       <c r="P3" t="s">
         <v>2899</v>
       </c>
@@ -25973,20 +26003,20 @@
         <v>2896</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="323" t="s">
+      <c r="G6" s="325" t="s">
         <v>2893</v>
       </c>
-      <c r="H6" s="324"/>
+      <c r="H6" s="326"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="323" t="s">
+      <c r="J6" s="325" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="324"/>
+      <c r="K6" s="326"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="323" t="s">
+      <c r="M6" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="324"/>
+      <c r="N6" s="326"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -26007,20 +26037,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="325" t="s">
+      <c r="G8" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="326"/>
+      <c r="H8" s="328"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="325" t="s">
+      <c r="J8" s="327" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="326"/>
+      <c r="K8" s="328"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="325" t="s">
+      <c r="M8" s="327" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="326"/>
+      <c r="N8" s="328"/>
       <c r="Q8" s="143"/>
     </row>
     <row r="9" spans="1:18">
@@ -26036,29 +26066,29 @@
       <c r="Q9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="316" t="s">
+      <c r="F10" s="318" t="s">
         <v>2894</v>
       </c>
-      <c r="G10" s="317"/>
-      <c r="H10" s="317"/>
-      <c r="I10" s="317"/>
-      <c r="J10" s="317"/>
-      <c r="K10" s="317"/>
-      <c r="L10" s="317"/>
-      <c r="M10" s="317"/>
-      <c r="N10" s="317"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="319"/>
+      <c r="K10" s="319"/>
+      <c r="L10" s="319"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="319"/>
       <c r="Q10" s="143"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="318"/>
-      <c r="G11" s="319"/>
-      <c r="H11" s="319"/>
-      <c r="I11" s="319"/>
-      <c r="J11" s="319"/>
-      <c r="K11" s="319"/>
-      <c r="L11" s="319"/>
-      <c r="M11" s="319"/>
-      <c r="N11" s="319"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="321"/>
+      <c r="H11" s="321"/>
+      <c r="I11" s="321"/>
+      <c r="J11" s="321"/>
+      <c r="K11" s="321"/>
+      <c r="L11" s="321"/>
+      <c r="M11" s="321"/>
+      <c r="N11" s="321"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -27530,7 +27560,7 @@
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
-      <c r="K21" s="333" t="s">
+      <c r="K21" s="334" t="s">
         <v>3054</v>
       </c>
       <c r="L21" s="50"/>
@@ -27557,7 +27587,7 @@
       <c r="J22" s="50" t="s">
         <v>1092</v>
       </c>
-      <c r="K22" s="334"/>
+      <c r="K22" s="335"/>
       <c r="L22" s="50"/>
       <c r="M22" s="51"/>
     </row>
@@ -27582,7 +27612,7 @@
       <c r="J23" s="53">
         <v>333</v>
       </c>
-      <c r="K23" s="334"/>
+      <c r="K23" s="335"/>
       <c r="L23" s="50"/>
       <c r="M23" s="51"/>
     </row>
@@ -27603,7 +27633,7 @@
       <c r="H24" s="50"/>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="334"/>
+      <c r="K24" s="335"/>
       <c r="L24" s="50"/>
       <c r="M24" s="51"/>
     </row>
@@ -27620,7 +27650,7 @@
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="47"/>
-      <c r="K25" s="334"/>
+      <c r="K25" s="335"/>
       <c r="L25" s="50"/>
       <c r="M25" s="51"/>
     </row>
@@ -27635,7 +27665,7 @@
       <c r="J26" s="50" t="s">
         <v>3041</v>
       </c>
-      <c r="K26" s="334"/>
+      <c r="K26" s="335"/>
       <c r="L26" s="50"/>
       <c r="M26" s="51"/>
     </row>
@@ -27650,7 +27680,7 @@
       <c r="J27" s="53">
         <v>234</v>
       </c>
-      <c r="K27" s="334"/>
+      <c r="K27" s="335"/>
       <c r="L27" s="50"/>
       <c r="M27" s="51"/>
     </row>
@@ -27664,7 +27694,7 @@
       <c r="H28" s="50"/>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="334"/>
+      <c r="K28" s="335"/>
       <c r="L28" s="50"/>
       <c r="M28" s="51"/>
     </row>
@@ -27680,7 +27710,7 @@
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="47"/>
-      <c r="K29" s="334"/>
+      <c r="K29" s="335"/>
       <c r="L29" s="50"/>
       <c r="M29" s="51"/>
     </row>
@@ -27698,7 +27728,7 @@
       <c r="J30" s="50" t="s">
         <v>3042</v>
       </c>
-      <c r="K30" s="334"/>
+      <c r="K30" s="335"/>
       <c r="L30" s="50"/>
       <c r="M30" s="51"/>
     </row>
@@ -27713,7 +27743,7 @@
       <c r="J31" s="53">
         <v>345</v>
       </c>
-      <c r="K31" s="335"/>
+      <c r="K31" s="336"/>
       <c r="L31" s="50"/>
       <c r="M31" s="51"/>
     </row>
@@ -30995,8 +31025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31021,7 +31051,7 @@
       <c r="F1" s="307" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="337" t="s">
+      <c r="G1" s="317" t="s">
         <v>1377</v>
       </c>
       <c r="H1" s="47"/>
@@ -31276,27 +31306,27 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:12">
       <c r="B17" s="26" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:12">
       <c r="B18" s="26" t="s">
         <v>3060</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:12">
       <c r="A19" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:12">
       <c r="E21" s="26" t="s">
         <v>3068</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:12">
       <c r="E23" s="50" t="s">
         <v>2490</v>
       </c>
@@ -31307,21 +31337,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:12">
       <c r="E24" s="50">
         <v>0</v>
       </c>
       <c r="F24" s="311"/>
       <c r="G24" s="311"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:12">
       <c r="E25" s="50">
         <v>1</v>
       </c>
       <c r="F25" s="311"/>
       <c r="G25" s="311"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:12">
       <c r="E26" s="50">
         <v>2</v>
       </c>
@@ -31330,18 +31360,203 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="E29" s="50"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="E31" s="50"/>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+      <c r="E28" s="77" t="s">
+        <v>2293</v>
+      </c>
+      <c r="F28" s="317" t="s">
+        <v>2294</v>
+      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="48"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="I31" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="51">
+        <v>10</v>
+      </c>
+      <c r="L31" s="33"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A32" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="54"/>
+      <c r="L32" s="33"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="E33" s="32"/>
+      <c r="L33" s="33"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="L34" s="33"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="26" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="E36" s="32"/>
+      <c r="L36" s="33"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="37" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="L37" s="33"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="E38" s="32"/>
+      <c r="L38" s="33"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="37" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="L39" s="33"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="E40" s="32"/>
+      <c r="L40" s="33"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="E41" s="32"/>
+      <c r="L41" s="33"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="E42" s="32"/>
+      <c r="L42" s="33"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1">
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="36"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A44" s="26" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="338" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C45" s="341" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E45" s="341" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="339"/>
+      <c r="C46" s="342"/>
+      <c r="E46" s="342"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="339" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C47" s="342" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E47" s="342" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="339"/>
+      <c r="C48" s="342"/>
+      <c r="E48" s="342"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="339"/>
+      <c r="C49" s="342"/>
+      <c r="E49" s="342"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="339"/>
+      <c r="C50" s="342"/>
+      <c r="E50" s="342"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A51" s="340"/>
+      <c r="C51" s="343"/>
+      <c r="E51" s="343"/>
     </row>
     <row r="94" spans="8:16">
       <c r="H94" s="50"/>
@@ -31812,8 +32027,8 @@
       <c r="H166" s="37"/>
     </row>
     <row r="190" spans="8:9">
-      <c r="H190" s="336"/>
-      <c r="I190" s="336"/>
+      <c r="H190" s="316"/>
+      <c r="I190" s="316"/>
     </row>
     <row r="207" spans="6:6">
       <c r="F207" s="50"/>
@@ -42449,11 +42664,11 @@
       <c r="L6" s="42" t="s">
         <v>1535</v>
       </c>
-      <c r="M6" s="332" t="s">
+      <c r="M6" s="337" t="s">
         <v>1536</v>
       </c>
-      <c r="N6" s="332"/>
-      <c r="O6" s="332"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="337"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -44466,11 +44681,11 @@
       <c r="B223" t="s">
         <v>1792</v>
       </c>
-      <c r="D223" s="327" t="s">
+      <c r="D223" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="329"/>
-      <c r="F223" s="328"/>
+      <c r="E223" s="331"/>
+      <c r="F223" s="330"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -44522,19 +44737,19 @@
       <c r="B227" t="s">
         <v>2316</v>
       </c>
-      <c r="D227" s="327" t="s">
+      <c r="D227" s="329" t="s">
         <v>1814</v>
       </c>
-      <c r="E227" s="329"/>
-      <c r="F227" s="328"/>
-      <c r="H227" s="327" t="s">
+      <c r="E227" s="331"/>
+      <c r="F227" s="330"/>
+      <c r="H227" s="329" t="s">
         <v>1817</v>
       </c>
-      <c r="I227" s="328"/>
-      <c r="K227" s="327" t="s">
+      <c r="I227" s="330"/>
+      <c r="K227" s="329" t="s">
         <v>1816</v>
       </c>
-      <c r="L227" s="328"/>
+      <c r="L227" s="330"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -47938,23 +48153,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="333" t="s">
         <v>2764</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="I1" s="331" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="I1" s="333" t="s">
         <v>2774</v>
       </c>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -48104,28 +48319,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="323" t="s">
+      <c r="A12" s="325" t="s">
         <v>2776</v>
       </c>
-      <c r="B12" s="330"/>
-      <c r="C12" s="330"/>
-      <c r="D12" s="330"/>
-      <c r="E12" s="330"/>
-      <c r="F12" s="330"/>
-      <c r="G12" s="330"/>
-      <c r="H12" s="324"/>
-      <c r="I12" s="323" t="s">
+      <c r="B12" s="332"/>
+      <c r="C12" s="332"/>
+      <c r="D12" s="332"/>
+      <c r="E12" s="332"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="326"/>
+      <c r="I12" s="325" t="s">
         <v>2776</v>
       </c>
-      <c r="J12" s="330"/>
-      <c r="K12" s="330"/>
-      <c r="L12" s="330"/>
-      <c r="M12" s="330"/>
-      <c r="N12" s="330"/>
-      <c r="O12" s="330"/>
-      <c r="P12" s="330"/>
-      <c r="Q12" s="330"/>
-      <c r="R12" s="324"/>
+      <c r="J12" s="332"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="332"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="332"/>
+      <c r="Q12" s="332"/>
+      <c r="R12" s="326"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -48353,14 +48568,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="333" t="s">
         <v>2764</v>
       </c>
-      <c r="B24" s="331"/>
-      <c r="C24" s="331"/>
-      <c r="D24" s="331"/>
-      <c r="E24" s="331"/>
-      <c r="F24" s="331"/>
+      <c r="B24" s="333"/>
+      <c r="C24" s="333"/>
+      <c r="D24" s="333"/>
+      <c r="E24" s="333"/>
+      <c r="F24" s="333"/>
       <c r="H24" s="267" t="s">
         <v>2774</v>
       </c>
@@ -48370,11 +48585,11 @@
       <c r="L24" s="267"/>
       <c r="M24" s="267"/>
       <c r="N24" s="267"/>
-      <c r="P24" s="331" t="s">
+      <c r="P24" s="333" t="s">
         <v>2812</v>
       </c>
-      <c r="Q24" s="331"/>
-      <c r="R24" s="331"/>
+      <c r="Q24" s="333"/>
+      <c r="R24" s="333"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -48614,28 +48829,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="323" t="s">
+      <c r="A35" s="325" t="s">
         <v>2813</v>
       </c>
-      <c r="B35" s="330"/>
-      <c r="C35" s="330"/>
-      <c r="D35" s="330"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
-      <c r="H35" s="324"/>
-      <c r="I35" s="323" t="s">
+      <c r="B35" s="332"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
+      <c r="F35" s="332"/>
+      <c r="G35" s="332"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="325" t="s">
         <v>1070</v>
       </c>
-      <c r="J35" s="330"/>
-      <c r="K35" s="330"/>
-      <c r="L35" s="330"/>
-      <c r="M35" s="330"/>
-      <c r="N35" s="330"/>
-      <c r="O35" s="330"/>
-      <c r="P35" s="330"/>
-      <c r="Q35" s="330"/>
-      <c r="R35" s="324"/>
+      <c r="J35" s="332"/>
+      <c r="K35" s="332"/>
+      <c r="L35" s="332"/>
+      <c r="M35" s="332"/>
+      <c r="N35" s="332"/>
+      <c r="O35" s="332"/>
+      <c r="P35" s="332"/>
+      <c r="Q35" s="332"/>
+      <c r="R35" s="326"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6193" uniqueCount="3221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6192" uniqueCount="3223">
   <si>
     <t>USER</t>
   </si>
@@ -10013,14 +10013,20 @@
     <t>BUFFERING</t>
   </si>
   <si>
-    <t>product</t>
+    <t>john@g.com</t>
+  </si>
+  <si>
+    <t>Database software</t>
+  </si>
+  <si>
+    <t>john  john  john1!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10135,6 +10141,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -10654,10 +10667,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11324,6 +11341,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11384,7 +11408,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11400,12 +11423,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -26512,8 +26532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K21"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26546,13 +26566,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="342"/>
+      <c r="I3" s="348"/>
+      <c r="J3" s="348"/>
+      <c r="K3" s="348"/>
+      <c r="L3" s="349"/>
       <c r="P3" t="s">
         <v>2829</v>
       </c>
@@ -26586,20 +26606,20 @@
         <v>2826</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="343" t="s">
+      <c r="G6" s="350" t="s">
         <v>2823</v>
       </c>
-      <c r="H6" s="344"/>
+      <c r="H6" s="351"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="343" t="s">
+      <c r="J6" s="350" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="344"/>
+      <c r="K6" s="351"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="343" t="s">
+      <c r="M6" s="350" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="344"/>
+      <c r="N6" s="351"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="124" t="s">
@@ -26620,20 +26640,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="345" t="s">
+      <c r="G8" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="346"/>
+      <c r="H8" s="353"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="345" t="s">
+      <c r="J8" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="346"/>
+      <c r="K8" s="353"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="345" t="s">
+      <c r="M8" s="352" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="346"/>
+      <c r="N8" s="353"/>
       <c r="Q8" s="141"/>
     </row>
     <row r="9" spans="1:18">
@@ -26649,29 +26669,29 @@
       <c r="Q9" s="141"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="336" t="s">
+      <c r="F10" s="343" t="s">
         <v>2824</v>
       </c>
-      <c r="G10" s="337"/>
-      <c r="H10" s="337"/>
-      <c r="I10" s="337"/>
-      <c r="J10" s="337"/>
-      <c r="K10" s="337"/>
-      <c r="L10" s="337"/>
-      <c r="M10" s="337"/>
-      <c r="N10" s="337"/>
+      <c r="G10" s="344"/>
+      <c r="H10" s="344"/>
+      <c r="I10" s="344"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="344"/>
+      <c r="N10" s="344"/>
       <c r="Q10" s="141"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="338"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="339"/>
-      <c r="K11" s="339"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="339"/>
-      <c r="N11" s="339"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="346"/>
+      <c r="H11" s="346"/>
+      <c r="I11" s="346"/>
+      <c r="J11" s="346"/>
+      <c r="K11" s="346"/>
+      <c r="L11" s="346"/>
+      <c r="M11" s="346"/>
+      <c r="N11" s="346"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -26796,7 +26816,9 @@
     <row r="18" spans="1:17">
       <c r="F18" s="139"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="17" t="s">
+        <v>3221</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="16"/>
       <c r="K18" s="18"/>
@@ -26820,9 +26842,10 @@
         <v>21</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="J19" s="16" t="s">
-        <v>3220</v>
-      </c>
+      <c r="H19" t="s">
+        <v>3222</v>
+      </c>
+      <c r="J19" s="16"/>
       <c r="K19" s="18"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -26839,12 +26862,11 @@
       <c r="G20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>1631</v>
-      </c>
+      <c r="H20" s="342" t="s">
+        <v>3220</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="18"/>
@@ -26854,12 +26876,8 @@
       <c r="G21" s="17" t="s">
         <v>2517</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="18">
-        <v>599</v>
-      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="341"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
@@ -27782,8 +27800,11 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="M8:N8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28133,7 +28154,7 @@
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
-      <c r="K21" s="352" t="s">
+      <c r="K21" s="359" t="s">
         <v>2983</v>
       </c>
       <c r="L21" s="50"/>
@@ -28160,7 +28181,7 @@
       <c r="J22" s="50" t="s">
         <v>1092</v>
       </c>
-      <c r="K22" s="353"/>
+      <c r="K22" s="360"/>
       <c r="L22" s="50"/>
       <c r="M22" s="51"/>
     </row>
@@ -28185,7 +28206,7 @@
       <c r="J23" s="53">
         <v>333</v>
       </c>
-      <c r="K23" s="353"/>
+      <c r="K23" s="360"/>
       <c r="L23" s="50"/>
       <c r="M23" s="51"/>
     </row>
@@ -28206,7 +28227,7 @@
       <c r="H24" s="50"/>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="353"/>
+      <c r="K24" s="360"/>
       <c r="L24" s="50"/>
       <c r="M24" s="51"/>
     </row>
@@ -28223,7 +28244,7 @@
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="47"/>
-      <c r="K25" s="353"/>
+      <c r="K25" s="360"/>
       <c r="L25" s="50"/>
       <c r="M25" s="51"/>
     </row>
@@ -28238,7 +28259,7 @@
       <c r="J26" s="50" t="s">
         <v>2970</v>
       </c>
-      <c r="K26" s="353"/>
+      <c r="K26" s="360"/>
       <c r="L26" s="50"/>
       <c r="M26" s="51"/>
     </row>
@@ -28253,7 +28274,7 @@
       <c r="J27" s="53">
         <v>234</v>
       </c>
-      <c r="K27" s="353"/>
+      <c r="K27" s="360"/>
       <c r="L27" s="50"/>
       <c r="M27" s="51"/>
     </row>
@@ -28267,7 +28288,7 @@
       <c r="H28" s="50"/>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="353"/>
+      <c r="K28" s="360"/>
       <c r="L28" s="50"/>
       <c r="M28" s="51"/>
     </row>
@@ -28283,7 +28304,7 @@
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="47"/>
-      <c r="K29" s="353"/>
+      <c r="K29" s="360"/>
       <c r="L29" s="50"/>
       <c r="M29" s="51"/>
     </row>
@@ -28301,7 +28322,7 @@
       <c r="J30" s="50" t="s">
         <v>2971</v>
       </c>
-      <c r="K30" s="353"/>
+      <c r="K30" s="360"/>
       <c r="L30" s="50"/>
       <c r="M30" s="51"/>
     </row>
@@ -28316,7 +28337,7 @@
       <c r="J31" s="53">
         <v>345</v>
       </c>
-      <c r="K31" s="354"/>
+      <c r="K31" s="361"/>
       <c r="L31" s="50"/>
       <c r="M31" s="51"/>
     </row>
@@ -44985,10 +45006,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="355" t="s">
+      <c r="B1" s="362" t="s">
         <v>3190</v>
       </c>
-      <c r="C1" s="355"/>
+      <c r="C1" s="362"/>
       <c r="E1" t="s">
         <v>3191</v>
       </c>
@@ -45083,7 +45104,7 @@
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="356" t="s">
+      <c r="B7" s="336" t="s">
         <v>3192</v>
       </c>
       <c r="F7" s="37"/>
@@ -47352,11 +47373,11 @@
       <c r="B223" t="s">
         <v>1758</v>
       </c>
-      <c r="D223" s="347" t="s">
+      <c r="D223" s="354" t="s">
         <v>47</v>
       </c>
-      <c r="E223" s="349"/>
-      <c r="F223" s="348"/>
+      <c r="E223" s="356"/>
+      <c r="F223" s="355"/>
       <c r="H223" s="32"/>
       <c r="I223" s="33"/>
       <c r="K223" s="32"/>
@@ -47408,19 +47429,19 @@
       <c r="B227" t="s">
         <v>2277</v>
       </c>
-      <c r="D227" s="347" t="s">
+      <c r="D227" s="354" t="s">
         <v>1780</v>
       </c>
-      <c r="E227" s="349"/>
-      <c r="F227" s="348"/>
-      <c r="H227" s="347" t="s">
+      <c r="E227" s="356"/>
+      <c r="F227" s="355"/>
+      <c r="H227" s="354" t="s">
         <v>1783</v>
       </c>
-      <c r="I227" s="348"/>
-      <c r="K227" s="347" t="s">
+      <c r="I227" s="355"/>
+      <c r="K227" s="354" t="s">
         <v>1782</v>
       </c>
-      <c r="L227" s="348"/>
+      <c r="L227" s="355"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="32" t="s">
@@ -47894,18 +47915,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="357" t="s">
+      <c r="B3" s="363" t="s">
         <v>3215</v>
       </c>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="358"/>
-      <c r="I3" s="358"/>
-      <c r="J3" s="358"/>
-      <c r="K3" s="359"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
+      <c r="K3" s="365"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -48020,24 +48041,24 @@
       <c r="L12" s="26"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="360" t="s">
+      <c r="B15" s="366" t="s">
         <v>3216</v>
       </c>
-      <c r="C15" s="361"/>
-      <c r="D15" s="361"/>
-      <c r="E15" s="361"/>
-      <c r="F15" s="361"/>
-      <c r="G15" s="361"/>
-      <c r="H15" s="361"/>
-      <c r="I15" s="361"/>
-      <c r="J15" s="361"/>
-      <c r="K15" s="361"/>
-      <c r="L15" s="361"/>
-      <c r="M15" s="361"/>
-      <c r="N15" s="361"/>
-      <c r="O15" s="361"/>
-      <c r="P15" s="361"/>
-      <c r="Q15" s="361"/>
+      <c r="C15" s="367"/>
+      <c r="D15" s="367"/>
+      <c r="E15" s="367"/>
+      <c r="F15" s="367"/>
+      <c r="G15" s="367"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="367"/>
+      <c r="J15" s="367"/>
+      <c r="K15" s="367"/>
+      <c r="L15" s="367"/>
+      <c r="M15" s="367"/>
+      <c r="N15" s="367"/>
+      <c r="O15" s="367"/>
+      <c r="P15" s="367"/>
+      <c r="Q15" s="367"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -48243,7 +48264,7 @@
     </row>
     <row r="33" spans="2:17" ht="15.75" thickBot="1">
       <c r="B33" s="32"/>
-      <c r="C33" s="365"/>
+      <c r="C33" s="340"/>
       <c r="D33" s="26"/>
       <c r="E33" s="33"/>
       <c r="N33" s="32"/>
@@ -48287,17 +48308,17 @@
     </row>
     <row r="39" spans="2:17" ht="15.75" thickBot="1">
       <c r="D39" s="32"/>
-      <c r="E39" s="362"/>
+      <c r="E39" s="337"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:17" ht="15.75" thickBot="1">
-      <c r="D40" s="363"/>
+      <c r="D40" s="338"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="2:17" ht="15.75" thickBot="1">
       <c r="D41" s="34"/>
-      <c r="E41" s="364"/>
+      <c r="E41" s="339"/>
       <c r="F41" s="36"/>
     </row>
     <row r="43" spans="2:17">
@@ -51450,8 +51471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R411"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51469,23 +51490,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="358" t="s">
         <v>2694</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="I1" s="351" t="s">
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
+      <c r="F1" s="358"/>
+      <c r="I1" s="358" t="s">
         <v>2704</v>
       </c>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
-      <c r="N1" s="351"/>
-      <c r="O1" s="351"/>
+      <c r="J1" s="358"/>
+      <c r="K1" s="358"/>
+      <c r="L1" s="358"/>
+      <c r="M1" s="358"/>
+      <c r="N1" s="358"/>
+      <c r="O1" s="358"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -51635,28 +51656,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="343" t="s">
+      <c r="A12" s="350" t="s">
         <v>2706</v>
       </c>
-      <c r="B12" s="350"/>
-      <c r="C12" s="350"/>
-      <c r="D12" s="350"/>
-      <c r="E12" s="350"/>
-      <c r="F12" s="350"/>
-      <c r="G12" s="350"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="343" t="s">
+      <c r="B12" s="357"/>
+      <c r="C12" s="357"/>
+      <c r="D12" s="357"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="357"/>
+      <c r="G12" s="357"/>
+      <c r="H12" s="351"/>
+      <c r="I12" s="350" t="s">
         <v>2706</v>
       </c>
-      <c r="J12" s="350"/>
-      <c r="K12" s="350"/>
-      <c r="L12" s="350"/>
-      <c r="M12" s="350"/>
-      <c r="N12" s="350"/>
-      <c r="O12" s="350"/>
-      <c r="P12" s="350"/>
-      <c r="Q12" s="350"/>
-      <c r="R12" s="344"/>
+      <c r="J12" s="357"/>
+      <c r="K12" s="357"/>
+      <c r="L12" s="357"/>
+      <c r="M12" s="357"/>
+      <c r="N12" s="357"/>
+      <c r="O12" s="357"/>
+      <c r="P12" s="357"/>
+      <c r="Q12" s="357"/>
+      <c r="R12" s="351"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29" t="s">
@@ -51884,14 +51905,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="351" t="s">
+      <c r="A24" s="358" t="s">
         <v>2694</v>
       </c>
-      <c r="B24" s="351"/>
-      <c r="C24" s="351"/>
-      <c r="D24" s="351"/>
-      <c r="E24" s="351"/>
-      <c r="F24" s="351"/>
+      <c r="B24" s="358"/>
+      <c r="C24" s="358"/>
+      <c r="D24" s="358"/>
+      <c r="E24" s="358"/>
+      <c r="F24" s="358"/>
       <c r="H24" s="262" t="s">
         <v>2704</v>
       </c>
@@ -51901,11 +51922,11 @@
       <c r="L24" s="262"/>
       <c r="M24" s="262"/>
       <c r="N24" s="262"/>
-      <c r="P24" s="351" t="s">
+      <c r="P24" s="358" t="s">
         <v>2742</v>
       </c>
-      <c r="Q24" s="351"/>
-      <c r="R24" s="351"/>
+      <c r="Q24" s="358"/>
+      <c r="R24" s="358"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="105" t="s">
@@ -52145,28 +52166,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="343" t="s">
+      <c r="A35" s="350" t="s">
         <v>2743</v>
       </c>
-      <c r="B35" s="350"/>
-      <c r="C35" s="350"/>
-      <c r="D35" s="350"/>
-      <c r="E35" s="350"/>
-      <c r="F35" s="350"/>
-      <c r="G35" s="350"/>
-      <c r="H35" s="344"/>
-      <c r="I35" s="343" t="s">
+      <c r="B35" s="357"/>
+      <c r="C35" s="357"/>
+      <c r="D35" s="357"/>
+      <c r="E35" s="357"/>
+      <c r="F35" s="357"/>
+      <c r="G35" s="357"/>
+      <c r="H35" s="351"/>
+      <c r="I35" s="350" t="s">
         <v>1070</v>
       </c>
-      <c r="J35" s="350"/>
-      <c r="K35" s="350"/>
-      <c r="L35" s="350"/>
-      <c r="M35" s="350"/>
-      <c r="N35" s="350"/>
-      <c r="O35" s="350"/>
-      <c r="P35" s="350"/>
-      <c r="Q35" s="350"/>
-      <c r="R35" s="344"/>
+      <c r="J35" s="357"/>
+      <c r="K35" s="357"/>
+      <c r="L35" s="357"/>
+      <c r="M35" s="357"/>
+      <c r="N35" s="357"/>
+      <c r="O35" s="357"/>
+      <c r="P35" s="357"/>
+      <c r="Q35" s="357"/>
+      <c r="R35" s="351"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="29" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -11162,6 +11162,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11228,6 +11253,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11260,40 +11294,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -26449,13 +26449,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="361" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="349"/>
-      <c r="J3" s="349"/>
-      <c r="K3" s="349"/>
-      <c r="L3" s="350"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="362"/>
+      <c r="K3" s="362"/>
+      <c r="L3" s="363"/>
       <c r="P3" t="s">
         <v>2645</v>
       </c>
@@ -26498,20 +26498,20 @@
         <v>2642</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="351" t="s">
+      <c r="G6" s="364" t="s">
         <v>2640</v>
       </c>
-      <c r="H6" s="352"/>
+      <c r="H6" s="365"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="351" t="s">
+      <c r="J6" s="364" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="352"/>
+      <c r="K6" s="365"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="351" t="s">
+      <c r="M6" s="364" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="352"/>
+      <c r="N6" s="365"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="122" t="s">
@@ -26532,20 +26532,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="353" t="s">
+      <c r="G8" s="366" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="354"/>
+      <c r="H8" s="367"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="353" t="s">
+      <c r="J8" s="366" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="354"/>
+      <c r="K8" s="367"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="353" t="s">
+      <c r="M8" s="366" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="354"/>
+      <c r="N8" s="367"/>
       <c r="Q8" s="139"/>
     </row>
     <row r="9" spans="1:18">
@@ -26570,17 +26570,17 @@
       <c r="B10" t="s">
         <v>419</v>
       </c>
-      <c r="F10" s="344" t="s">
+      <c r="F10" s="357" t="s">
         <v>3088</v>
       </c>
-      <c r="G10" s="345"/>
-      <c r="H10" s="345"/>
-      <c r="I10" s="345"/>
-      <c r="J10" s="345"/>
-      <c r="K10" s="345"/>
-      <c r="L10" s="345"/>
-      <c r="M10" s="345"/>
-      <c r="N10" s="345"/>
+      <c r="G10" s="358"/>
+      <c r="H10" s="358"/>
+      <c r="I10" s="358"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="358"/>
+      <c r="L10" s="358"/>
+      <c r="M10" s="358"/>
+      <c r="N10" s="358"/>
       <c r="P10" t="s">
         <v>3090</v>
       </c>
@@ -26590,15 +26590,15 @@
       <c r="B11" t="s">
         <v>358</v>
       </c>
-      <c r="F11" s="346"/>
-      <c r="G11" s="347"/>
-      <c r="H11" s="347"/>
-      <c r="I11" s="347"/>
-      <c r="J11" s="347"/>
-      <c r="K11" s="347"/>
-      <c r="L11" s="347"/>
-      <c r="M11" s="347"/>
-      <c r="N11" s="347"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="360"/>
+      <c r="I11" s="360"/>
+      <c r="J11" s="360"/>
+      <c r="K11" s="360"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="360"/>
+      <c r="N11" s="360"/>
       <c r="P11" t="s">
         <v>3091</v>
       </c>
@@ -26852,10 +26852,10 @@
       <c r="C23" t="s">
         <v>3019</v>
       </c>
-      <c r="D23" s="342" t="s">
+      <c r="D23" s="355" t="s">
         <v>1227</v>
       </c>
-      <c r="E23" s="343"/>
+      <c r="E23" s="356"/>
       <c r="F23" s="138"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -28175,7 +28175,7 @@
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="45"/>
-      <c r="K21" s="366" t="s">
+      <c r="K21" s="382" t="s">
         <v>2774</v>
       </c>
       <c r="L21" s="48"/>
@@ -28202,7 +28202,7 @@
       <c r="J22" s="48" t="s">
         <v>1045</v>
       </c>
-      <c r="K22" s="367"/>
+      <c r="K22" s="383"/>
       <c r="L22" s="48"/>
       <c r="M22" s="49"/>
     </row>
@@ -28227,7 +28227,7 @@
       <c r="J23" s="51">
         <v>333</v>
       </c>
-      <c r="K23" s="367"/>
+      <c r="K23" s="383"/>
       <c r="L23" s="48"/>
       <c r="M23" s="49"/>
     </row>
@@ -28248,7 +28248,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
-      <c r="K24" s="367"/>
+      <c r="K24" s="383"/>
       <c r="L24" s="48"/>
       <c r="M24" s="49"/>
     </row>
@@ -28265,7 +28265,7 @@
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="367"/>
+      <c r="K25" s="383"/>
       <c r="L25" s="48"/>
       <c r="M25" s="49"/>
     </row>
@@ -28280,7 +28280,7 @@
       <c r="J26" s="48" t="s">
         <v>2761</v>
       </c>
-      <c r="K26" s="367"/>
+      <c r="K26" s="383"/>
       <c r="L26" s="48"/>
       <c r="M26" s="49"/>
     </row>
@@ -28295,7 +28295,7 @@
       <c r="J27" s="51">
         <v>234</v>
       </c>
-      <c r="K27" s="367"/>
+      <c r="K27" s="383"/>
       <c r="L27" s="48"/>
       <c r="M27" s="49"/>
     </row>
@@ -28309,7 +28309,7 @@
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="367"/>
+      <c r="K28" s="383"/>
       <c r="L28" s="48"/>
       <c r="M28" s="49"/>
     </row>
@@ -28325,7 +28325,7 @@
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="367"/>
+      <c r="K29" s="383"/>
       <c r="L29" s="48"/>
       <c r="M29" s="49"/>
     </row>
@@ -28343,7 +28343,7 @@
       <c r="J30" s="48" t="s">
         <v>2762</v>
       </c>
-      <c r="K30" s="367"/>
+      <c r="K30" s="383"/>
       <c r="L30" s="48"/>
       <c r="M30" s="49"/>
     </row>
@@ -28358,7 +28358,7 @@
       <c r="J31" s="51">
         <v>345</v>
       </c>
-      <c r="K31" s="368"/>
+      <c r="K31" s="384"/>
       <c r="L31" s="48"/>
       <c r="M31" s="49"/>
     </row>
@@ -45027,10 +45027,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="369" t="s">
+      <c r="B1" s="385" t="s">
         <v>2981</v>
       </c>
-      <c r="C1" s="369"/>
+      <c r="C1" s="385"/>
       <c r="E1" t="s">
         <v>2982</v>
       </c>
@@ -47394,11 +47394,11 @@
       <c r="B223" t="s">
         <v>1710</v>
       </c>
-      <c r="D223" s="360" t="s">
+      <c r="D223" s="373" t="s">
         <v>43</v>
       </c>
-      <c r="E223" s="362"/>
-      <c r="F223" s="361"/>
+      <c r="E223" s="375"/>
+      <c r="F223" s="374"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -47450,19 +47450,19 @@
       <c r="B227" t="s">
         <v>2184</v>
       </c>
-      <c r="D227" s="360" t="s">
+      <c r="D227" s="373" t="s">
         <v>1732</v>
       </c>
-      <c r="E227" s="362"/>
-      <c r="F227" s="361"/>
-      <c r="H227" s="360" t="s">
+      <c r="E227" s="375"/>
+      <c r="F227" s="374"/>
+      <c r="H227" s="373" t="s">
         <v>1735</v>
       </c>
-      <c r="I227" s="361"/>
-      <c r="K227" s="360" t="s">
+      <c r="I227" s="374"/>
+      <c r="K227" s="373" t="s">
         <v>1734</v>
       </c>
-      <c r="L227" s="361"/>
+      <c r="L227" s="374"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -47709,7 +47709,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="363" t="s">
+      <c r="D273" s="376" t="s">
         <v>3066</v>
       </c>
       <c r="F273" s="165" t="s">
@@ -47717,22 +47717,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="363"/>
+      <c r="D274" s="376"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="363"/>
+      <c r="D275" s="376"/>
       <c r="F275" t="s">
         <v>3065</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="363"/>
+      <c r="D276" s="376"/>
       <c r="K276" t="s">
         <v>3081</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="363"/>
+      <c r="D277" s="376"/>
       <c r="F277" s="165" t="s">
         <v>2184</v>
       </c>
@@ -47747,7 +47747,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="363"/>
+      <c r="D278" s="376"/>
       <c r="I278" t="s">
         <v>3083</v>
       </c>
@@ -47833,14 +47833,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="356" t="s">
+      <c r="B287" s="369" t="s">
         <v>3076</v>
       </c>
-      <c r="C287" s="355" t="s">
+      <c r="C287" s="368" t="s">
         <v>1726</v>
       </c>
-      <c r="D287" s="355"/>
-      <c r="E287" s="343"/>
+      <c r="D287" s="368"/>
+      <c r="E287" s="356"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -47851,7 +47851,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="344"/>
+      <c r="B288" s="357"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1527</v>
@@ -47862,7 +47862,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="358" t="s">
+      <c r="J288" s="371" t="s">
         <v>3078</v>
       </c>
       <c r="L288" s="31"/>
@@ -47871,7 +47871,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="344"/>
+      <c r="B289" s="357"/>
       <c r="C289" s="25" t="s">
         <v>3071</v>
       </c>
@@ -47883,49 +47883,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="359"/>
+      <c r="J289" s="372"/>
       <c r="L289" s="31" t="s">
         <v>3071</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="358" t="s">
+      <c r="O289" s="371" t="s">
         <v>3077</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="344"/>
+      <c r="B290" s="357"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="357" t="s">
+      <c r="G290" s="370" t="s">
         <v>3079</v>
       </c>
-      <c r="H290" s="355"/>
-      <c r="I290" s="355"/>
-      <c r="J290" s="359"/>
+      <c r="H290" s="368"/>
+      <c r="I290" s="368"/>
+      <c r="J290" s="372"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="359"/>
+      <c r="O290" s="372"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="344"/>
-      <c r="C291" s="355" t="s">
+      <c r="B291" s="357"/>
+      <c r="C291" s="368" t="s">
         <v>3073</v>
       </c>
-      <c r="D291" s="355"/>
-      <c r="E291" s="343"/>
+      <c r="D291" s="368"/>
+      <c r="E291" s="356"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="359"/>
-      <c r="L291" s="357" t="s">
+      <c r="J291" s="372"/>
+      <c r="L291" s="370" t="s">
         <v>3074</v>
       </c>
-      <c r="M291" s="355"/>
-      <c r="N291" s="355"/>
-      <c r="O291" s="359"/>
+      <c r="M291" s="368"/>
+      <c r="N291" s="368"/>
+      <c r="O291" s="372"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -47939,7 +47939,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="359"/>
+      <c r="O292" s="372"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -48279,18 +48279,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="386" t="s">
         <v>3006</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371"/>
-      <c r="G3" s="371"/>
-      <c r="H3" s="371"/>
-      <c r="I3" s="371"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="372"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="387"/>
+      <c r="F3" s="387"/>
+      <c r="G3" s="387"/>
+      <c r="H3" s="387"/>
+      <c r="I3" s="387"/>
+      <c r="J3" s="387"/>
+      <c r="K3" s="388"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -48405,24 +48405,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="373" t="s">
+      <c r="B15" s="389" t="s">
         <v>3007</v>
       </c>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="374"/>
-      <c r="J15" s="374"/>
-      <c r="K15" s="374"/>
-      <c r="L15" s="374"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="374"/>
-      <c r="Q15" s="374"/>
+      <c r="C15" s="390"/>
+      <c r="D15" s="390"/>
+      <c r="E15" s="390"/>
+      <c r="F15" s="390"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="390"/>
+      <c r="I15" s="390"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="390"/>
+      <c r="L15" s="390"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="390"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="390"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -48742,7 +48742,7 @@
       <c r="I2" s="336">
         <v>1</v>
       </c>
-      <c r="J2" s="384">
+      <c r="J2" s="351">
         <v>127</v>
       </c>
     </row>
@@ -48811,19 +48811,19 @@
       <c r="E5" s="127">
         <v>1</v>
       </c>
-      <c r="F5" s="382">
+      <c r="F5" s="349">
         <v>1</v>
       </c>
-      <c r="G5" s="382">
+      <c r="G5" s="349">
         <v>1</v>
       </c>
-      <c r="H5" s="382">
+      <c r="H5" s="349">
         <v>1</v>
       </c>
-      <c r="I5" s="382">
+      <c r="I5" s="349">
         <v>1</v>
       </c>
-      <c r="J5" s="385">
+      <c r="J5" s="352">
         <v>127</v>
       </c>
     </row>
@@ -48895,10 +48895,10 @@
       <c r="K7" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="383" t="s">
+      <c r="L7" s="350" t="s">
         <v>3093</v>
       </c>
-      <c r="M7" s="383" t="s">
+      <c r="M7" s="350" t="s">
         <v>2442</v>
       </c>
     </row>
@@ -48918,10 +48918,10 @@
       <c r="K8" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="L8" s="383" t="s">
+      <c r="L8" s="350" t="s">
         <v>3100</v>
       </c>
-      <c r="M8" s="383" t="s">
+      <c r="M8" s="350" t="s">
         <v>3094</v>
       </c>
     </row>
@@ -48938,10 +48938,10 @@
       <c r="K9" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="L9" s="383" t="s">
+      <c r="L9" s="350" t="s">
         <v>3101</v>
       </c>
-      <c r="M9" s="383" t="s">
+      <c r="M9" s="350" t="s">
         <v>3095</v>
       </c>
     </row>
@@ -48952,10 +48952,10 @@
       <c r="K10" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="L10" s="383" t="s">
+      <c r="L10" s="350" t="s">
         <v>3102</v>
       </c>
-      <c r="M10" s="383" t="s">
+      <c r="M10" s="350" t="s">
         <v>2443</v>
       </c>
     </row>
@@ -48972,8 +48972,8 @@
       <c r="G11" s="25" t="s">
         <v>3114</v>
       </c>
-      <c r="L11" s="383"/>
-      <c r="M11" s="383"/>
+      <c r="L11" s="350"/>
+      <c r="M11" s="350"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="25">
@@ -49001,7 +49001,7 @@
       <c r="B14" s="25" t="s">
         <v>3119</v>
       </c>
-      <c r="E14" s="386" t="s">
+      <c r="E14" s="353" t="s">
         <v>3115</v>
       </c>
       <c r="J14" s="25" t="s">
@@ -49023,7 +49023,7 @@
       <c r="A16" s="25" t="s">
         <v>3111</v>
       </c>
-      <c r="F16" s="383" t="s">
+      <c r="F16" s="350" t="s">
         <v>3099</v>
       </c>
     </row>
@@ -49074,18 +49074,18 @@
       <c r="B233" s="36"/>
     </row>
     <row r="246" spans="3:13">
-      <c r="C246" s="375"/>
-      <c r="D246" s="375"/>
+      <c r="C246" s="342"/>
+      <c r="D246" s="342"/>
     </row>
     <row r="250" spans="3:13">
-      <c r="C250" s="375"/>
-      <c r="D250" s="375"/>
-      <c r="H250" s="375"/>
-      <c r="M250" s="375"/>
+      <c r="C250" s="342"/>
+      <c r="D250" s="342"/>
+      <c r="H250" s="342"/>
+      <c r="M250" s="342"/>
     </row>
     <row r="269" spans="11:11" ht="15" customHeight="1"/>
     <row r="271" spans="11:11">
-      <c r="K271" s="376"/>
+      <c r="K271" s="343"/>
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="36"/>
@@ -49101,7 +49101,7 @@
       <c r="E275" s="36"/>
     </row>
     <row r="278" spans="1:13">
-      <c r="A278" s="377"/>
+      <c r="A278" s="344"/>
     </row>
     <row r="279" spans="1:13">
       <c r="E279" s="341"/>
@@ -49154,12 +49154,12 @@
     </row>
     <row r="298" spans="3:12">
       <c r="D298" s="37"/>
-      <c r="E298" s="378"/>
+      <c r="E298" s="345"/>
       <c r="G298" s="169"/>
     </row>
     <row r="299" spans="3:12">
       <c r="D299" s="37"/>
-      <c r="E299" s="379"/>
+      <c r="E299" s="346"/>
       <c r="G299" s="140"/>
       <c r="H299" s="140"/>
     </row>
@@ -49167,13 +49167,13 @@
       <c r="E300" s="140"/>
     </row>
     <row r="311" spans="1:9" ht="18">
-      <c r="A311" s="380"/>
+      <c r="A311" s="347"/>
     </row>
     <row r="312" spans="1:9" ht="18">
-      <c r="B312" s="380"/>
+      <c r="B312" s="347"/>
     </row>
     <row r="313" spans="1:9" ht="18">
-      <c r="B313" s="381"/>
+      <c r="B313" s="348"/>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="341"/>
@@ -49272,7 +49272,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:J15"/>
+      <selection activeCell="G18" sqref="G18:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49453,7 +49453,7 @@
       <c r="A10" s="36" t="s">
         <v>3122</v>
       </c>
-      <c r="G10" s="388" t="s">
+      <c r="G10" s="377" t="s">
         <v>3151</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -49463,7 +49463,7 @@
         <v>54</v>
       </c>
       <c r="J10" s="72"/>
-      <c r="L10" s="388" t="s">
+      <c r="L10" s="377" t="s">
         <v>3151</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -49475,7 +49475,7 @@
       <c r="O10" s="72"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="388"/>
+      <c r="G11" s="377"/>
       <c r="H11" s="36" t="s">
         <v>3137</v>
       </c>
@@ -49483,7 +49483,7 @@
         <v>136</v>
       </c>
       <c r="J11" s="72"/>
-      <c r="L11" s="388"/>
+      <c r="L11" s="377"/>
       <c r="M11" s="36" t="s">
         <v>135</v>
       </c>
@@ -49496,7 +49496,7 @@
       <c r="B12" s="36" t="s">
         <v>3123</v>
       </c>
-      <c r="G12" s="388"/>
+      <c r="G12" s="377"/>
       <c r="H12" s="36" t="s">
         <v>3145</v>
       </c>
@@ -49504,7 +49504,7 @@
         <v>2436</v>
       </c>
       <c r="J12" s="72"/>
-      <c r="L12" s="388"/>
+      <c r="L12" s="377"/>
       <c r="M12" s="36" t="s">
         <v>137</v>
       </c>
@@ -49517,7 +49517,7 @@
       <c r="C13" s="36" t="s">
         <v>3124</v>
       </c>
-      <c r="G13" s="388"/>
+      <c r="G13" s="377"/>
       <c r="H13" s="36" t="s">
         <v>141</v>
       </c>
@@ -49525,7 +49525,7 @@
         <v>3141</v>
       </c>
       <c r="J13" s="72"/>
-      <c r="L13" s="388"/>
+      <c r="L13" s="377"/>
       <c r="M13" s="36" t="s">
         <v>3137</v>
       </c>
@@ -49535,13 +49535,13 @@
       <c r="O13" s="72"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="C14" s="387"/>
+      <c r="C14" s="354"/>
       <c r="D14" s="36" t="s">
         <v>3125</v>
       </c>
       <c r="G14" s="81"/>
       <c r="J14" s="72"/>
-      <c r="L14" s="388"/>
+      <c r="L14" s="377"/>
       <c r="M14" s="36" t="s">
         <v>137</v>
       </c>
@@ -49584,7 +49584,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="80"/>
-      <c r="L17" s="390" t="s">
+      <c r="L17" s="379" t="s">
         <v>3152</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -49595,7 +49595,7 @@
       <c r="D18" s="36" t="s">
         <v>3128</v>
       </c>
-      <c r="G18" s="388" t="s">
+      <c r="G18" s="377" t="s">
         <v>3153</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -49605,7 +49605,7 @@
         <v>54</v>
       </c>
       <c r="J18" s="72"/>
-      <c r="L18" s="390"/>
+      <c r="L18" s="379"/>
       <c r="M18" s="36" t="s">
         <v>3155</v>
       </c>
@@ -49614,7 +49614,7 @@
       <c r="C19" s="36" t="s">
         <v>3129</v>
       </c>
-      <c r="G19" s="388"/>
+      <c r="G19" s="377"/>
       <c r="H19" s="36" t="s">
         <v>141</v>
       </c>
@@ -49627,7 +49627,7 @@
       <c r="D20" s="36" t="s">
         <v>2441</v>
       </c>
-      <c r="G20" s="388"/>
+      <c r="G20" s="377"/>
       <c r="H20" s="36" t="s">
         <v>135</v>
       </c>
@@ -49635,12 +49635,12 @@
         <v>3142</v>
       </c>
       <c r="J20" s="72"/>
-      <c r="K20" s="387">
+      <c r="K20" s="354">
         <v>44617</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="389"/>
+      <c r="G21" s="378"/>
       <c r="H21" s="83" t="s">
         <v>140</v>
       </c>
@@ -49682,7 +49682,7 @@
       <c r="D26" s="36" t="s">
         <v>3134</v>
       </c>
-      <c r="O26" s="387"/>
+      <c r="O26" s="354"/>
     </row>
     <row r="27" spans="2:15">
       <c r="E27" s="36" t="s">
@@ -50421,23 +50421,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="381" t="s">
         <v>2520</v>
       </c>
-      <c r="B1" s="365"/>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="I1" s="365" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="I1" s="381" t="s">
         <v>2530</v>
       </c>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
-      <c r="N1" s="365"/>
-      <c r="O1" s="365"/>
+      <c r="J1" s="381"/>
+      <c r="K1" s="381"/>
+      <c r="L1" s="381"/>
+      <c r="M1" s="381"/>
+      <c r="N1" s="381"/>
+      <c r="O1" s="381"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -50587,28 +50587,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="351" t="s">
+      <c r="A12" s="364" t="s">
         <v>2532</v>
       </c>
-      <c r="B12" s="364"/>
-      <c r="C12" s="364"/>
-      <c r="D12" s="364"/>
-      <c r="E12" s="364"/>
-      <c r="F12" s="364"/>
-      <c r="G12" s="364"/>
-      <c r="H12" s="352"/>
-      <c r="I12" s="351" t="s">
+      <c r="B12" s="380"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="380"/>
+      <c r="E12" s="380"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="380"/>
+      <c r="H12" s="365"/>
+      <c r="I12" s="364" t="s">
         <v>2532</v>
       </c>
-      <c r="J12" s="364"/>
-      <c r="K12" s="364"/>
-      <c r="L12" s="364"/>
-      <c r="M12" s="364"/>
-      <c r="N12" s="364"/>
-      <c r="O12" s="364"/>
-      <c r="P12" s="364"/>
-      <c r="Q12" s="364"/>
-      <c r="R12" s="352"/>
+      <c r="J12" s="380"/>
+      <c r="K12" s="380"/>
+      <c r="L12" s="380"/>
+      <c r="M12" s="380"/>
+      <c r="N12" s="380"/>
+      <c r="O12" s="380"/>
+      <c r="P12" s="380"/>
+      <c r="Q12" s="380"/>
+      <c r="R12" s="365"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -50836,14 +50836,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="365" t="s">
+      <c r="A24" s="381" t="s">
         <v>2520</v>
       </c>
-      <c r="B24" s="365"/>
-      <c r="C24" s="365"/>
-      <c r="D24" s="365"/>
-      <c r="E24" s="365"/>
-      <c r="F24" s="365"/>
+      <c r="B24" s="381"/>
+      <c r="C24" s="381"/>
+      <c r="D24" s="381"/>
+      <c r="E24" s="381"/>
+      <c r="F24" s="381"/>
       <c r="H24" s="257" t="s">
         <v>2530</v>
       </c>
@@ -50853,11 +50853,11 @@
       <c r="L24" s="257"/>
       <c r="M24" s="257"/>
       <c r="N24" s="257"/>
-      <c r="P24" s="365" t="s">
+      <c r="P24" s="381" t="s">
         <v>2568</v>
       </c>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="365"/>
+      <c r="Q24" s="381"/>
+      <c r="R24" s="381"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="103" t="s">
@@ -51097,28 +51097,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="351" t="s">
+      <c r="A35" s="364" t="s">
         <v>2569</v>
       </c>
-      <c r="B35" s="364"/>
-      <c r="C35" s="364"/>
-      <c r="D35" s="364"/>
-      <c r="E35" s="364"/>
-      <c r="F35" s="364"/>
-      <c r="G35" s="364"/>
-      <c r="H35" s="352"/>
-      <c r="I35" s="351" t="s">
+      <c r="B35" s="380"/>
+      <c r="C35" s="380"/>
+      <c r="D35" s="380"/>
+      <c r="E35" s="380"/>
+      <c r="F35" s="380"/>
+      <c r="G35" s="380"/>
+      <c r="H35" s="365"/>
+      <c r="I35" s="364" t="s">
         <v>1023</v>
       </c>
-      <c r="J35" s="364"/>
-      <c r="K35" s="364"/>
-      <c r="L35" s="364"/>
-      <c r="M35" s="364"/>
-      <c r="N35" s="364"/>
-      <c r="O35" s="364"/>
-      <c r="P35" s="364"/>
-      <c r="Q35" s="364"/>
-      <c r="R35" s="352"/>
+      <c r="J35" s="380"/>
+      <c r="K35" s="380"/>
+      <c r="L35" s="380"/>
+      <c r="M35" s="380"/>
+      <c r="N35" s="380"/>
+      <c r="O35" s="380"/>
+      <c r="P35" s="380"/>
+      <c r="Q35" s="380"/>
+      <c r="R35" s="365"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5986" uniqueCount="3156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5997" uniqueCount="3163">
   <si>
     <t>USER</t>
   </si>
@@ -9821,6 +9821,27 @@
   </si>
   <si>
     <t>work</t>
+  </si>
+  <si>
+    <t>1)Communication</t>
+  </si>
+  <si>
+    <t>credit card details</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>3) cook food</t>
+  </si>
+  <si>
+    <t>pizza,salad</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt; address &gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -26404,8 +26425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD165"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:N33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49272,7 +49293,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G21"/>
+      <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49283,7 +49304,9 @@
     <col min="4" max="6" width="9.140625" style="36"/>
     <col min="7" max="7" width="12.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="36" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="36"/>
+    <col min="9" max="10" width="9.140625" style="36"/>
+    <col min="11" max="11" width="16.42578125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="36"/>
     <col min="13" max="13" width="16.85546875" style="36" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="36"/>
   </cols>
@@ -49431,7 +49454,14 @@
       <c r="N7" s="83"/>
       <c r="O7" s="84"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+      <c r="L8" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3159</v>
+      </c>
+    </row>
     <row r="9" spans="1:15">
       <c r="A9" s="36" t="s">
         <v>3121</v>
@@ -49442,6 +49472,9 @@
       <c r="H9" s="79"/>
       <c r="I9" s="79"/>
       <c r="J9" s="80"/>
+      <c r="K9" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="L9" s="78" t="s">
         <v>3146</v>
       </c>
@@ -49463,6 +49496,9 @@
         <v>54</v>
       </c>
       <c r="J10" s="72"/>
+      <c r="K10" s="36" t="s">
+        <v>3158</v>
+      </c>
       <c r="L10" s="377" t="s">
         <v>3151</v>
       </c>
@@ -49483,6 +49519,9 @@
         <v>136</v>
       </c>
       <c r="J11" s="72"/>
+      <c r="K11" s="36" t="s">
+        <v>3160</v>
+      </c>
       <c r="L11" s="377"/>
       <c r="M11" s="36" t="s">
         <v>135</v>
@@ -49504,6 +49543,9 @@
         <v>2436</v>
       </c>
       <c r="J12" s="72"/>
+      <c r="K12" s="36" t="s">
+        <v>3161</v>
+      </c>
       <c r="L12" s="377"/>
       <c r="M12" s="36" t="s">
         <v>137</v>
@@ -49525,6 +49567,9 @@
         <v>3141</v>
       </c>
       <c r="J13" s="72"/>
+      <c r="K13" s="36" t="s">
+        <v>3162</v>
+      </c>
       <c r="L13" s="377"/>
       <c r="M13" s="36" t="s">
         <v>3137</v>
@@ -49541,6 +49586,9 @@
       </c>
       <c r="G14" s="81"/>
       <c r="J14" s="72"/>
+      <c r="K14" s="36" t="s">
+        <v>3156</v>
+      </c>
       <c r="L14" s="377"/>
       <c r="M14" s="36" t="s">
         <v>137</v>
@@ -49564,6 +49612,9 @@
         <v>3150</v>
       </c>
       <c r="J15" s="84"/>
+      <c r="K15" s="36" t="s">
+        <v>2683</v>
+      </c>
       <c r="L15" s="82"/>
       <c r="M15" s="83"/>
       <c r="N15" s="83"/>
@@ -49572,6 +49623,9 @@
     <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="D16" s="36" t="s">
         <v>2669</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>3157</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -49671,6 +49725,9 @@
     <row r="24" spans="2:15">
       <c r="D24" s="36" t="s">
         <v>3132</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>2570</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -50403,7 +50460,7 @@
   <dimension ref="A1:R411"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -11023,6 +11023,17 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11062,18 +11073,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11087,6 +11086,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11131,17 +11142,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13982,7 +13982,7 @@
       <c r="F6" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="M6" s="393"/>
+      <c r="M6" s="357"/>
     </row>
     <row r="7" spans="1:13">
       <c r="C7" s="36" t="s">
@@ -14033,7 +14033,7 @@
         <v>3081</v>
       </c>
       <c r="E10" s="81"/>
-      <c r="F10" s="394" t="s">
+      <c r="F10" s="358" t="s">
         <v>3031</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -14048,7 +14048,7 @@
       <c r="E11" s="81" t="s">
         <v>3043</v>
       </c>
-      <c r="F11" s="398" t="s">
+      <c r="F11" s="362" t="s">
         <v>359</v>
       </c>
       <c r="H11" s="36" t="s">
@@ -14063,7 +14063,7 @@
       <c r="E12" s="81" t="s">
         <v>3044</v>
       </c>
-      <c r="F12" s="392" t="s">
+      <c r="F12" s="356" t="s">
         <v>3038</v>
       </c>
       <c r="H12" s="36" t="s">
@@ -14140,8 +14140,8 @@
         <v>3032</v>
       </c>
       <c r="B20" s="79"/>
-      <c r="C20" s="395"/>
-      <c r="D20" s="395"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
       <c r="E20" s="80"/>
       <c r="G20" s="78" t="s">
         <v>941</v>
@@ -14155,15 +14155,15 @@
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="81"/>
       <c r="C21" s="170"/>
-      <c r="D21" s="397" t="s">
+      <c r="D21" s="361" t="s">
         <v>3040</v>
       </c>
       <c r="E21" s="72"/>
       <c r="G21" s="81"/>
-      <c r="H21" s="396" t="s">
+      <c r="H21" s="360" t="s">
         <v>3037</v>
       </c>
-      <c r="K21" s="396" t="s">
+      <c r="K21" s="360" t="s">
         <v>354</v>
       </c>
       <c r="L21" s="72"/>
@@ -14179,7 +14179,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="81"/>
-      <c r="B23" s="396" t="s">
+      <c r="B23" s="360" t="s">
         <v>3033</v>
       </c>
       <c r="E23" s="72"/>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="E24" s="72"/>
       <c r="G24" s="81"/>
-      <c r="H24" s="396" t="s">
+      <c r="H24" s="360" t="s">
         <v>1714</v>
       </c>
       <c r="L24" s="72"/>
@@ -14214,14 +14214,14 @@
       <c r="E27" s="223"/>
       <c r="F27" s="71"/>
       <c r="G27" s="81"/>
-      <c r="J27" s="396" t="s">
+      <c r="J27" s="360" t="s">
         <v>395</v>
       </c>
       <c r="L27" s="72"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="81"/>
-      <c r="D28" s="396" t="s">
+      <c r="D28" s="360" t="s">
         <v>3034</v>
       </c>
       <c r="E28" s="223"/>
@@ -14237,7 +14237,7 @@
       <c r="E29" s="223"/>
       <c r="F29" s="71"/>
       <c r="G29" s="81"/>
-      <c r="L29" s="393"/>
+      <c r="L29" s="357"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="81"/>
@@ -14368,7 +14368,7 @@
       <c r="H41" s="36" t="s">
         <v>3078</v>
       </c>
-      <c r="M41" s="393"/>
+      <c r="M41" s="357"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="36" t="s">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="E44" s="247"/>
       <c r="F44" s="71"/>
-      <c r="G44" s="398" t="s">
+      <c r="G44" s="362" t="s">
         <v>3058</v>
       </c>
       <c r="M44" s="72"/>
@@ -14409,7 +14409,7 @@
         <v>3025</v>
       </c>
       <c r="E45" s="81"/>
-      <c r="F45" s="394"/>
+      <c r="F45" s="358"/>
       <c r="G45" s="36" t="s">
         <v>359</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>291</v>
       </c>
       <c r="E46" s="81"/>
-      <c r="F46" s="398"/>
+      <c r="F46" s="362"/>
       <c r="G46" s="36" t="s">
         <v>3038</v>
       </c>
@@ -14439,7 +14439,7 @@
       <c r="E47" s="81" t="s">
         <v>3066</v>
       </c>
-      <c r="F47" s="392"/>
+      <c r="F47" s="356"/>
       <c r="M47" s="72"/>
     </row>
     <row r="48" spans="1:13">
@@ -14580,15 +14580,15 @@
       <c r="E58" s="170"/>
       <c r="F58" s="170"/>
       <c r="G58" s="170"/>
-      <c r="K58" s="390"/>
+      <c r="K58" s="354"/>
       <c r="L58" s="170"/>
       <c r="M58" s="170"/>
-      <c r="N58" s="391"/>
+      <c r="N58" s="355"/>
     </row>
     <row r="59" spans="1:14">
       <c r="E59" s="170"/>
       <c r="F59" s="170"/>
-      <c r="G59" s="391"/>
+      <c r="G59" s="355"/>
       <c r="L59" s="170"/>
       <c r="M59" s="170"/>
       <c r="N59" s="170"/>
@@ -14645,14 +14645,14 @@
       <c r="B64" s="170"/>
       <c r="E64" s="170"/>
       <c r="F64" s="170"/>
-      <c r="G64" s="391"/>
+      <c r="G64" s="355"/>
       <c r="H64" s="170"/>
       <c r="I64" s="170"/>
       <c r="J64" s="170"/>
-      <c r="K64" s="391"/>
+      <c r="K64" s="355"/>
       <c r="L64" s="170"/>
       <c r="M64" s="170"/>
-      <c r="N64" s="391"/>
+      <c r="N64" s="355"/>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="170"/>
@@ -14794,7 +14794,7 @@
       <c r="L238" s="71"/>
       <c r="M238" s="71"/>
       <c r="N238" s="71"/>
-      <c r="O238" s="392"/>
+      <c r="O238" s="356"/>
       <c r="P238" s="71"/>
       <c r="Q238" s="71"/>
       <c r="R238" s="71"/>
@@ -15088,7 +15088,7 @@
       <c r="L268" s="71"/>
       <c r="M268" s="71"/>
       <c r="N268" s="71"/>
-      <c r="O268" s="392"/>
+      <c r="O268" s="356"/>
       <c r="P268" s="71"/>
       <c r="Q268" s="71"/>
       <c r="R268" s="71"/>
@@ -24138,13 +24138,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="369" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="361"/>
-      <c r="J3" s="361"/>
-      <c r="K3" s="361"/>
-      <c r="L3" s="362"/>
+      <c r="I3" s="370"/>
+      <c r="J3" s="370"/>
+      <c r="K3" s="370"/>
+      <c r="L3" s="371"/>
       <c r="P3" t="s">
         <v>2530</v>
       </c>
@@ -24187,20 +24187,20 @@
         <v>2527</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="363" t="s">
+      <c r="G6" s="372" t="s">
         <v>2525</v>
       </c>
-      <c r="H6" s="364"/>
+      <c r="H6" s="373"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="363" t="s">
+      <c r="J6" s="372" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="364"/>
+      <c r="K6" s="373"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="363" t="s">
+      <c r="M6" s="372" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="364"/>
+      <c r="N6" s="373"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="122" t="s">
@@ -24221,20 +24221,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="365" t="s">
+      <c r="G8" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="366"/>
+      <c r="H8" s="375"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="365" t="s">
+      <c r="J8" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="366"/>
+      <c r="K8" s="375"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="365" t="s">
+      <c r="M8" s="374" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="366"/>
+      <c r="N8" s="375"/>
       <c r="Q8" s="139"/>
     </row>
     <row r="9" spans="1:18">
@@ -24259,17 +24259,17 @@
       <c r="B10" t="s">
         <v>367</v>
       </c>
-      <c r="F10" s="356" t="s">
+      <c r="F10" s="365" t="s">
         <v>2946</v>
       </c>
-      <c r="G10" s="357"/>
-      <c r="H10" s="357"/>
-      <c r="I10" s="357"/>
-      <c r="J10" s="357"/>
-      <c r="K10" s="357"/>
-      <c r="L10" s="357"/>
-      <c r="M10" s="357"/>
-      <c r="N10" s="357"/>
+      <c r="G10" s="366"/>
+      <c r="H10" s="366"/>
+      <c r="I10" s="366"/>
+      <c r="J10" s="366"/>
+      <c r="K10" s="366"/>
+      <c r="L10" s="366"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="366"/>
       <c r="P10" t="s">
         <v>2948</v>
       </c>
@@ -24279,15 +24279,15 @@
       <c r="B11" t="s">
         <v>353</v>
       </c>
-      <c r="F11" s="358"/>
-      <c r="G11" s="359"/>
-      <c r="H11" s="359"/>
-      <c r="I11" s="359"/>
-      <c r="J11" s="359"/>
-      <c r="K11" s="359"/>
-      <c r="L11" s="359"/>
-      <c r="M11" s="359"/>
-      <c r="N11" s="359"/>
+      <c r="F11" s="367"/>
+      <c r="G11" s="368"/>
+      <c r="H11" s="368"/>
+      <c r="I11" s="368"/>
+      <c r="J11" s="368"/>
+      <c r="K11" s="368"/>
+      <c r="L11" s="368"/>
+      <c r="M11" s="368"/>
+      <c r="N11" s="368"/>
       <c r="P11" t="s">
         <v>2949</v>
       </c>
@@ -24541,10 +24541,10 @@
       <c r="C23" t="s">
         <v>2877</v>
       </c>
-      <c r="D23" s="354" t="s">
+      <c r="D23" s="363" t="s">
         <v>1145</v>
       </c>
-      <c r="E23" s="355"/>
+      <c r="E23" s="364"/>
       <c r="F23" s="138"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -25864,7 +25864,7 @@
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="45"/>
-      <c r="K21" s="381" t="s">
+      <c r="K21" s="390" t="s">
         <v>2632</v>
       </c>
       <c r="L21" s="48"/>
@@ -25891,7 +25891,7 @@
       <c r="J22" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="K22" s="382"/>
+      <c r="K22" s="391"/>
       <c r="L22" s="48"/>
       <c r="M22" s="49"/>
     </row>
@@ -25916,7 +25916,7 @@
       <c r="J23" s="51">
         <v>333</v>
       </c>
-      <c r="K23" s="382"/>
+      <c r="K23" s="391"/>
       <c r="L23" s="48"/>
       <c r="M23" s="49"/>
     </row>
@@ -25937,7 +25937,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
-      <c r="K24" s="382"/>
+      <c r="K24" s="391"/>
       <c r="L24" s="48"/>
       <c r="M24" s="49"/>
     </row>
@@ -25954,7 +25954,7 @@
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="382"/>
+      <c r="K25" s="391"/>
       <c r="L25" s="48"/>
       <c r="M25" s="49"/>
     </row>
@@ -25969,7 +25969,7 @@
       <c r="J26" s="48" t="s">
         <v>2619</v>
       </c>
-      <c r="K26" s="382"/>
+      <c r="K26" s="391"/>
       <c r="L26" s="48"/>
       <c r="M26" s="49"/>
     </row>
@@ -25984,7 +25984,7 @@
       <c r="J27" s="51">
         <v>234</v>
       </c>
-      <c r="K27" s="382"/>
+      <c r="K27" s="391"/>
       <c r="L27" s="48"/>
       <c r="M27" s="49"/>
     </row>
@@ -25998,7 +25998,7 @@
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="382"/>
+      <c r="K28" s="391"/>
       <c r="L28" s="48"/>
       <c r="M28" s="49"/>
     </row>
@@ -26014,7 +26014,7 @@
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="382"/>
+      <c r="K29" s="391"/>
       <c r="L29" s="48"/>
       <c r="M29" s="49"/>
     </row>
@@ -26032,7 +26032,7 @@
       <c r="J30" s="48" t="s">
         <v>2620</v>
       </c>
-      <c r="K30" s="382"/>
+      <c r="K30" s="391"/>
       <c r="L30" s="48"/>
       <c r="M30" s="49"/>
     </row>
@@ -26047,7 +26047,7 @@
       <c r="J31" s="51">
         <v>345</v>
       </c>
-      <c r="K31" s="383"/>
+      <c r="K31" s="392"/>
       <c r="L31" s="48"/>
       <c r="M31" s="49"/>
     </row>
@@ -42716,10 +42716,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="384" t="s">
+      <c r="B1" s="393" t="s">
         <v>2839</v>
       </c>
-      <c r="C1" s="384"/>
+      <c r="C1" s="393"/>
       <c r="E1" t="s">
         <v>2840</v>
       </c>
@@ -45083,11 +45083,11 @@
       <c r="B223" t="s">
         <v>1606</v>
       </c>
-      <c r="D223" s="367" t="s">
+      <c r="D223" s="381" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="369"/>
-      <c r="F223" s="368"/>
+      <c r="E223" s="383"/>
+      <c r="F223" s="382"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -45139,19 +45139,19 @@
       <c r="B227" t="s">
         <v>2080</v>
       </c>
-      <c r="D227" s="367" t="s">
+      <c r="D227" s="381" t="s">
         <v>1628</v>
       </c>
-      <c r="E227" s="369"/>
-      <c r="F227" s="368"/>
-      <c r="H227" s="367" t="s">
+      <c r="E227" s="383"/>
+      <c r="F227" s="382"/>
+      <c r="H227" s="381" t="s">
         <v>1631</v>
       </c>
-      <c r="I227" s="368"/>
-      <c r="K227" s="367" t="s">
+      <c r="I227" s="382"/>
+      <c r="K227" s="381" t="s">
         <v>1630</v>
       </c>
-      <c r="L227" s="368"/>
+      <c r="L227" s="382"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -45398,7 +45398,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="370" t="s">
+      <c r="D273" s="384" t="s">
         <v>2924</v>
       </c>
       <c r="F273" s="165" t="s">
@@ -45406,22 +45406,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="370"/>
+      <c r="D274" s="384"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="370"/>
+      <c r="D275" s="384"/>
       <c r="F275" t="s">
         <v>2923</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="370"/>
+      <c r="D276" s="384"/>
       <c r="K276" t="s">
         <v>2939</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="370"/>
+      <c r="D277" s="384"/>
       <c r="F277" s="165" t="s">
         <v>2080</v>
       </c>
@@ -45436,7 +45436,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="370"/>
+      <c r="D278" s="384"/>
       <c r="I278" t="s">
         <v>2941</v>
       </c>
@@ -45522,14 +45522,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="372" t="s">
+      <c r="B287" s="377" t="s">
         <v>2934</v>
       </c>
-      <c r="C287" s="371" t="s">
+      <c r="C287" s="376" t="s">
         <v>1622</v>
       </c>
-      <c r="D287" s="371"/>
-      <c r="E287" s="355"/>
+      <c r="D287" s="376"/>
+      <c r="E287" s="364"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -45540,7 +45540,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="356"/>
+      <c r="B288" s="365"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1445</v>
@@ -45551,7 +45551,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="374" t="s">
+      <c r="J288" s="379" t="s">
         <v>2936</v>
       </c>
       <c r="L288" s="31"/>
@@ -45560,7 +45560,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="356"/>
+      <c r="B289" s="365"/>
       <c r="C289" s="25" t="s">
         <v>2929</v>
       </c>
@@ -45572,49 +45572,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="375"/>
+      <c r="J289" s="380"/>
       <c r="L289" s="31" t="s">
         <v>2929</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="374" t="s">
+      <c r="O289" s="379" t="s">
         <v>2935</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="356"/>
+      <c r="B290" s="365"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="373" t="s">
+      <c r="G290" s="378" t="s">
         <v>2937</v>
       </c>
-      <c r="H290" s="371"/>
-      <c r="I290" s="371"/>
-      <c r="J290" s="375"/>
+      <c r="H290" s="376"/>
+      <c r="I290" s="376"/>
+      <c r="J290" s="380"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="375"/>
+      <c r="O290" s="380"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="356"/>
-      <c r="C291" s="371" t="s">
+      <c r="B291" s="365"/>
+      <c r="C291" s="376" t="s">
         <v>2931</v>
       </c>
-      <c r="D291" s="371"/>
-      <c r="E291" s="355"/>
+      <c r="D291" s="376"/>
+      <c r="E291" s="364"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="375"/>
-      <c r="L291" s="373" t="s">
+      <c r="J291" s="380"/>
+      <c r="L291" s="378" t="s">
         <v>2932</v>
       </c>
-      <c r="M291" s="371"/>
-      <c r="N291" s="371"/>
-      <c r="O291" s="375"/>
+      <c r="M291" s="376"/>
+      <c r="N291" s="376"/>
+      <c r="O291" s="380"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -45628,7 +45628,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="375"/>
+      <c r="O292" s="380"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -45725,6 +45725,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -45732,11 +45737,6 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45968,18 +45968,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="385" t="s">
+      <c r="B3" s="394" t="s">
         <v>2864</v>
       </c>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="387"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="396"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -46094,24 +46094,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="388" t="s">
+      <c r="B15" s="397" t="s">
         <v>2865</v>
       </c>
-      <c r="C15" s="389"/>
-      <c r="D15" s="389"/>
-      <c r="E15" s="389"/>
-      <c r="F15" s="389"/>
-      <c r="G15" s="389"/>
-      <c r="H15" s="389"/>
-      <c r="I15" s="389"/>
-      <c r="J15" s="389"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="389"/>
-      <c r="M15" s="389"/>
-      <c r="N15" s="389"/>
-      <c r="O15" s="389"/>
-      <c r="P15" s="389"/>
-      <c r="Q15" s="389"/>
+      <c r="C15" s="398"/>
+      <c r="D15" s="398"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="398"/>
+      <c r="H15" s="398"/>
+      <c r="I15" s="398"/>
+      <c r="J15" s="398"/>
+      <c r="K15" s="398"/>
+      <c r="L15" s="398"/>
+      <c r="M15" s="398"/>
+      <c r="N15" s="398"/>
+      <c r="O15" s="398"/>
+      <c r="P15" s="398"/>
+      <c r="Q15" s="398"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -47154,7 +47154,7 @@
       <c r="A10" s="36" t="s">
         <v>2980</v>
       </c>
-      <c r="G10" s="376" t="s">
+      <c r="G10" s="385" t="s">
         <v>3009</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -47167,7 +47167,7 @@
       <c r="K10" s="36" t="s">
         <v>3016</v>
       </c>
-      <c r="L10" s="376" t="s">
+      <c r="L10" s="385" t="s">
         <v>3009</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -47179,7 +47179,7 @@
       <c r="O10" s="72"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="376"/>
+      <c r="G11" s="385"/>
       <c r="H11" s="36" t="s">
         <v>2995</v>
       </c>
@@ -47190,7 +47190,7 @@
       <c r="K11" s="36" t="s">
         <v>3018</v>
       </c>
-      <c r="L11" s="376"/>
+      <c r="L11" s="385"/>
       <c r="M11" s="36" t="s">
         <v>134</v>
       </c>
@@ -47203,7 +47203,7 @@
       <c r="B12" s="36" t="s">
         <v>2981</v>
       </c>
-      <c r="G12" s="376"/>
+      <c r="G12" s="385"/>
       <c r="H12" s="36" t="s">
         <v>3003</v>
       </c>
@@ -47214,7 +47214,7 @@
       <c r="K12" s="36" t="s">
         <v>3019</v>
       </c>
-      <c r="L12" s="376"/>
+      <c r="L12" s="385"/>
       <c r="M12" s="36" t="s">
         <v>136</v>
       </c>
@@ -47227,7 +47227,7 @@
       <c r="C13" s="36" t="s">
         <v>2982</v>
       </c>
-      <c r="G13" s="376"/>
+      <c r="G13" s="385"/>
       <c r="H13" s="36" t="s">
         <v>140</v>
       </c>
@@ -47238,7 +47238,7 @@
       <c r="K13" s="36" t="s">
         <v>3020</v>
       </c>
-      <c r="L13" s="376"/>
+      <c r="L13" s="385"/>
       <c r="M13" s="36" t="s">
         <v>2995</v>
       </c>
@@ -47257,7 +47257,7 @@
       <c r="K14" s="36" t="s">
         <v>3014</v>
       </c>
-      <c r="L14" s="376"/>
+      <c r="L14" s="385"/>
       <c r="M14" s="36" t="s">
         <v>136</v>
       </c>
@@ -47306,7 +47306,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="80"/>
-      <c r="L17" s="378" t="s">
+      <c r="L17" s="387" t="s">
         <v>3010</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -47317,7 +47317,7 @@
       <c r="D18" s="36" t="s">
         <v>2986</v>
       </c>
-      <c r="G18" s="376" t="s">
+      <c r="G18" s="385" t="s">
         <v>3011</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -47327,7 +47327,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="72"/>
-      <c r="L18" s="378"/>
+      <c r="L18" s="387"/>
       <c r="M18" s="36" t="s">
         <v>3013</v>
       </c>
@@ -47336,7 +47336,7 @@
       <c r="C19" s="36" t="s">
         <v>2987</v>
       </c>
-      <c r="G19" s="376"/>
+      <c r="G19" s="385"/>
       <c r="H19" s="36" t="s">
         <v>140</v>
       </c>
@@ -47349,7 +47349,7 @@
       <c r="D20" s="36" t="s">
         <v>2337</v>
       </c>
-      <c r="G20" s="376"/>
+      <c r="G20" s="385"/>
       <c r="H20" s="36" t="s">
         <v>134</v>
       </c>
@@ -47362,7 +47362,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="377"/>
+      <c r="G21" s="386"/>
       <c r="H21" s="83" t="s">
         <v>139</v>
       </c>
@@ -48146,23 +48146,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="389" t="s">
         <v>2416</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="I1" s="380" t="s">
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="I1" s="389" t="s">
         <v>2426</v>
       </c>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
-      <c r="O1" s="380"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="389"/>
+      <c r="O1" s="389"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -48312,28 +48312,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="363" t="s">
+      <c r="A12" s="372" t="s">
         <v>2428</v>
       </c>
-      <c r="B12" s="379"/>
-      <c r="C12" s="379"/>
-      <c r="D12" s="379"/>
-      <c r="E12" s="379"/>
-      <c r="F12" s="379"/>
-      <c r="G12" s="379"/>
-      <c r="H12" s="364"/>
-      <c r="I12" s="363" t="s">
+      <c r="B12" s="388"/>
+      <c r="C12" s="388"/>
+      <c r="D12" s="388"/>
+      <c r="E12" s="388"/>
+      <c r="F12" s="388"/>
+      <c r="G12" s="388"/>
+      <c r="H12" s="373"/>
+      <c r="I12" s="372" t="s">
         <v>2428</v>
       </c>
-      <c r="J12" s="379"/>
-      <c r="K12" s="379"/>
-      <c r="L12" s="379"/>
-      <c r="M12" s="379"/>
-      <c r="N12" s="379"/>
-      <c r="O12" s="379"/>
-      <c r="P12" s="379"/>
-      <c r="Q12" s="379"/>
-      <c r="R12" s="364"/>
+      <c r="J12" s="388"/>
+      <c r="K12" s="388"/>
+      <c r="L12" s="388"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="388"/>
+      <c r="O12" s="388"/>
+      <c r="P12" s="388"/>
+      <c r="Q12" s="388"/>
+      <c r="R12" s="373"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -48561,14 +48561,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="380" t="s">
+      <c r="A24" s="389" t="s">
         <v>2416</v>
       </c>
-      <c r="B24" s="380"/>
-      <c r="C24" s="380"/>
-      <c r="D24" s="380"/>
-      <c r="E24" s="380"/>
-      <c r="F24" s="380"/>
+      <c r="B24" s="389"/>
+      <c r="C24" s="389"/>
+      <c r="D24" s="389"/>
+      <c r="E24" s="389"/>
+      <c r="F24" s="389"/>
       <c r="H24" s="257" t="s">
         <v>2426</v>
       </c>
@@ -48578,11 +48578,11 @@
       <c r="L24" s="257"/>
       <c r="M24" s="257"/>
       <c r="N24" s="257"/>
-      <c r="P24" s="380" t="s">
+      <c r="P24" s="389" t="s">
         <v>2464</v>
       </c>
-      <c r="Q24" s="380"/>
-      <c r="R24" s="380"/>
+      <c r="Q24" s="389"/>
+      <c r="R24" s="389"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="103" t="s">
@@ -48822,28 +48822,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="363" t="s">
+      <c r="A35" s="372" t="s">
         <v>2465</v>
       </c>
-      <c r="B35" s="379"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="379"/>
-      <c r="E35" s="379"/>
-      <c r="F35" s="379"/>
-      <c r="G35" s="379"/>
-      <c r="H35" s="364"/>
-      <c r="I35" s="363" t="s">
+      <c r="B35" s="388"/>
+      <c r="C35" s="388"/>
+      <c r="D35" s="388"/>
+      <c r="E35" s="388"/>
+      <c r="F35" s="388"/>
+      <c r="G35" s="388"/>
+      <c r="H35" s="373"/>
+      <c r="I35" s="372" t="s">
         <v>941</v>
       </c>
-      <c r="J35" s="379"/>
-      <c r="K35" s="379"/>
-      <c r="L35" s="379"/>
-      <c r="M35" s="379"/>
-      <c r="N35" s="379"/>
-      <c r="O35" s="379"/>
-      <c r="P35" s="379"/>
-      <c r="Q35" s="379"/>
-      <c r="R35" s="364"/>
+      <c r="J35" s="388"/>
+      <c r="K35" s="388"/>
+      <c r="L35" s="388"/>
+      <c r="M35" s="388"/>
+      <c r="N35" s="388"/>
+      <c r="O35" s="388"/>
+      <c r="P35" s="388"/>
+      <c r="Q35" s="388"/>
+      <c r="R35" s="373"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="2989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="3009">
   <si>
     <t>USER</t>
   </si>
@@ -9371,6 +9371,66 @@
   </si>
   <si>
     <t>callee line</t>
+  </si>
+  <si>
+    <t>public class Test{</t>
+  </si>
+  <si>
+    <t>public void method1(){</t>
+  </si>
+  <si>
+    <t>sysout(p.name);</t>
+  </si>
+  <si>
+    <t>public void method2(Person p){</t>
+  </si>
+  <si>
+    <t>method1. p</t>
+  </si>
+  <si>
+    <t>method2.p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass </t>
+  </si>
+  <si>
+    <t>value of</t>
+  </si>
+  <si>
+    <t>method1. p to method2</t>
+  </si>
+  <si>
+    <t>5 &amp; 10</t>
+  </si>
+  <si>
+    <t>1 as true</t>
+  </si>
+  <si>
+    <t>0 as false</t>
+  </si>
+  <si>
+    <t>true &amp; false</t>
+  </si>
+  <si>
+    <t>5 | 10</t>
+  </si>
+  <si>
+    <t>8^10</t>
+  </si>
+  <si>
+    <t>excusive or</t>
+  </si>
+  <si>
+    <t>true ex-or true</t>
+  </si>
+  <si>
+    <t>true ex-or false</t>
+  </si>
+  <si>
+    <t>false ex-or true</t>
+  </si>
+  <si>
+    <t>false ex-or false</t>
   </si>
 </sst>
 </file>
@@ -10065,7 +10125,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10762,6 +10822,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10870,22 +10952,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23837,8 +23906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD165"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23882,13 +23951,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="364" t="s">
+      <c r="H3" s="376" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="365"/>
-      <c r="J3" s="365"/>
-      <c r="K3" s="365"/>
-      <c r="L3" s="366"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="378"/>
       <c r="P3" t="s">
         <v>2376</v>
       </c>
@@ -23931,20 +24000,20 @@
         <v>2373</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="367" t="s">
+      <c r="G6" s="379" t="s">
         <v>2371</v>
       </c>
-      <c r="H6" s="368"/>
+      <c r="H6" s="380"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="367" t="s">
+      <c r="J6" s="379" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="368"/>
+      <c r="K6" s="380"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="367" t="s">
+      <c r="M6" s="379" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="368"/>
+      <c r="N6" s="380"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="122" t="s">
@@ -23965,20 +24034,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="369" t="s">
+      <c r="G8" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="370"/>
+      <c r="H8" s="382"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="369" t="s">
+      <c r="J8" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="370"/>
+      <c r="K8" s="382"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="369" t="s">
+      <c r="M8" s="381" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="370"/>
+      <c r="N8" s="382"/>
       <c r="Q8" s="139"/>
     </row>
     <row r="9" spans="1:18">
@@ -24003,17 +24072,17 @@
       <c r="B10" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="360" t="s">
+      <c r="F10" s="372" t="s">
         <v>2789</v>
       </c>
-      <c r="G10" s="361"/>
-      <c r="H10" s="361"/>
-      <c r="I10" s="361"/>
-      <c r="J10" s="361"/>
-      <c r="K10" s="361"/>
-      <c r="L10" s="361"/>
-      <c r="M10" s="361"/>
-      <c r="N10" s="361"/>
+      <c r="G10" s="373"/>
+      <c r="H10" s="373"/>
+      <c r="I10" s="373"/>
+      <c r="J10" s="373"/>
+      <c r="K10" s="373"/>
+      <c r="L10" s="373"/>
+      <c r="M10" s="373"/>
+      <c r="N10" s="373"/>
       <c r="P10" t="s">
         <v>2791</v>
       </c>
@@ -24023,15 +24092,15 @@
       <c r="B11" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="362"/>
-      <c r="G11" s="363"/>
-      <c r="H11" s="363"/>
-      <c r="I11" s="363"/>
-      <c r="J11" s="363"/>
-      <c r="K11" s="363"/>
-      <c r="L11" s="363"/>
-      <c r="M11" s="363"/>
-      <c r="N11" s="363"/>
+      <c r="F11" s="374"/>
+      <c r="G11" s="375"/>
+      <c r="H11" s="375"/>
+      <c r="I11" s="375"/>
+      <c r="J11" s="375"/>
+      <c r="K11" s="375"/>
+      <c r="L11" s="375"/>
+      <c r="M11" s="375"/>
+      <c r="N11" s="375"/>
       <c r="P11" t="s">
         <v>2792</v>
       </c>
@@ -24285,10 +24354,10 @@
       <c r="C23" t="s">
         <v>2720</v>
       </c>
-      <c r="D23" s="358" t="s">
+      <c r="D23" s="370" t="s">
         <v>1076</v>
       </c>
-      <c r="E23" s="359"/>
+      <c r="E23" s="371"/>
       <c r="F23" s="138"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -25608,7 +25677,7 @@
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="45"/>
-      <c r="K21" s="385" t="s">
+      <c r="K21" s="397" t="s">
         <v>2475</v>
       </c>
       <c r="L21" s="48"/>
@@ -25635,7 +25704,7 @@
       <c r="J22" s="48" t="s">
         <v>894</v>
       </c>
-      <c r="K22" s="386"/>
+      <c r="K22" s="398"/>
       <c r="L22" s="48"/>
       <c r="M22" s="49"/>
     </row>
@@ -25660,7 +25729,7 @@
       <c r="J23" s="51">
         <v>333</v>
       </c>
-      <c r="K23" s="386"/>
+      <c r="K23" s="398"/>
       <c r="L23" s="48"/>
       <c r="M23" s="49"/>
     </row>
@@ -25681,7 +25750,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
-      <c r="K24" s="386"/>
+      <c r="K24" s="398"/>
       <c r="L24" s="48"/>
       <c r="M24" s="49"/>
     </row>
@@ -25698,7 +25767,7 @@
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="386"/>
+      <c r="K25" s="398"/>
       <c r="L25" s="48"/>
       <c r="M25" s="49"/>
     </row>
@@ -25713,7 +25782,7 @@
       <c r="J26" s="48" t="s">
         <v>2462</v>
       </c>
-      <c r="K26" s="386"/>
+      <c r="K26" s="398"/>
       <c r="L26" s="48"/>
       <c r="M26" s="49"/>
     </row>
@@ -25728,7 +25797,7 @@
       <c r="J27" s="51">
         <v>234</v>
       </c>
-      <c r="K27" s="386"/>
+      <c r="K27" s="398"/>
       <c r="L27" s="48"/>
       <c r="M27" s="49"/>
     </row>
@@ -25742,7 +25811,7 @@
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="386"/>
+      <c r="K28" s="398"/>
       <c r="L28" s="48"/>
       <c r="M28" s="49"/>
     </row>
@@ -25758,7 +25827,7 @@
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="386"/>
+      <c r="K29" s="398"/>
       <c r="L29" s="48"/>
       <c r="M29" s="49"/>
     </row>
@@ -25776,7 +25845,7 @@
       <c r="J30" s="48" t="s">
         <v>2463</v>
       </c>
-      <c r="K30" s="386"/>
+      <c r="K30" s="398"/>
       <c r="L30" s="48"/>
       <c r="M30" s="49"/>
     </row>
@@ -25791,7 +25860,7 @@
       <c r="J31" s="51">
         <v>345</v>
       </c>
-      <c r="K31" s="387"/>
+      <c r="K31" s="399"/>
       <c r="L31" s="48"/>
       <c r="M31" s="49"/>
     </row>
@@ -42460,10 +42529,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="388" t="s">
+      <c r="B1" s="400" t="s">
         <v>2682</v>
       </c>
-      <c r="C1" s="388"/>
+      <c r="C1" s="400"/>
       <c r="E1" t="s">
         <v>2683</v>
       </c>
@@ -44827,11 +44896,11 @@
       <c r="B223" t="s">
         <v>1516</v>
       </c>
-      <c r="D223" s="371" t="s">
+      <c r="D223" s="383" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="373"/>
-      <c r="F223" s="372"/>
+      <c r="E223" s="385"/>
+      <c r="F223" s="384"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -44883,19 +44952,19 @@
       <c r="B227" t="s">
         <v>1936</v>
       </c>
-      <c r="D227" s="371" t="s">
+      <c r="D227" s="383" t="s">
         <v>1538</v>
       </c>
-      <c r="E227" s="373"/>
-      <c r="F227" s="372"/>
-      <c r="H227" s="371" t="s">
+      <c r="E227" s="385"/>
+      <c r="F227" s="384"/>
+      <c r="H227" s="383" t="s">
         <v>1541</v>
       </c>
-      <c r="I227" s="372"/>
-      <c r="K227" s="371" t="s">
+      <c r="I227" s="384"/>
+      <c r="K227" s="383" t="s">
         <v>1540</v>
       </c>
-      <c r="L227" s="372"/>
+      <c r="L227" s="384"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -45142,7 +45211,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="374" t="s">
+      <c r="D273" s="386" t="s">
         <v>2767</v>
       </c>
       <c r="F273" s="162" t="s">
@@ -45150,22 +45219,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="374"/>
+      <c r="D274" s="386"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="374"/>
+      <c r="D275" s="386"/>
       <c r="F275" t="s">
         <v>2766</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="374"/>
+      <c r="D276" s="386"/>
       <c r="K276" t="s">
         <v>2782</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="374"/>
+      <c r="D277" s="386"/>
       <c r="F277" s="162" t="s">
         <v>1936</v>
       </c>
@@ -45180,7 +45249,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="374"/>
+      <c r="D278" s="386"/>
       <c r="I278" t="s">
         <v>2784</v>
       </c>
@@ -45266,14 +45335,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="376" t="s">
+      <c r="B287" s="388" t="s">
         <v>2777</v>
       </c>
-      <c r="C287" s="375" t="s">
+      <c r="C287" s="387" t="s">
         <v>1532</v>
       </c>
-      <c r="D287" s="375"/>
-      <c r="E287" s="359"/>
+      <c r="D287" s="387"/>
+      <c r="E287" s="371"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -45284,7 +45353,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="360"/>
+      <c r="B288" s="372"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1376</v>
@@ -45295,7 +45364,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="378" t="s">
+      <c r="J288" s="390" t="s">
         <v>2779</v>
       </c>
       <c r="L288" s="31"/>
@@ -45304,7 +45373,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="360"/>
+      <c r="B289" s="372"/>
       <c r="C289" s="25" t="s">
         <v>2772</v>
       </c>
@@ -45316,49 +45385,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="379"/>
+      <c r="J289" s="391"/>
       <c r="L289" s="31" t="s">
         <v>2772</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="378" t="s">
+      <c r="O289" s="390" t="s">
         <v>2778</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="360"/>
+      <c r="B290" s="372"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="377" t="s">
+      <c r="G290" s="389" t="s">
         <v>2780</v>
       </c>
-      <c r="H290" s="375"/>
-      <c r="I290" s="375"/>
-      <c r="J290" s="379"/>
+      <c r="H290" s="387"/>
+      <c r="I290" s="387"/>
+      <c r="J290" s="391"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="379"/>
+      <c r="O290" s="391"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="360"/>
-      <c r="C291" s="375" t="s">
+      <c r="B291" s="372"/>
+      <c r="C291" s="387" t="s">
         <v>2774</v>
       </c>
-      <c r="D291" s="375"/>
-      <c r="E291" s="359"/>
+      <c r="D291" s="387"/>
+      <c r="E291" s="371"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="379"/>
-      <c r="L291" s="377" t="s">
+      <c r="J291" s="391"/>
+      <c r="L291" s="389" t="s">
         <v>2775</v>
       </c>
-      <c r="M291" s="375"/>
-      <c r="N291" s="375"/>
-      <c r="O291" s="379"/>
+      <c r="M291" s="387"/>
+      <c r="N291" s="387"/>
+      <c r="O291" s="391"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -45372,7 +45441,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="379"/>
+      <c r="O292" s="391"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -45712,18 +45781,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="389" t="s">
+      <c r="B3" s="401" t="s">
         <v>2707</v>
       </c>
-      <c r="C3" s="390"/>
-      <c r="D3" s="390"/>
-      <c r="E3" s="390"/>
-      <c r="F3" s="390"/>
-      <c r="G3" s="390"/>
-      <c r="H3" s="390"/>
-      <c r="I3" s="390"/>
-      <c r="J3" s="390"/>
-      <c r="K3" s="391"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="402"/>
+      <c r="F3" s="402"/>
+      <c r="G3" s="402"/>
+      <c r="H3" s="402"/>
+      <c r="I3" s="402"/>
+      <c r="J3" s="402"/>
+      <c r="K3" s="403"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -45838,24 +45907,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="392" t="s">
+      <c r="B15" s="404" t="s">
         <v>2708</v>
       </c>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="393"/>
-      <c r="F15" s="393"/>
-      <c r="G15" s="393"/>
-      <c r="H15" s="393"/>
-      <c r="I15" s="393"/>
-      <c r="J15" s="393"/>
-      <c r="K15" s="393"/>
-      <c r="L15" s="393"/>
-      <c r="M15" s="393"/>
-      <c r="N15" s="393"/>
-      <c r="O15" s="393"/>
-      <c r="P15" s="393"/>
-      <c r="Q15" s="393"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="405"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="405"/>
+      <c r="G15" s="405"/>
+      <c r="H15" s="405"/>
+      <c r="I15" s="405"/>
+      <c r="J15" s="405"/>
+      <c r="K15" s="405"/>
+      <c r="L15" s="405"/>
+      <c r="M15" s="405"/>
+      <c r="N15" s="405"/>
+      <c r="O15" s="405"/>
+      <c r="P15" s="405"/>
+      <c r="Q15" s="405"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -46136,8 +46205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O323"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46460,28 +46529,429 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:12">
       <c r="A17" s="25" t="s">
         <v>2809</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:12">
       <c r="A18" s="25" t="s">
         <v>2810</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:12">
       <c r="B19" s="25" t="s">
         <v>2811</v>
       </c>
     </row>
-    <row r="35" spans="11:15">
+    <row r="20" spans="1:12">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" s="369">
+        <v>128</v>
+      </c>
+      <c r="C21" s="368">
+        <v>64</v>
+      </c>
+      <c r="D21" s="368">
+        <v>32</v>
+      </c>
+      <c r="E21" s="104">
+        <v>16</v>
+      </c>
+      <c r="F21" s="104">
+        <v>8</v>
+      </c>
+      <c r="G21" s="104">
+        <v>4</v>
+      </c>
+      <c r="H21" s="104">
+        <v>2</v>
+      </c>
+      <c r="I21" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="131" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D23" s="131" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E23" s="131" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F23" s="131" t="s">
+        <v>2384</v>
+      </c>
+      <c r="G23" s="131" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H23" s="131" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I23" s="131" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="406">
+        <v>0</v>
+      </c>
+      <c r="C24" s="406">
+        <v>0</v>
+      </c>
+      <c r="D24" s="406">
+        <v>0</v>
+      </c>
+      <c r="E24" s="406">
+        <v>0</v>
+      </c>
+      <c r="F24" s="406">
+        <v>0</v>
+      </c>
+      <c r="G24" s="406">
+        <v>1</v>
+      </c>
+      <c r="H24" s="406">
+        <v>0</v>
+      </c>
+      <c r="I24" s="406">
+        <v>1</v>
+      </c>
+      <c r="J24" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" s="305">
+        <v>0</v>
+      </c>
+      <c r="C25" s="305">
+        <v>0</v>
+      </c>
+      <c r="D25" s="305">
+        <v>0</v>
+      </c>
+      <c r="E25" s="305">
+        <v>0</v>
+      </c>
+      <c r="F25" s="305">
+        <v>1</v>
+      </c>
+      <c r="G25" s="305">
+        <v>0</v>
+      </c>
+      <c r="H25" s="305">
+        <v>1</v>
+      </c>
+      <c r="I25" s="305">
+        <v>0</v>
+      </c>
+      <c r="J25" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="369">
+        <v>0</v>
+      </c>
+      <c r="C26" s="369">
+        <v>0</v>
+      </c>
+      <c r="D26" s="369">
+        <v>0</v>
+      </c>
+      <c r="E26" s="369">
+        <v>0</v>
+      </c>
+      <c r="F26" s="369">
+        <v>0</v>
+      </c>
+      <c r="G26" s="369">
+        <v>0</v>
+      </c>
+      <c r="H26" s="369">
+        <v>0</v>
+      </c>
+      <c r="I26" s="369">
+        <v>0</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>2998</v>
+      </c>
+      <c r="K26" s="71">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="369">
+        <v>0</v>
+      </c>
+      <c r="C27" s="369">
+        <v>0</v>
+      </c>
+      <c r="D27" s="369">
+        <v>0</v>
+      </c>
+      <c r="E27" s="369">
+        <v>0</v>
+      </c>
+      <c r="F27" s="369">
+        <v>1</v>
+      </c>
+      <c r="G27" s="369">
+        <v>1</v>
+      </c>
+      <c r="H27" s="369">
+        <v>1</v>
+      </c>
+      <c r="I27" s="369">
+        <v>1</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>3002</v>
+      </c>
+      <c r="K27" s="71">
+        <v>15</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="L28" s="25" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="369">
+        <v>128</v>
+      </c>
+      <c r="C31" s="368">
+        <v>64</v>
+      </c>
+      <c r="D31" s="368">
+        <v>32</v>
+      </c>
+      <c r="E31" s="104">
+        <v>16</v>
+      </c>
+      <c r="F31" s="104">
+        <v>8</v>
+      </c>
+      <c r="G31" s="104">
+        <v>4</v>
+      </c>
+      <c r="H31" s="104">
+        <v>2</v>
+      </c>
+      <c r="I31" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="368" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="368" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="368" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="368" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="131" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C33" s="131" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D33" s="131" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E33" s="131" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F33" s="131" t="s">
+        <v>2384</v>
+      </c>
+      <c r="G33" s="131" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H33" s="131" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I33" s="131" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="406">
+        <v>0</v>
+      </c>
+      <c r="C34" s="406">
+        <v>0</v>
+      </c>
+      <c r="D34" s="406">
+        <v>0</v>
+      </c>
+      <c r="E34" s="406">
+        <v>0</v>
+      </c>
+      <c r="F34" s="406">
+        <v>1</v>
+      </c>
+      <c r="G34" s="406">
+        <v>0</v>
+      </c>
+      <c r="H34" s="406">
+        <v>0</v>
+      </c>
+      <c r="I34" s="406">
+        <v>0</v>
+      </c>
+      <c r="J34" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="305">
+        <v>0</v>
+      </c>
+      <c r="C35" s="305">
+        <v>0</v>
+      </c>
+      <c r="D35" s="305">
+        <v>0</v>
+      </c>
+      <c r="E35" s="305">
+        <v>0</v>
+      </c>
+      <c r="F35" s="305">
+        <v>1</v>
+      </c>
+      <c r="G35" s="305">
+        <v>0</v>
+      </c>
+      <c r="H35" s="305">
+        <v>1</v>
+      </c>
+      <c r="I35" s="305">
+        <v>0</v>
+      </c>
+      <c r="J35" s="25">
+        <v>10</v>
+      </c>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
     </row>
-    <row r="37" spans="11:15">
-      <c r="K37" s="37"/>
+    <row r="36" spans="2:15">
+      <c r="F36" s="369">
+        <v>0</v>
+      </c>
+      <c r="G36" s="369">
+        <v>0</v>
+      </c>
+      <c r="H36" s="369">
+        <v>1</v>
+      </c>
+      <c r="I36" s="369">
+        <v>0</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>3003</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="K37" s="37" t="s">
+        <v>3005</v>
+      </c>
+      <c r="M37" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="K38" s="25" t="s">
+        <v>3006</v>
+      </c>
+      <c r="M38" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="K39" s="36" t="s">
+        <v>3007</v>
+      </c>
+      <c r="M39" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="K40" s="36" t="s">
+        <v>3008</v>
+      </c>
+      <c r="M40" s="36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="2:11">
       <c r="B219" s="36"/>
@@ -46898,7 +47368,7 @@
       <c r="A10" s="36" t="s">
         <v>2823</v>
       </c>
-      <c r="G10" s="380" t="s">
+      <c r="G10" s="392" t="s">
         <v>2852</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -46911,7 +47381,7 @@
       <c r="K10" s="36" t="s">
         <v>2859</v>
       </c>
-      <c r="L10" s="380" t="s">
+      <c r="L10" s="392" t="s">
         <v>2852</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -46923,7 +47393,7 @@
       <c r="O10" s="72"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="380"/>
+      <c r="G11" s="392"/>
       <c r="H11" s="36" t="s">
         <v>2838</v>
       </c>
@@ -46934,7 +47404,7 @@
       <c r="K11" s="36" t="s">
         <v>2861</v>
       </c>
-      <c r="L11" s="380"/>
+      <c r="L11" s="392"/>
       <c r="M11" s="36" t="s">
         <v>132</v>
       </c>
@@ -46947,7 +47417,7 @@
       <c r="B12" s="36" t="s">
         <v>2824</v>
       </c>
-      <c r="G12" s="380"/>
+      <c r="G12" s="392"/>
       <c r="H12" s="36" t="s">
         <v>2846</v>
       </c>
@@ -46958,7 +47428,7 @@
       <c r="K12" s="36" t="s">
         <v>2862</v>
       </c>
-      <c r="L12" s="380"/>
+      <c r="L12" s="392"/>
       <c r="M12" s="36" t="s">
         <v>134</v>
       </c>
@@ -46971,7 +47441,7 @@
       <c r="C13" s="36" t="s">
         <v>2825</v>
       </c>
-      <c r="G13" s="380"/>
+      <c r="G13" s="392"/>
       <c r="H13" s="36" t="s">
         <v>138</v>
       </c>
@@ -46982,7 +47452,7 @@
       <c r="K13" s="36" t="s">
         <v>2863</v>
       </c>
-      <c r="L13" s="380"/>
+      <c r="L13" s="392"/>
       <c r="M13" s="36" t="s">
         <v>2838</v>
       </c>
@@ -47001,7 +47471,7 @@
       <c r="K14" s="36" t="s">
         <v>2857</v>
       </c>
-      <c r="L14" s="380"/>
+      <c r="L14" s="392"/>
       <c r="M14" s="36" t="s">
         <v>134</v>
       </c>
@@ -47050,7 +47520,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="80"/>
-      <c r="L17" s="382" t="s">
+      <c r="L17" s="394" t="s">
         <v>2853</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -47061,7 +47531,7 @@
       <c r="D18" s="36" t="s">
         <v>2829</v>
       </c>
-      <c r="G18" s="380" t="s">
+      <c r="G18" s="392" t="s">
         <v>2854</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -47071,7 +47541,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="72"/>
-      <c r="L18" s="382"/>
+      <c r="L18" s="394"/>
       <c r="M18" s="36" t="s">
         <v>2856</v>
       </c>
@@ -47080,7 +47550,7 @@
       <c r="C19" s="36" t="s">
         <v>2830</v>
       </c>
-      <c r="G19" s="380"/>
+      <c r="G19" s="392"/>
       <c r="H19" s="36" t="s">
         <v>138</v>
       </c>
@@ -47093,7 +47563,7 @@
       <c r="D20" s="36" t="s">
         <v>2193</v>
       </c>
-      <c r="G20" s="380"/>
+      <c r="G20" s="392"/>
       <c r="H20" s="36" t="s">
         <v>132</v>
       </c>
@@ -47106,7 +47576,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="381"/>
+      <c r="G21" s="393"/>
       <c r="H21" s="83" t="s">
         <v>137</v>
       </c>
@@ -47869,10 +48339,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T408"/>
+  <dimension ref="A1:T407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84:I86"/>
+    <sheetView topLeftCell="A90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47881,6 +48351,7 @@
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" customWidth="1"/>
@@ -47890,23 +48361,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="396" t="s">
         <v>2272</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="I1" s="384" t="s">
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="F1" s="396"/>
+      <c r="I1" s="396" t="s">
         <v>2282</v>
       </c>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="384"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
+      <c r="L1" s="396"/>
+      <c r="M1" s="396"/>
+      <c r="N1" s="396"/>
+      <c r="O1" s="396"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -48056,28 +48527,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="367" t="s">
+      <c r="A12" s="379" t="s">
         <v>2284</v>
       </c>
-      <c r="B12" s="383"/>
-      <c r="C12" s="383"/>
-      <c r="D12" s="383"/>
-      <c r="E12" s="383"/>
-      <c r="F12" s="383"/>
-      <c r="G12" s="383"/>
-      <c r="H12" s="368"/>
-      <c r="I12" s="367" t="s">
+      <c r="B12" s="395"/>
+      <c r="C12" s="395"/>
+      <c r="D12" s="395"/>
+      <c r="E12" s="395"/>
+      <c r="F12" s="395"/>
+      <c r="G12" s="395"/>
+      <c r="H12" s="380"/>
+      <c r="I12" s="379" t="s">
         <v>2284</v>
       </c>
-      <c r="J12" s="383"/>
-      <c r="K12" s="383"/>
-      <c r="L12" s="383"/>
-      <c r="M12" s="383"/>
-      <c r="N12" s="383"/>
-      <c r="O12" s="383"/>
-      <c r="P12" s="383"/>
-      <c r="Q12" s="383"/>
-      <c r="R12" s="368"/>
+      <c r="J12" s="395"/>
+      <c r="K12" s="395"/>
+      <c r="L12" s="395"/>
+      <c r="M12" s="395"/>
+      <c r="N12" s="395"/>
+      <c r="O12" s="395"/>
+      <c r="P12" s="395"/>
+      <c r="Q12" s="395"/>
+      <c r="R12" s="380"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -48305,14 +48776,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="384" t="s">
+      <c r="A24" s="396" t="s">
         <v>2272</v>
       </c>
-      <c r="B24" s="384"/>
-      <c r="C24" s="384"/>
-      <c r="D24" s="384"/>
-      <c r="E24" s="384"/>
-      <c r="F24" s="384"/>
+      <c r="B24" s="396"/>
+      <c r="C24" s="396"/>
+      <c r="D24" s="396"/>
+      <c r="E24" s="396"/>
+      <c r="F24" s="396"/>
       <c r="H24" s="250" t="s">
         <v>2282</v>
       </c>
@@ -48322,11 +48793,11 @@
       <c r="L24" s="250"/>
       <c r="M24" s="250"/>
       <c r="N24" s="250"/>
-      <c r="P24" s="384" t="s">
+      <c r="P24" s="396" t="s">
         <v>2320</v>
       </c>
-      <c r="Q24" s="384"/>
-      <c r="R24" s="384"/>
+      <c r="Q24" s="396"/>
+      <c r="R24" s="396"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="103" t="s">
@@ -48566,28 +49037,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="367" t="s">
+      <c r="A35" s="379" t="s">
         <v>2321</v>
       </c>
-      <c r="B35" s="383"/>
-      <c r="C35" s="383"/>
-      <c r="D35" s="383"/>
-      <c r="E35" s="383"/>
-      <c r="F35" s="383"/>
-      <c r="G35" s="383"/>
-      <c r="H35" s="368"/>
-      <c r="I35" s="367" t="s">
+      <c r="B35" s="395"/>
+      <c r="C35" s="395"/>
+      <c r="D35" s="395"/>
+      <c r="E35" s="395"/>
+      <c r="F35" s="395"/>
+      <c r="G35" s="395"/>
+      <c r="H35" s="380"/>
+      <c r="I35" s="379" t="s">
         <v>872</v>
       </c>
-      <c r="J35" s="383"/>
-      <c r="K35" s="383"/>
-      <c r="L35" s="383"/>
-      <c r="M35" s="383"/>
-      <c r="N35" s="383"/>
-      <c r="O35" s="383"/>
-      <c r="P35" s="383"/>
-      <c r="Q35" s="383"/>
-      <c r="R35" s="368"/>
+      <c r="J35" s="395"/>
+      <c r="K35" s="395"/>
+      <c r="L35" s="395"/>
+      <c r="M35" s="395"/>
+      <c r="N35" s="395"/>
+      <c r="O35" s="395"/>
+      <c r="P35" s="395"/>
+      <c r="Q35" s="395"/>
+      <c r="R35" s="380"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">
@@ -49059,11 +49530,11 @@
     <row r="54" spans="1:20" ht="15.75" thickBot="1">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
-      <c r="C54" s="397" t="s">
+      <c r="C54" s="361" t="s">
         <v>2929</v>
       </c>
-      <c r="D54" s="397"/>
-      <c r="E54" s="397"/>
+      <c r="D54" s="361"/>
+      <c r="E54" s="361"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
       <c r="H54" s="81" t="s">
@@ -49134,13 +49605,13 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="36"/>
-      <c r="B57" s="397" t="s">
+      <c r="B57" s="361" t="s">
         <v>2931</v>
       </c>
-      <c r="C57" s="397"/>
-      <c r="D57" s="397"/>
-      <c r="E57" s="397"/>
-      <c r="F57" s="397"/>
+      <c r="C57" s="361"/>
+      <c r="D57" s="361"/>
+      <c r="E57" s="361"/>
+      <c r="F57" s="361"/>
       <c r="G57" s="36"/>
       <c r="H57" s="81"/>
       <c r="K57" s="36"/>
@@ -49154,11 +49625,11 @@
     <row r="58" spans="1:20">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
-      <c r="C58" s="396" t="s">
+      <c r="C58" s="360" t="s">
         <v>2932</v>
       </c>
-      <c r="D58" s="396"/>
-      <c r="E58" s="396"/>
+      <c r="D58" s="360"/>
+      <c r="E58" s="360"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="81"/>
@@ -49288,13 +49759,13 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="36"/>
-      <c r="B63" s="396" t="s">
+      <c r="B63" s="360" t="s">
         <v>2935</v>
       </c>
-      <c r="C63" s="396"/>
-      <c r="D63" s="396"/>
-      <c r="E63" s="396"/>
-      <c r="F63" s="396"/>
+      <c r="C63" s="360"/>
+      <c r="D63" s="360"/>
+      <c r="E63" s="360"/>
+      <c r="F63" s="360"/>
       <c r="G63" s="36"/>
       <c r="H63" s="81"/>
       <c r="I63" s="36" t="s">
@@ -49577,7 +50048,7 @@
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="82"/>
-      <c r="M73" s="400" t="s">
+      <c r="M73" s="364" t="s">
         <v>131</v>
       </c>
       <c r="N73" s="242">
@@ -49724,11 +50195,11 @@
       <c r="A79" s="36" t="s">
         <v>2987</v>
       </c>
-      <c r="B79" s="402" t="s">
+      <c r="B79" s="366" t="s">
         <v>2971</v>
       </c>
-      <c r="C79" s="403"/>
-      <c r="D79" s="402"/>
+      <c r="C79" s="367"/>
+      <c r="D79" s="366"/>
       <c r="E79" s="36"/>
       <c r="F79" s="81"/>
       <c r="G79" s="36"/>
@@ -49772,16 +50243,16 @@
       <c r="R80" s="72"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="402" t="s">
+      <c r="A81" s="366" t="s">
         <v>2972</v>
       </c>
-      <c r="B81" s="402"/>
-      <c r="C81" s="403"/>
-      <c r="D81" s="402"/>
+      <c r="B81" s="366"/>
+      <c r="C81" s="367"/>
+      <c r="D81" s="366"/>
       <c r="E81" s="36" t="s">
         <v>2988</v>
       </c>
-      <c r="F81" s="399" t="s">
+      <c r="F81" s="363" t="s">
         <v>989</v>
       </c>
       <c r="G81" s="355"/>
@@ -49831,7 +50302,7 @@
       </c>
       <c r="D83" s="36"/>
       <c r="E83" s="36"/>
-      <c r="F83" s="398" t="s">
+      <c r="F83" s="362" t="s">
         <v>228</v>
       </c>
       <c r="G83" s="36"/>
@@ -49856,7 +50327,7 @@
       <c r="B84" s="36"/>
       <c r="D84" s="36"/>
       <c r="E84" s="36"/>
-      <c r="F84" s="398" t="s">
+      <c r="F84" s="362" t="s">
         <v>1494</v>
       </c>
       <c r="G84" s="36"/>
@@ -49879,7 +50350,7 @@
     <row r="85" spans="1:18">
       <c r="D85" s="36"/>
       <c r="E85" s="36"/>
-      <c r="F85" s="401" t="s">
+      <c r="F85" s="365" t="s">
         <v>2964</v>
       </c>
       <c r="G85" s="140"/>
@@ -49905,7 +50376,7 @@
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
       <c r="E86" s="36"/>
-      <c r="F86" s="398" t="s">
+      <c r="F86" s="362" t="s">
         <v>1494</v>
       </c>
       <c r="G86" s="36"/>
@@ -49961,7 +50432,7 @@
       </c>
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
-      <c r="F88" s="398"/>
+      <c r="F88" s="362"/>
       <c r="G88" s="36" t="s">
         <v>1933</v>
       </c>
@@ -50003,7 +50474,7 @@
       <c r="Q89" s="83"/>
       <c r="R89" s="84"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" ht="15.75" thickBot="1">
       <c r="D90" s="36"/>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
@@ -50020,93 +50491,127 @@
       <c r="Q90" s="36"/>
       <c r="R90" s="36"/>
     </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="36"/>
+    <row r="91" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A91" s="36" t="s">
+        <v>2989</v>
+      </c>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
+      <c r="F91" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G91" s="76" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="79"/>
+      <c r="O91" s="79"/>
+      <c r="P91" s="79"/>
+      <c r="Q91" s="79"/>
+      <c r="R91" s="80"/>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
+      <c r="B92" s="36" t="s">
+        <v>2990</v>
+      </c>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
       <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
+      <c r="F92" s="81" t="s">
+        <v>2993</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>286</v>
+      </c>
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
+      <c r="J92" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K92" s="78"/>
+      <c r="L92" s="79"/>
+      <c r="M92" s="80"/>
       <c r="N92" s="36"/>
       <c r="O92" s="36"/>
       <c r="P92" s="36"/>
       <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
+      <c r="R92" s="72"/>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
+      <c r="C93" s="36" t="s">
+        <v>228</v>
+      </c>
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
+      <c r="F93" s="81" t="s">
+        <v>2994</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>1592</v>
+      </c>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
+      <c r="K93" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="L93" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M93" s="72"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
       <c r="P93" s="36"/>
       <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-    </row>
-    <row r="94" spans="1:18">
-      <c r="A94" s="36"/>
+      <c r="R93" s="72"/>
+    </row>
+    <row r="94" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A94" s="36" t="s">
+        <v>2995</v>
+      </c>
       <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
+      <c r="C94" s="37" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D94" s="37"/>
       <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
+      <c r="F94" s="81"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="84"/>
       <c r="N94" s="36"/>
       <c r="O94" s="36"/>
       <c r="P94" s="36"/>
       <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
+      <c r="R94" s="72"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="36"/>
+      <c r="A95" s="36" t="s">
+        <v>2996</v>
+      </c>
       <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
+      <c r="C95" s="36" t="s">
+        <v>2991</v>
+      </c>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
+      <c r="F95" s="81" t="s">
+        <v>285</v>
+      </c>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
       <c r="I95" s="36"/>
@@ -50118,15 +50623,17 @@
       <c r="O95" s="36"/>
       <c r="P95" s="36"/>
       <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="A96" s="36"/>
+      <c r="R95" s="72"/>
+    </row>
+    <row r="96" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A96" s="36" t="s">
+        <v>2997</v>
+      </c>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
       <c r="D96" s="36"/>
       <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
+      <c r="F96" s="81"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
       <c r="I96" s="36"/>
@@ -50138,75 +50645,89 @@
       <c r="O96" s="36"/>
       <c r="P96" s="36"/>
       <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
+      <c r="R96" s="72"/>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
+      <c r="B97" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
       <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
+      <c r="F97" s="81"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
       <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
+      <c r="J97" s="36" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K97" s="78"/>
+      <c r="L97" s="79"/>
+      <c r="M97" s="80"/>
       <c r="N97" s="36"/>
       <c r="O97" s="36"/>
       <c r="P97" s="36"/>
       <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
+      <c r="R97" s="72"/>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
+      <c r="B98" s="36" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="81"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
       <c r="I98" s="36"/>
       <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
+      <c r="K98" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="L98" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M98" s="72"/>
       <c r="N98" s="36"/>
       <c r="O98" s="36"/>
       <c r="P98" s="36"/>
       <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="R98" s="72"/>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" thickBot="1">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
+      <c r="C99" s="36" t="s">
+        <v>1693</v>
+      </c>
       <c r="D99" s="36"/>
       <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
+      <c r="F99" s="81"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
       <c r="I99" s="36"/>
       <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
+      <c r="K99" s="82"/>
+      <c r="L99" s="83"/>
+      <c r="M99" s="84"/>
       <c r="N99" s="36"/>
       <c r="O99" s="36"/>
       <c r="P99" s="36"/>
       <c r="Q99" s="36"/>
-      <c r="R99" s="36"/>
+      <c r="R99" s="72"/>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
+      <c r="C100" s="36" t="s">
+        <v>1493</v>
+      </c>
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
+      <c r="F100" s="81"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
@@ -50218,15 +50739,17 @@
       <c r="O100" s="36"/>
       <c r="P100" s="36"/>
       <c r="Q100" s="36"/>
-      <c r="R100" s="36"/>
+      <c r="R100" s="72"/>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
+      <c r="B101" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
+      <c r="F101" s="81"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
@@ -50238,15 +50761,17 @@
       <c r="O101" s="36"/>
       <c r="P101" s="36"/>
       <c r="Q101" s="36"/>
-      <c r="R101" s="36"/>
+      <c r="R101" s="72"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="36"/>
+      <c r="A102" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
       <c r="D102" s="36"/>
       <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
+      <c r="F102" s="81"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
@@ -50258,7 +50783,7 @@
       <c r="O102" s="36"/>
       <c r="P102" s="36"/>
       <c r="Q102" s="36"/>
-      <c r="R102" s="36"/>
+      <c r="R102" s="72"/>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="36"/>
@@ -50266,7 +50791,7 @@
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
       <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
+      <c r="F103" s="81"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
       <c r="I103" s="36"/>
@@ -50278,7 +50803,7 @@
       <c r="O103" s="36"/>
       <c r="P103" s="36"/>
       <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
+      <c r="R103" s="72"/>
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="36"/>
@@ -50286,7 +50811,7 @@
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
       <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
+      <c r="F104" s="81"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
       <c r="I104" s="36"/>
@@ -50298,7 +50823,7 @@
       <c r="O104" s="36"/>
       <c r="P104" s="36"/>
       <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
+      <c r="R104" s="72"/>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="36"/>
@@ -50306,7 +50831,7 @@
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
       <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
+      <c r="F105" s="81"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
       <c r="I105" s="36"/>
@@ -50318,15 +50843,17 @@
       <c r="O105" s="36"/>
       <c r="P105" s="36"/>
       <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
+      <c r="R105" s="72"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="36"/>
+      <c r="A106" s="36" t="s">
+        <v>1496</v>
+      </c>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
       <c r="D106" s="36"/>
       <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
+      <c r="F106" s="81"/>
       <c r="G106" s="36"/>
       <c r="H106" s="36"/>
       <c r="I106" s="36"/>
@@ -50338,15 +50865,17 @@
       <c r="O106" s="36"/>
       <c r="P106" s="36"/>
       <c r="Q106" s="36"/>
-      <c r="R106" s="36"/>
+      <c r="R106" s="72"/>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
+      <c r="C107" s="36" t="s">
+        <v>236</v>
+      </c>
       <c r="D107" s="36"/>
       <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
+      <c r="F107" s="81"/>
       <c r="G107" s="36"/>
       <c r="H107" s="36"/>
       <c r="I107" s="36"/>
@@ -50358,15 +50887,17 @@
       <c r="O107" s="36"/>
       <c r="P107" s="36"/>
       <c r="Q107" s="36"/>
-      <c r="R107" s="36"/>
+      <c r="R107" s="72"/>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
+      <c r="B108" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="C108" s="36"/>
       <c r="D108" s="36"/>
       <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
+      <c r="F108" s="81"/>
       <c r="G108" s="36"/>
       <c r="H108" s="36"/>
       <c r="I108" s="36"/>
@@ -50378,7 +50909,7 @@
       <c r="O108" s="36"/>
       <c r="P108" s="36"/>
       <c r="Q108" s="36"/>
-      <c r="R108" s="36"/>
+      <c r="R108" s="72"/>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="36"/>
@@ -50386,7 +50917,7 @@
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
       <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
+      <c r="F109" s="81"/>
       <c r="G109" s="36"/>
       <c r="H109" s="36"/>
       <c r="I109" s="36"/>
@@ -50398,27 +50929,27 @@
       <c r="O109" s="36"/>
       <c r="P109" s="36"/>
       <c r="Q109" s="36"/>
-      <c r="R109" s="36"/>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="R109" s="72"/>
+    </row>
+    <row r="110" spans="1:18" ht="15.75" thickBot="1">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
       <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="36"/>
-      <c r="P110" s="36"/>
-      <c r="Q110" s="36"/>
-      <c r="R110" s="36"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="83"/>
+      <c r="I110" s="83"/>
+      <c r="J110" s="83"/>
+      <c r="K110" s="83"/>
+      <c r="L110" s="83"/>
+      <c r="M110" s="83"/>
+      <c r="N110" s="83"/>
+      <c r="O110" s="83"/>
+      <c r="P110" s="83"/>
+      <c r="Q110" s="83"/>
+      <c r="R110" s="84"/>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="36"/>
@@ -52662,7 +53193,7 @@
     </row>
     <row r="223" spans="1:18">
       <c r="A223" s="36"/>
-      <c r="B223" s="36"/>
+      <c r="B223" s="358"/>
       <c r="C223" s="36"/>
       <c r="D223" s="36"/>
       <c r="E223" s="36"/>
@@ -52682,7 +53213,7 @@
     </row>
     <row r="224" spans="1:18">
       <c r="A224" s="36"/>
-      <c r="B224" s="394"/>
+      <c r="B224" s="36"/>
       <c r="C224" s="36"/>
       <c r="D224" s="36"/>
       <c r="E224" s="36"/>
@@ -52727,9 +53258,9 @@
       <c r="D226" s="36"/>
       <c r="E226" s="36"/>
       <c r="F226" s="36"/>
-      <c r="G226" s="36"/>
-      <c r="H226" s="36"/>
-      <c r="I226" s="36"/>
+      <c r="G226" s="71"/>
+      <c r="H226" s="71"/>
+      <c r="I226" s="71"/>
       <c r="J226" s="36"/>
       <c r="K226" s="36"/>
       <c r="L226" s="36"/>
@@ -52742,7 +53273,7 @@
     </row>
     <row r="227" spans="1:18">
       <c r="A227" s="36"/>
-      <c r="B227" s="36"/>
+      <c r="B227" s="359"/>
       <c r="C227" s="36"/>
       <c r="D227" s="36"/>
       <c r="E227" s="36"/>
@@ -52762,7 +53293,7 @@
     </row>
     <row r="228" spans="1:18">
       <c r="A228" s="36"/>
-      <c r="B228" s="395"/>
+      <c r="B228" s="36"/>
       <c r="C228" s="36"/>
       <c r="D228" s="36"/>
       <c r="E228" s="36"/>
@@ -52782,13 +53313,13 @@
     </row>
     <row r="229" spans="1:18">
       <c r="A229" s="36"/>
-      <c r="B229" s="36"/>
+      <c r="B229" s="359"/>
       <c r="C229" s="36"/>
       <c r="D229" s="36"/>
       <c r="E229" s="36"/>
       <c r="F229" s="36"/>
       <c r="G229" s="71"/>
-      <c r="H229" s="71"/>
+      <c r="H229" s="358"/>
       <c r="I229" s="71"/>
       <c r="J229" s="36"/>
       <c r="K229" s="36"/>
@@ -52802,13 +53333,13 @@
     </row>
     <row r="230" spans="1:18">
       <c r="A230" s="36"/>
-      <c r="B230" s="395"/>
+      <c r="B230" s="36"/>
       <c r="C230" s="36"/>
       <c r="D230" s="36"/>
       <c r="E230" s="36"/>
       <c r="F230" s="36"/>
       <c r="G230" s="71"/>
-      <c r="H230" s="394"/>
+      <c r="H230" s="71"/>
       <c r="I230" s="71"/>
       <c r="J230" s="36"/>
       <c r="K230" s="36"/>
@@ -52868,7 +53399,7 @@
       <c r="E233" s="36"/>
       <c r="F233" s="36"/>
       <c r="G233" s="71"/>
-      <c r="H233" s="71"/>
+      <c r="H233" s="358"/>
       <c r="I233" s="71"/>
       <c r="J233" s="36"/>
       <c r="K233" s="36"/>
@@ -52882,13 +53413,13 @@
     </row>
     <row r="234" spans="1:18">
       <c r="A234" s="36"/>
-      <c r="B234" s="36"/>
+      <c r="B234" s="359"/>
       <c r="C234" s="36"/>
       <c r="D234" s="36"/>
       <c r="E234" s="36"/>
       <c r="F234" s="36"/>
       <c r="G234" s="71"/>
-      <c r="H234" s="394"/>
+      <c r="H234" s="71"/>
       <c r="I234" s="71"/>
       <c r="J234" s="36"/>
       <c r="K234" s="36"/>
@@ -52902,7 +53433,7 @@
     </row>
     <row r="235" spans="1:18">
       <c r="A235" s="36"/>
-      <c r="B235" s="395"/>
+      <c r="B235" s="36"/>
       <c r="C235" s="36"/>
       <c r="D235" s="36"/>
       <c r="E235" s="36"/>
@@ -52928,7 +53459,7 @@
       <c r="E236" s="36"/>
       <c r="F236" s="36"/>
       <c r="G236" s="71"/>
-      <c r="H236" s="71"/>
+      <c r="H236" s="358"/>
       <c r="I236" s="71"/>
       <c r="J236" s="36"/>
       <c r="K236" s="36"/>
@@ -52948,7 +53479,7 @@
       <c r="E237" s="36"/>
       <c r="F237" s="36"/>
       <c r="G237" s="71"/>
-      <c r="H237" s="394"/>
+      <c r="H237" s="71"/>
       <c r="I237" s="71"/>
       <c r="J237" s="36"/>
       <c r="K237" s="36"/>
@@ -52987,9 +53518,9 @@
       <c r="D239" s="36"/>
       <c r="E239" s="36"/>
       <c r="F239" s="36"/>
-      <c r="G239" s="71"/>
-      <c r="H239" s="71"/>
-      <c r="I239" s="71"/>
+      <c r="G239" s="36"/>
+      <c r="H239" s="36"/>
+      <c r="I239" s="36"/>
       <c r="J239" s="36"/>
       <c r="K239" s="36"/>
       <c r="L239" s="36"/>
@@ -53107,9 +53638,9 @@
       <c r="D245" s="36"/>
       <c r="E245" s="36"/>
       <c r="F245" s="36"/>
-      <c r="G245" s="36"/>
-      <c r="H245" s="36"/>
-      <c r="I245" s="36"/>
+      <c r="G245" s="71"/>
+      <c r="H245" s="71"/>
+      <c r="I245" s="71"/>
       <c r="J245" s="36"/>
       <c r="K245" s="36"/>
       <c r="L245" s="36"/>
@@ -53168,7 +53699,7 @@
       <c r="E248" s="36"/>
       <c r="F248" s="36"/>
       <c r="G248" s="71"/>
-      <c r="H248" s="71"/>
+      <c r="H248" s="358"/>
       <c r="I248" s="71"/>
       <c r="J248" s="36"/>
       <c r="K248" s="36"/>
@@ -53188,7 +53719,7 @@
       <c r="E249" s="36"/>
       <c r="F249" s="36"/>
       <c r="G249" s="71"/>
-      <c r="H249" s="394"/>
+      <c r="H249" s="71"/>
       <c r="I249" s="71"/>
       <c r="J249" s="36"/>
       <c r="K249" s="36"/>
@@ -53248,7 +53779,7 @@
       <c r="E252" s="36"/>
       <c r="F252" s="36"/>
       <c r="G252" s="71"/>
-      <c r="H252" s="71"/>
+      <c r="H252" s="358"/>
       <c r="I252" s="71"/>
       <c r="J252" s="36"/>
       <c r="K252" s="36"/>
@@ -53268,7 +53799,7 @@
       <c r="E253" s="36"/>
       <c r="F253" s="36"/>
       <c r="G253" s="71"/>
-      <c r="H253" s="394"/>
+      <c r="H253" s="71"/>
       <c r="I253" s="71"/>
       <c r="J253" s="36"/>
       <c r="K253" s="36"/>
@@ -53308,7 +53839,7 @@
       <c r="E255" s="36"/>
       <c r="F255" s="36"/>
       <c r="G255" s="71"/>
-      <c r="H255" s="71"/>
+      <c r="H255" s="358"/>
       <c r="I255" s="71"/>
       <c r="J255" s="36"/>
       <c r="K255" s="36"/>
@@ -53328,7 +53859,7 @@
       <c r="E256" s="36"/>
       <c r="F256" s="36"/>
       <c r="G256" s="71"/>
-      <c r="H256" s="394"/>
+      <c r="H256" s="71"/>
       <c r="I256" s="71"/>
       <c r="J256" s="36"/>
       <c r="K256" s="36"/>
@@ -53367,9 +53898,9 @@
       <c r="D258" s="36"/>
       <c r="E258" s="36"/>
       <c r="F258" s="36"/>
-      <c r="G258" s="71"/>
-      <c r="H258" s="71"/>
-      <c r="I258" s="71"/>
+      <c r="G258" s="36"/>
+      <c r="H258" s="36"/>
+      <c r="I258" s="36"/>
       <c r="J258" s="36"/>
       <c r="K258" s="36"/>
       <c r="L258" s="36"/>
@@ -54084,8 +54615,8 @@
       <c r="A294" s="36"/>
       <c r="B294" s="36"/>
       <c r="C294" s="36"/>
-      <c r="D294" s="36"/>
-      <c r="E294" s="36"/>
+      <c r="D294" s="71"/>
+      <c r="E294" s="71"/>
       <c r="F294" s="36"/>
       <c r="G294" s="36"/>
       <c r="H294" s="36"/>
@@ -54142,7 +54673,7 @@
     </row>
     <row r="297" spans="1:18">
       <c r="A297" s="36"/>
-      <c r="B297" s="36"/>
+      <c r="B297" s="71"/>
       <c r="C297" s="36"/>
       <c r="D297" s="71"/>
       <c r="E297" s="71"/>
@@ -54162,7 +54693,7 @@
     </row>
     <row r="298" spans="1:18">
       <c r="A298" s="36"/>
-      <c r="B298" s="71"/>
+      <c r="B298" s="36"/>
       <c r="C298" s="36"/>
       <c r="D298" s="71"/>
       <c r="E298" s="71"/>
@@ -54170,8 +54701,8 @@
       <c r="G298" s="36"/>
       <c r="H298" s="36"/>
       <c r="I298" s="36"/>
-      <c r="J298" s="36"/>
-      <c r="K298" s="36"/>
+      <c r="J298" s="71"/>
+      <c r="K298" s="71"/>
       <c r="L298" s="36"/>
       <c r="M298" s="36"/>
       <c r="N298" s="36"/>
@@ -54210,8 +54741,8 @@
       <c r="G300" s="36"/>
       <c r="H300" s="36"/>
       <c r="I300" s="36"/>
-      <c r="J300" s="71"/>
-      <c r="K300" s="71"/>
+      <c r="J300" s="36"/>
+      <c r="K300" s="36"/>
       <c r="L300" s="36"/>
       <c r="M300" s="36"/>
       <c r="N300" s="36"/>
@@ -54264,9 +54795,9 @@
       <c r="A303" s="36"/>
       <c r="B303" s="36"/>
       <c r="C303" s="36"/>
-      <c r="D303" s="71"/>
+      <c r="D303" s="355"/>
       <c r="E303" s="71"/>
-      <c r="F303" s="36"/>
+      <c r="F303" s="355"/>
       <c r="G303" s="36"/>
       <c r="H303" s="36"/>
       <c r="I303" s="36"/>
@@ -54284,11 +54815,11 @@
       <c r="A304" s="36"/>
       <c r="B304" s="36"/>
       <c r="C304" s="36"/>
-      <c r="D304" s="355"/>
-      <c r="E304" s="71"/>
-      <c r="F304" s="355"/>
+      <c r="D304" s="71"/>
+      <c r="E304" s="36"/>
+      <c r="F304" s="36"/>
       <c r="G304" s="36"/>
-      <c r="H304" s="36"/>
+      <c r="H304" s="355"/>
       <c r="I304" s="36"/>
       <c r="J304" s="36"/>
       <c r="K304" s="36"/>
@@ -54308,7 +54839,7 @@
       <c r="E305" s="36"/>
       <c r="F305" s="36"/>
       <c r="G305" s="36"/>
-      <c r="H305" s="355"/>
+      <c r="H305" s="36"/>
       <c r="I305" s="36"/>
       <c r="J305" s="36"/>
       <c r="K305" s="36"/>
@@ -54444,7 +54975,7 @@
       <c r="A312" s="36"/>
       <c r="B312" s="36"/>
       <c r="C312" s="36"/>
-      <c r="D312" s="71"/>
+      <c r="D312" s="36"/>
       <c r="E312" s="36"/>
       <c r="F312" s="36"/>
       <c r="G312" s="36"/>
@@ -54524,8 +55055,8 @@
       <c r="A316" s="36"/>
       <c r="B316" s="36"/>
       <c r="C316" s="36"/>
-      <c r="D316" s="36"/>
-      <c r="E316" s="36"/>
+      <c r="D316" s="71"/>
+      <c r="E316" s="71"/>
       <c r="F316" s="36"/>
       <c r="G316" s="36"/>
       <c r="H316" s="36"/>
@@ -54582,7 +55113,7 @@
     </row>
     <row r="319" spans="1:18">
       <c r="A319" s="36"/>
-      <c r="B319" s="36"/>
+      <c r="B319" s="71"/>
       <c r="C319" s="36"/>
       <c r="D319" s="71"/>
       <c r="E319" s="71"/>
@@ -54602,7 +55133,7 @@
     </row>
     <row r="320" spans="1:18">
       <c r="A320" s="36"/>
-      <c r="B320" s="71"/>
+      <c r="B320" s="36"/>
       <c r="C320" s="36"/>
       <c r="D320" s="71"/>
       <c r="E320" s="71"/>
@@ -54610,8 +55141,8 @@
       <c r="G320" s="36"/>
       <c r="H320" s="36"/>
       <c r="I320" s="36"/>
-      <c r="J320" s="36"/>
-      <c r="K320" s="36"/>
+      <c r="J320" s="71"/>
+      <c r="K320" s="71"/>
       <c r="L320" s="36"/>
       <c r="M320" s="36"/>
       <c r="N320" s="36"/>
@@ -54650,8 +55181,8 @@
       <c r="G322" s="36"/>
       <c r="H322" s="36"/>
       <c r="I322" s="36"/>
-      <c r="J322" s="71"/>
-      <c r="K322" s="71"/>
+      <c r="J322" s="36"/>
+      <c r="K322" s="36"/>
       <c r="L322" s="36"/>
       <c r="M322" s="36"/>
       <c r="N322" s="36"/>
@@ -54704,9 +55235,9 @@
       <c r="A325" s="36"/>
       <c r="B325" s="36"/>
       <c r="C325" s="36"/>
-      <c r="D325" s="71"/>
+      <c r="D325" s="355"/>
       <c r="E325" s="71"/>
-      <c r="F325" s="36"/>
+      <c r="F325" s="355"/>
       <c r="G325" s="36"/>
       <c r="H325" s="36"/>
       <c r="I325" s="36"/>
@@ -54724,11 +55255,11 @@
       <c r="A326" s="36"/>
       <c r="B326" s="36"/>
       <c r="C326" s="36"/>
-      <c r="D326" s="355"/>
-      <c r="E326" s="71"/>
-      <c r="F326" s="355"/>
+      <c r="D326" s="71"/>
+      <c r="E326" s="36"/>
+      <c r="F326" s="36"/>
       <c r="G326" s="36"/>
-      <c r="H326" s="36"/>
+      <c r="H326" s="355"/>
       <c r="I326" s="36"/>
       <c r="J326" s="36"/>
       <c r="K326" s="36"/>
@@ -54748,7 +55279,7 @@
       <c r="E327" s="36"/>
       <c r="F327" s="36"/>
       <c r="G327" s="36"/>
-      <c r="H327" s="355"/>
+      <c r="H327" s="36"/>
       <c r="I327" s="36"/>
       <c r="J327" s="36"/>
       <c r="K327" s="36"/>
@@ -54884,7 +55415,7 @@
       <c r="A334" s="36"/>
       <c r="B334" s="36"/>
       <c r="C334" s="36"/>
-      <c r="D334" s="71"/>
+      <c r="D334" s="36"/>
       <c r="E334" s="36"/>
       <c r="F334" s="36"/>
       <c r="G334" s="36"/>
@@ -54924,15 +55455,15 @@
       <c r="A336" s="36"/>
       <c r="B336" s="36"/>
       <c r="C336" s="36"/>
-      <c r="D336" s="36"/>
-      <c r="E336" s="36"/>
-      <c r="F336" s="36"/>
-      <c r="G336" s="36"/>
-      <c r="H336" s="36"/>
-      <c r="I336" s="36"/>
-      <c r="J336" s="36"/>
-      <c r="K336" s="36"/>
-      <c r="L336" s="36"/>
+      <c r="D336" s="71"/>
+      <c r="E336" s="71"/>
+      <c r="F336" s="71"/>
+      <c r="G336" s="71"/>
+      <c r="H336" s="71"/>
+      <c r="I336" s="71"/>
+      <c r="J336" s="71"/>
+      <c r="K336" s="71"/>
+      <c r="L336" s="71"/>
       <c r="M336" s="36"/>
       <c r="N336" s="36"/>
       <c r="O336" s="36"/>
@@ -55105,7 +55636,7 @@
       <c r="B345" s="36"/>
       <c r="C345" s="36"/>
       <c r="D345" s="71"/>
-      <c r="E345" s="71"/>
+      <c r="E345" s="349"/>
       <c r="F345" s="71"/>
       <c r="G345" s="71"/>
       <c r="H345" s="71"/>
@@ -55125,7 +55656,7 @@
       <c r="B346" s="36"/>
       <c r="C346" s="36"/>
       <c r="D346" s="71"/>
-      <c r="E346" s="349"/>
+      <c r="E346" s="71"/>
       <c r="F346" s="71"/>
       <c r="G346" s="71"/>
       <c r="H346" s="71"/>
@@ -55224,15 +55755,15 @@
       <c r="A351" s="36"/>
       <c r="B351" s="36"/>
       <c r="C351" s="36"/>
-      <c r="D351" s="71"/>
-      <c r="E351" s="71"/>
-      <c r="F351" s="71"/>
-      <c r="G351" s="71"/>
-      <c r="H351" s="71"/>
-      <c r="I351" s="71"/>
-      <c r="J351" s="71"/>
-      <c r="K351" s="71"/>
-      <c r="L351" s="71"/>
+      <c r="D351" s="36"/>
+      <c r="E351" s="36"/>
+      <c r="F351" s="36"/>
+      <c r="G351" s="36"/>
+      <c r="H351" s="36"/>
+      <c r="I351" s="36"/>
+      <c r="J351" s="36"/>
+      <c r="K351" s="36"/>
+      <c r="L351" s="36"/>
       <c r="M351" s="36"/>
       <c r="N351" s="36"/>
       <c r="O351" s="36"/>
@@ -55284,15 +55815,15 @@
       <c r="A354" s="36"/>
       <c r="B354" s="36"/>
       <c r="C354" s="36"/>
-      <c r="D354" s="36"/>
-      <c r="E354" s="36"/>
-      <c r="F354" s="36"/>
-      <c r="G354" s="36"/>
-      <c r="H354" s="36"/>
-      <c r="I354" s="36"/>
-      <c r="J354" s="36"/>
-      <c r="K354" s="36"/>
-      <c r="L354" s="36"/>
+      <c r="D354" s="71"/>
+      <c r="E354" s="71"/>
+      <c r="F354" s="71"/>
+      <c r="G354" s="71"/>
+      <c r="H354" s="71"/>
+      <c r="I354" s="71"/>
+      <c r="J354" s="71"/>
+      <c r="K354" s="71"/>
+      <c r="L354" s="71"/>
       <c r="M354" s="36"/>
       <c r="N354" s="36"/>
       <c r="O354" s="36"/>
@@ -55465,7 +55996,7 @@
       <c r="B363" s="36"/>
       <c r="C363" s="36"/>
       <c r="D363" s="71"/>
-      <c r="E363" s="71"/>
+      <c r="E363" s="349"/>
       <c r="F363" s="71"/>
       <c r="G363" s="71"/>
       <c r="H363" s="71"/>
@@ -55485,7 +56016,7 @@
       <c r="B364" s="36"/>
       <c r="C364" s="36"/>
       <c r="D364" s="71"/>
-      <c r="E364" s="349"/>
+      <c r="E364" s="71"/>
       <c r="F364" s="71"/>
       <c r="G364" s="71"/>
       <c r="H364" s="71"/>
@@ -55584,15 +56115,15 @@
       <c r="A369" s="36"/>
       <c r="B369" s="36"/>
       <c r="C369" s="36"/>
-      <c r="D369" s="71"/>
-      <c r="E369" s="71"/>
-      <c r="F369" s="71"/>
-      <c r="G369" s="71"/>
-      <c r="H369" s="71"/>
-      <c r="I369" s="71"/>
-      <c r="J369" s="71"/>
-      <c r="K369" s="71"/>
-      <c r="L369" s="71"/>
+      <c r="D369" s="36"/>
+      <c r="E369" s="36"/>
+      <c r="F369" s="36"/>
+      <c r="G369" s="36"/>
+      <c r="H369" s="36"/>
+      <c r="I369" s="36"/>
+      <c r="J369" s="36"/>
+      <c r="K369" s="36"/>
+      <c r="L369" s="36"/>
       <c r="M369" s="36"/>
       <c r="N369" s="36"/>
       <c r="O369" s="36"/>
@@ -55644,15 +56175,15 @@
       <c r="A372" s="36"/>
       <c r="B372" s="36"/>
       <c r="C372" s="36"/>
-      <c r="D372" s="36"/>
-      <c r="E372" s="36"/>
-      <c r="F372" s="36"/>
-      <c r="G372" s="36"/>
-      <c r="H372" s="36"/>
-      <c r="I372" s="36"/>
-      <c r="J372" s="36"/>
-      <c r="K372" s="36"/>
-      <c r="L372" s="36"/>
+      <c r="D372" s="71"/>
+      <c r="E372" s="71"/>
+      <c r="F372" s="71"/>
+      <c r="G372" s="71"/>
+      <c r="H372" s="71"/>
+      <c r="I372" s="71"/>
+      <c r="J372" s="71"/>
+      <c r="K372" s="71"/>
+      <c r="L372" s="71"/>
       <c r="M372" s="36"/>
       <c r="N372" s="36"/>
       <c r="O372" s="36"/>
@@ -55825,7 +56356,7 @@
       <c r="B381" s="36"/>
       <c r="C381" s="36"/>
       <c r="D381" s="71"/>
-      <c r="E381" s="71"/>
+      <c r="E381" s="349"/>
       <c r="F381" s="71"/>
       <c r="G381" s="71"/>
       <c r="H381" s="71"/>
@@ -55845,7 +56376,7 @@
       <c r="B382" s="36"/>
       <c r="C382" s="36"/>
       <c r="D382" s="71"/>
-      <c r="E382" s="349"/>
+      <c r="E382" s="71"/>
       <c r="F382" s="71"/>
       <c r="G382" s="71"/>
       <c r="H382" s="71"/>
@@ -55944,15 +56475,15 @@
       <c r="A387" s="36"/>
       <c r="B387" s="36"/>
       <c r="C387" s="36"/>
-      <c r="D387" s="71"/>
-      <c r="E387" s="71"/>
-      <c r="F387" s="71"/>
-      <c r="G387" s="71"/>
-      <c r="H387" s="71"/>
-      <c r="I387" s="71"/>
-      <c r="J387" s="71"/>
-      <c r="K387" s="71"/>
-      <c r="L387" s="71"/>
+      <c r="D387" s="36"/>
+      <c r="E387" s="36"/>
+      <c r="F387" s="36"/>
+      <c r="G387" s="36"/>
+      <c r="H387" s="36"/>
+      <c r="I387" s="36"/>
+      <c r="J387" s="36"/>
+      <c r="K387" s="36"/>
+      <c r="L387" s="36"/>
       <c r="M387" s="36"/>
       <c r="N387" s="36"/>
       <c r="O387" s="36"/>
@@ -56044,15 +56575,15 @@
       <c r="A392" s="36"/>
       <c r="B392" s="36"/>
       <c r="C392" s="36"/>
-      <c r="D392" s="36"/>
-      <c r="E392" s="36"/>
-      <c r="F392" s="36"/>
-      <c r="G392" s="36"/>
-      <c r="H392" s="36"/>
-      <c r="I392" s="36"/>
-      <c r="J392" s="36"/>
-      <c r="K392" s="36"/>
-      <c r="L392" s="36"/>
+      <c r="D392" s="71"/>
+      <c r="E392" s="71"/>
+      <c r="F392" s="71"/>
+      <c r="G392" s="71"/>
+      <c r="H392" s="71"/>
+      <c r="I392" s="71"/>
+      <c r="J392" s="71"/>
+      <c r="K392" s="71"/>
+      <c r="L392" s="71"/>
       <c r="M392" s="36"/>
       <c r="N392" s="36"/>
       <c r="O392" s="36"/>
@@ -56225,7 +56756,7 @@
       <c r="B401" s="36"/>
       <c r="C401" s="36"/>
       <c r="D401" s="71"/>
-      <c r="E401" s="71"/>
+      <c r="E401" s="349"/>
       <c r="F401" s="71"/>
       <c r="G401" s="71"/>
       <c r="H401" s="71"/>
@@ -56245,7 +56776,7 @@
       <c r="B402" s="36"/>
       <c r="C402" s="36"/>
       <c r="D402" s="71"/>
-      <c r="E402" s="349"/>
+      <c r="E402" s="71"/>
       <c r="F402" s="71"/>
       <c r="G402" s="71"/>
       <c r="H402" s="71"/>
@@ -56344,41 +56875,21 @@
       <c r="A407" s="36"/>
       <c r="B407" s="36"/>
       <c r="C407" s="36"/>
-      <c r="D407" s="71"/>
-      <c r="E407" s="71"/>
-      <c r="F407" s="71"/>
-      <c r="G407" s="71"/>
-      <c r="H407" s="71"/>
-      <c r="I407" s="71"/>
-      <c r="J407" s="71"/>
-      <c r="K407" s="71"/>
-      <c r="L407" s="71"/>
+      <c r="D407" s="36"/>
+      <c r="E407" s="36"/>
+      <c r="F407" s="36"/>
+      <c r="G407" s="36"/>
+      <c r="H407" s="36"/>
+      <c r="I407" s="36"/>
+      <c r="J407" s="36"/>
+      <c r="K407" s="36"/>
+      <c r="L407" s="36"/>
       <c r="M407" s="36"/>
       <c r="N407" s="36"/>
       <c r="O407" s="36"/>
       <c r="P407" s="36"/>
       <c r="Q407" s="36"/>
       <c r="R407" s="36"/>
-    </row>
-    <row r="408" spans="1:18">
-      <c r="A408" s="36"/>
-      <c r="B408" s="36"/>
-      <c r="C408" s="36"/>
-      <c r="D408" s="36"/>
-      <c r="E408" s="36"/>
-      <c r="F408" s="36"/>
-      <c r="G408" s="36"/>
-      <c r="H408" s="36"/>
-      <c r="I408" s="36"/>
-      <c r="J408" s="36"/>
-      <c r="K408" s="36"/>
-      <c r="L408" s="36"/>
-      <c r="M408" s="36"/>
-      <c r="N408" s="36"/>
-      <c r="O408" s="36"/>
-      <c r="P408" s="36"/>
-      <c r="Q408" s="36"/>
-      <c r="R408" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="3009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5495" uniqueCount="3012">
   <si>
     <t>USER</t>
   </si>
@@ -9431,6 +9431,15 @@
   </si>
   <si>
     <t>false ex-or false</t>
+  </si>
+  <si>
+    <t>decision making</t>
+  </si>
+  <si>
+    <t>WELCOME !!!</t>
+  </si>
+  <si>
+    <t>if-else-if</t>
   </si>
 </sst>
 </file>
@@ -10125,7 +10134,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10847,6 +10856,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10883,18 +10898,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10908,6 +10911,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10950,9 +10965,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17501,8 +17513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17574,7 +17586,9 @@
     <row r="4" spans="1:15">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="C4" s="370" t="s">
+        <v>3009</v>
+      </c>
       <c r="D4" s="54"/>
       <c r="E4" s="124" t="s">
         <v>2343</v>
@@ -17647,7 +17661,9 @@
         <v>391</v>
       </c>
       <c r="G7" s="54"/>
-      <c r="H7" s="62"/>
+      <c r="H7" s="62" t="s">
+        <v>3010</v>
+      </c>
       <c r="J7" s="159" t="s">
         <v>1512</v>
       </c>
@@ -17753,7 +17769,9 @@
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="F12" s="124" t="s">
+        <v>3011</v>
+      </c>
       <c r="G12" s="54"/>
       <c r="H12" s="59" t="s">
         <v>380</v>
@@ -23906,8 +23924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD165"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:N33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23951,13 +23969,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="376" t="s">
+      <c r="H3" s="378" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="377"/>
-      <c r="J3" s="377"/>
-      <c r="K3" s="377"/>
-      <c r="L3" s="378"/>
+      <c r="I3" s="379"/>
+      <c r="J3" s="379"/>
+      <c r="K3" s="379"/>
+      <c r="L3" s="380"/>
       <c r="P3" t="s">
         <v>2376</v>
       </c>
@@ -24000,20 +24018,20 @@
         <v>2373</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="379" t="s">
+      <c r="G6" s="381" t="s">
         <v>2371</v>
       </c>
-      <c r="H6" s="380"/>
+      <c r="H6" s="382"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="379" t="s">
+      <c r="J6" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="380"/>
+      <c r="K6" s="382"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="379" t="s">
+      <c r="M6" s="381" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="380"/>
+      <c r="N6" s="382"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="122" t="s">
@@ -24034,20 +24052,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="381" t="s">
+      <c r="G8" s="383" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="382"/>
+      <c r="H8" s="384"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="381" t="s">
+      <c r="J8" s="383" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="382"/>
+      <c r="K8" s="384"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="381" t="s">
+      <c r="M8" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="382"/>
+      <c r="N8" s="384"/>
       <c r="Q8" s="139"/>
     </row>
     <row r="9" spans="1:18">
@@ -24072,17 +24090,17 @@
       <c r="B10" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="372" t="s">
+      <c r="F10" s="374" t="s">
         <v>2789</v>
       </c>
-      <c r="G10" s="373"/>
-      <c r="H10" s="373"/>
-      <c r="I10" s="373"/>
-      <c r="J10" s="373"/>
-      <c r="K10" s="373"/>
-      <c r="L10" s="373"/>
-      <c r="M10" s="373"/>
-      <c r="N10" s="373"/>
+      <c r="G10" s="375"/>
+      <c r="H10" s="375"/>
+      <c r="I10" s="375"/>
+      <c r="J10" s="375"/>
+      <c r="K10" s="375"/>
+      <c r="L10" s="375"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="375"/>
       <c r="P10" t="s">
         <v>2791</v>
       </c>
@@ -24092,15 +24110,15 @@
       <c r="B11" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="374"/>
-      <c r="G11" s="375"/>
-      <c r="H11" s="375"/>
-      <c r="I11" s="375"/>
-      <c r="J11" s="375"/>
-      <c r="K11" s="375"/>
-      <c r="L11" s="375"/>
-      <c r="M11" s="375"/>
-      <c r="N11" s="375"/>
+      <c r="F11" s="376"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="377"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="377"/>
+      <c r="K11" s="377"/>
+      <c r="L11" s="377"/>
+      <c r="M11" s="377"/>
+      <c r="N11" s="377"/>
       <c r="P11" t="s">
         <v>2792</v>
       </c>
@@ -24354,10 +24372,10 @@
       <c r="C23" t="s">
         <v>2720</v>
       </c>
-      <c r="D23" s="370" t="s">
+      <c r="D23" s="372" t="s">
         <v>1076</v>
       </c>
-      <c r="E23" s="371"/>
+      <c r="E23" s="373"/>
       <c r="F23" s="138"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -25677,7 +25695,7 @@
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="45"/>
-      <c r="K21" s="397" t="s">
+      <c r="K21" s="399" t="s">
         <v>2475</v>
       </c>
       <c r="L21" s="48"/>
@@ -25704,7 +25722,7 @@
       <c r="J22" s="48" t="s">
         <v>894</v>
       </c>
-      <c r="K22" s="398"/>
+      <c r="K22" s="400"/>
       <c r="L22" s="48"/>
       <c r="M22" s="49"/>
     </row>
@@ -25729,7 +25747,7 @@
       <c r="J23" s="51">
         <v>333</v>
       </c>
-      <c r="K23" s="398"/>
+      <c r="K23" s="400"/>
       <c r="L23" s="48"/>
       <c r="M23" s="49"/>
     </row>
@@ -25750,7 +25768,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
-      <c r="K24" s="398"/>
+      <c r="K24" s="400"/>
       <c r="L24" s="48"/>
       <c r="M24" s="49"/>
     </row>
@@ -25767,7 +25785,7 @@
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="398"/>
+      <c r="K25" s="400"/>
       <c r="L25" s="48"/>
       <c r="M25" s="49"/>
     </row>
@@ -25782,7 +25800,7 @@
       <c r="J26" s="48" t="s">
         <v>2462</v>
       </c>
-      <c r="K26" s="398"/>
+      <c r="K26" s="400"/>
       <c r="L26" s="48"/>
       <c r="M26" s="49"/>
     </row>
@@ -25797,7 +25815,7 @@
       <c r="J27" s="51">
         <v>234</v>
       </c>
-      <c r="K27" s="398"/>
+      <c r="K27" s="400"/>
       <c r="L27" s="48"/>
       <c r="M27" s="49"/>
     </row>
@@ -25811,7 +25829,7 @@
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="398"/>
+      <c r="K28" s="400"/>
       <c r="L28" s="48"/>
       <c r="M28" s="49"/>
     </row>
@@ -25827,7 +25845,7 @@
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="398"/>
+      <c r="K29" s="400"/>
       <c r="L29" s="48"/>
       <c r="M29" s="49"/>
     </row>
@@ -25845,7 +25863,7 @@
       <c r="J30" s="48" t="s">
         <v>2463</v>
       </c>
-      <c r="K30" s="398"/>
+      <c r="K30" s="400"/>
       <c r="L30" s="48"/>
       <c r="M30" s="49"/>
     </row>
@@ -25860,7 +25878,7 @@
       <c r="J31" s="51">
         <v>345</v>
       </c>
-      <c r="K31" s="399"/>
+      <c r="K31" s="401"/>
       <c r="L31" s="48"/>
       <c r="M31" s="49"/>
     </row>
@@ -42529,10 +42547,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="400" t="s">
+      <c r="B1" s="402" t="s">
         <v>2682</v>
       </c>
-      <c r="C1" s="400"/>
+      <c r="C1" s="402"/>
       <c r="E1" t="s">
         <v>2683</v>
       </c>
@@ -44896,11 +44914,11 @@
       <c r="B223" t="s">
         <v>1516</v>
       </c>
-      <c r="D223" s="383" t="s">
+      <c r="D223" s="390" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="385"/>
-      <c r="F223" s="384"/>
+      <c r="E223" s="392"/>
+      <c r="F223" s="391"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -44952,19 +44970,19 @@
       <c r="B227" t="s">
         <v>1936</v>
       </c>
-      <c r="D227" s="383" t="s">
+      <c r="D227" s="390" t="s">
         <v>1538</v>
       </c>
-      <c r="E227" s="385"/>
-      <c r="F227" s="384"/>
-      <c r="H227" s="383" t="s">
+      <c r="E227" s="392"/>
+      <c r="F227" s="391"/>
+      <c r="H227" s="390" t="s">
         <v>1541</v>
       </c>
-      <c r="I227" s="384"/>
-      <c r="K227" s="383" t="s">
+      <c r="I227" s="391"/>
+      <c r="K227" s="390" t="s">
         <v>1540</v>
       </c>
-      <c r="L227" s="384"/>
+      <c r="L227" s="391"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -45211,7 +45229,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="386" t="s">
+      <c r="D273" s="393" t="s">
         <v>2767</v>
       </c>
       <c r="F273" s="162" t="s">
@@ -45219,22 +45237,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="386"/>
+      <c r="D274" s="393"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="386"/>
+      <c r="D275" s="393"/>
       <c r="F275" t="s">
         <v>2766</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="386"/>
+      <c r="D276" s="393"/>
       <c r="K276" t="s">
         <v>2782</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="386"/>
+      <c r="D277" s="393"/>
       <c r="F277" s="162" t="s">
         <v>1936</v>
       </c>
@@ -45249,7 +45267,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="386"/>
+      <c r="D278" s="393"/>
       <c r="I278" t="s">
         <v>2784</v>
       </c>
@@ -45335,14 +45353,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="388" t="s">
+      <c r="B287" s="386" t="s">
         <v>2777</v>
       </c>
-      <c r="C287" s="387" t="s">
+      <c r="C287" s="385" t="s">
         <v>1532</v>
       </c>
-      <c r="D287" s="387"/>
-      <c r="E287" s="371"/>
+      <c r="D287" s="385"/>
+      <c r="E287" s="373"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -45353,7 +45371,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="372"/>
+      <c r="B288" s="374"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1376</v>
@@ -45364,7 +45382,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="390" t="s">
+      <c r="J288" s="388" t="s">
         <v>2779</v>
       </c>
       <c r="L288" s="31"/>
@@ -45373,7 +45391,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="372"/>
+      <c r="B289" s="374"/>
       <c r="C289" s="25" t="s">
         <v>2772</v>
       </c>
@@ -45385,49 +45403,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="391"/>
+      <c r="J289" s="389"/>
       <c r="L289" s="31" t="s">
         <v>2772</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="390" t="s">
+      <c r="O289" s="388" t="s">
         <v>2778</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="372"/>
+      <c r="B290" s="374"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="389" t="s">
+      <c r="G290" s="387" t="s">
         <v>2780</v>
       </c>
-      <c r="H290" s="387"/>
-      <c r="I290" s="387"/>
-      <c r="J290" s="391"/>
+      <c r="H290" s="385"/>
+      <c r="I290" s="385"/>
+      <c r="J290" s="389"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="391"/>
+      <c r="O290" s="389"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="372"/>
-      <c r="C291" s="387" t="s">
+      <c r="B291" s="374"/>
+      <c r="C291" s="385" t="s">
         <v>2774</v>
       </c>
-      <c r="D291" s="387"/>
-      <c r="E291" s="371"/>
+      <c r="D291" s="385"/>
+      <c r="E291" s="373"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="391"/>
-      <c r="L291" s="389" t="s">
+      <c r="J291" s="389"/>
+      <c r="L291" s="387" t="s">
         <v>2775</v>
       </c>
-      <c r="M291" s="387"/>
-      <c r="N291" s="387"/>
-      <c r="O291" s="391"/>
+      <c r="M291" s="385"/>
+      <c r="N291" s="385"/>
+      <c r="O291" s="389"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -45441,7 +45459,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="391"/>
+      <c r="O292" s="389"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -45538,6 +45556,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -45545,11 +45568,6 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45781,18 +45799,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="401" t="s">
+      <c r="B3" s="403" t="s">
         <v>2707</v>
       </c>
-      <c r="C3" s="402"/>
-      <c r="D3" s="402"/>
-      <c r="E3" s="402"/>
-      <c r="F3" s="402"/>
-      <c r="G3" s="402"/>
-      <c r="H3" s="402"/>
-      <c r="I3" s="402"/>
-      <c r="J3" s="402"/>
-      <c r="K3" s="403"/>
+      <c r="C3" s="404"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="404"/>
+      <c r="F3" s="404"/>
+      <c r="G3" s="404"/>
+      <c r="H3" s="404"/>
+      <c r="I3" s="404"/>
+      <c r="J3" s="404"/>
+      <c r="K3" s="405"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -45907,24 +45925,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="404" t="s">
+      <c r="B15" s="406" t="s">
         <v>2708</v>
       </c>
-      <c r="C15" s="405"/>
-      <c r="D15" s="405"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="405"/>
-      <c r="G15" s="405"/>
-      <c r="H15" s="405"/>
-      <c r="I15" s="405"/>
-      <c r="J15" s="405"/>
-      <c r="K15" s="405"/>
-      <c r="L15" s="405"/>
-      <c r="M15" s="405"/>
-      <c r="N15" s="405"/>
-      <c r="O15" s="405"/>
-      <c r="P15" s="405"/>
-      <c r="Q15" s="405"/>
+      <c r="C15" s="407"/>
+      <c r="D15" s="407"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="407"/>
+      <c r="G15" s="407"/>
+      <c r="H15" s="407"/>
+      <c r="I15" s="407"/>
+      <c r="J15" s="407"/>
+      <c r="K15" s="407"/>
+      <c r="L15" s="407"/>
+      <c r="M15" s="407"/>
+      <c r="N15" s="407"/>
+      <c r="O15" s="407"/>
+      <c r="P15" s="407"/>
+      <c r="Q15" s="407"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -46205,7 +46223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -46630,28 +46648,28 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" s="406">
+      <c r="B24" s="371">
         <v>0</v>
       </c>
-      <c r="C24" s="406">
+      <c r="C24" s="371">
         <v>0</v>
       </c>
-      <c r="D24" s="406">
+      <c r="D24" s="371">
         <v>0</v>
       </c>
-      <c r="E24" s="406">
+      <c r="E24" s="371">
         <v>0</v>
       </c>
-      <c r="F24" s="406">
+      <c r="F24" s="371">
         <v>0</v>
       </c>
-      <c r="G24" s="406">
+      <c r="G24" s="371">
         <v>1</v>
       </c>
-      <c r="H24" s="406">
+      <c r="H24" s="371">
         <v>0</v>
       </c>
-      <c r="I24" s="406">
+      <c r="I24" s="371">
         <v>1</v>
       </c>
       <c r="J24" s="25">
@@ -46841,28 +46859,28 @@
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="406">
+      <c r="B34" s="371">
         <v>0</v>
       </c>
-      <c r="C34" s="406">
+      <c r="C34" s="371">
         <v>0</v>
       </c>
-      <c r="D34" s="406">
+      <c r="D34" s="371">
         <v>0</v>
       </c>
-      <c r="E34" s="406">
+      <c r="E34" s="371">
         <v>0</v>
       </c>
-      <c r="F34" s="406">
+      <c r="F34" s="371">
         <v>1</v>
       </c>
-      <c r="G34" s="406">
+      <c r="G34" s="371">
         <v>0</v>
       </c>
-      <c r="H34" s="406">
+      <c r="H34" s="371">
         <v>0</v>
       </c>
-      <c r="I34" s="406">
+      <c r="I34" s="371">
         <v>0</v>
       </c>
       <c r="J34" s="25">
@@ -47368,7 +47386,7 @@
       <c r="A10" s="36" t="s">
         <v>2823</v>
       </c>
-      <c r="G10" s="392" t="s">
+      <c r="G10" s="394" t="s">
         <v>2852</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -47381,7 +47399,7 @@
       <c r="K10" s="36" t="s">
         <v>2859</v>
       </c>
-      <c r="L10" s="392" t="s">
+      <c r="L10" s="394" t="s">
         <v>2852</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -47393,7 +47411,7 @@
       <c r="O10" s="72"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="392"/>
+      <c r="G11" s="394"/>
       <c r="H11" s="36" t="s">
         <v>2838</v>
       </c>
@@ -47404,7 +47422,7 @@
       <c r="K11" s="36" t="s">
         <v>2861</v>
       </c>
-      <c r="L11" s="392"/>
+      <c r="L11" s="394"/>
       <c r="M11" s="36" t="s">
         <v>132</v>
       </c>
@@ -47417,7 +47435,7 @@
       <c r="B12" s="36" t="s">
         <v>2824</v>
       </c>
-      <c r="G12" s="392"/>
+      <c r="G12" s="394"/>
       <c r="H12" s="36" t="s">
         <v>2846</v>
       </c>
@@ -47428,7 +47446,7 @@
       <c r="K12" s="36" t="s">
         <v>2862</v>
       </c>
-      <c r="L12" s="392"/>
+      <c r="L12" s="394"/>
       <c r="M12" s="36" t="s">
         <v>134</v>
       </c>
@@ -47441,7 +47459,7 @@
       <c r="C13" s="36" t="s">
         <v>2825</v>
       </c>
-      <c r="G13" s="392"/>
+      <c r="G13" s="394"/>
       <c r="H13" s="36" t="s">
         <v>138</v>
       </c>
@@ -47452,7 +47470,7 @@
       <c r="K13" s="36" t="s">
         <v>2863</v>
       </c>
-      <c r="L13" s="392"/>
+      <c r="L13" s="394"/>
       <c r="M13" s="36" t="s">
         <v>2838</v>
       </c>
@@ -47471,7 +47489,7 @@
       <c r="K14" s="36" t="s">
         <v>2857</v>
       </c>
-      <c r="L14" s="392"/>
+      <c r="L14" s="394"/>
       <c r="M14" s="36" t="s">
         <v>134</v>
       </c>
@@ -47520,7 +47538,7 @@
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="80"/>
-      <c r="L17" s="394" t="s">
+      <c r="L17" s="396" t="s">
         <v>2853</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -47531,7 +47549,7 @@
       <c r="D18" s="36" t="s">
         <v>2829</v>
       </c>
-      <c r="G18" s="392" t="s">
+      <c r="G18" s="394" t="s">
         <v>2854</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -47541,7 +47559,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="72"/>
-      <c r="L18" s="394"/>
+      <c r="L18" s="396"/>
       <c r="M18" s="36" t="s">
         <v>2856</v>
       </c>
@@ -47550,7 +47568,7 @@
       <c r="C19" s="36" t="s">
         <v>2830</v>
       </c>
-      <c r="G19" s="392"/>
+      <c r="G19" s="394"/>
       <c r="H19" s="36" t="s">
         <v>138</v>
       </c>
@@ -47563,7 +47581,7 @@
       <c r="D20" s="36" t="s">
         <v>2193</v>
       </c>
-      <c r="G20" s="392"/>
+      <c r="G20" s="394"/>
       <c r="H20" s="36" t="s">
         <v>132</v>
       </c>
@@ -47576,7 +47594,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="393"/>
+      <c r="G21" s="395"/>
       <c r="H21" s="83" t="s">
         <v>137</v>
       </c>
@@ -48361,23 +48379,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="398" t="s">
         <v>2272</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
-      <c r="F1" s="396"/>
-      <c r="I1" s="396" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="398"/>
+      <c r="I1" s="398" t="s">
         <v>2282</v>
       </c>
-      <c r="J1" s="396"/>
-      <c r="K1" s="396"/>
-      <c r="L1" s="396"/>
-      <c r="M1" s="396"/>
-      <c r="N1" s="396"/>
-      <c r="O1" s="396"/>
+      <c r="J1" s="398"/>
+      <c r="K1" s="398"/>
+      <c r="L1" s="398"/>
+      <c r="M1" s="398"/>
+      <c r="N1" s="398"/>
+      <c r="O1" s="398"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -48527,28 +48545,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="379" t="s">
+      <c r="A12" s="381" t="s">
         <v>2284</v>
       </c>
-      <c r="B12" s="395"/>
-      <c r="C12" s="395"/>
-      <c r="D12" s="395"/>
-      <c r="E12" s="395"/>
-      <c r="F12" s="395"/>
-      <c r="G12" s="395"/>
-      <c r="H12" s="380"/>
-      <c r="I12" s="379" t="s">
+      <c r="B12" s="397"/>
+      <c r="C12" s="397"/>
+      <c r="D12" s="397"/>
+      <c r="E12" s="397"/>
+      <c r="F12" s="397"/>
+      <c r="G12" s="397"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="381" t="s">
         <v>2284</v>
       </c>
-      <c r="J12" s="395"/>
-      <c r="K12" s="395"/>
-      <c r="L12" s="395"/>
-      <c r="M12" s="395"/>
-      <c r="N12" s="395"/>
-      <c r="O12" s="395"/>
-      <c r="P12" s="395"/>
-      <c r="Q12" s="395"/>
-      <c r="R12" s="380"/>
+      <c r="J12" s="397"/>
+      <c r="K12" s="397"/>
+      <c r="L12" s="397"/>
+      <c r="M12" s="397"/>
+      <c r="N12" s="397"/>
+      <c r="O12" s="397"/>
+      <c r="P12" s="397"/>
+      <c r="Q12" s="397"/>
+      <c r="R12" s="382"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -48776,14 +48794,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="396" t="s">
+      <c r="A24" s="398" t="s">
         <v>2272</v>
       </c>
-      <c r="B24" s="396"/>
-      <c r="C24" s="396"/>
-      <c r="D24" s="396"/>
-      <c r="E24" s="396"/>
-      <c r="F24" s="396"/>
+      <c r="B24" s="398"/>
+      <c r="C24" s="398"/>
+      <c r="D24" s="398"/>
+      <c r="E24" s="398"/>
+      <c r="F24" s="398"/>
       <c r="H24" s="250" t="s">
         <v>2282</v>
       </c>
@@ -48793,11 +48811,11 @@
       <c r="L24" s="250"/>
       <c r="M24" s="250"/>
       <c r="N24" s="250"/>
-      <c r="P24" s="396" t="s">
+      <c r="P24" s="398" t="s">
         <v>2320</v>
       </c>
-      <c r="Q24" s="396"/>
-      <c r="R24" s="396"/>
+      <c r="Q24" s="398"/>
+      <c r="R24" s="398"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="103" t="s">
@@ -49037,28 +49055,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="379" t="s">
+      <c r="A35" s="381" t="s">
         <v>2321</v>
       </c>
-      <c r="B35" s="395"/>
-      <c r="C35" s="395"/>
-      <c r="D35" s="395"/>
-      <c r="E35" s="395"/>
-      <c r="F35" s="395"/>
-      <c r="G35" s="395"/>
-      <c r="H35" s="380"/>
-      <c r="I35" s="379" t="s">
+      <c r="B35" s="397"/>
+      <c r="C35" s="397"/>
+      <c r="D35" s="397"/>
+      <c r="E35" s="397"/>
+      <c r="F35" s="397"/>
+      <c r="G35" s="397"/>
+      <c r="H35" s="382"/>
+      <c r="I35" s="381" t="s">
         <v>872</v>
       </c>
-      <c r="J35" s="395"/>
-      <c r="K35" s="395"/>
-      <c r="L35" s="395"/>
-      <c r="M35" s="395"/>
-      <c r="N35" s="395"/>
-      <c r="O35" s="395"/>
-      <c r="P35" s="395"/>
-      <c r="Q35" s="395"/>
-      <c r="R35" s="380"/>
+      <c r="J35" s="397"/>
+      <c r="K35" s="397"/>
+      <c r="L35" s="397"/>
+      <c r="M35" s="397"/>
+      <c r="N35" s="397"/>
+      <c r="O35" s="397"/>
+      <c r="P35" s="397"/>
+      <c r="Q35" s="397"/>
+      <c r="R35" s="382"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -10898,6 +10898,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10911,18 +10923,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17513,8 +17513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44914,11 +44914,11 @@
       <c r="B223" t="s">
         <v>1516</v>
       </c>
-      <c r="D223" s="390" t="s">
+      <c r="D223" s="385" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="392"/>
-      <c r="F223" s="391"/>
+      <c r="E223" s="387"/>
+      <c r="F223" s="386"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -44970,19 +44970,19 @@
       <c r="B227" t="s">
         <v>1936</v>
       </c>
-      <c r="D227" s="390" t="s">
+      <c r="D227" s="385" t="s">
         <v>1538</v>
       </c>
-      <c r="E227" s="392"/>
-      <c r="F227" s="391"/>
-      <c r="H227" s="390" t="s">
+      <c r="E227" s="387"/>
+      <c r="F227" s="386"/>
+      <c r="H227" s="385" t="s">
         <v>1541</v>
       </c>
-      <c r="I227" s="391"/>
-      <c r="K227" s="390" t="s">
+      <c r="I227" s="386"/>
+      <c r="K227" s="385" t="s">
         <v>1540</v>
       </c>
-      <c r="L227" s="391"/>
+      <c r="L227" s="386"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -45229,7 +45229,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="393" t="s">
+      <c r="D273" s="388" t="s">
         <v>2767</v>
       </c>
       <c r="F273" s="162" t="s">
@@ -45237,22 +45237,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="393"/>
+      <c r="D274" s="388"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="393"/>
+      <c r="D275" s="388"/>
       <c r="F275" t="s">
         <v>2766</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="393"/>
+      <c r="D276" s="388"/>
       <c r="K276" t="s">
         <v>2782</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="393"/>
+      <c r="D277" s="388"/>
       <c r="F277" s="162" t="s">
         <v>1936</v>
       </c>
@@ -45267,7 +45267,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="393"/>
+      <c r="D278" s="388"/>
       <c r="I278" t="s">
         <v>2784</v>
       </c>
@@ -45353,13 +45353,13 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="386" t="s">
+      <c r="B287" s="390" t="s">
         <v>2777</v>
       </c>
-      <c r="C287" s="385" t="s">
+      <c r="C287" s="389" t="s">
         <v>1532</v>
       </c>
-      <c r="D287" s="385"/>
+      <c r="D287" s="389"/>
       <c r="E287" s="373"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
@@ -45382,7 +45382,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="388" t="s">
+      <c r="J288" s="392" t="s">
         <v>2779</v>
       </c>
       <c r="L288" s="31"/>
@@ -45403,13 +45403,13 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="389"/>
+      <c r="J289" s="393"/>
       <c r="L289" s="31" t="s">
         <v>2772</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="388" t="s">
+      <c r="O289" s="392" t="s">
         <v>2778</v>
       </c>
     </row>
@@ -45418,34 +45418,34 @@
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="387" t="s">
+      <c r="G290" s="391" t="s">
         <v>2780</v>
       </c>
-      <c r="H290" s="385"/>
-      <c r="I290" s="385"/>
-      <c r="J290" s="389"/>
+      <c r="H290" s="389"/>
+      <c r="I290" s="389"/>
+      <c r="J290" s="393"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="389"/>
+      <c r="O290" s="393"/>
     </row>
     <row r="291" spans="2:15">
       <c r="B291" s="374"/>
-      <c r="C291" s="385" t="s">
+      <c r="C291" s="389" t="s">
         <v>2774</v>
       </c>
-      <c r="D291" s="385"/>
+      <c r="D291" s="389"/>
       <c r="E291" s="373"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="389"/>
-      <c r="L291" s="387" t="s">
+      <c r="J291" s="393"/>
+      <c r="L291" s="391" t="s">
         <v>2775</v>
       </c>
-      <c r="M291" s="385"/>
-      <c r="N291" s="385"/>
-      <c r="O291" s="389"/>
+      <c r="M291" s="389"/>
+      <c r="N291" s="389"/>
+      <c r="O291" s="393"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -45459,7 +45459,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="389"/>
+      <c r="O292" s="393"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -45556,11 +45556,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -45568,6 +45563,11 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5009" uniqueCount="2792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="2794">
   <si>
     <t>USER</t>
   </si>
@@ -8780,6 +8780,12 @@
   </si>
   <si>
     <t>Diamond problem</t>
+  </si>
+  <si>
+    <t>Grandparent</t>
+  </si>
+  <si>
+    <t>Paent</t>
   </si>
 </sst>
 </file>
@@ -10140,6 +10146,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10179,6 +10189,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10192,18 +10214,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10248,10 +10258,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18690,7 +18696,7 @@
   <dimension ref="B7:T275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:J31"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18700,10 +18706,10 @@
   <sheetData>
     <row r="7" spans="11:15">
       <c r="K7" s="225"/>
-      <c r="O7" s="386"/>
-    </row>
-    <row r="21" spans="4:15" ht="15.75" thickBot="1"/>
-    <row r="22" spans="4:15">
+      <c r="O7" s="350"/>
+    </row>
+    <row r="21" spans="4:18" ht="15.75" thickBot="1"/>
+    <row r="22" spans="4:18">
       <c r="D22" s="77" t="s">
         <v>1441</v>
       </c>
@@ -18717,14 +18723,21 @@
       <c r="L22" s="78"/>
       <c r="M22" s="78"/>
       <c r="N22" s="79"/>
-    </row>
-    <row r="23" spans="4:15">
+      <c r="P22" s="77" t="s">
+        <v>2792</v>
+      </c>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="79"/>
+    </row>
+    <row r="23" spans="4:18">
       <c r="D23" s="80"/>
       <c r="G23" s="71"/>
       <c r="J23" s="80"/>
       <c r="N23" s="71"/>
-    </row>
-    <row r="24" spans="4:15">
+      <c r="P23" s="80"/>
+      <c r="R23" s="71"/>
+    </row>
+    <row r="24" spans="4:18">
       <c r="D24" s="80"/>
       <c r="E24" s="36" t="s">
         <v>2787</v>
@@ -18734,15 +18747,20 @@
       <c r="K24" s="36" t="s">
         <v>2787</v>
       </c>
-      <c r="N24" s="388"/>
-    </row>
-    <row r="25" spans="4:15">
+      <c r="N24" s="352"/>
+      <c r="P24" s="80"/>
+      <c r="R24" s="71"/>
+    </row>
+    <row r="25" spans="4:18" ht="15.75" thickBot="1">
       <c r="D25" s="80"/>
       <c r="G25" s="71"/>
       <c r="J25" s="80"/>
       <c r="N25" s="71"/>
-    </row>
-    <row r="26" spans="4:15">
+      <c r="P25" s="81"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="83"/>
+    </row>
+    <row r="26" spans="4:18" ht="15.75" thickBot="1">
       <c r="D26" s="80"/>
       <c r="F26" s="36" t="s">
         <v>2788</v>
@@ -18754,7 +18772,7 @@
       </c>
       <c r="N26" s="71"/>
     </row>
-    <row r="27" spans="4:15">
+    <row r="27" spans="4:18">
       <c r="D27" s="80"/>
       <c r="E27" s="36" t="s">
         <v>127</v>
@@ -18765,28 +18783,40 @@
         <v>127</v>
       </c>
       <c r="N27" s="71"/>
-    </row>
-    <row r="28" spans="4:15">
+      <c r="P27" s="77" t="s">
+        <v>2793</v>
+      </c>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="79"/>
+    </row>
+    <row r="28" spans="4:18">
       <c r="D28" s="80"/>
       <c r="G28" s="71"/>
       <c r="J28" s="80"/>
       <c r="N28" s="71"/>
-    </row>
-    <row r="29" spans="4:15" ht="15.75" thickBot="1">
+      <c r="P28" s="80"/>
+      <c r="R28" s="71"/>
+    </row>
+    <row r="29" spans="4:18" ht="15.75" thickBot="1">
       <c r="D29" s="81"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="83"/>
-      <c r="J29" s="389"/>
+      <c r="J29" s="353"/>
       <c r="K29" s="82"/>
       <c r="L29" s="82"/>
       <c r="M29" s="82"/>
       <c r="N29" s="83"/>
-    </row>
-    <row r="30" spans="4:15" ht="24" thickBot="1">
-      <c r="O30" s="387"/>
-    </row>
-    <row r="31" spans="4:15">
+      <c r="P29" s="80"/>
+      <c r="R29" s="71"/>
+    </row>
+    <row r="30" spans="4:18" ht="24" thickBot="1">
+      <c r="O30" s="351"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="83"/>
+    </row>
+    <row r="31" spans="4:18">
       <c r="G31" s="77" t="s">
         <v>509</v>
       </c>
@@ -18796,11 +18826,11 @@
       <c r="I31" s="78"/>
       <c r="J31" s="79"/>
     </row>
-    <row r="32" spans="4:15">
+    <row r="32" spans="4:18" ht="15.75" thickBot="1">
       <c r="G32" s="80"/>
       <c r="J32" s="71"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:18">
       <c r="B33" s="36" t="s">
         <v>2791</v>
       </c>
@@ -18809,24 +18839,38 @@
       <c r="M33" s="36" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="34" spans="2:13">
+      <c r="P33" s="77" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="79"/>
+    </row>
+    <row r="34" spans="2:18">
       <c r="G34" s="80"/>
       <c r="J34" s="71"/>
-    </row>
-    <row r="35" spans="2:13">
+      <c r="P34" s="80"/>
+      <c r="R34" s="71"/>
+    </row>
+    <row r="35" spans="2:18">
       <c r="G35" s="80"/>
       <c r="J35" s="71"/>
-    </row>
-    <row r="36" spans="2:13">
+      <c r="P35" s="80"/>
+      <c r="R35" s="71"/>
+    </row>
+    <row r="36" spans="2:18">
       <c r="G36" s="80"/>
       <c r="J36" s="71"/>
-    </row>
-    <row r="37" spans="2:13" ht="15.75" thickBot="1">
+      <c r="P36" s="80"/>
+      <c r="R36" s="71"/>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" thickBot="1">
       <c r="G37" s="81"/>
       <c r="H37" s="82"/>
       <c r="I37" s="82"/>
       <c r="J37" s="83"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="83"/>
     </row>
     <row r="71" spans="13:20">
       <c r="O71" s="70"/>
@@ -20248,13 +20292,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="356" t="s">
+      <c r="H3" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="357"/>
-      <c r="J3" s="357"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="358"/>
+      <c r="I3" s="361"/>
+      <c r="J3" s="361"/>
+      <c r="K3" s="361"/>
+      <c r="L3" s="362"/>
       <c r="P3" t="s">
         <v>2167</v>
       </c>
@@ -20297,20 +20341,20 @@
         <v>2164</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="359" t="s">
+      <c r="G6" s="363" t="s">
         <v>2162</v>
       </c>
-      <c r="H6" s="360"/>
+      <c r="H6" s="364"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="359" t="s">
+      <c r="J6" s="363" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="360"/>
+      <c r="K6" s="364"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="359" t="s">
+      <c r="M6" s="363" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="360"/>
+      <c r="N6" s="364"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="121" t="s">
@@ -20331,20 +20375,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="361" t="s">
+      <c r="G8" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="362"/>
+      <c r="H8" s="366"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="361" t="s">
+      <c r="J8" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="362"/>
+      <c r="K8" s="366"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="361" t="s">
+      <c r="M8" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="362"/>
+      <c r="N8" s="366"/>
       <c r="Q8" s="138"/>
     </row>
     <row r="9" spans="1:18">
@@ -20369,17 +20413,17 @@
       <c r="B10" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="352" t="s">
+      <c r="F10" s="356" t="s">
         <v>2553</v>
       </c>
-      <c r="G10" s="353"/>
-      <c r="H10" s="353"/>
-      <c r="I10" s="353"/>
-      <c r="J10" s="353"/>
-      <c r="K10" s="353"/>
-      <c r="L10" s="353"/>
-      <c r="M10" s="353"/>
-      <c r="N10" s="353"/>
+      <c r="G10" s="357"/>
+      <c r="H10" s="357"/>
+      <c r="I10" s="357"/>
+      <c r="J10" s="357"/>
+      <c r="K10" s="357"/>
+      <c r="L10" s="357"/>
+      <c r="M10" s="357"/>
+      <c r="N10" s="357"/>
       <c r="P10" t="s">
         <v>2555</v>
       </c>
@@ -20389,15 +20433,15 @@
       <c r="B11" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="354"/>
-      <c r="G11" s="355"/>
-      <c r="H11" s="355"/>
-      <c r="I11" s="355"/>
-      <c r="J11" s="355"/>
-      <c r="K11" s="355"/>
-      <c r="L11" s="355"/>
-      <c r="M11" s="355"/>
-      <c r="N11" s="355"/>
+      <c r="F11" s="358"/>
+      <c r="G11" s="359"/>
+      <c r="H11" s="359"/>
+      <c r="I11" s="359"/>
+      <c r="J11" s="359"/>
+      <c r="K11" s="359"/>
+      <c r="L11" s="359"/>
+      <c r="M11" s="359"/>
+      <c r="N11" s="359"/>
       <c r="P11" t="s">
         <v>2556</v>
       </c>
@@ -20651,10 +20695,10 @@
       <c r="C23" t="s">
         <v>2484</v>
       </c>
-      <c r="D23" s="350" t="s">
+      <c r="D23" s="354" t="s">
         <v>981</v>
       </c>
-      <c r="E23" s="351"/>
+      <c r="E23" s="355"/>
       <c r="F23" s="137"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -21974,7 +22018,7 @@
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="44"/>
-      <c r="K21" s="377" t="s">
+      <c r="K21" s="381" t="s">
         <v>2239</v>
       </c>
       <c r="L21" s="47"/>
@@ -22001,7 +22045,7 @@
       <c r="J22" s="47" t="s">
         <v>799</v>
       </c>
-      <c r="K22" s="378"/>
+      <c r="K22" s="382"/>
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
     </row>
@@ -22026,7 +22070,7 @@
       <c r="J23" s="50">
         <v>333</v>
       </c>
-      <c r="K23" s="378"/>
+      <c r="K23" s="382"/>
       <c r="L23" s="47"/>
       <c r="M23" s="48"/>
     </row>
@@ -22047,7 +22091,7 @@
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
       <c r="J24" s="47"/>
-      <c r="K24" s="378"/>
+      <c r="K24" s="382"/>
       <c r="L24" s="47"/>
       <c r="M24" s="48"/>
     </row>
@@ -22064,7 +22108,7 @@
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="44"/>
-      <c r="K25" s="378"/>
+      <c r="K25" s="382"/>
       <c r="L25" s="47"/>
       <c r="M25" s="48"/>
     </row>
@@ -22079,7 +22123,7 @@
       <c r="J26" s="47" t="s">
         <v>2226</v>
       </c>
-      <c r="K26" s="378"/>
+      <c r="K26" s="382"/>
       <c r="L26" s="47"/>
       <c r="M26" s="48"/>
     </row>
@@ -22094,7 +22138,7 @@
       <c r="J27" s="50">
         <v>234</v>
       </c>
-      <c r="K27" s="378"/>
+      <c r="K27" s="382"/>
       <c r="L27" s="47"/>
       <c r="M27" s="48"/>
     </row>
@@ -22108,7 +22152,7 @@
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
-      <c r="K28" s="378"/>
+      <c r="K28" s="382"/>
       <c r="L28" s="47"/>
       <c r="M28" s="48"/>
     </row>
@@ -22124,7 +22168,7 @@
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="44"/>
-      <c r="K29" s="378"/>
+      <c r="K29" s="382"/>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
     </row>
@@ -22142,7 +22186,7 @@
       <c r="J30" s="47" t="s">
         <v>2227</v>
       </c>
-      <c r="K30" s="378"/>
+      <c r="K30" s="382"/>
       <c r="L30" s="47"/>
       <c r="M30" s="48"/>
     </row>
@@ -22157,7 +22201,7 @@
       <c r="J31" s="50">
         <v>345</v>
       </c>
-      <c r="K31" s="379"/>
+      <c r="K31" s="383"/>
       <c r="L31" s="47"/>
       <c r="M31" s="48"/>
     </row>
@@ -38826,10 +38870,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="380" t="s">
+      <c r="B1" s="384" t="s">
         <v>2446</v>
       </c>
-      <c r="C1" s="380"/>
+      <c r="C1" s="384"/>
       <c r="E1" t="s">
         <v>2447</v>
       </c>
@@ -41193,11 +41237,11 @@
       <c r="B223" t="s">
         <v>1415</v>
       </c>
-      <c r="D223" s="368" t="s">
+      <c r="D223" s="367" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="370"/>
-      <c r="F223" s="369"/>
+      <c r="E223" s="369"/>
+      <c r="F223" s="368"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -41249,19 +41293,19 @@
       <c r="B227" t="s">
         <v>1769</v>
       </c>
-      <c r="D227" s="368" t="s">
+      <c r="D227" s="367" t="s">
         <v>1437</v>
       </c>
-      <c r="E227" s="370"/>
-      <c r="F227" s="369"/>
-      <c r="H227" s="368" t="s">
+      <c r="E227" s="369"/>
+      <c r="F227" s="368"/>
+      <c r="H227" s="367" t="s">
         <v>1440</v>
       </c>
-      <c r="I227" s="369"/>
-      <c r="K227" s="368" t="s">
+      <c r="I227" s="368"/>
+      <c r="K227" s="367" t="s">
         <v>1439</v>
       </c>
-      <c r="L227" s="369"/>
+      <c r="L227" s="368"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -41508,7 +41552,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="371" t="s">
+      <c r="D273" s="370" t="s">
         <v>2531</v>
       </c>
       <c r="F273" s="159" t="s">
@@ -41516,22 +41560,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="371"/>
+      <c r="D274" s="370"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="371"/>
+      <c r="D275" s="370"/>
       <c r="F275" t="s">
         <v>2530</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="371"/>
+      <c r="D276" s="370"/>
       <c r="K276" t="s">
         <v>2546</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="371"/>
+      <c r="D277" s="370"/>
       <c r="F277" s="159" t="s">
         <v>1769</v>
       </c>
@@ -41546,7 +41590,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="371"/>
+      <c r="D278" s="370"/>
       <c r="I278" t="s">
         <v>2548</v>
       </c>
@@ -41632,14 +41676,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="364" t="s">
+      <c r="B287" s="372" t="s">
         <v>2541</v>
       </c>
-      <c r="C287" s="363" t="s">
+      <c r="C287" s="371" t="s">
         <v>1431</v>
       </c>
-      <c r="D287" s="363"/>
-      <c r="E287" s="351"/>
+      <c r="D287" s="371"/>
+      <c r="E287" s="355"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -41650,7 +41694,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="352"/>
+      <c r="B288" s="356"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1281</v>
@@ -41661,7 +41705,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="366" t="s">
+      <c r="J288" s="374" t="s">
         <v>2543</v>
       </c>
       <c r="L288" s="31"/>
@@ -41670,7 +41714,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="352"/>
+      <c r="B289" s="356"/>
       <c r="C289" s="25" t="s">
         <v>2536</v>
       </c>
@@ -41682,49 +41726,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="367"/>
+      <c r="J289" s="375"/>
       <c r="L289" s="31" t="s">
         <v>2536</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="366" t="s">
+      <c r="O289" s="374" t="s">
         <v>2542</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="352"/>
+      <c r="B290" s="356"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="365" t="s">
+      <c r="G290" s="373" t="s">
         <v>2544</v>
       </c>
-      <c r="H290" s="363"/>
-      <c r="I290" s="363"/>
-      <c r="J290" s="367"/>
+      <c r="H290" s="371"/>
+      <c r="I290" s="371"/>
+      <c r="J290" s="375"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="367"/>
+      <c r="O290" s="375"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="352"/>
-      <c r="C291" s="363" t="s">
+      <c r="B291" s="356"/>
+      <c r="C291" s="371" t="s">
         <v>2538</v>
       </c>
-      <c r="D291" s="363"/>
-      <c r="E291" s="351"/>
+      <c r="D291" s="371"/>
+      <c r="E291" s="355"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="367"/>
-      <c r="L291" s="365" t="s">
+      <c r="J291" s="375"/>
+      <c r="L291" s="373" t="s">
         <v>2539</v>
       </c>
-      <c r="M291" s="363"/>
-      <c r="N291" s="363"/>
-      <c r="O291" s="367"/>
+      <c r="M291" s="371"/>
+      <c r="N291" s="371"/>
+      <c r="O291" s="375"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -41738,7 +41782,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="367"/>
+      <c r="O292" s="375"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -41835,11 +41879,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -41847,6 +41886,11 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42078,18 +42122,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="381" t="s">
+      <c r="B3" s="385" t="s">
         <v>2471</v>
       </c>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="383"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="386"/>
+      <c r="G3" s="386"/>
+      <c r="H3" s="386"/>
+      <c r="I3" s="386"/>
+      <c r="J3" s="386"/>
+      <c r="K3" s="387"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -42204,24 +42248,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="384" t="s">
+      <c r="B15" s="388" t="s">
         <v>2472</v>
       </c>
-      <c r="C15" s="385"/>
-      <c r="D15" s="385"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="385"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="385"/>
-      <c r="I15" s="385"/>
-      <c r="J15" s="385"/>
-      <c r="K15" s="385"/>
-      <c r="L15" s="385"/>
-      <c r="M15" s="385"/>
-      <c r="N15" s="385"/>
-      <c r="O15" s="385"/>
-      <c r="P15" s="385"/>
-      <c r="Q15" s="385"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="389"/>
+      <c r="E15" s="389"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="389"/>
+      <c r="H15" s="389"/>
+      <c r="I15" s="389"/>
+      <c r="J15" s="389"/>
+      <c r="K15" s="389"/>
+      <c r="L15" s="389"/>
+      <c r="M15" s="389"/>
+      <c r="N15" s="389"/>
+      <c r="O15" s="389"/>
+      <c r="P15" s="389"/>
+      <c r="Q15" s="389"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -43665,7 +43709,7 @@
       <c r="A10" s="36" t="s">
         <v>2587</v>
       </c>
-      <c r="G10" s="372" t="s">
+      <c r="G10" s="376" t="s">
         <v>2616</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -43678,7 +43722,7 @@
       <c r="K10" s="36" t="s">
         <v>2623</v>
       </c>
-      <c r="L10" s="372" t="s">
+      <c r="L10" s="376" t="s">
         <v>2616</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -43690,7 +43734,7 @@
       <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="372"/>
+      <c r="G11" s="376"/>
       <c r="H11" s="36" t="s">
         <v>2602</v>
       </c>
@@ -43701,7 +43745,7 @@
       <c r="K11" s="36" t="s">
         <v>2625</v>
       </c>
-      <c r="L11" s="372"/>
+      <c r="L11" s="376"/>
       <c r="M11" s="36" t="s">
         <v>132</v>
       </c>
@@ -43714,7 +43758,7 @@
       <c r="B12" s="36" t="s">
         <v>2588</v>
       </c>
-      <c r="G12" s="372"/>
+      <c r="G12" s="376"/>
       <c r="H12" s="36" t="s">
         <v>2610</v>
       </c>
@@ -43725,7 +43769,7 @@
       <c r="K12" s="36" t="s">
         <v>2626</v>
       </c>
-      <c r="L12" s="372"/>
+      <c r="L12" s="376"/>
       <c r="M12" s="36" t="s">
         <v>134</v>
       </c>
@@ -43738,7 +43782,7 @@
       <c r="C13" s="36" t="s">
         <v>2589</v>
       </c>
-      <c r="G13" s="372"/>
+      <c r="G13" s="376"/>
       <c r="H13" s="36" t="s">
         <v>138</v>
       </c>
@@ -43749,7 +43793,7 @@
       <c r="K13" s="36" t="s">
         <v>2627</v>
       </c>
-      <c r="L13" s="372"/>
+      <c r="L13" s="376"/>
       <c r="M13" s="36" t="s">
         <v>2602</v>
       </c>
@@ -43768,7 +43812,7 @@
       <c r="K14" s="36" t="s">
         <v>2621</v>
       </c>
-      <c r="L14" s="372"/>
+      <c r="L14" s="376"/>
       <c r="M14" s="36" t="s">
         <v>134</v>
       </c>
@@ -43817,7 +43861,7 @@
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="79"/>
-      <c r="L17" s="374" t="s">
+      <c r="L17" s="378" t="s">
         <v>2617</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -43828,7 +43872,7 @@
       <c r="D18" s="36" t="s">
         <v>2593</v>
       </c>
-      <c r="G18" s="372" t="s">
+      <c r="G18" s="376" t="s">
         <v>2618</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -43838,7 +43882,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="71"/>
-      <c r="L18" s="374"/>
+      <c r="L18" s="378"/>
       <c r="M18" s="36" t="s">
         <v>2620</v>
       </c>
@@ -43847,7 +43891,7 @@
       <c r="C19" s="36" t="s">
         <v>2594</v>
       </c>
-      <c r="G19" s="372"/>
+      <c r="G19" s="376"/>
       <c r="H19" s="36" t="s">
         <v>138</v>
       </c>
@@ -43860,7 +43904,7 @@
       <c r="D20" s="36" t="s">
         <v>1997</v>
       </c>
-      <c r="G20" s="372"/>
+      <c r="G20" s="376"/>
       <c r="H20" s="36" t="s">
         <v>132</v>
       </c>
@@ -43873,7 +43917,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="373"/>
+      <c r="G21" s="377"/>
       <c r="H21" s="82" t="s">
         <v>137</v>
       </c>
@@ -44658,23 +44702,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="380" t="s">
         <v>2076</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="I1" s="376" t="s">
+      <c r="B1" s="380"/>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+      <c r="E1" s="380"/>
+      <c r="F1" s="380"/>
+      <c r="I1" s="380" t="s">
         <v>2086</v>
       </c>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
-      <c r="M1" s="376"/>
-      <c r="N1" s="376"/>
-      <c r="O1" s="376"/>
+      <c r="J1" s="380"/>
+      <c r="K1" s="380"/>
+      <c r="L1" s="380"/>
+      <c r="M1" s="380"/>
+      <c r="N1" s="380"/>
+      <c r="O1" s="380"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -44824,28 +44868,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="363" t="s">
         <v>2088</v>
       </c>
-      <c r="B12" s="375"/>
-      <c r="C12" s="375"/>
-      <c r="D12" s="375"/>
-      <c r="E12" s="375"/>
-      <c r="F12" s="375"/>
-      <c r="G12" s="375"/>
-      <c r="H12" s="360"/>
-      <c r="I12" s="359" t="s">
+      <c r="B12" s="379"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="379"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="379"/>
+      <c r="G12" s="379"/>
+      <c r="H12" s="364"/>
+      <c r="I12" s="363" t="s">
         <v>2088</v>
       </c>
-      <c r="J12" s="375"/>
-      <c r="K12" s="375"/>
-      <c r="L12" s="375"/>
-      <c r="M12" s="375"/>
-      <c r="N12" s="375"/>
-      <c r="O12" s="375"/>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="375"/>
-      <c r="R12" s="360"/>
+      <c r="J12" s="379"/>
+      <c r="K12" s="379"/>
+      <c r="L12" s="379"/>
+      <c r="M12" s="379"/>
+      <c r="N12" s="379"/>
+      <c r="O12" s="379"/>
+      <c r="P12" s="379"/>
+      <c r="Q12" s="379"/>
+      <c r="R12" s="364"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -45073,14 +45117,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="376" t="s">
+      <c r="A24" s="380" t="s">
         <v>2076</v>
       </c>
-      <c r="B24" s="376"/>
-      <c r="C24" s="376"/>
-      <c r="D24" s="376"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="376"/>
+      <c r="B24" s="380"/>
+      <c r="C24" s="380"/>
+      <c r="D24" s="380"/>
+      <c r="E24" s="380"/>
+      <c r="F24" s="380"/>
       <c r="H24" s="245" t="s">
         <v>2086</v>
       </c>
@@ -45090,11 +45134,11 @@
       <c r="L24" s="245"/>
       <c r="M24" s="245"/>
       <c r="N24" s="245"/>
-      <c r="P24" s="376" t="s">
+      <c r="P24" s="380" t="s">
         <v>2124</v>
       </c>
-      <c r="Q24" s="376"/>
-      <c r="R24" s="376"/>
+      <c r="Q24" s="380"/>
+      <c r="R24" s="380"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="102" t="s">
@@ -45334,28 +45378,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="359" t="s">
+      <c r="A35" s="363" t="s">
         <v>2125</v>
       </c>
-      <c r="B35" s="375"/>
-      <c r="C35" s="375"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="375"/>
-      <c r="F35" s="375"/>
-      <c r="G35" s="375"/>
-      <c r="H35" s="360"/>
-      <c r="I35" s="359" t="s">
+      <c r="B35" s="379"/>
+      <c r="C35" s="379"/>
+      <c r="D35" s="379"/>
+      <c r="E35" s="379"/>
+      <c r="F35" s="379"/>
+      <c r="G35" s="379"/>
+      <c r="H35" s="364"/>
+      <c r="I35" s="363" t="s">
         <v>777</v>
       </c>
-      <c r="J35" s="375"/>
-      <c r="K35" s="375"/>
-      <c r="L35" s="375"/>
-      <c r="M35" s="375"/>
-      <c r="N35" s="375"/>
-      <c r="O35" s="375"/>
-      <c r="P35" s="375"/>
-      <c r="Q35" s="375"/>
-      <c r="R35" s="360"/>
+      <c r="J35" s="379"/>
+      <c r="K35" s="379"/>
+      <c r="L35" s="379"/>
+      <c r="M35" s="379"/>
+      <c r="N35" s="379"/>
+      <c r="O35" s="379"/>
+      <c r="P35" s="379"/>
+      <c r="Q35" s="379"/>
+      <c r="R35" s="364"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="2859">
   <si>
     <t>USER</t>
   </si>
@@ -8786,6 +8786,201 @@
   </si>
   <si>
     <t>Paent</t>
+  </si>
+  <si>
+    <t>Sub class</t>
+  </si>
+  <si>
+    <t>c.occupation();</t>
+  </si>
+  <si>
+    <t>public occupation();</t>
+  </si>
+  <si>
+    <t>public default eat(){</t>
+  </si>
+  <si>
+    <t>sysout("eat vegetables");</t>
+  </si>
+  <si>
+    <t>sysout("eat meat");</t>
+  </si>
+  <si>
+    <t>Override</t>
+  </si>
+  <si>
+    <t>artist/ austr</t>
+  </si>
+  <si>
+    <t>public void eat[</t>
+  </si>
+  <si>
+    <t>sysout("eat fruits");</t>
+  </si>
+  <si>
+    <t>overrule</t>
+  </si>
+  <si>
+    <t>public void drive();</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>public void turn();</t>
+  </si>
+  <si>
+    <t>1 incomplete method</t>
+  </si>
+  <si>
+    <t>1 incomplete method inherited</t>
+  </si>
+  <si>
+    <t>implement parent</t>
+  </si>
+  <si>
+    <t>public void turn(){</t>
+  </si>
+  <si>
+    <t>public void drive(){</t>
+  </si>
+  <si>
+    <t>Interfac</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>grandchild</t>
+  </si>
+  <si>
+    <t>extends child</t>
+  </si>
+  <si>
+    <t>=2 incomplete methods</t>
+  </si>
+  <si>
+    <t>1 complete methods</t>
+  </si>
+  <si>
+    <t>inherited 2 incomplete methods</t>
+  </si>
+  <si>
+    <t>=1 complete method + 1 incomplete method</t>
+  </si>
+  <si>
+    <t>inherited 1 complete method &amp; 1 incomplete methods</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>public void music();</t>
+  </si>
+  <si>
+    <t>steroa</t>
+  </si>
+  <si>
+    <t>implement Stereo  extends granchild</t>
+  </si>
+  <si>
+    <t>=1 incomplete method</t>
+  </si>
+  <si>
+    <t>inherited 1 incomplete from parent1 and 2 compete method from parent 2</t>
+  </si>
+  <si>
+    <t>public void music(){</t>
+  </si>
+  <si>
+    <t>= 3 complete methods</t>
+  </si>
+  <si>
+    <t>partial by inheritance</t>
+  </si>
+  <si>
+    <t>AdvancedCar</t>
+  </si>
+  <si>
+    <t>extends Car</t>
+  </si>
+  <si>
+    <t>= 1 incomplete method + 2 complet methods</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>AdvancedCar ac=new AdvancedCar();</t>
+  </si>
+  <si>
+    <t>grandchild gc=new grandchild();</t>
+  </si>
+  <si>
+    <t>Grandparent gp=new ANY_PROGRAM_COMPLETE</t>
+  </si>
+  <si>
+    <t>Grandparent gp=new grandchild();</t>
+  </si>
+  <si>
+    <t>parent p = new grandchild();</t>
+  </si>
+  <si>
+    <t>child c= new grandChild();</t>
+  </si>
+  <si>
+    <t>stereo s= new grandchild();</t>
+  </si>
+  <si>
+    <t>stereo s=new AdvancedCar();</t>
+  </si>
+  <si>
+    <t>child c=new AdvancedCar();</t>
+  </si>
+  <si>
+    <t>Parent p=new AdvancedCar</t>
+  </si>
+  <si>
+    <t>Grandparent gp=new advacnedcard()l</t>
+  </si>
+  <si>
+    <t>=1 incomplete methods  (  drive )</t>
+  </si>
+  <si>
+    <t>= 2 complete methods ( drive and turn )</t>
+  </si>
+  <si>
+    <t>gp.drive()</t>
+  </si>
+  <si>
+    <t>gp.turn();</t>
+  </si>
+  <si>
+    <t>Access limited to LHS program</t>
+  </si>
+  <si>
+    <t>access limited to LHS interface/abstract</t>
+  </si>
+  <si>
+    <t>unlock by typecasting</t>
   </si>
 </sst>
 </file>
@@ -9445,7 +9640,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10189,18 +10384,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10214,6 +10397,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10256,6 +10451,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18693,23 +18893,26 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:T275"/>
+  <dimension ref="A7:T274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="5" width="9.140625" style="36"/>
+    <col min="6" max="6" width="11.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="7" spans="11:15">
       <c r="K7" s="225"/>
       <c r="O7" s="350"/>
     </row>
-    <row r="21" spans="4:18" ht="15.75" thickBot="1"/>
-    <row r="22" spans="4:18">
+    <row r="21" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="22" spans="2:18">
       <c r="D22" s="77" t="s">
         <v>1441</v>
       </c>
@@ -18729,7 +18932,7 @@
       <c r="Q22" s="78"/>
       <c r="R22" s="79"/>
     </row>
-    <row r="23" spans="4:18">
+    <row r="23" spans="2:18">
       <c r="D23" s="80"/>
       <c r="G23" s="71"/>
       <c r="J23" s="80"/>
@@ -18737,7 +18940,7 @@
       <c r="P23" s="80"/>
       <c r="R23" s="71"/>
     </row>
-    <row r="24" spans="4:18">
+    <row r="24" spans="2:18">
       <c r="D24" s="80"/>
       <c r="E24" s="36" t="s">
         <v>2787</v>
@@ -18751,7 +18954,7 @@
       <c r="P24" s="80"/>
       <c r="R24" s="71"/>
     </row>
-    <row r="25" spans="4:18" ht="15.75" thickBot="1">
+    <row r="25" spans="2:18" ht="15.75" thickBot="1">
       <c r="D25" s="80"/>
       <c r="G25" s="71"/>
       <c r="J25" s="80"/>
@@ -18760,7 +18963,7 @@
       <c r="Q25" s="82"/>
       <c r="R25" s="83"/>
     </row>
-    <row r="26" spans="4:18" ht="15.75" thickBot="1">
+    <row r="26" spans="2:18" ht="15.75" thickBot="1">
       <c r="D26" s="80"/>
       <c r="F26" s="36" t="s">
         <v>2788</v>
@@ -18772,7 +18975,10 @@
       </c>
       <c r="N26" s="71"/>
     </row>
-    <row r="27" spans="4:18">
+    <row r="27" spans="2:18">
+      <c r="B27" s="36" t="s">
+        <v>2794</v>
+      </c>
       <c r="D27" s="80"/>
       <c r="E27" s="36" t="s">
         <v>127</v>
@@ -18789,7 +18995,7 @@
       <c r="Q27" s="78"/>
       <c r="R27" s="79"/>
     </row>
-    <row r="28" spans="4:18">
+    <row r="28" spans="2:18">
       <c r="D28" s="80"/>
       <c r="G28" s="71"/>
       <c r="J28" s="80"/>
@@ -18797,7 +19003,7 @@
       <c r="P28" s="80"/>
       <c r="R28" s="71"/>
     </row>
-    <row r="29" spans="4:18" ht="15.75" thickBot="1">
+    <row r="29" spans="2:18" ht="15.75" thickBot="1">
       <c r="D29" s="81"/>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
@@ -18810,13 +19016,13 @@
       <c r="P29" s="80"/>
       <c r="R29" s="71"/>
     </row>
-    <row r="30" spans="4:18" ht="24" thickBot="1">
+    <row r="30" spans="2:18" ht="24" thickBot="1">
       <c r="O30" s="351"/>
       <c r="P30" s="81"/>
       <c r="Q30" s="82"/>
       <c r="R30" s="83"/>
     </row>
-    <row r="31" spans="4:18">
+    <row r="31" spans="2:18">
       <c r="G31" s="77" t="s">
         <v>509</v>
       </c>
@@ -18826,13 +19032,16 @@
       <c r="I31" s="78"/>
       <c r="J31" s="79"/>
     </row>
-    <row r="32" spans="4:18" ht="15.75" thickBot="1">
+    <row r="32" spans="2:18" ht="15.75" thickBot="1">
       <c r="G32" s="80"/>
       <c r="J32" s="71"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="36" t="s">
         <v>2791</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>2801</v>
       </c>
       <c r="G33" s="80"/>
       <c r="J33" s="71"/>
@@ -18846,13 +19055,17 @@
       <c r="R33" s="79"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="G34" s="80"/>
+      <c r="G34" s="80" t="s">
+        <v>510</v>
+      </c>
       <c r="J34" s="71"/>
       <c r="P34" s="80"/>
       <c r="R34" s="71"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="G35" s="80"/>
+      <c r="G35" s="80" t="s">
+        <v>2795</v>
+      </c>
       <c r="J35" s="71"/>
       <c r="P35" s="80"/>
       <c r="R35" s="71"/>
@@ -18872,26 +19085,337 @@
       <c r="Q37" s="82"/>
       <c r="R37" s="83"/>
     </row>
-    <row r="71" spans="13:20">
+    <row r="38" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="39" spans="2:18">
+      <c r="D39" s="77" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
+      <c r="J39" s="77" t="s">
+        <v>1776</v>
+      </c>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="79"/>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="D40" s="80"/>
+      <c r="G40" s="71"/>
+      <c r="J40" s="80"/>
+      <c r="N40" s="71"/>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="D41" s="80"/>
+      <c r="E41" s="36" t="s">
+        <v>2796</v>
+      </c>
+      <c r="G41" s="71"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="36" t="s">
+        <v>2796</v>
+      </c>
+      <c r="N41" s="352"/>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="D42" s="80"/>
+      <c r="E42" s="36" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G42" s="71"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="36" t="s">
+        <v>2797</v>
+      </c>
+      <c r="N42" s="71"/>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="D43" s="80"/>
+      <c r="F43" s="36" t="s">
+        <v>2798</v>
+      </c>
+      <c r="G43" s="71"/>
+      <c r="J43" s="80"/>
+      <c r="L43" s="36" t="s">
+        <v>2799</v>
+      </c>
+      <c r="N43" s="71"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="D44" s="80"/>
+      <c r="E44" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="71"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="N44" s="71"/>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="D45" s="80"/>
+      <c r="G45" s="71"/>
+      <c r="J45" s="80"/>
+      <c r="N45" s="71"/>
+    </row>
+    <row r="46" spans="2:18" ht="15.75" thickBot="1">
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="83"/>
+      <c r="J46" s="353"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="83"/>
+    </row>
+    <row r="47" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="48" spans="2:18">
+      <c r="G48" s="77" t="s">
+        <v>509</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>2790</v>
+      </c>
+      <c r="I48" s="78"/>
+      <c r="J48" s="79"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="G49" s="80"/>
+      <c r="J49" s="71"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="G50" s="80"/>
+      <c r="J50" s="71"/>
+      <c r="M50" s="36" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="G51" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="J51" s="71"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="C52" s="36" t="s">
+        <v>2804</v>
+      </c>
+      <c r="G52" s="80" t="s">
+        <v>2795</v>
+      </c>
+      <c r="J52" s="71"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="G53" s="80"/>
+      <c r="J53" s="71"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" thickBot="1">
+      <c r="G54" s="81"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="83"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="E56" s="36" t="s">
+        <v>2800</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="H57" s="36" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="G59" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="61" spans="1:13">
+      <c r="A61" s="36" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G61" s="77" t="s">
+        <v>2792</v>
+      </c>
+      <c r="H61" s="78"/>
+      <c r="I61" s="79"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="F62" s="36" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G62" s="80"/>
+      <c r="I62" s="71"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="36" t="s">
+        <v>2844</v>
+      </c>
+      <c r="G63" s="80"/>
+      <c r="H63" s="36" t="s">
+        <v>2805</v>
+      </c>
+      <c r="I63" s="71"/>
+      <c r="K63" s="36" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" thickBot="1">
+      <c r="G64" s="81"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="83"/>
+      <c r="K64" s="390" t="s">
+        <v>2852</v>
+      </c>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+    </row>
+    <row r="65" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A65" s="36" t="s">
+        <v>2845</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="F66" s="36" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G66" s="77" t="s">
+        <v>2807</v>
+      </c>
+      <c r="H66" s="78"/>
+      <c r="I66" s="79"/>
+      <c r="N66" s="36" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="36" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G67" s="80"/>
+      <c r="I67" s="71"/>
+      <c r="K67" s="36" t="s">
+        <v>2810</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="G68" s="80"/>
+      <c r="H68" s="36" t="s">
+        <v>2808</v>
+      </c>
+      <c r="I68" s="71"/>
+      <c r="K68" s="36" t="s">
+        <v>2809</v>
+      </c>
+      <c r="N68" s="164" t="s">
+        <v>2855</v>
+      </c>
+      <c r="P68" s="36" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" thickBot="1">
+      <c r="G69" s="81"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="83"/>
+      <c r="K69" s="390" t="s">
+        <v>2822</v>
+      </c>
+      <c r="L69" s="391"/>
+      <c r="M69" s="391"/>
+      <c r="N69" s="36" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="15.75" thickBot="1">
+      <c r="H70" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="164" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B71" s="164"/>
+      <c r="C71" s="164"/>
+      <c r="F71" s="36" t="s">
+        <v>2815</v>
+      </c>
+      <c r="G71" s="77" t="s">
+        <v>2806</v>
+      </c>
+      <c r="H71" s="78" t="s">
+        <v>2811</v>
+      </c>
+      <c r="I71" s="79"/>
       <c r="O71" s="70"/>
       <c r="P71" s="70"/>
     </row>
-    <row r="72" spans="13:20">
+    <row r="72" spans="1:20">
+      <c r="F72" s="36" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G72" s="80"/>
+      <c r="H72" s="36" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I72" s="71"/>
+      <c r="K72" s="36" t="s">
+        <v>2824</v>
+      </c>
       <c r="O72" s="70"/>
       <c r="P72" s="70"/>
     </row>
-    <row r="73" spans="13:20">
+    <row r="73" spans="1:20">
+      <c r="G73" s="80"/>
+      <c r="H73" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I73" s="71"/>
+      <c r="K73" s="36" t="s">
+        <v>2823</v>
+      </c>
       <c r="O73" s="70"/>
       <c r="P73" s="70"/>
     </row>
-    <row r="74" spans="13:20">
-      <c r="M74" s="70"/>
-      <c r="N74" s="70"/>
-      <c r="O74" s="70"/>
+    <row r="74" spans="1:20" ht="15.75" thickBot="1">
+      <c r="G74" s="81"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="83"/>
+      <c r="K74" s="390" t="s">
+        <v>2825</v>
+      </c>
+      <c r="L74" s="391"/>
+      <c r="M74" s="392"/>
+      <c r="N74" s="392"/>
+      <c r="O74" s="392"/>
       <c r="R74" s="70"/>
       <c r="S74" s="70"/>
     </row>
-    <row r="75" spans="13:20">
+    <row r="75" spans="1:20" ht="15.75" thickBot="1">
       <c r="M75" s="70"/>
       <c r="O75" s="70"/>
       <c r="P75" s="70"/>
@@ -18899,26 +19423,188 @@
       <c r="S75" s="70"/>
       <c r="T75" s="70"/>
     </row>
-    <row r="76" spans="13:20">
-      <c r="M76" s="70"/>
+    <row r="76" spans="1:20">
+      <c r="A76" s="36" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B76" s="77" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="F76" s="36" t="s">
+        <v>2816</v>
+      </c>
+      <c r="G76" s="77" t="s">
+        <v>2820</v>
+      </c>
+      <c r="H76" s="78" t="s">
+        <v>2821</v>
+      </c>
+      <c r="I76" s="79"/>
       <c r="O76" s="70"/>
       <c r="P76" s="70"/>
       <c r="S76" s="70"/>
       <c r="T76" s="70"/>
     </row>
-    <row r="77" spans="13:20">
-      <c r="O77" s="70"/>
-      <c r="P77" s="70"/>
-      <c r="S77" s="70"/>
-      <c r="T77" s="70"/>
-    </row>
-    <row r="148" spans="10:12">
-      <c r="J148" s="164"/>
-      <c r="K148" s="164"/>
-      <c r="L148" s="164"/>
-    </row>
-    <row r="275" spans="10:10">
-      <c r="J275" s="164"/>
+    <row r="77" spans="1:20">
+      <c r="B77" s="80"/>
+      <c r="D77" s="71"/>
+      <c r="F77" s="36" t="s">
+        <v>2817</v>
+      </c>
+      <c r="G77" s="80"/>
+      <c r="H77" s="36" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I77" s="71"/>
+      <c r="K77" s="36" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="B78" s="80"/>
+      <c r="C78" s="36" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D78" s="71"/>
+      <c r="G78" s="80"/>
+      <c r="I78" s="71"/>
+      <c r="K78" s="36" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B79" s="81"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="83"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" s="83"/>
+      <c r="K79" s="390" t="s">
+        <v>2853</v>
+      </c>
+      <c r="L79" s="391"/>
+      <c r="M79" s="391"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="390" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B80" s="391"/>
+    </row>
+    <row r="81" spans="3:16" ht="15.75" thickBot="1"/>
+    <row r="82" spans="3:16">
+      <c r="C82" s="36" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D82" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="78" t="s">
+        <v>2830</v>
+      </c>
+      <c r="F82" s="79"/>
+    </row>
+    <row r="83" spans="3:16">
+      <c r="D83" s="80"/>
+      <c r="F83" s="71"/>
+      <c r="H83" s="36" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16">
+      <c r="D84" s="80"/>
+      <c r="F84" s="71"/>
+    </row>
+    <row r="85" spans="3:16">
+      <c r="D85" s="80"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="36" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" ht="15.75" thickBot="1">
+      <c r="D86" s="81"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="83"/>
+      <c r="K86" s="36" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16">
+      <c r="E87" s="390" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="P87" s="36" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" ht="15.75" thickBot="1">
+      <c r="P88" s="36" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16">
+      <c r="D89" s="77" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E89" s="78"/>
+      <c r="F89" s="79" t="s">
+        <v>2837</v>
+      </c>
+      <c r="P89" s="36" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16">
+      <c r="C90" s="36" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D90" s="80"/>
+      <c r="E90" s="36" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F90" s="71"/>
+    </row>
+    <row r="91" spans="3:16">
+      <c r="C91" s="36" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D91" s="80"/>
+      <c r="F91" s="71"/>
+      <c r="J91" s="36" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" ht="15.75" thickBot="1">
+      <c r="D92" s="81"/>
+      <c r="E92" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="83"/>
+      <c r="J92" s="36" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16">
+      <c r="E93" s="390" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F93" s="37"/>
+    </row>
+    <row r="147" spans="10:12">
+      <c r="J147" s="164"/>
+      <c r="K147" s="164"/>
+      <c r="L147" s="164"/>
+    </row>
+    <row r="274" spans="10:10">
+      <c r="J274" s="164"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41237,11 +41923,11 @@
       <c r="B223" t="s">
         <v>1415</v>
       </c>
-      <c r="D223" s="367" t="s">
+      <c r="D223" s="372" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="369"/>
-      <c r="F223" s="368"/>
+      <c r="E223" s="374"/>
+      <c r="F223" s="373"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -41293,19 +41979,19 @@
       <c r="B227" t="s">
         <v>1769</v>
       </c>
-      <c r="D227" s="367" t="s">
+      <c r="D227" s="372" t="s">
         <v>1437</v>
       </c>
-      <c r="E227" s="369"/>
-      <c r="F227" s="368"/>
-      <c r="H227" s="367" t="s">
+      <c r="E227" s="374"/>
+      <c r="F227" s="373"/>
+      <c r="H227" s="372" t="s">
         <v>1440</v>
       </c>
-      <c r="I227" s="368"/>
-      <c r="K227" s="367" t="s">
+      <c r="I227" s="373"/>
+      <c r="K227" s="372" t="s">
         <v>1439</v>
       </c>
-      <c r="L227" s="368"/>
+      <c r="L227" s="373"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -41552,7 +42238,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="370" t="s">
+      <c r="D273" s="375" t="s">
         <v>2531</v>
       </c>
       <c r="F273" s="159" t="s">
@@ -41560,22 +42246,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="370"/>
+      <c r="D274" s="375"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="370"/>
+      <c r="D275" s="375"/>
       <c r="F275" t="s">
         <v>2530</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="370"/>
+      <c r="D276" s="375"/>
       <c r="K276" t="s">
         <v>2546</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="370"/>
+      <c r="D277" s="375"/>
       <c r="F277" s="159" t="s">
         <v>1769</v>
       </c>
@@ -41590,7 +42276,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="370"/>
+      <c r="D278" s="375"/>
       <c r="I278" t="s">
         <v>2548</v>
       </c>
@@ -41676,13 +42362,13 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="372" t="s">
+      <c r="B287" s="368" t="s">
         <v>2541</v>
       </c>
-      <c r="C287" s="371" t="s">
+      <c r="C287" s="367" t="s">
         <v>1431</v>
       </c>
-      <c r="D287" s="371"/>
+      <c r="D287" s="367"/>
       <c r="E287" s="355"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
@@ -41705,7 +42391,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="374" t="s">
+      <c r="J288" s="370" t="s">
         <v>2543</v>
       </c>
       <c r="L288" s="31"/>
@@ -41726,13 +42412,13 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="375"/>
+      <c r="J289" s="371"/>
       <c r="L289" s="31" t="s">
         <v>2536</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="374" t="s">
+      <c r="O289" s="370" t="s">
         <v>2542</v>
       </c>
     </row>
@@ -41741,34 +42427,34 @@
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="373" t="s">
+      <c r="G290" s="369" t="s">
         <v>2544</v>
       </c>
-      <c r="H290" s="371"/>
-      <c r="I290" s="371"/>
-      <c r="J290" s="375"/>
+      <c r="H290" s="367"/>
+      <c r="I290" s="367"/>
+      <c r="J290" s="371"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="375"/>
+      <c r="O290" s="371"/>
     </row>
     <row r="291" spans="2:15">
       <c r="B291" s="356"/>
-      <c r="C291" s="371" t="s">
+      <c r="C291" s="367" t="s">
         <v>2538</v>
       </c>
-      <c r="D291" s="371"/>
+      <c r="D291" s="367"/>
       <c r="E291" s="355"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="375"/>
-      <c r="L291" s="373" t="s">
+      <c r="J291" s="371"/>
+      <c r="L291" s="369" t="s">
         <v>2539</v>
       </c>
-      <c r="M291" s="371"/>
-      <c r="N291" s="371"/>
-      <c r="O291" s="375"/>
+      <c r="M291" s="367"/>
+      <c r="N291" s="367"/>
+      <c r="O291" s="371"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -41782,7 +42468,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="375"/>
+      <c r="O292" s="371"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -41879,6 +42565,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -41886,11 +42577,6 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="2859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="2861">
   <si>
     <t>USER</t>
   </si>
@@ -8981,6 +8981,12 @@
   </si>
   <si>
     <t>unlock by typecasting</t>
+  </si>
+  <si>
+    <t>extends grandparent</t>
+  </si>
+  <si>
+    <t>grandparent gp=new child</t>
   </si>
 </sst>
 </file>
@@ -9640,7 +9646,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10345,6 +10351,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10384,6 +10395,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10397,18 +10420,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10453,11 +10464,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18895,8 +18902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:T274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93:F93"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19233,6 +19240,9 @@
       </c>
     </row>
     <row r="59" spans="1:13">
+      <c r="A59" s="164" t="s">
+        <v>2860</v>
+      </c>
       <c r="G59" s="36" t="s">
         <v>127</v>
       </c>
@@ -19259,9 +19269,11 @@
       <c r="I62" s="71"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="393" t="s">
         <v>2844</v>
       </c>
+      <c r="B63" s="393"/>
+      <c r="C63" s="393"/>
       <c r="G63" s="80"/>
       <c r="H63" s="36" t="s">
         <v>2805</v>
@@ -19272,40 +19284,52 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A64" s="393"/>
+      <c r="B64" s="393"/>
+      <c r="C64" s="393"/>
       <c r="G64" s="81"/>
       <c r="H64" s="82"/>
       <c r="I64" s="83"/>
-      <c r="K64" s="390" t="s">
+      <c r="K64" s="354" t="s">
         <v>2852</v>
       </c>
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="393" t="s">
         <v>2845</v>
       </c>
+      <c r="B65" s="393"/>
+      <c r="C65" s="393"/>
       <c r="H65" s="36" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:20">
+      <c r="A66" s="393"/>
+      <c r="B66" s="393"/>
+      <c r="C66" s="393"/>
       <c r="F66" s="36" t="s">
         <v>2814</v>
       </c>
       <c r="G66" s="77" t="s">
         <v>2807</v>
       </c>
-      <c r="H66" s="78"/>
+      <c r="H66" s="78" t="s">
+        <v>2859</v>
+      </c>
       <c r="I66" s="79"/>
       <c r="N66" s="36" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="67" spans="1:20">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="393" t="s">
         <v>2846</v>
       </c>
+      <c r="B67" s="393"/>
+      <c r="C67" s="393"/>
       <c r="F67" s="36" t="s">
         <v>2819</v>
       </c>
@@ -19338,11 +19362,11 @@
       <c r="G69" s="81"/>
       <c r="H69" s="82"/>
       <c r="I69" s="83"/>
-      <c r="K69" s="390" t="s">
+      <c r="K69" s="354" t="s">
         <v>2822</v>
       </c>
-      <c r="L69" s="391"/>
-      <c r="M69" s="391"/>
+      <c r="L69" s="355"/>
+      <c r="M69" s="355"/>
       <c r="N69" s="36" t="s">
         <v>2856</v>
       </c>
@@ -19405,13 +19429,13 @@
       <c r="G74" s="81"/>
       <c r="H74" s="82"/>
       <c r="I74" s="83"/>
-      <c r="K74" s="390" t="s">
+      <c r="K74" s="354" t="s">
         <v>2825</v>
       </c>
-      <c r="L74" s="391"/>
-      <c r="M74" s="392"/>
-      <c r="N74" s="392"/>
-      <c r="O74" s="392"/>
+      <c r="L74" s="355"/>
+      <c r="M74" s="356"/>
+      <c r="N74" s="356"/>
+      <c r="O74" s="356"/>
       <c r="R74" s="70"/>
       <c r="S74" s="70"/>
     </row>
@@ -19483,20 +19507,20 @@
         <v>127</v>
       </c>
       <c r="I79" s="83"/>
-      <c r="K79" s="390" t="s">
+      <c r="K79" s="354" t="s">
         <v>2853</v>
       </c>
-      <c r="L79" s="391"/>
-      <c r="M79" s="391"/>
+      <c r="L79" s="355"/>
+      <c r="M79" s="355"/>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="390" t="s">
+      <c r="A80" s="354" t="s">
         <v>2831</v>
       </c>
-      <c r="B80" s="391"/>
-    </row>
-    <row r="81" spans="3:16" ht="15.75" thickBot="1"/>
-    <row r="82" spans="3:16">
+      <c r="B80" s="355"/>
+    </row>
+    <row r="81" spans="3:11" ht="15.75" thickBot="1"/>
+    <row r="82" spans="3:11">
       <c r="C82" s="36" t="s">
         <v>2815</v>
       </c>
@@ -19508,49 +19532,52 @@
       </c>
       <c r="F82" s="79"/>
     </row>
-    <row r="83" spans="3:16">
+    <row r="83" spans="3:11">
       <c r="D83" s="80"/>
       <c r="F83" s="71"/>
       <c r="H83" s="36" t="s">
         <v>2832</v>
       </c>
     </row>
-    <row r="84" spans="3:16">
+    <row r="84" spans="3:11">
       <c r="D84" s="80"/>
       <c r="F84" s="71"/>
     </row>
-    <row r="85" spans="3:16">
+    <row r="85" spans="3:11">
       <c r="D85" s="80"/>
       <c r="F85" s="71"/>
       <c r="G85" s="36" t="s">
         <v>2835</v>
       </c>
     </row>
-    <row r="86" spans="3:16" ht="15.75" thickBot="1">
+    <row r="86" spans="3:11" ht="15.75" thickBot="1">
       <c r="D86" s="81"/>
       <c r="E86" s="82"/>
       <c r="F86" s="83"/>
-      <c r="K86" s="36" t="s">
+      <c r="J86" s="393"/>
+      <c r="K86" s="393" t="s">
         <v>2848</v>
       </c>
     </row>
-    <row r="87" spans="3:16">
-      <c r="E87" s="390" t="s">
+    <row r="87" spans="3:11">
+      <c r="E87" s="354" t="s">
         <v>2838</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
-      <c r="P87" s="36" t="s">
+      <c r="J87" s="393" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" ht="15.75" thickBot="1">
-      <c r="P88" s="36" t="s">
+      <c r="K87" s="393"/>
+    </row>
+    <row r="88" spans="3:11" ht="15.75" thickBot="1">
+      <c r="J88" s="393" t="s">
         <v>2850</v>
       </c>
-    </row>
-    <row r="89" spans="3:16">
+      <c r="K88" s="393"/>
+    </row>
+    <row r="89" spans="3:11">
       <c r="D89" s="77" t="s">
         <v>2836</v>
       </c>
@@ -19558,11 +19585,12 @@
       <c r="F89" s="79" t="s">
         <v>2837</v>
       </c>
-      <c r="P89" s="36" t="s">
+      <c r="J89" s="393" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="90" spans="3:16">
+      <c r="K89" s="393"/>
+    </row>
+    <row r="90" spans="3:11">
       <c r="C90" s="36" t="s">
         <v>2839</v>
       </c>
@@ -19571,29 +19599,33 @@
         <v>2833</v>
       </c>
       <c r="F90" s="71"/>
-    </row>
-    <row r="91" spans="3:16">
+      <c r="J90" s="393"/>
+      <c r="K90" s="393"/>
+    </row>
+    <row r="91" spans="3:11">
       <c r="C91" s="36" t="s">
         <v>2840</v>
       </c>
       <c r="D91" s="80"/>
       <c r="F91" s="71"/>
-      <c r="J91" s="36" t="s">
+      <c r="J91" s="393" t="s">
         <v>2841</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" ht="15.75" thickBot="1">
+      <c r="K91" s="393"/>
+    </row>
+    <row r="92" spans="3:11" ht="15.75" thickBot="1">
       <c r="D92" s="81"/>
       <c r="E92" s="82" t="s">
         <v>127</v>
       </c>
       <c r="F92" s="83"/>
-      <c r="J92" s="36" t="s">
+      <c r="J92" s="393" t="s">
         <v>2842</v>
       </c>
-    </row>
-    <row r="93" spans="3:16">
-      <c r="E93" s="390" t="s">
+      <c r="K92" s="393"/>
+    </row>
+    <row r="93" spans="3:11">
+      <c r="E93" s="354" t="s">
         <v>2834</v>
       </c>
       <c r="F93" s="37"/>
@@ -20978,13 +21010,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="360" t="s">
+      <c r="H3" s="363" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="361"/>
-      <c r="J3" s="361"/>
-      <c r="K3" s="361"/>
-      <c r="L3" s="362"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
+      <c r="K3" s="364"/>
+      <c r="L3" s="365"/>
       <c r="P3" t="s">
         <v>2167</v>
       </c>
@@ -21027,20 +21059,20 @@
         <v>2164</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="363" t="s">
+      <c r="G6" s="366" t="s">
         <v>2162</v>
       </c>
-      <c r="H6" s="364"/>
+      <c r="H6" s="367"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="363" t="s">
+      <c r="J6" s="366" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="364"/>
+      <c r="K6" s="367"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="363" t="s">
+      <c r="M6" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="364"/>
+      <c r="N6" s="367"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="121" t="s">
@@ -21061,20 +21093,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="365" t="s">
+      <c r="G8" s="368" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="366"/>
+      <c r="H8" s="369"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="365" t="s">
+      <c r="J8" s="368" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="366"/>
+      <c r="K8" s="369"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="365" t="s">
+      <c r="M8" s="368" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="366"/>
+      <c r="N8" s="369"/>
       <c r="Q8" s="138"/>
     </row>
     <row r="9" spans="1:18">
@@ -21099,17 +21131,17 @@
       <c r="B10" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="356" t="s">
+      <c r="F10" s="359" t="s">
         <v>2553</v>
       </c>
-      <c r="G10" s="357"/>
-      <c r="H10" s="357"/>
-      <c r="I10" s="357"/>
-      <c r="J10" s="357"/>
-      <c r="K10" s="357"/>
-      <c r="L10" s="357"/>
-      <c r="M10" s="357"/>
-      <c r="N10" s="357"/>
+      <c r="G10" s="360"/>
+      <c r="H10" s="360"/>
+      <c r="I10" s="360"/>
+      <c r="J10" s="360"/>
+      <c r="K10" s="360"/>
+      <c r="L10" s="360"/>
+      <c r="M10" s="360"/>
+      <c r="N10" s="360"/>
       <c r="P10" t="s">
         <v>2555</v>
       </c>
@@ -21119,15 +21151,15 @@
       <c r="B11" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="358"/>
-      <c r="G11" s="359"/>
-      <c r="H11" s="359"/>
-      <c r="I11" s="359"/>
-      <c r="J11" s="359"/>
-      <c r="K11" s="359"/>
-      <c r="L11" s="359"/>
-      <c r="M11" s="359"/>
-      <c r="N11" s="359"/>
+      <c r="F11" s="361"/>
+      <c r="G11" s="362"/>
+      <c r="H11" s="362"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
+      <c r="L11" s="362"/>
+      <c r="M11" s="362"/>
+      <c r="N11" s="362"/>
       <c r="P11" t="s">
         <v>2556</v>
       </c>
@@ -21381,10 +21413,10 @@
       <c r="C23" t="s">
         <v>2484</v>
       </c>
-      <c r="D23" s="354" t="s">
+      <c r="D23" s="357" t="s">
         <v>981</v>
       </c>
-      <c r="E23" s="355"/>
+      <c r="E23" s="358"/>
       <c r="F23" s="137"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -22704,7 +22736,7 @@
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="44"/>
-      <c r="K21" s="381" t="s">
+      <c r="K21" s="384" t="s">
         <v>2239</v>
       </c>
       <c r="L21" s="47"/>
@@ -22731,7 +22763,7 @@
       <c r="J22" s="47" t="s">
         <v>799</v>
       </c>
-      <c r="K22" s="382"/>
+      <c r="K22" s="385"/>
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
     </row>
@@ -22756,7 +22788,7 @@
       <c r="J23" s="50">
         <v>333</v>
       </c>
-      <c r="K23" s="382"/>
+      <c r="K23" s="385"/>
       <c r="L23" s="47"/>
       <c r="M23" s="48"/>
     </row>
@@ -22777,7 +22809,7 @@
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
       <c r="J24" s="47"/>
-      <c r="K24" s="382"/>
+      <c r="K24" s="385"/>
       <c r="L24" s="47"/>
       <c r="M24" s="48"/>
     </row>
@@ -22794,7 +22826,7 @@
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="44"/>
-      <c r="K25" s="382"/>
+      <c r="K25" s="385"/>
       <c r="L25" s="47"/>
       <c r="M25" s="48"/>
     </row>
@@ -22809,7 +22841,7 @@
       <c r="J26" s="47" t="s">
         <v>2226</v>
       </c>
-      <c r="K26" s="382"/>
+      <c r="K26" s="385"/>
       <c r="L26" s="47"/>
       <c r="M26" s="48"/>
     </row>
@@ -22824,7 +22856,7 @@
       <c r="J27" s="50">
         <v>234</v>
       </c>
-      <c r="K27" s="382"/>
+      <c r="K27" s="385"/>
       <c r="L27" s="47"/>
       <c r="M27" s="48"/>
     </row>
@@ -22838,7 +22870,7 @@
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
-      <c r="K28" s="382"/>
+      <c r="K28" s="385"/>
       <c r="L28" s="47"/>
       <c r="M28" s="48"/>
     </row>
@@ -22854,7 +22886,7 @@
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="44"/>
-      <c r="K29" s="382"/>
+      <c r="K29" s="385"/>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
     </row>
@@ -22872,7 +22904,7 @@
       <c r="J30" s="47" t="s">
         <v>2227</v>
       </c>
-      <c r="K30" s="382"/>
+      <c r="K30" s="385"/>
       <c r="L30" s="47"/>
       <c r="M30" s="48"/>
     </row>
@@ -22887,7 +22919,7 @@
       <c r="J31" s="50">
         <v>345</v>
       </c>
-      <c r="K31" s="383"/>
+      <c r="K31" s="386"/>
       <c r="L31" s="47"/>
       <c r="M31" s="48"/>
     </row>
@@ -39556,10 +39588,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="384" t="s">
+      <c r="B1" s="387" t="s">
         <v>2446</v>
       </c>
-      <c r="C1" s="384"/>
+      <c r="C1" s="387"/>
       <c r="E1" t="s">
         <v>2447</v>
       </c>
@@ -41923,11 +41955,11 @@
       <c r="B223" t="s">
         <v>1415</v>
       </c>
-      <c r="D223" s="372" t="s">
+      <c r="D223" s="370" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="374"/>
-      <c r="F223" s="373"/>
+      <c r="E223" s="372"/>
+      <c r="F223" s="371"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -41979,19 +42011,19 @@
       <c r="B227" t="s">
         <v>1769</v>
       </c>
-      <c r="D227" s="372" t="s">
+      <c r="D227" s="370" t="s">
         <v>1437</v>
       </c>
-      <c r="E227" s="374"/>
-      <c r="F227" s="373"/>
-      <c r="H227" s="372" t="s">
+      <c r="E227" s="372"/>
+      <c r="F227" s="371"/>
+      <c r="H227" s="370" t="s">
         <v>1440</v>
       </c>
-      <c r="I227" s="373"/>
-      <c r="K227" s="372" t="s">
+      <c r="I227" s="371"/>
+      <c r="K227" s="370" t="s">
         <v>1439</v>
       </c>
-      <c r="L227" s="373"/>
+      <c r="L227" s="371"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -42238,7 +42270,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="375" t="s">
+      <c r="D273" s="373" t="s">
         <v>2531</v>
       </c>
       <c r="F273" s="159" t="s">
@@ -42246,22 +42278,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="375"/>
+      <c r="D274" s="373"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="375"/>
+      <c r="D275" s="373"/>
       <c r="F275" t="s">
         <v>2530</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="375"/>
+      <c r="D276" s="373"/>
       <c r="K276" t="s">
         <v>2546</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="375"/>
+      <c r="D277" s="373"/>
       <c r="F277" s="159" t="s">
         <v>1769</v>
       </c>
@@ -42276,7 +42308,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="375"/>
+      <c r="D278" s="373"/>
       <c r="I278" t="s">
         <v>2548</v>
       </c>
@@ -42362,14 +42394,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="368" t="s">
+      <c r="B287" s="375" t="s">
         <v>2541</v>
       </c>
-      <c r="C287" s="367" t="s">
+      <c r="C287" s="374" t="s">
         <v>1431</v>
       </c>
-      <c r="D287" s="367"/>
-      <c r="E287" s="355"/>
+      <c r="D287" s="374"/>
+      <c r="E287" s="358"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -42380,7 +42412,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="356"/>
+      <c r="B288" s="359"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1281</v>
@@ -42391,7 +42423,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="370" t="s">
+      <c r="J288" s="377" t="s">
         <v>2543</v>
       </c>
       <c r="L288" s="31"/>
@@ -42400,7 +42432,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="356"/>
+      <c r="B289" s="359"/>
       <c r="C289" s="25" t="s">
         <v>2536</v>
       </c>
@@ -42412,49 +42444,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="371"/>
+      <c r="J289" s="378"/>
       <c r="L289" s="31" t="s">
         <v>2536</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="370" t="s">
+      <c r="O289" s="377" t="s">
         <v>2542</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="356"/>
+      <c r="B290" s="359"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="369" t="s">
+      <c r="G290" s="376" t="s">
         <v>2544</v>
       </c>
-      <c r="H290" s="367"/>
-      <c r="I290" s="367"/>
-      <c r="J290" s="371"/>
+      <c r="H290" s="374"/>
+      <c r="I290" s="374"/>
+      <c r="J290" s="378"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="371"/>
+      <c r="O290" s="378"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="356"/>
-      <c r="C291" s="367" t="s">
+      <c r="B291" s="359"/>
+      <c r="C291" s="374" t="s">
         <v>2538</v>
       </c>
-      <c r="D291" s="367"/>
-      <c r="E291" s="355"/>
+      <c r="D291" s="374"/>
+      <c r="E291" s="358"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="371"/>
-      <c r="L291" s="369" t="s">
+      <c r="J291" s="378"/>
+      <c r="L291" s="376" t="s">
         <v>2539</v>
       </c>
-      <c r="M291" s="367"/>
-      <c r="N291" s="367"/>
-      <c r="O291" s="371"/>
+      <c r="M291" s="374"/>
+      <c r="N291" s="374"/>
+      <c r="O291" s="378"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -42468,7 +42500,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="371"/>
+      <c r="O292" s="378"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -42565,11 +42597,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -42577,6 +42604,11 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42808,18 +42840,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="385" t="s">
+      <c r="B3" s="388" t="s">
         <v>2471</v>
       </c>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="387"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="389"/>
+      <c r="I3" s="389"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="390"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -42934,24 +42966,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="388" t="s">
+      <c r="B15" s="391" t="s">
         <v>2472</v>
       </c>
-      <c r="C15" s="389"/>
-      <c r="D15" s="389"/>
-      <c r="E15" s="389"/>
-      <c r="F15" s="389"/>
-      <c r="G15" s="389"/>
-      <c r="H15" s="389"/>
-      <c r="I15" s="389"/>
-      <c r="J15" s="389"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="389"/>
-      <c r="M15" s="389"/>
-      <c r="N15" s="389"/>
-      <c r="O15" s="389"/>
-      <c r="P15" s="389"/>
-      <c r="Q15" s="389"/>
+      <c r="C15" s="392"/>
+      <c r="D15" s="392"/>
+      <c r="E15" s="392"/>
+      <c r="F15" s="392"/>
+      <c r="G15" s="392"/>
+      <c r="H15" s="392"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="392"/>
+      <c r="K15" s="392"/>
+      <c r="L15" s="392"/>
+      <c r="M15" s="392"/>
+      <c r="N15" s="392"/>
+      <c r="O15" s="392"/>
+      <c r="P15" s="392"/>
+      <c r="Q15" s="392"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -44395,7 +44427,7 @@
       <c r="A10" s="36" t="s">
         <v>2587</v>
       </c>
-      <c r="G10" s="376" t="s">
+      <c r="G10" s="379" t="s">
         <v>2616</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -44408,7 +44440,7 @@
       <c r="K10" s="36" t="s">
         <v>2623</v>
       </c>
-      <c r="L10" s="376" t="s">
+      <c r="L10" s="379" t="s">
         <v>2616</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -44420,7 +44452,7 @@
       <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="376"/>
+      <c r="G11" s="379"/>
       <c r="H11" s="36" t="s">
         <v>2602</v>
       </c>
@@ -44431,7 +44463,7 @@
       <c r="K11" s="36" t="s">
         <v>2625</v>
       </c>
-      <c r="L11" s="376"/>
+      <c r="L11" s="379"/>
       <c r="M11" s="36" t="s">
         <v>132</v>
       </c>
@@ -44444,7 +44476,7 @@
       <c r="B12" s="36" t="s">
         <v>2588</v>
       </c>
-      <c r="G12" s="376"/>
+      <c r="G12" s="379"/>
       <c r="H12" s="36" t="s">
         <v>2610</v>
       </c>
@@ -44455,7 +44487,7 @@
       <c r="K12" s="36" t="s">
         <v>2626</v>
       </c>
-      <c r="L12" s="376"/>
+      <c r="L12" s="379"/>
       <c r="M12" s="36" t="s">
         <v>134</v>
       </c>
@@ -44468,7 +44500,7 @@
       <c r="C13" s="36" t="s">
         <v>2589</v>
       </c>
-      <c r="G13" s="376"/>
+      <c r="G13" s="379"/>
       <c r="H13" s="36" t="s">
         <v>138</v>
       </c>
@@ -44479,7 +44511,7 @@
       <c r="K13" s="36" t="s">
         <v>2627</v>
       </c>
-      <c r="L13" s="376"/>
+      <c r="L13" s="379"/>
       <c r="M13" s="36" t="s">
         <v>2602</v>
       </c>
@@ -44498,7 +44530,7 @@
       <c r="K14" s="36" t="s">
         <v>2621</v>
       </c>
-      <c r="L14" s="376"/>
+      <c r="L14" s="379"/>
       <c r="M14" s="36" t="s">
         <v>134</v>
       </c>
@@ -44547,7 +44579,7 @@
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="79"/>
-      <c r="L17" s="378" t="s">
+      <c r="L17" s="381" t="s">
         <v>2617</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -44558,7 +44590,7 @@
       <c r="D18" s="36" t="s">
         <v>2593</v>
       </c>
-      <c r="G18" s="376" t="s">
+      <c r="G18" s="379" t="s">
         <v>2618</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -44568,7 +44600,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="71"/>
-      <c r="L18" s="378"/>
+      <c r="L18" s="381"/>
       <c r="M18" s="36" t="s">
         <v>2620</v>
       </c>
@@ -44577,7 +44609,7 @@
       <c r="C19" s="36" t="s">
         <v>2594</v>
       </c>
-      <c r="G19" s="376"/>
+      <c r="G19" s="379"/>
       <c r="H19" s="36" t="s">
         <v>138</v>
       </c>
@@ -44590,7 +44622,7 @@
       <c r="D20" s="36" t="s">
         <v>1997</v>
       </c>
-      <c r="G20" s="376"/>
+      <c r="G20" s="379"/>
       <c r="H20" s="36" t="s">
         <v>132</v>
       </c>
@@ -44603,7 +44635,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="377"/>
+      <c r="G21" s="380"/>
       <c r="H21" s="82" t="s">
         <v>137</v>
       </c>
@@ -45388,23 +45420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="383" t="s">
         <v>2076</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="I1" s="380" t="s">
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="I1" s="383" t="s">
         <v>2086</v>
       </c>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
-      <c r="O1" s="380"/>
+      <c r="J1" s="383"/>
+      <c r="K1" s="383"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="383"/>
+      <c r="N1" s="383"/>
+      <c r="O1" s="383"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -45554,28 +45586,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="363" t="s">
+      <c r="A12" s="366" t="s">
         <v>2088</v>
       </c>
-      <c r="B12" s="379"/>
-      <c r="C12" s="379"/>
-      <c r="D12" s="379"/>
-      <c r="E12" s="379"/>
-      <c r="F12" s="379"/>
-      <c r="G12" s="379"/>
-      <c r="H12" s="364"/>
-      <c r="I12" s="363" t="s">
+      <c r="B12" s="382"/>
+      <c r="C12" s="382"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="382"/>
+      <c r="F12" s="382"/>
+      <c r="G12" s="382"/>
+      <c r="H12" s="367"/>
+      <c r="I12" s="366" t="s">
         <v>2088</v>
       </c>
-      <c r="J12" s="379"/>
-      <c r="K12" s="379"/>
-      <c r="L12" s="379"/>
-      <c r="M12" s="379"/>
-      <c r="N12" s="379"/>
-      <c r="O12" s="379"/>
-      <c r="P12" s="379"/>
-      <c r="Q12" s="379"/>
-      <c r="R12" s="364"/>
+      <c r="J12" s="382"/>
+      <c r="K12" s="382"/>
+      <c r="L12" s="382"/>
+      <c r="M12" s="382"/>
+      <c r="N12" s="382"/>
+      <c r="O12" s="382"/>
+      <c r="P12" s="382"/>
+      <c r="Q12" s="382"/>
+      <c r="R12" s="367"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -45803,14 +45835,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="380" t="s">
+      <c r="A24" s="383" t="s">
         <v>2076</v>
       </c>
-      <c r="B24" s="380"/>
-      <c r="C24" s="380"/>
-      <c r="D24" s="380"/>
-      <c r="E24" s="380"/>
-      <c r="F24" s="380"/>
+      <c r="B24" s="383"/>
+      <c r="C24" s="383"/>
+      <c r="D24" s="383"/>
+      <c r="E24" s="383"/>
+      <c r="F24" s="383"/>
       <c r="H24" s="245" t="s">
         <v>2086</v>
       </c>
@@ -45820,11 +45852,11 @@
       <c r="L24" s="245"/>
       <c r="M24" s="245"/>
       <c r="N24" s="245"/>
-      <c r="P24" s="380" t="s">
+      <c r="P24" s="383" t="s">
         <v>2124</v>
       </c>
-      <c r="Q24" s="380"/>
-      <c r="R24" s="380"/>
+      <c r="Q24" s="383"/>
+      <c r="R24" s="383"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="102" t="s">
@@ -46064,28 +46096,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="363" t="s">
+      <c r="A35" s="366" t="s">
         <v>2125</v>
       </c>
-      <c r="B35" s="379"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="379"/>
-      <c r="E35" s="379"/>
-      <c r="F35" s="379"/>
-      <c r="G35" s="379"/>
-      <c r="H35" s="364"/>
-      <c r="I35" s="363" t="s">
+      <c r="B35" s="382"/>
+      <c r="C35" s="382"/>
+      <c r="D35" s="382"/>
+      <c r="E35" s="382"/>
+      <c r="F35" s="382"/>
+      <c r="G35" s="382"/>
+      <c r="H35" s="367"/>
+      <c r="I35" s="366" t="s">
         <v>777</v>
       </c>
-      <c r="J35" s="379"/>
-      <c r="K35" s="379"/>
-      <c r="L35" s="379"/>
-      <c r="M35" s="379"/>
-      <c r="N35" s="379"/>
-      <c r="O35" s="379"/>
-      <c r="P35" s="379"/>
-      <c r="Q35" s="379"/>
-      <c r="R35" s="364"/>
+      <c r="J35" s="382"/>
+      <c r="K35" s="382"/>
+      <c r="L35" s="382"/>
+      <c r="M35" s="382"/>
+      <c r="N35" s="382"/>
+      <c r="O35" s="382"/>
+      <c r="P35" s="382"/>
+      <c r="Q35" s="382"/>
+      <c r="R35" s="367"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="2861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="2870">
   <si>
     <t>USER</t>
   </si>
@@ -8818,9 +8818,6 @@
     <t>sysout("eat fruits");</t>
   </si>
   <si>
-    <t>overrule</t>
-  </si>
-  <si>
     <t>public void drive();</t>
   </si>
   <si>
@@ -8987,6 +8984,36 @@
   </si>
   <si>
     <t>grandparent gp=new child</t>
+  </si>
+  <si>
+    <t>FordCar</t>
+  </si>
+  <si>
+    <t>drive()</t>
+  </si>
+  <si>
+    <t>taketurn()</t>
+  </si>
+  <si>
+    <t>make noise, huge, speed 30 m/hr</t>
+  </si>
+  <si>
+    <t>smooth, compact, 200 m/hr</t>
+  </si>
+  <si>
+    <t>OVERRIDE</t>
+  </si>
+  <si>
+    <t>FordMustang extends FordCar</t>
+  </si>
+  <si>
+    <t>Parent p=new GrandParent();</t>
+  </si>
+  <si>
+    <t>RHS is parent of LHS</t>
+  </si>
+  <si>
+    <t>RHS should be lower in inheritance chain</t>
   </si>
 </sst>
 </file>
@@ -10356,6 +10383,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10395,18 +10423,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10420,6 +10436,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10464,7 +10492,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18902,8 +18929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:T274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19043,7 +19070,7 @@
       <c r="G32" s="80"/>
       <c r="J32" s="71"/>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="1:18">
       <c r="B33" s="36" t="s">
         <v>2791</v>
       </c>
@@ -19061,7 +19088,7 @@
       <c r="Q33" s="78"/>
       <c r="R33" s="79"/>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="1:18">
       <c r="G34" s="80" t="s">
         <v>510</v>
       </c>
@@ -19069,7 +19096,7 @@
       <c r="P34" s="80"/>
       <c r="R34" s="71"/>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="1:18">
       <c r="G35" s="80" t="s">
         <v>2795</v>
       </c>
@@ -19077,13 +19104,13 @@
       <c r="P35" s="80"/>
       <c r="R35" s="71"/>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="1:18">
       <c r="G36" s="80"/>
       <c r="J36" s="71"/>
       <c r="P36" s="80"/>
       <c r="R36" s="71"/>
     </row>
-    <row r="37" spans="2:18" ht="15.75" thickBot="1">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1">
       <c r="G37" s="81"/>
       <c r="H37" s="82"/>
       <c r="I37" s="82"/>
@@ -19092,8 +19119,8 @@
       <c r="Q37" s="82"/>
       <c r="R37" s="83"/>
     </row>
-    <row r="38" spans="2:18" ht="15.75" thickBot="1"/>
-    <row r="39" spans="2:18">
+    <row r="38" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:18">
       <c r="D39" s="77" t="s">
         <v>1441</v>
       </c>
@@ -19108,13 +19135,13 @@
       <c r="M39" s="78"/>
       <c r="N39" s="79"/>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="1:18">
       <c r="D40" s="80"/>
       <c r="G40" s="71"/>
       <c r="J40" s="80"/>
       <c r="N40" s="71"/>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="1:18">
       <c r="D41" s="80"/>
       <c r="E41" s="36" t="s">
         <v>2796</v>
@@ -19126,7 +19153,7 @@
       </c>
       <c r="N41" s="352"/>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="1:18">
       <c r="D42" s="80"/>
       <c r="E42" s="36" t="s">
         <v>2797</v>
@@ -19138,7 +19165,7 @@
       </c>
       <c r="N42" s="71"/>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="1:18">
       <c r="D43" s="80"/>
       <c r="F43" s="36" t="s">
         <v>2798</v>
@@ -19150,7 +19177,7 @@
       </c>
       <c r="N43" s="71"/>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="1:18">
       <c r="D44" s="80"/>
       <c r="E44" s="36" t="s">
         <v>127</v>
@@ -19162,13 +19189,13 @@
       </c>
       <c r="N44" s="71"/>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="1:18">
       <c r="D45" s="80"/>
       <c r="G45" s="71"/>
       <c r="J45" s="80"/>
       <c r="N45" s="71"/>
     </row>
-    <row r="46" spans="2:18" ht="15.75" thickBot="1">
+    <row r="46" spans="1:18" ht="15.75" thickBot="1">
       <c r="D46" s="81"/>
       <c r="E46" s="82"/>
       <c r="F46" s="82"/>
@@ -19179,8 +19206,21 @@
       <c r="M46" s="82"/>
       <c r="N46" s="83"/>
     </row>
-    <row r="47" spans="2:18" ht="15.75" thickBot="1"/>
-    <row r="48" spans="2:18">
+    <row r="47" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A47" s="36" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B47" s="36">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="B48" s="36" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>2863</v>
+      </c>
       <c r="G48" s="77" t="s">
         <v>509</v>
       </c>
@@ -19191,6 +19231,9 @@
       <c r="J48" s="79"/>
     </row>
     <row r="49" spans="1:13">
+      <c r="B49" s="36" t="s">
+        <v>2862</v>
+      </c>
       <c r="G49" s="80"/>
       <c r="J49" s="71"/>
     </row>
@@ -19202,14 +19245,23 @@
       </c>
     </row>
     <row r="51" spans="1:13">
+      <c r="A51" s="36" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D51" s="36">
+        <v>2022</v>
+      </c>
       <c r="G51" s="80" t="s">
         <v>510</v>
       </c>
       <c r="J51" s="71"/>
     </row>
     <row r="52" spans="1:13">
+      <c r="B52" s="36" t="s">
+        <v>2861</v>
+      </c>
       <c r="C52" s="36" t="s">
-        <v>2804</v>
+        <v>2864</v>
       </c>
       <c r="G52" s="80" t="s">
         <v>2795</v>
@@ -19217,6 +19269,9 @@
       <c r="J52" s="71"/>
     </row>
     <row r="53" spans="1:13">
+      <c r="C53" s="36" t="s">
+        <v>2865</v>
+      </c>
       <c r="G53" s="80"/>
       <c r="J53" s="71"/>
     </row>
@@ -19241,7 +19296,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="164" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>127</v>
@@ -19250,10 +19305,10 @@
     <row r="60" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="61" spans="1:13">
       <c r="A61" s="36" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="G61" s="77" t="s">
         <v>2792</v>
@@ -19263,136 +19318,147 @@
     </row>
     <row r="62" spans="1:13">
       <c r="F62" s="36" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="G62" s="80"/>
       <c r="I62" s="71"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="393" t="s">
-        <v>2844</v>
-      </c>
-      <c r="B63" s="393"/>
-      <c r="C63" s="393"/>
+      <c r="A63" s="357" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B63" s="357"/>
+      <c r="C63" s="357"/>
       <c r="G63" s="80"/>
       <c r="H63" s="36" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="I63" s="71"/>
       <c r="K63" s="36" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A64" s="393"/>
-      <c r="B64" s="393"/>
-      <c r="C64" s="393"/>
+      <c r="A64" s="357"/>
+      <c r="B64" s="357"/>
+      <c r="C64" s="357"/>
       <c r="G64" s="81"/>
       <c r="H64" s="82"/>
       <c r="I64" s="83"/>
       <c r="K64" s="354" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A65" s="393" t="s">
-        <v>2845</v>
-      </c>
-      <c r="B65" s="393"/>
-      <c r="C65" s="393"/>
+      <c r="A65" s="357" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B65" s="357"/>
+      <c r="C65" s="357"/>
       <c r="H65" s="36" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="393"/>
-      <c r="B66" s="393"/>
-      <c r="C66" s="393"/>
+      <c r="A66" s="357" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B66" s="357"/>
+      <c r="C66" s="357"/>
       <c r="F66" s="36" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="G66" s="77" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="H66" s="78" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="I66" s="79"/>
       <c r="N66" s="36" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="67" spans="1:20">
-      <c r="A67" s="393" t="s">
-        <v>2846</v>
-      </c>
-      <c r="B67" s="393"/>
-      <c r="C67" s="393"/>
+      <c r="A67" s="357" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B67" s="357"/>
+      <c r="C67" s="357"/>
       <c r="F67" s="36" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="G67" s="80"/>
       <c r="I67" s="71"/>
       <c r="K67" s="36" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="N67" s="36" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="G68" s="80"/>
       <c r="H68" s="36" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="I68" s="71"/>
       <c r="K68" s="36" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="N68" s="164" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="P68" s="36" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A69" s="164" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B69" s="164"/>
+      <c r="C69" s="164"/>
+      <c r="D69" s="164"/>
       <c r="G69" s="81"/>
       <c r="H69" s="82"/>
       <c r="I69" s="83"/>
       <c r="K69" s="354" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="L69" s="355"/>
       <c r="M69" s="355"/>
       <c r="N69" s="36" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A70" s="164" t="s">
+        <v>2868</v>
+      </c>
       <c r="H70" s="36" t="s">
         <v>431</v>
       </c>
       <c r="N70" s="36" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="164" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B71" s="164"/>
       <c r="C71" s="164"/>
       <c r="F71" s="36" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="G71" s="77" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="I71" s="79"/>
       <c r="O71" s="70"/>
@@ -19400,15 +19466,15 @@
     </row>
     <row r="72" spans="1:20">
       <c r="F72" s="36" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="G72" s="80"/>
       <c r="H72" s="36" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="I72" s="71"/>
       <c r="K72" s="36" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="O72" s="70"/>
       <c r="P72" s="70"/>
@@ -19420,7 +19486,7 @@
       </c>
       <c r="I73" s="71"/>
       <c r="K73" s="36" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="O73" s="70"/>
       <c r="P73" s="70"/>
@@ -19430,7 +19496,7 @@
       <c r="H74" s="82"/>
       <c r="I74" s="83"/>
       <c r="K74" s="354" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="L74" s="355"/>
       <c r="M74" s="356"/>
@@ -19449,21 +19515,21 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="36" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B76" s="77" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="C76" s="78"/>
       <c r="D76" s="79"/>
       <c r="F76" s="36" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="G76" s="77" t="s">
+        <v>2819</v>
+      </c>
+      <c r="H76" s="78" t="s">
         <v>2820</v>
-      </c>
-      <c r="H76" s="78" t="s">
-        <v>2821</v>
       </c>
       <c r="I76" s="79"/>
       <c r="O76" s="70"/>
@@ -19475,27 +19541,27 @@
       <c r="B77" s="80"/>
       <c r="D77" s="71"/>
       <c r="F77" s="36" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="G77" s="80"/>
       <c r="H77" s="36" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="I77" s="71"/>
       <c r="K77" s="36" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="B78" s="80"/>
       <c r="C78" s="36" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D78" s="71"/>
       <c r="G78" s="80"/>
       <c r="I78" s="71"/>
       <c r="K78" s="36" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="15.75" thickBot="1">
@@ -19508,27 +19574,27 @@
       </c>
       <c r="I79" s="83"/>
       <c r="K79" s="354" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="L79" s="355"/>
       <c r="M79" s="355"/>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="354" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B80" s="355"/>
     </row>
     <row r="81" spans="3:11" ht="15.75" thickBot="1"/>
     <row r="82" spans="3:11">
       <c r="C82" s="36" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="D82" s="77" t="s">
         <v>60</v>
       </c>
       <c r="E82" s="78" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="F82" s="79"/>
     </row>
@@ -19536,7 +19602,7 @@
       <c r="D83" s="80"/>
       <c r="F83" s="71"/>
       <c r="H83" s="36" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="84" spans="3:11">
@@ -19547,71 +19613,71 @@
       <c r="D85" s="80"/>
       <c r="F85" s="71"/>
       <c r="G85" s="36" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="86" spans="3:11" ht="15.75" thickBot="1">
       <c r="D86" s="81"/>
       <c r="E86" s="82"/>
       <c r="F86" s="83"/>
-      <c r="J86" s="393"/>
-      <c r="K86" s="393" t="s">
-        <v>2848</v>
+      <c r="J86" s="357"/>
+      <c r="K86" s="357" t="s">
+        <v>2847</v>
       </c>
     </row>
     <row r="87" spans="3:11">
       <c r="E87" s="354" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
-      <c r="J87" s="393" t="s">
+      <c r="J87" s="357" t="s">
+        <v>2848</v>
+      </c>
+      <c r="K87" s="357"/>
+    </row>
+    <row r="88" spans="3:11" ht="15.75" thickBot="1">
+      <c r="J88" s="357" t="s">
         <v>2849</v>
       </c>
-      <c r="K87" s="393"/>
-    </row>
-    <row r="88" spans="3:11" ht="15.75" thickBot="1">
-      <c r="J88" s="393" t="s">
-        <v>2850</v>
-      </c>
-      <c r="K88" s="393"/>
+      <c r="K88" s="357"/>
     </row>
     <row r="89" spans="3:11">
       <c r="D89" s="77" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="E89" s="78"/>
       <c r="F89" s="79" t="s">
-        <v>2837</v>
-      </c>
-      <c r="J89" s="393" t="s">
-        <v>2851</v>
-      </c>
-      <c r="K89" s="393"/>
+        <v>2836</v>
+      </c>
+      <c r="J89" s="357" t="s">
+        <v>2850</v>
+      </c>
+      <c r="K89" s="357"/>
     </row>
     <row r="90" spans="3:11">
       <c r="C90" s="36" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D90" s="80"/>
       <c r="E90" s="36" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="F90" s="71"/>
-      <c r="J90" s="393"/>
-      <c r="K90" s="393"/>
+      <c r="J90" s="357"/>
+      <c r="K90" s="357"/>
     </row>
     <row r="91" spans="3:11">
       <c r="C91" s="36" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D91" s="80"/>
       <c r="F91" s="71"/>
-      <c r="J91" s="393" t="s">
-        <v>2841</v>
-      </c>
-      <c r="K91" s="393"/>
+      <c r="J91" s="357" t="s">
+        <v>2840</v>
+      </c>
+      <c r="K91" s="357"/>
     </row>
     <row r="92" spans="3:11" ht="15.75" thickBot="1">
       <c r="D92" s="81"/>
@@ -19619,14 +19685,14 @@
         <v>127</v>
       </c>
       <c r="F92" s="83"/>
-      <c r="J92" s="393" t="s">
-        <v>2842</v>
-      </c>
-      <c r="K92" s="393"/>
+      <c r="J92" s="357" t="s">
+        <v>2841</v>
+      </c>
+      <c r="K92" s="357"/>
     </row>
     <row r="93" spans="3:11">
       <c r="E93" s="354" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="F93" s="37"/>
     </row>
@@ -21010,13 +21076,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="363" t="s">
+      <c r="H3" s="364" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="364"/>
-      <c r="J3" s="364"/>
-      <c r="K3" s="364"/>
-      <c r="L3" s="365"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="365"/>
+      <c r="K3" s="365"/>
+      <c r="L3" s="366"/>
       <c r="P3" t="s">
         <v>2167</v>
       </c>
@@ -21059,20 +21125,20 @@
         <v>2164</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="366" t="s">
+      <c r="G6" s="367" t="s">
         <v>2162</v>
       </c>
-      <c r="H6" s="367"/>
+      <c r="H6" s="368"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="366" t="s">
+      <c r="J6" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="367"/>
+      <c r="K6" s="368"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="366" t="s">
+      <c r="M6" s="367" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="367"/>
+      <c r="N6" s="368"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="121" t="s">
@@ -21093,20 +21159,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="368" t="s">
+      <c r="G8" s="369" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="369"/>
+      <c r="H8" s="370"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="368" t="s">
+      <c r="J8" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="369"/>
+      <c r="K8" s="370"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="368" t="s">
+      <c r="M8" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="369"/>
+      <c r="N8" s="370"/>
       <c r="Q8" s="138"/>
     </row>
     <row r="9" spans="1:18">
@@ -21131,17 +21197,17 @@
       <c r="B10" t="s">
         <v>294</v>
       </c>
-      <c r="F10" s="359" t="s">
+      <c r="F10" s="360" t="s">
         <v>2553</v>
       </c>
-      <c r="G10" s="360"/>
-      <c r="H10" s="360"/>
-      <c r="I10" s="360"/>
-      <c r="J10" s="360"/>
-      <c r="K10" s="360"/>
-      <c r="L10" s="360"/>
-      <c r="M10" s="360"/>
-      <c r="N10" s="360"/>
+      <c r="G10" s="361"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="361"/>
+      <c r="J10" s="361"/>
+      <c r="K10" s="361"/>
+      <c r="L10" s="361"/>
+      <c r="M10" s="361"/>
+      <c r="N10" s="361"/>
       <c r="P10" t="s">
         <v>2555</v>
       </c>
@@ -21151,15 +21217,15 @@
       <c r="B11" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="361"/>
-      <c r="G11" s="362"/>
-      <c r="H11" s="362"/>
-      <c r="I11" s="362"/>
-      <c r="J11" s="362"/>
-      <c r="K11" s="362"/>
-      <c r="L11" s="362"/>
-      <c r="M11" s="362"/>
-      <c r="N11" s="362"/>
+      <c r="F11" s="362"/>
+      <c r="G11" s="363"/>
+      <c r="H11" s="363"/>
+      <c r="I11" s="363"/>
+      <c r="J11" s="363"/>
+      <c r="K11" s="363"/>
+      <c r="L11" s="363"/>
+      <c r="M11" s="363"/>
+      <c r="N11" s="363"/>
       <c r="P11" t="s">
         <v>2556</v>
       </c>
@@ -21413,10 +21479,10 @@
       <c r="C23" t="s">
         <v>2484</v>
       </c>
-      <c r="D23" s="357" t="s">
+      <c r="D23" s="358" t="s">
         <v>981</v>
       </c>
-      <c r="E23" s="358"/>
+      <c r="E23" s="359"/>
       <c r="F23" s="137"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -22736,7 +22802,7 @@
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="44"/>
-      <c r="K21" s="384" t="s">
+      <c r="K21" s="385" t="s">
         <v>2239</v>
       </c>
       <c r="L21" s="47"/>
@@ -22763,7 +22829,7 @@
       <c r="J22" s="47" t="s">
         <v>799</v>
       </c>
-      <c r="K22" s="385"/>
+      <c r="K22" s="386"/>
       <c r="L22" s="47"/>
       <c r="M22" s="48"/>
     </row>
@@ -22788,7 +22854,7 @@
       <c r="J23" s="50">
         <v>333</v>
       </c>
-      <c r="K23" s="385"/>
+      <c r="K23" s="386"/>
       <c r="L23" s="47"/>
       <c r="M23" s="48"/>
     </row>
@@ -22809,7 +22875,7 @@
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
       <c r="J24" s="47"/>
-      <c r="K24" s="385"/>
+      <c r="K24" s="386"/>
       <c r="L24" s="47"/>
       <c r="M24" s="48"/>
     </row>
@@ -22826,7 +22892,7 @@
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="44"/>
-      <c r="K25" s="385"/>
+      <c r="K25" s="386"/>
       <c r="L25" s="47"/>
       <c r="M25" s="48"/>
     </row>
@@ -22841,7 +22907,7 @@
       <c r="J26" s="47" t="s">
         <v>2226</v>
       </c>
-      <c r="K26" s="385"/>
+      <c r="K26" s="386"/>
       <c r="L26" s="47"/>
       <c r="M26" s="48"/>
     </row>
@@ -22856,7 +22922,7 @@
       <c r="J27" s="50">
         <v>234</v>
       </c>
-      <c r="K27" s="385"/>
+      <c r="K27" s="386"/>
       <c r="L27" s="47"/>
       <c r="M27" s="48"/>
     </row>
@@ -22870,7 +22936,7 @@
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
-      <c r="K28" s="385"/>
+      <c r="K28" s="386"/>
       <c r="L28" s="47"/>
       <c r="M28" s="48"/>
     </row>
@@ -22886,7 +22952,7 @@
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="44"/>
-      <c r="K29" s="385"/>
+      <c r="K29" s="386"/>
       <c r="L29" s="47"/>
       <c r="M29" s="48"/>
     </row>
@@ -22904,7 +22970,7 @@
       <c r="J30" s="47" t="s">
         <v>2227</v>
       </c>
-      <c r="K30" s="385"/>
+      <c r="K30" s="386"/>
       <c r="L30" s="47"/>
       <c r="M30" s="48"/>
     </row>
@@ -22919,7 +22985,7 @@
       <c r="J31" s="50">
         <v>345</v>
       </c>
-      <c r="K31" s="386"/>
+      <c r="K31" s="387"/>
       <c r="L31" s="47"/>
       <c r="M31" s="48"/>
     </row>
@@ -39588,10 +39654,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="387" t="s">
+      <c r="B1" s="388" t="s">
         <v>2446</v>
       </c>
-      <c r="C1" s="387"/>
+      <c r="C1" s="388"/>
       <c r="E1" t="s">
         <v>2447</v>
       </c>
@@ -41955,11 +42021,11 @@
       <c r="B223" t="s">
         <v>1415</v>
       </c>
-      <c r="D223" s="370" t="s">
+      <c r="D223" s="376" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="372"/>
-      <c r="F223" s="371"/>
+      <c r="E223" s="378"/>
+      <c r="F223" s="377"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -42011,19 +42077,19 @@
       <c r="B227" t="s">
         <v>1769</v>
       </c>
-      <c r="D227" s="370" t="s">
+      <c r="D227" s="376" t="s">
         <v>1437</v>
       </c>
-      <c r="E227" s="372"/>
-      <c r="F227" s="371"/>
-      <c r="H227" s="370" t="s">
+      <c r="E227" s="378"/>
+      <c r="F227" s="377"/>
+      <c r="H227" s="376" t="s">
         <v>1440</v>
       </c>
-      <c r="I227" s="371"/>
-      <c r="K227" s="370" t="s">
+      <c r="I227" s="377"/>
+      <c r="K227" s="376" t="s">
         <v>1439</v>
       </c>
-      <c r="L227" s="371"/>
+      <c r="L227" s="377"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -42270,7 +42336,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="373" t="s">
+      <c r="D273" s="379" t="s">
         <v>2531</v>
       </c>
       <c r="F273" s="159" t="s">
@@ -42278,22 +42344,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="373"/>
+      <c r="D274" s="379"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="373"/>
+      <c r="D275" s="379"/>
       <c r="F275" t="s">
         <v>2530</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="373"/>
+      <c r="D276" s="379"/>
       <c r="K276" t="s">
         <v>2546</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="373"/>
+      <c r="D277" s="379"/>
       <c r="F277" s="159" t="s">
         <v>1769</v>
       </c>
@@ -42308,7 +42374,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="373"/>
+      <c r="D278" s="379"/>
       <c r="I278" t="s">
         <v>2548</v>
       </c>
@@ -42394,14 +42460,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="375" t="s">
+      <c r="B287" s="372" t="s">
         <v>2541</v>
       </c>
-      <c r="C287" s="374" t="s">
+      <c r="C287" s="371" t="s">
         <v>1431</v>
       </c>
-      <c r="D287" s="374"/>
-      <c r="E287" s="358"/>
+      <c r="D287" s="371"/>
+      <c r="E287" s="359"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -42412,7 +42478,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="359"/>
+      <c r="B288" s="360"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1281</v>
@@ -42423,7 +42489,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="377" t="s">
+      <c r="J288" s="374" t="s">
         <v>2543</v>
       </c>
       <c r="L288" s="31"/>
@@ -42432,7 +42498,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="359"/>
+      <c r="B289" s="360"/>
       <c r="C289" s="25" t="s">
         <v>2536</v>
       </c>
@@ -42444,49 +42510,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="378"/>
+      <c r="J289" s="375"/>
       <c r="L289" s="31" t="s">
         <v>2536</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="377" t="s">
+      <c r="O289" s="374" t="s">
         <v>2542</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="359"/>
+      <c r="B290" s="360"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="376" t="s">
+      <c r="G290" s="373" t="s">
         <v>2544</v>
       </c>
-      <c r="H290" s="374"/>
-      <c r="I290" s="374"/>
-      <c r="J290" s="378"/>
+      <c r="H290" s="371"/>
+      <c r="I290" s="371"/>
+      <c r="J290" s="375"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="378"/>
+      <c r="O290" s="375"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="359"/>
-      <c r="C291" s="374" t="s">
+      <c r="B291" s="360"/>
+      <c r="C291" s="371" t="s">
         <v>2538</v>
       </c>
-      <c r="D291" s="374"/>
-      <c r="E291" s="358"/>
+      <c r="D291" s="371"/>
+      <c r="E291" s="359"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="378"/>
-      <c r="L291" s="376" t="s">
+      <c r="J291" s="375"/>
+      <c r="L291" s="373" t="s">
         <v>2539</v>
       </c>
-      <c r="M291" s="374"/>
-      <c r="N291" s="374"/>
-      <c r="O291" s="378"/>
+      <c r="M291" s="371"/>
+      <c r="N291" s="371"/>
+      <c r="O291" s="375"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -42500,7 +42566,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="378"/>
+      <c r="O292" s="375"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -42597,6 +42663,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -42604,11 +42675,6 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42840,18 +42906,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="388" t="s">
+      <c r="B3" s="389" t="s">
         <v>2471</v>
       </c>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
+      <c r="K3" s="391"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -42966,24 +43032,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="391" t="s">
+      <c r="B15" s="392" t="s">
         <v>2472</v>
       </c>
-      <c r="C15" s="392"/>
-      <c r="D15" s="392"/>
-      <c r="E15" s="392"/>
-      <c r="F15" s="392"/>
-      <c r="G15" s="392"/>
-      <c r="H15" s="392"/>
-      <c r="I15" s="392"/>
-      <c r="J15" s="392"/>
-      <c r="K15" s="392"/>
-      <c r="L15" s="392"/>
-      <c r="M15" s="392"/>
-      <c r="N15" s="392"/>
-      <c r="O15" s="392"/>
-      <c r="P15" s="392"/>
-      <c r="Q15" s="392"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="393"/>
+      <c r="G15" s="393"/>
+      <c r="H15" s="393"/>
+      <c r="I15" s="393"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="393"/>
+      <c r="L15" s="393"/>
+      <c r="M15" s="393"/>
+      <c r="N15" s="393"/>
+      <c r="O15" s="393"/>
+      <c r="P15" s="393"/>
+      <c r="Q15" s="393"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -44427,7 +44493,7 @@
       <c r="A10" s="36" t="s">
         <v>2587</v>
       </c>
-      <c r="G10" s="379" t="s">
+      <c r="G10" s="380" t="s">
         <v>2616</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -44440,7 +44506,7 @@
       <c r="K10" s="36" t="s">
         <v>2623</v>
       </c>
-      <c r="L10" s="379" t="s">
+      <c r="L10" s="380" t="s">
         <v>2616</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -44452,7 +44518,7 @@
       <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="379"/>
+      <c r="G11" s="380"/>
       <c r="H11" s="36" t="s">
         <v>2602</v>
       </c>
@@ -44463,7 +44529,7 @@
       <c r="K11" s="36" t="s">
         <v>2625</v>
       </c>
-      <c r="L11" s="379"/>
+      <c r="L11" s="380"/>
       <c r="M11" s="36" t="s">
         <v>132</v>
       </c>
@@ -44476,7 +44542,7 @@
       <c r="B12" s="36" t="s">
         <v>2588</v>
       </c>
-      <c r="G12" s="379"/>
+      <c r="G12" s="380"/>
       <c r="H12" s="36" t="s">
         <v>2610</v>
       </c>
@@ -44487,7 +44553,7 @@
       <c r="K12" s="36" t="s">
         <v>2626</v>
       </c>
-      <c r="L12" s="379"/>
+      <c r="L12" s="380"/>
       <c r="M12" s="36" t="s">
         <v>134</v>
       </c>
@@ -44500,7 +44566,7 @@
       <c r="C13" s="36" t="s">
         <v>2589</v>
       </c>
-      <c r="G13" s="379"/>
+      <c r="G13" s="380"/>
       <c r="H13" s="36" t="s">
         <v>138</v>
       </c>
@@ -44511,7 +44577,7 @@
       <c r="K13" s="36" t="s">
         <v>2627</v>
       </c>
-      <c r="L13" s="379"/>
+      <c r="L13" s="380"/>
       <c r="M13" s="36" t="s">
         <v>2602</v>
       </c>
@@ -44530,7 +44596,7 @@
       <c r="K14" s="36" t="s">
         <v>2621</v>
       </c>
-      <c r="L14" s="379"/>
+      <c r="L14" s="380"/>
       <c r="M14" s="36" t="s">
         <v>134</v>
       </c>
@@ -44579,7 +44645,7 @@
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="79"/>
-      <c r="L17" s="381" t="s">
+      <c r="L17" s="382" t="s">
         <v>2617</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -44590,7 +44656,7 @@
       <c r="D18" s="36" t="s">
         <v>2593</v>
       </c>
-      <c r="G18" s="379" t="s">
+      <c r="G18" s="380" t="s">
         <v>2618</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -44600,7 +44666,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="71"/>
-      <c r="L18" s="381"/>
+      <c r="L18" s="382"/>
       <c r="M18" s="36" t="s">
         <v>2620</v>
       </c>
@@ -44609,7 +44675,7 @@
       <c r="C19" s="36" t="s">
         <v>2594</v>
       </c>
-      <c r="G19" s="379"/>
+      <c r="G19" s="380"/>
       <c r="H19" s="36" t="s">
         <v>138</v>
       </c>
@@ -44622,7 +44688,7 @@
       <c r="D20" s="36" t="s">
         <v>1997</v>
       </c>
-      <c r="G20" s="379"/>
+      <c r="G20" s="380"/>
       <c r="H20" s="36" t="s">
         <v>132</v>
       </c>
@@ -44635,7 +44701,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="380"/>
+      <c r="G21" s="381"/>
       <c r="H21" s="82" t="s">
         <v>137</v>
       </c>
@@ -45420,23 +45486,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="384" t="s">
         <v>2076</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="I1" s="383" t="s">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="I1" s="384" t="s">
         <v>2086</v>
       </c>
-      <c r="J1" s="383"/>
-      <c r="K1" s="383"/>
-      <c r="L1" s="383"/>
-      <c r="M1" s="383"/>
-      <c r="N1" s="383"/>
-      <c r="O1" s="383"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -45586,28 +45652,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="366" t="s">
+      <c r="A12" s="367" t="s">
         <v>2088</v>
       </c>
-      <c r="B12" s="382"/>
-      <c r="C12" s="382"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="382"/>
-      <c r="F12" s="382"/>
-      <c r="G12" s="382"/>
-      <c r="H12" s="367"/>
-      <c r="I12" s="366" t="s">
+      <c r="B12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="383"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="383"/>
+      <c r="H12" s="368"/>
+      <c r="I12" s="367" t="s">
         <v>2088</v>
       </c>
-      <c r="J12" s="382"/>
-      <c r="K12" s="382"/>
-      <c r="L12" s="382"/>
-      <c r="M12" s="382"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="382"/>
-      <c r="P12" s="382"/>
-      <c r="Q12" s="382"/>
-      <c r="R12" s="367"/>
+      <c r="J12" s="383"/>
+      <c r="K12" s="383"/>
+      <c r="L12" s="383"/>
+      <c r="M12" s="383"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="383"/>
+      <c r="P12" s="383"/>
+      <c r="Q12" s="383"/>
+      <c r="R12" s="368"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -45835,14 +45901,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="383" t="s">
+      <c r="A24" s="384" t="s">
         <v>2076</v>
       </c>
-      <c r="B24" s="383"/>
-      <c r="C24" s="383"/>
-      <c r="D24" s="383"/>
-      <c r="E24" s="383"/>
-      <c r="F24" s="383"/>
+      <c r="B24" s="384"/>
+      <c r="C24" s="384"/>
+      <c r="D24" s="384"/>
+      <c r="E24" s="384"/>
+      <c r="F24" s="384"/>
       <c r="H24" s="245" t="s">
         <v>2086</v>
       </c>
@@ -45852,11 +45918,11 @@
       <c r="L24" s="245"/>
       <c r="M24" s="245"/>
       <c r="N24" s="245"/>
-      <c r="P24" s="383" t="s">
+      <c r="P24" s="384" t="s">
         <v>2124</v>
       </c>
-      <c r="Q24" s="383"/>
-      <c r="R24" s="383"/>
+      <c r="Q24" s="384"/>
+      <c r="R24" s="384"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="102" t="s">
@@ -46096,28 +46162,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="366" t="s">
+      <c r="A35" s="367" t="s">
         <v>2125</v>
       </c>
-      <c r="B35" s="382"/>
-      <c r="C35" s="382"/>
-      <c r="D35" s="382"/>
-      <c r="E35" s="382"/>
-      <c r="F35" s="382"/>
-      <c r="G35" s="382"/>
-      <c r="H35" s="367"/>
-      <c r="I35" s="366" t="s">
+      <c r="B35" s="383"/>
+      <c r="C35" s="383"/>
+      <c r="D35" s="383"/>
+      <c r="E35" s="383"/>
+      <c r="F35" s="383"/>
+      <c r="G35" s="383"/>
+      <c r="H35" s="368"/>
+      <c r="I35" s="367" t="s">
         <v>777</v>
       </c>
-      <c r="J35" s="382"/>
-      <c r="K35" s="382"/>
-      <c r="L35" s="382"/>
-      <c r="M35" s="382"/>
-      <c r="N35" s="382"/>
-      <c r="O35" s="382"/>
-      <c r="P35" s="382"/>
-      <c r="Q35" s="382"/>
-      <c r="R35" s="367"/>
+      <c r="J35" s="383"/>
+      <c r="K35" s="383"/>
+      <c r="L35" s="383"/>
+      <c r="M35" s="383"/>
+      <c r="N35" s="383"/>
+      <c r="O35" s="383"/>
+      <c r="P35" s="383"/>
+      <c r="Q35" s="383"/>
+      <c r="R35" s="368"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -10423,6 +10423,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10436,18 +10448,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18929,7 +18929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:T274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -42021,11 +42021,11 @@
       <c r="B223" t="s">
         <v>1415</v>
       </c>
-      <c r="D223" s="376" t="s">
+      <c r="D223" s="371" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="378"/>
-      <c r="F223" s="377"/>
+      <c r="E223" s="373"/>
+      <c r="F223" s="372"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -42077,19 +42077,19 @@
       <c r="B227" t="s">
         <v>1769</v>
       </c>
-      <c r="D227" s="376" t="s">
+      <c r="D227" s="371" t="s">
         <v>1437</v>
       </c>
-      <c r="E227" s="378"/>
-      <c r="F227" s="377"/>
-      <c r="H227" s="376" t="s">
+      <c r="E227" s="373"/>
+      <c r="F227" s="372"/>
+      <c r="H227" s="371" t="s">
         <v>1440</v>
       </c>
-      <c r="I227" s="377"/>
-      <c r="K227" s="376" t="s">
+      <c r="I227" s="372"/>
+      <c r="K227" s="371" t="s">
         <v>1439</v>
       </c>
-      <c r="L227" s="377"/>
+      <c r="L227" s="372"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -42336,7 +42336,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="379" t="s">
+      <c r="D273" s="374" t="s">
         <v>2531</v>
       </c>
       <c r="F273" s="159" t="s">
@@ -42344,22 +42344,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="379"/>
+      <c r="D274" s="374"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="379"/>
+      <c r="D275" s="374"/>
       <c r="F275" t="s">
         <v>2530</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="379"/>
+      <c r="D276" s="374"/>
       <c r="K276" t="s">
         <v>2546</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="379"/>
+      <c r="D277" s="374"/>
       <c r="F277" s="159" t="s">
         <v>1769</v>
       </c>
@@ -42374,7 +42374,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="379"/>
+      <c r="D278" s="374"/>
       <c r="I278" t="s">
         <v>2548</v>
       </c>
@@ -42460,13 +42460,13 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="372" t="s">
+      <c r="B287" s="376" t="s">
         <v>2541</v>
       </c>
-      <c r="C287" s="371" t="s">
+      <c r="C287" s="375" t="s">
         <v>1431</v>
       </c>
-      <c r="D287" s="371"/>
+      <c r="D287" s="375"/>
       <c r="E287" s="359"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
@@ -42489,7 +42489,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="374" t="s">
+      <c r="J288" s="378" t="s">
         <v>2543</v>
       </c>
       <c r="L288" s="31"/>
@@ -42510,13 +42510,13 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="375"/>
+      <c r="J289" s="379"/>
       <c r="L289" s="31" t="s">
         <v>2536</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="374" t="s">
+      <c r="O289" s="378" t="s">
         <v>2542</v>
       </c>
     </row>
@@ -42525,34 +42525,34 @@
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="373" t="s">
+      <c r="G290" s="377" t="s">
         <v>2544</v>
       </c>
-      <c r="H290" s="371"/>
-      <c r="I290" s="371"/>
-      <c r="J290" s="375"/>
+      <c r="H290" s="375"/>
+      <c r="I290" s="375"/>
+      <c r="J290" s="379"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="375"/>
+      <c r="O290" s="379"/>
     </row>
     <row r="291" spans="2:15">
       <c r="B291" s="360"/>
-      <c r="C291" s="371" t="s">
+      <c r="C291" s="375" t="s">
         <v>2538</v>
       </c>
-      <c r="D291" s="371"/>
+      <c r="D291" s="375"/>
       <c r="E291" s="359"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="375"/>
-      <c r="L291" s="373" t="s">
+      <c r="J291" s="379"/>
+      <c r="L291" s="377" t="s">
         <v>2539</v>
       </c>
-      <c r="M291" s="371"/>
-      <c r="N291" s="371"/>
-      <c r="O291" s="375"/>
+      <c r="M291" s="375"/>
+      <c r="N291" s="375"/>
+      <c r="O291" s="379"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -42566,7 +42566,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="375"/>
+      <c r="O292" s="379"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -42663,11 +42663,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -42675,6 +42670,11 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="2596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="2597">
   <si>
     <t>USER</t>
   </si>
@@ -8197,13 +8197,16 @@
     <t>regPass .equals(loginPass)</t>
   </si>
   <si>
-    <t>John123</t>
-  </si>
-  <si>
     <t>regUserid .equalsIgnoreCase(loginUserid)</t>
   </si>
   <si>
     <t>jOhn123!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  john123 </t>
+  </si>
+  <si>
+    <t>a.intern();</t>
   </si>
 </sst>
 </file>
@@ -9523,6 +9526,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9562,18 +9572,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9587,6 +9585,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9636,13 +9646,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20228,13 +20231,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="339" t="s">
+      <c r="H3" s="342" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="340"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="340"/>
-      <c r="L3" s="341"/>
+      <c r="I3" s="343"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="344"/>
       <c r="P3" t="s">
         <v>1839</v>
       </c>
@@ -20277,20 +20280,20 @@
         <v>1836</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="342" t="s">
+      <c r="G6" s="345" t="s">
         <v>1834</v>
       </c>
-      <c r="H6" s="343"/>
+      <c r="H6" s="346"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="342" t="s">
+      <c r="J6" s="345" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="343"/>
+      <c r="K6" s="346"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="342" t="s">
+      <c r="M6" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="343"/>
+      <c r="N6" s="346"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="105" t="s">
@@ -20311,20 +20314,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="344" t="s">
+      <c r="G8" s="347" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="345"/>
+      <c r="H8" s="348"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="344" t="s">
+      <c r="J8" s="347" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="345"/>
+      <c r="K8" s="348"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="344" t="s">
+      <c r="M8" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="345"/>
+      <c r="N8" s="348"/>
       <c r="Q8" s="122"/>
     </row>
     <row r="9" spans="1:18">
@@ -20349,17 +20352,17 @@
       <c r="B10" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="335" t="s">
+      <c r="F10" s="338" t="s">
         <v>2139</v>
       </c>
-      <c r="G10" s="336"/>
-      <c r="H10" s="336"/>
-      <c r="I10" s="336"/>
-      <c r="J10" s="336"/>
-      <c r="K10" s="336"/>
-      <c r="L10" s="336"/>
-      <c r="M10" s="336"/>
-      <c r="N10" s="336"/>
+      <c r="G10" s="339"/>
+      <c r="H10" s="339"/>
+      <c r="I10" s="339"/>
+      <c r="J10" s="339"/>
+      <c r="K10" s="339"/>
+      <c r="L10" s="339"/>
+      <c r="M10" s="339"/>
+      <c r="N10" s="339"/>
       <c r="P10" t="s">
         <v>2141</v>
       </c>
@@ -20369,15 +20372,15 @@
       <c r="B11" t="s">
         <v>282</v>
       </c>
-      <c r="F11" s="337"/>
-      <c r="G11" s="338"/>
-      <c r="H11" s="338"/>
-      <c r="I11" s="338"/>
-      <c r="J11" s="338"/>
-      <c r="K11" s="338"/>
-      <c r="L11" s="338"/>
-      <c r="M11" s="338"/>
-      <c r="N11" s="338"/>
+      <c r="F11" s="340"/>
+      <c r="G11" s="341"/>
+      <c r="H11" s="341"/>
+      <c r="I11" s="341"/>
+      <c r="J11" s="341"/>
+      <c r="K11" s="341"/>
+      <c r="L11" s="341"/>
+      <c r="M11" s="341"/>
+      <c r="N11" s="341"/>
       <c r="P11" t="s">
         <v>2142</v>
       </c>
@@ -20631,10 +20634,10 @@
       <c r="C23" t="s">
         <v>2070</v>
       </c>
-      <c r="D23" s="333" t="s">
+      <c r="D23" s="336" t="s">
         <v>843</v>
       </c>
-      <c r="E23" s="334"/>
+      <c r="E23" s="337"/>
       <c r="F23" s="121"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -21673,7 +21676,7 @@
       </c>
       <c r="J3" s="85"/>
       <c r="K3" s="328"/>
-      <c r="L3" s="361" t="s">
+      <c r="L3" s="364" t="s">
         <v>2478</v>
       </c>
       <c r="M3" s="193"/>
@@ -21695,7 +21698,7 @@
       <c r="K4" s="70">
         <v>123</v>
       </c>
-      <c r="L4" s="362"/>
+      <c r="L4" s="365"/>
       <c r="M4" s="193"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21715,12 +21718,12 @@
       <c r="K5" s="329" t="s">
         <v>2477</v>
       </c>
-      <c r="L5" s="362"/>
+      <c r="L5" s="365"/>
       <c r="M5" s="193"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="215"/>
-      <c r="L6" s="362"/>
+      <c r="L6" s="365"/>
       <c r="M6" s="193"/>
     </row>
     <row r="7" spans="1:13">
@@ -21733,7 +21736,7 @@
       </c>
       <c r="J7" s="85"/>
       <c r="K7" s="328"/>
-      <c r="L7" s="362"/>
+      <c r="L7" s="365"/>
       <c r="M7" s="193"/>
     </row>
     <row r="8" spans="1:13">
@@ -21751,7 +21754,7 @@
       <c r="K8" s="70">
         <v>111</v>
       </c>
-      <c r="L8" s="362"/>
+      <c r="L8" s="365"/>
       <c r="M8" s="193"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21765,7 +21768,7 @@
       <c r="K9" s="307" t="s">
         <v>317</v>
       </c>
-      <c r="L9" s="362"/>
+      <c r="L9" s="365"/>
       <c r="M9" s="193"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21773,7 +21776,7 @@
         <v>2461</v>
       </c>
       <c r="F10" s="215"/>
-      <c r="L10" s="362"/>
+      <c r="L10" s="365"/>
       <c r="M10" s="193"/>
     </row>
     <row r="11" spans="1:13">
@@ -21786,7 +21789,7 @@
       </c>
       <c r="J11" s="85"/>
       <c r="K11" s="328"/>
-      <c r="L11" s="362"/>
+      <c r="L11" s="365"/>
       <c r="M11" s="193"/>
     </row>
     <row r="12" spans="1:13">
@@ -21800,7 +21803,7 @@
       <c r="K12" s="70">
         <v>222</v>
       </c>
-      <c r="L12" s="362"/>
+      <c r="L12" s="365"/>
       <c r="M12" s="193"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21817,7 +21820,7 @@
       <c r="K13" s="307" t="s">
         <v>352</v>
       </c>
-      <c r="L13" s="363"/>
+      <c r="L13" s="366"/>
       <c r="M13" s="193"/>
     </row>
     <row r="14" spans="1:13">
@@ -21839,10 +21842,10 @@
       <c r="D15" s="301"/>
       <c r="E15" s="301"/>
       <c r="F15" s="215"/>
-      <c r="J15" s="364" t="s">
+      <c r="J15" s="367" t="s">
         <v>2467</v>
       </c>
-      <c r="K15" s="364"/>
+      <c r="K15" s="367"/>
       <c r="L15" s="70" t="s">
         <v>698</v>
       </c>
@@ -21862,8 +21865,8 @@
       <c r="G16" s="98" t="s">
         <v>2469</v>
       </c>
-      <c r="J16" s="364"/>
-      <c r="K16" s="364"/>
+      <c r="J16" s="367"/>
+      <c r="K16" s="367"/>
       <c r="L16" s="70" t="s">
         <v>149</v>
       </c>
@@ -21941,48 +21944,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="98"/>
       <c r="B22" s="98"/>
-      <c r="K22" s="360"/>
+      <c r="K22" s="363"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="98"/>
       <c r="B23" s="98"/>
-      <c r="K23" s="357"/>
+      <c r="K23" s="360"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="98"/>
       <c r="B24" s="98"/>
-      <c r="K24" s="357"/>
+      <c r="K24" s="360"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="98"/>
       <c r="B25" s="98"/>
-      <c r="K25" s="357"/>
+      <c r="K25" s="360"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="98"/>
       <c r="B26" s="98"/>
-      <c r="K26" s="357"/>
+      <c r="K26" s="360"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="357"/>
+      <c r="K27" s="360"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="357"/>
+      <c r="K28" s="360"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="98"/>
-      <c r="K29" s="357"/>
+      <c r="K29" s="360"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="98"/>
-      <c r="K30" s="357"/>
+      <c r="K30" s="360"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="98"/>
-      <c r="K31" s="357"/>
+      <c r="K31" s="360"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="357"/>
+      <c r="K32" s="360"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="325"/>
@@ -23354,7 +23357,7 @@
       <c r="G31" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="H31" s="372" t="s">
+      <c r="H31" s="334" t="s">
         <v>283</v>
       </c>
       <c r="I31" s="98" t="s">
@@ -24087,8 +24090,8 @@
       <c r="M155" s="327"/>
     </row>
     <row r="190" spans="8:9">
-      <c r="H190" s="371"/>
-      <c r="I190" s="371"/>
+      <c r="H190" s="333"/>
+      <c r="I190" s="333"/>
     </row>
     <row r="207" spans="6:6">
       <c r="F207" s="327"/>
@@ -24175,8 +24178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24781,7 +24784,7 @@
         <v>280</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="I41" s="77" t="s">
         <v>707</v>
@@ -24823,6 +24826,9 @@
       <c r="M43" s="71"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A44" s="36" t="s">
+        <v>2596</v>
+      </c>
       <c r="C44" s="327"/>
       <c r="D44" s="327"/>
       <c r="E44" s="80"/>
@@ -24949,13 +24955,16 @@
         <v>1891</v>
       </c>
       <c r="F104" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G104" s="36" t="s">
         <v>2587</v>
       </c>
       <c r="I104" s="36" t="s">
         <v>1891</v>
       </c>
       <c r="J104" s="36" t="s">
-        <v>2593</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="105" spans="5:10">
@@ -24963,7 +24972,7 @@
         <v>2582</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="I105" s="36" t="s">
         <v>2582</v>
@@ -24995,7 +25004,7 @@
       <c r="E108" s="36" t="s">
         <v>2585</v>
       </c>
-      <c r="F108" s="373" t="s">
+      <c r="F108" s="335" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -25014,7 +25023,7 @@
     </row>
     <row r="113" spans="4:9">
       <c r="D113" s="36" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="I113" s="36" t="s">
         <v>2588</v>
@@ -33689,10 +33698,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="365" t="s">
+      <c r="B1" s="368" t="s">
         <v>2032</v>
       </c>
-      <c r="C1" s="365"/>
+      <c r="C1" s="368"/>
       <c r="E1" t="s">
         <v>2033</v>
       </c>
@@ -36056,11 +36065,11 @@
       <c r="B223" t="s">
         <v>1263</v>
       </c>
-      <c r="D223" s="346" t="s">
+      <c r="D223" s="354" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="348"/>
-      <c r="F223" s="347"/>
+      <c r="E223" s="356"/>
+      <c r="F223" s="355"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -36112,19 +36121,19 @@
       <c r="B227" t="s">
         <v>1523</v>
       </c>
-      <c r="D227" s="346" t="s">
+      <c r="D227" s="354" t="s">
         <v>1285</v>
       </c>
-      <c r="E227" s="348"/>
-      <c r="F227" s="347"/>
-      <c r="H227" s="346" t="s">
+      <c r="E227" s="356"/>
+      <c r="F227" s="355"/>
+      <c r="H227" s="354" t="s">
         <v>1288</v>
       </c>
-      <c r="I227" s="347"/>
-      <c r="K227" s="346" t="s">
+      <c r="I227" s="355"/>
+      <c r="K227" s="354" t="s">
         <v>1287</v>
       </c>
-      <c r="L227" s="347"/>
+      <c r="L227" s="355"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -36371,7 +36380,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="349" t="s">
+      <c r="D273" s="357" t="s">
         <v>2117</v>
       </c>
       <c r="F273" s="142" t="s">
@@ -36379,22 +36388,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="349"/>
+      <c r="D274" s="357"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="349"/>
+      <c r="D275" s="357"/>
       <c r="F275" t="s">
         <v>2116</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="349"/>
+      <c r="D276" s="357"/>
       <c r="K276" t="s">
         <v>2132</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="349"/>
+      <c r="D277" s="357"/>
       <c r="F277" s="142" t="s">
         <v>1523</v>
       </c>
@@ -36409,7 +36418,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="349"/>
+      <c r="D278" s="357"/>
       <c r="I278" t="s">
         <v>2134</v>
       </c>
@@ -36495,14 +36504,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="351" t="s">
+      <c r="B287" s="350" t="s">
         <v>2127</v>
       </c>
-      <c r="C287" s="350" t="s">
+      <c r="C287" s="349" t="s">
         <v>1279</v>
       </c>
-      <c r="D287" s="350"/>
-      <c r="E287" s="334"/>
+      <c r="D287" s="349"/>
+      <c r="E287" s="337"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -36513,7 +36522,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="335"/>
+      <c r="B288" s="338"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1142</v>
@@ -36524,7 +36533,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="353" t="s">
+      <c r="J288" s="352" t="s">
         <v>2129</v>
       </c>
       <c r="L288" s="31"/>
@@ -36533,7 +36542,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="335"/>
+      <c r="B289" s="338"/>
       <c r="C289" s="25" t="s">
         <v>2122</v>
       </c>
@@ -36545,49 +36554,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="354"/>
+      <c r="J289" s="353"/>
       <c r="L289" s="31" t="s">
         <v>2122</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="353" t="s">
+      <c r="O289" s="352" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="335"/>
+      <c r="B290" s="338"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="352" t="s">
+      <c r="G290" s="351" t="s">
         <v>2130</v>
       </c>
-      <c r="H290" s="350"/>
-      <c r="I290" s="350"/>
-      <c r="J290" s="354"/>
+      <c r="H290" s="349"/>
+      <c r="I290" s="349"/>
+      <c r="J290" s="353"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="354"/>
+      <c r="O290" s="353"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="335"/>
-      <c r="C291" s="350" t="s">
+      <c r="B291" s="338"/>
+      <c r="C291" s="349" t="s">
         <v>2124</v>
       </c>
-      <c r="D291" s="350"/>
-      <c r="E291" s="334"/>
+      <c r="D291" s="349"/>
+      <c r="E291" s="337"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="354"/>
-      <c r="L291" s="352" t="s">
+      <c r="J291" s="353"/>
+      <c r="L291" s="351" t="s">
         <v>2125</v>
       </c>
-      <c r="M291" s="350"/>
-      <c r="N291" s="350"/>
-      <c r="O291" s="354"/>
+      <c r="M291" s="349"/>
+      <c r="N291" s="349"/>
+      <c r="O291" s="353"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -36601,7 +36610,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="354"/>
+      <c r="O292" s="353"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -36698,6 +36707,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -36705,11 +36719,6 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36941,18 +36950,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="366" t="s">
+      <c r="B3" s="369" t="s">
         <v>2057</v>
       </c>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
-      <c r="J3" s="367"/>
-      <c r="K3" s="368"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="370"/>
+      <c r="J3" s="370"/>
+      <c r="K3" s="371"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -37067,24 +37076,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="369" t="s">
+      <c r="B15" s="372" t="s">
         <v>2058</v>
       </c>
-      <c r="C15" s="370"/>
-      <c r="D15" s="370"/>
-      <c r="E15" s="370"/>
-      <c r="F15" s="370"/>
-      <c r="G15" s="370"/>
-      <c r="H15" s="370"/>
-      <c r="I15" s="370"/>
-      <c r="J15" s="370"/>
-      <c r="K15" s="370"/>
-      <c r="L15" s="370"/>
-      <c r="M15" s="370"/>
-      <c r="N15" s="370"/>
-      <c r="O15" s="370"/>
-      <c r="P15" s="370"/>
-      <c r="Q15" s="370"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="373"/>
+      <c r="I15" s="373"/>
+      <c r="J15" s="373"/>
+      <c r="K15" s="373"/>
+      <c r="L15" s="373"/>
+      <c r="M15" s="373"/>
+      <c r="N15" s="373"/>
+      <c r="O15" s="373"/>
+      <c r="P15" s="373"/>
+      <c r="Q15" s="373"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -38528,7 +38537,7 @@
       <c r="A10" s="36" t="s">
         <v>2173</v>
       </c>
-      <c r="G10" s="355" t="s">
+      <c r="G10" s="358" t="s">
         <v>2202</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -38541,7 +38550,7 @@
       <c r="K10" s="36" t="s">
         <v>2209</v>
       </c>
-      <c r="L10" s="355" t="s">
+      <c r="L10" s="358" t="s">
         <v>2202</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -38553,7 +38562,7 @@
       <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="355"/>
+      <c r="G11" s="358"/>
       <c r="H11" s="36" t="s">
         <v>2188</v>
       </c>
@@ -38564,7 +38573,7 @@
       <c r="K11" s="36" t="s">
         <v>2211</v>
       </c>
-      <c r="L11" s="355"/>
+      <c r="L11" s="358"/>
       <c r="M11" s="36" t="s">
         <v>131</v>
       </c>
@@ -38577,7 +38586,7 @@
       <c r="B12" s="36" t="s">
         <v>2174</v>
       </c>
-      <c r="G12" s="355"/>
+      <c r="G12" s="358"/>
       <c r="H12" s="36" t="s">
         <v>2196</v>
       </c>
@@ -38588,7 +38597,7 @@
       <c r="K12" s="36" t="s">
         <v>2212</v>
       </c>
-      <c r="L12" s="355"/>
+      <c r="L12" s="358"/>
       <c r="M12" s="36" t="s">
         <v>133</v>
       </c>
@@ -38601,7 +38610,7 @@
       <c r="C13" s="36" t="s">
         <v>2175</v>
       </c>
-      <c r="G13" s="355"/>
+      <c r="G13" s="358"/>
       <c r="H13" s="36" t="s">
         <v>137</v>
       </c>
@@ -38612,7 +38621,7 @@
       <c r="K13" s="36" t="s">
         <v>2213</v>
       </c>
-      <c r="L13" s="355"/>
+      <c r="L13" s="358"/>
       <c r="M13" s="36" t="s">
         <v>2188</v>
       </c>
@@ -38631,7 +38640,7 @@
       <c r="K14" s="36" t="s">
         <v>2207</v>
       </c>
-      <c r="L14" s="355"/>
+      <c r="L14" s="358"/>
       <c r="M14" s="36" t="s">
         <v>133</v>
       </c>
@@ -38680,7 +38689,7 @@
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="79"/>
-      <c r="L17" s="357" t="s">
+      <c r="L17" s="360" t="s">
         <v>2203</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -38691,7 +38700,7 @@
       <c r="D18" s="36" t="s">
         <v>2179</v>
       </c>
-      <c r="G18" s="355" t="s">
+      <c r="G18" s="358" t="s">
         <v>2204</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -38701,7 +38710,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="71"/>
-      <c r="L18" s="357"/>
+      <c r="L18" s="360"/>
       <c r="M18" s="36" t="s">
         <v>2206</v>
       </c>
@@ -38710,7 +38719,7 @@
       <c r="C19" s="36" t="s">
         <v>2180</v>
       </c>
-      <c r="G19" s="355"/>
+      <c r="G19" s="358"/>
       <c r="H19" s="36" t="s">
         <v>137</v>
       </c>
@@ -38723,7 +38732,7 @@
       <c r="D20" s="36" t="s">
         <v>1669</v>
       </c>
-      <c r="G20" s="355"/>
+      <c r="G20" s="358"/>
       <c r="H20" s="36" t="s">
         <v>131</v>
       </c>
@@ -38736,7 +38745,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="356"/>
+      <c r="G21" s="359"/>
       <c r="H21" s="82" t="s">
         <v>136</v>
       </c>
@@ -39521,23 +39530,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="359" t="s">
+      <c r="A1" s="362" t="s">
         <v>1748</v>
       </c>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="I1" s="359" t="s">
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="I1" s="362" t="s">
         <v>1758</v>
       </c>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="359"/>
-      <c r="N1" s="359"/>
-      <c r="O1" s="359"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
+      <c r="N1" s="362"/>
+      <c r="O1" s="362"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -39687,28 +39696,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="342" t="s">
+      <c r="A12" s="345" t="s">
         <v>1760</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="358"/>
-      <c r="D12" s="358"/>
-      <c r="E12" s="358"/>
-      <c r="F12" s="358"/>
-      <c r="G12" s="358"/>
-      <c r="H12" s="343"/>
-      <c r="I12" s="342" t="s">
+      <c r="B12" s="361"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="361"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="361"/>
+      <c r="G12" s="361"/>
+      <c r="H12" s="346"/>
+      <c r="I12" s="345" t="s">
         <v>1760</v>
       </c>
-      <c r="J12" s="358"/>
-      <c r="K12" s="358"/>
-      <c r="L12" s="358"/>
-      <c r="M12" s="358"/>
-      <c r="N12" s="358"/>
-      <c r="O12" s="358"/>
-      <c r="P12" s="358"/>
-      <c r="Q12" s="358"/>
-      <c r="R12" s="343"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="361"/>
+      <c r="L12" s="361"/>
+      <c r="M12" s="361"/>
+      <c r="N12" s="361"/>
+      <c r="O12" s="361"/>
+      <c r="P12" s="361"/>
+      <c r="Q12" s="361"/>
+      <c r="R12" s="346"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -39936,14 +39945,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="359" t="s">
+      <c r="A24" s="362" t="s">
         <v>1748</v>
       </c>
-      <c r="B24" s="359"/>
-      <c r="C24" s="359"/>
-      <c r="D24" s="359"/>
-      <c r="E24" s="359"/>
-      <c r="F24" s="359"/>
+      <c r="B24" s="362"/>
+      <c r="C24" s="362"/>
+      <c r="D24" s="362"/>
+      <c r="E24" s="362"/>
+      <c r="F24" s="362"/>
       <c r="H24" s="225" t="s">
         <v>1758</v>
       </c>
@@ -39953,11 +39962,11 @@
       <c r="L24" s="225"/>
       <c r="M24" s="225"/>
       <c r="N24" s="225"/>
-      <c r="P24" s="359" t="s">
+      <c r="P24" s="362" t="s">
         <v>1796</v>
       </c>
-      <c r="Q24" s="359"/>
-      <c r="R24" s="359"/>
+      <c r="Q24" s="362"/>
+      <c r="R24" s="362"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="88" t="s">
@@ -40197,28 +40206,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="342" t="s">
+      <c r="A35" s="345" t="s">
         <v>1797</v>
       </c>
-      <c r="B35" s="358"/>
-      <c r="C35" s="358"/>
-      <c r="D35" s="358"/>
-      <c r="E35" s="358"/>
-      <c r="F35" s="358"/>
-      <c r="G35" s="358"/>
-      <c r="H35" s="343"/>
-      <c r="I35" s="342" t="s">
+      <c r="B35" s="361"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="361"/>
+      <c r="E35" s="361"/>
+      <c r="F35" s="361"/>
+      <c r="G35" s="361"/>
+      <c r="H35" s="346"/>
+      <c r="I35" s="345" t="s">
         <v>706</v>
       </c>
-      <c r="J35" s="358"/>
-      <c r="K35" s="358"/>
-      <c r="L35" s="358"/>
-      <c r="M35" s="358"/>
-      <c r="N35" s="358"/>
-      <c r="O35" s="358"/>
-      <c r="P35" s="358"/>
-      <c r="Q35" s="358"/>
-      <c r="R35" s="343"/>
+      <c r="J35" s="361"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="361"/>
+      <c r="M35" s="361"/>
+      <c r="N35" s="361"/>
+      <c r="O35" s="361"/>
+      <c r="P35" s="361"/>
+      <c r="Q35" s="361"/>
+      <c r="R35" s="346"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="15" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -40,11 +40,12 @@
     <sheet name="Sheet3" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="2597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="2641">
   <si>
     <t>USER</t>
   </si>
@@ -8207,6 +8208,138 @@
   </si>
   <si>
     <t>a.intern();</t>
+  </si>
+  <si>
+    <t>person p1=new Person();</t>
+  </si>
+  <si>
+    <t>sysout(p1.name);</t>
+  </si>
+  <si>
+    <t>sysout(p2.name)</t>
+  </si>
+  <si>
+    <t>nullpointerexceptipn</t>
+  </si>
+  <si>
+    <t>when use dot operator on a null variable</t>
+  </si>
+  <si>
+    <t>public class School {</t>
+  </si>
+  <si>
+    <t>Teacher t;</t>
+  </si>
+  <si>
+    <t>String name="jane";</t>
+  </si>
+  <si>
+    <t>int grade=1;</t>
+  </si>
+  <si>
+    <t>public class Teacher {</t>
+  </si>
+  <si>
+    <t>String name="tony";</t>
+  </si>
+  <si>
+    <t>String subject="math";</t>
+  </si>
+  <si>
+    <t>sysout( sch.s.name);</t>
+  </si>
+  <si>
+    <t>sysout( sch.t.subject );</t>
+  </si>
+  <si>
+    <t>School sch=new School();</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>sch</t>
+  </si>
+  <si>
+    <t>#abc &gt;&gt;&gt;&gt; #xyz &gt;&gt;&gt;&gt;&gt; name</t>
+  </si>
+  <si>
+    <t>#abc &gt;&gt;&gt;&gt; null &gt;&gt;&gt;&gt;&gt; subjecct</t>
+  </si>
+  <si>
+    <t>Nullpointer exception</t>
+  </si>
+  <si>
+    <t>CustomerLoan</t>
+  </si>
+  <si>
+    <t>creditScore</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>LoanOfficer</t>
+  </si>
+  <si>
+    <t>RiskAnalyzer</t>
+  </si>
+  <si>
+    <t>LoanManager</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>void processLoan</t>
+  </si>
+  <si>
+    <t>void approveDenyLoan</t>
+  </si>
+  <si>
+    <t>analyzeRisk()</t>
+  </si>
+  <si>
+    <t>approveDenyLoan()</t>
+  </si>
+  <si>
+    <t>if creditscore &lt; 800</t>
+  </si>
+  <si>
+    <t>BelowOptimalScoreException</t>
+  </si>
+  <si>
+    <t>your loan is denied due to low credit score</t>
+  </si>
+  <si>
+    <t>throws belowScoreEx</t>
+  </si>
+  <si>
+    <t>void analyzeRik throw belowScoreEx</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>Webpage program</t>
+  </si>
+  <si>
+    <t>First Java program</t>
+  </si>
+  <si>
+    <t>Second Java Program</t>
+  </si>
+  <si>
+    <t>Third Java</t>
+  </si>
+  <si>
+    <t>ApplyLoa</t>
   </si>
 </sst>
 </file>
@@ -8866,7 +8999,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9533,6 +9666,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9572,6 +9711,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9585,18 +9736,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20231,13 +20370,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="342" t="s">
+      <c r="H3" s="344" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="343"/>
-      <c r="J3" s="343"/>
-      <c r="K3" s="343"/>
-      <c r="L3" s="344"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="346"/>
       <c r="P3" t="s">
         <v>1839</v>
       </c>
@@ -20280,20 +20419,20 @@
         <v>1836</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="345" t="s">
+      <c r="G6" s="347" t="s">
         <v>1834</v>
       </c>
-      <c r="H6" s="346"/>
+      <c r="H6" s="348"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="345" t="s">
+      <c r="J6" s="347" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="346"/>
+      <c r="K6" s="348"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="345" t="s">
+      <c r="M6" s="347" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="346"/>
+      <c r="N6" s="348"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="105" t="s">
@@ -20314,20 +20453,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="347" t="s">
+      <c r="G8" s="349" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="348"/>
+      <c r="H8" s="350"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="347" t="s">
+      <c r="J8" s="349" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="348"/>
+      <c r="K8" s="350"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="347" t="s">
+      <c r="M8" s="349" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="348"/>
+      <c r="N8" s="350"/>
       <c r="Q8" s="122"/>
     </row>
     <row r="9" spans="1:18">
@@ -20352,17 +20491,17 @@
       <c r="B10" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="338" t="s">
+      <c r="F10" s="340" t="s">
         <v>2139</v>
       </c>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="339"/>
-      <c r="K10" s="339"/>
-      <c r="L10" s="339"/>
-      <c r="M10" s="339"/>
-      <c r="N10" s="339"/>
+      <c r="G10" s="341"/>
+      <c r="H10" s="341"/>
+      <c r="I10" s="341"/>
+      <c r="J10" s="341"/>
+      <c r="K10" s="341"/>
+      <c r="L10" s="341"/>
+      <c r="M10" s="341"/>
+      <c r="N10" s="341"/>
       <c r="P10" t="s">
         <v>2141</v>
       </c>
@@ -20372,15 +20511,15 @@
       <c r="B11" t="s">
         <v>282</v>
       </c>
-      <c r="F11" s="340"/>
-      <c r="G11" s="341"/>
-      <c r="H11" s="341"/>
-      <c r="I11" s="341"/>
-      <c r="J11" s="341"/>
-      <c r="K11" s="341"/>
-      <c r="L11" s="341"/>
-      <c r="M11" s="341"/>
-      <c r="N11" s="341"/>
+      <c r="F11" s="342"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="343"/>
+      <c r="I11" s="343"/>
+      <c r="J11" s="343"/>
+      <c r="K11" s="343"/>
+      <c r="L11" s="343"/>
+      <c r="M11" s="343"/>
+      <c r="N11" s="343"/>
       <c r="P11" t="s">
         <v>2142</v>
       </c>
@@ -20634,10 +20773,10 @@
       <c r="C23" t="s">
         <v>2070</v>
       </c>
-      <c r="D23" s="336" t="s">
+      <c r="D23" s="338" t="s">
         <v>843</v>
       </c>
-      <c r="E23" s="337"/>
+      <c r="E23" s="339"/>
       <c r="F23" s="121"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -21676,7 +21815,7 @@
       </c>
       <c r="J3" s="85"/>
       <c r="K3" s="328"/>
-      <c r="L3" s="364" t="s">
+      <c r="L3" s="366" t="s">
         <v>2478</v>
       </c>
       <c r="M3" s="193"/>
@@ -21698,7 +21837,7 @@
       <c r="K4" s="70">
         <v>123</v>
       </c>
-      <c r="L4" s="365"/>
+      <c r="L4" s="367"/>
       <c r="M4" s="193"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21718,12 +21857,12 @@
       <c r="K5" s="329" t="s">
         <v>2477</v>
       </c>
-      <c r="L5" s="365"/>
+      <c r="L5" s="367"/>
       <c r="M5" s="193"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="215"/>
-      <c r="L6" s="365"/>
+      <c r="L6" s="367"/>
       <c r="M6" s="193"/>
     </row>
     <row r="7" spans="1:13">
@@ -21736,7 +21875,7 @@
       </c>
       <c r="J7" s="85"/>
       <c r="K7" s="328"/>
-      <c r="L7" s="365"/>
+      <c r="L7" s="367"/>
       <c r="M7" s="193"/>
     </row>
     <row r="8" spans="1:13">
@@ -21754,7 +21893,7 @@
       <c r="K8" s="70">
         <v>111</v>
       </c>
-      <c r="L8" s="365"/>
+      <c r="L8" s="367"/>
       <c r="M8" s="193"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21768,7 +21907,7 @@
       <c r="K9" s="307" t="s">
         <v>317</v>
       </c>
-      <c r="L9" s="365"/>
+      <c r="L9" s="367"/>
       <c r="M9" s="193"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21776,7 +21915,7 @@
         <v>2461</v>
       </c>
       <c r="F10" s="215"/>
-      <c r="L10" s="365"/>
+      <c r="L10" s="367"/>
       <c r="M10" s="193"/>
     </row>
     <row r="11" spans="1:13">
@@ -21789,7 +21928,7 @@
       </c>
       <c r="J11" s="85"/>
       <c r="K11" s="328"/>
-      <c r="L11" s="365"/>
+      <c r="L11" s="367"/>
       <c r="M11" s="193"/>
     </row>
     <row r="12" spans="1:13">
@@ -21803,7 +21942,7 @@
       <c r="K12" s="70">
         <v>222</v>
       </c>
-      <c r="L12" s="365"/>
+      <c r="L12" s="367"/>
       <c r="M12" s="193"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21820,7 +21959,7 @@
       <c r="K13" s="307" t="s">
         <v>352</v>
       </c>
-      <c r="L13" s="366"/>
+      <c r="L13" s="368"/>
       <c r="M13" s="193"/>
     </row>
     <row r="14" spans="1:13">
@@ -21842,10 +21981,10 @@
       <c r="D15" s="301"/>
       <c r="E15" s="301"/>
       <c r="F15" s="215"/>
-      <c r="J15" s="367" t="s">
+      <c r="J15" s="369" t="s">
         <v>2467</v>
       </c>
-      <c r="K15" s="367"/>
+      <c r="K15" s="369"/>
       <c r="L15" s="70" t="s">
         <v>698</v>
       </c>
@@ -21865,8 +22004,8 @@
       <c r="G16" s="98" t="s">
         <v>2469</v>
       </c>
-      <c r="J16" s="367"/>
-      <c r="K16" s="367"/>
+      <c r="J16" s="369"/>
+      <c r="K16" s="369"/>
       <c r="L16" s="70" t="s">
         <v>149</v>
       </c>
@@ -21944,48 +22083,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="98"/>
       <c r="B22" s="98"/>
-      <c r="K22" s="363"/>
+      <c r="K22" s="365"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="98"/>
       <c r="B23" s="98"/>
-      <c r="K23" s="360"/>
+      <c r="K23" s="362"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="98"/>
       <c r="B24" s="98"/>
-      <c r="K24" s="360"/>
+      <c r="K24" s="362"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="98"/>
       <c r="B25" s="98"/>
-      <c r="K25" s="360"/>
+      <c r="K25" s="362"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="98"/>
       <c r="B26" s="98"/>
-      <c r="K26" s="360"/>
+      <c r="K26" s="362"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="360"/>
+      <c r="K27" s="362"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="360"/>
+      <c r="K28" s="362"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="98"/>
-      <c r="K29" s="360"/>
+      <c r="K29" s="362"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="98"/>
-      <c r="K30" s="360"/>
+      <c r="K30" s="362"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="98"/>
-      <c r="K31" s="360"/>
+      <c r="K31" s="362"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="360"/>
+      <c r="K32" s="362"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="325"/>
@@ -24178,7 +24317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -25280,10 +25419,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W320"/>
+  <dimension ref="A1:W369"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F261" sqref="F261:L271"/>
+    <sheetView tabSelected="1" topLeftCell="A356" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25292,2034 +25431,2673 @@
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="L1" s="91"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="L2" s="91"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="C3" s="91"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="27"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="C4" s="91"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="27"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="C5" s="91"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="C6" s="91"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="C7" s="91"/>
-      <c r="F7" s="27"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="C8" s="91"/>
-      <c r="F8" s="27"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="C9" s="91"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="C10" s="91"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="10" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>926</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="28"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="337" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="336" t="s">
+        <v>283</v>
+      </c>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+      <c r="E5" s="31"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="51">
+        <v>10</v>
+      </c>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="E6" s="31"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="E9" s="31"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="E12" s="31"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="25" t="s">
+        <v>2601</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="E14" s="31"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A17" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I19" s="337" t="s">
+        <v>291</v>
+      </c>
+      <c r="J19" s="336" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="49" t="s">
+        <v>2612</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A21" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B23" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="35">
+        <v>1</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="E29" s="31"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="32"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25" t="s">
+        <v>2616</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1">
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="L35" s="91"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="L36" s="91"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="C37" s="91"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="27"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="C38" s="91"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="27"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="C39" s="91"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="C40" s="91"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="C41" s="91"/>
+      <c r="F41" s="27"/>
+      <c r="R41" s="27"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="C42" s="91"/>
+      <c r="F42" s="27"/>
+      <c r="R42" s="27"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="C43" s="91"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="C44" s="91"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="J11" s="27"/>
-      <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="J12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="L15" s="27"/>
-      <c r="N15" s="27"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="L16" s="27"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="88"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="L19" s="88"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="88"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="27"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="D23" s="88"/>
-      <c r="F23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="55" t="s">
+      <c r="C45" s="91"/>
+      <c r="J45" s="27"/>
+      <c r="P45" s="27"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="J46" s="27"/>
+      <c r="P46" s="27"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="L49" s="27"/>
+      <c r="N49" s="27"/>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="L50" s="27"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="27"/>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="L51" s="88"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="88"/>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="90"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="90"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="90"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="90"/>
+      <c r="V52" s="90"/>
+      <c r="W52" s="90"/>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="L53" s="88"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="88"/>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="K54" s="133"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="27"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="D57" s="88"/>
+      <c r="F57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="55" t="s">
         <v>1255</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="T23" s="88"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="10" t="s">
+      <c r="N57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="T57" s="88"/>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="133"/>
-      <c r="P24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="T24" s="27"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="D25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27" t="s">
+      <c r="D58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="133"/>
+      <c r="P58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="T58" s="27"/>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="D59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27" t="s">
         <v>708</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="T25" s="27"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="D26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="T26" s="27"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="D27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27" t="s">
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="T59" s="27"/>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="D60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="T60" s="27"/>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="D61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="T27" s="27"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="D28" s="27"/>
-      <c r="T28" s="27"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27" t="s">
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="T61" s="27"/>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="D62" s="27"/>
+      <c r="T62" s="27"/>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27" t="s">
         <v>1254</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="B61" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="B62" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>742</v>
-      </c>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="B71" t="s">
-        <v>744</v>
+      <c r="A71" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>720</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>746</v>
+      <c r="B74" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="B75" t="s">
-        <v>747</v>
+      <c r="A75" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>748</v>
+      <c r="B78" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>749</v>
+      <c r="B79" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>716</v>
+      <c r="B80" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>751</v>
+      <c r="B83" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>716</v>
+      <c r="B84" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="B86" t="s">
-        <v>753</v>
+      <c r="A86" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>756</v>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="B97" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="B96" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="B101" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="B102" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="B103" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="B104" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="B107" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="C108" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="C109" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="B110" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="C111" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="C112" t="s">
-        <v>790</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="B115" t="s">
-        <v>792</v>
+        <v>750</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="B116" t="s">
-        <v>793</v>
+      <c r="A116" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="B117" t="s">
-        <v>794</v>
+      <c r="A117" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="B118" t="s">
-        <v>795</v>
+      <c r="A118" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="B120" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="B131" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="B135" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="B136" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="B137" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="C142" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="C143" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="B144" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="C145" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="C146" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="B149" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="B150" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="B151" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="B152" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="B123" t="s">
+    <row r="157" spans="1:3">
+      <c r="B157" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="B124" t="s">
+    <row r="158" spans="1:3">
+      <c r="B158" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="B125" t="s">
+    <row r="159" spans="1:3">
+      <c r="B159" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="B126" t="s">
+    <row r="160" spans="1:3">
+      <c r="B160" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="B127" t="s">
+    <row r="161" spans="2:5">
+      <c r="B161" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="B128" t="s">
+    <row r="162" spans="2:5">
+      <c r="B162" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="B130" t="s">
+    <row r="164" spans="2:5">
+      <c r="B164" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="B131" t="s">
+    <row r="165" spans="2:5">
+      <c r="B165" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="B132" t="s">
+    <row r="166" spans="2:5">
+      <c r="B166" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="B133" t="s">
+    <row r="167" spans="2:5">
+      <c r="B167" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="E134" t="s">
+    <row r="168" spans="2:5">
+      <c r="E168" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="B136" t="s">
+    <row r="170" spans="2:5">
+      <c r="B170" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="D137" t="s">
+    <row r="171" spans="2:5">
+      <c r="D171" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="B139" t="s">
+    <row r="173" spans="2:5">
+      <c r="B173" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="B140" t="s">
+    <row r="174" spans="2:5">
+      <c r="B174" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="B141" t="s">
+    <row r="175" spans="2:5">
+      <c r="B175" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="B144" t="s">
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
-      <c r="B145" t="s">
+    <row r="179" spans="1:3">
+      <c r="B179" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="146" spans="2:3">
-      <c r="B146" t="s">
+    <row r="180" spans="1:3">
+      <c r="B180" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="2:3">
-      <c r="C147" t="s">
+    <row r="181" spans="1:3">
+      <c r="C181" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="148" spans="2:3">
-      <c r="C148" t="s">
+    <row r="182" spans="1:3">
+      <c r="C182" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="149" spans="2:3">
-      <c r="C149" t="s">
+    <row r="183" spans="1:3">
+      <c r="C183" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="150" spans="2:3">
-      <c r="C150" t="s">
+    <row r="184" spans="1:3">
+      <c r="C184" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
-      <c r="C151" t="s">
+    <row r="185" spans="1:3">
+      <c r="C185" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="2:3">
-      <c r="B152" t="s">
+    <row r="186" spans="1:3">
+      <c r="B186" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="2:3">
-      <c r="B153" t="s">
+    <row r="187" spans="1:3">
+      <c r="B187" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="154" spans="2:3">
-      <c r="B154" t="s">
+    <row r="188" spans="1:3">
+      <c r="B188" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="155" spans="2:3">
-      <c r="C155" t="s">
+    <row r="189" spans="1:3">
+      <c r="C189" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="156" spans="2:3">
-      <c r="C156" t="s">
+    <row r="190" spans="1:3">
+      <c r="C190" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="157" spans="2:3">
-      <c r="C157" t="s">
+    <row r="191" spans="1:3">
+      <c r="C191" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
-      <c r="B159" t="s">
+    <row r="193" spans="1:20">
+      <c r="B193" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="161" spans="1:20">
-      <c r="B161" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20">
-      <c r="C162" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20">
-      <c r="C163" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20">
-      <c r="C164" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B165" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20">
-      <c r="K166" s="28"/>
-      <c r="L166" s="29"/>
-      <c r="M166" s="29"/>
-      <c r="N166" s="29"/>
-      <c r="O166" s="29"/>
-      <c r="P166" s="29"/>
-      <c r="Q166" s="29"/>
-      <c r="R166" s="29"/>
-      <c r="S166" s="29"/>
-      <c r="T166" s="30"/>
-    </row>
-    <row r="167" spans="1:20" ht="15.75" thickBot="1">
-      <c r="K167" s="31"/>
-      <c r="L167" s="25"/>
-      <c r="M167" s="25"/>
-      <c r="N167" s="25"/>
-      <c r="O167" s="25"/>
-      <c r="P167" s="25"/>
-      <c r="Q167" s="25"/>
-      <c r="R167" s="25"/>
-      <c r="S167" s="25"/>
-      <c r="T167" s="32"/>
-    </row>
-    <row r="168" spans="1:20">
-      <c r="K168" s="31"/>
-      <c r="L168" s="25" t="s">
-        <v>1250</v>
-      </c>
-      <c r="M168" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="N168" s="25"/>
-      <c r="O168" s="25"/>
-      <c r="P168" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q168" s="28"/>
-      <c r="R168" s="30"/>
-      <c r="S168" s="25"/>
-      <c r="T168" s="32"/>
-    </row>
-    <row r="169" spans="1:20">
-      <c r="K169" s="31"/>
-      <c r="L169" s="25" t="s">
-        <v>1248</v>
-      </c>
-      <c r="M169" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="N169" s="25"/>
-      <c r="O169" s="25"/>
-      <c r="P169" s="25"/>
-      <c r="Q169" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="R169" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="S169" s="25"/>
-      <c r="T169" s="32"/>
-    </row>
-    <row r="170" spans="1:20">
-      <c r="A170" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K170" s="31"/>
-      <c r="L170" s="25"/>
-      <c r="M170" s="25"/>
-      <c r="N170" s="25"/>
-      <c r="O170" s="25"/>
-      <c r="P170" s="25"/>
-      <c r="Q170" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="R170" s="32">
-        <v>0</v>
-      </c>
-      <c r="S170" s="25"/>
-      <c r="T170" s="32"/>
-    </row>
-    <row r="171" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B171" t="s">
-        <v>290</v>
-      </c>
-      <c r="K171" s="31"/>
-      <c r="L171" s="25"/>
-      <c r="M171" s="25"/>
-      <c r="N171" s="25"/>
-      <c r="O171" s="25"/>
-      <c r="P171" s="25"/>
-      <c r="Q171" s="33" t="s">
-        <v>1252</v>
-      </c>
-      <c r="R171" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="S171" s="25"/>
-      <c r="T171" s="32"/>
-    </row>
-    <row r="172" spans="1:20">
-      <c r="B172" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K172" s="31"/>
-      <c r="L172" s="25"/>
-      <c r="M172" s="25"/>
-      <c r="N172" s="25"/>
-      <c r="O172" s="25"/>
-      <c r="P172" s="25"/>
-      <c r="Q172" s="25"/>
-      <c r="R172" s="25"/>
-      <c r="S172" s="25"/>
-      <c r="T172" s="32"/>
-    </row>
-    <row r="173" spans="1:20">
-      <c r="B173" t="s">
-        <v>1245</v>
-      </c>
-      <c r="K173" s="31"/>
-      <c r="L173" s="25"/>
-      <c r="M173" s="25"/>
-      <c r="N173" s="25"/>
-      <c r="O173" s="25"/>
-      <c r="P173" s="25"/>
-      <c r="Q173" s="25"/>
-      <c r="R173" s="25"/>
-      <c r="S173" s="25"/>
-      <c r="T173" s="32"/>
-    </row>
-    <row r="174" spans="1:20">
-      <c r="A174" t="s">
-        <v>126</v>
-      </c>
-      <c r="K174" s="31"/>
-      <c r="L174" s="25"/>
-      <c r="M174" s="25"/>
-      <c r="N174" s="25"/>
-      <c r="O174" s="25"/>
-      <c r="P174" s="25"/>
-      <c r="Q174" s="25"/>
-      <c r="R174" s="25"/>
-      <c r="S174" s="25"/>
-      <c r="T174" s="32"/>
-    </row>
-    <row r="175" spans="1:20">
-      <c r="K175" s="31"/>
-      <c r="L175" s="25"/>
-      <c r="M175" s="25"/>
-      <c r="N175" s="25"/>
-      <c r="O175" s="25"/>
-      <c r="P175" s="25"/>
-      <c r="Q175" s="25"/>
-      <c r="R175" s="25"/>
-      <c r="S175" s="25"/>
-      <c r="T175" s="32"/>
-    </row>
-    <row r="176" spans="1:20">
-      <c r="K176" s="31"/>
-      <c r="L176" s="25"/>
-      <c r="M176" s="25"/>
-      <c r="N176" s="25"/>
-      <c r="O176" s="25"/>
-      <c r="P176" s="25"/>
-      <c r="Q176" s="25"/>
-      <c r="R176" s="25"/>
-      <c r="S176" s="25"/>
-      <c r="T176" s="32"/>
-    </row>
-    <row r="177" spans="1:20">
-      <c r="A177" t="s">
-        <v>1158</v>
-      </c>
-      <c r="K177" s="31"/>
-      <c r="L177" s="25"/>
-      <c r="M177" s="25"/>
-      <c r="N177" s="25"/>
-      <c r="O177" s="25"/>
-      <c r="P177" s="25"/>
-      <c r="Q177" s="25"/>
-      <c r="R177" s="25"/>
-      <c r="S177" s="25"/>
-      <c r="T177" s="32"/>
-    </row>
-    <row r="178" spans="1:20">
-      <c r="A178" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K178" s="31"/>
-      <c r="L178" s="25"/>
-      <c r="M178" s="25"/>
-      <c r="N178" s="25"/>
-      <c r="O178" s="25"/>
-      <c r="P178" s="25"/>
-      <c r="Q178" s="25"/>
-      <c r="R178" s="25"/>
-      <c r="S178" s="25"/>
-      <c r="T178" s="32"/>
-    </row>
-    <row r="179" spans="1:20">
-      <c r="K179" s="31"/>
-      <c r="L179" s="25"/>
-      <c r="M179" s="25"/>
-      <c r="N179" s="25"/>
-      <c r="O179" s="25"/>
-      <c r="P179" s="25"/>
-      <c r="Q179" s="25"/>
-      <c r="R179" s="25"/>
-      <c r="S179" s="25"/>
-      <c r="T179" s="32"/>
-    </row>
-    <row r="180" spans="1:20">
-      <c r="A180" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="K180" s="31"/>
-      <c r="L180" s="25"/>
-      <c r="M180" s="25"/>
-      <c r="N180" s="25"/>
-      <c r="O180" s="25"/>
-      <c r="P180" s="25"/>
-      <c r="Q180" s="25"/>
-      <c r="R180" s="25"/>
-      <c r="S180" s="25"/>
-      <c r="T180" s="32"/>
-    </row>
-    <row r="181" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A181" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1253</v>
-      </c>
-      <c r="K181" s="33"/>
-      <c r="L181" s="34"/>
-      <c r="M181" s="34"/>
-      <c r="N181" s="34"/>
-      <c r="O181" s="34"/>
-      <c r="P181" s="34"/>
-      <c r="Q181" s="34"/>
-      <c r="R181" s="34"/>
-      <c r="S181" s="34"/>
-      <c r="T181" s="35"/>
-    </row>
-    <row r="184" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="185" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A185" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K185" s="28"/>
-      <c r="L185" s="29"/>
-      <c r="M185" s="29"/>
-      <c r="N185" s="29"/>
-      <c r="O185" s="29"/>
-      <c r="P185" s="29"/>
-      <c r="Q185" s="29"/>
-      <c r="R185" s="29"/>
-      <c r="S185" s="29"/>
-      <c r="T185" s="30"/>
-    </row>
-    <row r="186" spans="1:20">
-      <c r="B186" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K186" s="31" t="s">
-        <v>769</v>
-      </c>
-      <c r="L186" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="M186" s="25"/>
-      <c r="N186" s="25"/>
-      <c r="O186" s="25"/>
-      <c r="P186" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q186" s="28"/>
-      <c r="R186" s="29"/>
-      <c r="S186" s="30"/>
-      <c r="T186" s="32"/>
-    </row>
-    <row r="187" spans="1:20">
-      <c r="B187" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K187" s="31" t="s">
-        <v>1248</v>
-      </c>
-      <c r="L187" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="M187" s="25"/>
-      <c r="N187" s="25"/>
-      <c r="O187" s="25"/>
-      <c r="P187" s="25"/>
-      <c r="Q187" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="R187" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="S187" s="32"/>
-      <c r="T187" s="32"/>
-    </row>
-    <row r="188" spans="1:20">
-      <c r="B188" t="s">
-        <v>1302</v>
-      </c>
-      <c r="K188" s="31"/>
-      <c r="L188" s="25"/>
-      <c r="M188" s="25"/>
-      <c r="N188" s="25"/>
-      <c r="O188" s="25"/>
-      <c r="P188" s="25"/>
-      <c r="Q188" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="R188" s="25">
-        <v>10</v>
-      </c>
-      <c r="S188" s="32"/>
-      <c r="T188" s="32"/>
-    </row>
-    <row r="189" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A189" t="s">
-        <v>126</v>
-      </c>
-      <c r="K189" s="31"/>
-      <c r="L189" s="25"/>
-      <c r="M189" s="25"/>
-      <c r="N189" s="25"/>
-      <c r="O189" s="25"/>
-      <c r="P189" s="25"/>
-      <c r="Q189" s="33" t="s">
-        <v>1246</v>
-      </c>
-      <c r="R189" s="34" t="s">
-        <v>1303</v>
-      </c>
-      <c r="S189" s="35"/>
-      <c r="T189" s="32"/>
-    </row>
-    <row r="190" spans="1:20">
-      <c r="K190" s="31"/>
-      <c r="L190" s="25"/>
-      <c r="M190" s="25"/>
-      <c r="N190" s="25"/>
-      <c r="O190" s="25"/>
-      <c r="P190" s="25"/>
-      <c r="Q190" s="25"/>
-      <c r="R190" s="25"/>
-      <c r="S190" s="25"/>
-      <c r="T190" s="32"/>
-    </row>
-    <row r="191" spans="1:20">
-      <c r="K191" s="31"/>
-      <c r="L191" s="25"/>
-      <c r="M191" s="25"/>
-      <c r="N191" s="25"/>
-      <c r="O191" s="25"/>
-      <c r="P191" s="25"/>
-      <c r="Q191" s="25"/>
-      <c r="R191" s="25"/>
-      <c r="S191" s="25"/>
-      <c r="T191" s="32"/>
-    </row>
-    <row r="192" spans="1:20">
-      <c r="A192" t="s">
-        <v>226</v>
-      </c>
-      <c r="K192" s="31"/>
-      <c r="L192" s="25"/>
-      <c r="M192" s="25"/>
-      <c r="N192" s="25"/>
-      <c r="O192" s="25"/>
-      <c r="P192" s="25"/>
-      <c r="Q192" s="25"/>
-      <c r="R192" s="25"/>
-      <c r="S192" s="25"/>
-      <c r="T192" s="32"/>
-    </row>
-    <row r="193" spans="1:20">
-      <c r="A193" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K193" s="31"/>
-      <c r="L193" s="25"/>
-      <c r="M193" s="25"/>
-      <c r="N193" s="25"/>
-      <c r="O193" s="25"/>
-      <c r="P193" s="25"/>
-      <c r="Q193" s="25"/>
-      <c r="R193" s="25"/>
-      <c r="S193" s="25"/>
-      <c r="T193" s="32"/>
-    </row>
-    <row r="194" spans="1:20">
-      <c r="K194" s="31"/>
-      <c r="L194" s="25"/>
-      <c r="M194" s="25"/>
-      <c r="N194" s="25"/>
-      <c r="O194" s="25"/>
-      <c r="P194" s="25"/>
-      <c r="Q194" s="25"/>
-      <c r="R194" s="25"/>
-      <c r="S194" s="25"/>
-      <c r="T194" s="32"/>
     </row>
     <row r="195" spans="1:20">
       <c r="B195" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="C196" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="C197" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="C198" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B199" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="K200" s="28"/>
+      <c r="L200" s="29"/>
+      <c r="M200" s="29"/>
+      <c r="N200" s="29"/>
+      <c r="O200" s="29"/>
+      <c r="P200" s="29"/>
+      <c r="Q200" s="29"/>
+      <c r="R200" s="29"/>
+      <c r="S200" s="29"/>
+      <c r="T200" s="30"/>
+    </row>
+    <row r="201" spans="1:20" ht="15.75" thickBot="1">
+      <c r="K201" s="31"/>
+      <c r="L201" s="25"/>
+      <c r="M201" s="25"/>
+      <c r="N201" s="25"/>
+      <c r="O201" s="25"/>
+      <c r="P201" s="25"/>
+      <c r="Q201" s="25"/>
+      <c r="R201" s="25"/>
+      <c r="S201" s="25"/>
+      <c r="T201" s="32"/>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="K202" s="31"/>
+      <c r="L202" s="25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M202" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="N202" s="25"/>
+      <c r="O202" s="25"/>
+      <c r="P202" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q202" s="28"/>
+      <c r="R202" s="30"/>
+      <c r="S202" s="25"/>
+      <c r="T202" s="32"/>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="K203" s="31"/>
+      <c r="L203" s="25" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M203" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="N203" s="25"/>
+      <c r="O203" s="25"/>
+      <c r="P203" s="25"/>
+      <c r="Q203" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="R203" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="S203" s="25"/>
+      <c r="T203" s="32"/>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K204" s="31"/>
+      <c r="L204" s="25"/>
+      <c r="M204" s="25"/>
+      <c r="N204" s="25"/>
+      <c r="O204" s="25"/>
+      <c r="P204" s="25"/>
+      <c r="Q204" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="R204" s="32">
+        <v>0</v>
+      </c>
+      <c r="S204" s="25"/>
+      <c r="T204" s="32"/>
+    </row>
+    <row r="205" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B205" t="s">
+        <v>290</v>
+      </c>
+      <c r="K205" s="31"/>
+      <c r="L205" s="25"/>
+      <c r="M205" s="25"/>
+      <c r="N205" s="25"/>
+      <c r="O205" s="25"/>
+      <c r="P205" s="25"/>
+      <c r="Q205" s="33" t="s">
+        <v>1252</v>
+      </c>
+      <c r="R205" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="S205" s="25"/>
+      <c r="T205" s="32"/>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="B206" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K206" s="31"/>
+      <c r="L206" s="25"/>
+      <c r="M206" s="25"/>
+      <c r="N206" s="25"/>
+      <c r="O206" s="25"/>
+      <c r="P206" s="25"/>
+      <c r="Q206" s="25"/>
+      <c r="R206" s="25"/>
+      <c r="S206" s="25"/>
+      <c r="T206" s="32"/>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="B207" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K207" s="31"/>
+      <c r="L207" s="25"/>
+      <c r="M207" s="25"/>
+      <c r="N207" s="25"/>
+      <c r="O207" s="25"/>
+      <c r="P207" s="25"/>
+      <c r="Q207" s="25"/>
+      <c r="R207" s="25"/>
+      <c r="S207" s="25"/>
+      <c r="T207" s="32"/>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" t="s">
+        <v>126</v>
+      </c>
+      <c r="K208" s="31"/>
+      <c r="L208" s="25"/>
+      <c r="M208" s="25"/>
+      <c r="N208" s="25"/>
+      <c r="O208" s="25"/>
+      <c r="P208" s="25"/>
+      <c r="Q208" s="25"/>
+      <c r="R208" s="25"/>
+      <c r="S208" s="25"/>
+      <c r="T208" s="32"/>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="K209" s="31"/>
+      <c r="L209" s="25"/>
+      <c r="M209" s="25"/>
+      <c r="N209" s="25"/>
+      <c r="O209" s="25"/>
+      <c r="P209" s="25"/>
+      <c r="Q209" s="25"/>
+      <c r="R209" s="25"/>
+      <c r="S209" s="25"/>
+      <c r="T209" s="32"/>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="K210" s="31"/>
+      <c r="L210" s="25"/>
+      <c r="M210" s="25"/>
+      <c r="N210" s="25"/>
+      <c r="O210" s="25"/>
+      <c r="P210" s="25"/>
+      <c r="Q210" s="25"/>
+      <c r="R210" s="25"/>
+      <c r="S210" s="25"/>
+      <c r="T210" s="32"/>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K211" s="31"/>
+      <c r="L211" s="25"/>
+      <c r="M211" s="25"/>
+      <c r="N211" s="25"/>
+      <c r="O211" s="25"/>
+      <c r="P211" s="25"/>
+      <c r="Q211" s="25"/>
+      <c r="R211" s="25"/>
+      <c r="S211" s="25"/>
+      <c r="T211" s="32"/>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="A212" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K212" s="31"/>
+      <c r="L212" s="25"/>
+      <c r="M212" s="25"/>
+      <c r="N212" s="25"/>
+      <c r="O212" s="25"/>
+      <c r="P212" s="25"/>
+      <c r="Q212" s="25"/>
+      <c r="R212" s="25"/>
+      <c r="S212" s="25"/>
+      <c r="T212" s="32"/>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="K213" s="31"/>
+      <c r="L213" s="25"/>
+      <c r="M213" s="25"/>
+      <c r="N213" s="25"/>
+      <c r="O213" s="25"/>
+      <c r="P213" s="25"/>
+      <c r="Q213" s="25"/>
+      <c r="R213" s="25"/>
+      <c r="S213" s="25"/>
+      <c r="T213" s="32"/>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="K214" s="31"/>
+      <c r="L214" s="25"/>
+      <c r="M214" s="25"/>
+      <c r="N214" s="25"/>
+      <c r="O214" s="25"/>
+      <c r="P214" s="25"/>
+      <c r="Q214" s="25"/>
+      <c r="R214" s="25"/>
+      <c r="S214" s="25"/>
+      <c r="T214" s="32"/>
+    </row>
+    <row r="215" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A215" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K215" s="33"/>
+      <c r="L215" s="34"/>
+      <c r="M215" s="34"/>
+      <c r="N215" s="34"/>
+      <c r="O215" s="34"/>
+      <c r="P215" s="34"/>
+      <c r="Q215" s="34"/>
+      <c r="R215" s="34"/>
+      <c r="S215" s="34"/>
+      <c r="T215" s="35"/>
+    </row>
+    <row r="218" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="219" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A219" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K219" s="28"/>
+      <c r="L219" s="29"/>
+      <c r="M219" s="29"/>
+      <c r="N219" s="29"/>
+      <c r="O219" s="29"/>
+      <c r="P219" s="29"/>
+      <c r="Q219" s="29"/>
+      <c r="R219" s="29"/>
+      <c r="S219" s="29"/>
+      <c r="T219" s="30"/>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="B220" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K220" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="L220" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="M220" s="25"/>
+      <c r="N220" s="25"/>
+      <c r="O220" s="25"/>
+      <c r="P220" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q220" s="28"/>
+      <c r="R220" s="29"/>
+      <c r="S220" s="30"/>
+      <c r="T220" s="32"/>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="B221" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K221" s="31" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L221" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="M221" s="25"/>
+      <c r="N221" s="25"/>
+      <c r="O221" s="25"/>
+      <c r="P221" s="25"/>
+      <c r="Q221" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="R221" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="S221" s="32"/>
+      <c r="T221" s="32"/>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="B222" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K222" s="31"/>
+      <c r="L222" s="25"/>
+      <c r="M222" s="25"/>
+      <c r="N222" s="25"/>
+      <c r="O222" s="25"/>
+      <c r="P222" s="25"/>
+      <c r="Q222" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="R222" s="25">
+        <v>10</v>
+      </c>
+      <c r="S222" s="32"/>
+      <c r="T222" s="32"/>
+    </row>
+    <row r="223" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A223" t="s">
+        <v>126</v>
+      </c>
+      <c r="K223" s="31"/>
+      <c r="L223" s="25"/>
+      <c r="M223" s="25"/>
+      <c r="N223" s="25"/>
+      <c r="O223" s="25"/>
+      <c r="P223" s="25"/>
+      <c r="Q223" s="33" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R223" s="34" t="s">
+        <v>1303</v>
+      </c>
+      <c r="S223" s="35"/>
+      <c r="T223" s="32"/>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="K224" s="31"/>
+      <c r="L224" s="25"/>
+      <c r="M224" s="25"/>
+      <c r="N224" s="25"/>
+      <c r="O224" s="25"/>
+      <c r="P224" s="25"/>
+      <c r="Q224" s="25"/>
+      <c r="R224" s="25"/>
+      <c r="S224" s="25"/>
+      <c r="T224" s="32"/>
+    </row>
+    <row r="225" spans="1:20">
+      <c r="K225" s="31"/>
+      <c r="L225" s="25"/>
+      <c r="M225" s="25"/>
+      <c r="N225" s="25"/>
+      <c r="O225" s="25"/>
+      <c r="P225" s="25"/>
+      <c r="Q225" s="25"/>
+      <c r="R225" s="25"/>
+      <c r="S225" s="25"/>
+      <c r="T225" s="32"/>
+    </row>
+    <row r="226" spans="1:20">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="K226" s="31"/>
+      <c r="L226" s="25"/>
+      <c r="M226" s="25"/>
+      <c r="N226" s="25"/>
+      <c r="O226" s="25"/>
+      <c r="P226" s="25"/>
+      <c r="Q226" s="25"/>
+      <c r="R226" s="25"/>
+      <c r="S226" s="25"/>
+      <c r="T226" s="32"/>
+    </row>
+    <row r="227" spans="1:20">
+      <c r="A227" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K227" s="31"/>
+      <c r="L227" s="25"/>
+      <c r="M227" s="25"/>
+      <c r="N227" s="25"/>
+      <c r="O227" s="25"/>
+      <c r="P227" s="25"/>
+      <c r="Q227" s="25"/>
+      <c r="R227" s="25"/>
+      <c r="S227" s="25"/>
+      <c r="T227" s="32"/>
+    </row>
+    <row r="228" spans="1:20">
+      <c r="K228" s="31"/>
+      <c r="L228" s="25"/>
+      <c r="M228" s="25"/>
+      <c r="N228" s="25"/>
+      <c r="O228" s="25"/>
+      <c r="P228" s="25"/>
+      <c r="Q228" s="25"/>
+      <c r="R228" s="25"/>
+      <c r="S228" s="25"/>
+      <c r="T228" s="32"/>
+    </row>
+    <row r="229" spans="1:20">
+      <c r="B229" t="s">
         <v>1304</v>
       </c>
-      <c r="K195" s="31"/>
-      <c r="L195" s="25"/>
-      <c r="M195" s="25"/>
-      <c r="N195" s="25"/>
-      <c r="O195" s="25"/>
-      <c r="P195" s="25"/>
-      <c r="Q195" s="25"/>
-      <c r="R195" s="25"/>
-      <c r="S195" s="25"/>
-      <c r="T195" s="32"/>
-    </row>
-    <row r="196" spans="1:20">
-      <c r="K196" s="31"/>
-      <c r="L196" s="25"/>
-      <c r="M196" s="25"/>
-      <c r="N196" s="25"/>
-      <c r="O196" s="25"/>
-      <c r="P196" s="25"/>
-      <c r="Q196" s="25"/>
-      <c r="R196" s="25"/>
-      <c r="S196" s="25"/>
-      <c r="T196" s="32"/>
-    </row>
-    <row r="197" spans="1:20">
-      <c r="B197" t="s">
+      <c r="K229" s="31"/>
+      <c r="L229" s="25"/>
+      <c r="M229" s="25"/>
+      <c r="N229" s="25"/>
+      <c r="O229" s="25"/>
+      <c r="P229" s="25"/>
+      <c r="Q229" s="25"/>
+      <c r="R229" s="25"/>
+      <c r="S229" s="25"/>
+      <c r="T229" s="32"/>
+    </row>
+    <row r="230" spans="1:20">
+      <c r="K230" s="31"/>
+      <c r="L230" s="25"/>
+      <c r="M230" s="25"/>
+      <c r="N230" s="25"/>
+      <c r="O230" s="25"/>
+      <c r="P230" s="25"/>
+      <c r="Q230" s="25"/>
+      <c r="R230" s="25"/>
+      <c r="S230" s="25"/>
+      <c r="T230" s="32"/>
+    </row>
+    <row r="231" spans="1:20">
+      <c r="B231" t="s">
         <v>1305</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E231" t="s">
         <v>1253</v>
       </c>
-      <c r="K197" s="31"/>
-      <c r="L197" s="25"/>
-      <c r="M197" s="25"/>
-      <c r="N197" s="25"/>
-      <c r="O197" s="25"/>
-      <c r="P197" s="25"/>
-      <c r="Q197" s="25"/>
-      <c r="R197" s="25"/>
-      <c r="S197" s="25"/>
-      <c r="T197" s="32"/>
-    </row>
-    <row r="198" spans="1:20">
-      <c r="K198" s="31"/>
-      <c r="L198" s="25"/>
-      <c r="M198" s="25"/>
-      <c r="N198" s="25"/>
-      <c r="O198" s="25"/>
-      <c r="P198" s="25"/>
-      <c r="Q198" s="25"/>
-      <c r="R198" s="25"/>
-      <c r="S198" s="25"/>
-      <c r="T198" s="32"/>
-    </row>
-    <row r="199" spans="1:20" ht="15.75" thickBot="1">
-      <c r="K199" s="33"/>
-      <c r="L199" s="34"/>
-      <c r="M199" s="34"/>
-      <c r="N199" s="34"/>
-      <c r="O199" s="34"/>
-      <c r="P199" s="34"/>
-      <c r="Q199" s="34"/>
-      <c r="R199" s="34"/>
-      <c r="S199" s="34"/>
-      <c r="T199" s="35"/>
-    </row>
-    <row r="223" spans="7:7">
-      <c r="G223" t="s">
+      <c r="K231" s="31"/>
+      <c r="L231" s="25"/>
+      <c r="M231" s="25"/>
+      <c r="N231" s="25"/>
+      <c r="O231" s="25"/>
+      <c r="P231" s="25"/>
+      <c r="Q231" s="25"/>
+      <c r="R231" s="25"/>
+      <c r="S231" s="25"/>
+      <c r="T231" s="32"/>
+    </row>
+    <row r="232" spans="1:20">
+      <c r="K232" s="31"/>
+      <c r="L232" s="25"/>
+      <c r="M232" s="25"/>
+      <c r="N232" s="25"/>
+      <c r="O232" s="25"/>
+      <c r="P232" s="25"/>
+      <c r="Q232" s="25"/>
+      <c r="R232" s="25"/>
+      <c r="S232" s="25"/>
+      <c r="T232" s="32"/>
+    </row>
+    <row r="233" spans="1:20" ht="15.75" thickBot="1">
+      <c r="K233" s="33"/>
+      <c r="L233" s="34"/>
+      <c r="M233" s="34"/>
+      <c r="N233" s="34"/>
+      <c r="O233" s="34"/>
+      <c r="P233" s="34"/>
+      <c r="Q233" s="34"/>
+      <c r="R233" s="34"/>
+      <c r="S233" s="34"/>
+      <c r="T233" s="35"/>
+    </row>
+    <row r="257" spans="3:11">
+      <c r="G257" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="225" spans="2:13">
-      <c r="G225" s="39"/>
-      <c r="H225" s="25"/>
-      <c r="I225" s="25"/>
-    </row>
-    <row r="226" spans="2:13">
-      <c r="C226" t="s">
+    <row r="259" spans="3:11">
+      <c r="G259" s="39"/>
+      <c r="H259" s="25"/>
+      <c r="I259" s="25"/>
+    </row>
+    <row r="260" spans="3:11">
+      <c r="C260" t="s">
         <v>220</v>
       </c>
-      <c r="G226" s="39" t="s">
+      <c r="G260" s="39" t="s">
         <v>1417</v>
       </c>
-      <c r="H226" s="25"/>
-      <c r="I226" s="25"/>
-    </row>
-    <row r="227" spans="2:13">
-      <c r="C227" t="s">
+      <c r="H260" s="25"/>
+      <c r="I260" s="25"/>
+    </row>
+    <row r="261" spans="3:11">
+      <c r="C261" t="s">
         <v>1411</v>
       </c>
-      <c r="G227" s="39" t="s">
+      <c r="G261" s="39" t="s">
         <v>1416</v>
       </c>
-      <c r="H227" s="25"/>
-      <c r="I227" s="25"/>
-    </row>
-    <row r="228" spans="2:13">
-      <c r="G228" s="39" t="s">
+      <c r="H261" s="25"/>
+      <c r="I261" s="25"/>
+    </row>
+    <row r="262" spans="3:11">
+      <c r="G262" s="39" t="s">
         <v>1415</v>
       </c>
-      <c r="H228" s="25"/>
-      <c r="I228" s="25"/>
-      <c r="K228" t="s">
+      <c r="H262" s="25"/>
+      <c r="I262" s="25"/>
+      <c r="K262" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="229" spans="2:13">
-      <c r="G229" s="39" t="s">
+    <row r="263" spans="3:11">
+      <c r="G263" s="39" t="s">
         <v>1404</v>
       </c>
-      <c r="H229" s="25"/>
-      <c r="I229" s="25"/>
-      <c r="K229" t="s">
+      <c r="H263" s="25"/>
+      <c r="I263" s="25"/>
+      <c r="K263" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="230" spans="2:13">
-      <c r="K230" t="s">
+    <row r="264" spans="3:11">
+      <c r="K264" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="231" spans="2:13">
-      <c r="K231" t="s">
+    <row r="265" spans="3:11">
+      <c r="K265" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="232" spans="2:13">
-      <c r="K232" t="s">
+    <row r="266" spans="3:11">
+      <c r="K266" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="233" spans="2:13">
-      <c r="K233" t="s">
+    <row r="267" spans="3:11">
+      <c r="K267" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="234" spans="2:13">
-      <c r="K234" t="s">
+    <row r="268" spans="3:11">
+      <c r="K268" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="235" spans="2:13">
-      <c r="K235" t="s">
+    <row r="269" spans="3:11">
+      <c r="K269" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="239" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="240" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B240" t="s">
+    <row r="273" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="274" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B274" t="s">
         <v>1418</v>
       </c>
-      <c r="F240" s="28"/>
-      <c r="G240" s="29"/>
-      <c r="H240" s="29"/>
-      <c r="I240" s="29"/>
-      <c r="J240" s="29"/>
-      <c r="K240" s="29" t="s">
+      <c r="F274" s="28"/>
+      <c r="G274" s="29"/>
+      <c r="H274" s="29"/>
+      <c r="I274" s="29"/>
+      <c r="J274" s="29"/>
+      <c r="K274" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="L240" s="29"/>
-      <c r="M240" s="30"/>
-    </row>
-    <row r="241" spans="2:13">
-      <c r="B241" t="s">
+      <c r="L274" s="29"/>
+      <c r="M274" s="30"/>
+    </row>
+    <row r="275" spans="2:13">
+      <c r="B275" t="s">
         <v>1419</v>
       </c>
-      <c r="F241" s="31" t="s">
+      <c r="F275" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G241" s="25" t="s">
+      <c r="G275" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="H241" s="25"/>
-      <c r="I241" s="25"/>
-      <c r="J241" s="25"/>
-      <c r="K241" s="43" t="s">
+      <c r="H275" s="25"/>
+      <c r="I275" s="25"/>
+      <c r="J275" s="25"/>
+      <c r="K275" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="L241" s="45" t="s">
+      <c r="L275" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="M241" s="32"/>
-    </row>
-    <row r="242" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B242" t="s">
+      <c r="M275" s="32"/>
+    </row>
+    <row r="276" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B276" t="s">
         <v>1420</v>
       </c>
-      <c r="F242" s="31" t="s">
+      <c r="F276" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="G242" s="25" t="s">
+      <c r="G276" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H242" s="25"/>
-      <c r="I242" s="25"/>
-      <c r="J242" s="25"/>
-      <c r="K242" s="49" t="s">
+      <c r="H276" s="25"/>
+      <c r="I276" s="25"/>
+      <c r="J276" s="25"/>
+      <c r="K276" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="L242" s="51">
+      <c r="L276" s="51">
         <v>10</v>
       </c>
-      <c r="M242" s="32"/>
-    </row>
-    <row r="243" spans="2:13">
-      <c r="B243" s="27" t="s">
+      <c r="M276" s="32"/>
+    </row>
+    <row r="277" spans="2:13">
+      <c r="B277" s="27" t="s">
         <v>1421</v>
       </c>
-      <c r="C243" s="27"/>
-      <c r="D243" s="27"/>
-      <c r="F243" s="31"/>
-      <c r="G243" s="25"/>
-      <c r="H243" s="25"/>
-      <c r="I243" s="25"/>
-      <c r="J243" s="25"/>
-      <c r="K243" s="25"/>
-      <c r="L243" s="25"/>
-      <c r="M243" s="32"/>
-    </row>
-    <row r="244" spans="2:13">
-      <c r="F244" s="31"/>
-      <c r="G244" s="25"/>
-      <c r="H244" s="25"/>
-      <c r="I244" s="25"/>
-      <c r="J244" s="25"/>
-      <c r="K244" s="25"/>
-      <c r="L244" s="25"/>
-      <c r="M244" s="32"/>
-    </row>
-    <row r="245" spans="2:13">
-      <c r="B245" t="s">
+      <c r="C277" s="27"/>
+      <c r="D277" s="27"/>
+      <c r="F277" s="31"/>
+      <c r="G277" s="25"/>
+      <c r="H277" s="25"/>
+      <c r="I277" s="25"/>
+      <c r="J277" s="25"/>
+      <c r="K277" s="25"/>
+      <c r="L277" s="25"/>
+      <c r="M277" s="32"/>
+    </row>
+    <row r="278" spans="2:13">
+      <c r="F278" s="31"/>
+      <c r="G278" s="25"/>
+      <c r="H278" s="25"/>
+      <c r="I278" s="25"/>
+      <c r="J278" s="25"/>
+      <c r="K278" s="25"/>
+      <c r="L278" s="25"/>
+      <c r="M278" s="32"/>
+    </row>
+    <row r="279" spans="2:13">
+      <c r="B279" t="s">
         <v>1243</v>
       </c>
-      <c r="F245" s="31"/>
-      <c r="G245" s="25"/>
-      <c r="H245" s="25"/>
-      <c r="I245" s="25"/>
-      <c r="J245" s="25"/>
-      <c r="K245" s="25"/>
-      <c r="L245" s="25"/>
-      <c r="M245" s="32"/>
-    </row>
-    <row r="246" spans="2:13">
-      <c r="C246" t="s">
+      <c r="F279" s="31"/>
+      <c r="G279" s="25"/>
+      <c r="H279" s="25"/>
+      <c r="I279" s="25"/>
+      <c r="J279" s="25"/>
+      <c r="K279" s="25"/>
+      <c r="L279" s="25"/>
+      <c r="M279" s="32"/>
+    </row>
+    <row r="280" spans="2:13">
+      <c r="C280" t="s">
         <v>1422</v>
       </c>
-      <c r="F246" s="31"/>
-      <c r="G246" s="25"/>
-      <c r="H246" s="25"/>
-      <c r="I246" s="25"/>
-      <c r="J246" s="25"/>
-      <c r="K246" s="25"/>
-      <c r="L246" s="25"/>
-      <c r="M246" s="32"/>
-    </row>
-    <row r="247" spans="2:13">
-      <c r="C247" t="s">
+      <c r="F280" s="31"/>
+      <c r="G280" s="25"/>
+      <c r="H280" s="25"/>
+      <c r="I280" s="25"/>
+      <c r="J280" s="25"/>
+      <c r="K280" s="25"/>
+      <c r="L280" s="25"/>
+      <c r="M280" s="32"/>
+    </row>
+    <row r="281" spans="2:13">
+      <c r="C281" t="s">
         <v>1423</v>
       </c>
-      <c r="F247" s="31"/>
-      <c r="G247" s="25"/>
-      <c r="H247" s="25"/>
-      <c r="I247" s="25"/>
-      <c r="J247" s="25"/>
-      <c r="K247" s="25"/>
-      <c r="L247" s="25"/>
-      <c r="M247" s="32"/>
-    </row>
-    <row r="248" spans="2:13">
-      <c r="B248" t="s">
+      <c r="F281" s="31"/>
+      <c r="G281" s="25"/>
+      <c r="H281" s="25"/>
+      <c r="I281" s="25"/>
+      <c r="J281" s="25"/>
+      <c r="K281" s="25"/>
+      <c r="L281" s="25"/>
+      <c r="M281" s="32"/>
+    </row>
+    <row r="282" spans="2:13">
+      <c r="B282" t="s">
         <v>126</v>
       </c>
-      <c r="F248" s="31"/>
-      <c r="G248" s="25"/>
-      <c r="H248" s="25"/>
-      <c r="I248" s="25"/>
-      <c r="J248" s="25"/>
-      <c r="K248" s="25"/>
-      <c r="L248" s="25"/>
-      <c r="M248" s="32"/>
-    </row>
-    <row r="249" spans="2:13">
-      <c r="F249" s="31"/>
-      <c r="G249" s="25"/>
-      <c r="H249" s="25"/>
-      <c r="I249" s="25"/>
-      <c r="J249" s="25"/>
-      <c r="K249" s="25"/>
-      <c r="L249" s="25"/>
-      <c r="M249" s="32"/>
-    </row>
-    <row r="250" spans="2:13">
-      <c r="F250" s="31"/>
-      <c r="G250" s="25"/>
-      <c r="H250" s="25"/>
-      <c r="I250" s="25"/>
-      <c r="J250" s="25"/>
-      <c r="K250" s="25"/>
-      <c r="L250" s="25"/>
-      <c r="M250" s="32"/>
-    </row>
-    <row r="251" spans="2:13" ht="15.75" thickBot="1">
-      <c r="F251" s="33"/>
-      <c r="G251" s="34"/>
-      <c r="H251" s="34"/>
-      <c r="I251" s="34"/>
-      <c r="J251" s="34"/>
-      <c r="K251" s="34"/>
-      <c r="L251" s="34"/>
-      <c r="M251" s="35"/>
-    </row>
-    <row r="253" spans="2:13">
-      <c r="E253" s="162"/>
-      <c r="F253" s="162"/>
-      <c r="G253" s="162"/>
-      <c r="H253" s="162"/>
-    </row>
-    <row r="254" spans="2:13">
-      <c r="H254" s="162"/>
-    </row>
-    <row r="255" spans="2:13">
-      <c r="H255" s="162"/>
-    </row>
-    <row r="256" spans="2:13">
-      <c r="H256" s="162"/>
-    </row>
-    <row r="257" spans="2:13">
-      <c r="D257" s="162"/>
-      <c r="E257" s="162"/>
-      <c r="F257" s="162"/>
-      <c r="H257" s="162"/>
-    </row>
-    <row r="258" spans="2:13">
-      <c r="D258" s="162"/>
-      <c r="E258" s="27"/>
-      <c r="F258" s="162"/>
-      <c r="G258" s="162"/>
-      <c r="H258" s="162"/>
-      <c r="I258" s="162"/>
-      <c r="J258" s="162"/>
-      <c r="K258" s="162"/>
-      <c r="L258" s="162"/>
-      <c r="M258" s="27"/>
-    </row>
-    <row r="259" spans="2:13">
-      <c r="D259" s="162"/>
-      <c r="E259" s="27"/>
-      <c r="F259" s="162"/>
-      <c r="G259" s="162"/>
-      <c r="H259" s="162"/>
-      <c r="I259" s="162"/>
-      <c r="J259" s="162"/>
-      <c r="K259" s="162"/>
-      <c r="L259" s="162"/>
-      <c r="M259" s="27"/>
-    </row>
-    <row r="260" spans="2:13">
-      <c r="B260" t="s">
+      <c r="F282" s="31"/>
+      <c r="G282" s="25"/>
+      <c r="H282" s="25"/>
+      <c r="I282" s="25"/>
+      <c r="J282" s="25"/>
+      <c r="K282" s="25"/>
+      <c r="L282" s="25"/>
+      <c r="M282" s="32"/>
+    </row>
+    <row r="283" spans="2:13">
+      <c r="F283" s="31"/>
+      <c r="G283" s="25"/>
+      <c r="H283" s="25"/>
+      <c r="I283" s="25"/>
+      <c r="J283" s="25"/>
+      <c r="K283" s="25"/>
+      <c r="L283" s="25"/>
+      <c r="M283" s="32"/>
+    </row>
+    <row r="284" spans="2:13">
+      <c r="F284" s="31"/>
+      <c r="G284" s="25"/>
+      <c r="H284" s="25"/>
+      <c r="I284" s="25"/>
+      <c r="J284" s="25"/>
+      <c r="K284" s="25"/>
+      <c r="L284" s="25"/>
+      <c r="M284" s="32"/>
+    </row>
+    <row r="285" spans="2:13" ht="15.75" thickBot="1">
+      <c r="F285" s="33"/>
+      <c r="G285" s="34"/>
+      <c r="H285" s="34"/>
+      <c r="I285" s="34"/>
+      <c r="J285" s="34"/>
+      <c r="K285" s="34"/>
+      <c r="L285" s="34"/>
+      <c r="M285" s="35"/>
+    </row>
+    <row r="287" spans="2:13">
+      <c r="E287" s="162"/>
+      <c r="F287" s="162"/>
+      <c r="G287" s="162"/>
+      <c r="H287" s="162"/>
+    </row>
+    <row r="288" spans="2:13">
+      <c r="H288" s="162"/>
+    </row>
+    <row r="289" spans="2:13">
+      <c r="H289" s="162"/>
+    </row>
+    <row r="290" spans="2:13">
+      <c r="H290" s="162"/>
+    </row>
+    <row r="291" spans="2:13">
+      <c r="D291" s="162"/>
+      <c r="E291" s="162"/>
+      <c r="F291" s="162"/>
+      <c r="H291" s="162"/>
+    </row>
+    <row r="292" spans="2:13">
+      <c r="D292" s="162"/>
+      <c r="E292" s="27"/>
+      <c r="F292" s="162"/>
+      <c r="G292" s="162"/>
+      <c r="H292" s="162"/>
+      <c r="I292" s="162"/>
+      <c r="J292" s="162"/>
+      <c r="K292" s="162"/>
+      <c r="L292" s="162"/>
+      <c r="M292" s="27"/>
+    </row>
+    <row r="293" spans="2:13">
+      <c r="D293" s="162"/>
+      <c r="E293" s="27"/>
+      <c r="F293" s="162"/>
+      <c r="G293" s="162"/>
+      <c r="H293" s="162"/>
+      <c r="I293" s="162"/>
+      <c r="J293" s="162"/>
+      <c r="K293" s="162"/>
+      <c r="L293" s="162"/>
+      <c r="M293" s="27"/>
+    </row>
+    <row r="294" spans="2:13">
+      <c r="B294" t="s">
         <v>1426</v>
       </c>
-      <c r="D260" s="162"/>
-      <c r="E260" s="27"/>
-      <c r="F260" s="27"/>
-      <c r="G260" s="27"/>
-      <c r="H260" s="27"/>
-      <c r="I260" s="27" t="s">
+      <c r="D294" s="162"/>
+      <c r="E294" s="27"/>
+      <c r="F294" s="27"/>
+      <c r="G294" s="27"/>
+      <c r="H294" s="27"/>
+      <c r="I294" s="27" t="s">
         <v>1424</v>
       </c>
-      <c r="J260" s="27"/>
-      <c r="K260" s="27"/>
-      <c r="L260" s="27"/>
-      <c r="M260" s="27"/>
-    </row>
-    <row r="261" spans="2:13">
-      <c r="D261" s="162"/>
-    </row>
-    <row r="262" spans="2:13">
-      <c r="D262" s="162"/>
-      <c r="F262" s="27"/>
-      <c r="L262" s="27"/>
-    </row>
-    <row r="263" spans="2:13">
-      <c r="D263" s="162"/>
-      <c r="F263" s="27"/>
-      <c r="L263" s="27"/>
-    </row>
-    <row r="264" spans="2:13">
-      <c r="D264" s="162"/>
-      <c r="F264" s="27"/>
-      <c r="G264" s="27"/>
-      <c r="H264" s="27"/>
-      <c r="I264" s="27" t="s">
+      <c r="J294" s="27"/>
+      <c r="K294" s="27"/>
+      <c r="L294" s="27"/>
+      <c r="M294" s="27"/>
+    </row>
+    <row r="295" spans="2:13">
+      <c r="D295" s="162"/>
+    </row>
+    <row r="296" spans="2:13">
+      <c r="D296" s="162"/>
+      <c r="F296" s="27"/>
+      <c r="L296" s="27"/>
+    </row>
+    <row r="297" spans="2:13">
+      <c r="D297" s="162"/>
+      <c r="F297" s="27"/>
+      <c r="L297" s="27"/>
+    </row>
+    <row r="298" spans="2:13">
+      <c r="D298" s="162"/>
+      <c r="F298" s="27"/>
+      <c r="G298" s="27"/>
+      <c r="H298" s="27"/>
+      <c r="I298" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="J264" s="27"/>
-      <c r="K264" s="27"/>
-      <c r="L264" s="27"/>
-    </row>
-    <row r="265" spans="2:13">
-      <c r="D265" s="162"/>
-    </row>
-    <row r="266" spans="2:13">
-      <c r="D266" s="162"/>
-      <c r="G266" s="27"/>
-      <c r="H266" s="88"/>
-      <c r="I266" s="88"/>
-      <c r="K266" s="27"/>
-    </row>
-    <row r="267" spans="2:13">
-      <c r="D267" s="162"/>
-      <c r="G267" s="27"/>
-      <c r="H267" s="88"/>
-      <c r="I267" s="88"/>
-      <c r="K267" s="27"/>
-    </row>
-    <row r="268" spans="2:13">
-      <c r="D268" s="162"/>
-      <c r="G268" s="27"/>
-      <c r="H268" s="27"/>
-      <c r="I268" s="27" t="s">
+      <c r="J298" s="27"/>
+      <c r="K298" s="27"/>
+      <c r="L298" s="27"/>
+    </row>
+    <row r="299" spans="2:13">
+      <c r="D299" s="162"/>
+    </row>
+    <row r="300" spans="2:13">
+      <c r="D300" s="162"/>
+      <c r="G300" s="27"/>
+      <c r="H300" s="88"/>
+      <c r="I300" s="88"/>
+      <c r="K300" s="27"/>
+    </row>
+    <row r="301" spans="2:13">
+      <c r="D301" s="162"/>
+      <c r="G301" s="27"/>
+      <c r="H301" s="88"/>
+      <c r="I301" s="88"/>
+      <c r="K301" s="27"/>
+    </row>
+    <row r="302" spans="2:13">
+      <c r="D302" s="162"/>
+      <c r="G302" s="27"/>
+      <c r="H302" s="27"/>
+      <c r="I302" s="27" t="s">
         <v>1425</v>
       </c>
-      <c r="J268" s="27"/>
-      <c r="K268" s="27"/>
-    </row>
-    <row r="269" spans="2:13">
-      <c r="D269" s="162"/>
-    </row>
-    <row r="270" spans="2:13">
-      <c r="D270" s="162"/>
-      <c r="H270" s="27"/>
-      <c r="J270" s="27"/>
-    </row>
-    <row r="271" spans="2:13">
-      <c r="D271" s="162"/>
-      <c r="H271" s="27"/>
-      <c r="J271" s="27"/>
-    </row>
-    <row r="272" spans="2:13">
-      <c r="D272" s="162"/>
-      <c r="H272" s="27"/>
-      <c r="I272" s="27" t="s">
+      <c r="J302" s="27"/>
+      <c r="K302" s="27"/>
+    </row>
+    <row r="303" spans="2:13">
+      <c r="D303" s="162"/>
+    </row>
+    <row r="304" spans="2:13">
+      <c r="D304" s="162"/>
+      <c r="H304" s="27"/>
+      <c r="J304" s="27"/>
+    </row>
+    <row r="305" spans="4:11">
+      <c r="D305" s="162"/>
+      <c r="H305" s="27"/>
+      <c r="J305" s="27"/>
+    </row>
+    <row r="306" spans="4:11">
+      <c r="D306" s="162"/>
+      <c r="H306" s="27"/>
+      <c r="I306" s="27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J306" s="27"/>
+    </row>
+    <row r="307" spans="4:11">
+      <c r="D307" s="162"/>
+    </row>
+    <row r="311" spans="4:11">
+      <c r="E311" s="162"/>
+      <c r="F311" s="162"/>
+      <c r="G311" s="162"/>
+      <c r="H311" s="162"/>
+    </row>
+    <row r="312" spans="4:11">
+      <c r="H312" s="162"/>
+    </row>
+    <row r="313" spans="4:11">
+      <c r="H313" s="162"/>
+    </row>
+    <row r="314" spans="4:11">
+      <c r="F314" s="162"/>
+      <c r="G314" s="162"/>
+      <c r="H314" s="162"/>
+    </row>
+    <row r="315" spans="4:11">
+      <c r="F315" s="162"/>
+      <c r="G315" s="27"/>
+      <c r="H315" s="162"/>
+      <c r="I315" s="27"/>
+    </row>
+    <row r="316" spans="4:11">
+      <c r="F316" s="162"/>
+      <c r="G316" s="27"/>
+      <c r="H316" s="162"/>
+      <c r="I316" s="27"/>
+    </row>
+    <row r="317" spans="4:11">
+      <c r="F317" s="162"/>
+      <c r="G317" s="27"/>
+      <c r="H317" s="27" t="s">
         <v>1427</v>
       </c>
-      <c r="J272" s="27"/>
-    </row>
-    <row r="273" spans="4:11">
-      <c r="D273" s="162"/>
-    </row>
-    <row r="277" spans="4:11">
-      <c r="E277" s="162"/>
-      <c r="F277" s="162"/>
-      <c r="G277" s="162"/>
-      <c r="H277" s="162"/>
-    </row>
-    <row r="278" spans="4:11">
-      <c r="H278" s="162"/>
-    </row>
-    <row r="279" spans="4:11">
-      <c r="H279" s="162"/>
-    </row>
-    <row r="280" spans="4:11">
-      <c r="F280" s="162"/>
-      <c r="G280" s="162"/>
-      <c r="H280" s="162"/>
-    </row>
-    <row r="281" spans="4:11">
-      <c r="F281" s="162"/>
-      <c r="G281" s="27"/>
-      <c r="H281" s="162"/>
-      <c r="I281" s="27"/>
-    </row>
-    <row r="282" spans="4:11">
-      <c r="F282" s="162"/>
-      <c r="G282" s="27"/>
-      <c r="H282" s="162"/>
-      <c r="I282" s="27"/>
-    </row>
-    <row r="283" spans="4:11">
-      <c r="F283" s="162"/>
-      <c r="G283" s="27"/>
-      <c r="H283" s="27" t="s">
-        <v>1427</v>
-      </c>
-      <c r="I283" s="27"/>
-    </row>
-    <row r="284" spans="4:11">
-      <c r="F284" s="162"/>
-    </row>
-    <row r="285" spans="4:11">
-      <c r="F285" s="27"/>
-      <c r="G285" s="162"/>
-      <c r="H285" s="162"/>
-      <c r="I285" s="162"/>
-      <c r="J285" s="27"/>
-      <c r="K285" s="162"/>
-    </row>
-    <row r="286" spans="4:11">
-      <c r="F286" s="27"/>
-      <c r="G286" s="162"/>
-      <c r="H286" s="162"/>
-      <c r="I286" s="162"/>
-      <c r="J286" s="27"/>
-      <c r="K286" s="162"/>
-    </row>
-    <row r="287" spans="4:11">
-      <c r="F287" s="27"/>
-      <c r="G287" s="27"/>
-      <c r="H287" s="27" t="s">
+      <c r="I317" s="27"/>
+    </row>
+    <row r="318" spans="4:11">
+      <c r="F318" s="162"/>
+    </row>
+    <row r="319" spans="4:11">
+      <c r="F319" s="27"/>
+      <c r="G319" s="162"/>
+      <c r="H319" s="162"/>
+      <c r="I319" s="162"/>
+      <c r="J319" s="27"/>
+      <c r="K319" s="162"/>
+    </row>
+    <row r="320" spans="4:11">
+      <c r="F320" s="27"/>
+      <c r="G320" s="162"/>
+      <c r="H320" s="162"/>
+      <c r="I320" s="162"/>
+      <c r="J320" s="27"/>
+      <c r="K320" s="162"/>
+    </row>
+    <row r="321" spans="4:12">
+      <c r="F321" s="27"/>
+      <c r="G321" s="27"/>
+      <c r="H321" s="27" t="s">
         <v>1425</v>
       </c>
-      <c r="I287" s="27"/>
-      <c r="J287" s="27"/>
-      <c r="K287" s="162"/>
-    </row>
-    <row r="288" spans="4:11">
-      <c r="K288" s="162"/>
-    </row>
-    <row r="289" spans="4:12">
-      <c r="E289" s="27"/>
-      <c r="F289" s="162"/>
-      <c r="G289" s="162"/>
-      <c r="H289" s="162"/>
-      <c r="I289" s="162"/>
-      <c r="J289" s="162"/>
-      <c r="K289" s="27"/>
-    </row>
-    <row r="290" spans="4:12">
-      <c r="E290" s="27"/>
-      <c r="F290" s="162"/>
-      <c r="G290" s="162"/>
-      <c r="H290" s="162"/>
-      <c r="I290" s="162"/>
-      <c r="J290" s="162"/>
-      <c r="K290" s="27"/>
-    </row>
-    <row r="291" spans="4:12">
-      <c r="E291" s="27"/>
-      <c r="F291" s="27"/>
-      <c r="G291" s="27"/>
-      <c r="H291" s="27" t="s">
+      <c r="I321" s="27"/>
+      <c r="J321" s="27"/>
+      <c r="K321" s="162"/>
+    </row>
+    <row r="322" spans="4:12">
+      <c r="K322" s="162"/>
+    </row>
+    <row r="323" spans="4:12">
+      <c r="E323" s="27"/>
+      <c r="F323" s="162"/>
+      <c r="G323" s="162"/>
+      <c r="H323" s="162"/>
+      <c r="I323" s="162"/>
+      <c r="J323" s="162"/>
+      <c r="K323" s="27"/>
+    </row>
+    <row r="324" spans="4:12">
+      <c r="E324" s="27"/>
+      <c r="F324" s="162"/>
+      <c r="G324" s="162"/>
+      <c r="H324" s="162"/>
+      <c r="I324" s="162"/>
+      <c r="J324" s="162"/>
+      <c r="K324" s="27"/>
+    </row>
+    <row r="325" spans="4:12">
+      <c r="E325" s="27"/>
+      <c r="F325" s="27"/>
+      <c r="G325" s="27"/>
+      <c r="H325" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="I291" s="27"/>
-      <c r="J291" s="27"/>
-      <c r="K291" s="27"/>
-    </row>
-    <row r="293" spans="4:12">
-      <c r="D293" s="27"/>
-      <c r="E293" s="88"/>
-      <c r="F293" s="88"/>
-      <c r="G293" s="88"/>
-      <c r="H293" s="88"/>
-      <c r="I293" s="88"/>
-      <c r="J293" s="88"/>
-      <c r="K293" s="88"/>
-      <c r="L293" s="27"/>
-    </row>
-    <row r="294" spans="4:12">
-      <c r="D294" s="27"/>
-      <c r="E294" s="88"/>
-      <c r="F294" s="88"/>
-      <c r="G294" s="88"/>
-      <c r="H294" s="88"/>
-      <c r="I294" s="88"/>
-      <c r="J294" s="88"/>
-      <c r="K294" s="88"/>
-      <c r="L294" s="27"/>
-    </row>
-    <row r="295" spans="4:12">
-      <c r="D295" s="27"/>
-      <c r="E295" s="27"/>
-      <c r="F295" s="27"/>
-      <c r="G295" s="27"/>
-      <c r="H295" s="27" t="s">
+      <c r="I325" s="27"/>
+      <c r="J325" s="27"/>
+      <c r="K325" s="27"/>
+    </row>
+    <row r="327" spans="4:12">
+      <c r="D327" s="27"/>
+      <c r="E327" s="88"/>
+      <c r="F327" s="88"/>
+      <c r="G327" s="88"/>
+      <c r="H327" s="88"/>
+      <c r="I327" s="88"/>
+      <c r="J327" s="88"/>
+      <c r="K327" s="88"/>
+      <c r="L327" s="27"/>
+    </row>
+    <row r="328" spans="4:12">
+      <c r="D328" s="27"/>
+      <c r="E328" s="88"/>
+      <c r="F328" s="88"/>
+      <c r="G328" s="88"/>
+      <c r="H328" s="88"/>
+      <c r="I328" s="88"/>
+      <c r="J328" s="88"/>
+      <c r="K328" s="88"/>
+      <c r="L328" s="27"/>
+    </row>
+    <row r="329" spans="4:12">
+      <c r="D329" s="27"/>
+      <c r="E329" s="27"/>
+      <c r="F329" s="27"/>
+      <c r="G329" s="27"/>
+      <c r="H329" s="27" t="s">
         <v>1424</v>
       </c>
-      <c r="I295" s="27"/>
-      <c r="J295" s="27"/>
-      <c r="K295" s="27"/>
-      <c r="L295" s="27"/>
-    </row>
-    <row r="296" spans="4:12">
-      <c r="D296" s="88"/>
-    </row>
-    <row r="297" spans="4:12">
-      <c r="D297" s="88"/>
-    </row>
-    <row r="298" spans="4:12">
-      <c r="D298" s="88"/>
-    </row>
-    <row r="299" spans="4:12">
-      <c r="D299" s="88"/>
-    </row>
-    <row r="300" spans="4:12">
-      <c r="D300" s="88"/>
-      <c r="E300" t="s">
+      <c r="I329" s="27"/>
+      <c r="J329" s="27"/>
+      <c r="K329" s="27"/>
+      <c r="L329" s="27"/>
+    </row>
+    <row r="330" spans="4:12">
+      <c r="D330" s="88"/>
+    </row>
+    <row r="331" spans="4:12">
+      <c r="D331" s="88"/>
+    </row>
+    <row r="332" spans="4:12">
+      <c r="D332" s="88"/>
+    </row>
+    <row r="333" spans="4:12">
+      <c r="D333" s="88"/>
+    </row>
+    <row r="334" spans="4:12">
+      <c r="D334" s="88"/>
+      <c r="E334" t="s">
         <v>1537</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G334" t="s">
         <v>1254</v>
       </c>
-      <c r="H300" t="s">
+      <c r="H334" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="302" spans="4:12">
-      <c r="E302" t="s">
+    <row r="336" spans="4:12">
+      <c r="E336" t="s">
         <v>1538</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G336" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="304" spans="4:12">
-      <c r="E304" t="s">
+    <row r="338" spans="2:13">
+      <c r="E338" t="s">
         <v>1539</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G338" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="306" spans="2:13">
-      <c r="C306" t="s">
+    <row r="340" spans="2:13">
+      <c r="C340" t="s">
         <v>1540</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E340" t="s">
         <v>1534</v>
       </c>
-      <c r="H306" t="s">
+      <c r="H340" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="307" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="308" spans="2:13">
-      <c r="B308" t="s">
+    <row r="341" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="342" spans="2:13">
+      <c r="B342" t="s">
         <v>1541</v>
       </c>
-      <c r="G308" s="28"/>
-      <c r="H308" s="29"/>
-      <c r="I308" s="29"/>
-      <c r="J308" s="29"/>
-      <c r="K308" s="29"/>
-      <c r="L308" s="29"/>
-      <c r="M308" s="30"/>
-    </row>
-    <row r="309" spans="2:13">
-      <c r="G309" s="31" t="s">
+      <c r="G342" s="28"/>
+      <c r="H342" s="29"/>
+      <c r="I342" s="29"/>
+      <c r="J342" s="29"/>
+      <c r="K342" s="29"/>
+      <c r="L342" s="29"/>
+      <c r="M342" s="30"/>
+    </row>
+    <row r="343" spans="2:13">
+      <c r="G343" s="31" t="s">
         <v>1544</v>
       </c>
-      <c r="H309" s="25" t="s">
+      <c r="H343" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="I309" s="25"/>
-      <c r="J309" s="25"/>
-      <c r="K309" s="25"/>
-      <c r="L309" s="25"/>
-      <c r="M309" s="32"/>
-    </row>
-    <row r="310" spans="2:13" ht="15.75" thickBot="1">
-      <c r="G310" s="31"/>
-      <c r="H310" s="25"/>
-      <c r="I310" s="25"/>
-      <c r="J310" s="25"/>
-      <c r="K310" s="25"/>
-      <c r="L310" s="25"/>
-      <c r="M310" s="32"/>
-    </row>
-    <row r="311" spans="2:13">
-      <c r="B311" t="s">
+      <c r="I343" s="25"/>
+      <c r="J343" s="25"/>
+      <c r="K343" s="25"/>
+      <c r="L343" s="25"/>
+      <c r="M343" s="32"/>
+    </row>
+    <row r="344" spans="2:13" ht="15.75" thickBot="1">
+      <c r="G344" s="31"/>
+      <c r="H344" s="25"/>
+      <c r="I344" s="25"/>
+      <c r="J344" s="25"/>
+      <c r="K344" s="25"/>
+      <c r="L344" s="25"/>
+      <c r="M344" s="32"/>
+    </row>
+    <row r="345" spans="2:13">
+      <c r="B345" t="s">
         <v>1542</v>
       </c>
-      <c r="G311" s="31"/>
-      <c r="H311" s="25"/>
-      <c r="I311" s="25" t="s">
+      <c r="G345" s="31"/>
+      <c r="H345" s="25"/>
+      <c r="I345" s="25" t="s">
         <v>1546</v>
       </c>
-      <c r="J311" s="43" t="s">
+      <c r="J345" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="K311" s="44">
+      <c r="K345" s="44">
         <v>10</v>
       </c>
-      <c r="L311" s="45"/>
-      <c r="M311" s="32"/>
-    </row>
-    <row r="312" spans="2:13">
-      <c r="G312" s="31"/>
-      <c r="H312" s="25"/>
-      <c r="I312" s="25"/>
-      <c r="J312" s="46" t="s">
+      <c r="L345" s="45"/>
+      <c r="M345" s="32"/>
+    </row>
+    <row r="346" spans="2:13">
+      <c r="G346" s="31"/>
+      <c r="H346" s="25"/>
+      <c r="I346" s="25"/>
+      <c r="J346" s="46" t="s">
         <v>769</v>
       </c>
-      <c r="K312" s="47" t="s">
+      <c r="K346" s="47" t="s">
         <v>1545</v>
       </c>
-      <c r="L312" s="48"/>
-      <c r="M312" s="32"/>
-    </row>
-    <row r="313" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C313" t="s">
+      <c r="L346" s="48"/>
+      <c r="M346" s="32"/>
+    </row>
+    <row r="347" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C347" t="s">
         <v>226</v>
       </c>
-      <c r="G313" s="31"/>
-      <c r="H313" s="25"/>
-      <c r="I313" s="25"/>
-      <c r="J313" s="49" t="s">
+      <c r="G347" s="31"/>
+      <c r="H347" s="25"/>
+      <c r="I347" s="25"/>
+      <c r="J347" s="49" t="s">
         <v>1250</v>
       </c>
-      <c r="K313" s="50" t="s">
+      <c r="K347" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="L313" s="51"/>
-      <c r="M313" s="32"/>
-    </row>
-    <row r="314" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C314" t="s">
+      <c r="L347" s="51"/>
+      <c r="M347" s="32"/>
+    </row>
+    <row r="348" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C348" t="s">
         <v>1543</v>
       </c>
-      <c r="G314" s="31"/>
-      <c r="H314" s="25"/>
-      <c r="I314" s="25"/>
-      <c r="J314" s="25"/>
-      <c r="K314" s="25"/>
-      <c r="L314" s="25"/>
-      <c r="M314" s="32"/>
-    </row>
-    <row r="315" spans="2:13">
-      <c r="G315" s="31"/>
-      <c r="H315" s="25"/>
-      <c r="I315" s="25" t="s">
+      <c r="G348" s="31"/>
+      <c r="H348" s="25"/>
+      <c r="I348" s="25"/>
+      <c r="J348" s="25"/>
+      <c r="K348" s="25"/>
+      <c r="L348" s="25"/>
+      <c r="M348" s="32"/>
+    </row>
+    <row r="349" spans="2:13">
+      <c r="G349" s="31"/>
+      <c r="H349" s="25"/>
+      <c r="I349" s="25" t="s">
         <v>1545</v>
       </c>
-      <c r="J315" s="43" t="s">
+      <c r="J349" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="K315" s="44" t="s">
+      <c r="K349" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="L315" s="45"/>
-      <c r="M315" s="32"/>
-    </row>
-    <row r="316" spans="2:13">
-      <c r="B316" t="s">
+      <c r="L349" s="45"/>
+      <c r="M349" s="32"/>
+    </row>
+    <row r="350" spans="2:13">
+      <c r="B350" t="s">
         <v>1547</v>
       </c>
-      <c r="G316" s="31"/>
-      <c r="H316" s="25"/>
-      <c r="I316" s="25"/>
-      <c r="J316" s="46" t="s">
+      <c r="G350" s="31"/>
+      <c r="H350" s="25"/>
+      <c r="I350" s="25"/>
+      <c r="J350" s="46" t="s">
         <v>1496</v>
       </c>
-      <c r="K316" s="47">
+      <c r="K350" s="47">
         <v>0</v>
       </c>
-      <c r="L316" s="48"/>
-      <c r="M316" s="32"/>
-    </row>
-    <row r="317" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C317" t="s">
+      <c r="L350" s="48"/>
+      <c r="M350" s="32"/>
+    </row>
+    <row r="351" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C351" t="s">
         <v>1548</v>
       </c>
-      <c r="G317" s="31"/>
-      <c r="H317" s="25"/>
-      <c r="I317" s="25"/>
-      <c r="J317" s="49"/>
-      <c r="K317" s="50"/>
-      <c r="L317" s="51"/>
-      <c r="M317" s="32"/>
-    </row>
-    <row r="318" spans="2:13">
-      <c r="B318" t="s">
+      <c r="G351" s="31"/>
+      <c r="H351" s="25"/>
+      <c r="I351" s="25"/>
+      <c r="J351" s="49"/>
+      <c r="K351" s="50"/>
+      <c r="L351" s="51"/>
+      <c r="M351" s="32"/>
+    </row>
+    <row r="352" spans="2:13">
+      <c r="B352" t="s">
         <v>126</v>
       </c>
-      <c r="G318" s="31"/>
-      <c r="H318" s="25"/>
-      <c r="I318" s="25"/>
-      <c r="J318" s="25"/>
-      <c r="K318" s="25"/>
-      <c r="L318" s="25"/>
-      <c r="M318" s="32"/>
-    </row>
-    <row r="319" spans="2:13">
-      <c r="G319" s="31"/>
-      <c r="H319" s="25"/>
-      <c r="I319" s="25"/>
-      <c r="J319" s="25"/>
-      <c r="K319" s="25"/>
-      <c r="L319" s="25"/>
-      <c r="M319" s="32"/>
-    </row>
-    <row r="320" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B320" t="s">
+      <c r="G352" s="31"/>
+      <c r="H352" s="25"/>
+      <c r="I352" s="25"/>
+      <c r="J352" s="25"/>
+      <c r="K352" s="25"/>
+      <c r="L352" s="25"/>
+      <c r="M352" s="32"/>
+    </row>
+    <row r="353" spans="1:13">
+      <c r="G353" s="31"/>
+      <c r="H353" s="25"/>
+      <c r="I353" s="25"/>
+      <c r="J353" s="25"/>
+      <c r="K353" s="25"/>
+      <c r="L353" s="25"/>
+      <c r="M353" s="32"/>
+    </row>
+    <row r="354" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B354" t="s">
         <v>126</v>
       </c>
-      <c r="G320" s="33"/>
-      <c r="H320" s="34"/>
-      <c r="I320" s="34"/>
-      <c r="J320" s="34"/>
-      <c r="K320" s="34"/>
-      <c r="L320" s="34"/>
-      <c r="M320" s="35"/>
+      <c r="G354" s="33"/>
+      <c r="H354" s="34"/>
+      <c r="I354" s="34"/>
+      <c r="J354" s="34"/>
+      <c r="K354" s="34"/>
+      <c r="L354" s="34"/>
+      <c r="M354" s="35"/>
+    </row>
+    <row r="357" spans="1:13">
+      <c r="A357" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A358" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D358" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G358" t="s">
+        <v>2638</v>
+      </c>
+      <c r="J358" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
+      <c r="A359" s="28" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B359" s="30"/>
+      <c r="D359" s="28" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E359" s="30"/>
+      <c r="G359" s="28" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H359" s="30"/>
+      <c r="J359" s="28" t="s">
+        <v>2623</v>
+      </c>
+      <c r="K359" s="30"/>
+    </row>
+    <row r="360" spans="1:13">
+      <c r="A360" s="31"/>
+      <c r="B360" s="32"/>
+      <c r="C360" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D360" s="31"/>
+      <c r="E360" s="32"/>
+      <c r="G360" s="31"/>
+      <c r="H360" s="32"/>
+      <c r="J360" s="31"/>
+      <c r="K360" s="32"/>
+    </row>
+    <row r="361" spans="1:13">
+      <c r="A361" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B361" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D361" s="31" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E361" s="32"/>
+      <c r="G361" s="31" t="s">
+        <v>2633</v>
+      </c>
+      <c r="H361" s="32"/>
+      <c r="J361" s="31" t="s">
+        <v>2626</v>
+      </c>
+      <c r="K361" s="32"/>
+      <c r="L361" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13">
+      <c r="A362" s="31" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B362" s="32">
+        <v>500</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D362" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E362" s="32"/>
+      <c r="F362" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G362" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="H362" s="32"/>
+      <c r="I362" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J362" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K362" s="32"/>
+    </row>
+    <row r="363" spans="1:13">
+      <c r="A363" s="31" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B363" s="32">
+        <v>1000000</v>
+      </c>
+      <c r="D363" s="31"/>
+      <c r="E363" s="32" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G363" s="31"/>
+      <c r="H363" s="32" t="s">
+        <v>2628</v>
+      </c>
+      <c r="J363" s="31"/>
+      <c r="K363" s="32" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A364" s="33"/>
+      <c r="B364" s="35" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D364" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E364" s="35"/>
+      <c r="G364" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H364" s="35"/>
+      <c r="J364" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K364" s="35" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13">
+      <c r="D365" s="80" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13">
+      <c r="D367" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13">
+      <c r="D368" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5">
+      <c r="E369" t="s">
+        <v>2631</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33698,10 +34476,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="370" t="s">
         <v>2032</v>
       </c>
-      <c r="C1" s="368"/>
+      <c r="C1" s="370"/>
       <c r="E1" t="s">
         <v>2033</v>
       </c>
@@ -36065,11 +36843,11 @@
       <c r="B223" t="s">
         <v>1263</v>
       </c>
-      <c r="D223" s="354" t="s">
+      <c r="D223" s="351" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="356"/>
-      <c r="F223" s="355"/>
+      <c r="E223" s="353"/>
+      <c r="F223" s="352"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -36121,19 +36899,19 @@
       <c r="B227" t="s">
         <v>1523</v>
       </c>
-      <c r="D227" s="354" t="s">
+      <c r="D227" s="351" t="s">
         <v>1285</v>
       </c>
-      <c r="E227" s="356"/>
-      <c r="F227" s="355"/>
-      <c r="H227" s="354" t="s">
+      <c r="E227" s="353"/>
+      <c r="F227" s="352"/>
+      <c r="H227" s="351" t="s">
         <v>1288</v>
       </c>
-      <c r="I227" s="355"/>
-      <c r="K227" s="354" t="s">
+      <c r="I227" s="352"/>
+      <c r="K227" s="351" t="s">
         <v>1287</v>
       </c>
-      <c r="L227" s="355"/>
+      <c r="L227" s="352"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -36380,7 +37158,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="357" t="s">
+      <c r="D273" s="354" t="s">
         <v>2117</v>
       </c>
       <c r="F273" s="142" t="s">
@@ -36388,22 +37166,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="357"/>
+      <c r="D274" s="354"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="357"/>
+      <c r="D275" s="354"/>
       <c r="F275" t="s">
         <v>2116</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="357"/>
+      <c r="D276" s="354"/>
       <c r="K276" t="s">
         <v>2132</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="357"/>
+      <c r="D277" s="354"/>
       <c r="F277" s="142" t="s">
         <v>1523</v>
       </c>
@@ -36418,7 +37196,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="357"/>
+      <c r="D278" s="354"/>
       <c r="I278" t="s">
         <v>2134</v>
       </c>
@@ -36504,14 +37282,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="350" t="s">
+      <c r="B287" s="356" t="s">
         <v>2127</v>
       </c>
-      <c r="C287" s="349" t="s">
+      <c r="C287" s="355" t="s">
         <v>1279</v>
       </c>
-      <c r="D287" s="349"/>
-      <c r="E287" s="337"/>
+      <c r="D287" s="355"/>
+      <c r="E287" s="339"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -36522,7 +37300,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="338"/>
+      <c r="B288" s="340"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1142</v>
@@ -36533,7 +37311,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="352" t="s">
+      <c r="J288" s="358" t="s">
         <v>2129</v>
       </c>
       <c r="L288" s="31"/>
@@ -36542,7 +37320,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="338"/>
+      <c r="B289" s="340"/>
       <c r="C289" s="25" t="s">
         <v>2122</v>
       </c>
@@ -36554,49 +37332,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="353"/>
+      <c r="J289" s="359"/>
       <c r="L289" s="31" t="s">
         <v>2122</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="352" t="s">
+      <c r="O289" s="358" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="338"/>
+      <c r="B290" s="340"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="351" t="s">
+      <c r="G290" s="357" t="s">
         <v>2130</v>
       </c>
-      <c r="H290" s="349"/>
-      <c r="I290" s="349"/>
-      <c r="J290" s="353"/>
+      <c r="H290" s="355"/>
+      <c r="I290" s="355"/>
+      <c r="J290" s="359"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="353"/>
+      <c r="O290" s="359"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="338"/>
-      <c r="C291" s="349" t="s">
+      <c r="B291" s="340"/>
+      <c r="C291" s="355" t="s">
         <v>2124</v>
       </c>
-      <c r="D291" s="349"/>
-      <c r="E291" s="337"/>
+      <c r="D291" s="355"/>
+      <c r="E291" s="339"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="353"/>
-      <c r="L291" s="351" t="s">
+      <c r="J291" s="359"/>
+      <c r="L291" s="357" t="s">
         <v>2125</v>
       </c>
-      <c r="M291" s="349"/>
-      <c r="N291" s="349"/>
-      <c r="O291" s="353"/>
+      <c r="M291" s="355"/>
+      <c r="N291" s="355"/>
+      <c r="O291" s="359"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -36610,7 +37388,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="353"/>
+      <c r="O292" s="359"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -36707,11 +37485,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -36719,6 +37492,11 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36950,18 +37728,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="371" t="s">
         <v>2057</v>
       </c>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="370"/>
-      <c r="J3" s="370"/>
-      <c r="K3" s="371"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="373"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -37076,24 +37854,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="372" t="s">
+      <c r="B15" s="374" t="s">
         <v>2058</v>
       </c>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="373"/>
-      <c r="I15" s="373"/>
-      <c r="J15" s="373"/>
-      <c r="K15" s="373"/>
-      <c r="L15" s="373"/>
-      <c r="M15" s="373"/>
-      <c r="N15" s="373"/>
-      <c r="O15" s="373"/>
-      <c r="P15" s="373"/>
-      <c r="Q15" s="373"/>
+      <c r="C15" s="375"/>
+      <c r="D15" s="375"/>
+      <c r="E15" s="375"/>
+      <c r="F15" s="375"/>
+      <c r="G15" s="375"/>
+      <c r="H15" s="375"/>
+      <c r="I15" s="375"/>
+      <c r="J15" s="375"/>
+      <c r="K15" s="375"/>
+      <c r="L15" s="375"/>
+      <c r="M15" s="375"/>
+      <c r="N15" s="375"/>
+      <c r="O15" s="375"/>
+      <c r="P15" s="375"/>
+      <c r="Q15" s="375"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -38537,7 +39315,7 @@
       <c r="A10" s="36" t="s">
         <v>2173</v>
       </c>
-      <c r="G10" s="358" t="s">
+      <c r="G10" s="360" t="s">
         <v>2202</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -38550,7 +39328,7 @@
       <c r="K10" s="36" t="s">
         <v>2209</v>
       </c>
-      <c r="L10" s="358" t="s">
+      <c r="L10" s="360" t="s">
         <v>2202</v>
       </c>
       <c r="M10" s="36" t="s">
@@ -38562,7 +39340,7 @@
       <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="G11" s="358"/>
+      <c r="G11" s="360"/>
       <c r="H11" s="36" t="s">
         <v>2188</v>
       </c>
@@ -38573,7 +39351,7 @@
       <c r="K11" s="36" t="s">
         <v>2211</v>
       </c>
-      <c r="L11" s="358"/>
+      <c r="L11" s="360"/>
       <c r="M11" s="36" t="s">
         <v>131</v>
       </c>
@@ -38586,7 +39364,7 @@
       <c r="B12" s="36" t="s">
         <v>2174</v>
       </c>
-      <c r="G12" s="358"/>
+      <c r="G12" s="360"/>
       <c r="H12" s="36" t="s">
         <v>2196</v>
       </c>
@@ -38597,7 +39375,7 @@
       <c r="K12" s="36" t="s">
         <v>2212</v>
       </c>
-      <c r="L12" s="358"/>
+      <c r="L12" s="360"/>
       <c r="M12" s="36" t="s">
         <v>133</v>
       </c>
@@ -38610,7 +39388,7 @@
       <c r="C13" s="36" t="s">
         <v>2175</v>
       </c>
-      <c r="G13" s="358"/>
+      <c r="G13" s="360"/>
       <c r="H13" s="36" t="s">
         <v>137</v>
       </c>
@@ -38621,7 +39399,7 @@
       <c r="K13" s="36" t="s">
         <v>2213</v>
       </c>
-      <c r="L13" s="358"/>
+      <c r="L13" s="360"/>
       <c r="M13" s="36" t="s">
         <v>2188</v>
       </c>
@@ -38640,7 +39418,7 @@
       <c r="K14" s="36" t="s">
         <v>2207</v>
       </c>
-      <c r="L14" s="358"/>
+      <c r="L14" s="360"/>
       <c r="M14" s="36" t="s">
         <v>133</v>
       </c>
@@ -38689,7 +39467,7 @@
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="79"/>
-      <c r="L17" s="360" t="s">
+      <c r="L17" s="362" t="s">
         <v>2203</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -38700,7 +39478,7 @@
       <c r="D18" s="36" t="s">
         <v>2179</v>
       </c>
-      <c r="G18" s="358" t="s">
+      <c r="G18" s="360" t="s">
         <v>2204</v>
       </c>
       <c r="H18" s="36" t="s">
@@ -38710,7 +39488,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="71"/>
-      <c r="L18" s="360"/>
+      <c r="L18" s="362"/>
       <c r="M18" s="36" t="s">
         <v>2206</v>
       </c>
@@ -38719,7 +39497,7 @@
       <c r="C19" s="36" t="s">
         <v>2180</v>
       </c>
-      <c r="G19" s="358"/>
+      <c r="G19" s="360"/>
       <c r="H19" s="36" t="s">
         <v>137</v>
       </c>
@@ -38732,7 +39510,7 @@
       <c r="D20" s="36" t="s">
         <v>1669</v>
       </c>
-      <c r="G20" s="358"/>
+      <c r="G20" s="360"/>
       <c r="H20" s="36" t="s">
         <v>131</v>
       </c>
@@ -38745,7 +39523,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="G21" s="359"/>
+      <c r="G21" s="361"/>
       <c r="H21" s="82" t="s">
         <v>136</v>
       </c>
@@ -39530,23 +40308,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="364" t="s">
         <v>1748</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="I1" s="362" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="I1" s="364" t="s">
         <v>1758</v>
       </c>
-      <c r="J1" s="362"/>
-      <c r="K1" s="362"/>
-      <c r="L1" s="362"/>
-      <c r="M1" s="362"/>
-      <c r="N1" s="362"/>
-      <c r="O1" s="362"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="364"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -39696,28 +40474,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="345" t="s">
+      <c r="A12" s="347" t="s">
         <v>1760</v>
       </c>
-      <c r="B12" s="361"/>
-      <c r="C12" s="361"/>
-      <c r="D12" s="361"/>
-      <c r="E12" s="361"/>
-      <c r="F12" s="361"/>
-      <c r="G12" s="361"/>
-      <c r="H12" s="346"/>
-      <c r="I12" s="345" t="s">
+      <c r="B12" s="363"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="363"/>
+      <c r="F12" s="363"/>
+      <c r="G12" s="363"/>
+      <c r="H12" s="348"/>
+      <c r="I12" s="347" t="s">
         <v>1760</v>
       </c>
-      <c r="J12" s="361"/>
-      <c r="K12" s="361"/>
-      <c r="L12" s="361"/>
-      <c r="M12" s="361"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="361"/>
-      <c r="P12" s="361"/>
-      <c r="Q12" s="361"/>
-      <c r="R12" s="346"/>
+      <c r="J12" s="363"/>
+      <c r="K12" s="363"/>
+      <c r="L12" s="363"/>
+      <c r="M12" s="363"/>
+      <c r="N12" s="363"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="348"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -39945,14 +40723,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="362" t="s">
+      <c r="A24" s="364" t="s">
         <v>1748</v>
       </c>
-      <c r="B24" s="362"/>
-      <c r="C24" s="362"/>
-      <c r="D24" s="362"/>
-      <c r="E24" s="362"/>
-      <c r="F24" s="362"/>
+      <c r="B24" s="364"/>
+      <c r="C24" s="364"/>
+      <c r="D24" s="364"/>
+      <c r="E24" s="364"/>
+      <c r="F24" s="364"/>
       <c r="H24" s="225" t="s">
         <v>1758</v>
       </c>
@@ -39962,11 +40740,11 @@
       <c r="L24" s="225"/>
       <c r="M24" s="225"/>
       <c r="N24" s="225"/>
-      <c r="P24" s="362" t="s">
+      <c r="P24" s="364" t="s">
         <v>1796</v>
       </c>
-      <c r="Q24" s="362"/>
-      <c r="R24" s="362"/>
+      <c r="Q24" s="364"/>
+      <c r="R24" s="364"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="88" t="s">
@@ -40206,28 +40984,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="345" t="s">
+      <c r="A35" s="347" t="s">
         <v>1797</v>
       </c>
-      <c r="B35" s="361"/>
-      <c r="C35" s="361"/>
-      <c r="D35" s="361"/>
-      <c r="E35" s="361"/>
-      <c r="F35" s="361"/>
-      <c r="G35" s="361"/>
-      <c r="H35" s="346"/>
-      <c r="I35" s="345" t="s">
+      <c r="B35" s="363"/>
+      <c r="C35" s="363"/>
+      <c r="D35" s="363"/>
+      <c r="E35" s="363"/>
+      <c r="F35" s="363"/>
+      <c r="G35" s="363"/>
+      <c r="H35" s="348"/>
+      <c r="I35" s="347" t="s">
         <v>706</v>
       </c>
-      <c r="J35" s="361"/>
-      <c r="K35" s="361"/>
-      <c r="L35" s="361"/>
-      <c r="M35" s="361"/>
-      <c r="N35" s="361"/>
-      <c r="O35" s="361"/>
-      <c r="P35" s="361"/>
-      <c r="Q35" s="361"/>
-      <c r="R35" s="346"/>
+      <c r="J35" s="363"/>
+      <c r="K35" s="363"/>
+      <c r="L35" s="363"/>
+      <c r="M35" s="363"/>
+      <c r="N35" s="363"/>
+      <c r="O35" s="363"/>
+      <c r="P35" s="363"/>
+      <c r="Q35" s="363"/>
+      <c r="R35" s="348"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="2585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="2590">
   <si>
     <t>USER</t>
   </si>
@@ -8148,6 +8148,21 @@
   </si>
   <si>
     <t>garbage collected</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>FacebookCustomer fb1;</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>no address assigne</t>
+  </si>
+  <si>
+    <t>consume/use</t>
   </si>
 </sst>
 </file>
@@ -8808,7 +8823,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9472,6 +9487,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9511,6 +9549,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9524,18 +9574,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9585,26 +9623,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9957,13 +9975,13 @@
       <c r="B3" t="s">
         <v>2462</v>
       </c>
-      <c r="H3" s="349" t="s">
+      <c r="H3" s="358" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="351"/>
+      <c r="I3" s="359"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="360"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:18" ht="15.75" thickBot="1">
@@ -9989,20 +10007,20 @@
       <c r="F6" s="4" t="s">
         <v>2477</v>
       </c>
-      <c r="G6" s="352" t="s">
+      <c r="G6" s="361" t="s">
         <v>1636</v>
       </c>
-      <c r="H6" s="353"/>
+      <c r="H6" s="362"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="352" t="s">
+      <c r="J6" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="353"/>
+      <c r="K6" s="362"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="352" t="s">
+      <c r="M6" s="361" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="353"/>
+      <c r="N6" s="362"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1">
       <c r="D7" s="104" t="s">
@@ -10027,20 +10045,20 @@
       <c r="F8" s="4" t="s">
         <v>1681</v>
       </c>
-      <c r="G8" s="354" t="s">
+      <c r="G8" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="355"/>
+      <c r="H8" s="364"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="354" t="s">
+      <c r="J8" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="355"/>
+      <c r="K8" s="364"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="354" t="s">
+      <c r="M8" s="363" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="355"/>
+      <c r="N8" s="364"/>
       <c r="Q8" s="121"/>
     </row>
     <row r="9" spans="2:18">
@@ -10058,29 +10076,29 @@
       <c r="Q9" s="121"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="345" t="s">
+      <c r="F10" s="354" t="s">
         <v>2506</v>
       </c>
-      <c r="G10" s="346"/>
-      <c r="H10" s="346"/>
-      <c r="I10" s="346"/>
-      <c r="J10" s="346"/>
-      <c r="K10" s="346"/>
-      <c r="L10" s="346"/>
-      <c r="M10" s="346"/>
-      <c r="N10" s="346"/>
+      <c r="G10" s="355"/>
+      <c r="H10" s="355"/>
+      <c r="I10" s="355"/>
+      <c r="J10" s="355"/>
+      <c r="K10" s="355"/>
+      <c r="L10" s="355"/>
+      <c r="M10" s="355"/>
+      <c r="N10" s="355"/>
       <c r="Q10" s="121"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="347"/>
-      <c r="G11" s="348"/>
-      <c r="H11" s="348"/>
-      <c r="I11" s="348"/>
-      <c r="J11" s="348"/>
-      <c r="K11" s="348"/>
-      <c r="L11" s="348"/>
-      <c r="M11" s="348"/>
-      <c r="N11" s="348"/>
+      <c r="F11" s="356"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="357"/>
+      <c r="M11" s="357"/>
+      <c r="N11" s="357"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="104" t="s">
@@ -10314,8 +10332,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1">
-      <c r="D23" s="343"/>
-      <c r="E23" s="344"/>
+      <c r="D23" s="352"/>
+      <c r="E23" s="353"/>
       <c r="F23" s="120"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -19394,8 +19412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19603,7 +19621,7 @@
       <c r="C12" s="36" t="s">
         <v>2567</v>
       </c>
-      <c r="D12" s="384" t="s">
+      <c r="D12" s="346" t="s">
         <v>277</v>
       </c>
       <c r="E12" s="97" t="s">
@@ -19625,7 +19643,7 @@
       <c r="C13" s="36" t="s">
         <v>2568</v>
       </c>
-      <c r="D13" s="384">
+      <c r="D13" s="346">
         <v>0</v>
       </c>
       <c r="E13" s="97"/>
@@ -19871,7 +19889,7 @@
       <c r="A30" s="36" t="s">
         <v>2570</v>
       </c>
-      <c r="D30" s="384"/>
+      <c r="D30" s="346"/>
       <c r="E30" s="97"/>
       <c r="F30" s="330"/>
       <c r="G30" s="330"/>
@@ -19887,7 +19905,7 @@
       <c r="A31" s="36" t="s">
         <v>2571</v>
       </c>
-      <c r="D31" s="384"/>
+      <c r="D31" s="346"/>
       <c r="E31" s="97"/>
       <c r="F31" s="97"/>
       <c r="G31" s="330"/>
@@ -19956,7 +19974,7 @@
       </c>
       <c r="F38" s="77"/>
       <c r="G38" s="77"/>
-      <c r="H38" s="385" t="s">
+      <c r="H38" s="347" t="s">
         <v>2576</v>
       </c>
       <c r="I38" s="77"/>
@@ -20140,7 +20158,7 @@
       <c r="A48" s="36" t="s">
         <v>2570</v>
       </c>
-      <c r="D48" s="384"/>
+      <c r="D48" s="346"/>
       <c r="E48" s="97"/>
       <c r="F48" s="330"/>
       <c r="G48" s="330"/>
@@ -20156,7 +20174,7 @@
       <c r="A49" s="36" t="s">
         <v>2571</v>
       </c>
-      <c r="D49" s="384"/>
+      <c r="D49" s="346"/>
       <c r="E49" s="97"/>
       <c r="F49" s="97"/>
       <c r="G49" s="330"/>
@@ -20239,7 +20257,7 @@
       </c>
       <c r="F56" s="77"/>
       <c r="G56" s="77"/>
-      <c r="H56" s="385" t="s">
+      <c r="H56" s="347" t="s">
         <v>2576</v>
       </c>
       <c r="I56" s="77"/>
@@ -20264,8 +20282,8 @@
       <c r="H57" s="141" t="s">
         <v>301</v>
       </c>
-      <c r="I57" s="386"/>
-      <c r="J57" s="387"/>
+      <c r="I57" s="348"/>
+      <c r="J57" s="349"/>
       <c r="K57" s="71"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1">
@@ -20283,8 +20301,8 @@
       </c>
       <c r="G58" s="97"/>
       <c r="H58" s="271"/>
-      <c r="I58" s="388"/>
-      <c r="J58" s="389"/>
+      <c r="I58" s="350"/>
+      <c r="J58" s="351"/>
       <c r="K58" s="176"/>
       <c r="L58" s="330"/>
     </row>
@@ -20406,7 +20424,7 @@
       <c r="C66" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="D66" s="384"/>
+      <c r="D66" s="346"/>
       <c r="E66" s="97"/>
       <c r="F66" s="330"/>
       <c r="G66" s="330"/>
@@ -20519,60 +20537,233 @@
       <c r="L75" s="330"/>
       <c r="M75" s="330"/>
     </row>
-    <row r="76" spans="1:13">
-      <c r="F76" s="330"/>
-      <c r="G76" s="330"/>
-      <c r="H76" s="330"/>
-      <c r="I76" s="330"/>
-      <c r="J76" s="330"/>
-      <c r="K76" s="330"/>
-      <c r="L76" s="330"/>
+    <row r="76" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A76" s="268" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>2546</v>
+      </c>
       <c r="M76" s="330"/>
     </row>
-    <row r="77" spans="1:13">
-      <c r="F77" s="330"/>
-      <c r="G77" s="330"/>
-      <c r="H77" s="330"/>
-      <c r="I77" s="330"/>
-      <c r="J77" s="330"/>
-      <c r="K77" s="330"/>
-      <c r="L77" s="330"/>
+    <row r="77" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A77" s="36" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E77" s="75" t="s">
+        <v>904</v>
+      </c>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="347" t="s">
+        <v>2576</v>
+      </c>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="78"/>
       <c r="M77" s="330"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="F78" s="330"/>
-      <c r="G78" s="330"/>
-      <c r="H78" s="330"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="330"/>
-      <c r="K78" s="330"/>
-      <c r="L78" s="330"/>
+      <c r="B78" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D78" s="193" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E78" s="343" t="s">
+        <v>703</v>
+      </c>
+      <c r="F78" s="343"/>
+      <c r="H78" s="141" t="s">
+        <v>703</v>
+      </c>
+      <c r="I78" s="348" t="s">
+        <v>52</v>
+      </c>
+      <c r="J78" s="349" t="s">
+        <v>277</v>
+      </c>
+      <c r="K78" s="71"/>
       <c r="M78" s="330"/>
     </row>
-    <row r="79" spans="1:13">
-      <c r="F79" s="330"/>
-      <c r="G79" s="330"/>
-      <c r="H79" s="330"/>
-      <c r="I79" s="330"/>
-      <c r="J79" s="330"/>
-      <c r="K79" s="330"/>
-      <c r="L79" s="330"/>
+    <row r="79" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B79" s="36" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D79" s="193" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E79" s="343" t="s">
+        <v>277</v>
+      </c>
+      <c r="F79" s="343"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="271"/>
+      <c r="I79" s="350" t="s">
+        <v>129</v>
+      </c>
+      <c r="J79" s="351">
+        <v>0</v>
+      </c>
+      <c r="K79" s="176"/>
+      <c r="L79" s="343"/>
       <c r="M79" s="330"/>
     </row>
-    <row r="80" spans="1:13">
-      <c r="F80" s="330"/>
-      <c r="G80" s="330"/>
-      <c r="H80" s="330"/>
-      <c r="I80" s="330"/>
-      <c r="J80" s="330"/>
-      <c r="K80" s="330"/>
-      <c r="L80" s="330"/>
+    <row r="80" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A80" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="193"/>
+      <c r="E80" s="343" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F80" s="343"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="343"/>
+      <c r="I80" s="343"/>
+      <c r="J80" s="343"/>
+      <c r="K80" s="176"/>
+      <c r="L80" s="343"/>
       <c r="M80" s="330"/>
     </row>
-    <row r="93" spans="9:13">
+    <row r="81" spans="1:13">
+      <c r="A81" s="268" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D81" s="193"/>
+      <c r="E81" s="343" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F81" s="343"/>
+      <c r="G81" s="343"/>
+      <c r="H81" s="343"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="176"/>
+      <c r="L81" s="343"/>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A82" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D82" s="193"/>
+      <c r="E82" s="343"/>
+      <c r="F82" s="343"/>
+      <c r="G82" s="343"/>
+      <c r="H82" s="343"/>
+      <c r="I82" s="194"/>
+      <c r="J82" s="195"/>
+      <c r="K82" s="71"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A83" s="36" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D83" s="79"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="343"/>
+      <c r="G83" s="343"/>
+      <c r="H83" s="343"/>
+      <c r="I83" s="343"/>
+      <c r="J83" s="343"/>
+      <c r="K83" s="176"/>
+      <c r="L83" s="343"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="D84" s="79"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="343"/>
+      <c r="G84" s="343"/>
+      <c r="H84" s="343"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="176"/>
+      <c r="L84" s="343"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" thickBot="1">
+      <c r="D85" s="193"/>
+      <c r="E85" s="343"/>
+      <c r="F85" s="343"/>
+      <c r="G85" s="343"/>
+      <c r="H85" s="343"/>
+      <c r="I85" s="194"/>
+      <c r="J85" s="195"/>
+      <c r="K85" s="176"/>
+      <c r="L85" s="343"/>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" thickBot="1">
+      <c r="D86" s="193"/>
+      <c r="E86" s="343"/>
+      <c r="F86" s="343"/>
+      <c r="G86" s="343"/>
+      <c r="H86" s="343"/>
+      <c r="I86" s="343"/>
+      <c r="J86" s="343"/>
+      <c r="K86" s="176"/>
+      <c r="L86" s="343"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="D87" s="346"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="343"/>
+      <c r="G87" s="343"/>
+      <c r="H87" s="343"/>
+      <c r="I87" s="84"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="176"/>
+      <c r="L87" s="343"/>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" thickBot="1">
+      <c r="D88" s="193"/>
+      <c r="E88" s="343"/>
+      <c r="F88" s="343"/>
+      <c r="G88" s="343"/>
+      <c r="H88" s="343"/>
+      <c r="I88" s="194"/>
+      <c r="J88" s="195"/>
+      <c r="K88" s="176"/>
+      <c r="L88" s="343"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="D89" s="193"/>
+      <c r="E89" s="343"/>
+      <c r="F89" s="343"/>
+      <c r="G89" s="343"/>
+      <c r="H89" s="343"/>
+      <c r="I89" s="343"/>
+      <c r="J89" s="343"/>
+      <c r="K89" s="176"/>
+      <c r="L89" s="343"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="D90" s="79"/>
+      <c r="E90" s="343"/>
+      <c r="F90" s="343"/>
+      <c r="G90" s="343"/>
+      <c r="H90" s="343"/>
+      <c r="I90" s="343"/>
+      <c r="J90" s="343"/>
+      <c r="K90" s="176"/>
+      <c r="L90" s="343"/>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" thickBot="1">
+      <c r="D91" s="80"/>
+      <c r="E91" s="277"/>
+      <c r="F91" s="277"/>
+      <c r="G91" s="277"/>
+      <c r="H91" s="277"/>
+      <c r="I91" s="277"/>
+      <c r="J91" s="277"/>
+      <c r="K91" s="195"/>
+      <c r="L91" s="343"/>
+    </row>
+    <row r="93" spans="1:13">
       <c r="M93" s="259"/>
     </row>
-    <row r="96" spans="9:13">
+    <row r="96" spans="1:13">
       <c r="I96" s="259"/>
     </row>
     <row r="140" spans="5:10">
@@ -20722,13 +20913,13 @@
       <c r="L177" s="330"/>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="382"/>
-      <c r="B178" s="382"/>
+      <c r="A178" s="344"/>
+      <c r="B178" s="344"/>
       <c r="C178" s="141"/>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="382"/>
-      <c r="B179" s="382"/>
+      <c r="A179" s="344"/>
+      <c r="B179" s="344"/>
     </row>
     <row r="194" spans="1:13">
       <c r="E194" s="262"/>
@@ -20812,7 +21003,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="141"/>
-      <c r="B201" s="382"/>
+      <c r="B201" s="344"/>
       <c r="E201" s="330"/>
       <c r="F201" s="330"/>
       <c r="G201" s="330"/>
@@ -20824,7 +21015,7 @@
       <c r="M201" s="330"/>
     </row>
     <row r="202" spans="1:13">
-      <c r="A202" s="382"/>
+      <c r="A202" s="344"/>
       <c r="E202" s="330"/>
       <c r="F202" s="330"/>
       <c r="G202" s="330"/>
@@ -20917,9 +21108,9 @@
       <c r="F219" s="262"/>
       <c r="G219" s="330"/>
       <c r="H219" s="330"/>
-      <c r="I219" s="383"/>
-      <c r="J219" s="383"/>
-      <c r="K219" s="383"/>
+      <c r="I219" s="345"/>
+      <c r="J219" s="345"/>
+      <c r="K219" s="345"/>
       <c r="L219" s="271"/>
       <c r="M219" s="330"/>
     </row>
@@ -20928,9 +21119,9 @@
       <c r="F220" s="330"/>
       <c r="G220" s="330"/>
       <c r="H220" s="330"/>
-      <c r="I220" s="383"/>
-      <c r="J220" s="383"/>
-      <c r="K220" s="383"/>
+      <c r="I220" s="345"/>
+      <c r="J220" s="345"/>
+      <c r="K220" s="345"/>
       <c r="L220" s="271"/>
       <c r="M220" s="330"/>
     </row>
@@ -20939,9 +21130,9 @@
       <c r="F221" s="330"/>
       <c r="G221" s="330"/>
       <c r="H221" s="330"/>
-      <c r="I221" s="383"/>
-      <c r="J221" s="383"/>
-      <c r="K221" s="383"/>
+      <c r="I221" s="345"/>
+      <c r="J221" s="345"/>
+      <c r="K221" s="345"/>
       <c r="L221" s="271"/>
       <c r="M221" s="330"/>
     </row>
@@ -20991,7 +21182,7 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="141"/>
-      <c r="B226" s="382"/>
+      <c r="B226" s="344"/>
       <c r="E226" s="330"/>
       <c r="F226" s="330"/>
       <c r="G226" s="330"/>
@@ -21014,7 +21205,7 @@
       <c r="M227" s="330"/>
     </row>
     <row r="228" spans="1:13">
-      <c r="A228" s="382"/>
+      <c r="A228" s="344"/>
       <c r="E228" s="330"/>
       <c r="F228" s="330"/>
       <c r="G228" s="330"/>
@@ -21159,7 +21350,7 @@
       </c>
       <c r="J3" s="84"/>
       <c r="K3" s="298"/>
-      <c r="L3" s="369" t="s">
+      <c r="L3" s="378" t="s">
         <v>2174</v>
       </c>
       <c r="M3" s="176"/>
@@ -21181,7 +21372,7 @@
       <c r="K4" s="70">
         <v>123</v>
       </c>
-      <c r="L4" s="370"/>
+      <c r="L4" s="379"/>
       <c r="M4" s="176"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21201,12 +21392,12 @@
       <c r="K5" s="299" t="s">
         <v>2173</v>
       </c>
-      <c r="L5" s="370"/>
+      <c r="L5" s="379"/>
       <c r="M5" s="176"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="193"/>
-      <c r="L6" s="370"/>
+      <c r="L6" s="379"/>
       <c r="M6" s="176"/>
     </row>
     <row r="7" spans="1:13">
@@ -21219,7 +21410,7 @@
       </c>
       <c r="J7" s="84"/>
       <c r="K7" s="298"/>
-      <c r="L7" s="370"/>
+      <c r="L7" s="379"/>
       <c r="M7" s="176"/>
     </row>
     <row r="8" spans="1:13">
@@ -21237,7 +21428,7 @@
       <c r="K8" s="70">
         <v>111</v>
       </c>
-      <c r="L8" s="370"/>
+      <c r="L8" s="379"/>
       <c r="M8" s="176"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21251,7 +21442,7 @@
       <c r="K9" s="277" t="s">
         <v>308</v>
       </c>
-      <c r="L9" s="370"/>
+      <c r="L9" s="379"/>
       <c r="M9" s="176"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21259,7 +21450,7 @@
         <v>2157</v>
       </c>
       <c r="F10" s="193"/>
-      <c r="L10" s="370"/>
+      <c r="L10" s="379"/>
       <c r="M10" s="176"/>
     </row>
     <row r="11" spans="1:13">
@@ -21272,7 +21463,7 @@
       </c>
       <c r="J11" s="84"/>
       <c r="K11" s="298"/>
-      <c r="L11" s="370"/>
+      <c r="L11" s="379"/>
       <c r="M11" s="176"/>
     </row>
     <row r="12" spans="1:13">
@@ -21286,7 +21477,7 @@
       <c r="K12" s="70">
         <v>222</v>
       </c>
-      <c r="L12" s="370"/>
+      <c r="L12" s="379"/>
       <c r="M12" s="176"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21303,7 +21494,7 @@
       <c r="K13" s="277" t="s">
         <v>343</v>
       </c>
-      <c r="L13" s="371"/>
+      <c r="L13" s="380"/>
       <c r="M13" s="176"/>
     </row>
     <row r="14" spans="1:13">
@@ -21325,10 +21516,10 @@
       <c r="D15" s="271"/>
       <c r="E15" s="271"/>
       <c r="F15" s="193"/>
-      <c r="J15" s="372" t="s">
+      <c r="J15" s="381" t="s">
         <v>2163</v>
       </c>
-      <c r="K15" s="372"/>
+      <c r="K15" s="381"/>
       <c r="L15" s="70" t="s">
         <v>689</v>
       </c>
@@ -21348,8 +21539,8 @@
       <c r="G16" s="97" t="s">
         <v>2165</v>
       </c>
-      <c r="J16" s="372"/>
-      <c r="K16" s="372"/>
+      <c r="J16" s="381"/>
+      <c r="K16" s="381"/>
       <c r="L16" s="70" t="s">
         <v>141</v>
       </c>
@@ -21427,48 +21618,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="97"/>
       <c r="B22" s="97"/>
-      <c r="K22" s="368"/>
+      <c r="K22" s="377"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="97"/>
       <c r="B23" s="97"/>
-      <c r="K23" s="365"/>
+      <c r="K23" s="374"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="97"/>
       <c r="B24" s="97"/>
-      <c r="K24" s="365"/>
+      <c r="K24" s="374"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="97"/>
       <c r="B25" s="97"/>
-      <c r="K25" s="365"/>
+      <c r="K25" s="374"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="97"/>
       <c r="B26" s="97"/>
-      <c r="K26" s="365"/>
+      <c r="K26" s="374"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="365"/>
+      <c r="K27" s="374"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="365"/>
+      <c r="K28" s="374"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="97"/>
-      <c r="K29" s="365"/>
+      <c r="K29" s="374"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="97"/>
-      <c r="K30" s="365"/>
+      <c r="K30" s="374"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="97"/>
-      <c r="K31" s="365"/>
+      <c r="K31" s="374"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="365"/>
+      <c r="K32" s="374"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="295"/>
@@ -30247,18 +30438,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="374" t="s">
+      <c r="B8" s="383" t="s">
         <v>2380</v>
       </c>
-      <c r="C8" s="374"/>
-      <c r="F8" s="374" t="s">
+      <c r="C8" s="383"/>
+      <c r="F8" s="383" t="s">
         <v>2381</v>
       </c>
-      <c r="G8" s="374"/>
-      <c r="I8" s="374" t="s">
+      <c r="G8" s="383"/>
+      <c r="I8" s="383" t="s">
         <v>2381</v>
       </c>
-      <c r="J8" s="374"/>
+      <c r="J8" s="383"/>
       <c r="M8" s="190"/>
       <c r="P8" t="s">
         <v>2435</v>
@@ -30283,18 +30474,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="374" t="s">
+      <c r="F9" s="383" t="s">
         <v>2382</v>
       </c>
-      <c r="G9" s="374"/>
-      <c r="I9" s="374" t="s">
+      <c r="G9" s="383"/>
+      <c r="I9" s="383" t="s">
         <v>1733</v>
       </c>
-      <c r="J9" s="374"/>
-      <c r="M9" s="375" t="s">
+      <c r="J9" s="383"/>
+      <c r="M9" s="384" t="s">
         <v>2381</v>
       </c>
-      <c r="N9" s="375"/>
+      <c r="N9" s="384"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30333,19 +30524,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="373" t="s">
+      <c r="E11" s="382" t="s">
         <v>2384</v>
       </c>
-      <c r="F11" s="373"/>
-      <c r="G11" s="373"/>
-      <c r="H11" s="373"/>
-      <c r="I11" s="373"/>
-      <c r="J11" s="373"/>
-      <c r="K11" s="373"/>
-      <c r="L11" s="373"/>
-      <c r="M11" s="373"/>
-      <c r="N11" s="373"/>
-      <c r="O11" s="373"/>
+      <c r="F11" s="382"/>
+      <c r="G11" s="382"/>
+      <c r="H11" s="382"/>
+      <c r="I11" s="382"/>
+      <c r="J11" s="382"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="382"/>
+      <c r="M11" s="382"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="382"/>
       <c r="P11" t="s">
         <v>2437</v>
       </c>
@@ -33328,10 +33519,10 @@
       <c r="O239" s="35"/>
     </row>
     <row r="241" spans="3:13">
-      <c r="C241" s="343" t="s">
+      <c r="C241" s="352" t="s">
         <v>2442</v>
       </c>
-      <c r="D241" s="343"/>
+      <c r="D241" s="352"/>
       <c r="F241" t="s">
         <v>2443</v>
       </c>
@@ -35194,10 +35385,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="376" t="s">
+      <c r="B1" s="385" t="s">
         <v>1813</v>
       </c>
-      <c r="C1" s="376"/>
+      <c r="C1" s="385"/>
       <c r="E1" t="s">
         <v>1814</v>
       </c>
@@ -37645,11 +37836,11 @@
       <c r="B223" t="s">
         <v>1190</v>
       </c>
-      <c r="D223" s="361" t="s">
+      <c r="D223" s="365" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="363"/>
-      <c r="F223" s="362"/>
+      <c r="E223" s="367"/>
+      <c r="F223" s="366"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -37701,19 +37892,19 @@
       <c r="B227" t="s">
         <v>1415</v>
       </c>
-      <c r="D227" s="361" t="s">
+      <c r="D227" s="365" t="s">
         <v>1212</v>
       </c>
-      <c r="E227" s="363"/>
-      <c r="F227" s="362"/>
-      <c r="H227" s="361" t="s">
+      <c r="E227" s="367"/>
+      <c r="F227" s="366"/>
+      <c r="H227" s="365" t="s">
         <v>1215</v>
       </c>
-      <c r="I227" s="362"/>
-      <c r="K227" s="361" t="s">
+      <c r="I227" s="366"/>
+      <c r="K227" s="365" t="s">
         <v>1214</v>
       </c>
-      <c r="L227" s="362"/>
+      <c r="L227" s="366"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -37960,7 +38151,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="364" t="s">
+      <c r="D273" s="368" t="s">
         <v>1856</v>
       </c>
       <c r="F273" s="137" t="s">
@@ -37968,22 +38159,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="364"/>
+      <c r="D274" s="368"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="364"/>
+      <c r="D275" s="368"/>
       <c r="F275" t="s">
         <v>1855</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="364"/>
+      <c r="D276" s="368"/>
       <c r="K276" t="s">
         <v>1871</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="364"/>
+      <c r="D277" s="368"/>
       <c r="F277" s="137" t="s">
         <v>1415</v>
       </c>
@@ -37998,7 +38189,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="364"/>
+      <c r="D278" s="368"/>
       <c r="I278" t="s">
         <v>1873</v>
       </c>
@@ -38084,14 +38275,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="357" t="s">
+      <c r="B287" s="370" t="s">
         <v>1866</v>
       </c>
-      <c r="C287" s="356" t="s">
+      <c r="C287" s="369" t="s">
         <v>1206</v>
       </c>
-      <c r="D287" s="356"/>
-      <c r="E287" s="344"/>
+      <c r="D287" s="369"/>
+      <c r="E287" s="353"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -38102,7 +38293,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="345"/>
+      <c r="B288" s="354"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1117</v>
@@ -38113,7 +38304,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="359" t="s">
+      <c r="J288" s="372" t="s">
         <v>1868</v>
       </c>
       <c r="L288" s="31"/>
@@ -38122,7 +38313,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="345"/>
+      <c r="B289" s="354"/>
       <c r="C289" s="25" t="s">
         <v>1861</v>
       </c>
@@ -38134,49 +38325,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="360"/>
+      <c r="J289" s="373"/>
       <c r="L289" s="31" t="s">
         <v>1861</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="359" t="s">
+      <c r="O289" s="372" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="345"/>
+      <c r="B290" s="354"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="358" t="s">
+      <c r="G290" s="371" t="s">
         <v>1869</v>
       </c>
-      <c r="H290" s="356"/>
-      <c r="I290" s="356"/>
-      <c r="J290" s="360"/>
+      <c r="H290" s="369"/>
+      <c r="I290" s="369"/>
+      <c r="J290" s="373"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="360"/>
+      <c r="O290" s="373"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="345"/>
-      <c r="C291" s="356" t="s">
+      <c r="B291" s="354"/>
+      <c r="C291" s="369" t="s">
         <v>1863</v>
       </c>
-      <c r="D291" s="356"/>
-      <c r="E291" s="344"/>
+      <c r="D291" s="369"/>
+      <c r="E291" s="353"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="360"/>
-      <c r="L291" s="358" t="s">
+      <c r="J291" s="373"/>
+      <c r="L291" s="371" t="s">
         <v>1864</v>
       </c>
-      <c r="M291" s="356"/>
-      <c r="N291" s="356"/>
-      <c r="O291" s="360"/>
+      <c r="M291" s="369"/>
+      <c r="N291" s="369"/>
+      <c r="O291" s="373"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -38190,7 +38381,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="360"/>
+      <c r="O292" s="373"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -38440,11 +38631,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -38452,6 +38638,11 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38683,18 +38874,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="386" t="s">
         <v>1838</v>
       </c>
-      <c r="C3" s="378"/>
-      <c r="D3" s="378"/>
-      <c r="E3" s="378"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="378"/>
-      <c r="I3" s="378"/>
-      <c r="J3" s="378"/>
-      <c r="K3" s="379"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="387"/>
+      <c r="F3" s="387"/>
+      <c r="G3" s="387"/>
+      <c r="H3" s="387"/>
+      <c r="I3" s="387"/>
+      <c r="J3" s="387"/>
+      <c r="K3" s="388"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -38809,24 +39000,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="380" t="s">
+      <c r="B15" s="389" t="s">
         <v>1839</v>
       </c>
-      <c r="C15" s="381"/>
-      <c r="D15" s="381"/>
-      <c r="E15" s="381"/>
-      <c r="F15" s="381"/>
-      <c r="G15" s="381"/>
-      <c r="H15" s="381"/>
-      <c r="I15" s="381"/>
-      <c r="J15" s="381"/>
-      <c r="K15" s="381"/>
-      <c r="L15" s="381"/>
-      <c r="M15" s="381"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="381"/>
-      <c r="P15" s="381"/>
-      <c r="Q15" s="381"/>
+      <c r="C15" s="390"/>
+      <c r="D15" s="390"/>
+      <c r="E15" s="390"/>
+      <c r="F15" s="390"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="390"/>
+      <c r="I15" s="390"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="390"/>
+      <c r="L15" s="390"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="390"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="390"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -40076,8 +40267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40264,11 +40455,15 @@
         <v>2537</v>
       </c>
       <c r="G10" s="334"/>
-      <c r="H10" s="78"/>
+      <c r="H10" s="78" t="s">
+        <v>2589</v>
+      </c>
       <c r="J10" s="335" t="s">
         <v>1335</v>
       </c>
-      <c r="K10" s="336"/>
+      <c r="K10" s="336" t="s">
+        <v>2585</v>
+      </c>
       <c r="L10" s="337"/>
     </row>
     <row r="11" spans="1:13">
@@ -40383,7 +40578,7 @@
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="78"/>
-      <c r="L17" s="365"/>
+      <c r="L17" s="374"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="36" t="s">
@@ -40399,7 +40594,7 @@
       <c r="J18" s="71" t="s">
         <v>1406</v>
       </c>
-      <c r="L18" s="365"/>
+      <c r="L18" s="374"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="36" t="s">
@@ -41159,23 +41354,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="376" t="s">
         <v>1550</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="367"/>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="I1" s="367" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="I1" s="376" t="s">
         <v>1560</v>
       </c>
-      <c r="J1" s="367"/>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367"/>
-      <c r="N1" s="367"/>
-      <c r="O1" s="367"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
+      <c r="O1" s="376"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -41325,28 +41520,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="352" t="s">
+      <c r="A12" s="361" t="s">
         <v>1562</v>
       </c>
-      <c r="B12" s="366"/>
-      <c r="C12" s="366"/>
-      <c r="D12" s="366"/>
-      <c r="E12" s="366"/>
-      <c r="F12" s="366"/>
-      <c r="G12" s="366"/>
-      <c r="H12" s="353"/>
-      <c r="I12" s="352" t="s">
+      <c r="B12" s="375"/>
+      <c r="C12" s="375"/>
+      <c r="D12" s="375"/>
+      <c r="E12" s="375"/>
+      <c r="F12" s="375"/>
+      <c r="G12" s="375"/>
+      <c r="H12" s="362"/>
+      <c r="I12" s="361" t="s">
         <v>1562</v>
       </c>
-      <c r="J12" s="366"/>
-      <c r="K12" s="366"/>
-      <c r="L12" s="366"/>
-      <c r="M12" s="366"/>
-      <c r="N12" s="366"/>
-      <c r="O12" s="366"/>
-      <c r="P12" s="366"/>
-      <c r="Q12" s="366"/>
-      <c r="R12" s="353"/>
+      <c r="J12" s="375"/>
+      <c r="K12" s="375"/>
+      <c r="L12" s="375"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="375"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="375"/>
+      <c r="R12" s="362"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -41574,14 +41769,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="367" t="s">
+      <c r="A24" s="376" t="s">
         <v>1550</v>
       </c>
-      <c r="B24" s="367"/>
-      <c r="C24" s="367"/>
-      <c r="D24" s="367"/>
-      <c r="E24" s="367"/>
-      <c r="F24" s="367"/>
+      <c r="B24" s="376"/>
+      <c r="C24" s="376"/>
+      <c r="D24" s="376"/>
+      <c r="E24" s="376"/>
+      <c r="F24" s="376"/>
       <c r="H24" s="201" t="s">
         <v>1560</v>
       </c>
@@ -41591,11 +41786,11 @@
       <c r="L24" s="201"/>
       <c r="M24" s="201"/>
       <c r="N24" s="201"/>
-      <c r="P24" s="367" t="s">
+      <c r="P24" s="376" t="s">
         <v>1598</v>
       </c>
-      <c r="Q24" s="367"/>
-      <c r="R24" s="367"/>
+      <c r="Q24" s="376"/>
+      <c r="R24" s="376"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="87" t="s">
@@ -41835,28 +42030,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="352" t="s">
+      <c r="A35" s="361" t="s">
         <v>1599</v>
       </c>
-      <c r="B35" s="366"/>
-      <c r="C35" s="366"/>
-      <c r="D35" s="366"/>
-      <c r="E35" s="366"/>
-      <c r="F35" s="366"/>
-      <c r="G35" s="366"/>
-      <c r="H35" s="353"/>
-      <c r="I35" s="352" t="s">
+      <c r="B35" s="375"/>
+      <c r="C35" s="375"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="375"/>
+      <c r="F35" s="375"/>
+      <c r="G35" s="375"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="361" t="s">
         <v>696</v>
       </c>
-      <c r="J35" s="366"/>
-      <c r="K35" s="366"/>
-      <c r="L35" s="366"/>
-      <c r="M35" s="366"/>
-      <c r="N35" s="366"/>
-      <c r="O35" s="366"/>
-      <c r="P35" s="366"/>
-      <c r="Q35" s="366"/>
-      <c r="R35" s="353"/>
+      <c r="J35" s="375"/>
+      <c r="K35" s="375"/>
+      <c r="L35" s="375"/>
+      <c r="M35" s="375"/>
+      <c r="N35" s="375"/>
+      <c r="O35" s="375"/>
+      <c r="P35" s="375"/>
+      <c r="Q35" s="375"/>
+      <c r="R35" s="362"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -9396,6 +9396,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9435,6 +9451,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9448,18 +9476,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9509,22 +9525,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9877,13 +9877,13 @@
       <c r="B3" t="s">
         <v>2387</v>
       </c>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="365" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="354"/>
-      <c r="J3" s="354"/>
-      <c r="K3" s="354"/>
-      <c r="L3" s="355"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="367"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:18" ht="15.75" thickBot="1">
@@ -9909,20 +9909,20 @@
       <c r="F6" s="4" t="s">
         <v>2402</v>
       </c>
-      <c r="G6" s="356" t="s">
+      <c r="G6" s="368" t="s">
         <v>1634</v>
       </c>
-      <c r="H6" s="357"/>
+      <c r="H6" s="369"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="356" t="s">
+      <c r="J6" s="368" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="357"/>
+      <c r="K6" s="369"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="356" t="s">
+      <c r="M6" s="368" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="357"/>
+      <c r="N6" s="369"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1">
       <c r="D7" s="104" t="s">
@@ -9947,20 +9947,20 @@
       <c r="F8" s="4" t="s">
         <v>1679</v>
       </c>
-      <c r="G8" s="358" t="s">
+      <c r="G8" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="359"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="358" t="s">
+      <c r="J8" s="370" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="359"/>
+      <c r="K8" s="371"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="358" t="s">
+      <c r="M8" s="370" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="359"/>
+      <c r="N8" s="371"/>
       <c r="Q8" s="121"/>
     </row>
     <row r="9" spans="2:18">
@@ -9978,29 +9978,29 @@
       <c r="Q9" s="121"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="349" t="s">
+      <c r="F10" s="361" t="s">
         <v>2431</v>
       </c>
-      <c r="G10" s="350"/>
-      <c r="H10" s="350"/>
-      <c r="I10" s="350"/>
-      <c r="J10" s="350"/>
-      <c r="K10" s="350"/>
-      <c r="L10" s="350"/>
-      <c r="M10" s="350"/>
-      <c r="N10" s="350"/>
+      <c r="G10" s="362"/>
+      <c r="H10" s="362"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
+      <c r="L10" s="362"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="362"/>
       <c r="Q10" s="121"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="351"/>
-      <c r="G11" s="352"/>
-      <c r="H11" s="352"/>
-      <c r="I11" s="352"/>
-      <c r="J11" s="352"/>
-      <c r="K11" s="352"/>
-      <c r="L11" s="352"/>
-      <c r="M11" s="352"/>
-      <c r="N11" s="352"/>
+      <c r="F11" s="363"/>
+      <c r="G11" s="364"/>
+      <c r="H11" s="364"/>
+      <c r="I11" s="364"/>
+      <c r="J11" s="364"/>
+      <c r="K11" s="364"/>
+      <c r="L11" s="364"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="364"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="104" t="s">
@@ -10234,8 +10234,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1">
-      <c r="D23" s="347"/>
-      <c r="E23" s="348"/>
+      <c r="D23" s="359"/>
+      <c r="E23" s="360"/>
       <c r="F23" s="120"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -21252,7 +21252,7 @@
       </c>
       <c r="J3" s="84"/>
       <c r="K3" s="292"/>
-      <c r="L3" s="373" t="s">
+      <c r="L3" s="385" t="s">
         <v>2099</v>
       </c>
       <c r="M3" s="176"/>
@@ -21274,7 +21274,7 @@
       <c r="K4" s="70">
         <v>123</v>
       </c>
-      <c r="L4" s="374"/>
+      <c r="L4" s="386"/>
       <c r="M4" s="176"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21294,12 +21294,12 @@
       <c r="K5" s="293" t="s">
         <v>2098</v>
       </c>
-      <c r="L5" s="374"/>
+      <c r="L5" s="386"/>
       <c r="M5" s="176"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="193"/>
-      <c r="L6" s="374"/>
+      <c r="L6" s="386"/>
       <c r="M6" s="176"/>
     </row>
     <row r="7" spans="1:13">
@@ -21312,7 +21312,7 @@
       </c>
       <c r="J7" s="84"/>
       <c r="K7" s="292"/>
-      <c r="L7" s="374"/>
+      <c r="L7" s="386"/>
       <c r="M7" s="176"/>
     </row>
     <row r="8" spans="1:13">
@@ -21330,7 +21330,7 @@
       <c r="K8" s="70">
         <v>111</v>
       </c>
-      <c r="L8" s="374"/>
+      <c r="L8" s="386"/>
       <c r="M8" s="176"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21344,7 +21344,7 @@
       <c r="K9" s="274" t="s">
         <v>308</v>
       </c>
-      <c r="L9" s="374"/>
+      <c r="L9" s="386"/>
       <c r="M9" s="176"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21352,7 +21352,7 @@
         <v>2082</v>
       </c>
       <c r="F10" s="193"/>
-      <c r="L10" s="374"/>
+      <c r="L10" s="386"/>
       <c r="M10" s="176"/>
     </row>
     <row r="11" spans="1:13">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="J11" s="84"/>
       <c r="K11" s="292"/>
-      <c r="L11" s="374"/>
+      <c r="L11" s="386"/>
       <c r="M11" s="176"/>
     </row>
     <row r="12" spans="1:13">
@@ -21379,7 +21379,7 @@
       <c r="K12" s="70">
         <v>222</v>
       </c>
-      <c r="L12" s="374"/>
+      <c r="L12" s="386"/>
       <c r="M12" s="176"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21396,7 +21396,7 @@
       <c r="K13" s="274" t="s">
         <v>343</v>
       </c>
-      <c r="L13" s="375"/>
+      <c r="L13" s="387"/>
       <c r="M13" s="176"/>
     </row>
     <row r="14" spans="1:13">
@@ -21418,10 +21418,10 @@
       <c r="D15" s="269"/>
       <c r="E15" s="269"/>
       <c r="F15" s="193"/>
-      <c r="J15" s="376" t="s">
+      <c r="J15" s="388" t="s">
         <v>2088</v>
       </c>
-      <c r="K15" s="376"/>
+      <c r="K15" s="388"/>
       <c r="L15" s="70" t="s">
         <v>689</v>
       </c>
@@ -21441,8 +21441,8 @@
       <c r="G16" s="97" t="s">
         <v>2090</v>
       </c>
-      <c r="J16" s="376"/>
-      <c r="K16" s="376"/>
+      <c r="J16" s="388"/>
+      <c r="K16" s="388"/>
       <c r="L16" s="70" t="s">
         <v>141</v>
       </c>
@@ -21520,48 +21520,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="97"/>
       <c r="B22" s="97"/>
-      <c r="K22" s="372"/>
+      <c r="K22" s="384"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="97"/>
       <c r="B23" s="97"/>
-      <c r="K23" s="369"/>
+      <c r="K23" s="381"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="97"/>
       <c r="B24" s="97"/>
-      <c r="K24" s="369"/>
+      <c r="K24" s="381"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="97"/>
       <c r="B25" s="97"/>
-      <c r="K25" s="369"/>
+      <c r="K25" s="381"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="97"/>
       <c r="B26" s="97"/>
-      <c r="K26" s="369"/>
+      <c r="K26" s="381"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="369"/>
+      <c r="K27" s="381"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="369"/>
+      <c r="K28" s="381"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="97"/>
-      <c r="K29" s="369"/>
+      <c r="K29" s="381"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="97"/>
-      <c r="K30" s="369"/>
+      <c r="K30" s="381"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="97"/>
-      <c r="K31" s="369"/>
+      <c r="K31" s="381"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="369"/>
+      <c r="K32" s="381"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="289"/>
@@ -30340,18 +30340,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="378" t="s">
+      <c r="B8" s="390" t="s">
         <v>2305</v>
       </c>
-      <c r="C8" s="378"/>
-      <c r="F8" s="378" t="s">
+      <c r="C8" s="390"/>
+      <c r="F8" s="390" t="s">
         <v>2306</v>
       </c>
-      <c r="G8" s="378"/>
-      <c r="I8" s="378" t="s">
+      <c r="G8" s="390"/>
+      <c r="I8" s="390" t="s">
         <v>2306</v>
       </c>
-      <c r="J8" s="378"/>
+      <c r="J8" s="390"/>
       <c r="M8" s="190"/>
       <c r="P8" t="s">
         <v>2360</v>
@@ -30376,18 +30376,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="378" t="s">
+      <c r="F9" s="390" t="s">
         <v>2307</v>
       </c>
-      <c r="G9" s="378"/>
-      <c r="I9" s="378" t="s">
+      <c r="G9" s="390"/>
+      <c r="I9" s="390" t="s">
         <v>1731</v>
       </c>
-      <c r="J9" s="378"/>
-      <c r="M9" s="379" t="s">
+      <c r="J9" s="390"/>
+      <c r="M9" s="391" t="s">
         <v>2306</v>
       </c>
-      <c r="N9" s="379"/>
+      <c r="N9" s="391"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30426,19 +30426,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="377" t="s">
+      <c r="E11" s="389" t="s">
         <v>2309</v>
       </c>
-      <c r="F11" s="377"/>
-      <c r="G11" s="377"/>
-      <c r="H11" s="377"/>
-      <c r="I11" s="377"/>
-      <c r="J11" s="377"/>
-      <c r="K11" s="377"/>
-      <c r="L11" s="377"/>
-      <c r="M11" s="377"/>
-      <c r="N11" s="377"/>
-      <c r="O11" s="377"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="389"/>
+      <c r="I11" s="389"/>
+      <c r="J11" s="389"/>
+      <c r="K11" s="389"/>
+      <c r="L11" s="389"/>
+      <c r="M11" s="389"/>
+      <c r="N11" s="389"/>
+      <c r="O11" s="389"/>
       <c r="P11" t="s">
         <v>2362</v>
       </c>
@@ -33421,10 +33421,10 @@
       <c r="O239" s="35"/>
     </row>
     <row r="241" spans="3:13">
-      <c r="C241" s="347" t="s">
+      <c r="C241" s="359" t="s">
         <v>2367</v>
       </c>
-      <c r="D241" s="347"/>
+      <c r="D241" s="359"/>
       <c r="F241" t="s">
         <v>2368</v>
       </c>
@@ -35287,10 +35287,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="380" t="s">
+      <c r="B1" s="392" t="s">
         <v>1811</v>
       </c>
-      <c r="C1" s="380"/>
+      <c r="C1" s="392"/>
       <c r="E1" t="s">
         <v>1812</v>
       </c>
@@ -37738,11 +37738,11 @@
       <c r="B223" t="s">
         <v>1190</v>
       </c>
-      <c r="D223" s="365" t="s">
+      <c r="D223" s="372" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="367"/>
-      <c r="F223" s="366"/>
+      <c r="E223" s="374"/>
+      <c r="F223" s="373"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -37794,19 +37794,19 @@
       <c r="B227" t="s">
         <v>1413</v>
       </c>
-      <c r="D227" s="365" t="s">
+      <c r="D227" s="372" t="s">
         <v>1212</v>
       </c>
-      <c r="E227" s="367"/>
-      <c r="F227" s="366"/>
-      <c r="H227" s="365" t="s">
+      <c r="E227" s="374"/>
+      <c r="F227" s="373"/>
+      <c r="H227" s="372" t="s">
         <v>1215</v>
       </c>
-      <c r="I227" s="366"/>
-      <c r="K227" s="365" t="s">
+      <c r="I227" s="373"/>
+      <c r="K227" s="372" t="s">
         <v>1214</v>
       </c>
-      <c r="L227" s="366"/>
+      <c r="L227" s="373"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -38053,7 +38053,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="368" t="s">
+      <c r="D273" s="375" t="s">
         <v>1854</v>
       </c>
       <c r="F273" s="137" t="s">
@@ -38061,22 +38061,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="368"/>
+      <c r="D274" s="375"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="368"/>
+      <c r="D275" s="375"/>
       <c r="F275" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="368"/>
+      <c r="D276" s="375"/>
       <c r="K276" t="s">
         <v>1869</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="368"/>
+      <c r="D277" s="375"/>
       <c r="F277" s="137" t="s">
         <v>1413</v>
       </c>
@@ -38091,7 +38091,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="368"/>
+      <c r="D278" s="375"/>
       <c r="I278" t="s">
         <v>1871</v>
       </c>
@@ -38177,14 +38177,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="361" t="s">
+      <c r="B287" s="377" t="s">
         <v>1864</v>
       </c>
-      <c r="C287" s="360" t="s">
+      <c r="C287" s="376" t="s">
         <v>1206</v>
       </c>
-      <c r="D287" s="360"/>
-      <c r="E287" s="348"/>
+      <c r="D287" s="376"/>
+      <c r="E287" s="360"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -38195,7 +38195,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="349"/>
+      <c r="B288" s="361"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1117</v>
@@ -38206,7 +38206,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="363" t="s">
+      <c r="J288" s="379" t="s">
         <v>1866</v>
       </c>
       <c r="L288" s="31"/>
@@ -38215,7 +38215,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="349"/>
+      <c r="B289" s="361"/>
       <c r="C289" s="25" t="s">
         <v>1859</v>
       </c>
@@ -38227,49 +38227,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="364"/>
+      <c r="J289" s="380"/>
       <c r="L289" s="31" t="s">
         <v>1859</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="363" t="s">
+      <c r="O289" s="379" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="349"/>
+      <c r="B290" s="361"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="362" t="s">
+      <c r="G290" s="378" t="s">
         <v>1867</v>
       </c>
-      <c r="H290" s="360"/>
-      <c r="I290" s="360"/>
-      <c r="J290" s="364"/>
+      <c r="H290" s="376"/>
+      <c r="I290" s="376"/>
+      <c r="J290" s="380"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="364"/>
+      <c r="O290" s="380"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="349"/>
-      <c r="C291" s="360" t="s">
+      <c r="B291" s="361"/>
+      <c r="C291" s="376" t="s">
         <v>1861</v>
       </c>
-      <c r="D291" s="360"/>
-      <c r="E291" s="348"/>
+      <c r="D291" s="376"/>
+      <c r="E291" s="360"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="364"/>
-      <c r="L291" s="362" t="s">
+      <c r="J291" s="380"/>
+      <c r="L291" s="378" t="s">
         <v>1862</v>
       </c>
-      <c r="M291" s="360"/>
-      <c r="N291" s="360"/>
-      <c r="O291" s="364"/>
+      <c r="M291" s="376"/>
+      <c r="N291" s="376"/>
+      <c r="O291" s="380"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -38283,7 +38283,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="364"/>
+      <c r="O292" s="380"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -38533,11 +38533,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -38545,6 +38540,11 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38776,18 +38776,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="381" t="s">
+      <c r="B3" s="393" t="s">
         <v>1836</v>
       </c>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="383"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394"/>
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
+      <c r="K3" s="395"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -38902,24 +38902,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="384" t="s">
+      <c r="B15" s="396" t="s">
         <v>1837</v>
       </c>
-      <c r="C15" s="385"/>
-      <c r="D15" s="385"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="385"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="385"/>
-      <c r="I15" s="385"/>
-      <c r="J15" s="385"/>
-      <c r="K15" s="385"/>
-      <c r="L15" s="385"/>
-      <c r="M15" s="385"/>
-      <c r="N15" s="385"/>
-      <c r="O15" s="385"/>
-      <c r="P15" s="385"/>
-      <c r="Q15" s="385"/>
+      <c r="C15" s="397"/>
+      <c r="D15" s="397"/>
+      <c r="E15" s="397"/>
+      <c r="F15" s="397"/>
+      <c r="G15" s="397"/>
+      <c r="H15" s="397"/>
+      <c r="I15" s="397"/>
+      <c r="J15" s="397"/>
+      <c r="K15" s="397"/>
+      <c r="L15" s="397"/>
+      <c r="M15" s="397"/>
+      <c r="N15" s="397"/>
+      <c r="O15" s="397"/>
+      <c r="P15" s="397"/>
+      <c r="Q15" s="397"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -40480,7 +40480,7 @@
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="78"/>
-      <c r="L17" s="369"/>
+      <c r="L17" s="381"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="36" t="s">
@@ -40496,7 +40496,7 @@
       <c r="J18" s="71" t="s">
         <v>1406</v>
       </c>
-      <c r="L18" s="369"/>
+      <c r="L18" s="381"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="36" t="s">
@@ -41256,23 +41256,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="371" t="s">
+      <c r="A1" s="383" t="s">
         <v>1548</v>
       </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="I1" s="371" t="s">
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="I1" s="383" t="s">
         <v>1558</v>
       </c>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="371"/>
-      <c r="O1" s="371"/>
+      <c r="J1" s="383"/>
+      <c r="K1" s="383"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="383"/>
+      <c r="N1" s="383"/>
+      <c r="O1" s="383"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -41422,28 +41422,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="356" t="s">
+      <c r="A12" s="368" t="s">
         <v>1560</v>
       </c>
-      <c r="B12" s="370"/>
-      <c r="C12" s="370"/>
-      <c r="D12" s="370"/>
-      <c r="E12" s="370"/>
-      <c r="F12" s="370"/>
-      <c r="G12" s="370"/>
-      <c r="H12" s="357"/>
-      <c r="I12" s="356" t="s">
+      <c r="B12" s="382"/>
+      <c r="C12" s="382"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="382"/>
+      <c r="F12" s="382"/>
+      <c r="G12" s="382"/>
+      <c r="H12" s="369"/>
+      <c r="I12" s="368" t="s">
         <v>1560</v>
       </c>
-      <c r="J12" s="370"/>
-      <c r="K12" s="370"/>
-      <c r="L12" s="370"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="370"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="357"/>
+      <c r="J12" s="382"/>
+      <c r="K12" s="382"/>
+      <c r="L12" s="382"/>
+      <c r="M12" s="382"/>
+      <c r="N12" s="382"/>
+      <c r="O12" s="382"/>
+      <c r="P12" s="382"/>
+      <c r="Q12" s="382"/>
+      <c r="R12" s="369"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -41671,14 +41671,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="371" t="s">
+      <c r="A24" s="383" t="s">
         <v>1548</v>
       </c>
-      <c r="B24" s="371"/>
-      <c r="C24" s="371"/>
-      <c r="D24" s="371"/>
-      <c r="E24" s="371"/>
-      <c r="F24" s="371"/>
+      <c r="B24" s="383"/>
+      <c r="C24" s="383"/>
+      <c r="D24" s="383"/>
+      <c r="E24" s="383"/>
+      <c r="F24" s="383"/>
       <c r="H24" s="201" t="s">
         <v>1558</v>
       </c>
@@ -41688,11 +41688,11 @@
       <c r="L24" s="201"/>
       <c r="M24" s="201"/>
       <c r="N24" s="201"/>
-      <c r="P24" s="371" t="s">
+      <c r="P24" s="383" t="s">
         <v>1596</v>
       </c>
-      <c r="Q24" s="371"/>
-      <c r="R24" s="371"/>
+      <c r="Q24" s="383"/>
+      <c r="R24" s="383"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="87" t="s">
@@ -41932,28 +41932,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="356" t="s">
+      <c r="A35" s="368" t="s">
         <v>1597</v>
       </c>
-      <c r="B35" s="370"/>
-      <c r="C35" s="370"/>
-      <c r="D35" s="370"/>
-      <c r="E35" s="370"/>
-      <c r="F35" s="370"/>
-      <c r="G35" s="370"/>
-      <c r="H35" s="357"/>
-      <c r="I35" s="356" t="s">
+      <c r="B35" s="382"/>
+      <c r="C35" s="382"/>
+      <c r="D35" s="382"/>
+      <c r="E35" s="382"/>
+      <c r="F35" s="382"/>
+      <c r="G35" s="382"/>
+      <c r="H35" s="369"/>
+      <c r="I35" s="368" t="s">
         <v>696</v>
       </c>
-      <c r="J35" s="370"/>
-      <c r="K35" s="370"/>
-      <c r="L35" s="370"/>
-      <c r="M35" s="370"/>
-      <c r="N35" s="370"/>
-      <c r="O35" s="370"/>
-      <c r="P35" s="370"/>
-      <c r="Q35" s="370"/>
-      <c r="R35" s="357"/>
+      <c r="J35" s="382"/>
+      <c r="K35" s="382"/>
+      <c r="L35" s="382"/>
+      <c r="M35" s="382"/>
+      <c r="N35" s="382"/>
+      <c r="O35" s="382"/>
+      <c r="P35" s="382"/>
+      <c r="Q35" s="382"/>
+      <c r="R35" s="369"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">
@@ -42341,11 +42341,11 @@
       <c r="T50" s="36"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="387" t="s">
+      <c r="A51" s="348" t="s">
         <v>2517</v>
       </c>
-      <c r="B51" s="387"/>
-      <c r="C51" s="387"/>
+      <c r="B51" s="348"/>
+      <c r="C51" s="348"/>
       <c r="D51" s="36" t="s">
         <v>2538</v>
       </c>
@@ -42371,14 +42371,14 @@
       <c r="T51" s="36"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="387"/>
+      <c r="A52" s="348"/>
       <c r="B52" s="141" t="s">
         <v>2518</v>
       </c>
       <c r="C52" s="141"/>
       <c r="D52" s="141"/>
       <c r="E52" s="141"/>
-      <c r="F52" s="390" t="s">
+      <c r="F52" s="351" t="s">
         <v>273</v>
       </c>
       <c r="G52" s="346">
@@ -42402,8 +42402,8 @@
       <c r="A53" s="36" t="s">
         <v>2537</v>
       </c>
-      <c r="B53" s="387"/>
-      <c r="C53" s="387" t="s">
+      <c r="B53" s="348"/>
+      <c r="C53" s="348" t="s">
         <v>1409</v>
       </c>
       <c r="D53" s="36"/>
@@ -42425,9 +42425,9 @@
       <c r="T53" s="36"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="387"/>
-      <c r="B54" s="387"/>
-      <c r="C54" s="387" t="s">
+      <c r="A54" s="348"/>
+      <c r="B54" s="348"/>
+      <c r="C54" s="348" t="s">
         <v>296</v>
       </c>
       <c r="D54" s="272"/>
@@ -42449,11 +42449,11 @@
       <c r="T54" s="36"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="388" t="s">
+      <c r="A55" s="349" t="s">
         <v>2539</v>
       </c>
-      <c r="B55" s="387"/>
-      <c r="C55" s="388" t="s">
+      <c r="B55" s="348"/>
+      <c r="C55" s="349" t="s">
         <v>2519</v>
       </c>
       <c r="D55" s="36"/>
@@ -42479,11 +42479,11 @@
       <c r="T55" s="36"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="387"/>
-      <c r="B56" s="387" t="s">
+      <c r="A56" s="348"/>
+      <c r="B56" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="387"/>
+      <c r="C56" s="348"/>
       <c r="D56" s="36" t="s">
         <v>2540</v>
       </c>
@@ -42509,14 +42509,14 @@
       <c r="T56" s="36"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="387"/>
-      <c r="B57" s="388" t="s">
+      <c r="A57" s="348"/>
+      <c r="B57" s="349" t="s">
         <v>2520</v>
       </c>
-      <c r="C57" s="388"/>
-      <c r="D57" s="388"/>
-      <c r="E57" s="388"/>
-      <c r="F57" s="389"/>
+      <c r="C57" s="349"/>
+      <c r="D57" s="349"/>
+      <c r="E57" s="349"/>
+      <c r="F57" s="350"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
@@ -42533,9 +42533,9 @@
       <c r="T57" s="36"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="387"/>
-      <c r="B58" s="387"/>
-      <c r="C58" s="387" t="s">
+      <c r="A58" s="348"/>
+      <c r="B58" s="348"/>
+      <c r="C58" s="348" t="s">
         <v>2521</v>
       </c>
       <c r="D58" s="271"/>
@@ -42559,9 +42559,9 @@
       <c r="T58" s="36"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="387"/>
-      <c r="B59" s="387"/>
-      <c r="C59" s="387" t="s">
+      <c r="A59" s="348"/>
+      <c r="B59" s="348"/>
+      <c r="C59" s="348" t="s">
         <v>2522</v>
       </c>
       <c r="D59" s="36"/>
@@ -42585,11 +42585,11 @@
       <c r="T59" s="36"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="387"/>
-      <c r="B60" s="387" t="s">
+      <c r="A60" s="348"/>
+      <c r="B60" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="387"/>
+      <c r="C60" s="348"/>
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
       <c r="F60" s="79"/>
@@ -42609,11 +42609,11 @@
       <c r="T60" s="36"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="387" t="s">
+      <c r="A61" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="387"/>
-      <c r="C61" s="387"/>
+      <c r="B61" s="348"/>
+      <c r="C61" s="348"/>
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="79"/>
@@ -42661,14 +42661,14 @@
       <c r="T62" s="36"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="387" t="s">
+      <c r="A63" s="348" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="387"/>
+      <c r="B63" s="348"/>
       <c r="C63" s="313"/>
       <c r="D63" s="271"/>
       <c r="E63" s="271"/>
-      <c r="F63" s="386"/>
+      <c r="F63" s="347"/>
       <c r="G63" s="36" t="s">
         <v>2532</v>
       </c>
@@ -42987,7 +42987,7 @@
       <c r="C76" s="188"/>
       <c r="D76" s="188"/>
       <c r="E76" s="36"/>
-      <c r="F76" s="397" t="s">
+      <c r="F76" s="358" t="s">
         <v>320</v>
       </c>
       <c r="G76" s="269">
@@ -42998,9 +42998,9 @@
       <c r="J76" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="K76" s="391"/>
-      <c r="L76" s="392"/>
-      <c r="M76" s="393"/>
+      <c r="K76" s="352"/>
+      <c r="L76" s="353"/>
+      <c r="M76" s="354"/>
       <c r="N76" s="36"/>
       <c r="O76" s="36"/>
       <c r="P76" s="36"/>
@@ -43017,7 +43017,7 @@
       <c r="C77" s="188"/>
       <c r="D77" s="188"/>
       <c r="E77" s="36"/>
-      <c r="F77" s="397" t="s">
+      <c r="F77" s="358" t="s">
         <v>759</v>
       </c>
       <c r="G77" s="269" t="s">
@@ -43049,7 +43049,7 @@
       <c r="C78" s="188"/>
       <c r="D78" s="188"/>
       <c r="E78" s="36"/>
-      <c r="F78" s="397" t="s">
+      <c r="F78" s="358" t="s">
         <v>1178</v>
       </c>
       <c r="G78" s="269" t="s">
@@ -43058,13 +43058,13 @@
       <c r="H78" s="346"/>
       <c r="I78" s="346"/>
       <c r="J78" s="36"/>
-      <c r="K78" s="394" t="s">
+      <c r="K78" s="355" t="s">
         <v>2526</v>
       </c>
-      <c r="L78" s="395" t="s">
+      <c r="L78" s="356" t="s">
         <v>1354</v>
       </c>
-      <c r="M78" s="396"/>
+      <c r="M78" s="357"/>
       <c r="N78" s="36"/>
       <c r="O78" s="36"/>
       <c r="P78" s="36"/>
@@ -43079,7 +43079,7 @@
       <c r="C79" s="188"/>
       <c r="D79" s="188"/>
       <c r="E79" s="36"/>
-      <c r="F79" s="397" t="s">
+      <c r="F79" s="358" t="s">
         <v>272</v>
       </c>
       <c r="G79" s="269">
@@ -43107,7 +43107,7 @@
       <c r="C80" s="188"/>
       <c r="D80" s="188"/>
       <c r="E80" s="36"/>
-      <c r="F80" s="397"/>
+      <c r="F80" s="358"/>
       <c r="G80" s="269"/>
       <c r="H80" s="36"/>
       <c r="I80" s="346"/>
@@ -43131,7 +43131,7 @@
       <c r="C81" s="188"/>
       <c r="D81" s="188"/>
       <c r="E81" s="141"/>
-      <c r="F81" s="397"/>
+      <c r="F81" s="358"/>
       <c r="G81" s="269"/>
       <c r="H81" s="36"/>
       <c r="I81" s="346"/>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="D82" s="188"/>
       <c r="E82" s="36"/>
-      <c r="F82" s="397" t="s">
+      <c r="F82" s="358" t="s">
         <v>1176</v>
       </c>
       <c r="G82" s="269" t="s">
@@ -43166,9 +43166,9 @@
       <c r="J82" s="36" t="s">
         <v>1237</v>
       </c>
-      <c r="K82" s="391"/>
-      <c r="L82" s="392"/>
-      <c r="M82" s="393"/>
+      <c r="K82" s="352"/>
+      <c r="L82" s="353"/>
+      <c r="M82" s="354"/>
       <c r="N82" s="36"/>
       <c r="O82" s="36"/>
       <c r="P82" s="36"/>
@@ -43185,7 +43185,7 @@
       </c>
       <c r="D83" s="188"/>
       <c r="E83" s="272"/>
-      <c r="F83" s="397" t="s">
+      <c r="F83" s="358" t="s">
         <v>273</v>
       </c>
       <c r="G83" s="269">
@@ -43222,13 +43222,13 @@
       <c r="H84" s="36"/>
       <c r="I84" s="346"/>
       <c r="J84" s="36"/>
-      <c r="K84" s="394" t="s">
+      <c r="K84" s="355" t="s">
         <v>2526</v>
       </c>
-      <c r="L84" s="395" t="s">
+      <c r="L84" s="356" t="s">
         <v>1354</v>
       </c>
-      <c r="M84" s="396"/>
+      <c r="M84" s="357"/>
       <c r="N84" s="36"/>
       <c r="O84" s="36"/>
       <c r="P84" s="36"/>
@@ -43268,8 +43268,8 @@
       </c>
       <c r="C86" s="188"/>
       <c r="D86" s="188"/>
-      <c r="E86" s="388"/>
-      <c r="F86" s="389"/>
+      <c r="E86" s="349"/>
+      <c r="F86" s="350"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
@@ -43423,7 +43423,7 @@
       <c r="C92" s="186"/>
       <c r="D92" s="188"/>
       <c r="E92" s="271"/>
-      <c r="F92" s="386"/>
+      <c r="F92" s="347"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4533" uniqueCount="2551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="2558">
   <si>
     <t>USER</t>
   </si>
@@ -8046,6 +8046,27 @@
   </si>
   <si>
     <t>3) p = #abc</t>
+  </si>
+  <si>
+    <t>p.name="mike";</t>
+  </si>
+  <si>
+    <t>p=method2(p);</t>
+  </si>
+  <si>
+    <t>public Person method2(Person p) {</t>
+  </si>
+  <si>
+    <t>return p;</t>
+  </si>
+  <si>
+    <t>method1  p</t>
+  </si>
+  <si>
+    <t>method2 p</t>
+  </si>
+  <si>
+    <t>return #xyz;</t>
   </si>
 </sst>
 </file>
@@ -9451,18 +9472,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9476,6 +9485,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19314,8 +19335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20662,11 +20683,175 @@
       <c r="K91" s="195"/>
       <c r="L91" s="337"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="92" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="93" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A93" s="36" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D93" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="75" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="78"/>
       <c r="M93" s="259"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="94" spans="1:13">
+      <c r="B94" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" s="79" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H94" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="I94" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J94" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="K94" s="71"/>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B95" s="36" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D95" s="79" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I95" s="80"/>
+      <c r="J95" s="82"/>
+      <c r="K95" s="71"/>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B96" s="36" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D96" s="79"/>
       <c r="I96" s="259"/>
+      <c r="K96" s="71"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="B97" s="36" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D97" s="79"/>
+      <c r="H97" s="36" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I97" s="76"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="71"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B98" s="36" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D98" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="I98" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="J98" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="K98" s="71"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A99" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="79"/>
+      <c r="K99" s="71"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="36" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D100" s="79"/>
+      <c r="H100" s="36" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I100" s="76"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="71"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B101" s="36" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D101" s="79"/>
+      <c r="I101" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="K101" s="71"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="B102" s="36" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D102" s="79"/>
+      <c r="K102" s="71"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="B103" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D103" s="79"/>
+      <c r="K103" s="71"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="79"/>
+      <c r="K104" s="71"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="36" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D105" s="79"/>
+      <c r="K105" s="71"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B106" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="80"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+      <c r="K106" s="82"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="36" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" s="324"/>
@@ -37738,11 +37923,11 @@
       <c r="B223" t="s">
         <v>1190</v>
       </c>
-      <c r="D223" s="372" t="s">
+      <c r="D223" s="377" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="374"/>
-      <c r="F223" s="373"/>
+      <c r="E223" s="379"/>
+      <c r="F223" s="378"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -37794,19 +37979,19 @@
       <c r="B227" t="s">
         <v>1413</v>
       </c>
-      <c r="D227" s="372" t="s">
+      <c r="D227" s="377" t="s">
         <v>1212</v>
       </c>
-      <c r="E227" s="374"/>
-      <c r="F227" s="373"/>
-      <c r="H227" s="372" t="s">
+      <c r="E227" s="379"/>
+      <c r="F227" s="378"/>
+      <c r="H227" s="377" t="s">
         <v>1215</v>
       </c>
-      <c r="I227" s="373"/>
-      <c r="K227" s="372" t="s">
+      <c r="I227" s="378"/>
+      <c r="K227" s="377" t="s">
         <v>1214</v>
       </c>
-      <c r="L227" s="373"/>
+      <c r="L227" s="378"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -38053,7 +38238,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="375" t="s">
+      <c r="D273" s="380" t="s">
         <v>1854</v>
       </c>
       <c r="F273" s="137" t="s">
@@ -38061,22 +38246,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="375"/>
+      <c r="D274" s="380"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="375"/>
+      <c r="D275" s="380"/>
       <c r="F275" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="375"/>
+      <c r="D276" s="380"/>
       <c r="K276" t="s">
         <v>1869</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="375"/>
+      <c r="D277" s="380"/>
       <c r="F277" s="137" t="s">
         <v>1413</v>
       </c>
@@ -38091,7 +38276,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="375"/>
+      <c r="D278" s="380"/>
       <c r="I278" t="s">
         <v>1871</v>
       </c>
@@ -38177,13 +38362,13 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="377" t="s">
+      <c r="B287" s="373" t="s">
         <v>1864</v>
       </c>
-      <c r="C287" s="376" t="s">
+      <c r="C287" s="372" t="s">
         <v>1206</v>
       </c>
-      <c r="D287" s="376"/>
+      <c r="D287" s="372"/>
       <c r="E287" s="360"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
@@ -38206,7 +38391,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="379" t="s">
+      <c r="J288" s="375" t="s">
         <v>1866</v>
       </c>
       <c r="L288" s="31"/>
@@ -38227,13 +38412,13 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="380"/>
+      <c r="J289" s="376"/>
       <c r="L289" s="31" t="s">
         <v>1859</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="379" t="s">
+      <c r="O289" s="375" t="s">
         <v>1865</v>
       </c>
     </row>
@@ -38242,34 +38427,34 @@
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="378" t="s">
+      <c r="G290" s="374" t="s">
         <v>1867</v>
       </c>
-      <c r="H290" s="376"/>
-      <c r="I290" s="376"/>
-      <c r="J290" s="380"/>
+      <c r="H290" s="372"/>
+      <c r="I290" s="372"/>
+      <c r="J290" s="376"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="380"/>
+      <c r="O290" s="376"/>
     </row>
     <row r="291" spans="2:15">
       <c r="B291" s="361"/>
-      <c r="C291" s="376" t="s">
+      <c r="C291" s="372" t="s">
         <v>1861</v>
       </c>
-      <c r="D291" s="376"/>
+      <c r="D291" s="372"/>
       <c r="E291" s="360"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="380"/>
-      <c r="L291" s="378" t="s">
+      <c r="J291" s="376"/>
+      <c r="L291" s="374" t="s">
         <v>1862</v>
       </c>
-      <c r="M291" s="376"/>
-      <c r="N291" s="376"/>
-      <c r="O291" s="380"/>
+      <c r="M291" s="372"/>
+      <c r="N291" s="372"/>
+      <c r="O291" s="376"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -38283,7 +38468,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="380"/>
+      <c r="O292" s="376"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -38533,6 +38718,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -38540,11 +38730,6 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41236,7 +41421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="2558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="2565">
   <si>
     <t>USER</t>
   </si>
@@ -8067,6 +8067,27 @@
   </si>
   <si>
     <t>return #xyz;</t>
+  </si>
+  <si>
+    <t>public Person method2(Person p2) {</t>
+  </si>
+  <si>
+    <t>p2.name="jane";</t>
+  </si>
+  <si>
+    <t>return p2;</t>
+  </si>
+  <si>
+    <t>sysout(p);</t>
+  </si>
+  <si>
+    <t>p2.name="sam";</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>asdsadasd</t>
   </si>
 </sst>
 </file>
@@ -8737,7 +8758,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9433,6 +9454,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9472,6 +9496,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9485,18 +9521,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9548,6 +9572,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9898,13 +9926,13 @@
       <c r="B3" t="s">
         <v>2387</v>
       </c>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="366" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="366"/>
-      <c r="J3" s="366"/>
-      <c r="K3" s="366"/>
-      <c r="L3" s="367"/>
+      <c r="I3" s="367"/>
+      <c r="J3" s="367"/>
+      <c r="K3" s="367"/>
+      <c r="L3" s="368"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:18" ht="15.75" thickBot="1">
@@ -9930,20 +9958,20 @@
       <c r="F6" s="4" t="s">
         <v>2402</v>
       </c>
-      <c r="G6" s="368" t="s">
+      <c r="G6" s="369" t="s">
         <v>1634</v>
       </c>
-      <c r="H6" s="369"/>
+      <c r="H6" s="370"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="368" t="s">
+      <c r="J6" s="369" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="369"/>
+      <c r="K6" s="370"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="368" t="s">
+      <c r="M6" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="369"/>
+      <c r="N6" s="370"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1">
       <c r="D7" s="104" t="s">
@@ -9968,20 +9996,20 @@
       <c r="F8" s="4" t="s">
         <v>1679</v>
       </c>
-      <c r="G8" s="370" t="s">
+      <c r="G8" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="371"/>
+      <c r="H8" s="372"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="370" t="s">
+      <c r="J8" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="371"/>
+      <c r="K8" s="372"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="370" t="s">
+      <c r="M8" s="371" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="371"/>
+      <c r="N8" s="372"/>
       <c r="Q8" s="121"/>
     </row>
     <row r="9" spans="2:18">
@@ -9999,29 +10027,29 @@
       <c r="Q9" s="121"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="361" t="s">
+      <c r="F10" s="362" t="s">
         <v>2431</v>
       </c>
-      <c r="G10" s="362"/>
-      <c r="H10" s="362"/>
-      <c r="I10" s="362"/>
-      <c r="J10" s="362"/>
-      <c r="K10" s="362"/>
-      <c r="L10" s="362"/>
-      <c r="M10" s="362"/>
-      <c r="N10" s="362"/>
+      <c r="G10" s="363"/>
+      <c r="H10" s="363"/>
+      <c r="I10" s="363"/>
+      <c r="J10" s="363"/>
+      <c r="K10" s="363"/>
+      <c r="L10" s="363"/>
+      <c r="M10" s="363"/>
+      <c r="N10" s="363"/>
       <c r="Q10" s="121"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="363"/>
-      <c r="G11" s="364"/>
-      <c r="H11" s="364"/>
-      <c r="I11" s="364"/>
-      <c r="J11" s="364"/>
-      <c r="K11" s="364"/>
-      <c r="L11" s="364"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="364"/>
+      <c r="F11" s="364"/>
+      <c r="G11" s="365"/>
+      <c r="H11" s="365"/>
+      <c r="I11" s="365"/>
+      <c r="J11" s="365"/>
+      <c r="K11" s="365"/>
+      <c r="L11" s="365"/>
+      <c r="M11" s="365"/>
+      <c r="N11" s="365"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="104" t="s">
@@ -10255,8 +10283,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1">
-      <c r="D23" s="359"/>
-      <c r="E23" s="360"/>
+      <c r="D23" s="360"/>
+      <c r="E23" s="361"/>
       <c r="F23" s="120"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -19335,8 +19363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A62" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19527,7 +19555,7 @@
       <c r="D11" s="79"/>
       <c r="E11" s="97"/>
       <c r="F11" s="324"/>
-      <c r="G11" s="324" t="s">
+      <c r="G11" s="359" t="s">
         <v>2486</v>
       </c>
       <c r="H11" s="324"/>
@@ -20745,7 +20773,7 @@
       <c r="I96" s="259"/>
       <c r="K96" s="71"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:13">
       <c r="B97" s="36" t="s">
         <v>1276</v>
       </c>
@@ -20757,7 +20785,7 @@
       <c r="J97" s="78"/>
       <c r="K97" s="71"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" thickBot="1">
+    <row r="98" spans="1:13" ht="15.75" thickBot="1">
       <c r="B98" s="36" t="s">
         <v>1169</v>
       </c>
@@ -20772,14 +20800,14 @@
       </c>
       <c r="K98" s="71"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" thickBot="1">
+    <row r="99" spans="1:13" ht="15.75" thickBot="1">
       <c r="A99" s="36" t="s">
         <v>125</v>
       </c>
       <c r="D99" s="79"/>
       <c r="K99" s="71"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:13">
       <c r="A100" s="36" t="s">
         <v>2553</v>
       </c>
@@ -20791,7 +20819,7 @@
       <c r="J100" s="78"/>
       <c r="K100" s="71"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" thickBot="1">
+    <row r="101" spans="1:13" ht="15.75" thickBot="1">
       <c r="B101" s="36" t="s">
         <v>1276</v>
       </c>
@@ -20804,7 +20832,7 @@
       </c>
       <c r="K101" s="71"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:13">
       <c r="B102" s="36" t="s">
         <v>1168</v>
       </c>
@@ -20814,28 +20842,28 @@
       <c r="D102" s="79"/>
       <c r="K102" s="71"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:13">
       <c r="B103" s="36" t="s">
         <v>2554</v>
       </c>
       <c r="D103" s="79"/>
       <c r="K103" s="71"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:13">
       <c r="A104" s="36" t="s">
         <v>125</v>
       </c>
       <c r="D104" s="79"/>
       <c r="K104" s="71"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:13">
       <c r="A105" s="36" t="s">
         <v>1171</v>
       </c>
       <c r="D105" s="79"/>
       <c r="K105" s="71"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" thickBot="1">
+    <row r="106" spans="1:13" ht="15.75" thickBot="1">
       <c r="B106" s="36" t="s">
         <v>226</v>
       </c>
@@ -20848,8 +20876,145 @@
       <c r="J106" s="81"/>
       <c r="K106" s="82"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:13">
       <c r="A107" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="109" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A109" s="36" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F109" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G109" s="75" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="78"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="B110" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" s="79" t="s">
+        <v>759</v>
+      </c>
+      <c r="G110" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="I110" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="J110" s="76"/>
+      <c r="K110" s="78"/>
+      <c r="M110" s="71"/>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B111" s="36" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F111" s="79"/>
+      <c r="J111" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="K111" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="M111" s="71"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="B112" s="36" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F112" s="79"/>
+      <c r="K112" s="259"/>
+      <c r="M112" s="71"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="B113" s="36" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F113" s="79"/>
+      <c r="M113" s="71"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114" s="79"/>
+      <c r="M114" s="71"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="36" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F115" s="79"/>
+      <c r="M115" s="71"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="B116" s="36" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F116" s="79"/>
+      <c r="M116" s="71"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="B117" s="36" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F117" s="79"/>
+      <c r="M117" s="71"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="B118" s="36" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F118" s="79"/>
+      <c r="M118" s="71"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="B119" s="36" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F119" s="79"/>
+      <c r="M119" s="71"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F120" s="79"/>
+      <c r="M120" s="71"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="36" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F121" s="79"/>
+      <c r="M121" s="71"/>
+    </row>
+    <row r="122" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B122" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" s="80"/>
+      <c r="G122" s="81"/>
+      <c r="H122" s="81"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="81"/>
+      <c r="K122" s="81"/>
+      <c r="L122" s="81"/>
+      <c r="M122" s="82"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="36" t="s">
         <v>125</v>
       </c>
     </row>
@@ -21437,7 +21602,7 @@
       </c>
       <c r="J3" s="84"/>
       <c r="K3" s="292"/>
-      <c r="L3" s="385" t="s">
+      <c r="L3" s="386" t="s">
         <v>2099</v>
       </c>
       <c r="M3" s="176"/>
@@ -21459,7 +21624,7 @@
       <c r="K4" s="70">
         <v>123</v>
       </c>
-      <c r="L4" s="386"/>
+      <c r="L4" s="387"/>
       <c r="M4" s="176"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21479,12 +21644,12 @@
       <c r="K5" s="293" t="s">
         <v>2098</v>
       </c>
-      <c r="L5" s="386"/>
+      <c r="L5" s="387"/>
       <c r="M5" s="176"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="193"/>
-      <c r="L6" s="386"/>
+      <c r="L6" s="387"/>
       <c r="M6" s="176"/>
     </row>
     <row r="7" spans="1:13">
@@ -21497,7 +21662,7 @@
       </c>
       <c r="J7" s="84"/>
       <c r="K7" s="292"/>
-      <c r="L7" s="386"/>
+      <c r="L7" s="387"/>
       <c r="M7" s="176"/>
     </row>
     <row r="8" spans="1:13">
@@ -21515,7 +21680,7 @@
       <c r="K8" s="70">
         <v>111</v>
       </c>
-      <c r="L8" s="386"/>
+      <c r="L8" s="387"/>
       <c r="M8" s="176"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21529,7 +21694,7 @@
       <c r="K9" s="274" t="s">
         <v>308</v>
       </c>
-      <c r="L9" s="386"/>
+      <c r="L9" s="387"/>
       <c r="M9" s="176"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21537,7 +21702,7 @@
         <v>2082</v>
       </c>
       <c r="F10" s="193"/>
-      <c r="L10" s="386"/>
+      <c r="L10" s="387"/>
       <c r="M10" s="176"/>
     </row>
     <row r="11" spans="1:13">
@@ -21550,7 +21715,7 @@
       </c>
       <c r="J11" s="84"/>
       <c r="K11" s="292"/>
-      <c r="L11" s="386"/>
+      <c r="L11" s="387"/>
       <c r="M11" s="176"/>
     </row>
     <row r="12" spans="1:13">
@@ -21564,7 +21729,7 @@
       <c r="K12" s="70">
         <v>222</v>
       </c>
-      <c r="L12" s="386"/>
+      <c r="L12" s="387"/>
       <c r="M12" s="176"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21581,7 +21746,7 @@
       <c r="K13" s="274" t="s">
         <v>343</v>
       </c>
-      <c r="L13" s="387"/>
+      <c r="L13" s="388"/>
       <c r="M13" s="176"/>
     </row>
     <row r="14" spans="1:13">
@@ -21603,10 +21768,10 @@
       <c r="D15" s="269"/>
       <c r="E15" s="269"/>
       <c r="F15" s="193"/>
-      <c r="J15" s="388" t="s">
+      <c r="J15" s="389" t="s">
         <v>2088</v>
       </c>
-      <c r="K15" s="388"/>
+      <c r="K15" s="389"/>
       <c r="L15" s="70" t="s">
         <v>689</v>
       </c>
@@ -21626,8 +21791,8 @@
       <c r="G16" s="97" t="s">
         <v>2090</v>
       </c>
-      <c r="J16" s="388"/>
-      <c r="K16" s="388"/>
+      <c r="J16" s="389"/>
+      <c r="K16" s="389"/>
       <c r="L16" s="70" t="s">
         <v>141</v>
       </c>
@@ -21705,48 +21870,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="97"/>
       <c r="B22" s="97"/>
-      <c r="K22" s="384"/>
+      <c r="K22" s="385"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="97"/>
       <c r="B23" s="97"/>
-      <c r="K23" s="381"/>
+      <c r="K23" s="382"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="97"/>
       <c r="B24" s="97"/>
-      <c r="K24" s="381"/>
+      <c r="K24" s="382"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="97"/>
       <c r="B25" s="97"/>
-      <c r="K25" s="381"/>
+      <c r="K25" s="382"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="97"/>
       <c r="B26" s="97"/>
-      <c r="K26" s="381"/>
+      <c r="K26" s="382"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="381"/>
+      <c r="K27" s="382"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="381"/>
+      <c r="K28" s="382"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="97"/>
-      <c r="K29" s="381"/>
+      <c r="K29" s="382"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="97"/>
-      <c r="K30" s="381"/>
+      <c r="K30" s="382"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="97"/>
-      <c r="K31" s="381"/>
+      <c r="K31" s="382"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="381"/>
+      <c r="K32" s="382"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="289"/>
@@ -30525,18 +30690,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="390" t="s">
+      <c r="B8" s="391" t="s">
         <v>2305</v>
       </c>
-      <c r="C8" s="390"/>
-      <c r="F8" s="390" t="s">
+      <c r="C8" s="391"/>
+      <c r="F8" s="391" t="s">
         <v>2306</v>
       </c>
-      <c r="G8" s="390"/>
-      <c r="I8" s="390" t="s">
+      <c r="G8" s="391"/>
+      <c r="I8" s="391" t="s">
         <v>2306</v>
       </c>
-      <c r="J8" s="390"/>
+      <c r="J8" s="391"/>
       <c r="M8" s="190"/>
       <c r="P8" t="s">
         <v>2360</v>
@@ -30561,18 +30726,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="390" t="s">
+      <c r="F9" s="391" t="s">
         <v>2307</v>
       </c>
-      <c r="G9" s="390"/>
-      <c r="I9" s="390" t="s">
+      <c r="G9" s="391"/>
+      <c r="I9" s="391" t="s">
         <v>1731</v>
       </c>
-      <c r="J9" s="390"/>
-      <c r="M9" s="391" t="s">
+      <c r="J9" s="391"/>
+      <c r="M9" s="392" t="s">
         <v>2306</v>
       </c>
-      <c r="N9" s="391"/>
+      <c r="N9" s="392"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30611,19 +30776,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="389" t="s">
+      <c r="E11" s="390" t="s">
         <v>2309</v>
       </c>
-      <c r="F11" s="389"/>
-      <c r="G11" s="389"/>
-      <c r="H11" s="389"/>
-      <c r="I11" s="389"/>
-      <c r="J11" s="389"/>
-      <c r="K11" s="389"/>
-      <c r="L11" s="389"/>
-      <c r="M11" s="389"/>
-      <c r="N11" s="389"/>
-      <c r="O11" s="389"/>
+      <c r="F11" s="390"/>
+      <c r="G11" s="390"/>
+      <c r="H11" s="390"/>
+      <c r="I11" s="390"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="390"/>
+      <c r="L11" s="390"/>
+      <c r="M11" s="390"/>
+      <c r="N11" s="390"/>
+      <c r="O11" s="390"/>
       <c r="P11" t="s">
         <v>2362</v>
       </c>
@@ -33606,10 +33771,10 @@
       <c r="O239" s="35"/>
     </row>
     <row r="241" spans="3:13">
-      <c r="C241" s="359" t="s">
+      <c r="C241" s="360" t="s">
         <v>2367</v>
       </c>
-      <c r="D241" s="359"/>
+      <c r="D241" s="360"/>
       <c r="F241" t="s">
         <v>2368</v>
       </c>
@@ -35472,10 +35637,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="392" t="s">
+      <c r="B1" s="393" t="s">
         <v>1811</v>
       </c>
-      <c r="C1" s="392"/>
+      <c r="C1" s="393"/>
       <c r="E1" t="s">
         <v>1812</v>
       </c>
@@ -37923,11 +38088,11 @@
       <c r="B223" t="s">
         <v>1190</v>
       </c>
-      <c r="D223" s="377" t="s">
+      <c r="D223" s="373" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="379"/>
-      <c r="F223" s="378"/>
+      <c r="E223" s="375"/>
+      <c r="F223" s="374"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -37979,19 +38144,19 @@
       <c r="B227" t="s">
         <v>1413</v>
       </c>
-      <c r="D227" s="377" t="s">
+      <c r="D227" s="373" t="s">
         <v>1212</v>
       </c>
-      <c r="E227" s="379"/>
-      <c r="F227" s="378"/>
-      <c r="H227" s="377" t="s">
+      <c r="E227" s="375"/>
+      <c r="F227" s="374"/>
+      <c r="H227" s="373" t="s">
         <v>1215</v>
       </c>
-      <c r="I227" s="378"/>
-      <c r="K227" s="377" t="s">
+      <c r="I227" s="374"/>
+      <c r="K227" s="373" t="s">
         <v>1214</v>
       </c>
-      <c r="L227" s="378"/>
+      <c r="L227" s="374"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -38238,7 +38403,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="380" t="s">
+      <c r="D273" s="376" t="s">
         <v>1854</v>
       </c>
       <c r="F273" s="137" t="s">
@@ -38246,22 +38411,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="380"/>
+      <c r="D274" s="376"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="380"/>
+      <c r="D275" s="376"/>
       <c r="F275" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="380"/>
+      <c r="D276" s="376"/>
       <c r="K276" t="s">
         <v>1869</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="380"/>
+      <c r="D277" s="376"/>
       <c r="F277" s="137" t="s">
         <v>1413</v>
       </c>
@@ -38276,7 +38441,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="380"/>
+      <c r="D278" s="376"/>
       <c r="I278" t="s">
         <v>1871</v>
       </c>
@@ -38362,14 +38527,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="373" t="s">
+      <c r="B287" s="378" t="s">
         <v>1864</v>
       </c>
-      <c r="C287" s="372" t="s">
+      <c r="C287" s="377" t="s">
         <v>1206</v>
       </c>
-      <c r="D287" s="372"/>
-      <c r="E287" s="360"/>
+      <c r="D287" s="377"/>
+      <c r="E287" s="361"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -38380,7 +38545,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="361"/>
+      <c r="B288" s="362"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1117</v>
@@ -38391,7 +38556,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="375" t="s">
+      <c r="J288" s="380" t="s">
         <v>1866</v>
       </c>
       <c r="L288" s="31"/>
@@ -38400,7 +38565,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="361"/>
+      <c r="B289" s="362"/>
       <c r="C289" s="25" t="s">
         <v>1859</v>
       </c>
@@ -38412,49 +38577,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="376"/>
+      <c r="J289" s="381"/>
       <c r="L289" s="31" t="s">
         <v>1859</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="375" t="s">
+      <c r="O289" s="380" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="361"/>
+      <c r="B290" s="362"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="374" t="s">
+      <c r="G290" s="379" t="s">
         <v>1867</v>
       </c>
-      <c r="H290" s="372"/>
-      <c r="I290" s="372"/>
-      <c r="J290" s="376"/>
+      <c r="H290" s="377"/>
+      <c r="I290" s="377"/>
+      <c r="J290" s="381"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="376"/>
+      <c r="O290" s="381"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="361"/>
-      <c r="C291" s="372" t="s">
+      <c r="B291" s="362"/>
+      <c r="C291" s="377" t="s">
         <v>1861</v>
       </c>
-      <c r="D291" s="372"/>
-      <c r="E291" s="360"/>
+      <c r="D291" s="377"/>
+      <c r="E291" s="361"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="376"/>
-      <c r="L291" s="374" t="s">
+      <c r="J291" s="381"/>
+      <c r="L291" s="379" t="s">
         <v>1862</v>
       </c>
-      <c r="M291" s="372"/>
-      <c r="N291" s="372"/>
-      <c r="O291" s="376"/>
+      <c r="M291" s="377"/>
+      <c r="N291" s="377"/>
+      <c r="O291" s="381"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -38468,7 +38633,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="376"/>
+      <c r="O292" s="381"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -38718,11 +38883,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -38730,6 +38890,11 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38961,18 +39126,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="393" t="s">
+      <c r="B3" s="394" t="s">
         <v>1836</v>
       </c>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="395"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="396"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -39087,24 +39252,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="396" t="s">
+      <c r="B15" s="397" t="s">
         <v>1837</v>
       </c>
-      <c r="C15" s="397"/>
-      <c r="D15" s="397"/>
-      <c r="E15" s="397"/>
-      <c r="F15" s="397"/>
-      <c r="G15" s="397"/>
-      <c r="H15" s="397"/>
-      <c r="I15" s="397"/>
-      <c r="J15" s="397"/>
-      <c r="K15" s="397"/>
-      <c r="L15" s="397"/>
-      <c r="M15" s="397"/>
-      <c r="N15" s="397"/>
-      <c r="O15" s="397"/>
-      <c r="P15" s="397"/>
-      <c r="Q15" s="397"/>
+      <c r="C15" s="398"/>
+      <c r="D15" s="398"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="398"/>
+      <c r="H15" s="398"/>
+      <c r="I15" s="398"/>
+      <c r="J15" s="398"/>
+      <c r="K15" s="398"/>
+      <c r="L15" s="398"/>
+      <c r="M15" s="398"/>
+      <c r="N15" s="398"/>
+      <c r="O15" s="398"/>
+      <c r="P15" s="398"/>
+      <c r="Q15" s="398"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -40665,7 +40830,7 @@
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="78"/>
-      <c r="L17" s="381"/>
+      <c r="L17" s="382"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="36" t="s">
@@ -40681,7 +40846,7 @@
       <c r="J18" s="71" t="s">
         <v>1406</v>
       </c>
-      <c r="L18" s="381"/>
+      <c r="L18" s="382"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="36" t="s">
@@ -41421,8 +41586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T407"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102:K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41441,23 +41606,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="384" t="s">
         <v>1548</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="I1" s="383" t="s">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="I1" s="384" t="s">
         <v>1558</v>
       </c>
-      <c r="J1" s="383"/>
-      <c r="K1" s="383"/>
-      <c r="L1" s="383"/>
-      <c r="M1" s="383"/>
-      <c r="N1" s="383"/>
-      <c r="O1" s="383"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -41607,28 +41772,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="368" t="s">
+      <c r="A12" s="369" t="s">
         <v>1560</v>
       </c>
-      <c r="B12" s="382"/>
-      <c r="C12" s="382"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="382"/>
-      <c r="F12" s="382"/>
-      <c r="G12" s="382"/>
-      <c r="H12" s="369"/>
-      <c r="I12" s="368" t="s">
+      <c r="B12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="383"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="383"/>
+      <c r="H12" s="370"/>
+      <c r="I12" s="369" t="s">
         <v>1560</v>
       </c>
-      <c r="J12" s="382"/>
-      <c r="K12" s="382"/>
-      <c r="L12" s="382"/>
-      <c r="M12" s="382"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="382"/>
-      <c r="P12" s="382"/>
-      <c r="Q12" s="382"/>
-      <c r="R12" s="369"/>
+      <c r="J12" s="383"/>
+      <c r="K12" s="383"/>
+      <c r="L12" s="383"/>
+      <c r="M12" s="383"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="383"/>
+      <c r="P12" s="383"/>
+      <c r="Q12" s="383"/>
+      <c r="R12" s="370"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -41856,14 +42021,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="383" t="s">
+      <c r="A24" s="384" t="s">
         <v>1548</v>
       </c>
-      <c r="B24" s="383"/>
-      <c r="C24" s="383"/>
-      <c r="D24" s="383"/>
-      <c r="E24" s="383"/>
-      <c r="F24" s="383"/>
+      <c r="B24" s="384"/>
+      <c r="C24" s="384"/>
+      <c r="D24" s="384"/>
+      <c r="E24" s="384"/>
+      <c r="F24" s="384"/>
       <c r="H24" s="201" t="s">
         <v>1558</v>
       </c>
@@ -41873,11 +42038,11 @@
       <c r="L24" s="201"/>
       <c r="M24" s="201"/>
       <c r="N24" s="201"/>
-      <c r="P24" s="383" t="s">
+      <c r="P24" s="384" t="s">
         <v>1596</v>
       </c>
-      <c r="Q24" s="383"/>
-      <c r="R24" s="383"/>
+      <c r="Q24" s="384"/>
+      <c r="R24" s="384"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="87" t="s">
@@ -42117,28 +42282,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="368" t="s">
+      <c r="A35" s="369" t="s">
         <v>1597</v>
       </c>
-      <c r="B35" s="382"/>
-      <c r="C35" s="382"/>
-      <c r="D35" s="382"/>
-      <c r="E35" s="382"/>
-      <c r="F35" s="382"/>
-      <c r="G35" s="382"/>
-      <c r="H35" s="369"/>
-      <c r="I35" s="368" t="s">
+      <c r="B35" s="383"/>
+      <c r="C35" s="383"/>
+      <c r="D35" s="383"/>
+      <c r="E35" s="383"/>
+      <c r="F35" s="383"/>
+      <c r="G35" s="383"/>
+      <c r="H35" s="370"/>
+      <c r="I35" s="369" t="s">
         <v>696</v>
       </c>
-      <c r="J35" s="382"/>
-      <c r="K35" s="382"/>
-      <c r="L35" s="382"/>
-      <c r="M35" s="382"/>
-      <c r="N35" s="382"/>
-      <c r="O35" s="382"/>
-      <c r="P35" s="382"/>
-      <c r="Q35" s="382"/>
-      <c r="R35" s="369"/>
+      <c r="J35" s="383"/>
+      <c r="K35" s="383"/>
+      <c r="L35" s="383"/>
+      <c r="M35" s="383"/>
+      <c r="N35" s="383"/>
+      <c r="O35" s="383"/>
+      <c r="P35" s="383"/>
+      <c r="Q35" s="383"/>
+      <c r="R35" s="370"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">
@@ -43674,7 +43839,7 @@
       <c r="S94" s="36"/>
       <c r="T94" s="36"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" ht="15.75" thickBot="1">
       <c r="A95" s="36" t="s">
         <v>2524</v>
       </c>
@@ -43708,9 +43873,11 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
+      <c r="I96" s="399"/>
+      <c r="J96" s="76" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K96" s="78"/>
       <c r="L96" s="36"/>
       <c r="M96" s="36"/>
       <c r="N96" s="36"/>
@@ -43730,9 +43897,11 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
+      <c r="I97" s="400"/>
+      <c r="J97" s="79" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K97" s="71"/>
       <c r="L97" s="36"/>
       <c r="M97" s="36"/>
       <c r="N97" s="36"/>
@@ -43752,9 +43921,11 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
+      <c r="I98" s="400"/>
+      <c r="J98" s="79" t="s">
+        <v>2564</v>
+      </c>
+      <c r="K98" s="71"/>
       <c r="L98" s="36"/>
       <c r="M98" s="36"/>
       <c r="N98" s="36"/>
@@ -43765,7 +43936,7 @@
       <c r="S98" s="36"/>
       <c r="T98" s="36"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" ht="15.75" thickBot="1">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -43774,9 +43945,9 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
+      <c r="I99" s="400"/>
+      <c r="J99" s="80"/>
+      <c r="K99" s="82"/>
       <c r="L99" s="36"/>
       <c r="M99" s="36"/>
       <c r="N99" s="36"/>
@@ -43793,10 +43964,12 @@
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
+      <c r="F100" s="76" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G100" s="78"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="400"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="36"/>
@@ -43809,16 +43982,18 @@
       <c r="S100" s="36"/>
       <c r="T100" s="36"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" ht="15.75" thickBot="1">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
+      <c r="F101" s="79" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G101" s="71"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="400"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="36"/>
@@ -43837,12 +44012,14 @@
       <c r="C102" s="36"/>
       <c r="D102" s="36"/>
       <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="401"/>
+      <c r="J102" s="76" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K102" s="78"/>
       <c r="L102" s="36"/>
       <c r="M102" s="36"/>
       <c r="N102" s="36"/>
@@ -43853,18 +44030,20 @@
       <c r="S102" s="36"/>
       <c r="T102" s="36"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" ht="15.75" thickBot="1">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
       <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="82"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
+      <c r="I103" s="400"/>
+      <c r="J103" s="79" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K103" s="71"/>
       <c r="L103" s="36"/>
       <c r="M103" s="36"/>
       <c r="N103" s="36"/>
@@ -43884,9 +44063,9 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
+      <c r="I104" s="400"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="71"/>
       <c r="L104" s="36"/>
       <c r="M104" s="36"/>
       <c r="N104" s="36"/>
@@ -43897,7 +44076,7 @@
       <c r="S104" s="36"/>
       <c r="T104" s="36"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" ht="15.75" thickBot="1">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -43906,9 +44085,9 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
+      <c r="I105" s="400"/>
+      <c r="J105" s="80"/>
+      <c r="K105" s="82"/>
       <c r="L105" s="36"/>
       <c r="M105" s="36"/>
       <c r="N105" s="36"/>
@@ -43928,7 +44107,7 @@
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
+      <c r="I106" s="400"/>
       <c r="J106" s="36"/>
       <c r="K106" s="36"/>
       <c r="L106" s="36"/>
@@ -43941,7 +44120,7 @@
       <c r="S106" s="36"/>
       <c r="T106" s="36"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" ht="15.75" thickBot="1">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -43950,7 +44129,7 @@
       <c r="F107" s="36"/>
       <c r="G107" s="36"/>
       <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
+      <c r="I107" s="400"/>
       <c r="J107" s="36"/>
       <c r="K107" s="36"/>
       <c r="L107" s="36"/>
@@ -43972,9 +44151,11 @@
       <c r="F108" s="36"/>
       <c r="G108" s="36"/>
       <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
+      <c r="I108" s="400"/>
+      <c r="J108" s="76" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K108" s="78"/>
       <c r="L108" s="36"/>
       <c r="M108" s="36"/>
       <c r="N108" s="36"/>
@@ -43994,9 +44175,11 @@
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
       <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
+      <c r="I109" s="400"/>
+      <c r="J109" s="79" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K109" s="71"/>
       <c r="L109" s="36"/>
       <c r="M109" s="36"/>
       <c r="N109" s="36"/>
@@ -44016,9 +44199,9 @@
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
       <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
+      <c r="I110" s="400"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="71"/>
       <c r="L110" s="36"/>
       <c r="M110" s="36"/>
       <c r="N110" s="36"/>
@@ -44029,7 +44212,7 @@
       <c r="S110" s="36"/>
       <c r="T110" s="36"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" ht="15.75" thickBot="1">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -44038,9 +44221,9 @@
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
       <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
+      <c r="I111" s="402"/>
+      <c r="J111" s="80"/>
+      <c r="K111" s="82"/>
       <c r="L111" s="36"/>
       <c r="M111" s="36"/>
       <c r="N111" s="36"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -9457,6 +9457,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9496,18 +9500,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9521,6 +9513,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9572,10 +9576,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9926,13 +9926,13 @@
       <c r="B3" t="s">
         <v>2387</v>
       </c>
-      <c r="H3" s="366" t="s">
+      <c r="H3" s="370" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="367"/>
-      <c r="J3" s="367"/>
-      <c r="K3" s="367"/>
-      <c r="L3" s="368"/>
+      <c r="I3" s="371"/>
+      <c r="J3" s="371"/>
+      <c r="K3" s="371"/>
+      <c r="L3" s="372"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:18" ht="15.75" thickBot="1">
@@ -9958,20 +9958,20 @@
       <c r="F6" s="4" t="s">
         <v>2402</v>
       </c>
-      <c r="G6" s="369" t="s">
+      <c r="G6" s="373" t="s">
         <v>1634</v>
       </c>
-      <c r="H6" s="370"/>
+      <c r="H6" s="374"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="369" t="s">
+      <c r="J6" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="370"/>
+      <c r="K6" s="374"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="369" t="s">
+      <c r="M6" s="373" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="370"/>
+      <c r="N6" s="374"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1">
       <c r="D7" s="104" t="s">
@@ -9996,20 +9996,20 @@
       <c r="F8" s="4" t="s">
         <v>1679</v>
       </c>
-      <c r="G8" s="371" t="s">
+      <c r="G8" s="375" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="372"/>
+      <c r="H8" s="376"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="371" t="s">
+      <c r="J8" s="375" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="372"/>
+      <c r="K8" s="376"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="371" t="s">
+      <c r="M8" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="372"/>
+      <c r="N8" s="376"/>
       <c r="Q8" s="121"/>
     </row>
     <row r="9" spans="2:18">
@@ -10027,29 +10027,29 @@
       <c r="Q9" s="121"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="362" t="s">
+      <c r="F10" s="366" t="s">
         <v>2431</v>
       </c>
-      <c r="G10" s="363"/>
-      <c r="H10" s="363"/>
-      <c r="I10" s="363"/>
-      <c r="J10" s="363"/>
-      <c r="K10" s="363"/>
-      <c r="L10" s="363"/>
-      <c r="M10" s="363"/>
-      <c r="N10" s="363"/>
+      <c r="G10" s="367"/>
+      <c r="H10" s="367"/>
+      <c r="I10" s="367"/>
+      <c r="J10" s="367"/>
+      <c r="K10" s="367"/>
+      <c r="L10" s="367"/>
+      <c r="M10" s="367"/>
+      <c r="N10" s="367"/>
       <c r="Q10" s="121"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="364"/>
-      <c r="G11" s="365"/>
-      <c r="H11" s="365"/>
-      <c r="I11" s="365"/>
-      <c r="J11" s="365"/>
-      <c r="K11" s="365"/>
-      <c r="L11" s="365"/>
-      <c r="M11" s="365"/>
-      <c r="N11" s="365"/>
+      <c r="F11" s="368"/>
+      <c r="G11" s="369"/>
+      <c r="H11" s="369"/>
+      <c r="I11" s="369"/>
+      <c r="J11" s="369"/>
+      <c r="K11" s="369"/>
+      <c r="L11" s="369"/>
+      <c r="M11" s="369"/>
+      <c r="N11" s="369"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="104" t="s">
@@ -10283,8 +10283,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1">
-      <c r="D23" s="360"/>
-      <c r="E23" s="361"/>
+      <c r="D23" s="364"/>
+      <c r="E23" s="365"/>
       <c r="F23" s="120"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -21602,7 +21602,7 @@
       </c>
       <c r="J3" s="84"/>
       <c r="K3" s="292"/>
-      <c r="L3" s="386" t="s">
+      <c r="L3" s="390" t="s">
         <v>2099</v>
       </c>
       <c r="M3" s="176"/>
@@ -21624,7 +21624,7 @@
       <c r="K4" s="70">
         <v>123</v>
       </c>
-      <c r="L4" s="387"/>
+      <c r="L4" s="391"/>
       <c r="M4" s="176"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21644,12 +21644,12 @@
       <c r="K5" s="293" t="s">
         <v>2098</v>
       </c>
-      <c r="L5" s="387"/>
+      <c r="L5" s="391"/>
       <c r="M5" s="176"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="193"/>
-      <c r="L6" s="387"/>
+      <c r="L6" s="391"/>
       <c r="M6" s="176"/>
     </row>
     <row r="7" spans="1:13">
@@ -21662,7 +21662,7 @@
       </c>
       <c r="J7" s="84"/>
       <c r="K7" s="292"/>
-      <c r="L7" s="387"/>
+      <c r="L7" s="391"/>
       <c r="M7" s="176"/>
     </row>
     <row r="8" spans="1:13">
@@ -21680,7 +21680,7 @@
       <c r="K8" s="70">
         <v>111</v>
       </c>
-      <c r="L8" s="387"/>
+      <c r="L8" s="391"/>
       <c r="M8" s="176"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21694,7 +21694,7 @@
       <c r="K9" s="274" t="s">
         <v>308</v>
       </c>
-      <c r="L9" s="387"/>
+      <c r="L9" s="391"/>
       <c r="M9" s="176"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21702,7 +21702,7 @@
         <v>2082</v>
       </c>
       <c r="F10" s="193"/>
-      <c r="L10" s="387"/>
+      <c r="L10" s="391"/>
       <c r="M10" s="176"/>
     </row>
     <row r="11" spans="1:13">
@@ -21715,7 +21715,7 @@
       </c>
       <c r="J11" s="84"/>
       <c r="K11" s="292"/>
-      <c r="L11" s="387"/>
+      <c r="L11" s="391"/>
       <c r="M11" s="176"/>
     </row>
     <row r="12" spans="1:13">
@@ -21729,7 +21729,7 @@
       <c r="K12" s="70">
         <v>222</v>
       </c>
-      <c r="L12" s="387"/>
+      <c r="L12" s="391"/>
       <c r="M12" s="176"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21746,7 +21746,7 @@
       <c r="K13" s="274" t="s">
         <v>343</v>
       </c>
-      <c r="L13" s="388"/>
+      <c r="L13" s="392"/>
       <c r="M13" s="176"/>
     </row>
     <row r="14" spans="1:13">
@@ -21768,10 +21768,10 @@
       <c r="D15" s="269"/>
       <c r="E15" s="269"/>
       <c r="F15" s="193"/>
-      <c r="J15" s="389" t="s">
+      <c r="J15" s="393" t="s">
         <v>2088</v>
       </c>
-      <c r="K15" s="389"/>
+      <c r="K15" s="393"/>
       <c r="L15" s="70" t="s">
         <v>689</v>
       </c>
@@ -21791,8 +21791,8 @@
       <c r="G16" s="97" t="s">
         <v>2090</v>
       </c>
-      <c r="J16" s="389"/>
-      <c r="K16" s="389"/>
+      <c r="J16" s="393"/>
+      <c r="K16" s="393"/>
       <c r="L16" s="70" t="s">
         <v>141</v>
       </c>
@@ -21870,48 +21870,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="97"/>
       <c r="B22" s="97"/>
-      <c r="K22" s="385"/>
+      <c r="K22" s="389"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="97"/>
       <c r="B23" s="97"/>
-      <c r="K23" s="382"/>
+      <c r="K23" s="386"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="97"/>
       <c r="B24" s="97"/>
-      <c r="K24" s="382"/>
+      <c r="K24" s="386"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="97"/>
       <c r="B25" s="97"/>
-      <c r="K25" s="382"/>
+      <c r="K25" s="386"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="97"/>
       <c r="B26" s="97"/>
-      <c r="K26" s="382"/>
+      <c r="K26" s="386"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="382"/>
+      <c r="K27" s="386"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="382"/>
+      <c r="K28" s="386"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="97"/>
-      <c r="K29" s="382"/>
+      <c r="K29" s="386"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="97"/>
-      <c r="K30" s="382"/>
+      <c r="K30" s="386"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="97"/>
-      <c r="K31" s="382"/>
+      <c r="K31" s="386"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="382"/>
+      <c r="K32" s="386"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="289"/>
@@ -30690,18 +30690,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="391" t="s">
+      <c r="B8" s="395" t="s">
         <v>2305</v>
       </c>
-      <c r="C8" s="391"/>
-      <c r="F8" s="391" t="s">
+      <c r="C8" s="395"/>
+      <c r="F8" s="395" t="s">
         <v>2306</v>
       </c>
-      <c r="G8" s="391"/>
-      <c r="I8" s="391" t="s">
+      <c r="G8" s="395"/>
+      <c r="I8" s="395" t="s">
         <v>2306</v>
       </c>
-      <c r="J8" s="391"/>
+      <c r="J8" s="395"/>
       <c r="M8" s="190"/>
       <c r="P8" t="s">
         <v>2360</v>
@@ -30726,18 +30726,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="391" t="s">
+      <c r="F9" s="395" t="s">
         <v>2307</v>
       </c>
-      <c r="G9" s="391"/>
-      <c r="I9" s="391" t="s">
+      <c r="G9" s="395"/>
+      <c r="I9" s="395" t="s">
         <v>1731</v>
       </c>
-      <c r="J9" s="391"/>
-      <c r="M9" s="392" t="s">
+      <c r="J9" s="395"/>
+      <c r="M9" s="396" t="s">
         <v>2306</v>
       </c>
-      <c r="N9" s="392"/>
+      <c r="N9" s="396"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30776,19 +30776,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="390" t="s">
+      <c r="E11" s="394" t="s">
         <v>2309</v>
       </c>
-      <c r="F11" s="390"/>
-      <c r="G11" s="390"/>
-      <c r="H11" s="390"/>
-      <c r="I11" s="390"/>
-      <c r="J11" s="390"/>
-      <c r="K11" s="390"/>
-      <c r="L11" s="390"/>
-      <c r="M11" s="390"/>
-      <c r="N11" s="390"/>
-      <c r="O11" s="390"/>
+      <c r="F11" s="394"/>
+      <c r="G11" s="394"/>
+      <c r="H11" s="394"/>
+      <c r="I11" s="394"/>
+      <c r="J11" s="394"/>
+      <c r="K11" s="394"/>
+      <c r="L11" s="394"/>
+      <c r="M11" s="394"/>
+      <c r="N11" s="394"/>
+      <c r="O11" s="394"/>
       <c r="P11" t="s">
         <v>2362</v>
       </c>
@@ -33771,10 +33771,10 @@
       <c r="O239" s="35"/>
     </row>
     <row r="241" spans="3:13">
-      <c r="C241" s="360" t="s">
+      <c r="C241" s="364" t="s">
         <v>2367</v>
       </c>
-      <c r="D241" s="360"/>
+      <c r="D241" s="364"/>
       <c r="F241" t="s">
         <v>2368</v>
       </c>
@@ -35637,10 +35637,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="393" t="s">
+      <c r="B1" s="397" t="s">
         <v>1811</v>
       </c>
-      <c r="C1" s="393"/>
+      <c r="C1" s="397"/>
       <c r="E1" t="s">
         <v>1812</v>
       </c>
@@ -38088,11 +38088,11 @@
       <c r="B223" t="s">
         <v>1190</v>
       </c>
-      <c r="D223" s="373" t="s">
+      <c r="D223" s="382" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="375"/>
-      <c r="F223" s="374"/>
+      <c r="E223" s="384"/>
+      <c r="F223" s="383"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -38144,19 +38144,19 @@
       <c r="B227" t="s">
         <v>1413</v>
       </c>
-      <c r="D227" s="373" t="s">
+      <c r="D227" s="382" t="s">
         <v>1212</v>
       </c>
-      <c r="E227" s="375"/>
-      <c r="F227" s="374"/>
-      <c r="H227" s="373" t="s">
+      <c r="E227" s="384"/>
+      <c r="F227" s="383"/>
+      <c r="H227" s="382" t="s">
         <v>1215</v>
       </c>
-      <c r="I227" s="374"/>
-      <c r="K227" s="373" t="s">
+      <c r="I227" s="383"/>
+      <c r="K227" s="382" t="s">
         <v>1214</v>
       </c>
-      <c r="L227" s="374"/>
+      <c r="L227" s="383"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -38403,7 +38403,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="376" t="s">
+      <c r="D273" s="385" t="s">
         <v>1854</v>
       </c>
       <c r="F273" s="137" t="s">
@@ -38411,22 +38411,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="376"/>
+      <c r="D274" s="385"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="376"/>
+      <c r="D275" s="385"/>
       <c r="F275" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="376"/>
+      <c r="D276" s="385"/>
       <c r="K276" t="s">
         <v>1869</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="376"/>
+      <c r="D277" s="385"/>
       <c r="F277" s="137" t="s">
         <v>1413</v>
       </c>
@@ -38441,7 +38441,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="376"/>
+      <c r="D278" s="385"/>
       <c r="I278" t="s">
         <v>1871</v>
       </c>
@@ -38534,7 +38534,7 @@
         <v>1206</v>
       </c>
       <c r="D287" s="377"/>
-      <c r="E287" s="361"/>
+      <c r="E287" s="365"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -38545,7 +38545,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="362"/>
+      <c r="B288" s="366"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1117</v>
@@ -38565,7 +38565,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="362"/>
+      <c r="B289" s="366"/>
       <c r="C289" s="25" t="s">
         <v>1859</v>
       </c>
@@ -38588,7 +38588,7 @@
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="362"/>
+      <c r="B290" s="366"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
@@ -38604,12 +38604,12 @@
       <c r="O290" s="381"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="362"/>
+      <c r="B291" s="366"/>
       <c r="C291" s="377" t="s">
         <v>1861</v>
       </c>
       <c r="D291" s="377"/>
-      <c r="E291" s="361"/>
+      <c r="E291" s="365"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
@@ -38883,6 +38883,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -38890,11 +38895,6 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39126,18 +39126,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="394" t="s">
+      <c r="B3" s="398" t="s">
         <v>1836</v>
       </c>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="396"/>
+      <c r="C3" s="399"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="399"/>
+      <c r="F3" s="399"/>
+      <c r="G3" s="399"/>
+      <c r="H3" s="399"/>
+      <c r="I3" s="399"/>
+      <c r="J3" s="399"/>
+      <c r="K3" s="400"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -39252,24 +39252,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="397" t="s">
+      <c r="B15" s="401" t="s">
         <v>1837</v>
       </c>
-      <c r="C15" s="398"/>
-      <c r="D15" s="398"/>
-      <c r="E15" s="398"/>
-      <c r="F15" s="398"/>
-      <c r="G15" s="398"/>
-      <c r="H15" s="398"/>
-      <c r="I15" s="398"/>
-      <c r="J15" s="398"/>
-      <c r="K15" s="398"/>
-      <c r="L15" s="398"/>
-      <c r="M15" s="398"/>
-      <c r="N15" s="398"/>
-      <c r="O15" s="398"/>
-      <c r="P15" s="398"/>
-      <c r="Q15" s="398"/>
+      <c r="C15" s="402"/>
+      <c r="D15" s="402"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="402"/>
+      <c r="G15" s="402"/>
+      <c r="H15" s="402"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="402"/>
+      <c r="K15" s="402"/>
+      <c r="L15" s="402"/>
+      <c r="M15" s="402"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="402"/>
+      <c r="P15" s="402"/>
+      <c r="Q15" s="402"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -40519,8 +40519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40830,7 +40830,7 @@
       </c>
       <c r="I17" s="77"/>
       <c r="J17" s="78"/>
-      <c r="L17" s="382"/>
+      <c r="L17" s="386"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="36" t="s">
@@ -40846,7 +40846,7 @@
       <c r="J18" s="71" t="s">
         <v>1406</v>
       </c>
-      <c r="L18" s="382"/>
+      <c r="L18" s="386"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="36" t="s">
@@ -41586,7 +41586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J102" sqref="J102:K109"/>
     </sheetView>
   </sheetViews>
@@ -41606,23 +41606,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="388" t="s">
         <v>1548</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="I1" s="384" t="s">
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="I1" s="388" t="s">
         <v>1558</v>
       </c>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
-      <c r="N1" s="384"/>
-      <c r="O1" s="384"/>
+      <c r="J1" s="388"/>
+      <c r="K1" s="388"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
+      <c r="O1" s="388"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -41772,28 +41772,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="369" t="s">
+      <c r="A12" s="373" t="s">
         <v>1560</v>
       </c>
-      <c r="B12" s="383"/>
-      <c r="C12" s="383"/>
-      <c r="D12" s="383"/>
-      <c r="E12" s="383"/>
-      <c r="F12" s="383"/>
-      <c r="G12" s="383"/>
-      <c r="H12" s="370"/>
-      <c r="I12" s="369" t="s">
+      <c r="B12" s="387"/>
+      <c r="C12" s="387"/>
+      <c r="D12" s="387"/>
+      <c r="E12" s="387"/>
+      <c r="F12" s="387"/>
+      <c r="G12" s="387"/>
+      <c r="H12" s="374"/>
+      <c r="I12" s="373" t="s">
         <v>1560</v>
       </c>
-      <c r="J12" s="383"/>
-      <c r="K12" s="383"/>
-      <c r="L12" s="383"/>
-      <c r="M12" s="383"/>
-      <c r="N12" s="383"/>
-      <c r="O12" s="383"/>
-      <c r="P12" s="383"/>
-      <c r="Q12" s="383"/>
-      <c r="R12" s="370"/>
+      <c r="J12" s="387"/>
+      <c r="K12" s="387"/>
+      <c r="L12" s="387"/>
+      <c r="M12" s="387"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="387"/>
+      <c r="P12" s="387"/>
+      <c r="Q12" s="387"/>
+      <c r="R12" s="374"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -42021,14 +42021,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="384" t="s">
+      <c r="A24" s="388" t="s">
         <v>1548</v>
       </c>
-      <c r="B24" s="384"/>
-      <c r="C24" s="384"/>
-      <c r="D24" s="384"/>
-      <c r="E24" s="384"/>
-      <c r="F24" s="384"/>
+      <c r="B24" s="388"/>
+      <c r="C24" s="388"/>
+      <c r="D24" s="388"/>
+      <c r="E24" s="388"/>
+      <c r="F24" s="388"/>
       <c r="H24" s="201" t="s">
         <v>1558</v>
       </c>
@@ -42038,11 +42038,11 @@
       <c r="L24" s="201"/>
       <c r="M24" s="201"/>
       <c r="N24" s="201"/>
-      <c r="P24" s="384" t="s">
+      <c r="P24" s="388" t="s">
         <v>1596</v>
       </c>
-      <c r="Q24" s="384"/>
-      <c r="R24" s="384"/>
+      <c r="Q24" s="388"/>
+      <c r="R24" s="388"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="87" t="s">
@@ -42282,28 +42282,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="369" t="s">
+      <c r="A35" s="373" t="s">
         <v>1597</v>
       </c>
-      <c r="B35" s="383"/>
-      <c r="C35" s="383"/>
-      <c r="D35" s="383"/>
-      <c r="E35" s="383"/>
-      <c r="F35" s="383"/>
-      <c r="G35" s="383"/>
-      <c r="H35" s="370"/>
-      <c r="I35" s="369" t="s">
+      <c r="B35" s="387"/>
+      <c r="C35" s="387"/>
+      <c r="D35" s="387"/>
+      <c r="E35" s="387"/>
+      <c r="F35" s="387"/>
+      <c r="G35" s="387"/>
+      <c r="H35" s="374"/>
+      <c r="I35" s="373" t="s">
         <v>696</v>
       </c>
-      <c r="J35" s="383"/>
-      <c r="K35" s="383"/>
-      <c r="L35" s="383"/>
-      <c r="M35" s="383"/>
-      <c r="N35" s="383"/>
-      <c r="O35" s="383"/>
-      <c r="P35" s="383"/>
-      <c r="Q35" s="383"/>
-      <c r="R35" s="370"/>
+      <c r="J35" s="387"/>
+      <c r="K35" s="387"/>
+      <c r="L35" s="387"/>
+      <c r="M35" s="387"/>
+      <c r="N35" s="387"/>
+      <c r="O35" s="387"/>
+      <c r="P35" s="387"/>
+      <c r="Q35" s="387"/>
+      <c r="R35" s="374"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">
@@ -43873,7 +43873,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="399"/>
+      <c r="I96" s="360"/>
       <c r="J96" s="76" t="s">
         <v>2563</v>
       </c>
@@ -43897,7 +43897,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="400"/>
+      <c r="I97" s="361"/>
       <c r="J97" s="79" t="s">
         <v>1653</v>
       </c>
@@ -43921,7 +43921,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="400"/>
+      <c r="I98" s="361"/>
       <c r="J98" s="79" t="s">
         <v>2564</v>
       </c>
@@ -43945,7 +43945,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="400"/>
+      <c r="I99" s="361"/>
       <c r="J99" s="80"/>
       <c r="K99" s="82"/>
       <c r="L99" s="36"/>
@@ -43969,7 +43969,7 @@
       </c>
       <c r="G100" s="78"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="400"/>
+      <c r="I100" s="361"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="36"/>
@@ -43993,7 +43993,7 @@
       </c>
       <c r="G101" s="71"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="400"/>
+      <c r="I101" s="361"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="36"/>
@@ -44015,7 +44015,7 @@
       <c r="F102" s="79"/>
       <c r="G102" s="71"/>
       <c r="H102" s="37"/>
-      <c r="I102" s="401"/>
+      <c r="I102" s="362"/>
       <c r="J102" s="76" t="s">
         <v>2563</v>
       </c>
@@ -44039,7 +44039,7 @@
       <c r="F103" s="80"/>
       <c r="G103" s="82"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="400"/>
+      <c r="I103" s="361"/>
       <c r="J103" s="79" t="s">
         <v>1653</v>
       </c>
@@ -44063,7 +44063,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="400"/>
+      <c r="I104" s="361"/>
       <c r="J104" s="79"/>
       <c r="K104" s="71"/>
       <c r="L104" s="36"/>
@@ -44085,7 +44085,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="400"/>
+      <c r="I105" s="361"/>
       <c r="J105" s="80"/>
       <c r="K105" s="82"/>
       <c r="L105" s="36"/>
@@ -44107,7 +44107,7 @@
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="400"/>
+      <c r="I106" s="361"/>
       <c r="J106" s="36"/>
       <c r="K106" s="36"/>
       <c r="L106" s="36"/>
@@ -44129,7 +44129,7 @@
       <c r="F107" s="36"/>
       <c r="G107" s="36"/>
       <c r="H107" s="36"/>
-      <c r="I107" s="400"/>
+      <c r="I107" s="361"/>
       <c r="J107" s="36"/>
       <c r="K107" s="36"/>
       <c r="L107" s="36"/>
@@ -44151,7 +44151,7 @@
       <c r="F108" s="36"/>
       <c r="G108" s="36"/>
       <c r="H108" s="36"/>
-      <c r="I108" s="400"/>
+      <c r="I108" s="361"/>
       <c r="J108" s="76" t="s">
         <v>2563</v>
       </c>
@@ -44175,7 +44175,7 @@
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
       <c r="H109" s="36"/>
-      <c r="I109" s="400"/>
+      <c r="I109" s="361"/>
       <c r="J109" s="79" t="s">
         <v>1653</v>
       </c>
@@ -44199,7 +44199,7 @@
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
       <c r="H110" s="36"/>
-      <c r="I110" s="400"/>
+      <c r="I110" s="361"/>
       <c r="J110" s="79"/>
       <c r="K110" s="71"/>
       <c r="L110" s="36"/>
@@ -44221,7 +44221,7 @@
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
       <c r="H111" s="36"/>
-      <c r="I111" s="402"/>
+      <c r="I111" s="363"/>
       <c r="J111" s="80"/>
       <c r="K111" s="82"/>
       <c r="L111" s="36"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="2598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="2605">
   <si>
     <t>USER</t>
   </si>
@@ -8187,6 +8187,27 @@
   </si>
   <si>
     <t>100-10=90</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>google server</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Input screen</t>
+  </si>
+  <si>
+    <t>true/false/1/2/3</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>.close();</t>
   </si>
 </sst>
 </file>
@@ -8869,7 +8890,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9578,6 +9599,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9617,18 +9654,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9642,6 +9667,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9693,22 +9730,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10059,13 +10083,13 @@
       <c r="B3" t="s">
         <v>2381</v>
       </c>
-      <c r="H3" s="372" t="s">
+      <c r="H3" s="378" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="373"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="373"/>
-      <c r="L3" s="374"/>
+      <c r="I3" s="379"/>
+      <c r="J3" s="379"/>
+      <c r="K3" s="379"/>
+      <c r="L3" s="380"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:18" ht="15.75" thickBot="1">
@@ -10091,20 +10115,20 @@
       <c r="F6" s="4" t="s">
         <v>2396</v>
       </c>
-      <c r="G6" s="375" t="s">
+      <c r="G6" s="381" t="s">
         <v>1629</v>
       </c>
-      <c r="H6" s="376"/>
+      <c r="H6" s="382"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="375" t="s">
+      <c r="J6" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="376"/>
+      <c r="K6" s="382"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="375" t="s">
+      <c r="M6" s="381" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="376"/>
+      <c r="N6" s="382"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1">
       <c r="D7" s="103" t="s">
@@ -10129,20 +10153,20 @@
       <c r="F8" s="4" t="s">
         <v>1674</v>
       </c>
-      <c r="G8" s="377" t="s">
+      <c r="G8" s="383" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="378"/>
+      <c r="H8" s="384"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="377" t="s">
+      <c r="J8" s="383" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="378"/>
+      <c r="K8" s="384"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="377" t="s">
+      <c r="M8" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="378"/>
+      <c r="N8" s="384"/>
       <c r="Q8" s="120"/>
     </row>
     <row r="9" spans="2:18">
@@ -10160,29 +10184,29 @@
       <c r="Q9" s="120"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="368" t="s">
+      <c r="F10" s="374" t="s">
         <v>2425</v>
       </c>
-      <c r="G10" s="369"/>
-      <c r="H10" s="369"/>
-      <c r="I10" s="369"/>
-      <c r="J10" s="369"/>
-      <c r="K10" s="369"/>
-      <c r="L10" s="369"/>
-      <c r="M10" s="369"/>
-      <c r="N10" s="369"/>
+      <c r="G10" s="375"/>
+      <c r="H10" s="375"/>
+      <c r="I10" s="375"/>
+      <c r="J10" s="375"/>
+      <c r="K10" s="375"/>
+      <c r="L10" s="375"/>
+      <c r="M10" s="375"/>
+      <c r="N10" s="375"/>
       <c r="Q10" s="120"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="370"/>
-      <c r="G11" s="371"/>
-      <c r="H11" s="371"/>
-      <c r="I11" s="371"/>
-      <c r="J11" s="371"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="371"/>
-      <c r="M11" s="371"/>
-      <c r="N11" s="371"/>
+      <c r="F11" s="376"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="377"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="377"/>
+      <c r="K11" s="377"/>
+      <c r="L11" s="377"/>
+      <c r="M11" s="377"/>
+      <c r="N11" s="377"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -10416,8 +10440,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1">
-      <c r="D23" s="366"/>
-      <c r="E23" s="367"/>
+      <c r="D23" s="372"/>
+      <c r="E23" s="373"/>
       <c r="F23" s="119"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -15503,8 +15527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H19"/>
+    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16164,72 +16188,108 @@
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:8">
       <c r="B33" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="168" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F38" s="411"/>
+      <c r="G38" s="412"/>
+      <c r="H38" s="168" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="24" t="s">
+        <v>2600</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="168"/>
+      <c r="F41" s="411"/>
+      <c r="G41" s="413"/>
+      <c r="H41" s="168" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>434</v>
       </c>
@@ -16240,12 +16300,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:8">
       <c r="B47" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>425</v>
       </c>
@@ -21752,7 +21812,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="291"/>
-      <c r="L3" s="392" t="s">
+      <c r="L3" s="398" t="s">
         <v>2093</v>
       </c>
       <c r="M3" s="175"/>
@@ -21774,7 +21834,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="393"/>
+      <c r="L4" s="399"/>
       <c r="M4" s="175"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21794,12 +21854,12 @@
       <c r="K5" s="292" t="s">
         <v>2092</v>
       </c>
-      <c r="L5" s="393"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="175"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="192"/>
-      <c r="L6" s="393"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="175"/>
     </row>
     <row r="7" spans="1:13">
@@ -21812,7 +21872,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="291"/>
-      <c r="L7" s="393"/>
+      <c r="L7" s="399"/>
       <c r="M7" s="175"/>
     </row>
     <row r="8" spans="1:13">
@@ -21830,7 +21890,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="393"/>
+      <c r="L8" s="399"/>
       <c r="M8" s="175"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21844,7 +21904,7 @@
       <c r="K9" s="273" t="s">
         <v>308</v>
       </c>
-      <c r="L9" s="393"/>
+      <c r="L9" s="399"/>
       <c r="M9" s="175"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21852,7 +21912,7 @@
         <v>2076</v>
       </c>
       <c r="F10" s="192"/>
-      <c r="L10" s="393"/>
+      <c r="L10" s="399"/>
       <c r="M10" s="175"/>
     </row>
     <row r="11" spans="1:13">
@@ -21865,7 +21925,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="291"/>
-      <c r="L11" s="393"/>
+      <c r="L11" s="399"/>
       <c r="M11" s="175"/>
     </row>
     <row r="12" spans="1:13">
@@ -21879,7 +21939,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="393"/>
+      <c r="L12" s="399"/>
       <c r="M12" s="175"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21896,7 +21956,7 @@
       <c r="K13" s="273" t="s">
         <v>343</v>
       </c>
-      <c r="L13" s="394"/>
+      <c r="L13" s="400"/>
       <c r="M13" s="175"/>
     </row>
     <row r="14" spans="1:13">
@@ -21918,10 +21978,10 @@
       <c r="D15" s="268"/>
       <c r="E15" s="268"/>
       <c r="F15" s="192"/>
-      <c r="J15" s="395" t="s">
+      <c r="J15" s="401" t="s">
         <v>2082</v>
       </c>
-      <c r="K15" s="395"/>
+      <c r="K15" s="401"/>
       <c r="L15" s="69" t="s">
         <v>686</v>
       </c>
@@ -21941,8 +22001,8 @@
       <c r="G16" s="96" t="s">
         <v>2084</v>
       </c>
-      <c r="J16" s="395"/>
-      <c r="K16" s="395"/>
+      <c r="J16" s="401"/>
+      <c r="K16" s="401"/>
       <c r="L16" s="69" t="s">
         <v>141</v>
       </c>
@@ -22020,48 +22080,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="391"/>
+      <c r="K22" s="397"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="388"/>
+      <c r="K23" s="394"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="388"/>
+      <c r="K24" s="394"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="388"/>
+      <c r="K25" s="394"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="388"/>
+      <c r="K26" s="394"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="388"/>
+      <c r="K27" s="394"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="388"/>
+      <c r="K28" s="394"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="388"/>
+      <c r="K29" s="394"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="388"/>
+      <c r="K30" s="394"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="388"/>
+      <c r="K31" s="394"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="388"/>
+      <c r="K32" s="394"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="288"/>
@@ -30840,18 +30900,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="397" t="s">
+      <c r="B8" s="403" t="s">
         <v>2299</v>
       </c>
-      <c r="C8" s="397"/>
-      <c r="F8" s="397" t="s">
+      <c r="C8" s="403"/>
+      <c r="F8" s="403" t="s">
         <v>2300</v>
       </c>
-      <c r="G8" s="397"/>
-      <c r="I8" s="397" t="s">
+      <c r="G8" s="403"/>
+      <c r="I8" s="403" t="s">
         <v>2300</v>
       </c>
-      <c r="J8" s="397"/>
+      <c r="J8" s="403"/>
       <c r="M8" s="189"/>
       <c r="P8" t="s">
         <v>2354</v>
@@ -30876,18 +30936,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="397" t="s">
+      <c r="F9" s="403" t="s">
         <v>2301</v>
       </c>
-      <c r="G9" s="397"/>
-      <c r="I9" s="397" t="s">
+      <c r="G9" s="403"/>
+      <c r="I9" s="403" t="s">
         <v>1726</v>
       </c>
-      <c r="J9" s="397"/>
-      <c r="M9" s="398" t="s">
+      <c r="J9" s="403"/>
+      <c r="M9" s="404" t="s">
         <v>2300</v>
       </c>
-      <c r="N9" s="398"/>
+      <c r="N9" s="404"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30926,19 +30986,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="396" t="s">
+      <c r="E11" s="402" t="s">
         <v>2303</v>
       </c>
-      <c r="F11" s="396"/>
-      <c r="G11" s="396"/>
-      <c r="H11" s="396"/>
-      <c r="I11" s="396"/>
-      <c r="J11" s="396"/>
-      <c r="K11" s="396"/>
-      <c r="L11" s="396"/>
-      <c r="M11" s="396"/>
-      <c r="N11" s="396"/>
-      <c r="O11" s="396"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="402"/>
+      <c r="H11" s="402"/>
+      <c r="I11" s="402"/>
+      <c r="J11" s="402"/>
+      <c r="K11" s="402"/>
+      <c r="L11" s="402"/>
+      <c r="M11" s="402"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="402"/>
       <c r="P11" t="s">
         <v>2356</v>
       </c>
@@ -33921,10 +33981,10 @@
       <c r="O239" s="35"/>
     </row>
     <row r="241" spans="3:13">
-      <c r="C241" s="366" t="s">
+      <c r="C241" s="372" t="s">
         <v>2361</v>
       </c>
-      <c r="D241" s="366"/>
+      <c r="D241" s="372"/>
       <c r="F241" t="s">
         <v>2362</v>
       </c>
@@ -35787,10 +35847,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="399" t="s">
+      <c r="B1" s="405" t="s">
         <v>1806</v>
       </c>
-      <c r="C1" s="399"/>
+      <c r="C1" s="405"/>
       <c r="E1" t="s">
         <v>1807</v>
       </c>
@@ -38238,11 +38298,11 @@
       <c r="B223" t="s">
         <v>1187</v>
       </c>
-      <c r="D223" s="379" t="s">
+      <c r="D223" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="381"/>
-      <c r="F223" s="380"/>
+      <c r="E223" s="392"/>
+      <c r="F223" s="391"/>
       <c r="H223" s="31"/>
       <c r="I223" s="32"/>
       <c r="K223" s="31"/>
@@ -38294,19 +38354,19 @@
       <c r="B227" t="s">
         <v>1410</v>
       </c>
-      <c r="D227" s="379" t="s">
+      <c r="D227" s="390" t="s">
         <v>1209</v>
       </c>
-      <c r="E227" s="381"/>
-      <c r="F227" s="380"/>
-      <c r="H227" s="379" t="s">
+      <c r="E227" s="392"/>
+      <c r="F227" s="391"/>
+      <c r="H227" s="390" t="s">
         <v>1212</v>
       </c>
-      <c r="I227" s="380"/>
-      <c r="K227" s="379" t="s">
+      <c r="I227" s="391"/>
+      <c r="K227" s="390" t="s">
         <v>1211</v>
       </c>
-      <c r="L227" s="380"/>
+      <c r="L227" s="391"/>
     </row>
     <row r="228" spans="2:12">
       <c r="D228" s="31" t="s">
@@ -38553,7 +38613,7 @@
       </c>
     </row>
     <row r="273" spans="2:15">
-      <c r="D273" s="382" t="s">
+      <c r="D273" s="393" t="s">
         <v>1849</v>
       </c>
       <c r="F273" s="136" t="s">
@@ -38561,22 +38621,22 @@
       </c>
     </row>
     <row r="274" spans="2:15">
-      <c r="D274" s="382"/>
+      <c r="D274" s="393"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="D275" s="382"/>
+      <c r="D275" s="393"/>
       <c r="F275" t="s">
         <v>1848</v>
       </c>
     </row>
     <row r="276" spans="2:15">
-      <c r="D276" s="382"/>
+      <c r="D276" s="393"/>
       <c r="K276" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="277" spans="2:15">
-      <c r="D277" s="382"/>
+      <c r="D277" s="393"/>
       <c r="F277" s="136" t="s">
         <v>1410</v>
       </c>
@@ -38591,7 +38651,7 @@
       </c>
     </row>
     <row r="278" spans="2:15">
-      <c r="D278" s="382"/>
+      <c r="D278" s="393"/>
       <c r="I278" t="s">
         <v>1866</v>
       </c>
@@ -38677,14 +38737,14 @@
       <c r="O286" s="32"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="384" t="s">
+      <c r="B287" s="386" t="s">
         <v>1859</v>
       </c>
-      <c r="C287" s="383" t="s">
+      <c r="C287" s="385" t="s">
         <v>1203</v>
       </c>
-      <c r="D287" s="383"/>
-      <c r="E287" s="367"/>
+      <c r="D287" s="385"/>
+      <c r="E287" s="373"/>
       <c r="G287" s="31"/>
       <c r="H287" s="25"/>
       <c r="I287" s="25"/>
@@ -38695,7 +38755,7 @@
       <c r="O287" s="32"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="368"/>
+      <c r="B288" s="374"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25" t="s">
         <v>1114</v>
@@ -38706,7 +38766,7 @@
       </c>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
-      <c r="J288" s="386" t="s">
+      <c r="J288" s="388" t="s">
         <v>1861</v>
       </c>
       <c r="L288" s="31"/>
@@ -38715,7 +38775,7 @@
       <c r="O288" s="32"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="368"/>
+      <c r="B289" s="374"/>
       <c r="C289" s="25" t="s">
         <v>1854</v>
       </c>
@@ -38727,49 +38787,49 @@
       <c r="G289" s="31"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
-      <c r="J289" s="387"/>
+      <c r="J289" s="389"/>
       <c r="L289" s="31" t="s">
         <v>1854</v>
       </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
-      <c r="O289" s="386" t="s">
+      <c r="O289" s="388" t="s">
         <v>1860</v>
       </c>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="368"/>
+      <c r="B290" s="374"/>
       <c r="C290" s="25"/>
       <c r="D290" s="25"/>
       <c r="E290" s="32"/>
-      <c r="G290" s="385" t="s">
+      <c r="G290" s="387" t="s">
         <v>1862</v>
       </c>
-      <c r="H290" s="383"/>
-      <c r="I290" s="383"/>
-      <c r="J290" s="387"/>
+      <c r="H290" s="385"/>
+      <c r="I290" s="385"/>
+      <c r="J290" s="389"/>
       <c r="L290" s="31"/>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
-      <c r="O290" s="387"/>
+      <c r="O290" s="389"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="368"/>
-      <c r="C291" s="383" t="s">
+      <c r="B291" s="374"/>
+      <c r="C291" s="385" t="s">
         <v>1856</v>
       </c>
-      <c r="D291" s="383"/>
-      <c r="E291" s="367"/>
+      <c r="D291" s="385"/>
+      <c r="E291" s="373"/>
       <c r="G291" s="31"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
-      <c r="J291" s="387"/>
-      <c r="L291" s="385" t="s">
+      <c r="J291" s="389"/>
+      <c r="L291" s="387" t="s">
         <v>1857</v>
       </c>
-      <c r="M291" s="383"/>
-      <c r="N291" s="383"/>
-      <c r="O291" s="387"/>
+      <c r="M291" s="385"/>
+      <c r="N291" s="385"/>
+      <c r="O291" s="389"/>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="31"/>
@@ -38783,7 +38843,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="25"/>
       <c r="N292" s="25"/>
-      <c r="O292" s="387"/>
+      <c r="O292" s="389"/>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="31"/>
@@ -39033,6 +39093,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:E287"/>
     <mergeCell ref="C291:E291"/>
     <mergeCell ref="B287:B291"/>
@@ -39040,11 +39105,6 @@
     <mergeCell ref="O289:O292"/>
     <mergeCell ref="J288:J291"/>
     <mergeCell ref="G290:I290"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39276,18 +39336,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="400" t="s">
+      <c r="B3" s="406" t="s">
         <v>1831</v>
       </c>
-      <c r="C3" s="401"/>
-      <c r="D3" s="401"/>
-      <c r="E3" s="401"/>
-      <c r="F3" s="401"/>
-      <c r="G3" s="401"/>
-      <c r="H3" s="401"/>
-      <c r="I3" s="401"/>
-      <c r="J3" s="401"/>
-      <c r="K3" s="402"/>
+      <c r="C3" s="407"/>
+      <c r="D3" s="407"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="407"/>
+      <c r="G3" s="407"/>
+      <c r="H3" s="407"/>
+      <c r="I3" s="407"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="408"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -39402,24 +39462,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="403" t="s">
+      <c r="B15" s="409" t="s">
         <v>1832</v>
       </c>
-      <c r="C15" s="404"/>
-      <c r="D15" s="404"/>
-      <c r="E15" s="404"/>
-      <c r="F15" s="404"/>
-      <c r="G15" s="404"/>
-      <c r="H15" s="404"/>
-      <c r="I15" s="404"/>
-      <c r="J15" s="404"/>
-      <c r="K15" s="404"/>
-      <c r="L15" s="404"/>
-      <c r="M15" s="404"/>
-      <c r="N15" s="404"/>
-      <c r="O15" s="404"/>
-      <c r="P15" s="404"/>
-      <c r="Q15" s="404"/>
+      <c r="C15" s="410"/>
+      <c r="D15" s="410"/>
+      <c r="E15" s="410"/>
+      <c r="F15" s="410"/>
+      <c r="G15" s="410"/>
+      <c r="H15" s="410"/>
+      <c r="I15" s="410"/>
+      <c r="J15" s="410"/>
+      <c r="K15" s="410"/>
+      <c r="L15" s="410"/>
+      <c r="M15" s="410"/>
+      <c r="N15" s="410"/>
+      <c r="O15" s="410"/>
+      <c r="P15" s="410"/>
+      <c r="Q15" s="410"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -40527,28 +40587,28 @@
       </c>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="405">
+      <c r="B47" s="366">
         <v>0</v>
       </c>
-      <c r="C47" s="405">
+      <c r="C47" s="366">
         <v>0</v>
       </c>
-      <c r="D47" s="406">
+      <c r="D47" s="367">
         <v>0</v>
       </c>
-      <c r="E47" s="406">
+      <c r="E47" s="367">
         <v>1</v>
       </c>
-      <c r="F47" s="406">
+      <c r="F47" s="367">
         <v>0</v>
       </c>
-      <c r="G47" s="406">
+      <c r="G47" s="367">
         <v>1</v>
       </c>
-      <c r="H47" s="406">
+      <c r="H47" s="367">
         <v>1</v>
       </c>
-      <c r="I47" s="406">
+      <c r="I47" s="367">
         <v>1</v>
       </c>
       <c r="J47" s="364">
@@ -40559,28 +40619,28 @@
       </c>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="405">
+      <c r="B48" s="366">
         <v>0</v>
       </c>
-      <c r="C48" s="405">
+      <c r="C48" s="366">
         <v>0</v>
       </c>
-      <c r="D48" s="405">
+      <c r="D48" s="366">
         <v>0</v>
       </c>
-      <c r="E48" s="405">
+      <c r="E48" s="366">
         <v>0</v>
       </c>
-      <c r="F48" s="405">
+      <c r="F48" s="366">
         <v>1</v>
       </c>
-      <c r="G48" s="405">
+      <c r="G48" s="366">
         <v>1</v>
       </c>
-      <c r="H48" s="405">
+      <c r="H48" s="366">
         <v>0</v>
       </c>
-      <c r="I48" s="405">
+      <c r="I48" s="366">
         <v>0</v>
       </c>
       <c r="J48" s="364">
@@ -40591,34 +40651,34 @@
       </c>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="409">
+      <c r="B49" s="370">
         <v>0</v>
       </c>
-      <c r="C49" s="409">
+      <c r="C49" s="370">
         <v>0</v>
       </c>
-      <c r="D49" s="409">
+      <c r="D49" s="370">
         <v>0</v>
       </c>
-      <c r="E49" s="409">
+      <c r="E49" s="370">
         <v>0</v>
       </c>
-      <c r="F49" s="409">
+      <c r="F49" s="370">
         <v>0</v>
       </c>
-      <c r="G49" s="409">
+      <c r="G49" s="370">
         <v>1</v>
       </c>
-      <c r="H49" s="409">
+      <c r="H49" s="370">
         <v>0</v>
       </c>
-      <c r="I49" s="409">
+      <c r="I49" s="370">
         <v>0</v>
       </c>
       <c r="J49" s="364" t="s">
         <v>2559</v>
       </c>
-      <c r="K49" s="407">
+      <c r="K49" s="368">
         <v>4</v>
       </c>
       <c r="L49" s="25" t="s">
@@ -40626,28 +40686,28 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="410">
+      <c r="B50" s="371">
         <v>0</v>
       </c>
-      <c r="C50" s="410">
+      <c r="C50" s="371">
         <v>0</v>
       </c>
-      <c r="D50" s="410">
+      <c r="D50" s="371">
         <v>0</v>
       </c>
-      <c r="E50" s="410">
+      <c r="E50" s="371">
         <v>1</v>
       </c>
-      <c r="F50" s="410">
+      <c r="F50" s="371">
         <v>1</v>
       </c>
-      <c r="G50" s="410">
+      <c r="G50" s="371">
         <v>1</v>
       </c>
-      <c r="H50" s="410">
+      <c r="H50" s="371">
         <v>1</v>
       </c>
-      <c r="I50" s="410">
+      <c r="I50" s="371">
         <v>1</v>
       </c>
       <c r="J50" s="25" t="s">
@@ -40770,7 +40830,7 @@
       <c r="J60" s="25" t="s">
         <v>1843</v>
       </c>
-      <c r="K60" s="408" t="s">
+      <c r="K60" s="369" t="s">
         <v>2384</v>
       </c>
     </row>
@@ -41322,7 +41382,7 @@
       </c>
       <c r="I17" s="76"/>
       <c r="J17" s="77"/>
-      <c r="L17" s="388"/>
+      <c r="L17" s="394"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="36" t="s">
@@ -41338,7 +41398,7 @@
       <c r="J18" s="70" t="s">
         <v>1403</v>
       </c>
-      <c r="L18" s="388"/>
+      <c r="L18" s="394"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="36" t="s">
@@ -42098,23 +42158,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="396" t="s">
         <v>1544</v>
       </c>
-      <c r="B1" s="390"/>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
-      <c r="E1" s="390"/>
-      <c r="F1" s="390"/>
-      <c r="I1" s="390" t="s">
+      <c r="B1" s="396"/>
+      <c r="C1" s="396"/>
+      <c r="D1" s="396"/>
+      <c r="E1" s="396"/>
+      <c r="F1" s="396"/>
+      <c r="I1" s="396" t="s">
         <v>1554</v>
       </c>
-      <c r="J1" s="390"/>
-      <c r="K1" s="390"/>
-      <c r="L1" s="390"/>
-      <c r="M1" s="390"/>
-      <c r="N1" s="390"/>
-      <c r="O1" s="390"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="396"/>
+      <c r="L1" s="396"/>
+      <c r="M1" s="396"/>
+      <c r="N1" s="396"/>
+      <c r="O1" s="396"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -42264,28 +42324,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="375" t="s">
+      <c r="A12" s="381" t="s">
         <v>1556</v>
       </c>
-      <c r="B12" s="389"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="389"/>
-      <c r="E12" s="389"/>
-      <c r="F12" s="389"/>
-      <c r="G12" s="389"/>
-      <c r="H12" s="376"/>
-      <c r="I12" s="375" t="s">
+      <c r="B12" s="395"/>
+      <c r="C12" s="395"/>
+      <c r="D12" s="395"/>
+      <c r="E12" s="395"/>
+      <c r="F12" s="395"/>
+      <c r="G12" s="395"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="381" t="s">
         <v>1556</v>
       </c>
-      <c r="J12" s="389"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="389"/>
-      <c r="M12" s="389"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="389"/>
-      <c r="Q12" s="389"/>
-      <c r="R12" s="376"/>
+      <c r="J12" s="395"/>
+      <c r="K12" s="395"/>
+      <c r="L12" s="395"/>
+      <c r="M12" s="395"/>
+      <c r="N12" s="395"/>
+      <c r="O12" s="395"/>
+      <c r="P12" s="395"/>
+      <c r="Q12" s="395"/>
+      <c r="R12" s="382"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -42513,14 +42573,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="390" t="s">
+      <c r="A24" s="396" t="s">
         <v>1544</v>
       </c>
-      <c r="B24" s="390"/>
-      <c r="C24" s="390"/>
-      <c r="D24" s="390"/>
-      <c r="E24" s="390"/>
-      <c r="F24" s="390"/>
+      <c r="B24" s="396"/>
+      <c r="C24" s="396"/>
+      <c r="D24" s="396"/>
+      <c r="E24" s="396"/>
+      <c r="F24" s="396"/>
       <c r="H24" s="200" t="s">
         <v>1554</v>
       </c>
@@ -42530,11 +42590,11 @@
       <c r="L24" s="200"/>
       <c r="M24" s="200"/>
       <c r="N24" s="200"/>
-      <c r="P24" s="390" t="s">
+      <c r="P24" s="396" t="s">
         <v>1592</v>
       </c>
-      <c r="Q24" s="390"/>
-      <c r="R24" s="390"/>
+      <c r="Q24" s="396"/>
+      <c r="R24" s="396"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -42774,28 +42834,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="375" t="s">
+      <c r="A35" s="381" t="s">
         <v>1593</v>
       </c>
-      <c r="B35" s="389"/>
-      <c r="C35" s="389"/>
-      <c r="D35" s="389"/>
-      <c r="E35" s="389"/>
-      <c r="F35" s="389"/>
-      <c r="G35" s="389"/>
-      <c r="H35" s="376"/>
-      <c r="I35" s="375" t="s">
+      <c r="B35" s="395"/>
+      <c r="C35" s="395"/>
+      <c r="D35" s="395"/>
+      <c r="E35" s="395"/>
+      <c r="F35" s="395"/>
+      <c r="G35" s="395"/>
+      <c r="H35" s="382"/>
+      <c r="I35" s="381" t="s">
         <v>693</v>
       </c>
-      <c r="J35" s="389"/>
-      <c r="K35" s="389"/>
-      <c r="L35" s="389"/>
-      <c r="M35" s="389"/>
-      <c r="N35" s="389"/>
-      <c r="O35" s="389"/>
-      <c r="P35" s="389"/>
-      <c r="Q35" s="389"/>
-      <c r="R35" s="376"/>
+      <c r="J35" s="395"/>
+      <c r="K35" s="395"/>
+      <c r="L35" s="395"/>
+      <c r="M35" s="395"/>
+      <c r="N35" s="395"/>
+      <c r="O35" s="395"/>
+      <c r="P35" s="395"/>
+      <c r="Q35" s="395"/>
+      <c r="R35" s="382"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -8660,7 +8660,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="449">
+  <cellXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9441,6 +9441,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9505,6 +9515,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9512,9 +9528,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9524,9 +9537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9553,13 +9563,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9857,7 +9860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:M33"/>
     </sheetView>
   </sheetViews>
@@ -9902,13 +9905,13 @@
       </c>
     </row>
     <row r="3" spans="4:18" ht="15.75" thickBot="1">
-      <c r="H3" s="409" t="s">
+      <c r="H3" s="417" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="410"/>
-      <c r="J3" s="410"/>
-      <c r="K3" s="410"/>
-      <c r="L3" s="411"/>
+      <c r="I3" s="418"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="419"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="4:18" ht="15.75" thickBot="1">
@@ -9934,20 +9937,20 @@
       <c r="F6" s="4" t="s">
         <v>1891</v>
       </c>
-      <c r="G6" s="412" t="s">
+      <c r="G6" s="420" t="s">
         <v>1284</v>
       </c>
-      <c r="H6" s="413"/>
+      <c r="H6" s="421"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="412" t="s">
+      <c r="J6" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="413"/>
+      <c r="K6" s="421"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="412" t="s">
+      <c r="M6" s="420" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="413"/>
+      <c r="N6" s="421"/>
     </row>
     <row r="7" spans="4:18" ht="15.75" thickBot="1">
       <c r="D7" s="103" t="s">
@@ -9972,20 +9975,20 @@
       <c r="F8" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="G8" s="414" t="s">
+      <c r="G8" s="422" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="415"/>
+      <c r="H8" s="423"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="414" t="s">
+      <c r="J8" s="422" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="415"/>
+      <c r="K8" s="423"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="414" t="s">
+      <c r="M8" s="422" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="415"/>
+      <c r="N8" s="423"/>
       <c r="Q8" s="119"/>
     </row>
     <row r="9" spans="4:18">
@@ -10008,29 +10011,29 @@
       </c>
     </row>
     <row r="10" spans="4:18">
-      <c r="F10" s="405" t="s">
+      <c r="F10" s="413" t="s">
         <v>1903</v>
       </c>
-      <c r="G10" s="406"/>
-      <c r="H10" s="406"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="406"/>
-      <c r="K10" s="406"/>
-      <c r="L10" s="406"/>
-      <c r="M10" s="406"/>
-      <c r="N10" s="406"/>
+      <c r="G10" s="414"/>
+      <c r="H10" s="414"/>
+      <c r="I10" s="414"/>
+      <c r="J10" s="414"/>
+      <c r="K10" s="414"/>
+      <c r="L10" s="414"/>
+      <c r="M10" s="414"/>
+      <c r="N10" s="414"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="4:18" ht="15.75" thickBot="1">
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" s="408"/>
-      <c r="I11" s="408"/>
-      <c r="J11" s="408"/>
-      <c r="K11" s="408"/>
-      <c r="L11" s="408"/>
-      <c r="M11" s="408"/>
-      <c r="N11" s="408"/>
+      <c r="F11" s="415"/>
+      <c r="G11" s="416"/>
+      <c r="H11" s="416"/>
+      <c r="I11" s="416"/>
+      <c r="J11" s="416"/>
+      <c r="K11" s="416"/>
+      <c r="L11" s="416"/>
+      <c r="M11" s="416"/>
+      <c r="N11" s="416"/>
       <c r="O11" t="s">
         <v>2472</v>
       </c>
@@ -10305,8 +10308,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="403"/>
-      <c r="E23" s="404"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="412"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -10361,7 +10364,7 @@
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="442"/>
+      <c r="K27" s="404"/>
       <c r="Q27">
         <v>10101</v>
       </c>
@@ -20520,34 +20523,34 @@
       <c r="E10" t="s">
         <v>2402</v>
       </c>
-      <c r="G10" s="416" t="s">
+      <c r="G10" s="424" t="s">
         <v>2409</v>
       </c>
-      <c r="H10" s="417"/>
-      <c r="I10" s="418"/>
+      <c r="H10" s="425"/>
+      <c r="I10" s="426"/>
       <c r="K10" s="28" t="s">
         <v>2419</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="419"/>
-      <c r="H11" s="420"/>
-      <c r="I11" s="421"/>
+      <c r="G11" s="427"/>
+      <c r="H11" s="428"/>
+      <c r="I11" s="429"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="419"/>
-      <c r="H12" s="420"/>
-      <c r="I12" s="421"/>
+      <c r="G12" s="427"/>
+      <c r="H12" s="428"/>
+      <c r="I12" s="429"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="422"/>
-      <c r="H13" s="423"/>
-      <c r="I13" s="424"/>
+      <c r="G13" s="430"/>
+      <c r="H13" s="431"/>
+      <c r="I13" s="432"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
@@ -21476,7 +21479,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="285"/>
-      <c r="L3" s="429" t="s">
+      <c r="L3" s="438" t="s">
         <v>1683</v>
       </c>
       <c r="M3" s="172"/>
@@ -21498,7 +21501,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="430"/>
+      <c r="L4" s="439"/>
       <c r="M4" s="172"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21518,12 +21521,12 @@
       <c r="K5" s="286" t="s">
         <v>1682</v>
       </c>
-      <c r="L5" s="430"/>
+      <c r="L5" s="439"/>
       <c r="M5" s="172"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="189"/>
-      <c r="L6" s="430"/>
+      <c r="L6" s="439"/>
       <c r="M6" s="172"/>
     </row>
     <row r="7" spans="1:13">
@@ -21536,7 +21539,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="285"/>
-      <c r="L7" s="430"/>
+      <c r="L7" s="439"/>
       <c r="M7" s="172"/>
     </row>
     <row r="8" spans="1:13">
@@ -21554,7 +21557,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="430"/>
+      <c r="L8" s="439"/>
       <c r="M8" s="172"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21568,7 +21571,7 @@
       <c r="K9" s="267" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="430"/>
+      <c r="L9" s="439"/>
       <c r="M9" s="172"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21576,7 +21579,7 @@
         <v>1666</v>
       </c>
       <c r="F10" s="189"/>
-      <c r="L10" s="430"/>
+      <c r="L10" s="439"/>
       <c r="M10" s="172"/>
     </row>
     <row r="11" spans="1:13">
@@ -21589,7 +21592,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="285"/>
-      <c r="L11" s="430"/>
+      <c r="L11" s="439"/>
       <c r="M11" s="172"/>
     </row>
     <row r="12" spans="1:13">
@@ -21603,7 +21606,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="430"/>
+      <c r="L12" s="439"/>
       <c r="M12" s="172"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21620,7 +21623,7 @@
       <c r="K13" s="267" t="s">
         <v>257</v>
       </c>
-      <c r="L13" s="431"/>
+      <c r="L13" s="440"/>
       <c r="M13" s="172"/>
     </row>
     <row r="14" spans="1:13">
@@ -21642,10 +21645,10 @@
       <c r="D15" s="262"/>
       <c r="E15" s="262"/>
       <c r="F15" s="189"/>
-      <c r="J15" s="432" t="s">
+      <c r="J15" s="433" t="s">
         <v>1672</v>
       </c>
-      <c r="K15" s="432"/>
+      <c r="K15" s="433"/>
       <c r="L15" s="69" t="s">
         <v>599</v>
       </c>
@@ -21665,8 +21668,8 @@
       <c r="G16" s="96" t="s">
         <v>1674</v>
       </c>
-      <c r="J16" s="432"/>
-      <c r="K16" s="432"/>
+      <c r="J16" s="433"/>
+      <c r="K16" s="433"/>
       <c r="L16" s="69" t="s">
         <v>57</v>
       </c>
@@ -21744,48 +21747,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="428"/>
+      <c r="K22" s="434"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="425"/>
+      <c r="K23" s="435"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="425"/>
+      <c r="K24" s="435"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="425"/>
+      <c r="K25" s="435"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="425"/>
+      <c r="K26" s="435"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="425"/>
+      <c r="K27" s="435"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="425"/>
+      <c r="K28" s="435"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="425"/>
+      <c r="K29" s="435"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="425"/>
+      <c r="K30" s="435"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="425"/>
+      <c r="K31" s="435"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="425"/>
+      <c r="K32" s="435"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="282"/>
@@ -30527,18 +30530,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="434" t="s">
+      <c r="B8" s="442" t="s">
         <v>1829</v>
       </c>
-      <c r="C8" s="434"/>
-      <c r="F8" s="434" t="s">
+      <c r="C8" s="442"/>
+      <c r="F8" s="442" t="s">
         <v>1830</v>
       </c>
-      <c r="G8" s="434"/>
-      <c r="I8" s="434" t="s">
+      <c r="G8" s="442"/>
+      <c r="I8" s="442" t="s">
         <v>1830</v>
       </c>
-      <c r="J8" s="434"/>
+      <c r="J8" s="442"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="O8" t="s">
@@ -30564,18 +30567,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="434" t="s">
+      <c r="F9" s="442" t="s">
         <v>1831</v>
       </c>
-      <c r="G9" s="434"/>
-      <c r="I9" s="434" t="s">
+      <c r="G9" s="442"/>
+      <c r="I9" s="442" t="s">
         <v>1364</v>
       </c>
-      <c r="J9" s="434"/>
-      <c r="M9" s="435" t="s">
+      <c r="J9" s="442"/>
+      <c r="M9" s="443" t="s">
         <v>1830</v>
       </c>
-      <c r="N9" s="435"/>
+      <c r="N9" s="443"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30611,19 +30614,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="433" t="s">
+      <c r="E11" s="441" t="s">
         <v>1833</v>
       </c>
-      <c r="F11" s="433"/>
-      <c r="G11" s="433"/>
-      <c r="H11" s="433"/>
-      <c r="I11" s="433"/>
-      <c r="J11" s="433"/>
-      <c r="K11" s="433"/>
-      <c r="L11" s="433"/>
-      <c r="M11" s="433"/>
-      <c r="N11" s="433"/>
-      <c r="O11" s="433"/>
+      <c r="F11" s="441"/>
+      <c r="G11" s="441"/>
+      <c r="H11" s="441"/>
+      <c r="I11" s="441"/>
+      <c r="J11" s="441"/>
+      <c r="K11" s="441"/>
+      <c r="L11" s="441"/>
+      <c r="M11" s="441"/>
+      <c r="N11" s="441"/>
+      <c r="O11" s="441"/>
       <c r="R11" t="s">
         <v>2392</v>
       </c>
@@ -33686,10 +33689,10 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="403" t="s">
+      <c r="C241" s="411" t="s">
         <v>1871</v>
       </c>
-      <c r="D241" s="403"/>
+      <c r="D241" s="411"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -37395,10 +37398,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="436" t="s">
+      <c r="B1" s="444" t="s">
         <v>1432</v>
       </c>
-      <c r="C1" s="436"/>
+      <c r="C1" s="444"/>
       <c r="E1" t="s">
         <v>1433</v>
       </c>
@@ -38820,18 +38823,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="437" t="s">
+      <c r="B3" s="445" t="s">
         <v>1457</v>
       </c>
-      <c r="C3" s="438"/>
-      <c r="D3" s="438"/>
-      <c r="E3" s="438"/>
-      <c r="F3" s="438"/>
-      <c r="G3" s="438"/>
-      <c r="H3" s="438"/>
-      <c r="I3" s="438"/>
-      <c r="J3" s="438"/>
-      <c r="K3" s="439"/>
+      <c r="C3" s="446"/>
+      <c r="D3" s="446"/>
+      <c r="E3" s="446"/>
+      <c r="F3" s="446"/>
+      <c r="G3" s="446"/>
+      <c r="H3" s="446"/>
+      <c r="I3" s="446"/>
+      <c r="J3" s="446"/>
+      <c r="K3" s="447"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -38946,24 +38949,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="440" t="s">
+      <c r="B15" s="448" t="s">
         <v>1458</v>
       </c>
-      <c r="C15" s="441"/>
-      <c r="D15" s="441"/>
-      <c r="E15" s="441"/>
-      <c r="F15" s="441"/>
-      <c r="G15" s="441"/>
-      <c r="H15" s="441"/>
-      <c r="I15" s="441"/>
-      <c r="J15" s="441"/>
-      <c r="K15" s="441"/>
-      <c r="L15" s="441"/>
-      <c r="M15" s="441"/>
-      <c r="N15" s="441"/>
-      <c r="O15" s="441"/>
-      <c r="P15" s="441"/>
-      <c r="Q15" s="441"/>
+      <c r="C15" s="449"/>
+      <c r="D15" s="449"/>
+      <c r="E15" s="449"/>
+      <c r="F15" s="449"/>
+      <c r="G15" s="449"/>
+      <c r="H15" s="449"/>
+      <c r="I15" s="449"/>
+      <c r="J15" s="449"/>
+      <c r="K15" s="449"/>
+      <c r="L15" s="449"/>
+      <c r="M15" s="449"/>
+      <c r="N15" s="449"/>
+      <c r="O15" s="449"/>
+      <c r="P15" s="449"/>
+      <c r="Q15" s="449"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -39263,28 +39266,28 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:16">
-      <c r="B3" s="445" t="s">
+      <c r="B3" s="407" t="s">
         <v>917</v>
       </c>
       <c r="C3" s="76" t="s">
         <v>1294</v>
       </c>
       <c r="D3" s="77"/>
-      <c r="F3" s="445" t="s">
+      <c r="F3" s="407" t="s">
         <v>918</v>
       </c>
       <c r="G3" s="76" t="s">
         <v>1149</v>
       </c>
       <c r="H3" s="77"/>
-      <c r="J3" s="445" t="s">
+      <c r="J3" s="407" t="s">
         <v>918</v>
       </c>
       <c r="K3" s="76" t="s">
         <v>2312</v>
       </c>
       <c r="L3" s="77"/>
-      <c r="N3" s="445" t="s">
+      <c r="N3" s="407" t="s">
         <v>918</v>
       </c>
       <c r="O3" s="76" t="s">
@@ -39386,7 +39389,7 @@
       <c r="D10" s="70"/>
       <c r="F10" s="78"/>
       <c r="H10" s="70"/>
-      <c r="J10" s="443"/>
+      <c r="J10" s="405"/>
       <c r="L10" s="70"/>
       <c r="N10" s="78"/>
       <c r="P10" s="70"/>
@@ -39425,7 +39428,7 @@
         <v>2486</v>
       </c>
       <c r="D13" s="70"/>
-      <c r="F13" s="443"/>
+      <c r="F13" s="405"/>
       <c r="G13" s="261" t="s">
         <v>2486</v>
       </c>
@@ -39435,7 +39438,7 @@
       <c r="K13" s="261" t="s">
         <v>2486</v>
       </c>
-      <c r="L13" s="444"/>
+      <c r="L13" s="406"/>
       <c r="N13" s="78"/>
       <c r="O13" s="261" t="s">
         <v>2486</v>
@@ -39458,36 +39461,36 @@
     <row r="15" spans="1:16" ht="15.75" thickBot="1">
       <c r="B15" s="78"/>
       <c r="D15" s="70"/>
-      <c r="F15" s="443"/>
+      <c r="F15" s="405"/>
       <c r="G15" s="330"/>
       <c r="H15" s="70"/>
       <c r="I15" s="330"/>
       <c r="J15" s="78"/>
-      <c r="L15" s="444"/>
+      <c r="L15" s="406"/>
       <c r="N15" s="78"/>
       <c r="P15" s="70"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B16" s="446" t="s">
+      <c r="B16" s="408" t="s">
         <v>2492</v>
       </c>
-      <c r="C16" s="447"/>
-      <c r="D16" s="448"/>
-      <c r="F16" s="446" t="s">
+      <c r="C16" s="409"/>
+      <c r="D16" s="410"/>
+      <c r="F16" s="408" t="s">
         <v>2493</v>
       </c>
-      <c r="G16" s="447"/>
-      <c r="H16" s="448"/>
-      <c r="J16" s="446" t="s">
+      <c r="G16" s="409"/>
+      <c r="H16" s="410"/>
+      <c r="J16" s="408" t="s">
         <v>2494</v>
       </c>
-      <c r="K16" s="447"/>
-      <c r="L16" s="448"/>
-      <c r="N16" s="446" t="s">
+      <c r="K16" s="409"/>
+      <c r="L16" s="410"/>
+      <c r="N16" s="408" t="s">
         <v>2492</v>
       </c>
-      <c r="O16" s="447"/>
-      <c r="P16" s="448"/>
+      <c r="O16" s="409"/>
+      <c r="P16" s="410"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="75" t="s">
@@ -39863,75 +39866,80 @@
       <c r="M214" s="401"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="432"/>
-      <c r="E223" s="432"/>
+      <c r="D223" s="433"/>
+      <c r="E223" s="433"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="432"/>
-      <c r="E227" s="432"/>
-      <c r="G227" s="432"/>
-      <c r="H227" s="432"/>
-      <c r="J227" s="432"/>
-      <c r="K227" s="432"/>
+      <c r="D227" s="433"/>
+      <c r="E227" s="433"/>
+      <c r="G227" s="433"/>
+      <c r="H227" s="433"/>
+      <c r="J227" s="433"/>
+      <c r="K227" s="433"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="425"/>
+      <c r="D273" s="435"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="425"/>
+      <c r="D274" s="435"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="425"/>
+      <c r="D275" s="435"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="425"/>
+      <c r="D276" s="435"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="425"/>
+      <c r="D277" s="435"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="425"/>
+      <c r="D278" s="435"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="428"/>
-      <c r="C287" s="432"/>
-      <c r="D287" s="432"/>
+      <c r="B287" s="434"/>
+      <c r="C287" s="433"/>
+      <c r="D287" s="433"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="425"/>
-      <c r="I288" s="428"/>
+      <c r="B288" s="435"/>
+      <c r="I288" s="434"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="425"/>
-      <c r="I289" s="425"/>
-      <c r="N289" s="428"/>
+      <c r="B289" s="435"/>
+      <c r="I289" s="435"/>
+      <c r="N289" s="434"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="425"/>
-      <c r="F290" s="432"/>
-      <c r="G290" s="432"/>
-      <c r="H290" s="432"/>
-      <c r="I290" s="425"/>
-      <c r="N290" s="425"/>
+      <c r="B290" s="435"/>
+      <c r="F290" s="433"/>
+      <c r="G290" s="433"/>
+      <c r="H290" s="433"/>
+      <c r="I290" s="435"/>
+      <c r="N290" s="435"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="425"/>
-      <c r="C291" s="432"/>
-      <c r="D291" s="432"/>
-      <c r="I291" s="425"/>
-      <c r="K291" s="432"/>
-      <c r="L291" s="432"/>
-      <c r="M291" s="432"/>
-      <c r="N291" s="425"/>
+      <c r="B291" s="435"/>
+      <c r="C291" s="433"/>
+      <c r="D291" s="433"/>
+      <c r="I291" s="435"/>
+      <c r="K291" s="433"/>
+      <c r="L291" s="433"/>
+      <c r="M291" s="433"/>
+      <c r="N291" s="435"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="425"/>
+      <c r="N292" s="435"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -39939,11 +39947,6 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41576,7 +41579,7 @@
       </c>
       <c r="I17" s="76"/>
       <c r="J17" s="77"/>
-      <c r="L17" s="425"/>
+      <c r="L17" s="435"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="36" t="s">
@@ -41592,7 +41595,7 @@
       <c r="J18" s="70" t="s">
         <v>1092</v>
       </c>
-      <c r="L18" s="425"/>
+      <c r="L18" s="435"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="36" t="s">
@@ -42332,8 +42335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T407"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102:K109"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42352,23 +42355,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="427" t="s">
+      <c r="A1" s="437" t="s">
         <v>1202</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
-      <c r="I1" s="427" t="s">
+      <c r="B1" s="437"/>
+      <c r="C1" s="437"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="437"/>
+      <c r="I1" s="437" t="s">
         <v>1212</v>
       </c>
-      <c r="J1" s="427"/>
-      <c r="K1" s="427"/>
-      <c r="L1" s="427"/>
-      <c r="M1" s="427"/>
-      <c r="N1" s="427"/>
-      <c r="O1" s="427"/>
+      <c r="J1" s="437"/>
+      <c r="K1" s="437"/>
+      <c r="L1" s="437"/>
+      <c r="M1" s="437"/>
+      <c r="N1" s="437"/>
+      <c r="O1" s="437"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -42439,10 +42442,10 @@
       <c r="K6" s="130" t="s">
         <v>1206</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="403" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="403" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -42457,10 +42460,10 @@
       <c r="K7" s="192" t="s">
         <v>1208</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="403" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="403" t="s">
         <v>130</v>
       </c>
     </row>
@@ -42485,10 +42488,10 @@
       <c r="K9" s="60" t="s">
         <v>1209</v>
       </c>
-      <c r="L9" s="53" t="s">
+      <c r="L9" s="403" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="403" t="s">
         <v>1210</v>
       </c>
       <c r="N9" s="130" t="s">
@@ -42500,7 +42503,7 @@
       <c r="P9" s="211" t="s">
         <v>1309</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="403" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -42518,28 +42521,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="412" t="s">
+      <c r="A12" s="420" t="s">
         <v>1214</v>
       </c>
-      <c r="B12" s="426"/>
-      <c r="C12" s="426"/>
-      <c r="D12" s="426"/>
-      <c r="E12" s="426"/>
-      <c r="F12" s="426"/>
-      <c r="G12" s="426"/>
-      <c r="H12" s="413"/>
-      <c r="I12" s="412" t="s">
+      <c r="B12" s="436"/>
+      <c r="C12" s="436"/>
+      <c r="D12" s="436"/>
+      <c r="E12" s="436"/>
+      <c r="F12" s="436"/>
+      <c r="G12" s="436"/>
+      <c r="H12" s="421"/>
+      <c r="I12" s="420" t="s">
         <v>1214</v>
       </c>
-      <c r="J12" s="426"/>
-      <c r="K12" s="426"/>
-      <c r="L12" s="426"/>
-      <c r="M12" s="426"/>
-      <c r="N12" s="426"/>
-      <c r="O12" s="426"/>
-      <c r="P12" s="426"/>
-      <c r="Q12" s="426"/>
-      <c r="R12" s="413"/>
+      <c r="J12" s="436"/>
+      <c r="K12" s="436"/>
+      <c r="L12" s="436"/>
+      <c r="M12" s="436"/>
+      <c r="N12" s="436"/>
+      <c r="O12" s="436"/>
+      <c r="P12" s="436"/>
+      <c r="Q12" s="436"/>
+      <c r="R12" s="421"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -42767,14 +42770,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="427" t="s">
+      <c r="A24" s="437" t="s">
         <v>1202</v>
       </c>
-      <c r="B24" s="427"/>
-      <c r="C24" s="427"/>
-      <c r="D24" s="427"/>
-      <c r="E24" s="427"/>
-      <c r="F24" s="427"/>
+      <c r="B24" s="437"/>
+      <c r="C24" s="437"/>
+      <c r="D24" s="437"/>
+      <c r="E24" s="437"/>
+      <c r="F24" s="437"/>
       <c r="H24" s="197" t="s">
         <v>1212</v>
       </c>
@@ -42784,11 +42787,11 @@
       <c r="L24" s="197"/>
       <c r="M24" s="197"/>
       <c r="N24" s="197"/>
-      <c r="P24" s="427" t="s">
+      <c r="P24" s="437" t="s">
         <v>1250</v>
       </c>
-      <c r="Q24" s="427"/>
-      <c r="R24" s="427"/>
+      <c r="Q24" s="437"/>
+      <c r="R24" s="437"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -43028,28 +43031,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="412" t="s">
+      <c r="A35" s="420" t="s">
         <v>1251</v>
       </c>
-      <c r="B35" s="426"/>
-      <c r="C35" s="426"/>
-      <c r="D35" s="426"/>
-      <c r="E35" s="426"/>
-      <c r="F35" s="426"/>
-      <c r="G35" s="426"/>
-      <c r="H35" s="413"/>
-      <c r="I35" s="412" t="s">
+      <c r="B35" s="436"/>
+      <c r="C35" s="436"/>
+      <c r="D35" s="436"/>
+      <c r="E35" s="436"/>
+      <c r="F35" s="436"/>
+      <c r="G35" s="436"/>
+      <c r="H35" s="421"/>
+      <c r="I35" s="420" t="s">
         <v>603</v>
       </c>
-      <c r="J35" s="426"/>
-      <c r="K35" s="426"/>
-      <c r="L35" s="426"/>
-      <c r="M35" s="426"/>
-      <c r="N35" s="426"/>
-      <c r="O35" s="426"/>
-      <c r="P35" s="426"/>
-      <c r="Q35" s="426"/>
-      <c r="R35" s="413"/>
+      <c r="J35" s="436"/>
+      <c r="K35" s="436"/>
+      <c r="L35" s="436"/>
+      <c r="M35" s="436"/>
+      <c r="N35" s="436"/>
+      <c r="O35" s="436"/>
+      <c r="P35" s="436"/>
+      <c r="Q35" s="436"/>
+      <c r="R35" s="421"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="2476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="2478">
   <si>
     <t>USER</t>
   </si>
@@ -6093,9 +6093,6 @@
     <t>asdsadasd</t>
   </si>
   <si>
-    <t>23 &amp; 12</t>
-  </si>
-  <si>
     <t>true &amp; true = true</t>
   </si>
   <si>
@@ -6120,9 +6117,6 @@
     <t>0 &amp; 0 = 0</t>
   </si>
   <si>
-    <t>23 | 12</t>
-  </si>
-  <si>
     <t>true or true = true</t>
   </si>
   <si>
@@ -6145,9 +6139,6 @@
   </si>
   <si>
     <t>0 or 0 = 0</t>
-  </si>
-  <si>
-    <t>23 ^ 12</t>
   </si>
   <si>
     <t>ex-or</t>
@@ -7985,6 +7976,21 @@
   </si>
   <si>
     <t>p3=#abc c=20</t>
+  </si>
+  <si>
+    <t>remainde</t>
+  </si>
+  <si>
+    <t>modulos</t>
+  </si>
+  <si>
+    <t>21 &amp; 7</t>
+  </si>
+  <si>
+    <t>21 | 7</t>
+  </si>
+  <si>
+    <t>21 ^ 7</t>
   </si>
 </sst>
 </file>
@@ -9473,6 +9479,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9543,10 +9553,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9594,10 +9604,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9913,7 +9919,7 @@
   <sheetData>
     <row r="1" spans="4:18" ht="15.75" thickBot="1">
       <c r="E1" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="F1" s="236" t="s">
         <v>19</v>
@@ -9936,22 +9942,22 @@
     </row>
     <row r="2" spans="4:18" ht="15.75" thickBot="1">
       <c r="E2" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="3" spans="4:18" ht="15.75" thickBot="1">
-      <c r="H3" s="417" t="s">
+      <c r="H3" s="421" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="418"/>
-      <c r="J3" s="418"/>
-      <c r="K3" s="418"/>
-      <c r="L3" s="419"/>
+      <c r="I3" s="422"/>
+      <c r="J3" s="422"/>
+      <c r="K3" s="422"/>
+      <c r="L3" s="423"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="4:18" ht="15.75" thickBot="1">
       <c r="E5" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
@@ -9967,25 +9973,25 @@
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1">
       <c r="E6" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="G6" s="420" t="s">
+      <c r="G6" s="424" t="s">
         <v>1221</v>
       </c>
-      <c r="H6" s="421"/>
+      <c r="H6" s="425"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="420" t="s">
+      <c r="J6" s="424" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="421"/>
+      <c r="K6" s="425"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="420" t="s">
+      <c r="M6" s="424" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="421"/>
+      <c r="N6" s="425"/>
     </row>
     <row r="7" spans="4:18" ht="15.75" thickBot="1">
       <c r="D7" s="103" t="s">
@@ -10010,20 +10016,20 @@
       <c r="F8" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="G8" s="422" t="s">
+      <c r="G8" s="426" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="423"/>
+      <c r="H8" s="427"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="422" t="s">
+      <c r="J8" s="426" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="423"/>
+      <c r="K8" s="427"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="422" t="s">
+      <c r="M8" s="426" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="423"/>
+      <c r="N8" s="427"/>
       <c r="Q8" s="119"/>
     </row>
     <row r="9" spans="4:18">
@@ -10042,41 +10048,41 @@
         <v>811</v>
       </c>
       <c r="Q9" s="119" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="10" spans="4:18">
-      <c r="F10" s="413" t="s">
+      <c r="F10" s="417" t="s">
         <v>1840</v>
       </c>
-      <c r="G10" s="414"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="414"/>
-      <c r="J10" s="414"/>
-      <c r="K10" s="414"/>
-      <c r="L10" s="414"/>
-      <c r="M10" s="414"/>
-      <c r="N10" s="414"/>
+      <c r="G10" s="418"/>
+      <c r="H10" s="418"/>
+      <c r="I10" s="418"/>
+      <c r="J10" s="418"/>
+      <c r="K10" s="418"/>
+      <c r="L10" s="418"/>
+      <c r="M10" s="418"/>
+      <c r="N10" s="418"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="4:18" ht="15.75" thickBot="1">
-      <c r="F11" s="415"/>
-      <c r="G11" s="416"/>
-      <c r="H11" s="416"/>
-      <c r="I11" s="416"/>
-      <c r="J11" s="416"/>
-      <c r="K11" s="416"/>
-      <c r="L11" s="416"/>
-      <c r="M11" s="416"/>
-      <c r="N11" s="416"/>
+      <c r="F11" s="419"/>
+      <c r="G11" s="420"/>
+      <c r="H11" s="420"/>
+      <c r="I11" s="420"/>
+      <c r="J11" s="420"/>
+      <c r="K11" s="420"/>
+      <c r="L11" s="420"/>
+      <c r="M11" s="420"/>
+      <c r="N11" s="420"/>
       <c r="O11" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="P11" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="Q11" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="12" spans="4:18">
@@ -10095,7 +10101,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="9"/>
       <c r="P12" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="13" spans="4:18" ht="15.75" thickBot="1">
@@ -10116,7 +10122,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="12"/>
       <c r="O13" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="14" spans="4:18">
@@ -10185,15 +10191,15 @@
         <v>665</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="18"/>
       <c r="P17" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="T17" s="132" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -10213,17 +10219,17 @@
       </c>
       <c r="N18" s="18"/>
       <c r="P18" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="Q18" s="119"/>
       <c r="T18" t="s">
         <v>1251</v>
       </c>
       <c r="V18" t="s">
+        <v>2299</v>
+      </c>
+      <c r="X18" t="s">
         <v>2302</v>
-      </c>
-      <c r="X18" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -10248,16 +10254,16 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="P19" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="Q19" s="132" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="V19" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="X19" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1">
@@ -10268,10 +10274,10 @@
       </c>
       <c r="I20" s="231"/>
       <c r="J20" s="16" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17" t="s">
@@ -10279,19 +10285,19 @@
       </c>
       <c r="N20" s="18"/>
       <c r="P20" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="Q20" s="119" t="s">
         <v>1224</v>
       </c>
       <c r="R20" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="V20" t="s">
         <v>1830</v>
       </c>
       <c r="X20" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -10300,10 +10306,10 @@
       <c r="H21" s="231"/>
       <c r="I21" s="231"/>
       <c r="J21" s="16" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17" t="s">
@@ -10311,13 +10317,13 @@
       </c>
       <c r="N21" s="18"/>
       <c r="P21" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="Q21" t="s">
+        <v>2285</v>
+      </c>
+      <c r="R21" t="s">
         <v>2288</v>
-      </c>
-      <c r="R21" t="s">
-        <v>2291</v>
       </c>
       <c r="V21" t="s">
         <v>1828</v>
@@ -10342,7 +10348,7 @@
         <v>41</v>
       </c>
       <c r="Q22" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="S22">
         <v>10101111</v>
@@ -10351,12 +10357,12 @@
         <v>1827</v>
       </c>
       <c r="X22" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="411"/>
-      <c r="E23" s="412"/>
+      <c r="D23" s="415"/>
+      <c r="E23" s="416"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -10373,10 +10379,10 @@
         <v>1824</v>
       </c>
       <c r="V23" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="X23" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -10385,19 +10391,19 @@
       <c r="E25" s="235"/>
       <c r="F25" s="235"/>
       <c r="H25" s="10" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="P25" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -10419,7 +10425,7 @@
         <v>111000</v>
       </c>
       <c r="T27" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="U27">
         <v>72</v>
@@ -10440,13 +10446,13 @@
         <v>1135</v>
       </c>
       <c r="O28" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="Q28" t="s">
         <v>1823</v>
       </c>
       <c r="R28" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="T28" t="s">
         <v>802</v>
@@ -10467,13 +10473,13 @@
         <v>1831</v>
       </c>
       <c r="O29" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="Q29" t="s">
         <v>1825</v>
       </c>
       <c r="R29" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -10511,10 +10517,10 @@
       </c>
       <c r="P30" s="87"/>
       <c r="Q30" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="R30" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -10586,10 +10592,10 @@
         <v>127</v>
       </c>
       <c r="R32" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="S32" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="33" spans="1:19 16384:16384">
@@ -10779,7 +10785,7 @@
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
       <c r="P43" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="44" spans="1:19 16384:16384">
@@ -10795,7 +10801,7 @@
       <c r="N44" s="37"/>
       <c r="O44" s="37"/>
       <c r="P44" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="45" spans="1:19 16384:16384">
@@ -10811,7 +10817,7 @@
       <c r="N45" s="37"/>
       <c r="O45" s="37"/>
       <c r="P45" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="46" spans="1:19 16384:16384">
@@ -10840,7 +10846,7 @@
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
       <c r="P47" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="48" spans="1:19 16384:16384">
@@ -10856,7 +10862,7 @@
       <c r="N48" s="37"/>
       <c r="O48" s="37"/>
       <c r="P48" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -10885,7 +10891,7 @@
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
       <c r="P50" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -10901,7 +10907,7 @@
       <c r="N51" s="37"/>
       <c r="O51" s="37"/>
       <c r="P51" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -10953,7 +10959,7 @@
       <c r="C54" s="86"/>
       <c r="D54" s="86"/>
       <c r="E54" s="36" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -10968,7 +10974,7 @@
       </c>
       <c r="O54" s="36"/>
       <c r="P54" s="86" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="Q54" s="86"/>
       <c r="R54" s="86"/>
@@ -10989,7 +10995,7 @@
       <c r="C55" s="86"/>
       <c r="D55" s="86"/>
       <c r="E55" s="36" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -11000,11 +11006,11 @@
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
       <c r="N55" s="36" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="O55" s="36"/>
       <c r="P55" s="86" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="Q55" s="86"/>
       <c r="R55" s="86"/>
@@ -11034,11 +11040,11 @@
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="O56" s="36"/>
       <c r="P56" s="86" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="Q56" s="86"/>
       <c r="R56" s="86"/>
@@ -11066,15 +11072,15 @@
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="36" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="M57" s="36" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="86" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="Q57" s="86"/>
       <c r="R57" s="86"/>
@@ -15970,7 +15976,7 @@
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="351" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="E1" s="53"/>
       <c r="F1" s="63" t="s">
@@ -16069,7 +16075,7 @@
       <c r="C6" s="53"/>
       <c r="D6" s="61"/>
       <c r="E6" s="351" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="F6" s="53" t="s">
         <v>227</v>
@@ -16169,7 +16175,7 @@
       <c r="G10" s="61"/>
       <c r="H10" s="61"/>
       <c r="I10" s="82" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
@@ -16240,7 +16246,7 @@
       <c r="F13" s="61"/>
       <c r="G13" s="61"/>
       <c r="H13" s="59" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
@@ -16329,7 +16335,7 @@
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
       <c r="K16" s="60" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="L16" s="351" t="s">
         <v>274</v>
@@ -16355,10 +16361,10 @@
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="K17" s="61" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="L17" s="351" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
@@ -16404,7 +16410,7 @@
         <v>223</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="G19" s="122"/>
       <c r="H19" s="125"/>
@@ -16453,7 +16459,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="61"/>
       <c r="D21" s="124" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="E21" s="61" t="s">
         <v>225</v>
@@ -16627,7 +16633,7 @@
         <v>278</v>
       </c>
       <c r="F35" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1">
@@ -16635,10 +16641,10 @@
         <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="H36" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1">
@@ -16673,10 +16679,10 @@
         <v>288</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1">
@@ -16687,7 +16693,7 @@
       <c r="F41" s="361"/>
       <c r="G41" s="363"/>
       <c r="H41" s="165" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -16700,7 +16706,7 @@
         <v>278</v>
       </c>
       <c r="F43" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -17378,7 +17384,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="36" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="D3" s="78" t="s">
         <v>872</v>
@@ -17400,7 +17406,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="36" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="360"/>
@@ -17421,7 +17427,7 @@
       <c r="E5" s="360"/>
       <c r="F5" s="360"/>
       <c r="J5" s="190" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="K5" s="191">
         <v>4</v>
@@ -17431,7 +17437,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="36" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="360"/>
@@ -17450,10 +17456,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="365" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="E8" s="360"/>
       <c r="F8" s="360"/>
@@ -17463,10 +17469,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="36" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="J9" s="360"/>
       <c r="K9" s="360"/>
@@ -17475,10 +17481,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="36" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D10" s="78" t="s">
         <v>1950</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>1953</v>
       </c>
       <c r="J10" s="360"/>
       <c r="K10" s="360"/>
@@ -17489,10 +17495,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="J11" s="360"/>
       <c r="K11" s="360"/>
@@ -17503,7 +17509,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="J12" s="360"/>
       <c r="K12" s="360"/>
@@ -17521,13 +17527,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="36" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="D14" s="364" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="J14" s="360"/>
       <c r="K14" s="360"/>
@@ -17883,24 +17889,24 @@
         <v>352</v>
       </c>
       <c r="F1" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F2" t="s">
         <v>2088</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1934</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -17910,7 +17916,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="J5" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -17919,16 +17925,16 @@
       <c r="C6" s="373"/>
       <c r="E6" s="28"/>
       <c r="F6" s="380" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="G6" s="30"/>
       <c r="J6" s="371"/>
       <c r="K6" s="381" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="L6" s="373"/>
       <c r="M6" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -17942,7 +17948,7 @@
       <c r="K7" s="375"/>
       <c r="L7" s="376"/>
       <c r="M7" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -17956,7 +17962,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="32"/>
       <c r="M8" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18001,17 +18007,17 @@
     <row r="12" spans="1:13">
       <c r="A12" s="31"/>
       <c r="B12" s="25" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C12" s="32"/>
       <c r="E12" s="31"/>
       <c r="F12" s="25" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="G12" s="32"/>
       <c r="J12" s="31"/>
       <c r="K12" s="25" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="L12" s="32"/>
     </row>
@@ -18050,18 +18056,18 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F17" t="s">
         <v>2088</v>
       </c>
-      <c r="F17" t="s">
-        <v>2091</v>
-      </c>
       <c r="J17" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="J18" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
   </sheetData>
@@ -18088,56 +18094,56 @@
     <row r="1" spans="2:39" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:39">
       <c r="C2" s="75" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="77"/>
       <c r="H2" s="75" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="I2" s="76"/>
       <c r="J2" s="76"/>
       <c r="K2" s="77"/>
       <c r="P2" s="36" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="3" spans="2:39" ht="15.75" thickBot="1">
       <c r="C3" s="78"/>
       <c r="D3" s="36" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="F3" s="70"/>
       <c r="H3" s="78"/>
       <c r="I3" s="36" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K3" s="70"/>
     </row>
     <row r="4" spans="2:39">
       <c r="C4" s="78"/>
       <c r="E4" s="36" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="F4" s="70"/>
       <c r="H4" s="78"/>
       <c r="J4" s="36" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="K4" s="70"/>
       <c r="R4" s="75" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="S4" s="76"/>
       <c r="T4" s="77"/>
       <c r="V4" s="75" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="W4" s="76"/>
       <c r="X4" s="77"/>
       <c r="AF4" s="75" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="AG4" s="76"/>
       <c r="AH4" s="77"/>
@@ -18145,29 +18151,29 @@
     <row r="5" spans="2:39">
       <c r="C5" s="78"/>
       <c r="D5" s="138" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E5" s="138"/>
       <c r="F5" s="70"/>
       <c r="H5" s="78"/>
       <c r="I5" s="138" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="J5" s="138"/>
       <c r="K5" s="273"/>
       <c r="R5" s="78"/>
       <c r="S5" s="36" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="T5" s="70"/>
       <c r="V5" s="78"/>
       <c r="W5" s="36" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="X5" s="70"/>
       <c r="AF5" s="78"/>
       <c r="AG5" s="36" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="AH5" s="70"/>
     </row>
@@ -18175,33 +18181,33 @@
       <c r="C6" s="79"/>
       <c r="D6" s="366"/>
       <c r="E6" s="366" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="F6" s="81"/>
       <c r="H6" s="79"/>
       <c r="I6" s="366"/>
       <c r="J6" s="366" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="K6" s="367"/>
       <c r="R6" s="79" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="S6" s="80" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="T6" s="81"/>
       <c r="V6" s="79"/>
       <c r="W6" s="80" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="X6" s="81"/>
       <c r="Y6" s="36" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="AF6" s="79"/>
       <c r="AG6" s="80" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="AH6" s="81"/>
     </row>
@@ -18217,7 +18223,7 @@
     </row>
     <row r="8" spans="2:39" ht="15.75" thickBot="1">
       <c r="P8" s="36" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="R8" s="75" t="s">
         <v>1534</v>
@@ -18225,22 +18231,22 @@
       <c r="S8" s="76"/>
       <c r="T8" s="77"/>
       <c r="V8" s="75" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="W8" s="76"/>
       <c r="X8" s="77"/>
       <c r="AB8" s="75" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="AC8" s="76"/>
       <c r="AD8" s="77"/>
       <c r="AF8" s="75" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="AG8" s="76"/>
       <c r="AH8" s="77"/>
       <c r="AJ8" s="75" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="AK8" s="76"/>
       <c r="AL8" s="77"/>
@@ -18253,106 +18259,106 @@
         <v>352</v>
       </c>
       <c r="G9" s="257" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="H9" s="257"/>
       <c r="I9" s="368"/>
       <c r="K9" s="36" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="R9" s="78"/>
       <c r="S9" s="36" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="T9" s="70"/>
       <c r="V9" s="78"/>
       <c r="W9" s="36" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="X9" s="70"/>
       <c r="AB9" s="78"/>
       <c r="AC9" s="36" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="AD9" s="70"/>
       <c r="AF9" s="78"/>
       <c r="AG9" s="36" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="AH9" s="70"/>
       <c r="AI9" s="36" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="AJ9" s="78"/>
       <c r="AK9" s="36" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="AL9" s="70"/>
       <c r="AM9" s="36" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="10" spans="2:39" ht="15.75" thickBot="1">
       <c r="F10" s="78"/>
       <c r="I10" s="70"/>
       <c r="P10" s="36" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="R10" s="79" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="S10" s="80" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="T10" s="81"/>
       <c r="V10" s="79"/>
       <c r="W10" s="80" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="X10" s="81"/>
       <c r="Y10" s="36" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="AB10" s="79"/>
       <c r="AC10" s="80"/>
       <c r="AD10" s="81"/>
       <c r="AF10" s="79"/>
       <c r="AG10" s="80" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="AH10" s="81"/>
       <c r="AJ10" s="79"/>
       <c r="AK10" s="80" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="AL10" s="81"/>
     </row>
     <row r="11" spans="2:39" ht="15.75" thickBot="1">
       <c r="F11" s="78"/>
       <c r="G11" s="36" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="I11" s="70"/>
       <c r="P11" s="36" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="AB11" s="36" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="AK11" s="36" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="12" spans="2:39">
       <c r="F12" s="78"/>
       <c r="H12" s="36" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="I12" s="70"/>
       <c r="R12" s="75" t="s">
@@ -18361,12 +18367,12 @@
       <c r="S12" s="76"/>
       <c r="T12" s="77"/>
       <c r="V12" s="75" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="W12" s="76"/>
       <c r="X12" s="77"/>
       <c r="AF12" s="75" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="AG12" s="76"/>
       <c r="AH12" s="77"/>
@@ -18378,21 +18384,21 @@
         <v>353</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="R13" s="78"/>
       <c r="S13" s="36" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="T13" s="70"/>
       <c r="V13" s="78"/>
       <c r="W13" s="36" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="X13" s="70"/>
       <c r="AF13" s="78"/>
       <c r="AG13" s="36" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="AH13" s="70"/>
     </row>
@@ -18400,19 +18406,19 @@
       <c r="F14" s="78"/>
       <c r="I14" s="70"/>
       <c r="K14" s="36" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="P14" s="36" t="s">
+        <v>2002</v>
+      </c>
+      <c r="R14" s="79" t="s">
+        <v>1992</v>
+      </c>
+      <c r="S14" s="80" t="s">
         <v>2005</v>
-      </c>
-      <c r="R14" s="79" t="s">
-        <v>1995</v>
-      </c>
-      <c r="S14" s="80" t="s">
-        <v>2008</v>
       </c>
       <c r="T14" s="81"/>
       <c r="V14" s="79"/>
@@ -18424,59 +18430,59 @@
     </row>
     <row r="15" spans="2:39" ht="15.75" thickBot="1">
       <c r="B15" s="36" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="81"/>
       <c r="K15" s="36" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="16" spans="2:39">
       <c r="K16" s="36" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="R16" s="36" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="17" spans="2:41">
       <c r="H17" s="36" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="K17" s="138" t="s">
         <v>1523</v>
       </c>
       <c r="L17" s="138"/>
       <c r="M17" s="138" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="18" spans="2:41">
       <c r="X18" s="36" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="AH18" s="36" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="20" spans="2:41" ht="15.75" thickBot="1">
       <c r="W20" s="36" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="AB20" s="36" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="AG20" s="36" t="s">
         <v>1554</v>
@@ -18487,25 +18493,25 @@
     </row>
     <row r="21" spans="2:41" ht="15.75" thickBot="1">
       <c r="W21" s="75" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="X21" s="76"/>
       <c r="Y21" s="76"/>
       <c r="Z21" s="77"/>
       <c r="AB21" s="75" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="AC21" s="76"/>
       <c r="AD21" s="76"/>
       <c r="AE21" s="77"/>
       <c r="AG21" s="75" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="AH21" s="76"/>
       <c r="AI21" s="76"/>
       <c r="AJ21" s="77"/>
       <c r="AL21" s="75" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="AM21" s="76"/>
       <c r="AN21" s="76"/>
@@ -18532,22 +18538,22 @@
       <c r="R22" s="77"/>
       <c r="W22" s="78"/>
       <c r="X22" s="36" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="Z22" s="70"/>
       <c r="AB22" s="78"/>
       <c r="AC22" s="36" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="AE22" s="70"/>
       <c r="AG22" s="78"/>
       <c r="AH22" s="36" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="AJ22" s="70"/>
       <c r="AL22" s="78"/>
       <c r="AM22" s="36" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="AO22" s="70"/>
     </row>
@@ -18560,12 +18566,12 @@
       <c r="R23" s="70"/>
       <c r="W23" s="78"/>
       <c r="Y23" s="36" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="Z23" s="70"/>
       <c r="AB23" s="78"/>
       <c r="AD23" s="36" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="AE23" s="70"/>
       <c r="AG23" s="78"/>
@@ -18588,25 +18594,25 @@
       <c r="R24" s="70"/>
       <c r="W24" s="78"/>
       <c r="X24" s="138" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="Y24" s="138"/>
       <c r="Z24" s="70"/>
       <c r="AB24" s="78"/>
       <c r="AC24" s="138" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="AD24" s="138"/>
       <c r="AE24" s="273"/>
       <c r="AG24" s="78"/>
       <c r="AH24" s="138" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="AI24" s="138"/>
       <c r="AJ24" s="70"/>
       <c r="AL24" s="78"/>
       <c r="AM24" s="138" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="AN24" s="138"/>
       <c r="AO24" s="273"/>
@@ -18622,28 +18628,28 @@
       <c r="W25" s="79"/>
       <c r="X25" s="366"/>
       <c r="Y25" s="366" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="Z25" s="81"/>
       <c r="AA25" s="36" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="AB25" s="79"/>
       <c r="AC25" s="366"/>
       <c r="AD25" s="366" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="AE25" s="367"/>
       <c r="AG25" s="79"/>
       <c r="AH25" s="366"/>
       <c r="AI25" s="366" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="AJ25" s="81"/>
       <c r="AL25" s="79"/>
       <c r="AM25" s="366"/>
       <c r="AN25" s="366" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="AO25" s="367"/>
     </row>
@@ -18662,7 +18668,7 @@
         <v>38</v>
       </c>
       <c r="AA26" s="36" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="AC26" s="36" t="s">
         <v>38</v>
@@ -18704,18 +18710,18 @@
         <v>352</v>
       </c>
       <c r="AA28" s="257" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="AB28" s="257"/>
       <c r="AC28" s="368"/>
       <c r="AG28" s="36" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="AJ28" s="75" t="s">
         <v>352</v>
       </c>
       <c r="AK28" s="257" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="AL28" s="257"/>
       <c r="AM28" s="368"/>
@@ -18733,13 +18739,13 @@
       <c r="P29" s="78"/>
       <c r="R29" s="70"/>
       <c r="W29" s="36" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="Z29" s="78"/>
       <c r="AC29" s="70"/>
       <c r="AJ29" s="78"/>
       <c r="AK29" s="36" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="AM29" s="70"/>
     </row>
@@ -18750,12 +18756,12 @@
       <c r="R30" s="81"/>
       <c r="Z30" s="78"/>
       <c r="AA30" s="36" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="AC30" s="70"/>
       <c r="AJ30" s="78"/>
       <c r="AL30" s="36" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="AM30" s="70"/>
     </row>
@@ -18770,12 +18776,12 @@
       <c r="J31" s="77"/>
       <c r="Z31" s="78"/>
       <c r="AB31" s="36" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="AC31" s="70"/>
       <c r="AJ31" s="78"/>
       <c r="AK31" s="36" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="AM31" s="70"/>
     </row>
@@ -18786,7 +18792,7 @@
       <c r="AC32" s="70"/>
       <c r="AJ32" s="78"/>
       <c r="AL32" s="36" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="AM32" s="70"/>
     </row>
@@ -18814,7 +18820,7 @@
       </c>
       <c r="AJ33" s="78"/>
       <c r="AK33" s="36" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="AM33" s="70"/>
     </row>
@@ -18832,7 +18838,7 @@
       <c r="AJ34" s="79"/>
       <c r="AK34" s="80"/>
       <c r="AL34" s="80" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="AM34" s="81"/>
     </row>
@@ -18850,7 +18856,7 @@
         <v>1554</v>
       </c>
       <c r="AU35" s="36" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="36" spans="1:51">
@@ -18859,26 +18865,26 @@
       <c r="P36" s="78"/>
       <c r="R36" s="70"/>
       <c r="Z36" s="75" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="AA36" s="77"/>
       <c r="AC36" s="75" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="AD36" s="77"/>
       <c r="AH36" s="36" t="s">
         <v>830</v>
       </c>
       <c r="AO36" s="75" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="AP36" s="77"/>
       <c r="AR36" s="75" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="AS36" s="77"/>
       <c r="AU36" s="75" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="AV36" s="77"/>
       <c r="AX36" s="75"/>
@@ -18893,33 +18899,33 @@
       <c r="Q37" s="80"/>
       <c r="R37" s="81"/>
       <c r="X37" s="36" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="Z37" s="78"/>
       <c r="AA37" s="70" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="AC37" s="78"/>
       <c r="AD37" s="70" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="AF37" s="36" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="AO37" s="78"/>
       <c r="AP37" s="70" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="AR37" s="78"/>
       <c r="AS37" s="70" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="AU37" s="78"/>
       <c r="AV37" s="70" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AW37" s="36" t="s">
         <v>2057</v>
-      </c>
-      <c r="AW37" s="36" t="s">
-        <v>2060</v>
       </c>
       <c r="AX37" s="78"/>
       <c r="AY37" s="70"/>
@@ -18930,22 +18936,22 @@
       </c>
       <c r="Z38" s="79"/>
       <c r="AA38" s="81" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AC38" s="79"/>
       <c r="AD38" s="81" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="AF38" s="36" t="s">
         <v>51</v>
       </c>
       <c r="AO38" s="79"/>
       <c r="AP38" s="81" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AR38" s="79"/>
       <c r="AS38" s="81" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="AU38" s="79"/>
       <c r="AV38" s="81"/>
@@ -18973,15 +18979,15 @@
       <c r="J40" s="78"/>
       <c r="N40" s="70"/>
       <c r="Y40" s="36" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="AA40" s="75" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="AB40" s="76"/>
       <c r="AC40" s="77"/>
       <c r="AE40" s="36" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="AJ40" s="36" t="s">
         <v>1554</v>
@@ -19000,16 +19006,16 @@
       <c r="N41" s="273"/>
       <c r="AA41" s="78"/>
       <c r="AB41" s="36" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="AC41" s="70" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AE41" s="36" t="s">
         <v>2032</v>
       </c>
-      <c r="AE41" s="36" t="s">
-        <v>2035</v>
-      </c>
       <c r="AJ41" s="36" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="42" spans="1:51" ht="15.75" thickBot="1">
@@ -19025,24 +19031,24 @@
       <c r="N42" s="70"/>
       <c r="AA42" s="79"/>
       <c r="AB42" s="80" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="AC42" s="81" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AE42" s="256" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="AJ42" s="36" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="AR42" s="75" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="AS42" s="76"/>
       <c r="AT42" s="77"/>
       <c r="AV42" s="36" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="43" spans="1:51" ht="15.75" thickBot="1">
@@ -19058,10 +19064,10 @@
       <c r="N43" s="70"/>
       <c r="AR43" s="78"/>
       <c r="AS43" s="36" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="AT43" s="70" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="44" spans="1:51" ht="15.75" thickBot="1">
@@ -19076,22 +19082,22 @@
       </c>
       <c r="N44" s="70"/>
       <c r="Y44" s="36" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="AA44" s="75" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="AB44" s="76"/>
       <c r="AC44" s="77"/>
       <c r="AE44" s="36" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="AR44" s="79"/>
       <c r="AS44" s="80" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="AT44" s="81" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="45" spans="1:51" ht="15.75" thickBot="1">
@@ -19101,13 +19107,13 @@
       <c r="N45" s="70"/>
       <c r="AA45" s="78"/>
       <c r="AB45" s="36" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AC45" s="70" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AE45" s="260" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:51" ht="15.75" thickBot="1">
@@ -19124,15 +19130,15 @@
       <c r="AB46" s="80"/>
       <c r="AC46" s="81"/>
       <c r="AE46" s="256" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="AR46" s="75" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="AS46" s="76"/>
       <c r="AT46" s="77"/>
       <c r="AV46" s="36" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="47" spans="1:51" ht="15.75" thickBot="1">
@@ -19145,13 +19151,13 @@
       <c r="AE47" s="260"/>
       <c r="AR47" s="78"/>
       <c r="AS47" s="36" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AT47" s="70" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AW47" s="36" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="48" spans="1:51" ht="15.75" thickBot="1">
@@ -19170,18 +19176,18 @@
       <c r="I48" s="76"/>
       <c r="J48" s="77"/>
       <c r="AA48" s="75" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="AB48" s="76"/>
       <c r="AC48" s="77"/>
       <c r="AE48" s="36" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="AR48" s="79"/>
       <c r="AS48" s="80"/>
       <c r="AT48" s="81"/>
       <c r="AW48" s="36" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="49" spans="1:48" ht="15.75" thickBot="1">
@@ -19191,15 +19197,15 @@
       <c r="G49" s="78"/>
       <c r="J49" s="70"/>
       <c r="Y49" s="36" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="AA49" s="78"/>
       <c r="AB49" s="36" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="AC49" s="70"/>
       <c r="AE49" s="260" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="50" spans="1:48" ht="15.75" thickBot="1">
@@ -19214,14 +19220,14 @@
       <c r="AA50" s="79"/>
       <c r="AB50" s="80"/>
       <c r="AC50" s="81" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AE50" s="256" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="AH50" s="256"/>
       <c r="AR50" s="75" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="AS50" s="76"/>
       <c r="AT50" s="77"/>
@@ -19239,7 +19245,7 @@
       <c r="J51" s="70"/>
       <c r="AR51" s="78"/>
       <c r="AS51" s="36" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="AT51" s="70"/>
     </row>
@@ -19255,15 +19261,15 @@
       </c>
       <c r="J52" s="70"/>
       <c r="Z52" s="138" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="AE52" s="36" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="AR52" s="79"/>
       <c r="AS52" s="80"/>
       <c r="AT52" s="81" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="53" spans="1:48">
@@ -19273,11 +19279,11 @@
       <c r="G53" s="78"/>
       <c r="J53" s="70"/>
       <c r="Z53" s="138" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="AA53" s="138"/>
       <c r="AG53" s="36" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="54" spans="1:48" ht="15.75" thickBot="1">
@@ -19286,24 +19292,24 @@
       <c r="I54" s="80"/>
       <c r="J54" s="81"/>
       <c r="Z54" s="278" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="55" spans="1:48">
       <c r="Z55" s="278" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="AK55" s="36" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="AR55" s="75" t="s">
         <v>1554</v>
       </c>
       <c r="AS55" s="329" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="AT55" s="77"/>
     </row>
@@ -19315,18 +19321,18 @@
         <v>1530</v>
       </c>
       <c r="AK56" s="36" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="AP56" s="36" t="s">
         <v>1554</v>
       </c>
       <c r="AR56" s="78"/>
       <c r="AS56" s="36" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AT56" s="70"/>
       <c r="AV56" s="36" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="57" spans="1:48" ht="15.75" thickBot="1">
@@ -19334,7 +19340,7 @@
         <v>1531</v>
       </c>
       <c r="AK57" s="138" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="AR57" s="79"/>
       <c r="AS57" s="80" t="s">
@@ -19350,21 +19356,21 @@
         <v>38</v>
       </c>
       <c r="AK59" s="36" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="60" spans="1:48" ht="15.75" thickBot="1">
       <c r="AK60" s="36" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="AR60" s="75" t="s">
         <v>1554</v>
       </c>
       <c r="AS60" s="329" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="AT60" s="77" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="61" spans="1:48">
@@ -19380,7 +19386,7 @@
       <c r="H61" s="76"/>
       <c r="I61" s="77"/>
       <c r="AK61" s="138" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="AP61" s="36" t="s">
         <v>1554</v>
@@ -19391,7 +19397,7 @@
       </c>
       <c r="AT61" s="70"/>
       <c r="AV61" s="36" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="62" spans="1:48">
@@ -19402,11 +19408,11 @@
       <c r="I62" s="70"/>
       <c r="AR62" s="78"/>
       <c r="AS62" s="36" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="AT62" s="70"/>
       <c r="AV62" s="36" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="63" spans="1:48" ht="15.75" thickBot="1">
@@ -19424,13 +19430,13 @@
         <v>1536</v>
       </c>
       <c r="AK63" s="36" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="AR63" s="79"/>
       <c r="AS63" s="80"/>
       <c r="AT63" s="81"/>
       <c r="AV63" s="36" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="64" spans="1:48" ht="15.75" thickBot="1">
@@ -19446,7 +19452,7 @@
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
       <c r="AK64" s="138" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="65" spans="1:48" ht="15.75" thickBot="1">
@@ -19459,14 +19465,14 @@
         <v>274</v>
       </c>
       <c r="AR65" s="75" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="AS65" s="76" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="AT65" s="77"/>
       <c r="AV65" s="36" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="66" spans="1:48">
@@ -19489,20 +19495,20 @@
         <v>1571</v>
       </c>
       <c r="AK66" s="36" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="AP66" s="36" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="AR66" s="78"/>
       <c r="AS66" s="36" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="AT66" s="70" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AV66" s="36" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="67" spans="1:48" ht="15.75" thickBot="1">
@@ -19523,17 +19529,17 @@
         <v>1581</v>
       </c>
       <c r="AK67" s="36" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="AR67" s="79"/>
       <c r="AS67" s="80" t="s">
         <v>1827</v>
       </c>
       <c r="AT67" s="81" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AV67" s="36" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="68" spans="1:48" ht="15.75" thickBot="1">
@@ -19552,7 +19558,7 @@
         <v>1585</v>
       </c>
       <c r="AK68" s="278" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="69" spans="1:48" ht="15.75" thickBot="1">
@@ -19575,11 +19581,11 @@
       </c>
       <c r="AR69" s="75"/>
       <c r="AS69" s="76" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="AT69" s="77"/>
       <c r="AV69" s="36" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="70" spans="1:48" ht="15.75" thickBot="1">
@@ -19593,17 +19599,17 @@
         <v>1584</v>
       </c>
       <c r="AP70" s="36" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="AR70" s="78"/>
       <c r="AS70" s="36" t="s">
         <v>829</v>
       </c>
       <c r="AT70" s="70" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AV70" s="36" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="71" spans="1:48" ht="15.75" thickBot="1">
@@ -19626,13 +19632,13 @@
       <c r="P71" s="69"/>
       <c r="AR71" s="79"/>
       <c r="AS71" s="80" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="AT71" s="81" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="AV71" s="36" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="72" spans="1:48">
@@ -20111,7 +20117,7 @@
         <v>378</v>
       </c>
       <c r="Q13" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="14" spans="6:24" ht="15.75" thickBot="1">
@@ -20122,7 +20128,7 @@
         <v>348</v>
       </c>
       <c r="S14" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="15" spans="6:24">
@@ -20492,62 +20498,62 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C2" t="s">
         <v>2279</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="F3" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="35"/>
       <c r="K4" s="28" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="G5" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="J5" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="28" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="D6" s="30"/>
       <c r="G6" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="J6" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="C7" s="33"/>
       <c r="D7" s="35"/>
       <c r="K7" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -20555,65 +20561,65 @@
         <v>1439</v>
       </c>
       <c r="L8" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="D9" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="E9" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" t="s">
-        <v>2266</v>
-      </c>
-      <c r="G10" s="424" t="s">
-        <v>2273</v>
-      </c>
-      <c r="H10" s="425"/>
-      <c r="I10" s="426"/>
+        <v>2263</v>
+      </c>
+      <c r="G10" s="428" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H10" s="429"/>
+      <c r="I10" s="430"/>
       <c r="K10" s="28" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="427"/>
-      <c r="H11" s="428"/>
-      <c r="I11" s="429"/>
+      <c r="G11" s="431"/>
+      <c r="H11" s="432"/>
+      <c r="I11" s="433"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="427"/>
-      <c r="H12" s="428"/>
-      <c r="I12" s="429"/>
+      <c r="G12" s="431"/>
+      <c r="H12" s="432"/>
+      <c r="I12" s="433"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="430"/>
-      <c r="H13" s="431"/>
-      <c r="I13" s="432"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="435"/>
+      <c r="I13" s="436"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" s="28" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" t="s">
         <v>1257</v>
       </c>
       <c r="J15" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="30"/>
@@ -20622,16 +20628,16 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="G16" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="J16" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="L16" s="32"/>
     </row>
@@ -20639,7 +20645,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="35"/>
       <c r="G17" s="28" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="H17" s="30"/>
       <c r="K17" s="33"/>
@@ -21526,7 +21532,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="284"/>
-      <c r="L3" s="440" t="s">
+      <c r="L3" s="444" t="s">
         <v>1620</v>
       </c>
       <c r="M3" s="172"/>
@@ -21548,7 +21554,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="441"/>
+      <c r="L4" s="445"/>
       <c r="M4" s="172"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21568,12 +21574,12 @@
       <c r="K5" s="285" t="s">
         <v>1619</v>
       </c>
-      <c r="L5" s="441"/>
+      <c r="L5" s="445"/>
       <c r="M5" s="172"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="189"/>
-      <c r="L6" s="441"/>
+      <c r="L6" s="445"/>
       <c r="M6" s="172"/>
     </row>
     <row r="7" spans="1:13">
@@ -21586,7 +21592,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="284"/>
-      <c r="L7" s="441"/>
+      <c r="L7" s="445"/>
       <c r="M7" s="172"/>
     </row>
     <row r="8" spans="1:13">
@@ -21604,7 +21610,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="441"/>
+      <c r="L8" s="445"/>
       <c r="M8" s="172"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21618,7 +21624,7 @@
       <c r="K9" s="266" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="441"/>
+      <c r="L9" s="445"/>
       <c r="M9" s="172"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21626,7 +21632,7 @@
         <v>1603</v>
       </c>
       <c r="F10" s="189"/>
-      <c r="L10" s="441"/>
+      <c r="L10" s="445"/>
       <c r="M10" s="172"/>
     </row>
     <row r="11" spans="1:13">
@@ -21639,7 +21645,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="284"/>
-      <c r="L11" s="441"/>
+      <c r="L11" s="445"/>
       <c r="M11" s="172"/>
     </row>
     <row r="12" spans="1:13">
@@ -21653,7 +21659,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="441"/>
+      <c r="L12" s="445"/>
       <c r="M12" s="172"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21670,7 +21676,7 @@
       <c r="K13" s="266" t="s">
         <v>201</v>
       </c>
-      <c r="L13" s="442"/>
+      <c r="L13" s="446"/>
       <c r="M13" s="172"/>
     </row>
     <row r="14" spans="1:13">
@@ -21692,10 +21698,10 @@
       <c r="D15" s="261"/>
       <c r="E15" s="261"/>
       <c r="F15" s="189"/>
-      <c r="J15" s="433" t="s">
+      <c r="J15" s="437" t="s">
         <v>1609</v>
       </c>
-      <c r="K15" s="433"/>
+      <c r="K15" s="437"/>
       <c r="L15" s="69" t="s">
         <v>543</v>
       </c>
@@ -21715,8 +21721,8 @@
       <c r="G16" s="96" t="s">
         <v>1611</v>
       </c>
-      <c r="J16" s="433"/>
-      <c r="K16" s="433"/>
+      <c r="J16" s="437"/>
+      <c r="K16" s="437"/>
       <c r="L16" s="69" t="s">
         <v>52</v>
       </c>
@@ -21794,48 +21800,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="435"/>
+      <c r="K22" s="438"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="434"/>
+      <c r="K23" s="439"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="434"/>
+      <c r="K24" s="439"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="434"/>
+      <c r="K25" s="439"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="434"/>
+      <c r="K26" s="439"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="434"/>
+      <c r="K27" s="439"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="434"/>
+      <c r="K28" s="439"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="434"/>
+      <c r="K29" s="439"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="434"/>
+      <c r="K30" s="439"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="434"/>
+      <c r="K31" s="439"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="434"/>
+      <c r="K32" s="439"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="281"/>
@@ -24050,7 +24056,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="36" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="C2" s="370"/>
       <c r="D2" s="369" t="s">
@@ -24071,7 +24077,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="36" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="189" t="s">
@@ -24125,14 +24131,14 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="260" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="C6" s="370"/>
       <c r="D6" s="189" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="E6" s="370" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="F6" s="370"/>
       <c r="N6" s="70"/>
@@ -24143,14 +24149,14 @@
       </c>
       <c r="C7" s="370"/>
       <c r="D7" s="189" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="E7" s="370" t="s">
         <v>1132</v>
       </c>
       <c r="F7" s="370"/>
       <c r="K7" s="75" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="L7" s="76"/>
       <c r="M7" s="77"/>
@@ -24158,10 +24164,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="260" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="D8" s="189" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="E8" s="370" t="s">
         <v>1132</v>
@@ -24205,14 +24211,14 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="36" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="D12" s="78"/>
       <c r="F12" s="36" t="s">
         <v>1684</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="K12" s="78"/>
       <c r="M12" s="70"/>
@@ -24220,7 +24226,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="36" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="D13" s="78"/>
       <c r="K13" s="78"/>
@@ -24232,7 +24238,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="36" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="D14" s="78"/>
       <c r="K14" s="78"/>
@@ -24245,7 +24251,7 @@
     <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="D15" s="78"/>
       <c r="E15" s="36" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="K15" s="78"/>
       <c r="M15" s="70"/>
@@ -24253,11 +24259,11 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="36" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="36" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="K16" s="78"/>
       <c r="L16" s="258" t="s">
@@ -24271,7 +24277,7 @@
       <c r="D17" s="78"/>
       <c r="K17" s="78"/>
       <c r="L17" s="36" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="M17" s="70"/>
       <c r="N17" s="70"/>
@@ -24341,7 +24347,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="36" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="C25" s="96"/>
       <c r="D25" s="189"/>
@@ -24354,7 +24360,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1">
       <c r="A26" s="36" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="C26" s="370"/>
       <c r="D26" s="189"/>
@@ -24366,7 +24372,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="36" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="C27" s="370"/>
       <c r="D27" s="189"/>
@@ -24376,7 +24382,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1">
       <c r="A28" s="260" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="C28" s="370"/>
       <c r="D28" s="189"/>
@@ -24386,14 +24392,14 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="36" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="C29" s="370"/>
       <c r="D29" s="189"/>
       <c r="E29" s="370"/>
       <c r="F29" s="370"/>
       <c r="K29" s="75" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="L29" s="76"/>
       <c r="M29" s="77"/>
@@ -24401,11 +24407,11 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="260" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="D30" s="189"/>
       <c r="E30" s="106" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="F30" s="370"/>
       <c r="K30" s="78"/>
@@ -24416,7 +24422,7 @@
       <c r="D31" s="78"/>
       <c r="E31" s="370"/>
       <c r="F31" s="370" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="K31" s="78"/>
       <c r="M31" s="70"/>
@@ -24425,7 +24431,7 @@
     <row r="32" spans="1:14" ht="15.75" thickBot="1">
       <c r="D32" s="78"/>
       <c r="F32" s="36" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="K32" s="78"/>
       <c r="L32" s="258" t="s">
@@ -24436,14 +24442,14 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="36" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>871</v>
       </c>
       <c r="D33" s="78"/>
       <c r="F33" s="36" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="K33" s="78"/>
       <c r="L33" s="36" t="s">
@@ -24454,7 +24460,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="A34" s="36" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>1060</v>
@@ -24485,7 +24491,7 @@
     <row r="37" spans="1:14">
       <c r="D37" s="78"/>
       <c r="E37" s="36" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="K37" s="78"/>
       <c r="M37" s="70"/>
@@ -24494,7 +24500,7 @@
     <row r="38" spans="1:14">
       <c r="D38" s="78"/>
       <c r="E38" s="36" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="K38" s="78"/>
       <c r="M38" s="70"/>
@@ -24582,7 +24588,7 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1">
       <c r="A47" s="36" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="C47" s="370"/>
       <c r="D47" s="189" t="s">
@@ -24598,21 +24604,21 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1">
       <c r="A48" s="336" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="C48" s="370"/>
       <c r="D48" s="189" t="s">
         <v>989</v>
       </c>
       <c r="E48" s="370" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="F48" s="370"/>
       <c r="N48" s="70"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" thickBot="1">
       <c r="A49" s="336" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="C49" s="370"/>
       <c r="D49" s="189"/>
@@ -24630,10 +24636,10 @@
       <c r="E50" s="370"/>
       <c r="F50" s="370"/>
       <c r="H50" s="36" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="K50" s="75" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="L50" s="76"/>
       <c r="M50" s="77"/>
@@ -24645,7 +24651,7 @@
       </c>
       <c r="D51" s="189"/>
       <c r="E51" s="106" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="F51" s="370"/>
       <c r="K51" s="78"/>
@@ -24657,11 +24663,11 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="336" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="106" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="F52" s="370"/>
       <c r="K52" s="78"/>
@@ -24673,11 +24679,11 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" thickBot="1">
       <c r="A53" s="336" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D53" s="78"/>
       <c r="E53" s="370" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="K53" s="78"/>
       <c r="M53" s="70"/>
@@ -24685,11 +24691,11 @@
     </row>
     <row r="54" spans="1:14" ht="15.75" thickBot="1">
       <c r="A54" s="336" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="36" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="K54" s="78"/>
       <c r="L54" s="258" t="s">
@@ -24701,7 +24707,7 @@
     <row r="55" spans="1:14">
       <c r="D55" s="78"/>
       <c r="E55" s="36" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="K55" s="78"/>
       <c r="L55" s="36" t="s">
@@ -24712,7 +24718,7 @@
     </row>
     <row r="56" spans="1:14" ht="15.75" thickBot="1">
       <c r="A56" s="36" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="D56" s="78"/>
       <c r="K56" s="78"/>
@@ -24721,7 +24727,7 @@
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1">
       <c r="A57" s="36" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="D57" s="78"/>
       <c r="K57" s="78"/>
@@ -24733,11 +24739,11 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="36" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="36" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="K58" s="78"/>
       <c r="L58" s="36" t="s">
@@ -24749,7 +24755,7 @@
     <row r="59" spans="1:14" ht="15.75" thickBot="1">
       <c r="D59" s="78"/>
       <c r="E59" s="36" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="K59" s="78"/>
       <c r="M59" s="70"/>
@@ -24757,7 +24763,7 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" thickBot="1">
       <c r="A60" s="260" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="D60" s="78"/>
       <c r="K60" s="78"/>
@@ -24772,7 +24778,7 @@
         <v>556</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="D61" s="78"/>
       <c r="K61" s="78"/>
@@ -24787,7 +24793,7 @@
         <v>1252</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="D62" s="78"/>
       <c r="K62" s="79"/>
@@ -24810,7 +24816,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="36" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="G64" s="370"/>
       <c r="H64" s="370"/>
@@ -24818,7 +24824,7 @@
     <row r="68" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="69" spans="1:14">
       <c r="A69" s="260" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="D69" s="369" t="s">
         <v>52</v>
@@ -24838,17 +24844,17 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="36" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="D70" s="189" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="E70" s="370" t="s">
         <v>135</v>
       </c>
       <c r="F70" s="370"/>
       <c r="G70" s="370" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="H70" s="370"/>
       <c r="I70" s="370"/>
@@ -24856,10 +24862,10 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="36" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="D71" s="189" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="E71" s="370" t="s">
         <v>135</v>
@@ -24874,7 +24880,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="D72" s="189" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="E72" s="370" t="s">
         <v>867</v>
@@ -24884,10 +24890,10 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1">
       <c r="A73" s="260" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="D73" s="189" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="E73" s="370" t="s">
         <v>888</v>
@@ -24897,13 +24903,13 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="36" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="D74" s="189"/>
       <c r="E74" s="370"/>
       <c r="F74" s="370"/>
       <c r="K74" s="75" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="L74" s="76"/>
       <c r="M74" s="77"/>
@@ -24911,7 +24917,7 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1">
       <c r="A75" s="36" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="D75" s="189"/>
       <c r="E75" s="106"/>
@@ -24933,7 +24939,7 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" thickBot="1">
       <c r="A77" s="36" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="D77" s="78"/>
       <c r="E77" s="370"/>
@@ -24949,7 +24955,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="B78" s="260" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="C78" s="260"/>
       <c r="D78" s="385"/>
@@ -24971,7 +24977,7 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" thickBot="1">
       <c r="B80" s="36" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D80" s="78"/>
       <c r="K80" s="78"/>
@@ -24989,7 +24995,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="36" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="D82" s="78"/>
       <c r="G82" s="36" t="s">
@@ -25001,7 +25007,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="B83" s="36" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D83" s="78"/>
       <c r="K83" s="78"/>
@@ -25019,7 +25025,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="B85" s="260" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="C85" s="260"/>
       <c r="D85" s="385"/>
@@ -25091,7 +25097,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="36" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D93" s="189"/>
       <c r="E93" s="370"/>
@@ -25109,7 +25115,7 @@
       <c r="E95" s="370"/>
       <c r="F95" s="370"/>
       <c r="K95" s="75" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="L95" s="76"/>
       <c r="M95" s="77"/>
@@ -25121,7 +25127,7 @@
       <c r="F96" s="370"/>
       <c r="K96" s="78"/>
       <c r="L96" s="260" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="M96" s="70"/>
       <c r="N96" s="70"/>
@@ -25131,7 +25137,7 @@
       <c r="E97" s="106"/>
       <c r="F97" s="370"/>
       <c r="I97" s="36" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="K97" s="78"/>
       <c r="L97" s="258" t="s">
@@ -25544,7 +25550,7 @@
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="E5" s="31"/>
       <c r="F5" s="25" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -25586,10 +25592,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="D8" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="25"/>
@@ -25620,7 +25626,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="C10" t="s">
         <v>134</v>
@@ -25636,14 +25642,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="25" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -25655,7 +25661,7 @@
     <row r="12" spans="1:12">
       <c r="E12" s="31"/>
       <c r="F12" s="25" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -25667,7 +25673,7 @@
     <row r="13" spans="1:12">
       <c r="E13" s="31"/>
       <c r="F13" s="25" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -25679,7 +25685,7 @@
     <row r="14" spans="1:12">
       <c r="E14" s="31"/>
       <c r="F14" s="36" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -26094,7 +26100,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
@@ -26294,15 +26300,15 @@
       <c r="C66" s="28"/>
       <c r="D66" s="30"/>
       <c r="G66" s="28" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="H66" s="30"/>
       <c r="J66" s="28" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="K66" s="30"/>
       <c r="M66" s="28" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="N66" s="30"/>
     </row>
@@ -26310,33 +26316,33 @@
       <c r="C67" s="31"/>
       <c r="D67" s="32"/>
       <c r="G67" s="31" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="H67" s="32"/>
       <c r="J67" s="31" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="K67" s="32"/>
       <c r="M67" s="31" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="N67" s="32"/>
     </row>
     <row r="68" spans="3:14">
       <c r="C68" s="31" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="D68" s="32"/>
       <c r="E68" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="G68" s="31"/>
       <c r="H68" s="32" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="J68" s="31"/>
       <c r="K68" s="32" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="M68" s="31"/>
       <c r="N68" s="32"/>
@@ -26349,11 +26355,11 @@
         <v>579</v>
       </c>
       <c r="I69" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="J69" s="31"/>
       <c r="K69" s="32" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="L69" t="s">
         <v>1400</v>
@@ -26368,7 +26374,7 @@
       <c r="D70" s="32"/>
       <c r="G70" s="31"/>
       <c r="H70" s="32" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="J70" s="31"/>
       <c r="K70" s="32"/>
@@ -26380,7 +26386,7 @@
       <c r="D71" s="32"/>
       <c r="G71" s="31"/>
       <c r="H71" s="32" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="J71" s="31" t="s">
         <v>38</v>
@@ -26403,13 +26409,13 @@
     </row>
     <row r="73" spans="3:14">
       <c r="H73" s="70" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="N73" s="70"/>
     </row>
     <row r="74" spans="3:14">
       <c r="H74" s="70" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="75" spans="3:14">
@@ -26419,12 +26425,12 @@
     </row>
     <row r="76" spans="3:14">
       <c r="H76" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="77" spans="3:14">
       <c r="H77" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="78" spans="3:14">
@@ -30317,7 +30323,7 @@
         <v>665</v>
       </c>
       <c r="O1" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="AB1" t="s">
         <v>1305</v>
@@ -30356,13 +30362,13 @@
         <v>43</v>
       </c>
       <c r="N2" s="217" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="O2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="Q2" t="s">
         <v>2245</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2248</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -30404,10 +30410,10 @@
         <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="Q3" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -30452,10 +30458,10 @@
         <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="Q4" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -30496,7 +30502,7 @@
       <c r="M5" s="217"/>
       <c r="N5" s="217"/>
       <c r="O5" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -30535,10 +30541,10 @@
       <c r="M6" s="217"/>
       <c r="N6" s="217"/>
       <c r="O6" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="Q6" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="AA6">
         <v>4</v>
@@ -30557,7 +30563,7 @@
       <c r="M7" s="108"/>
       <c r="N7" s="108"/>
       <c r="O7" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="P7" s="392"/>
       <c r="R7" t="b">
@@ -30577,22 +30583,22 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="444" t="s">
+      <c r="B8" s="448" t="s">
         <v>1766</v>
       </c>
-      <c r="C8" s="444"/>
-      <c r="F8" s="444" t="s">
+      <c r="C8" s="448"/>
+      <c r="F8" s="448" t="s">
         <v>1767</v>
       </c>
-      <c r="G8" s="444"/>
-      <c r="I8" s="444" t="s">
+      <c r="G8" s="448"/>
+      <c r="I8" s="448" t="s">
         <v>1767</v>
       </c>
-      <c r="J8" s="444"/>
+      <c r="J8" s="448"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="O8" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
@@ -30614,18 +30620,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="444" t="s">
+      <c r="F9" s="448" t="s">
         <v>1768</v>
       </c>
-      <c r="G9" s="444"/>
-      <c r="I9" s="444" t="s">
+      <c r="G9" s="448"/>
+      <c r="I9" s="448" t="s">
         <v>1301</v>
       </c>
-      <c r="J9" s="444"/>
-      <c r="M9" s="445" t="s">
+      <c r="J9" s="448"/>
+      <c r="M9" s="449" t="s">
         <v>1767</v>
       </c>
-      <c r="N9" s="445"/>
+      <c r="N9" s="449"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30648,7 +30654,7 @@
       </c>
       <c r="N10" s="300"/>
       <c r="Q10" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="AD10" t="s">
         <v>1</v>
@@ -30661,21 +30667,21 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="443" t="s">
+      <c r="E11" s="447" t="s">
         <v>1770</v>
       </c>
-      <c r="F11" s="443"/>
-      <c r="G11" s="443"/>
-      <c r="H11" s="443"/>
-      <c r="I11" s="443"/>
-      <c r="J11" s="443"/>
-      <c r="K11" s="443"/>
-      <c r="L11" s="443"/>
-      <c r="M11" s="443"/>
-      <c r="N11" s="443"/>
-      <c r="O11" s="443"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="447"/>
+      <c r="J11" s="447"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="447"/>
+      <c r="M11" s="447"/>
+      <c r="N11" s="447"/>
+      <c r="O11" s="447"/>
       <c r="R11" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="AF11" s="39" t="s">
         <v>1</v>
@@ -30701,7 +30707,7 @@
         <v>554</v>
       </c>
       <c r="R13" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="AF13" s="39"/>
       <c r="AG13">
@@ -32252,7 +32258,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="J100" s="25"/>
       <c r="K100" s="32"/>
@@ -32279,7 +32285,7 @@
         <v>690</v>
       </c>
       <c r="I101" s="394" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="J101" s="184"/>
       <c r="K101" s="32"/>
@@ -32293,7 +32299,7 @@
       <c r="G102" s="137"/>
       <c r="H102" s="137"/>
       <c r="I102" s="393" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="J102" s="185"/>
       <c r="K102" s="32"/>
@@ -32338,7 +32344,7 @@
       <c r="G104" s="137"/>
       <c r="H104" s="137"/>
       <c r="I104" s="184" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="J104" s="185"/>
       <c r="K104" s="32"/>
@@ -32358,7 +32364,7 @@
       <c r="G105" s="137"/>
       <c r="H105" s="137"/>
       <c r="I105" s="170" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="J105" s="25"/>
       <c r="K105" s="32"/>
@@ -32378,7 +32384,7 @@
       <c r="G106" s="137"/>
       <c r="H106" s="137"/>
       <c r="I106" s="394" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="J106" s="25"/>
       <c r="K106" s="32"/>
@@ -33337,15 +33343,15 @@
     </row>
     <row r="197" spans="3:12">
       <c r="I197" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="J197" s="132" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="198" spans="3:12">
       <c r="G198" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="199" spans="3:12">
@@ -33376,7 +33382,7 @@
       </c>
       <c r="J200" s="86"/>
       <c r="K200" s="36" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="L200" s="86"/>
     </row>
@@ -33729,17 +33735,17 @@
     </row>
     <row r="240" spans="1:15">
       <c r="I240" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="L240" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="411" t="s">
+      <c r="C241" s="415" t="s">
         <v>1808</v>
       </c>
-      <c r="D241" s="411"/>
+      <c r="D241" s="415"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -33853,23 +33859,23 @@
     </row>
     <row r="249" spans="1:12">
       <c r="B249" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="H249" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="250" spans="1:12">
       <c r="C250" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="E250" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="251" spans="1:12">
       <c r="C251" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -33886,24 +33892,24 @@
     </row>
     <row r="252" spans="1:12">
       <c r="C252" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="D252">
         <v>1</v>
       </c>
       <c r="E252" s="39" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="J252">
         <v>1</v>
       </c>
       <c r="K252" s="39" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="253" spans="1:12">
       <c r="C253" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -33923,10 +33929,10 @@
         <v>3</v>
       </c>
       <c r="E254" s="39" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F254" t="s">
         <v>2200</v>
-      </c>
-      <c r="F254" t="s">
-        <v>2203</v>
       </c>
       <c r="J254">
         <v>3</v>
@@ -33935,7 +33941,7 @@
         <v>166</v>
       </c>
       <c r="L254" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -33946,16 +33952,16 @@
         <v>35</v>
       </c>
       <c r="F255" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="J255">
         <v>4</v>
       </c>
       <c r="K255" s="39" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="L255" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -33966,10 +33972,10 @@
         <v>5</v>
       </c>
       <c r="E256" s="39" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F256" t="s">
         <v>2202</v>
-      </c>
-      <c r="F256" t="s">
-        <v>2205</v>
       </c>
       <c r="J256">
         <v>5</v>
@@ -33978,15 +33984,15 @@
         <v>35</v>
       </c>
       <c r="L256" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="257" spans="1:11">
       <c r="E257" s="39" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="K257" s="39" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -33997,7 +34003,7 @@
         <v>1000000</v>
       </c>
       <c r="K258" s="39" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -34010,29 +34016,29 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="B261" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="G261" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="262" spans="1:11">
       <c r="B262" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="264" spans="1:11">
       <c r="B264" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="E264" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="J264" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -34108,12 +34114,12 @@
     </row>
     <row r="270" spans="1:11">
       <c r="D270" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="271" spans="1:11">
       <c r="G271" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="I271" t="s">
         <v>201</v>
@@ -34145,13 +34151,13 @@
     </row>
     <row r="279" spans="1:13">
       <c r="B279" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="E279" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="J279" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -34184,10 +34190,10 @@
         <v>201</v>
       </c>
       <c r="L281" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="M281" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -34238,12 +34244,12 @@
         <v>867</v>
       </c>
       <c r="K283" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="286" spans="1:13">
       <c r="D286" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
   </sheetData>
@@ -34279,7 +34285,7 @@
   <sheetData>
     <row r="2" spans="2:21">
       <c r="D2" s="25" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="3" spans="2:21">
@@ -34333,7 +34339,7 @@
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="25" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>1400</v>
@@ -34558,10 +34564,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="217" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="M7" s="217" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="N7" s="217"/>
       <c r="P7" s="25"/>
@@ -34591,7 +34597,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="225" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="M8" s="135"/>
       <c r="N8" s="26"/>
@@ -34649,7 +34655,7 @@
         <v>758</v>
       </c>
       <c r="F12" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="L12" t="s">
         <v>757</v>
@@ -34706,7 +34712,7 @@
         <v>346</v>
       </c>
       <c r="F16" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="J16" s="182" t="s">
         <v>1343</v>
@@ -34721,10 +34727,10 @@
         <v>760</v>
       </c>
       <c r="F17" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="K17" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -34736,12 +34742,12 @@
         <v>1342</v>
       </c>
       <c r="K18" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="F19" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -35367,7 +35373,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="260"/>
       <c r="D6" s="189" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="E6" s="406" t="s">
         <v>135</v>
@@ -35383,7 +35389,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="36" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="D7" s="189"/>
       <c r="F7" s="315"/>
@@ -35395,12 +35401,12 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="36" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="96"/>
       <c r="F8" s="36" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="G8" s="315"/>
       <c r="H8" s="315"/>
@@ -35418,7 +35424,7 @@
       <c r="D9" s="78"/>
       <c r="E9" s="96"/>
       <c r="F9" s="96" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="G9" s="315"/>
       <c r="H9" s="315"/>
@@ -35430,13 +35436,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="36" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="D10" s="78"/>
       <c r="E10" s="96"/>
       <c r="F10" s="315"/>
       <c r="G10" s="96" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="H10" s="315"/>
       <c r="I10" s="315"/>
@@ -35447,17 +35453,17 @@
     </row>
     <row r="11" spans="1:13">
       <c r="B11" s="36" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="D11" s="78"/>
       <c r="E11" s="96"/>
       <c r="F11" s="315"/>
       <c r="G11" s="106" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="H11" s="315"/>
       <c r="I11" s="96" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="J11" s="315"/>
       <c r="K11" s="172"/>
@@ -35466,7 +35472,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="36" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="D12" s="328"/>
       <c r="E12" s="96"/>
@@ -35474,7 +35480,7 @@
       <c r="G12" s="315"/>
       <c r="H12" s="315"/>
       <c r="I12" s="96" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="J12" s="315"/>
       <c r="K12" s="172"/>
@@ -35483,12 +35489,12 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="36" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="D13" s="328"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="G13" s="315"/>
       <c r="H13" s="315"/>
@@ -35502,10 +35508,10 @@
       <c r="D14" s="78"/>
       <c r="E14" s="315"/>
       <c r="F14" s="406" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G14" s="406" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="H14" s="315"/>
       <c r="I14" s="315"/>
@@ -35518,10 +35524,10 @@
       <c r="D15" s="78"/>
       <c r="E15" s="315"/>
       <c r="F15" s="406" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="H15" s="315"/>
       <c r="I15" s="315"/>
@@ -35534,7 +35540,7 @@
       <c r="D16" s="79"/>
       <c r="E16" s="266"/>
       <c r="F16" s="266" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="G16" s="266" t="s">
         <v>1464</v>
@@ -35581,7 +35587,7 @@
         <v>1860</v>
       </c>
       <c r="D21" s="189" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="E21" s="406" t="s">
         <v>135</v>
@@ -35602,7 +35608,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="189" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="E22" s="406" t="s">
         <v>876</v>
@@ -35621,7 +35627,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="D23" s="189" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="E23" s="406" t="s">
         <v>867</v>
@@ -35647,7 +35653,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="36" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D25" s="189"/>
       <c r="F25" s="406"/>
@@ -35665,7 +35671,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1">
       <c r="A26" s="36" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="96"/>
@@ -35682,7 +35688,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="36" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D27" s="78"/>
       <c r="E27" s="96"/>
@@ -35713,10 +35719,10 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="36" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="D29" s="78"/>
       <c r="E29" s="96" t="s">
@@ -35736,10 +35742,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="36" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="D30" s="328"/>
       <c r="E30" s="96">
@@ -35827,7 +35833,7 @@
         <v>1860</v>
       </c>
       <c r="D39" s="189" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="E39" s="406" t="s">
         <v>135</v>
@@ -35848,7 +35854,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="189" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="E40" s="406" t="s">
         <v>876</v>
@@ -35867,7 +35873,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="D41" s="189" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="E41" s="406" t="s">
         <v>867</v>
@@ -35882,7 +35888,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="36" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D42" s="189"/>
       <c r="E42" s="406"/>
@@ -35896,7 +35902,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="36" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D43" s="189"/>
       <c r="F43" s="406"/>
@@ -35914,7 +35920,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1">
       <c r="A44" s="36" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="96"/>
@@ -35942,7 +35948,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="36" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="D46" s="78"/>
       <c r="E46" s="96"/>
@@ -35962,7 +35968,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1">
       <c r="A47" s="36" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D47" s="78"/>
       <c r="E47" s="96"/>
@@ -35980,7 +35986,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="36" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="D48" s="328"/>
       <c r="E48" s="96"/>
@@ -35993,7 +35999,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="36" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="D49" s="328"/>
       <c r="E49" s="96"/>
@@ -36007,7 +36013,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="36" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="406"/>
@@ -36021,7 +36027,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="36" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="D51" s="78"/>
       <c r="E51" s="406"/>
@@ -36035,7 +36041,7 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1">
       <c r="A52" s="36" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="C52" s="96">
         <v>20</v>
@@ -36052,7 +36058,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="36" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="C53" s="96" t="s">
         <v>166</v>
@@ -36060,7 +36066,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="36" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="C54" s="96">
         <v>22</v>
@@ -36103,7 +36109,7 @@
         <v>1860</v>
       </c>
       <c r="D59" s="189" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="E59" s="406" t="s">
         <v>135</v>
@@ -36125,7 +36131,7 @@
         <v>38</v>
       </c>
       <c r="D60" s="189" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="E60" s="406" t="s">
         <v>876</v>
@@ -36144,10 +36150,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="36" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D61" s="189" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="E61" s="406" t="s">
         <v>867</v>
@@ -36161,7 +36167,7 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1">
       <c r="A62" s="36" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D62" s="189"/>
       <c r="E62" s="406"/>
@@ -36175,7 +36181,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="36" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D63" s="189"/>
       <c r="F63" s="406"/>
@@ -36194,7 +36200,7 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1">
       <c r="A64" s="36" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="D64" s="78"/>
       <c r="E64" s="96"/>
@@ -36211,7 +36217,7 @@
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
       <c r="A65" s="36" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D65" s="78"/>
       <c r="E65" s="96"/>
@@ -36226,10 +36232,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="36" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="D66" s="78"/>
       <c r="E66" s="96"/>
@@ -36250,10 +36256,10 @@
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
       <c r="A67" s="36" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="D67" s="78"/>
       <c r="E67" s="96"/>
@@ -36272,7 +36278,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="36" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="D68" s="328"/>
       <c r="E68" s="96"/>
@@ -36286,17 +36292,17 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="36" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="D69" s="328"/>
       <c r="E69" s="96" t="s">
         <v>70</v>
       </c>
       <c r="F69" s="96" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="G69" s="406"/>
       <c r="H69" s="406"/>
@@ -36308,21 +36314,21 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="36" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="C70" s="410" t="s">
         <v>134</v>
       </c>
       <c r="D70" s="78"/>
       <c r="E70" s="406" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="F70" s="96" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="G70" s="406"/>
       <c r="H70" s="96" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="I70" s="406"/>
       <c r="J70" s="406"/>
@@ -36332,14 +36338,14 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="36" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="C71" s="410">
         <v>0</v>
       </c>
       <c r="D71" s="78"/>
       <c r="E71" s="406" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="F71" s="406"/>
       <c r="G71" s="96"/>
@@ -36351,7 +36357,7 @@
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
       <c r="A72" s="36" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="C72" s="410" t="s">
         <v>134</v>
@@ -36369,7 +36375,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="36" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C73" s="410">
         <v>0</v>
@@ -36379,7 +36385,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="36" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="C74" s="410" t="s">
         <v>166</v>
@@ -36389,7 +36395,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="36" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="C75" s="410">
         <v>0</v>
@@ -36439,7 +36445,7 @@
         <v>1860</v>
       </c>
       <c r="D79" s="189" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="E79" s="406" t="s">
         <v>135</v>
@@ -36462,7 +36468,7 @@
         <v>38</v>
       </c>
       <c r="D80" s="189" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="E80" s="406" t="s">
         <v>876</v>
@@ -36482,10 +36488,10 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="36" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D81" s="189" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="E81" s="406" t="s">
         <v>867</v>
@@ -36500,7 +36506,7 @@
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
       <c r="A82" s="36" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D82" s="189"/>
       <c r="E82" s="406"/>
@@ -36513,7 +36519,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="36" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D83" s="189"/>
       <c r="F83" s="406"/>
@@ -36532,7 +36538,7 @@
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
       <c r="A84" s="36" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="D84" s="78"/>
       <c r="E84" s="96"/>
@@ -36549,7 +36555,7 @@
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
       <c r="A85" s="36" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D85" s="78"/>
       <c r="E85" s="96"/>
@@ -36563,7 +36569,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="36" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="D86" s="78"/>
       <c r="E86" s="96"/>
@@ -36583,11 +36589,11 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" s="326" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="B87" s="326"/>
       <c r="C87" s="36" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="D87" s="78"/>
       <c r="E87" s="96"/>
@@ -36605,7 +36611,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="36" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="D88" s="328"/>
       <c r="E88" s="96"/>
@@ -36622,7 +36628,7 @@
         <v>70</v>
       </c>
       <c r="F89" s="96" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="G89" s="406"/>
       <c r="H89" s="406"/>
@@ -36635,14 +36641,14 @@
       <c r="C90" s="410"/>
       <c r="D90" s="78"/>
       <c r="E90" s="406" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="F90" s="96" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="G90" s="406"/>
       <c r="H90" s="96" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="I90" s="406"/>
       <c r="J90" s="406"/>
@@ -36653,7 +36659,7 @@
       <c r="C91" s="410"/>
       <c r="D91" s="78"/>
       <c r="E91" s="406" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="F91" s="406"/>
       <c r="G91" s="96"/>
@@ -36698,7 +36704,7 @@
       </c>
       <c r="F95" s="76"/>
       <c r="G95" s="76" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="H95" s="76"/>
       <c r="I95" s="76"/>
@@ -36710,13 +36716,13 @@
         <v>1860</v>
       </c>
       <c r="D96" s="189" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="E96" s="406" t="s">
         <v>876</v>
       </c>
       <c r="G96" s="138" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="H96" s="138" t="s">
         <v>135</v>
@@ -36734,7 +36740,7 @@
         <v>38</v>
       </c>
       <c r="D97" s="189" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="E97" s="406" t="s">
         <v>876</v>
@@ -36752,10 +36758,10 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="36" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D98" s="189" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="E98" s="406" t="s">
         <v>876</v>
@@ -36769,7 +36775,7 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" thickBot="1">
       <c r="A99" s="36" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D99" s="189"/>
       <c r="E99" s="406"/>
@@ -36782,7 +36788,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="36" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="D100" s="189"/>
       <c r="E100" s="406" t="s">
@@ -36790,7 +36796,7 @@
       </c>
       <c r="F100" s="406"/>
       <c r="G100" s="406" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="H100" s="406" t="s">
         <v>876</v>
@@ -36805,7 +36811,7 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" thickBot="1">
       <c r="A101" s="36" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="D101" s="78"/>
       <c r="E101" s="96"/>
@@ -36821,7 +36827,7 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" thickBot="1">
       <c r="A102" s="36" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D102" s="78"/>
       <c r="E102" s="96" t="s">
@@ -36836,16 +36842,16 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="36" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="D103" s="78"/>
       <c r="E103" s="96"/>
       <c r="F103" s="406"/>
       <c r="G103" s="286" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="H103" s="261" t="s">
         <v>867</v>
@@ -36860,14 +36866,14 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="36" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="D104" s="78"/>
       <c r="E104" s="96" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="F104" s="406"/>
       <c r="G104" s="410"/>
@@ -36882,7 +36888,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="36" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="D105" s="328"/>
       <c r="E105" s="96"/>
@@ -36894,17 +36900,17 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="36" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="D106" s="328"/>
       <c r="E106" s="96" t="s">
         <v>70</v>
       </c>
       <c r="F106" s="96" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="G106" s="406"/>
       <c r="H106" s="406"/>
@@ -36914,22 +36920,22 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="36" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="C107" s="410"/>
       <c r="D107" s="78"/>
       <c r="E107" s="406" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="F107" s="96" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="G107" s="406"/>
       <c r="H107" s="96" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="I107" s="406"/>
       <c r="J107" s="406"/>
@@ -36937,15 +36943,15 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="36" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="C108" s="410"/>
       <c r="D108" s="78"/>
       <c r="E108" s="406" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="F108" s="406"/>
       <c r="G108" s="96"/>
@@ -37510,10 +37516,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="446" t="s">
+      <c r="B1" s="450" t="s">
         <v>1369</v>
       </c>
-      <c r="C1" s="446"/>
+      <c r="C1" s="450"/>
       <c r="E1" t="s">
         <v>1370</v>
       </c>
@@ -38935,18 +38941,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="447" t="s">
+      <c r="B3" s="451" t="s">
         <v>1394</v>
       </c>
-      <c r="C3" s="448"/>
-      <c r="D3" s="448"/>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="448"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="448"/>
-      <c r="J3" s="448"/>
-      <c r="K3" s="449"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
+      <c r="I3" s="452"/>
+      <c r="J3" s="452"/>
+      <c r="K3" s="453"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -39061,24 +39067,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="450" t="s">
+      <c r="B15" s="454" t="s">
         <v>1395</v>
       </c>
-      <c r="C15" s="451"/>
-      <c r="D15" s="451"/>
-      <c r="E15" s="451"/>
-      <c r="F15" s="451"/>
-      <c r="G15" s="451"/>
-      <c r="H15" s="451"/>
-      <c r="I15" s="451"/>
-      <c r="J15" s="451"/>
-      <c r="K15" s="451"/>
-      <c r="L15" s="451"/>
-      <c r="M15" s="451"/>
-      <c r="N15" s="451"/>
-      <c r="O15" s="451"/>
-      <c r="P15" s="451"/>
-      <c r="Q15" s="451"/>
+      <c r="C15" s="455"/>
+      <c r="D15" s="455"/>
+      <c r="E15" s="455"/>
+      <c r="F15" s="455"/>
+      <c r="G15" s="455"/>
+      <c r="H15" s="455"/>
+      <c r="I15" s="455"/>
+      <c r="J15" s="455"/>
+      <c r="K15" s="455"/>
+      <c r="L15" s="455"/>
+      <c r="M15" s="455"/>
+      <c r="N15" s="455"/>
+      <c r="O15" s="455"/>
+      <c r="P15" s="455"/>
+      <c r="Q15" s="455"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -39370,10 +39376,10 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="36" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1"/>
@@ -39396,14 +39402,14 @@
         <v>862</v>
       </c>
       <c r="K3" s="76" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="L3" s="77"/>
       <c r="N3" s="402" t="s">
         <v>862</v>
       </c>
       <c r="O3" s="76" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="P3" s="77"/>
     </row>
@@ -39451,11 +39457,11 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="36" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="B7" s="78"/>
       <c r="C7" s="36" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="D7" s="70"/>
       <c r="F7" s="78"/>
@@ -39467,10 +39473,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="36" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="C8" s="260" t="s">
         <v>1407</v>
@@ -39518,7 +39524,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="36" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="B12" s="78"/>
       <c r="D12" s="70"/>
@@ -39531,29 +39537,29 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="36" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="C13" s="260" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="D13" s="70"/>
       <c r="F13" s="400"/>
       <c r="G13" s="260" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="326"/>
       <c r="J13" s="78"/>
       <c r="K13" s="260" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="L13" s="401"/>
       <c r="N13" s="78"/>
       <c r="O13" s="260" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="P13" s="70"/>
     </row>
@@ -39584,44 +39590,44 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="B16" s="403" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="C16" s="404"/>
       <c r="D16" s="405"/>
       <c r="F16" s="403" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="G16" s="404"/>
       <c r="H16" s="405"/>
       <c r="J16" s="403" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="K16" s="404"/>
       <c r="L16" s="405"/>
       <c r="N16" s="403" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="O16" s="404"/>
       <c r="P16" s="405"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="75" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="77"/>
       <c r="F17" s="75" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
       <c r="J17" s="75" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="K17" s="76"/>
       <c r="L17" s="77"/>
       <c r="N17" s="75" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="O17" s="76"/>
       <c r="P17" s="77"/>
@@ -39658,12 +39664,12 @@
       <c r="D20" s="70"/>
       <c r="F20" s="78"/>
       <c r="G20" s="36" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="H20" s="70"/>
       <c r="J20" s="78"/>
       <c r="K20" s="36" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="L20" s="70"/>
       <c r="N20" s="78"/>
@@ -39978,75 +39984,80 @@
       <c r="M214" s="396"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="433"/>
-      <c r="E223" s="433"/>
+      <c r="D223" s="437"/>
+      <c r="E223" s="437"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="433"/>
-      <c r="E227" s="433"/>
-      <c r="G227" s="433"/>
-      <c r="H227" s="433"/>
-      <c r="J227" s="433"/>
-      <c r="K227" s="433"/>
+      <c r="D227" s="437"/>
+      <c r="E227" s="437"/>
+      <c r="G227" s="437"/>
+      <c r="H227" s="437"/>
+      <c r="J227" s="437"/>
+      <c r="K227" s="437"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="434"/>
+      <c r="D273" s="439"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="434"/>
+      <c r="D274" s="439"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="434"/>
+      <c r="D275" s="439"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="434"/>
+      <c r="D276" s="439"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="434"/>
+      <c r="D277" s="439"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="434"/>
+      <c r="D278" s="439"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="435"/>
-      <c r="C287" s="433"/>
-      <c r="D287" s="433"/>
+      <c r="B287" s="438"/>
+      <c r="C287" s="437"/>
+      <c r="D287" s="437"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="434"/>
-      <c r="I288" s="435"/>
+      <c r="B288" s="439"/>
+      <c r="I288" s="438"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="434"/>
-      <c r="I289" s="434"/>
-      <c r="N289" s="435"/>
+      <c r="B289" s="439"/>
+      <c r="I289" s="439"/>
+      <c r="N289" s="438"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="434"/>
-      <c r="F290" s="433"/>
-      <c r="G290" s="433"/>
-      <c r="H290" s="433"/>
-      <c r="I290" s="434"/>
-      <c r="N290" s="434"/>
+      <c r="B290" s="439"/>
+      <c r="F290" s="437"/>
+      <c r="G290" s="437"/>
+      <c r="H290" s="437"/>
+      <c r="I290" s="439"/>
+      <c r="N290" s="439"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="434"/>
-      <c r="C291" s="433"/>
-      <c r="D291" s="433"/>
-      <c r="I291" s="434"/>
-      <c r="K291" s="433"/>
-      <c r="L291" s="433"/>
-      <c r="M291" s="433"/>
-      <c r="N291" s="434"/>
+      <c r="B291" s="439"/>
+      <c r="C291" s="437"/>
+      <c r="D291" s="437"/>
+      <c r="I291" s="439"/>
+      <c r="K291" s="437"/>
+      <c r="L291" s="437"/>
+      <c r="M291" s="437"/>
+      <c r="N291" s="439"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="434"/>
+      <c r="N292" s="439"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="256"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -40054,11 +40065,6 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40069,8 +40075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O323"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40915,16 +40921,16 @@
         <v>1</v>
       </c>
       <c r="H47" s="355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="355">
         <v>1</v>
       </c>
       <c r="J47" s="352">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="48" spans="2:15">
@@ -40941,22 +40947,22 @@
         <v>0</v>
       </c>
       <c r="F48" s="354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="354">
         <v>1</v>
       </c>
       <c r="H48" s="354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="352">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="49" spans="2:12">
@@ -40982,16 +40988,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="358">
-        <v>0</v>
-      </c>
-      <c r="J49" s="352" t="s">
-        <v>1900</v>
+        <v>1</v>
+      </c>
+      <c r="J49" s="389" t="s">
+        <v>2475</v>
       </c>
       <c r="K49" s="356">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="50" spans="2:12">
@@ -41008,7 +41014,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="359">
         <v>1</v>
@@ -41020,13 +41026,13 @@
         <v>1</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>1909</v>
+        <v>2476</v>
       </c>
       <c r="K50" s="353">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L50" s="36" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="51" spans="2:12">
@@ -41043,7 +41049,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="352">
         <v>0</v>
@@ -41052,64 +41058,64 @@
         <v>1</v>
       </c>
       <c r="I51" s="352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>1918</v>
+        <v>2477</v>
       </c>
       <c r="K51" s="353">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="L52" s="25" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="C53" s="25" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="C54" s="25" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="L54" s="36" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="C55" s="25" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="56" spans="2:12">
       <c r="C56" s="25" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="58" spans="2:12">
       <c r="D58" s="25" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>1213</v>
@@ -41117,24 +41123,24 @@
     </row>
     <row r="59" spans="2:12">
       <c r="C59" s="25" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="60" spans="2:12">
       <c r="C60" s="25" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>1403</v>
@@ -41145,18 +41151,18 @@
     </row>
     <row r="61" spans="2:12">
       <c r="C61" s="25" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="62" spans="2:12">
       <c r="C62" s="25" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="219" spans="2:11">
@@ -41412,7 +41418,7 @@
       <c r="G2" s="76"/>
       <c r="H2" s="77"/>
       <c r="J2" s="75" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K2" s="76"/>
       <c r="L2" s="77"/>
@@ -41423,14 +41429,14 @@
         <v>43</v>
       </c>
       <c r="D3" s="273" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="F3" s="78"/>
       <c r="G3" s="36" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="J3" s="78"/>
       <c r="K3" s="36" t="s">
@@ -41457,7 +41463,7 @@
         <v>45</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="J4" s="78" t="s">
         <v>1438</v>
@@ -41498,37 +41504,37 @@
         <v>1854</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="F6" s="78"/>
       <c r="G6" s="36" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="70" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="36" t="s">
         <v>969</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="78"/>
       <c r="C7" s="316" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="36" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="J7" s="78"/>
       <c r="L7" s="70"/>
@@ -41538,7 +41544,7 @@
         <v>1858</v>
       </c>
       <c r="C8" s="288" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="D8" s="81"/>
       <c r="F8" s="79"/>
@@ -41548,7 +41554,7 @@
         <v>1858</v>
       </c>
       <c r="K8" s="80" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="L8" s="81"/>
     </row>
@@ -41599,7 +41605,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="J12" s="322" t="s">
         <v>1438</v>
@@ -41611,7 +41617,7 @@
         <v>1856</v>
       </c>
       <c r="M12" s="251" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -41625,14 +41631,14 @@
         <v>43</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="J13" s="322"/>
       <c r="K13" s="281" t="s">
         <v>46</v>
       </c>
       <c r="L13" s="323" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -41659,10 +41665,10 @@
         <v>1437</v>
       </c>
       <c r="J15" s="324" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="K15" s="409" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="L15" s="325"/>
     </row>
@@ -41677,7 +41683,7 @@
         <v>1858</v>
       </c>
       <c r="G16" s="317" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -41685,10 +41691,10 @@
         <v>1848</v>
       </c>
       <c r="J17" s="75" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="K17" s="76"/>
-      <c r="L17" s="436"/>
+      <c r="L17" s="440"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1">
       <c r="B18" s="36" t="s">
@@ -41699,7 +41705,7 @@
         <v>1857</v>
       </c>
       <c r="K18" s="80"/>
-      <c r="L18" s="437"/>
+      <c r="L18" s="441"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="36" t="s">
@@ -41730,8 +41736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N71" sqref="M71:N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41778,7 +41784,7 @@
         <v>135</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="Q3" s="32"/>
     </row>
@@ -41790,7 +41796,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="Q4" s="32"/>
     </row>
@@ -41805,7 +41811,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="F6" s="384" t="s">
         <v>131</v>
@@ -41857,7 +41863,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
       <c r="C9" s="25" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="F9" s="384" t="s">
         <v>1040</v>
@@ -41871,12 +41877,12 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
       <c r="A10" s="25" t="s">
-        <v>2462</v>
-      </c>
-      <c r="C10" s="452" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C10" s="411" t="s">
         <v>1866</v>
       </c>
-      <c r="D10" s="452"/>
+      <c r="D10" s="411"/>
       <c r="F10" s="384" t="s">
         <v>133</v>
       </c>
@@ -41890,7 +41896,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="F11" s="384"/>
       <c r="G11" s="389"/>
@@ -41913,12 +41919,12 @@
       <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B13" s="452" t="s">
-        <v>2447</v>
-      </c>
-      <c r="C13" s="452"/>
-      <c r="D13" s="452"/>
-      <c r="E13" s="452"/>
+      <c r="B13" s="411" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C13" s="411"/>
+      <c r="D13" s="411"/>
+      <c r="E13" s="411"/>
       <c r="F13" s="31"/>
       <c r="L13" s="33"/>
       <c r="M13" s="35"/>
@@ -41930,7 +41936,7 @@
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="25" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="Q14" s="32"/>
     </row>
@@ -41943,18 +41949,18 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="25" t="s">
-        <v>2464</v>
-      </c>
-      <c r="C16" s="453" t="s">
-        <v>2448</v>
-      </c>
-      <c r="D16" s="453"/>
+        <v>2461</v>
+      </c>
+      <c r="C16" s="412" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D16" s="412"/>
       <c r="F16" s="31"/>
       <c r="G16" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
@@ -41963,50 +41969,50 @@
         <v>38</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="25" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="Q17" s="32"/>
     </row>
     <row r="18" spans="1:17">
       <c r="F18" s="31"/>
       <c r="G18" s="137" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="B19" s="453" t="s">
-        <v>2449</v>
-      </c>
-      <c r="C19" s="453"/>
-      <c r="D19" s="453"/>
-      <c r="E19" s="453"/>
+      <c r="B19" s="412" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C19" s="412"/>
+      <c r="D19" s="412"/>
+      <c r="E19" s="412"/>
       <c r="F19" s="31"/>
       <c r="G19" s="36" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="25" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="276" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="H20" s="276"/>
       <c r="I20" s="276"/>
@@ -42017,7 +42023,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="C21" s="25" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="276" t="s">
@@ -42032,7 +42038,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="C22" s="25" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="F22" s="31"/>
       <c r="Q22" s="32"/>
@@ -42096,7 +42102,7 @@
         <v>135</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="Q28" s="32"/>
     </row>
@@ -42108,7 +42114,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="Q29" s="32"/>
     </row>
@@ -42123,13 +42129,13 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="25" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="F31" s="384" t="s">
         <v>131</v>
@@ -42167,9 +42173,9 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="25" t="s">
-        <v>2462</v>
-      </c>
-      <c r="C33" s="452" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C33" s="411" t="s">
         <v>1866</v>
       </c>
       <c r="F33" s="384" t="s">
@@ -42198,9 +42204,9 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1">
       <c r="C35" s="25" t="s">
-        <v>2446</v>
-      </c>
-      <c r="D35" s="452"/>
+        <v>2443</v>
+      </c>
+      <c r="D35" s="411"/>
       <c r="F35" s="384" t="s">
         <v>133</v>
       </c>
@@ -42224,7 +42230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="D37" s="25" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="F37" s="384"/>
       <c r="G37" s="389"/>
@@ -42237,12 +42243,12 @@
       <c r="Q37" s="32"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B38" s="452" t="s">
-        <v>2447</v>
-      </c>
-      <c r="C38" s="452"/>
-      <c r="D38" s="452"/>
-      <c r="E38" s="452"/>
+      <c r="B38" s="411" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C38" s="411"/>
+      <c r="D38" s="411"/>
+      <c r="E38" s="411"/>
       <c r="F38" s="31"/>
       <c r="L38" s="33"/>
       <c r="M38" s="35"/>
@@ -42254,7 +42260,7 @@
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="25" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="Q39" s="32"/>
     </row>
@@ -42267,18 +42273,18 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="25" t="s">
-        <v>2464</v>
-      </c>
-      <c r="C41" s="453" t="s">
-        <v>2448</v>
-      </c>
-      <c r="D41" s="453"/>
+        <v>2461</v>
+      </c>
+      <c r="C41" s="412" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D41" s="412"/>
       <c r="F41" s="31"/>
       <c r="G41" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="Q41" s="32"/>
     </row>
@@ -42289,49 +42295,49 @@
       <c r="C42" s="36"/>
       <c r="F42" s="31"/>
       <c r="G42" s="25" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="Q42" s="32"/>
     </row>
     <row r="43" spans="1:17">
       <c r="D43" s="25" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="137" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="Q43" s="32"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="B44" s="453" t="s">
-        <v>2449</v>
-      </c>
-      <c r="C44" s="453"/>
-      <c r="D44" s="453"/>
-      <c r="E44" s="453"/>
+      <c r="B44" s="412" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C44" s="412"/>
+      <c r="D44" s="412"/>
+      <c r="E44" s="412"/>
       <c r="F44" s="31"/>
       <c r="G44" s="36" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="Q44" s="32"/>
     </row>
     <row r="45" spans="1:17">
       <c r="C45" s="25" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="276" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="H45" s="276"/>
       <c r="I45" s="276"/>
@@ -42342,7 +42348,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="C46" s="25" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="276" t="s">
@@ -42354,17 +42360,17 @@
         <v>166</v>
       </c>
       <c r="L46" s="25" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="Q46" s="32"/>
     </row>
     <row r="47" spans="1:17">
       <c r="C47" s="25" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="F47" s="31"/>
       <c r="L47" s="25" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="Q47" s="32"/>
     </row>
@@ -42379,7 +42385,7 @@
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
@@ -42404,39 +42410,68 @@
       <c r="K55" s="32"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="G56" s="454"/>
-      <c r="J56" s="454"/>
-      <c r="K56" s="454"/>
+      <c r="G56" s="413"/>
+      <c r="J56" s="413"/>
+      <c r="K56" s="413"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="G57" s="454"/>
-      <c r="J57" s="454"/>
-      <c r="K57" s="454"/>
+      <c r="G57" s="413"/>
+      <c r="J57" s="413"/>
+      <c r="K57" s="413"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="G58" s="454"/>
-      <c r="J58" s="454"/>
-      <c r="K58" s="454"/>
+      <c r="G58" s="413"/>
+      <c r="J58" s="413"/>
+      <c r="K58" s="413"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1">
-      <c r="G59" s="455"/>
-      <c r="J59" s="455"/>
-      <c r="K59" s="455"/>
+      <c r="G59" s="414"/>
+      <c r="J59" s="414"/>
+      <c r="K59" s="414"/>
     </row>
     <row r="61" spans="1:11">
       <c r="G61" s="25" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="G62" s="25" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>2470</v>
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="68" spans="11:14">
+      <c r="L68" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="11:14">
+      <c r="K69" s="25">
+        <v>10</v>
+      </c>
+      <c r="L69" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="11:14">
+      <c r="L70" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="11:14">
+      <c r="L71" s="36">
+        <v>1</v>
+      </c>
+      <c r="M71" s="25" t="s">
+        <v>2473</v>
+      </c>
+      <c r="N71" s="25" t="s">
+        <v>2474</v>
       </c>
     </row>
     <row r="93" spans="7:17">
@@ -42763,23 +42798,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="439" t="s">
+      <c r="A1" s="443" t="s">
         <v>1139</v>
       </c>
-      <c r="B1" s="439"/>
-      <c r="C1" s="439"/>
-      <c r="D1" s="439"/>
-      <c r="E1" s="439"/>
-      <c r="F1" s="439"/>
-      <c r="I1" s="439" t="s">
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="I1" s="443" t="s">
         <v>1149</v>
       </c>
-      <c r="J1" s="439"/>
-      <c r="K1" s="439"/>
-      <c r="L1" s="439"/>
-      <c r="M1" s="439"/>
-      <c r="N1" s="439"/>
-      <c r="O1" s="439"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="443"/>
+      <c r="M1" s="443"/>
+      <c r="N1" s="443"/>
+      <c r="O1" s="443"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -42929,28 +42964,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="420" t="s">
+      <c r="A12" s="424" t="s">
         <v>1151</v>
       </c>
-      <c r="B12" s="438"/>
-      <c r="C12" s="438"/>
-      <c r="D12" s="438"/>
-      <c r="E12" s="438"/>
-      <c r="F12" s="438"/>
-      <c r="G12" s="438"/>
-      <c r="H12" s="421"/>
-      <c r="I12" s="420" t="s">
+      <c r="B12" s="442"/>
+      <c r="C12" s="442"/>
+      <c r="D12" s="442"/>
+      <c r="E12" s="442"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="442"/>
+      <c r="H12" s="425"/>
+      <c r="I12" s="424" t="s">
         <v>1151</v>
       </c>
-      <c r="J12" s="438"/>
-      <c r="K12" s="438"/>
-      <c r="L12" s="438"/>
-      <c r="M12" s="438"/>
-      <c r="N12" s="438"/>
-      <c r="O12" s="438"/>
-      <c r="P12" s="438"/>
-      <c r="Q12" s="438"/>
-      <c r="R12" s="421"/>
+      <c r="J12" s="442"/>
+      <c r="K12" s="442"/>
+      <c r="L12" s="442"/>
+      <c r="M12" s="442"/>
+      <c r="N12" s="442"/>
+      <c r="O12" s="442"/>
+      <c r="P12" s="442"/>
+      <c r="Q12" s="442"/>
+      <c r="R12" s="425"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -43178,14 +43213,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="439" t="s">
+      <c r="A24" s="443" t="s">
         <v>1139</v>
       </c>
-      <c r="B24" s="439"/>
-      <c r="C24" s="439"/>
-      <c r="D24" s="439"/>
-      <c r="E24" s="439"/>
-      <c r="F24" s="439"/>
+      <c r="B24" s="443"/>
+      <c r="C24" s="443"/>
+      <c r="D24" s="443"/>
+      <c r="E24" s="443"/>
+      <c r="F24" s="443"/>
       <c r="H24" s="197" t="s">
         <v>1149</v>
       </c>
@@ -43195,11 +43230,11 @@
       <c r="L24" s="197"/>
       <c r="M24" s="197"/>
       <c r="N24" s="197"/>
-      <c r="P24" s="439" t="s">
+      <c r="P24" s="443" t="s">
         <v>1187</v>
       </c>
-      <c r="Q24" s="439"/>
-      <c r="R24" s="439"/>
+      <c r="Q24" s="443"/>
+      <c r="R24" s="443"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -43439,28 +43474,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="420" t="s">
+      <c r="A35" s="424" t="s">
         <v>1188</v>
       </c>
-      <c r="B35" s="438"/>
-      <c r="C35" s="438"/>
-      <c r="D35" s="438"/>
-      <c r="E35" s="438"/>
-      <c r="F35" s="438"/>
-      <c r="G35" s="438"/>
-      <c r="H35" s="421"/>
-      <c r="I35" s="420" t="s">
+      <c r="B35" s="442"/>
+      <c r="C35" s="442"/>
+      <c r="D35" s="442"/>
+      <c r="E35" s="442"/>
+      <c r="F35" s="442"/>
+      <c r="G35" s="442"/>
+      <c r="H35" s="425"/>
+      <c r="I35" s="424" t="s">
         <v>547</v>
       </c>
-      <c r="J35" s="438"/>
-      <c r="K35" s="438"/>
-      <c r="L35" s="438"/>
-      <c r="M35" s="438"/>
-      <c r="N35" s="438"/>
-      <c r="O35" s="438"/>
-      <c r="P35" s="438"/>
-      <c r="Q35" s="438"/>
-      <c r="R35" s="421"/>
+      <c r="J35" s="442"/>
+      <c r="K35" s="442"/>
+      <c r="L35" s="442"/>
+      <c r="M35" s="442"/>
+      <c r="N35" s="442"/>
+      <c r="O35" s="442"/>
+      <c r="P35" s="442"/>
+      <c r="Q35" s="442"/>
+      <c r="R35" s="425"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="2478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="2480">
   <si>
     <t>USER</t>
   </si>
@@ -7991,6 +7991,12 @@
   </si>
   <si>
     <t>21 ^ 7</t>
+  </si>
+  <si>
+    <t>enter pin</t>
+  </si>
+  <si>
+    <t>enter amount</t>
   </si>
 </sst>
 </file>
@@ -9553,10 +9559,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15957,8 +15963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="C32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:G42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16013,8 +16019,8 @@
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="54">
-        <v>11</v>
+      <c r="F3" s="54" t="s">
+        <v>2478</v>
       </c>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
@@ -16323,8 +16329,8 @@
       <c r="C16" s="105" t="s">
         <v>1220</v>
       </c>
-      <c r="D16" s="54">
-        <v>10</v>
+      <c r="D16" s="54" t="s">
+        <v>2479</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
@@ -21800,48 +21806,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="438"/>
+      <c r="K22" s="439"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="439"/>
+      <c r="K23" s="438"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="439"/>
+      <c r="K24" s="438"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="439"/>
+      <c r="K25" s="438"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="439"/>
+      <c r="K26" s="438"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="439"/>
+      <c r="K27" s="438"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="439"/>
+      <c r="K28" s="438"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="439"/>
+      <c r="K29" s="438"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="439"/>
+      <c r="K30" s="438"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="439"/>
+      <c r="K31" s="438"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="439"/>
+      <c r="K32" s="438"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="281"/>
@@ -39996,68 +40002,63 @@
       <c r="K227" s="437"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="439"/>
+      <c r="D273" s="438"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="439"/>
+      <c r="D274" s="438"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="439"/>
+      <c r="D275" s="438"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="439"/>
+      <c r="D276" s="438"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="439"/>
+      <c r="D277" s="438"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="439"/>
+      <c r="D278" s="438"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="438"/>
+      <c r="B287" s="439"/>
       <c r="C287" s="437"/>
       <c r="D287" s="437"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="439"/>
-      <c r="I288" s="438"/>
+      <c r="B288" s="438"/>
+      <c r="I288" s="439"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="439"/>
-      <c r="I289" s="439"/>
-      <c r="N289" s="438"/>
+      <c r="B289" s="438"/>
+      <c r="I289" s="438"/>
+      <c r="N289" s="439"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="439"/>
+      <c r="B290" s="438"/>
       <c r="F290" s="437"/>
       <c r="G290" s="437"/>
       <c r="H290" s="437"/>
-      <c r="I290" s="439"/>
-      <c r="N290" s="439"/>
+      <c r="I290" s="438"/>
+      <c r="N290" s="438"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="439"/>
+      <c r="B291" s="438"/>
       <c r="C291" s="437"/>
       <c r="D291" s="437"/>
-      <c r="I291" s="439"/>
+      <c r="I291" s="438"/>
       <c r="K291" s="437"/>
       <c r="L291" s="437"/>
       <c r="M291" s="437"/>
-      <c r="N291" s="439"/>
+      <c r="N291" s="438"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="439"/>
+      <c r="N292" s="438"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="256"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -40065,6 +40066,11 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40075,7 +40081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="2506">
   <si>
     <t>USER</t>
   </si>
@@ -5493,12 +5493,6 @@
     <t>(Object data type)</t>
   </si>
   <si>
-    <t>Addr</t>
-  </si>
-  <si>
-    <t>Empl</t>
-  </si>
-  <si>
     <t>number;</t>
   </si>
   <si>
@@ -6242,113 +6236,6 @@
   </si>
   <si>
     <t>intermediate binary code</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>streetName</t>
-  </si>
-  <si>
-    <t>streetNumber</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>Cust</t>
-  </si>
-  <si>
-    <t>creditCard</t>
-  </si>
-  <si>
-    <t>secCode</t>
-  </si>
-  <si>
-    <t>ExpiryDate NO PROGRAM</t>
-  </si>
-  <si>
-    <t>"12/23"</t>
-  </si>
-  <si>
-    <t>does - a</t>
-  </si>
-  <si>
-    <t>processPayment</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">open, close, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sellFood</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>serveFood, takePymanet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,work</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>placeOrder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, cancelOrder</t>
-    </r>
   </si>
   <si>
     <t>public class test {</t>
@@ -7969,6 +7856,150 @@
   </si>
   <si>
     <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>8 Bit</t>
+  </si>
+  <si>
+    <t>Kilo Byte</t>
+  </si>
+  <si>
+    <t>1024 Bytes</t>
+  </si>
+  <si>
+    <t>8196 consecutive 101011</t>
+  </si>
+  <si>
+    <t>1024 Kilo Bytes</t>
+  </si>
+  <si>
+    <t>Giga Byte</t>
+  </si>
+  <si>
+    <t>1024 Mega Byte</t>
+  </si>
+  <si>
+    <t>Tera</t>
+  </si>
+  <si>
+    <t>Peta</t>
+  </si>
+  <si>
+    <t>Sign bit</t>
+  </si>
+  <si>
+    <t>0 = positiv</t>
+  </si>
+  <si>
+    <t>1 = negative</t>
+  </si>
+  <si>
+    <t>j = 106</t>
+  </si>
+  <si>
+    <t>4 mega pixel picture</t>
+  </si>
+  <si>
+    <t>4 million dots</t>
+  </si>
+  <si>
+    <t>pixel = dot = contains color</t>
+  </si>
+  <si>
+    <t>color = color code.</t>
+  </si>
+  <si>
+    <t>9 bit</t>
+  </si>
+  <si>
+    <t>10 bit</t>
+  </si>
+  <si>
+    <t>signed capacity</t>
+  </si>
+  <si>
+    <t>unsigned capacity</t>
+  </si>
+  <si>
+    <t>infinite number</t>
+  </si>
+  <si>
+    <t>name;</t>
+  </si>
+  <si>
+    <t>address;</t>
+  </si>
+  <si>
+    <t>customers;</t>
+  </si>
+  <si>
+    <t>employee;</t>
+  </si>
+  <si>
+    <t>food;</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>streetName;</t>
+  </si>
+  <si>
+    <t>StreetNumber;</t>
+  </si>
+  <si>
+    <t>city;</t>
+  </si>
+  <si>
+    <t>state;</t>
+  </si>
+  <si>
+    <t>zip;</t>
+  </si>
+  <si>
+    <t>phone;</t>
+  </si>
+  <si>
+    <t>creditCard;</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>designation;</t>
+  </si>
+  <si>
+    <t>salary;</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>quantity;</t>
+  </si>
+  <si>
+    <t>price;</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>placeOrder</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>delivery;</t>
+  </si>
+  <si>
+    <t>serve</t>
   </si>
 </sst>
 </file>
@@ -8687,7 +8718,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="462">
+  <cellXfs count="466">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9465,6 +9496,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9535,15 +9574,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9592,14 +9625,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9897,8 +9940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD165"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9911,14 +9954,16 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1">
       <c r="B1" t="s">
-        <v>2438</v>
+        <v>2417</v>
       </c>
       <c r="E1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F1" s="233" t="s">
         <v>19</v>
@@ -9936,10 +9981,10 @@
       <c r="M1" s="233"/>
       <c r="N1" s="233"/>
       <c r="P1" t="s">
-        <v>2447</v>
+        <v>2426</v>
       </c>
       <c r="Q1" t="s">
-        <v>2448</v>
+        <v>2427</v>
       </c>
       <c r="R1" s="42">
         <v>0</v>
@@ -9947,31 +9992,31 @@
     </row>
     <row r="2" spans="2:18" ht="15.75" thickBot="1">
       <c r="E2" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="Q2" t="s">
-        <v>2449</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
-      <c r="H3" s="421" t="s">
+      <c r="H3" s="425" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="422"/>
-      <c r="J3" s="422"/>
-      <c r="K3" s="422"/>
-      <c r="L3" s="423"/>
+      <c r="I3" s="426"/>
+      <c r="J3" s="426"/>
+      <c r="K3" s="426"/>
+      <c r="L3" s="427"/>
       <c r="Q3" t="s">
-        <v>2450</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:18" ht="15.75" thickBot="1">
       <c r="B5" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="E5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
@@ -9987,27 +10032,27 @@
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1">
       <c r="E6" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1675</v>
       </c>
-      <c r="G6" s="424" t="s">
+      <c r="G6" s="428" t="s">
         <v>1189</v>
       </c>
-      <c r="H6" s="425"/>
+      <c r="H6" s="429"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="424" t="s">
+      <c r="J6" s="428" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="425"/>
+      <c r="K6" s="429"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="424" t="s">
+      <c r="M6" s="428" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="425"/>
+      <c r="N6" s="429"/>
       <c r="P6" t="s">
-        <v>2442</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1">
@@ -10029,40 +10074,40 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
       <c r="P7" t="s">
-        <v>2443</v>
+        <v>2422</v>
       </c>
       <c r="Q7" t="s">
-        <v>2445</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="8" spans="2:18">
       <c r="F8" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="G8" s="426" t="s">
+      <c r="G8" s="430" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="427"/>
+      <c r="H8" s="431"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="426" t="s">
+      <c r="J8" s="430" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="427"/>
+      <c r="K8" s="431"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="426" t="s">
+      <c r="M8" s="430" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="427"/>
+      <c r="N8" s="431"/>
       <c r="P8" t="s">
-        <v>2444</v>
+        <v>2423</v>
       </c>
       <c r="Q8" s="119" t="s">
-        <v>2446</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" t="s">
-        <v>2437</v>
+        <v>2416</v>
       </c>
       <c r="F9" s="4">
         <v>123</v>
@@ -10078,29 +10123,29 @@
       <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="417" t="s">
+      <c r="F10" s="421" t="s">
         <v>1687</v>
       </c>
-      <c r="G10" s="418"/>
-      <c r="H10" s="418"/>
-      <c r="I10" s="418"/>
-      <c r="J10" s="418"/>
-      <c r="K10" s="418"/>
-      <c r="L10" s="418"/>
-      <c r="M10" s="418"/>
-      <c r="N10" s="418"/>
+      <c r="G10" s="422"/>
+      <c r="H10" s="422"/>
+      <c r="I10" s="422"/>
+      <c r="J10" s="422"/>
+      <c r="K10" s="422"/>
+      <c r="L10" s="422"/>
+      <c r="M10" s="422"/>
+      <c r="N10" s="422"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="419"/>
-      <c r="G11" s="420"/>
-      <c r="H11" s="420"/>
-      <c r="I11" s="420"/>
-      <c r="J11" s="420"/>
-      <c r="K11" s="420"/>
-      <c r="L11" s="420"/>
-      <c r="M11" s="420"/>
-      <c r="N11" s="420"/>
+      <c r="F11" s="423"/>
+      <c r="G11" s="424"/>
+      <c r="H11" s="424"/>
+      <c r="I11" s="424"/>
+      <c r="J11" s="424"/>
+      <c r="K11" s="424"/>
+      <c r="L11" s="424"/>
+      <c r="M11" s="424"/>
+      <c r="N11" s="424"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -10118,7 +10163,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="9"/>
       <c r="P12" t="s">
-        <v>2440</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="15.75" thickBot="1">
@@ -10139,7 +10184,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="12"/>
       <c r="P13" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="14" spans="2:18">
@@ -10175,7 +10220,7 @@
       <c r="M15" s="113"/>
       <c r="N15" s="18"/>
       <c r="P15" s="10" t="s">
-        <v>2451</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="15.75" thickBot="1">
@@ -10193,7 +10238,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="18"/>
       <c r="P16" t="s">
-        <v>2454</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -10205,11 +10250,11 @@
       <c r="H17" s="113"/>
       <c r="I17" s="18"/>
       <c r="J17" s="383" t="s">
-        <v>2456</v>
+        <v>2435</v>
       </c>
       <c r="K17" s="382"/>
       <c r="L17" s="17" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="18"/>
@@ -10217,18 +10262,18 @@
         <v>137</v>
       </c>
       <c r="T17" s="132" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="F18" s="117"/>
       <c r="G18" s="228"/>
       <c r="H18" s="229" t="s">
-        <v>2435</v>
+        <v>2414</v>
       </c>
       <c r="I18" s="230"/>
-      <c r="J18" s="458" t="s">
-        <v>2457</v>
+      <c r="J18" s="415" t="s">
+        <v>2436</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="17"/>
@@ -10237,17 +10282,17 @@
       </c>
       <c r="N18" s="18"/>
       <c r="P18" t="s">
-        <v>2455</v>
+        <v>2434</v>
       </c>
       <c r="Q18" s="119"/>
       <c r="T18" t="s">
         <v>1216</v>
       </c>
       <c r="V18" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="X18" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -10262,8 +10307,8 @@
         <v>1665</v>
       </c>
       <c r="I19" s="228"/>
-      <c r="J19" s="458" t="s">
-        <v>2458</v>
+      <c r="J19" s="415" t="s">
+        <v>2437</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="17"/>
@@ -10274,10 +10319,10 @@
       </c>
       <c r="Q19" s="132"/>
       <c r="V19" t="s">
+        <v>1909</v>
+      </c>
+      <c r="X19" t="s">
         <v>1911</v>
-      </c>
-      <c r="X19" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1">
@@ -10297,7 +10342,7 @@
         <v>1677</v>
       </c>
       <c r="X20" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -10306,16 +10351,16 @@
       <c r="H21" s="228"/>
       <c r="I21" s="228"/>
       <c r="J21" s="383" t="s">
-        <v>2459</v>
+        <v>2438</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17" t="s">
-        <v>2434</v>
+        <v>2413</v>
       </c>
       <c r="N21" s="18"/>
       <c r="P21" t="s">
-        <v>2452</v>
+        <v>2431</v>
       </c>
       <c r="V21" t="s">
         <v>1675</v>
@@ -10329,12 +10374,12 @@
         <v>17</v>
       </c>
       <c r="G22" s="229" t="s">
-        <v>2436</v>
+        <v>2415</v>
       </c>
       <c r="H22" s="229"/>
       <c r="I22" s="230"/>
       <c r="J22" s="16" t="s">
-        <v>2460</v>
+        <v>2439</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
@@ -10344,33 +10389,33 @@
         <v>1674</v>
       </c>
       <c r="X22" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="415"/>
-      <c r="E23" s="416"/>
+      <c r="D23" s="419"/>
+      <c r="E23" s="420"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="459" t="s">
-        <v>2461</v>
+      <c r="J23" s="416" t="s">
+        <v>2440</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="20"/>
       <c r="V23" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="X23" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="J24" t="s">
-        <v>2453</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -10379,19 +10424,19 @@
       <c r="E25" s="232"/>
       <c r="F25" s="232"/>
       <c r="H25" s="10" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="P25" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -10413,7 +10458,7 @@
         <v>111000</v>
       </c>
       <c r="T27" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="U27">
         <v>72</v>
@@ -10434,13 +10479,13 @@
         <v>1103</v>
       </c>
       <c r="O28" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="Q28" t="s">
         <v>1670</v>
       </c>
       <c r="R28" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="T28" t="s">
         <v>780</v>
@@ -10461,54 +10506,64 @@
         <v>1678</v>
       </c>
       <c r="O29" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="Q29" t="s">
         <v>1672</v>
       </c>
       <c r="R29" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="36">
         <v>8192</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="36">
+        <v>4096</v>
+      </c>
+      <c r="C30" s="36">
+        <v>2048</v>
+      </c>
+      <c r="D30" s="36">
+        <v>1024</v>
+      </c>
+      <c r="E30" s="36">
+        <v>512</v>
+      </c>
+      <c r="F30" s="120">
+        <v>256</v>
+      </c>
       <c r="G30" s="300">
         <v>128</v>
       </c>
       <c r="H30" s="232">
         <v>64</v>
       </c>
-      <c r="I30" s="232">
+      <c r="I30" s="460">
         <v>32</v>
       </c>
       <c r="J30" s="372">
         <v>16</v>
       </c>
-      <c r="K30" s="198">
+      <c r="K30" s="461">
         <v>8</v>
       </c>
-      <c r="L30" s="232">
+      <c r="L30" s="462">
         <v>4</v>
       </c>
-      <c r="M30" s="87">
+      <c r="M30" s="460">
         <v>2</v>
       </c>
-      <c r="N30" s="198">
+      <c r="N30" s="372">
         <v>1</v>
       </c>
       <c r="P30" s="87"/>
       <c r="Q30" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="R30" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -10547,11 +10602,21 @@
       <c r="A32" s="108">
         <v>14</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
+      <c r="B32" s="108">
+        <v>13</v>
+      </c>
+      <c r="C32" s="108">
+        <v>12</v>
+      </c>
+      <c r="D32" s="108">
+        <v>11</v>
+      </c>
+      <c r="E32" s="108" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F32" s="108" t="s">
+        <v>2477</v>
+      </c>
       <c r="G32" s="299" t="s">
         <v>1190</v>
       </c>
@@ -10576,42 +10641,53 @@
       <c r="N32" s="112" t="s">
         <v>1101</v>
       </c>
-      <c r="P32" s="131">
-        <v>127</v>
-      </c>
+      <c r="P32" s="131"/>
       <c r="R32" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="S32" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19 16384:16384">
+        <v>1907</v>
+      </c>
+      <c r="V32" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24 16384:16384">
       <c r="A33" s="111">
         <v>0</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
+      <c r="B33" s="111">
+        <v>0</v>
+      </c>
+      <c r="C33" s="111">
+        <v>0</v>
+      </c>
+      <c r="D33" s="111">
+        <v>1</v>
+      </c>
+      <c r="E33" s="111">
+        <v>1</v>
+      </c>
+      <c r="F33" s="111">
+        <v>1</v>
+      </c>
       <c r="G33" s="135">
         <v>1</v>
       </c>
-      <c r="H33" s="135">
+      <c r="H33" s="243">
         <v>1</v>
       </c>
       <c r="I33" s="243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="243">
         <v>1</v>
       </c>
       <c r="K33" s="243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="243">
         <v>1</v>
@@ -10619,9 +10695,11 @@
       <c r="N33" s="243">
         <v>1</v>
       </c>
-      <c r="O33" s="184"/>
+      <c r="O33" s="184">
+        <v>2003</v>
+      </c>
       <c r="P33" s="370">
-        <v>-128</v>
+        <v>127</v>
       </c>
       <c r="R33" t="s">
         <v>1362</v>
@@ -10629,10 +10707,15 @@
       <c r="S33" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="34" spans="1:19 16384:16384">
+      <c r="V33" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24 16384:16384">
       <c r="F34" s="53"/>
-      <c r="G34" s="145"/>
+      <c r="G34" s="145" t="s">
+        <v>2469</v>
+      </c>
       <c r="H34" s="145"/>
       <c r="I34" s="145"/>
       <c r="J34" s="145"/>
@@ -10641,87 +10724,154 @@
       <c r="M34" s="210"/>
       <c r="N34" s="210"/>
       <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
+      <c r="P34" s="145" t="s">
+        <v>2479</v>
+      </c>
       <c r="Q34" s="145"/>
-    </row>
-    <row r="35" spans="1:19 16384:16384">
+      <c r="V34" t="s">
+        <v>2465</v>
+      </c>
+      <c r="W34" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24 16384:16384">
       <c r="F35" s="53"/>
-      <c r="G35" s="145"/>
+      <c r="G35" s="145" t="s">
+        <v>2470</v>
+      </c>
       <c r="H35" s="145"/>
       <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="146"/>
+      <c r="J35" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" s="145" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="146" t="s">
+        <v>1912</v>
+      </c>
       <c r="M35" s="146"/>
       <c r="N35" s="146"/>
       <c r="O35" s="145"/>
-      <c r="P35" s="89"/>
+      <c r="P35" s="89" t="s">
+        <v>2480</v>
+      </c>
       <c r="Q35" s="146"/>
-    </row>
-    <row r="36" spans="1:19 16384:16384">
+      <c r="V35" t="s">
+        <v>1672</v>
+      </c>
+      <c r="W35" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24 16384:16384" ht="15.75" thickBot="1">
       <c r="E36">
         <v>101010101</v>
       </c>
-      <c r="G36" s="145"/>
+      <c r="G36" s="145" t="s">
+        <v>2471</v>
+      </c>
       <c r="H36" s="145"/>
       <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="146"/>
+      <c r="J36" s="145" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="463" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L36" s="146" t="s">
+        <v>1675</v>
+      </c>
       <c r="M36" s="146"/>
       <c r="N36" s="146"/>
       <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
+      <c r="P36" s="89">
+        <v>255</v>
+      </c>
       <c r="Q36" s="146"/>
-    </row>
-    <row r="37" spans="1:19 16384:16384">
-      <c r="E37" s="37">
-        <v>101111110011</v>
-      </c>
-      <c r="F37" s="37">
-        <v>100000</v>
-      </c>
+      <c r="V36" t="s">
+        <v>2461</v>
+      </c>
+      <c r="W36" t="s">
+        <v>2462</v>
+      </c>
+      <c r="X36" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24 16384:16384" ht="15.75" thickBot="1">
+      <c r="E37" s="72" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F37" s="37"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="286"/>
       <c r="M37" s="209"/>
       <c r="N37" s="209"/>
       <c r="O37" s="37"/>
       <c r="P37" s="209"/>
+      <c r="V37" t="s">
+        <v>2459</v>
+      </c>
+      <c r="W37" t="s">
+        <v>2460</v>
+      </c>
+      <c r="X37">
+        <v>11101010</v>
+      </c>
       <c r="XFD37" s="37" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="38" spans="1:19 16384:16384">
+    <row r="38" spans="1:24 16384:16384">
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
+      <c r="K38" s="144"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
-    </row>
-    <row r="39" spans="1:19 16384:16384">
-      <c r="E39" s="37"/>
+      <c r="P38" t="s">
+        <v>2481</v>
+      </c>
+      <c r="V38" t="s">
+        <v>2458</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24 16384:16384">
+      <c r="C39" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>2476</v>
+      </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
+      <c r="K39" s="144"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
     </row>
-    <row r="40" spans="1:19 16384:16384">
+    <row r="40" spans="1:24 16384:16384">
+      <c r="C40" t="s">
+        <v>2474</v>
+      </c>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -10734,7 +10884,7 @@
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" spans="1:19 16384:16384">
+    <row r="41" spans="1:24 16384:16384">
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -10747,7 +10897,7 @@
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
     </row>
-    <row r="42" spans="1:19 16384:16384">
+    <row r="42" spans="1:24 16384:16384">
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="120"/>
@@ -10760,7 +10910,7 @@
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
     </row>
-    <row r="43" spans="1:19 16384:16384">
+    <row r="43" spans="1:24 16384:16384">
       <c r="E43" s="37"/>
       <c r="F43" s="120"/>
       <c r="G43" s="120"/>
@@ -10773,10 +10923,10 @@
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
       <c r="P43" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19 16384:16384">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24 16384:16384">
       <c r="E44" s="37"/>
       <c r="F44" s="120"/>
       <c r="G44" s="120"/>
@@ -10789,10 +10939,10 @@
       <c r="N44" s="37"/>
       <c r="O44" s="37"/>
       <c r="P44" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19 16384:16384">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24 16384:16384">
       <c r="E45" s="37"/>
       <c r="F45" s="120"/>
       <c r="G45" s="120"/>
@@ -10805,10 +10955,10 @@
       <c r="N45" s="37"/>
       <c r="O45" s="37"/>
       <c r="P45" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19 16384:16384">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24 16384:16384">
       <c r="E46" s="37"/>
       <c r="F46" s="120"/>
       <c r="G46" s="120"/>
@@ -10821,7 +10971,7 @@
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
     </row>
-    <row r="47" spans="1:19 16384:16384">
+    <row r="47" spans="1:24 16384:16384">
       <c r="E47" s="37"/>
       <c r="F47" s="120"/>
       <c r="G47" s="120"/>
@@ -10834,10 +10984,10 @@
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
       <c r="P47" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19 16384:16384">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24 16384:16384">
       <c r="E48" s="37"/>
       <c r="F48" s="120"/>
       <c r="G48" s="120"/>
@@ -10850,7 +11000,7 @@
       <c r="N48" s="37"/>
       <c r="O48" s="37"/>
       <c r="P48" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -10879,7 +11029,7 @@
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
       <c r="P50" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -10895,16 +11045,28 @@
       <c r="N51" s="37"/>
       <c r="O51" s="37"/>
       <c r="P51" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="52" spans="1:28">
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
+      <c r="E52" s="37">
+        <v>101010101011111</v>
+      </c>
+      <c r="F52" s="37">
+        <v>110101</v>
+      </c>
+      <c r="G52" s="37">
+        <v>111001</v>
+      </c>
+      <c r="H52" s="37">
+        <v>1111</v>
+      </c>
+      <c r="I52" s="37">
+        <v>1111100</v>
+      </c>
+      <c r="J52" s="37">
+        <v>1111110</v>
+      </c>
       <c r="K52" s="37"/>
       <c r="L52" s="37"/>
       <c r="M52" s="37"/>
@@ -10947,7 +11109,7 @@
       <c r="C54" s="86"/>
       <c r="D54" s="86"/>
       <c r="E54" s="36" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -10962,7 +11124,7 @@
       </c>
       <c r="O54" s="36"/>
       <c r="P54" s="86" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="Q54" s="86"/>
       <c r="R54" s="86"/>
@@ -10983,7 +11145,7 @@
       <c r="C55" s="86"/>
       <c r="D55" s="86"/>
       <c r="E55" s="36" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -10994,11 +11156,11 @@
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
       <c r="N55" s="36" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="O55" s="36"/>
       <c r="P55" s="86" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="Q55" s="86"/>
       <c r="R55" s="86"/>
@@ -11028,11 +11190,11 @@
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="O56" s="36"/>
       <c r="P56" s="86" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="Q56" s="86"/>
       <c r="R56" s="86"/>
@@ -11060,15 +11222,15 @@
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="36" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="M57" s="36" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="86" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="Q57" s="86"/>
       <c r="R57" s="86"/>
@@ -15964,7 +16126,7 @@
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="337" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E1" s="53"/>
       <c r="F1" s="63" t="s">
@@ -16002,7 +16164,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
       <c r="F3" s="54" t="s">
-        <v>2071</v>
+        <v>2050</v>
       </c>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
@@ -16063,7 +16225,7 @@
       <c r="C6" s="53"/>
       <c r="D6" s="61"/>
       <c r="E6" s="337" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F6" s="53" t="s">
         <v>225</v>
@@ -16163,7 +16325,7 @@
       <c r="G10" s="61"/>
       <c r="H10" s="61"/>
       <c r="I10" s="82" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
@@ -16234,7 +16396,7 @@
       <c r="F13" s="61"/>
       <c r="G13" s="61"/>
       <c r="H13" s="59" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
@@ -16312,7 +16474,7 @@
         <v>1188</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>2072</v>
+        <v>2051</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
@@ -16323,7 +16485,7 @@
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
       <c r="K16" s="60" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="L16" s="337" t="s">
         <v>272</v>
@@ -16349,10 +16511,10 @@
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="K17" s="61" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="L17" s="337" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
@@ -16398,7 +16560,7 @@
         <v>221</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="G19" s="122"/>
       <c r="H19" s="125"/>
@@ -16447,7 +16609,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="61"/>
       <c r="D21" s="124" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="E21" s="61" t="s">
         <v>223</v>
@@ -16621,7 +16783,7 @@
         <v>276</v>
       </c>
       <c r="F35" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1">
@@ -16629,10 +16791,10 @@
         <v>282</v>
       </c>
       <c r="E36" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="H36" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1">
@@ -16667,10 +16829,10 @@
         <v>286</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1">
@@ -16681,7 +16843,7 @@
       <c r="F41" s="346"/>
       <c r="G41" s="348"/>
       <c r="H41" s="163" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -16694,7 +16856,7 @@
         <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -17357,13 +17519,13 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="36" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>2074</v>
+        <v>2053</v>
       </c>
       <c r="E2" s="74" t="s">
-        <v>2075</v>
+        <v>2054</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
@@ -17376,10 +17538,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="36" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>2078</v>
+        <v>2057</v>
       </c>
       <c r="E3" s="390" t="s">
         <v>133</v>
@@ -17402,7 +17564,7 @@
         <v>807</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>2079</v>
+        <v>2058</v>
       </c>
       <c r="E4" s="390" t="s">
         <v>843</v>
@@ -17419,17 +17581,17 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="B5" s="36" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>2080</v>
+        <v>2059</v>
       </c>
       <c r="E5" s="390" t="s">
         <v>851</v>
       </c>
       <c r="F5" s="390"/>
       <c r="I5" s="188" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="J5" s="189">
         <v>4</v>
@@ -17448,10 +17610,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="36" t="s">
-        <v>2088</v>
+        <v>2067</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>2089</v>
+        <v>2068</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="390"/>
@@ -17471,10 +17633,10 @@
     <row r="8" spans="1:13">
       <c r="B8" s="138"/>
       <c r="C8" s="36" t="s">
-        <v>2083</v>
+        <v>2062</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>2090</v>
+        <v>2069</v>
       </c>
       <c r="E8" s="390"/>
       <c r="F8" s="390"/>
@@ -17482,7 +17644,7 @@
         <v>808</v>
       </c>
       <c r="J8" s="170" t="s">
-        <v>2091</v>
+        <v>2070</v>
       </c>
       <c r="K8" s="390"/>
       <c r="M8" s="70"/>
@@ -17493,7 +17655,7 @@
       </c>
       <c r="D9" s="78"/>
       <c r="I9" s="188" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="J9" s="189">
         <v>4</v>
@@ -17513,7 +17675,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>2073</v>
+        <v>2052</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>851</v>
@@ -17532,26 +17694,26 @@
         <v>136</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>2076</v>
+        <v>2055</v>
       </c>
       <c r="I12" s="187" t="s">
         <v>808</v>
       </c>
       <c r="J12" s="170" t="s">
-        <v>2092</v>
+        <v>2071</v>
       </c>
       <c r="K12" s="390"/>
       <c r="M12" s="70"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="D13" s="78" t="s">
-        <v>2086</v>
+        <v>2065</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>2077</v>
+        <v>2056</v>
       </c>
       <c r="I13" s="188" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="J13" s="189">
         <v>4</v>
@@ -17562,7 +17724,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="36" t="s">
-        <v>2087</v>
+        <v>2066</v>
       </c>
       <c r="D14" s="78"/>
       <c r="J14" s="390"/>
@@ -17571,10 +17733,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="36" t="s">
-        <v>2084</v>
+        <v>2063</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>2081</v>
+        <v>2060</v>
       </c>
       <c r="J15" s="390"/>
       <c r="K15" s="390"/>
@@ -17582,10 +17744,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="36" t="s">
-        <v>2085</v>
+        <v>2064</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>2082</v>
+        <v>2061</v>
       </c>
       <c r="J16" s="390"/>
       <c r="K16" s="390"/>
@@ -17923,24 +18085,24 @@
         <v>348</v>
       </c>
       <c r="F1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E2" t="s">
         <v>1802</v>
       </c>
-      <c r="C2" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>1803</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -17950,7 +18112,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="J5" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -17959,16 +18121,16 @@
       <c r="C6" s="351"/>
       <c r="E6" s="28"/>
       <c r="F6" s="358" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="G6" s="30"/>
       <c r="J6" s="349"/>
       <c r="K6" s="359" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="L6" s="351"/>
       <c r="M6" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -17982,7 +18144,7 @@
       <c r="K7" s="353"/>
       <c r="L7" s="354"/>
       <c r="M7" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -17996,7 +18158,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="32"/>
       <c r="M8" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -18041,17 +18203,17 @@
     <row r="12" spans="1:13">
       <c r="A12" s="31"/>
       <c r="B12" s="25" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C12" s="32"/>
       <c r="E12" s="31"/>
       <c r="F12" s="25" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="G12" s="32"/>
       <c r="J12" s="31"/>
       <c r="K12" s="25" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="L12" s="32"/>
     </row>
@@ -18090,18 +18252,18 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="J17" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="J18" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
   </sheetData>
@@ -18143,56 +18305,56 @@
     <row r="3" spans="1:15">
       <c r="C3" s="78"/>
       <c r="D3" s="36" t="s">
-        <v>2105</v>
+        <v>2084</v>
       </c>
       <c r="F3" s="70"/>
       <c r="G3" s="138"/>
       <c r="H3" s="78"/>
       <c r="I3" s="36" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:15">
       <c r="C4" s="78"/>
       <c r="E4" s="36" t="s">
-        <v>2106</v>
+        <v>2085</v>
       </c>
       <c r="F4" s="70"/>
       <c r="H4" s="78"/>
       <c r="J4" s="36" t="s">
-        <v>2094</v>
+        <v>2073</v>
       </c>
       <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="36" t="s">
-        <v>2100</v>
+        <v>2079</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="36" t="s">
-        <v>2107</v>
+        <v>2086</v>
       </c>
       <c r="F5" s="70"/>
       <c r="H5" s="78"/>
       <c r="I5" s="36" t="s">
-        <v>2109</v>
+        <v>2088</v>
       </c>
       <c r="K5" s="70"/>
       <c r="M5" s="36" t="s">
-        <v>2111</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="C6" s="78"/>
       <c r="E6" s="36" t="s">
-        <v>2108</v>
+        <v>2087</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="138"/>
       <c r="H6" s="78"/>
       <c r="J6" s="36" t="s">
-        <v>2110</v>
+        <v>2089</v>
       </c>
       <c r="K6" s="70"/>
     </row>
@@ -18229,28 +18391,28 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="36" t="s">
-        <v>2098</v>
+        <v>2077</v>
       </c>
       <c r="E12" s="78"/>
       <c r="I12" s="70"/>
       <c r="K12" s="36" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>2094</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="36" t="s">
-        <v>2099</v>
+        <v>2078</v>
       </c>
       <c r="E13" s="78"/>
       <c r="I13" s="70"/>
       <c r="K13" s="36" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>2093</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1">
@@ -18260,16 +18422,16 @@
       <c r="H14" s="80"/>
       <c r="I14" s="81"/>
       <c r="K14" s="36" t="s">
-        <v>2096</v>
+        <v>2075</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>2097</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:41">
       <c r="G17" s="75" t="s">
-        <v>2102</v>
+        <v>2081</v>
       </c>
       <c r="H17" s="76"/>
       <c r="I17" s="77"/>
@@ -18280,17 +18442,17 @@
     <row r="18" spans="1:41">
       <c r="G18" s="78"/>
       <c r="H18" s="36" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="I18" s="70"/>
       <c r="J18" s="36" t="s">
-        <v>2103</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="19" spans="1:41">
       <c r="G19" s="78"/>
       <c r="I19" s="70" t="s">
-        <v>2094</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15.75" thickBot="1">
@@ -18309,20 +18471,20 @@
     <row r="23" spans="1:41">
       <c r="G23" s="78"/>
       <c r="H23" s="36" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="I23" s="70"/>
       <c r="J23" s="36" t="s">
-        <v>2104</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="36" t="s">
-        <v>2101</v>
+        <v>2080</v>
       </c>
       <c r="G24" s="78"/>
       <c r="I24" s="70" t="s">
-        <v>2093</v>
+        <v>2072</v>
       </c>
       <c r="N24" s="138"/>
       <c r="X24" s="138"/>
@@ -18365,11 +18527,11 @@
     <row r="28" spans="1:41">
       <c r="G28" s="78"/>
       <c r="H28" s="36" t="s">
-        <v>2095</v>
+        <v>2074</v>
       </c>
       <c r="I28" s="70"/>
       <c r="J28" s="36" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="AA28" s="138"/>
       <c r="AB28" s="138"/>
@@ -18381,7 +18543,7 @@
     <row r="29" spans="1:41">
       <c r="G29" s="78"/>
       <c r="I29" s="70" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="J29" s="392"/>
     </row>
@@ -18409,13 +18571,13 @@
     <row r="34" spans="3:31">
       <c r="C34" s="78"/>
       <c r="D34" s="36" t="s">
-        <v>2105</v>
+        <v>2084</v>
       </c>
       <c r="F34" s="70"/>
       <c r="G34" s="138"/>
       <c r="H34" s="78"/>
       <c r="I34" s="36" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="K34" s="70"/>
     </row>
@@ -18428,12 +18590,12 @@
     <row r="36" spans="3:31">
       <c r="C36" s="78"/>
       <c r="D36" s="36" t="s">
-        <v>2107</v>
+        <v>2086</v>
       </c>
       <c r="F36" s="70"/>
       <c r="H36" s="78"/>
       <c r="I36" s="36" t="s">
-        <v>2109</v>
+        <v>2088</v>
       </c>
       <c r="K36" s="70"/>
     </row>
@@ -18468,10 +18630,10 @@
     <row r="42" spans="3:31">
       <c r="E42" s="78"/>
       <c r="F42" s="36" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>2112</v>
+        <v>2091</v>
       </c>
       <c r="I42" s="70"/>
       <c r="K42" s="36" t="s">
@@ -18482,27 +18644,27 @@
     <row r="43" spans="3:31">
       <c r="E43" s="78"/>
       <c r="F43" s="36" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>2113</v>
+        <v>2092</v>
       </c>
       <c r="I43" s="70"/>
       <c r="K43" s="36" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="44" spans="3:31">
       <c r="E44" s="78"/>
       <c r="F44" s="36" t="s">
-        <v>2095</v>
+        <v>2074</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="I44" s="70"/>
       <c r="K44" s="36" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="45" spans="3:31" ht="15.75" thickBot="1">
@@ -18512,7 +18674,7 @@
       <c r="H45" s="80"/>
       <c r="I45" s="81"/>
       <c r="K45" s="36" t="s">
-        <v>2096</v>
+        <v>2075</v>
       </c>
       <c r="AE45" s="257"/>
     </row>
@@ -18535,29 +18697,29 @@
     </row>
     <row r="53" spans="1:45">
       <c r="C53" s="36" t="s">
-        <v>2120</v>
+        <v>2099</v>
       </c>
       <c r="Z53" s="138"/>
       <c r="AA53" s="138"/>
     </row>
     <row r="54" spans="1:45" ht="15.75" thickBot="1">
       <c r="C54" s="36" t="s">
-        <v>2119</v>
+        <v>2098</v>
       </c>
       <c r="Z54" s="273"/>
     </row>
     <row r="55" spans="1:45">
       <c r="E55" s="75" t="s">
-        <v>2114</v>
+        <v>2093</v>
       </c>
       <c r="F55" s="77"/>
       <c r="H55" s="75" t="s">
-        <v>2115</v>
+        <v>2094</v>
       </c>
       <c r="I55" s="77"/>
       <c r="L55" s="397"/>
       <c r="N55" s="75" t="s">
-        <v>2135</v>
+        <v>2114</v>
       </c>
       <c r="O55" s="77"/>
       <c r="Z55" s="273"/>
@@ -18566,39 +18728,39 @@
     </row>
     <row r="56" spans="1:45">
       <c r="C56" s="36" t="s">
-        <v>2121</v>
+        <v>2100</v>
       </c>
       <c r="E56" s="78"/>
       <c r="F56" s="70" t="s">
-        <v>2117</v>
+        <v>2096</v>
       </c>
       <c r="H56" s="78"/>
       <c r="I56" s="70" t="s">
-        <v>2116</v>
+        <v>2095</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>2122</v>
+        <v>2101</v>
       </c>
       <c r="L56" s="397"/>
       <c r="M56" s="36" t="s">
-        <v>2141</v>
+        <v>2120</v>
       </c>
       <c r="N56" s="78"/>
       <c r="O56" s="70" t="s">
-        <v>2136</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="57" spans="1:45">
       <c r="E57" s="78"/>
       <c r="F57" s="70" t="s">
-        <v>2118</v>
+        <v>2097</v>
       </c>
       <c r="H57" s="78"/>
       <c r="I57" s="70"/>
       <c r="L57" s="397"/>
       <c r="N57" s="78"/>
       <c r="O57" s="70" t="s">
-        <v>2137</v>
+        <v>2116</v>
       </c>
       <c r="AK57" s="138"/>
     </row>
@@ -18610,49 +18772,49 @@
       <c r="L58" s="397"/>
       <c r="N58" s="79"/>
       <c r="O58" s="81" t="s">
-        <v>2138</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="59" spans="1:45" ht="15.75" thickBot="1">
       <c r="A59" s="399" t="s">
-        <v>2161</v>
+        <v>2140</v>
       </c>
       <c r="L59" s="397"/>
     </row>
     <row r="60" spans="1:45">
       <c r="A60" s="399" t="s">
-        <v>2162</v>
+        <v>2141</v>
       </c>
       <c r="F60" s="75" t="s">
-        <v>2127</v>
+        <v>2106</v>
       </c>
       <c r="G60" s="76"/>
       <c r="H60" s="77"/>
       <c r="L60" s="397"/>
       <c r="N60" s="75" t="s">
-        <v>2139</v>
+        <v>2118</v>
       </c>
       <c r="O60" s="77"/>
     </row>
     <row r="61" spans="1:45">
       <c r="A61" s="399" t="s">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="F61" s="78"/>
       <c r="G61" s="36" t="s">
-        <v>2123</v>
+        <v>2102</v>
       </c>
       <c r="H61" s="70"/>
       <c r="I61" s="36" t="s">
-        <v>2151</v>
+        <v>2130</v>
       </c>
       <c r="L61" s="397"/>
       <c r="M61" s="36" t="s">
-        <v>2142</v>
+        <v>2121</v>
       </c>
       <c r="N61" s="78"/>
       <c r="O61" s="70" t="s">
-        <v>2140</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="62" spans="1:45">
@@ -18660,12 +18822,12 @@
       <c r="C62" s="273"/>
       <c r="F62" s="78"/>
       <c r="G62" s="36" t="s">
-        <v>2124</v>
+        <v>2103</v>
       </c>
       <c r="H62" s="70"/>
       <c r="L62" s="397"/>
       <c r="M62" s="36" t="s">
-        <v>2143</v>
+        <v>2122</v>
       </c>
       <c r="N62" s="78"/>
       <c r="O62" s="70" t="s">
@@ -18682,7 +18844,7 @@
       </c>
       <c r="H63" s="81"/>
       <c r="I63" s="36" t="s">
-        <v>2125</v>
+        <v>2104</v>
       </c>
       <c r="K63" s="393"/>
       <c r="L63" s="397"/>
@@ -18693,58 +18855,58 @@
     </row>
     <row r="64" spans="1:45" ht="15.75" thickBot="1">
       <c r="A64" s="138" t="s">
-        <v>2154</v>
+        <v>2133</v>
       </c>
       <c r="B64" s="138"/>
       <c r="C64" s="273"/>
       <c r="F64" s="36" t="s">
-        <v>2126</v>
+        <v>2105</v>
       </c>
       <c r="L64" s="397"/>
       <c r="N64" s="36" t="s">
-        <v>2144</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="15.75" thickBot="1">
       <c r="A65" s="138" t="s">
-        <v>2155</v>
+        <v>2134</v>
       </c>
       <c r="B65" s="273"/>
       <c r="C65" s="273"/>
       <c r="L65" s="397"/>
       <c r="N65" s="75" t="s">
-        <v>2145</v>
+        <v>2124</v>
       </c>
       <c r="O65" s="77"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="273" t="s">
-        <v>2156</v>
+        <v>2135</v>
       </c>
       <c r="B66" s="273"/>
       <c r="C66" s="273"/>
       <c r="F66" s="75" t="s">
-        <v>2131</v>
+        <v>2110</v>
       </c>
       <c r="G66" s="76"/>
       <c r="H66" s="77"/>
       <c r="L66" s="397"/>
       <c r="N66" s="78"/>
       <c r="O66" s="70" t="s">
-        <v>2146</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="138" t="s">
-        <v>2157</v>
+        <v>2136</v>
       </c>
       <c r="F67" s="78"/>
       <c r="G67" s="36" t="s">
-        <v>2128</v>
+        <v>2107</v>
       </c>
       <c r="H67" s="70"/>
       <c r="I67" s="36" t="s">
-        <v>2152</v>
+        <v>2131</v>
       </c>
       <c r="L67" s="397"/>
       <c r="N67" s="78"/>
@@ -18754,14 +18916,14 @@
     </row>
     <row r="68" spans="1:20" ht="15.75" thickBot="1">
       <c r="A68" s="138" t="s">
-        <v>2164</v>
+        <v>2143</v>
       </c>
       <c r="B68" s="138"/>
       <c r="C68" s="138"/>
       <c r="D68" s="138"/>
       <c r="F68" s="79"/>
       <c r="G68" s="80" t="s">
-        <v>2129</v>
+        <v>2108</v>
       </c>
       <c r="H68" s="81"/>
       <c r="K68" s="393"/>
@@ -18774,46 +18936,46 @@
     </row>
     <row r="69" spans="1:20" ht="15.75" thickBot="1">
       <c r="A69" s="138" t="s">
-        <v>2158</v>
+        <v>2137</v>
       </c>
       <c r="B69" s="138"/>
       <c r="C69" s="138"/>
       <c r="F69" s="36" t="s">
-        <v>2130</v>
+        <v>2109</v>
       </c>
       <c r="L69" s="397"/>
       <c r="N69" s="36" t="s">
-        <v>2147</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="15.75" thickBot="1">
       <c r="A70" s="273" t="s">
-        <v>2159</v>
+        <v>2138</v>
       </c>
       <c r="B70" s="273"/>
       <c r="C70" s="273"/>
       <c r="L70" s="397"/>
       <c r="N70" s="75" t="s">
-        <v>2148</v>
+        <v>2127</v>
       </c>
       <c r="O70" s="77"/>
       <c r="P70" s="390"/>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="138" t="s">
-        <v>2160</v>
+        <v>2139</v>
       </c>
       <c r="B71" s="138"/>
       <c r="C71" s="138"/>
       <c r="F71" s="75" t="s">
-        <v>2132</v>
+        <v>2111</v>
       </c>
       <c r="G71" s="76"/>
       <c r="H71" s="77"/>
       <c r="L71" s="397"/>
       <c r="N71" s="78"/>
       <c r="O71" s="70" t="s">
-        <v>2149</v>
+        <v>2128</v>
       </c>
       <c r="P71" s="390"/>
     </row>
@@ -18821,11 +18983,11 @@
       <c r="A72" s="322"/>
       <c r="F72" s="78"/>
       <c r="G72" s="36" t="s">
-        <v>2133</v>
+        <v>2112</v>
       </c>
       <c r="H72" s="70"/>
       <c r="I72" s="36" t="s">
-        <v>2153</v>
+        <v>2132</v>
       </c>
       <c r="L72" s="397"/>
       <c r="N72" s="78"/>
@@ -18836,11 +18998,11 @@
     </row>
     <row r="73" spans="1:20" ht="15.75" thickBot="1">
       <c r="A73" s="273" t="s">
-        <v>2168</v>
+        <v>2147</v>
       </c>
       <c r="F73" s="79"/>
       <c r="G73" s="80" t="s">
-        <v>2134</v>
+        <v>2113</v>
       </c>
       <c r="H73" s="81"/>
       <c r="K73" s="393"/>
@@ -18855,15 +19017,15 @@
     </row>
     <row r="74" spans="1:20" ht="15.75" thickBot="1">
       <c r="A74" s="138" t="s">
-        <v>2169</v>
+        <v>2148</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>2172</v>
+        <v>2151</v>
       </c>
       <c r="L74" s="397"/>
       <c r="M74" s="390"/>
       <c r="N74" s="36" t="s">
-        <v>2150</v>
+        <v>2129</v>
       </c>
       <c r="O74" s="390"/>
       <c r="P74" s="390"/>
@@ -18873,7 +19035,7 @@
     </row>
     <row r="75" spans="1:20">
       <c r="F75" s="75" t="s">
-        <v>2165</v>
+        <v>2144</v>
       </c>
       <c r="G75" s="76"/>
       <c r="H75" s="77"/>
@@ -18884,27 +19046,27 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="36" t="s">
-        <v>2170</v>
+        <v>2149</v>
       </c>
       <c r="F76" s="78"/>
       <c r="G76" s="36" t="s">
-        <v>2166</v>
+        <v>2145</v>
       </c>
       <c r="H76" s="70"/>
     </row>
     <row r="77" spans="1:20" ht="15.75" thickBot="1">
       <c r="A77" s="36" t="s">
-        <v>2171</v>
+        <v>2150</v>
       </c>
       <c r="F77" s="79"/>
       <c r="G77" s="80" t="s">
-        <v>2134</v>
+        <v>2113</v>
       </c>
       <c r="H77" s="81"/>
     </row>
     <row r="78" spans="1:20">
       <c r="F78" s="36" t="s">
-        <v>2167</v>
+        <v>2146</v>
       </c>
       <c r="K78" s="393"/>
       <c r="L78" s="257"/>
@@ -18917,54 +19079,54 @@
     <row r="80" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="81" spans="1:16">
       <c r="E81" s="75" t="s">
-        <v>2114</v>
+        <v>2093</v>
       </c>
       <c r="F81" s="77"/>
       <c r="H81" s="75" t="s">
-        <v>2115</v>
+        <v>2094</v>
       </c>
       <c r="I81" s="77"/>
       <c r="L81" s="397"/>
       <c r="N81" s="75" t="s">
-        <v>2135</v>
+        <v>2114</v>
       </c>
       <c r="O81" s="77"/>
     </row>
     <row r="82" spans="1:16">
       <c r="C82" s="36" t="s">
-        <v>2121</v>
+        <v>2100</v>
       </c>
       <c r="E82" s="78"/>
       <c r="F82" s="70" t="s">
-        <v>2117</v>
+        <v>2096</v>
       </c>
       <c r="H82" s="78"/>
       <c r="I82" s="70" t="s">
-        <v>2116</v>
+        <v>2095</v>
       </c>
       <c r="J82" s="36" t="s">
-        <v>2122</v>
+        <v>2101</v>
       </c>
       <c r="L82" s="397"/>
       <c r="M82" s="36" t="s">
-        <v>2141</v>
+        <v>2120</v>
       </c>
       <c r="N82" s="78"/>
       <c r="O82" s="70" t="s">
-        <v>2136</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="E83" s="78"/>
       <c r="F83" s="70" t="s">
-        <v>2118</v>
+        <v>2097</v>
       </c>
       <c r="H83" s="78"/>
       <c r="I83" s="70"/>
       <c r="L83" s="397"/>
       <c r="N83" s="78"/>
       <c r="O83" s="70" t="s">
-        <v>2137</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="15.75" thickBot="1">
@@ -18975,49 +19137,49 @@
       <c r="L84" s="397"/>
       <c r="N84" s="79"/>
       <c r="O84" s="81" t="s">
-        <v>2138</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="15.75" thickBot="1">
       <c r="A85" s="399" t="s">
-        <v>2161</v>
+        <v>2140</v>
       </c>
       <c r="L85" s="397"/>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="399" t="s">
-        <v>2162</v>
+        <v>2141</v>
       </c>
       <c r="F86" s="75" t="s">
-        <v>2127</v>
+        <v>2106</v>
       </c>
       <c r="G86" s="76"/>
       <c r="H86" s="77"/>
       <c r="L86" s="397"/>
       <c r="N86" s="75" t="s">
-        <v>2139</v>
+        <v>2118</v>
       </c>
       <c r="O86" s="77"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="399" t="s">
-        <v>2163</v>
+        <v>2142</v>
       </c>
       <c r="F87" s="78"/>
       <c r="G87" s="36" t="s">
-        <v>2123</v>
+        <v>2102</v>
       </c>
       <c r="H87" s="70"/>
       <c r="I87" s="36" t="s">
-        <v>2151</v>
+        <v>2130</v>
       </c>
       <c r="L87" s="397"/>
       <c r="M87" s="36" t="s">
-        <v>2142</v>
+        <v>2121</v>
       </c>
       <c r="N87" s="78"/>
       <c r="O87" s="70" t="s">
-        <v>2140</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -19025,12 +19187,12 @@
       <c r="C88" s="273"/>
       <c r="F88" s="78"/>
       <c r="G88" s="36" t="s">
-        <v>2124</v>
+        <v>2103</v>
       </c>
       <c r="H88" s="70"/>
       <c r="L88" s="397"/>
       <c r="M88" s="36" t="s">
-        <v>2143</v>
+        <v>2122</v>
       </c>
       <c r="N88" s="78"/>
       <c r="O88" s="70" t="s">
@@ -19047,7 +19209,7 @@
       </c>
       <c r="H89" s="81"/>
       <c r="I89" s="36" t="s">
-        <v>2125</v>
+        <v>2104</v>
       </c>
       <c r="K89" s="393"/>
       <c r="L89" s="397"/>
@@ -19058,61 +19220,61 @@
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1">
       <c r="A90" s="313" t="s">
-        <v>2183</v>
+        <v>2162</v>
       </c>
       <c r="B90" s="138"/>
       <c r="C90" s="273"/>
       <c r="F90" s="36" t="s">
-        <v>2126</v>
+        <v>2105</v>
       </c>
       <c r="L90" s="397"/>
       <c r="N90" s="36" t="s">
-        <v>2144</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="15.75" thickBot="1">
       <c r="A91" s="138" t="s">
-        <v>2184</v>
+        <v>2163</v>
       </c>
       <c r="B91" s="273"/>
       <c r="C91" s="273"/>
       <c r="L91" s="397"/>
       <c r="N91" s="75" t="s">
-        <v>2145</v>
+        <v>2124</v>
       </c>
       <c r="O91" s="77"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="273" t="s">
-        <v>2173</v>
+        <v>2152</v>
       </c>
       <c r="B92" s="273"/>
       <c r="C92" s="273"/>
       <c r="F92" s="75" t="s">
-        <v>2131</v>
+        <v>2110</v>
       </c>
       <c r="G92" s="76"/>
       <c r="H92" s="77"/>
       <c r="L92" s="397"/>
       <c r="N92" s="78"/>
       <c r="O92" s="70" t="s">
-        <v>2146</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="138" t="s">
-        <v>2178</v>
+        <v>2157</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>2177</v>
+        <v>2156</v>
       </c>
       <c r="F93" s="78"/>
       <c r="G93" s="36" t="s">
-        <v>2128</v>
+        <v>2107</v>
       </c>
       <c r="H93" s="70"/>
       <c r="I93" s="36" t="s">
-        <v>2152</v>
+        <v>2131</v>
       </c>
       <c r="L93" s="397"/>
       <c r="N93" s="78"/>
@@ -19122,16 +19284,16 @@
     </row>
     <row r="94" spans="1:16" ht="15.75" thickBot="1">
       <c r="A94" s="138" t="s">
-        <v>2174</v>
+        <v>2153</v>
       </c>
       <c r="B94" s="138"/>
       <c r="C94" s="138"/>
       <c r="D94" s="182" t="s">
-        <v>2175</v>
+        <v>2154</v>
       </c>
       <c r="F94" s="79"/>
       <c r="G94" s="80" t="s">
-        <v>2129</v>
+        <v>2108</v>
       </c>
       <c r="H94" s="81"/>
       <c r="K94" s="393"/>
@@ -19147,58 +19309,58 @@
       <c r="B95" s="138"/>
       <c r="C95" s="138"/>
       <c r="D95" s="36" t="s">
-        <v>2176</v>
+        <v>2155</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>2130</v>
+        <v>2109</v>
       </c>
       <c r="L95" s="397"/>
       <c r="N95" s="36" t="s">
-        <v>2147</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="15.75" thickBot="1">
       <c r="A96" s="273" t="s">
-        <v>2179</v>
+        <v>2158</v>
       </c>
       <c r="B96" s="273"/>
       <c r="C96" s="273"/>
       <c r="L96" s="397"/>
       <c r="N96" s="75" t="s">
-        <v>2148</v>
+        <v>2127</v>
       </c>
       <c r="O96" s="77"/>
       <c r="P96" s="391"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="273" t="s">
-        <v>2180</v>
+        <v>2159</v>
       </c>
       <c r="B97" s="138"/>
       <c r="C97" s="138"/>
       <c r="F97" s="75" t="s">
-        <v>2132</v>
+        <v>2111</v>
       </c>
       <c r="G97" s="76"/>
       <c r="H97" s="77"/>
       <c r="L97" s="397"/>
       <c r="N97" s="78"/>
       <c r="O97" s="70" t="s">
-        <v>2149</v>
+        <v>2128</v>
       </c>
       <c r="P97" s="391"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="273" t="s">
-        <v>2181</v>
+        <v>2160</v>
       </c>
       <c r="F98" s="78"/>
       <c r="G98" s="36" t="s">
-        <v>2133</v>
+        <v>2112</v>
       </c>
       <c r="H98" s="70"/>
       <c r="I98" s="36" t="s">
-        <v>2153</v>
+        <v>2132</v>
       </c>
       <c r="L98" s="397"/>
       <c r="N98" s="78"/>
@@ -19209,14 +19371,14 @@
     </row>
     <row r="99" spans="1:16" ht="15.75" thickBot="1">
       <c r="A99" s="138" t="s">
-        <v>2182</v>
+        <v>2161</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>2185</v>
+        <v>2164</v>
       </c>
       <c r="F99" s="79"/>
       <c r="G99" s="80" t="s">
-        <v>2134</v>
+        <v>2113</v>
       </c>
       <c r="H99" s="81"/>
       <c r="K99" s="393"/>
@@ -19230,19 +19392,19 @@
     <row r="100" spans="1:16" ht="15.75" thickBot="1">
       <c r="A100" s="138"/>
       <c r="F100" s="36" t="s">
-        <v>2172</v>
+        <v>2151</v>
       </c>
       <c r="L100" s="397"/>
       <c r="M100" s="391"/>
       <c r="N100" s="36" t="s">
-        <v>2150</v>
+        <v>2129</v>
       </c>
       <c r="O100" s="391"/>
       <c r="P100" s="391"/>
     </row>
     <row r="101" spans="1:16">
       <c r="F101" s="75" t="s">
-        <v>2165</v>
+        <v>2144</v>
       </c>
       <c r="G101" s="76"/>
       <c r="H101" s="77"/>
@@ -19251,27 +19413,27 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="36" t="s">
-        <v>2170</v>
+        <v>2149</v>
       </c>
       <c r="F102" s="78"/>
       <c r="G102" s="36" t="s">
-        <v>2166</v>
+        <v>2145</v>
       </c>
       <c r="H102" s="70"/>
     </row>
     <row r="103" spans="1:16" ht="15.75" thickBot="1">
       <c r="A103" s="36" t="s">
-        <v>2171</v>
+        <v>2150</v>
       </c>
       <c r="F103" s="79"/>
       <c r="G103" s="80" t="s">
-        <v>2134</v>
+        <v>2113</v>
       </c>
       <c r="H103" s="81"/>
     </row>
     <row r="104" spans="1:16">
       <c r="F104" s="36" t="s">
-        <v>2167</v>
+        <v>2146</v>
       </c>
       <c r="K104" s="393"/>
       <c r="L104" s="257"/>
@@ -19288,12 +19450,12 @@
       <c r="E107" s="351"/>
       <c r="G107" s="75"/>
       <c r="H107" s="76" t="s">
-        <v>2188</v>
+        <v>2167</v>
       </c>
       <c r="I107" s="77"/>
       <c r="L107" s="349"/>
       <c r="M107" s="400" t="s">
-        <v>2188</v>
+        <v>2167</v>
       </c>
       <c r="N107" s="351"/>
     </row>
@@ -19334,17 +19496,17 @@
     <row r="112" spans="1:16">
       <c r="C112" s="78"/>
       <c r="D112" s="36" t="s">
-        <v>2186</v>
+        <v>2165</v>
       </c>
       <c r="E112" s="70"/>
       <c r="G112" s="78"/>
       <c r="H112" s="36" t="s">
-        <v>2186</v>
+        <v>2165</v>
       </c>
       <c r="I112" s="70"/>
       <c r="L112" s="78"/>
       <c r="M112" s="36" t="s">
-        <v>2186</v>
+        <v>2165</v>
       </c>
       <c r="N112" s="70"/>
     </row>
@@ -19359,17 +19521,17 @@
     <row r="114" spans="3:14">
       <c r="C114" s="78"/>
       <c r="D114" s="36" t="s">
-        <v>2187</v>
+        <v>2166</v>
       </c>
       <c r="E114" s="70"/>
       <c r="G114" s="78"/>
       <c r="H114" s="36" t="s">
-        <v>2187</v>
+        <v>2166</v>
       </c>
       <c r="I114" s="70"/>
       <c r="L114" s="78"/>
       <c r="M114" s="36" t="s">
-        <v>2187</v>
+        <v>2166</v>
       </c>
       <c r="N114" s="70"/>
     </row>
@@ -19420,13 +19582,13 @@
     </row>
     <row r="121" spans="3:14">
       <c r="C121" s="36" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E121" s="36" t="s">
-        <v>2189</v>
+        <v>2168</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="L121" s="36" t="s">
         <v>390</v>
@@ -19434,33 +19596,33 @@
     </row>
     <row r="122" spans="3:14">
       <c r="L122" s="36" t="s">
-        <v>2190</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="124" spans="3:14">
       <c r="L124" s="257" t="s">
-        <v>2191</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="125" spans="3:14">
       <c r="L125" s="36" t="s">
-        <v>2192</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="126" spans="3:14">
       <c r="L126" s="36" t="s">
-        <v>2193</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="127" spans="3:14">
       <c r="L127" s="36" t="s">
-        <v>2194</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="128" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="129" spans="1:12">
       <c r="H129" s="75" t="s">
-        <v>2195</v>
+        <v>2174</v>
       </c>
       <c r="I129" s="77"/>
     </row>
@@ -19470,125 +19632,125 @@
       </c>
       <c r="H130" s="78"/>
       <c r="I130" s="70" t="s">
-        <v>2196</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="G131" s="36" t="s">
-        <v>2201</v>
+        <v>2180</v>
       </c>
       <c r="H131" s="78"/>
       <c r="I131" s="70" t="s">
-        <v>2197</v>
+        <v>2176</v>
       </c>
       <c r="K131" s="36" t="s">
-        <v>2213</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15.75" thickBot="1">
       <c r="G132" s="36" t="s">
-        <v>2202</v>
+        <v>2181</v>
       </c>
       <c r="H132" s="79" t="s">
-        <v>2220</v>
+        <v>2199</v>
       </c>
       <c r="I132" s="81" t="s">
-        <v>2219</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="134" spans="1:12">
       <c r="H134" s="75" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="I134" s="76"/>
       <c r="J134" s="77"/>
     </row>
     <row r="135" spans="1:12">
       <c r="G135" s="273" t="s">
-        <v>2205</v>
+        <v>2184</v>
       </c>
       <c r="H135" s="78"/>
       <c r="I135" s="36" t="s">
         <v>1395</v>
       </c>
       <c r="J135" s="70" t="s">
-        <v>2198</v>
+        <v>2177</v>
       </c>
       <c r="K135" s="36" t="s">
-        <v>2203</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="G136" s="273" t="s">
-        <v>2206</v>
+        <v>2185</v>
       </c>
       <c r="H136" s="78"/>
       <c r="I136" s="36" t="s">
-        <v>2199</v>
+        <v>2178</v>
       </c>
       <c r="J136" s="70" t="s">
+        <v>2179</v>
+      </c>
+      <c r="L136" s="36" t="s">
         <v>2200</v>
-      </c>
-      <c r="L136" s="36" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="15.75" thickBot="1">
       <c r="B137" s="138" t="s">
-        <v>2215</v>
+        <v>2194</v>
       </c>
       <c r="H137" s="79"/>
       <c r="I137" s="80"/>
       <c r="J137" s="81"/>
       <c r="K137" s="36" t="s">
-        <v>2204</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="139" spans="1:12">
       <c r="A139" s="36" t="s">
-        <v>2223</v>
+        <v>2202</v>
       </c>
       <c r="B139" s="36" t="s">
-        <v>2216</v>
+        <v>2195</v>
       </c>
       <c r="G139" s="273" t="s">
-        <v>2205</v>
+        <v>2184</v>
       </c>
       <c r="H139" s="75" t="s">
-        <v>2207</v>
+        <v>2186</v>
       </c>
       <c r="I139" s="76"/>
       <c r="J139" s="77"/>
     </row>
     <row r="140" spans="1:12">
       <c r="B140" s="36" t="s">
-        <v>2217</v>
+        <v>2196</v>
       </c>
       <c r="G140" s="273" t="s">
-        <v>2206</v>
+        <v>2185</v>
       </c>
       <c r="H140" s="78"/>
       <c r="I140" s="36" t="s">
-        <v>2208</v>
+        <v>2187</v>
       </c>
       <c r="J140" s="70" t="s">
-        <v>2209</v>
+        <v>2188</v>
       </c>
       <c r="K140" s="36" t="s">
-        <v>2214</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.75" thickBot="1">
       <c r="B141" s="36" t="s">
-        <v>2218</v>
+        <v>2197</v>
       </c>
       <c r="H141" s="79"/>
       <c r="I141" s="80"/>
       <c r="J141" s="81"/>
       <c r="K141" s="36" t="s">
-        <v>2222</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1">
@@ -19596,25 +19758,25 @@
     </row>
     <row r="143" spans="1:12">
       <c r="G143" s="273" t="s">
-        <v>2205</v>
+        <v>2184</v>
       </c>
       <c r="H143" s="75" t="s">
-        <v>2210</v>
+        <v>2189</v>
       </c>
       <c r="I143" s="76"/>
       <c r="J143" s="77"/>
     </row>
     <row r="144" spans="1:12">
       <c r="G144" s="273" t="s">
-        <v>2206</v>
+        <v>2185</v>
       </c>
       <c r="H144" s="78"/>
       <c r="I144" s="36" t="s">
-        <v>2211</v>
+        <v>2190</v>
       </c>
       <c r="J144" s="70"/>
       <c r="K144" s="36" t="s">
-        <v>2214</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="145" spans="3:12" ht="15.75" thickBot="1">
@@ -19623,7 +19785,7 @@
       <c r="I145" s="80"/>
       <c r="J145" s="81"/>
       <c r="K145" s="36" t="s">
-        <v>2222</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="146" spans="3:12" ht="15.75" thickBot="1">
@@ -19632,25 +19794,25 @@
     </row>
     <row r="147" spans="3:12">
       <c r="G147" s="273" t="s">
-        <v>2205</v>
+        <v>2184</v>
       </c>
       <c r="H147" s="75" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="I147" s="76"/>
       <c r="J147" s="77"/>
     </row>
     <row r="148" spans="3:12">
       <c r="G148" s="273" t="s">
-        <v>2206</v>
+        <v>2185</v>
       </c>
       <c r="H148" s="78"/>
       <c r="I148" s="36" t="s">
-        <v>2212</v>
+        <v>2191</v>
       </c>
       <c r="J148" s="70"/>
       <c r="K148" s="36" t="s">
-        <v>2214</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="149" spans="3:12" ht="15.75" thickBot="1">
@@ -19658,7 +19820,7 @@
       <c r="I149" s="80"/>
       <c r="J149" s="81"/>
       <c r="K149" s="36" t="s">
-        <v>2222</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="151" spans="3:12" ht="15.75" thickBot="1"/>
@@ -19692,25 +19854,25 @@
     <row r="155" spans="3:12">
       <c r="C155" s="78"/>
       <c r="D155" s="36" t="s">
-        <v>2224</v>
+        <v>2203</v>
       </c>
       <c r="F155" s="70"/>
       <c r="H155" s="78"/>
       <c r="I155" s="36" t="s">
-        <v>2225</v>
+        <v>2204</v>
       </c>
       <c r="K155" s="70"/>
     </row>
     <row r="156" spans="3:12">
       <c r="C156" s="78"/>
       <c r="E156" s="36" t="s">
-        <v>2108</v>
+        <v>2087</v>
       </c>
       <c r="F156" s="70"/>
       <c r="G156" s="138"/>
       <c r="H156" s="78"/>
       <c r="J156" s="36" t="s">
-        <v>2110</v>
+        <v>2089</v>
       </c>
       <c r="K156" s="70"/>
     </row>
@@ -19740,17 +19902,17 @@
     </row>
     <row r="162" spans="1:14">
       <c r="E162" s="78" t="s">
-        <v>2226</v>
+        <v>2205</v>
       </c>
       <c r="F162" s="36" t="s">
-        <v>2109</v>
+        <v>2088</v>
       </c>
       <c r="I162" s="70"/>
     </row>
     <row r="163" spans="1:14">
       <c r="E163" s="78"/>
       <c r="G163" s="36" t="s">
-        <v>2227</v>
+        <v>2206</v>
       </c>
       <c r="I163" s="70"/>
     </row>
@@ -19770,51 +19932,51 @@
       </c>
       <c r="H170" s="77"/>
       <c r="J170" s="36" t="s">
-        <v>2239</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="E171" s="36" t="s">
-        <v>2141</v>
+        <v>2120</v>
       </c>
       <c r="G171" s="78"/>
       <c r="H171" s="70" t="s">
-        <v>2228</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="G172" s="78"/>
       <c r="H172" s="70" t="s">
-        <v>2229</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="15.75" thickBot="1">
       <c r="G173" s="79"/>
       <c r="H173" s="81" t="s">
-        <v>2230</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="H174" s="36" t="s">
-        <v>2247</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="176" spans="1:14">
       <c r="A176" s="75" t="s">
-        <v>2234</v>
+        <v>2213</v>
       </c>
       <c r="B176" s="76"/>
       <c r="C176" s="76"/>
       <c r="D176" s="77"/>
       <c r="F176" s="75" t="s">
-        <v>2231</v>
+        <v>2210</v>
       </c>
       <c r="G176" s="76"/>
       <c r="H176" s="76"/>
       <c r="I176" s="77"/>
       <c r="K176" s="75" t="s">
-        <v>2235</v>
+        <v>2214</v>
       </c>
       <c r="L176" s="76"/>
       <c r="M176" s="76"/>
@@ -19823,34 +19985,34 @@
     <row r="177" spans="1:15">
       <c r="A177" s="78"/>
       <c r="B177" s="36" t="s">
-        <v>2228</v>
+        <v>2207</v>
       </c>
       <c r="D177" s="70"/>
       <c r="F177" s="78"/>
       <c r="G177" s="36" t="s">
-        <v>2228</v>
+        <v>2207</v>
       </c>
       <c r="I177" s="70"/>
       <c r="K177" s="78"/>
       <c r="L177" s="36" t="s">
-        <v>2228</v>
+        <v>2207</v>
       </c>
       <c r="N177" s="70"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="78"/>
       <c r="C178" s="36" t="s">
-        <v>2232</v>
+        <v>2211</v>
       </c>
       <c r="D178" s="70"/>
       <c r="F178" s="78"/>
       <c r="H178" s="36" t="s">
-        <v>2232</v>
+        <v>2211</v>
       </c>
       <c r="I178" s="70"/>
       <c r="K178" s="78"/>
       <c r="M178" s="36" t="s">
-        <v>2232</v>
+        <v>2211</v>
       </c>
       <c r="N178" s="70"/>
       <c r="O178" s="401">
@@ -19860,91 +20022,91 @@
     <row r="179" spans="1:15">
       <c r="A179" s="78"/>
       <c r="B179" s="36" t="s">
-        <v>2229</v>
+        <v>2208</v>
       </c>
       <c r="D179" s="70"/>
       <c r="F179" s="78"/>
       <c r="G179" s="36" t="s">
-        <v>2229</v>
+        <v>2208</v>
       </c>
       <c r="I179" s="70"/>
       <c r="K179" s="78"/>
       <c r="L179" s="36" t="s">
-        <v>2229</v>
+        <v>2208</v>
       </c>
       <c r="N179" s="70"/>
       <c r="O179" s="36" t="s">
-        <v>2240</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="78"/>
       <c r="C180" s="36" t="s">
-        <v>2244</v>
+        <v>2223</v>
       </c>
       <c r="D180" s="70"/>
       <c r="F180" s="78"/>
       <c r="H180" s="36" t="s">
-        <v>2244</v>
+        <v>2223</v>
       </c>
       <c r="I180" s="70"/>
       <c r="K180" s="78"/>
       <c r="M180" s="36" t="s">
-        <v>2244</v>
+        <v>2223</v>
       </c>
       <c r="N180" s="70"/>
       <c r="O180" s="36" t="s">
-        <v>2241</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="78"/>
       <c r="B181" s="36" t="s">
-        <v>2230</v>
+        <v>2209</v>
       </c>
       <c r="D181" s="70"/>
       <c r="F181" s="78"/>
       <c r="G181" s="36" t="s">
-        <v>2230</v>
+        <v>2209</v>
       </c>
       <c r="I181" s="70"/>
       <c r="K181" s="78"/>
       <c r="L181" s="36" t="s">
-        <v>2230</v>
+        <v>2209</v>
       </c>
       <c r="N181" s="70"/>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="78"/>
       <c r="C182" s="36" t="s">
-        <v>2236</v>
+        <v>2215</v>
       </c>
       <c r="D182" s="70"/>
       <c r="F182" s="78"/>
       <c r="H182" s="36" t="s">
-        <v>2237</v>
+        <v>2216</v>
       </c>
       <c r="I182" s="70"/>
       <c r="K182" s="78"/>
       <c r="M182" s="36" t="s">
-        <v>2238</v>
+        <v>2217</v>
       </c>
       <c r="N182" s="70"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="78"/>
       <c r="B183" s="36" t="s">
-        <v>2249</v>
+        <v>2228</v>
       </c>
       <c r="D183" s="70"/>
       <c r="F183" s="78"/>
       <c r="G183" s="36" t="s">
-        <v>2249</v>
+        <v>2228</v>
       </c>
       <c r="I183" s="70"/>
       <c r="K183" s="78"/>
       <c r="L183" s="36" t="s">
-        <v>2249</v>
+        <v>2228</v>
       </c>
       <c r="N183" s="70"/>
     </row>
@@ -19952,60 +20114,60 @@
       <c r="A184" s="79"/>
       <c r="B184" s="80"/>
       <c r="C184" s="80" t="s">
-        <v>2250</v>
+        <v>2229</v>
       </c>
       <c r="D184" s="81"/>
       <c r="F184" s="79"/>
       <c r="G184" s="80"/>
       <c r="H184" s="80" t="s">
-        <v>2250</v>
+        <v>2229</v>
       </c>
       <c r="I184" s="81"/>
       <c r="K184" s="79"/>
       <c r="L184" s="80"/>
       <c r="M184" s="80" t="s">
-        <v>2250</v>
+        <v>2229</v>
       </c>
       <c r="N184" s="81"/>
     </row>
     <row r="185" spans="1:15">
       <c r="B185" s="36" t="s">
-        <v>2233</v>
+        <v>2212</v>
       </c>
       <c r="G185" s="36" t="s">
-        <v>2233</v>
+        <v>2212</v>
       </c>
       <c r="L185" s="36" t="s">
-        <v>2233</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="36" t="s">
-        <v>2251</v>
+        <v>2230</v>
       </c>
       <c r="C187" s="36" t="s">
-        <v>2242</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="C188" s="36" t="s">
-        <v>2243</v>
+        <v>2222</v>
       </c>
       <c r="E188" s="36" t="s">
-        <v>2245</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="189" spans="1:15">
       <c r="C189" s="36" t="s">
-        <v>2246</v>
+        <v>2225</v>
       </c>
       <c r="E189" s="36" t="s">
-        <v>2248</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="36" t="s">
-        <v>2252</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="15.75" thickBot="1"/>
@@ -20015,44 +20177,44 @@
       </c>
       <c r="H194" s="77"/>
       <c r="J194" s="36" t="s">
-        <v>2239</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="E195" s="36" t="s">
-        <v>2141</v>
+        <v>2120</v>
       </c>
       <c r="G195" s="78"/>
       <c r="H195" s="70" t="s">
-        <v>2228</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="G196" s="78"/>
       <c r="H196" s="70" t="s">
-        <v>2229</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="15.75" thickBot="1">
       <c r="G197" s="79"/>
       <c r="H197" s="81" t="s">
-        <v>2230</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="15.75" thickBot="1">
       <c r="H198" s="36" t="s">
-        <v>2260</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="G199" s="75" t="s">
-        <v>2253</v>
+        <v>2232</v>
       </c>
       <c r="H199" s="76"/>
       <c r="I199" s="76"/>
       <c r="J199" s="77"/>
       <c r="L199" s="36" t="s">
-        <v>2242</v>
+        <v>2221</v>
       </c>
       <c r="O199" s="36" t="s">
         <v>214</v>
@@ -20061,11 +20223,11 @@
     <row r="200" spans="1:15">
       <c r="G200" s="78"/>
       <c r="H200" s="36" t="s">
-        <v>2254</v>
+        <v>2233</v>
       </c>
       <c r="J200" s="70"/>
       <c r="L200" s="36" t="s">
-        <v>2243</v>
+        <v>2222</v>
       </c>
       <c r="O200" s="36" t="s">
         <v>221</v>
@@ -20073,15 +20235,15 @@
     </row>
     <row r="201" spans="1:15">
       <c r="E201" s="36" t="s">
-        <v>2257</v>
+        <v>2236</v>
       </c>
       <c r="G201" s="78"/>
       <c r="I201" s="36" t="s">
-        <v>2255</v>
+        <v>2234</v>
       </c>
       <c r="J201" s="70"/>
       <c r="L201" s="36" t="s">
-        <v>2246</v>
+        <v>2225</v>
       </c>
       <c r="O201" s="36" t="s">
         <v>221</v>
@@ -20089,25 +20251,25 @@
     </row>
     <row r="202" spans="1:15">
       <c r="E202" s="36" t="s">
-        <v>2258</v>
+        <v>2237</v>
       </c>
       <c r="G202" s="78"/>
       <c r="H202" s="36" t="s">
-        <v>2256</v>
+        <v>2235</v>
       </c>
       <c r="J202" s="70"/>
     </row>
     <row r="203" spans="1:15">
       <c r="G203" s="78"/>
       <c r="I203" s="36" t="s">
-        <v>2259</v>
+        <v>2238</v>
       </c>
       <c r="J203" s="70"/>
     </row>
     <row r="204" spans="1:15">
       <c r="G204" s="78"/>
       <c r="H204" s="36" t="s">
-        <v>2260</v>
+        <v>2239</v>
       </c>
       <c r="J204" s="70"/>
     </row>
@@ -20115,26 +20277,26 @@
       <c r="G205" s="79"/>
       <c r="H205" s="80"/>
       <c r="I205" s="80" t="s">
-        <v>2261</v>
+        <v>2240</v>
       </c>
       <c r="J205" s="81"/>
     </row>
     <row r="206" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="207" spans="1:15">
       <c r="A207" s="75" t="s">
-        <v>2234</v>
+        <v>2213</v>
       </c>
       <c r="B207" s="76"/>
       <c r="C207" s="76"/>
       <c r="D207" s="77"/>
       <c r="F207" s="75" t="s">
-        <v>2231</v>
+        <v>2210</v>
       </c>
       <c r="G207" s="76"/>
       <c r="H207" s="76"/>
       <c r="I207" s="77"/>
       <c r="K207" s="75" t="s">
-        <v>2235</v>
+        <v>2214</v>
       </c>
       <c r="L207" s="76"/>
       <c r="M207" s="76"/>
@@ -20143,34 +20305,34 @@
     <row r="208" spans="1:15">
       <c r="A208" s="78"/>
       <c r="B208" s="36" t="s">
-        <v>2230</v>
+        <v>2209</v>
       </c>
       <c r="D208" s="70"/>
       <c r="F208" s="78"/>
       <c r="G208" s="36" t="s">
-        <v>2230</v>
+        <v>2209</v>
       </c>
       <c r="I208" s="70"/>
       <c r="K208" s="78"/>
       <c r="L208" s="36" t="s">
-        <v>2230</v>
+        <v>2209</v>
       </c>
       <c r="N208" s="70"/>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="78"/>
       <c r="C209" s="36" t="s">
-        <v>2236</v>
+        <v>2215</v>
       </c>
       <c r="D209" s="70"/>
       <c r="F209" s="78"/>
       <c r="H209" s="36" t="s">
-        <v>2237</v>
+        <v>2216</v>
       </c>
       <c r="I209" s="70"/>
       <c r="K209" s="78"/>
       <c r="M209" s="36" t="s">
-        <v>2238</v>
+        <v>2217</v>
       </c>
       <c r="N209" s="70"/>
     </row>
@@ -20198,13 +20360,13 @@
     </row>
     <row r="212" spans="1:14">
       <c r="B212" s="36" t="s">
-        <v>2233</v>
+        <v>2212</v>
       </c>
       <c r="G212" s="36" t="s">
-        <v>2233</v>
+        <v>2212</v>
       </c>
       <c r="L212" s="36" t="s">
-        <v>2233</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="277" spans="10:10">
@@ -20446,7 +20608,7 @@
         <v>374</v>
       </c>
       <c r="Q13" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="14" spans="6:24" ht="15.75" thickBot="1">
@@ -20457,7 +20619,7 @@
         <v>344</v>
       </c>
       <c r="S14" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="15" spans="6:24">
@@ -20827,62 +20989,62 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="C2" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="F3" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="35"/>
       <c r="K4" s="28" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="G5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="J5" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="28" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="D6" s="30"/>
       <c r="G6" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="J6" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="C7" s="33"/>
       <c r="D7" s="35"/>
       <c r="K7" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -20890,65 +21052,65 @@
         <v>1397</v>
       </c>
       <c r="L8" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="D9" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E9" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" t="s">
-        <v>1884</v>
-      </c>
-      <c r="G10" s="428" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H10" s="429"/>
-      <c r="I10" s="430"/>
+        <v>1882</v>
+      </c>
+      <c r="G10" s="432" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H10" s="433"/>
+      <c r="I10" s="434"/>
       <c r="K10" s="28" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="431"/>
-      <c r="H11" s="432"/>
-      <c r="I11" s="433"/>
+      <c r="G11" s="435"/>
+      <c r="H11" s="436"/>
+      <c r="I11" s="437"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="431"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="433"/>
+      <c r="G12" s="435"/>
+      <c r="H12" s="436"/>
+      <c r="I12" s="437"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="434"/>
-      <c r="H13" s="435"/>
-      <c r="I13" s="436"/>
+      <c r="G13" s="438"/>
+      <c r="H13" s="439"/>
+      <c r="I13" s="440"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" s="28" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" t="s">
         <v>1221</v>
       </c>
       <c r="J15" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="30"/>
@@ -20957,16 +21119,16 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="G16" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>1888</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1894</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>1890</v>
       </c>
       <c r="L16" s="32"/>
     </row>
@@ -20974,7 +21136,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="35"/>
       <c r="G17" s="28" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="H17" s="30"/>
       <c r="K17" s="33"/>
@@ -21861,7 +22023,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="279"/>
-      <c r="L3" s="444" t="s">
+      <c r="L3" s="446" t="s">
         <v>1498</v>
       </c>
       <c r="M3" s="170"/>
@@ -21883,7 +22045,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="445"/>
+      <c r="L4" s="447"/>
       <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21903,12 +22065,12 @@
       <c r="K5" s="280" t="s">
         <v>1497</v>
       </c>
-      <c r="L5" s="445"/>
+      <c r="L5" s="447"/>
       <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="187"/>
-      <c r="L6" s="445"/>
+      <c r="L6" s="447"/>
       <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13">
@@ -21921,7 +22083,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="279"/>
-      <c r="L7" s="445"/>
+      <c r="L7" s="447"/>
       <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13">
@@ -21939,7 +22101,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="445"/>
+      <c r="L8" s="447"/>
       <c r="M8" s="170"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21953,7 +22115,7 @@
       <c r="K9" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="445"/>
+      <c r="L9" s="447"/>
       <c r="M9" s="170"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21961,7 +22123,7 @@
         <v>1481</v>
       </c>
       <c r="F10" s="187"/>
-      <c r="L10" s="445"/>
+      <c r="L10" s="447"/>
       <c r="M10" s="170"/>
     </row>
     <row r="11" spans="1:13">
@@ -21974,7 +22136,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="279"/>
-      <c r="L11" s="445"/>
+      <c r="L11" s="447"/>
       <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13">
@@ -21988,7 +22150,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="445"/>
+      <c r="L12" s="447"/>
       <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -22005,7 +22167,7 @@
       <c r="K13" s="263" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="446"/>
+      <c r="L13" s="448"/>
       <c r="M13" s="170"/>
     </row>
     <row r="14" spans="1:13">
@@ -22027,10 +22189,10 @@
       <c r="D15" s="258"/>
       <c r="E15" s="258"/>
       <c r="F15" s="187"/>
-      <c r="J15" s="437" t="s">
+      <c r="J15" s="441" t="s">
         <v>1487</v>
       </c>
-      <c r="K15" s="437"/>
+      <c r="K15" s="441"/>
       <c r="L15" s="69" t="s">
         <v>539</v>
       </c>
@@ -22050,8 +22212,8 @@
       <c r="G16" s="96" t="s">
         <v>1489</v>
       </c>
-      <c r="J16" s="437"/>
-      <c r="K16" s="437"/>
+      <c r="J16" s="441"/>
+      <c r="K16" s="441"/>
       <c r="L16" s="69" t="s">
         <v>50</v>
       </c>
@@ -22129,48 +22291,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="439"/>
+      <c r="K22" s="442"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="438"/>
+      <c r="K23" s="443"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="438"/>
+      <c r="K24" s="443"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="438"/>
+      <c r="K25" s="443"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="438"/>
+      <c r="K26" s="443"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="438"/>
+      <c r="K27" s="443"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="438"/>
+      <c r="K28" s="443"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="438"/>
+      <c r="K29" s="443"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="438"/>
+      <c r="K30" s="443"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="438"/>
+      <c r="K31" s="443"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="438"/>
+      <c r="K32" s="443"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="276"/>
@@ -24406,7 +24568,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="36" t="s">
-        <v>2262</v>
+        <v>2241</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>1561</v>
@@ -24423,7 +24585,7 @@
       <c r="H3" s="396"/>
       <c r="I3" s="396"/>
       <c r="J3" s="75" t="s">
-        <v>2265</v>
+        <v>2244</v>
       </c>
       <c r="K3" s="76"/>
       <c r="L3" s="76"/>
@@ -24447,7 +24609,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="322" t="s">
-        <v>2263</v>
+        <v>2242</v>
       </c>
       <c r="B5" s="322"/>
       <c r="C5" s="396"/>
@@ -24467,7 +24629,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="322" t="s">
-        <v>2264</v>
+        <v>2243</v>
       </c>
       <c r="B6" s="322"/>
       <c r="C6" s="396"/>
@@ -24496,7 +24658,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="322" t="s">
-        <v>2267</v>
+        <v>2246</v>
       </c>
       <c r="D8" s="396"/>
       <c r="E8" s="187"/>
@@ -24515,7 +24677,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="322" t="s">
-        <v>2268</v>
+        <v>2247</v>
       </c>
       <c r="E9" s="187"/>
       <c r="G9" s="79" t="s">
@@ -24552,7 +24714,7 @@
         <v>1562</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>2266</v>
+        <v>2245</v>
       </c>
       <c r="J13" s="78"/>
       <c r="M13" s="70"/>
@@ -24613,7 +24775,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1">
       <c r="A23" s="36" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C23" s="396"/>
       <c r="D23" s="396"/>
@@ -24634,12 +24796,12 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="36" t="s">
-        <v>2269</v>
+        <v>2248</v>
       </c>
       <c r="C24" s="96"/>
       <c r="D24" s="396"/>
       <c r="E24" s="187" t="s">
-        <v>2270</v>
+        <v>2249</v>
       </c>
       <c r="F24" s="396" t="s">
         <v>844</v>
@@ -24648,7 +24810,7 @@
       <c r="H24" s="396"/>
       <c r="I24" s="396"/>
       <c r="J24" s="377" t="s">
-        <v>2265</v>
+        <v>2244</v>
       </c>
       <c r="K24" s="76"/>
       <c r="L24" s="76"/>
@@ -24657,12 +24819,12 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1">
       <c r="A25" s="36" t="s">
-        <v>2271</v>
+        <v>2250</v>
       </c>
       <c r="C25" s="396"/>
       <c r="D25" s="396"/>
       <c r="E25" s="187" t="s">
-        <v>2272</v>
+        <v>2251</v>
       </c>
       <c r="F25" s="396" t="s">
         <v>1031</v>
@@ -24675,13 +24837,13 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1">
       <c r="A26" s="36" t="s">
-        <v>2273</v>
+        <v>2252</v>
       </c>
       <c r="B26" s="322"/>
       <c r="C26" s="396"/>
       <c r="D26" s="396"/>
       <c r="E26" s="187" t="s">
-        <v>2275</v>
+        <v>2254</v>
       </c>
       <c r="F26" s="396" t="s">
         <v>1032</v>
@@ -24691,7 +24853,7 @@
         <v>846</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>2290</v>
+        <v>2269</v>
       </c>
       <c r="M26" s="70"/>
       <c r="N26" s="70"/>
@@ -24702,7 +24864,7 @@
       <c r="C27" s="396"/>
       <c r="D27" s="396"/>
       <c r="E27" s="187" t="s">
-        <v>2280</v>
+        <v>2259</v>
       </c>
       <c r="F27" s="396" t="s">
         <v>1035</v>
@@ -24712,19 +24874,19 @@
         <v>844</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>2291</v>
+        <v>2270</v>
       </c>
       <c r="M27" s="70"/>
       <c r="N27" s="70"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1">
       <c r="A28" s="322" t="s">
-        <v>2276</v>
+        <v>2255</v>
       </c>
       <c r="C28" s="396"/>
       <c r="D28" s="396"/>
       <c r="E28" s="187" t="s">
-        <v>2281</v>
+        <v>2260</v>
       </c>
       <c r="F28" s="396" t="s">
         <v>844</v>
@@ -24735,11 +24897,11 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1">
       <c r="A29" s="322" t="s">
-        <v>2277</v>
+        <v>2256</v>
       </c>
       <c r="D29" s="396"/>
       <c r="E29" s="187" t="s">
-        <v>2282</v>
+        <v>2261</v>
       </c>
       <c r="F29" s="396" t="s">
         <v>1031</v>
@@ -24753,7 +24915,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="322" t="s">
-        <v>2278</v>
+        <v>2257</v>
       </c>
       <c r="E30" s="187"/>
       <c r="J30" s="78"/>
@@ -24773,18 +24935,18 @@
       <c r="E32" s="78"/>
       <c r="J32" s="78"/>
       <c r="K32" s="255" t="s">
-        <v>2274</v>
+        <v>2253</v>
       </c>
       <c r="M32" s="70"/>
       <c r="N32" s="70"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="36" t="s">
-        <v>2279</v>
+        <v>2258</v>
       </c>
       <c r="E33" s="78"/>
       <c r="F33" s="36" t="s">
-        <v>2297</v>
+        <v>2276</v>
       </c>
       <c r="J33" s="78"/>
       <c r="K33" s="36" t="s">
@@ -24796,7 +24958,7 @@
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="E34" s="78"/>
       <c r="G34" s="36" t="s">
-        <v>2289</v>
+        <v>2268</v>
       </c>
       <c r="J34" s="78"/>
       <c r="M34" s="70"/>
@@ -24804,10 +24966,10 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" thickBot="1">
       <c r="A35" s="36" t="s">
-        <v>2283</v>
+        <v>2262</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>2284</v>
+        <v>2263</v>
       </c>
       <c r="E35" s="78"/>
       <c r="J35" s="78"/>
@@ -24819,10 +24981,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="36" t="s">
-        <v>2285</v>
+        <v>2264</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>2286</v>
+        <v>2265</v>
       </c>
       <c r="E36" s="78"/>
       <c r="J36" s="78"/>
@@ -24834,10 +24996,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="36" t="s">
-        <v>2285</v>
+        <v>2264</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>2287</v>
+        <v>2266</v>
       </c>
       <c r="E37" s="78"/>
       <c r="J37" s="78"/>
@@ -24853,7 +25015,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1">
       <c r="A39" s="36" t="s">
-        <v>2288</v>
+        <v>2267</v>
       </c>
       <c r="E39" s="78"/>
       <c r="J39" s="79"/>
@@ -24906,7 +25068,7 @@
       <c r="H43" s="396"/>
       <c r="I43" s="396"/>
       <c r="J43" s="75" t="s">
-        <v>2265</v>
+        <v>2244</v>
       </c>
       <c r="K43" s="76"/>
       <c r="L43" s="76"/>
@@ -24930,7 +25092,7 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1">
       <c r="A45" s="36" t="s">
-        <v>2263</v>
+        <v>2242</v>
       </c>
       <c r="B45" s="322"/>
       <c r="C45" s="396"/>
@@ -24950,7 +25112,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="138" t="s">
-        <v>2264</v>
+        <v>2243</v>
       </c>
       <c r="B46" s="138"/>
       <c r="C46" s="396"/>
@@ -24970,7 +25132,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="36" t="s">
-        <v>2292</v>
+        <v>2271</v>
       </c>
       <c r="C47" s="396"/>
       <c r="D47" s="396"/>
@@ -24982,7 +25144,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="138" t="s">
-        <v>2293</v>
+        <v>2272</v>
       </c>
       <c r="B48" s="138"/>
       <c r="D48" s="396"/>
@@ -25000,10 +25162,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="138" t="s">
-        <v>2294</v>
+        <v>2273</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>2313</v>
+        <v>2292</v>
       </c>
       <c r="E50" s="78"/>
       <c r="J50" s="78"/>
@@ -25012,7 +25174,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="322" t="s">
-        <v>2295</v>
+        <v>2274</v>
       </c>
       <c r="E51" s="78"/>
       <c r="G51" s="111" t="s">
@@ -25036,7 +25198,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="273" t="s">
-        <v>2296</v>
+        <v>2275</v>
       </c>
       <c r="E53" s="78"/>
       <c r="J53" s="78"/>
@@ -25054,10 +25216,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="138" t="s">
-        <v>2314</v>
+        <v>2293</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>2315</v>
+        <v>2294</v>
       </c>
       <c r="E55" s="78"/>
       <c r="G55" s="36" t="s">
@@ -25069,7 +25231,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="273" t="s">
-        <v>2295</v>
+        <v>2274</v>
       </c>
       <c r="E56" s="78"/>
       <c r="J56" s="78"/>
@@ -25087,7 +25249,7 @@
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1">
       <c r="A58" s="322" t="s">
-        <v>2296</v>
+        <v>2275</v>
       </c>
       <c r="E58" s="78"/>
       <c r="J58" s="79"/>
@@ -25111,7 +25273,7 @@
     <row r="60" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="61" spans="1:14" ht="15.75" thickBot="1">
       <c r="A61" s="36" t="s">
-        <v>2304</v>
+        <v>2283</v>
       </c>
       <c r="C61" s="396"/>
       <c r="D61" s="396"/>
@@ -25137,13 +25299,13 @@
         <v>129</v>
       </c>
       <c r="F62" s="396" t="s">
-        <v>2303</v>
+        <v>2282</v>
       </c>
       <c r="G62" s="396"/>
       <c r="H62" s="396"/>
       <c r="I62" s="396"/>
       <c r="J62" s="377" t="s">
-        <v>2265</v>
+        <v>2244</v>
       </c>
       <c r="K62" s="76"/>
       <c r="L62" s="76"/>
@@ -25152,7 +25314,7 @@
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1">
       <c r="A63" s="36" t="s">
-        <v>2298</v>
+        <v>2277</v>
       </c>
       <c r="C63" s="396"/>
       <c r="D63" s="396"/>
@@ -25163,7 +25325,7 @@
         <v>50</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>2309</v>
+        <v>2288</v>
       </c>
       <c r="H63" s="396"/>
       <c r="I63" s="396"/>
@@ -25173,7 +25335,7 @@
     </row>
     <row r="64" spans="1:14" ht="15.75" thickBot="1">
       <c r="A64" s="36" t="s">
-        <v>2299</v>
+        <v>2278</v>
       </c>
       <c r="B64" s="322"/>
       <c r="C64" s="396"/>
@@ -25185,14 +25347,14 @@
         <v>132</v>
       </c>
       <c r="L64" s="36" t="s">
-        <v>2310</v>
+        <v>2289</v>
       </c>
       <c r="M64" s="70"/>
       <c r="N64" s="70"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="36" t="s">
-        <v>2300</v>
+        <v>2279</v>
       </c>
       <c r="B65" s="322"/>
       <c r="C65" s="396"/>
@@ -25208,7 +25370,7 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" thickBot="1">
       <c r="A66" s="36" t="s">
-        <v>2301</v>
+        <v>2280</v>
       </c>
       <c r="C66" s="396"/>
       <c r="D66" s="396"/>
@@ -25220,7 +25382,7 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" thickBot="1">
       <c r="A67" s="36" t="s">
-        <v>2302</v>
+        <v>2281</v>
       </c>
       <c r="D67" s="396"/>
       <c r="E67" s="187"/>
@@ -25250,7 +25412,7 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" thickBot="1">
       <c r="A70" s="36" t="s">
-        <v>2305</v>
+        <v>2284</v>
       </c>
       <c r="E70" s="78"/>
       <c r="J70" s="78"/>
@@ -25274,7 +25436,7 @@
     </row>
     <row r="72" spans="1:14" ht="15.75" thickBot="1">
       <c r="A72" s="36" t="s">
-        <v>2306</v>
+        <v>2285</v>
       </c>
       <c r="E72" s="78"/>
       <c r="J72" s="78"/>
@@ -25283,7 +25445,7 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" thickBot="1">
       <c r="A73" s="36" t="s">
-        <v>2307</v>
+        <v>2286</v>
       </c>
       <c r="E73" s="78"/>
       <c r="J73" s="78"/>
@@ -25295,7 +25457,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="36" t="s">
-        <v>2308</v>
+        <v>2287</v>
       </c>
       <c r="E74" s="78"/>
       <c r="J74" s="78"/>
@@ -25313,7 +25475,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="253" t="s">
-        <v>2311</v>
+        <v>2290</v>
       </c>
       <c r="E76" s="78"/>
       <c r="J76" s="78"/>
@@ -25325,12 +25487,12 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" thickBot="1">
       <c r="A77" s="36" t="s">
-        <v>2312</v>
+        <v>2291</v>
       </c>
       <c r="E77" s="78"/>
       <c r="J77" s="79"/>
       <c r="K77" s="80" t="s">
-        <v>2303</v>
+        <v>2282</v>
       </c>
       <c r="L77" s="80"/>
       <c r="M77" s="81"/>
@@ -25350,7 +25512,7 @@
     </row>
     <row r="83" spans="2:12">
       <c r="E83" s="36" t="s">
-        <v>2316</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="85" spans="2:12">
@@ -25382,48 +25544,48 @@
     </row>
     <row r="86" spans="2:12">
       <c r="B86" s="108" t="s">
-        <v>2317</v>
+        <v>2296</v>
       </c>
       <c r="C86" s="108" t="s">
-        <v>2318</v>
+        <v>2297</v>
       </c>
       <c r="D86" s="108" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="E86" s="108" t="s">
-        <v>2319</v>
+        <v>2298</v>
       </c>
       <c r="F86" s="108"/>
       <c r="G86" s="108" t="s">
-        <v>2320</v>
+        <v>2299</v>
       </c>
       <c r="H86" s="108" t="s">
-        <v>2318</v>
+        <v>2297</v>
       </c>
       <c r="I86" s="108" t="s">
-        <v>2321</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="88" spans="2:12">
       <c r="D88" s="36" t="s">
-        <v>2322</v>
+        <v>2301</v>
       </c>
       <c r="F88" s="36" t="s">
         <v>960</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>2323</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="89" spans="2:12">
       <c r="D89" s="36" t="s">
-        <v>2324</v>
+        <v>2303</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>2326</v>
+        <v>2305</v>
       </c>
       <c r="G89" s="36" t="s">
-        <v>2325</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="90" spans="2:12">
@@ -25742,7 +25904,7 @@
         <v>542</v>
       </c>
       <c r="U1" t="s">
-        <v>2336</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1">
@@ -25818,22 +25980,22 @@
         <v>545</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>2337</v>
+        <v>2316</v>
       </c>
       <c r="AA4" t="s">
-        <v>2340</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>2327</v>
+        <v>2306</v>
       </c>
       <c r="D5" t="s">
-        <v>2334</v>
+        <v>2313</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="25" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -25843,19 +26005,19 @@
       <c r="L5" s="32"/>
       <c r="R5" s="88"/>
       <c r="S5" t="s">
-        <v>2338</v>
+        <v>2317</v>
       </c>
       <c r="U5" s="88"/>
       <c r="W5" t="s">
-        <v>2339</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1">
       <c r="A6" t="s">
-        <v>2328</v>
+        <v>2307</v>
       </c>
       <c r="D6" t="s">
-        <v>2335</v>
+        <v>2314</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="25"/>
@@ -25867,15 +26029,15 @@
       <c r="L6" s="32"/>
       <c r="R6" s="88"/>
       <c r="S6" s="88" t="s">
-        <v>2346</v>
+        <v>2325</v>
       </c>
       <c r="T6" s="88"/>
       <c r="U6" s="88"/>
       <c r="W6" t="s">
-        <v>2345</v>
+        <v>2324</v>
       </c>
       <c r="AA6" t="s">
-        <v>2341</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -25893,7 +26055,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>2329</v>
+        <v>2308</v>
       </c>
       <c r="C8" t="s">
         <v>132</v>
@@ -25907,21 +26069,21 @@
       <c r="K8" s="362"/>
       <c r="L8" s="32"/>
       <c r="Q8" t="s">
-        <v>2354</v>
+        <v>2333</v>
       </c>
       <c r="U8" t="s">
-        <v>2355</v>
+        <v>2334</v>
       </c>
       <c r="AA8" t="s">
-        <v>2342</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1">
       <c r="A9" t="s">
-        <v>2330</v>
+        <v>2309</v>
       </c>
       <c r="C9" t="s">
-        <v>2331</v>
+        <v>2310</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="25"/>
@@ -25932,15 +26094,15 @@
       <c r="K9" s="140"/>
       <c r="L9" s="32"/>
       <c r="Q9" s="10" t="s">
-        <v>2347</v>
+        <v>2326</v>
       </c>
       <c r="T9" s="88"/>
       <c r="U9" s="10" t="s">
-        <v>2348</v>
+        <v>2327</v>
       </c>
       <c r="V9" s="88"/>
       <c r="AA9" t="s">
-        <v>2343</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -25956,12 +26118,12 @@
       <c r="U10" s="88"/>
       <c r="V10" s="88"/>
       <c r="AA10" t="s">
-        <v>2344</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="B11" t="s">
-        <v>2332</v>
+        <v>2311</v>
       </c>
       <c r="C11" s="52"/>
       <c r="E11" s="31"/>
@@ -25973,15 +26135,15 @@
       <c r="K11" s="25"/>
       <c r="L11" s="32"/>
       <c r="Q11" t="s">
-        <v>2349</v>
+        <v>2328</v>
       </c>
       <c r="U11" t="s">
-        <v>2351</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="B12" t="s">
-        <v>2333</v>
+        <v>2312</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="25"/>
@@ -25992,10 +26154,10 @@
       <c r="K12" s="25"/>
       <c r="L12" s="32"/>
       <c r="Q12" t="s">
-        <v>2350</v>
+        <v>2329</v>
       </c>
       <c r="U12" t="s">
-        <v>2350</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -26008,10 +26170,10 @@
       <c r="K13" s="25"/>
       <c r="L13" s="32"/>
       <c r="Q13" s="10" t="s">
-        <v>2353</v>
+        <v>2332</v>
       </c>
       <c r="U13" s="405" t="s">
-        <v>2352</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -26034,7 +26196,7 @@
       <c r="K15" s="34"/>
       <c r="L15" s="35"/>
       <c r="U15" t="s">
-        <v>2356</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -26159,14 +26321,14 @@
       <c r="J29" s="27"/>
       <c r="P29" s="27"/>
       <c r="R29" t="s">
-        <v>2357</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -26366,15 +26528,15 @@
       <c r="C49" s="28"/>
       <c r="D49" s="30"/>
       <c r="G49" s="28" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="H49" s="30"/>
       <c r="J49" s="28" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="K49" s="30"/>
       <c r="M49" s="28" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="N49" s="30"/>
     </row>
@@ -26382,33 +26544,33 @@
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="G50" s="31" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="H50" s="32"/>
       <c r="J50" s="31" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="K50" s="32"/>
       <c r="M50" s="31" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="N50" s="32"/>
     </row>
     <row r="51" spans="3:14">
       <c r="C51" s="31" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="G51" s="31"/>
       <c r="H51" s="32" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="J51" s="31"/>
       <c r="K51" s="32" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="M51" s="31"/>
       <c r="N51" s="32"/>
@@ -26421,11 +26583,11 @@
         <v>574</v>
       </c>
       <c r="I52" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J52" s="31"/>
       <c r="K52" s="32" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="L52" t="s">
         <v>1359</v>
@@ -26440,7 +26602,7 @@
       <c r="D53" s="32"/>
       <c r="G53" s="31"/>
       <c r="H53" s="32" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="J53" s="31"/>
       <c r="K53" s="32"/>
@@ -26452,7 +26614,7 @@
       <c r="D54" s="32"/>
       <c r="G54" s="31"/>
       <c r="H54" s="32" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="J54" s="31" t="s">
         <v>37</v>
@@ -26475,13 +26637,13 @@
     </row>
     <row r="56" spans="3:14">
       <c r="H56" s="70" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="N56" s="70"/>
     </row>
     <row r="57" spans="3:14">
       <c r="H57" s="70" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="58" spans="3:14">
@@ -26491,12 +26653,12 @@
     </row>
     <row r="59" spans="3:14">
       <c r="H59" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="60" spans="3:14">
       <c r="H60" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="61" spans="3:14">
@@ -30392,7 +30554,7 @@
         <v>1269</v>
       </c>
       <c r="AC1" t="s">
-        <v>2389</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -30428,13 +30590,13 @@
         <v>42</v>
       </c>
       <c r="N2" s="214" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="Q2" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="Y2" t="s">
-        <v>2386</v>
+        <v>2365</v>
       </c>
       <c r="AA2" s="52">
         <v>0</v>
@@ -30476,10 +30638,10 @@
         <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="Y3" t="s">
-        <v>2387</v>
+        <v>2366</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -30524,7 +30686,7 @@
         <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="Y4" t="s">
         <v>1287</v>
@@ -30536,7 +30698,7 @@
         <v>199</v>
       </c>
       <c r="AD4" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="AE4">
         <v>2</v>
@@ -30618,7 +30780,7 @@
         <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="AA6">
         <v>4</v>
@@ -30654,18 +30816,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="448" t="s">
+      <c r="B8" s="450" t="s">
         <v>1629</v>
       </c>
-      <c r="C8" s="448"/>
-      <c r="F8" s="448" t="s">
+      <c r="C8" s="450"/>
+      <c r="F8" s="450" t="s">
         <v>1630</v>
       </c>
-      <c r="G8" s="448"/>
-      <c r="I8" s="448" t="s">
+      <c r="G8" s="450"/>
+      <c r="I8" s="450" t="s">
         <v>1630</v>
       </c>
-      <c r="J8" s="448"/>
+      <c r="J8" s="450"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="R8" t="b">
@@ -30688,18 +30850,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="449" t="s">
+      <c r="F9" s="451" t="s">
         <v>1631</v>
       </c>
-      <c r="G9" s="449"/>
-      <c r="I9" s="449" t="s">
+      <c r="G9" s="451"/>
+      <c r="I9" s="451" t="s">
         <v>1265</v>
       </c>
-      <c r="J9" s="449"/>
-      <c r="M9" s="450" t="s">
+      <c r="J9" s="451"/>
+      <c r="M9" s="452" t="s">
         <v>1630</v>
       </c>
-      <c r="N9" s="450"/>
+      <c r="N9" s="452"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30727,14 +30889,14 @@
         <v>1271</v>
       </c>
       <c r="J10" t="s">
-        <v>2395</v>
+        <v>2374</v>
       </c>
       <c r="M10" s="293" t="s">
         <v>1632</v>
       </c>
       <c r="N10" s="293"/>
       <c r="Q10" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="AD10" t="s">
         <v>1</v>
@@ -30747,21 +30909,21 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="447" t="s">
+      <c r="E11" s="449" t="s">
         <v>1633</v>
       </c>
-      <c r="F11" s="447"/>
-      <c r="G11" s="447"/>
-      <c r="H11" s="447"/>
-      <c r="I11" s="447"/>
-      <c r="J11" s="447"/>
-      <c r="K11" s="447"/>
-      <c r="L11" s="447"/>
-      <c r="M11" s="447"/>
-      <c r="N11" s="447"/>
-      <c r="O11" s="447"/>
+      <c r="F11" s="449"/>
+      <c r="G11" s="449"/>
+      <c r="H11" s="449"/>
+      <c r="I11" s="449"/>
+      <c r="J11" s="449"/>
+      <c r="K11" s="449"/>
+      <c r="L11" s="449"/>
+      <c r="M11" s="449"/>
+      <c r="N11" s="449"/>
+      <c r="O11" s="449"/>
       <c r="R11" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="AF11" s="104" t="s">
         <v>818</v>
@@ -30775,7 +30937,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s">
-        <v>2385</v>
+        <v>2364</v>
       </c>
       <c r="AC12">
         <v>1000001</v>
@@ -30796,10 +30958,10 @@
         <v>550</v>
       </c>
       <c r="R13" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="Z13" t="s">
-        <v>2388</v>
+        <v>2367</v>
       </c>
       <c r="AF13" s="39"/>
       <c r="AG13">
@@ -30822,7 +30984,7 @@
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1">
       <c r="S15" t="s">
-        <v>2375</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -30839,16 +31001,16 @@
         <v>1635</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>2365</v>
+        <v>2344</v>
       </c>
       <c r="S16" t="s">
-        <v>2374</v>
+        <v>2353</v>
       </c>
       <c r="U16" s="24" t="s">
-        <v>2368</v>
+        <v>2347</v>
       </c>
       <c r="W16" s="24" t="s">
-        <v>2382</v>
+        <v>2361</v>
       </c>
       <c r="AC16" t="s">
         <v>1648</v>
@@ -30865,19 +31027,19 @@
         <v>630</v>
       </c>
       <c r="Q17" s="216" t="s">
-        <v>2366</v>
+        <v>2345</v>
       </c>
       <c r="S17" t="s">
-        <v>2373</v>
+        <v>2352</v>
       </c>
       <c r="U17" s="216" t="s">
-        <v>2366</v>
+        <v>2345</v>
       </c>
       <c r="W17" s="216" t="s">
-        <v>2366</v>
+        <v>2345</v>
       </c>
       <c r="AC17" t="s">
-        <v>2390</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="18" spans="2:42" ht="15.75" thickBot="1">
@@ -30888,13 +31050,13 @@
         <v>134</v>
       </c>
       <c r="Q18" s="163" t="s">
-        <v>2367</v>
+        <v>2346</v>
       </c>
       <c r="U18" s="163" t="s">
-        <v>2367</v>
+        <v>2346</v>
       </c>
       <c r="W18" s="163" t="s">
-        <v>2367</v>
+        <v>2346</v>
       </c>
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
@@ -30925,7 +31087,7 @@
         <v>981</v>
       </c>
       <c r="S19" t="s">
-        <v>2364</v>
+        <v>2343</v>
       </c>
       <c r="Z19" s="25"/>
       <c r="AA19" s="25" t="s">
@@ -30946,7 +31108,7 @@
       <c r="AJ19" s="25"/>
       <c r="AK19" s="168"/>
       <c r="AM19" s="25" t="s">
-        <v>2392</v>
+        <v>2371</v>
       </c>
       <c r="AN19" s="25"/>
       <c r="AO19" s="25"/>
@@ -30966,7 +31128,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="Q20" t="s">
-        <v>2369</v>
+        <v>2348</v>
       </c>
       <c r="S20" s="39" t="s">
         <v>132</v>
@@ -30983,7 +31145,7 @@
       </c>
       <c r="AF20" s="137"/>
       <c r="AG20" s="25" t="s">
-        <v>2391</v>
+        <v>2370</v>
       </c>
       <c r="AH20" s="25"/>
       <c r="AI20" s="25">
@@ -31009,7 +31171,7 @@
         <v>164</v>
       </c>
       <c r="U21" t="s">
-        <v>2370</v>
+        <v>2349</v>
       </c>
       <c r="Z21" s="25"/>
       <c r="AA21" s="42" t="s">
@@ -31050,16 +31212,16 @@
         <v>0.41668981481481482</v>
       </c>
       <c r="Q22" t="s">
-        <v>2371</v>
+        <v>2350</v>
       </c>
       <c r="S22" s="39" t="s">
         <v>199</v>
       </c>
       <c r="U22" t="s">
-        <v>2372</v>
+        <v>2351</v>
       </c>
       <c r="W22" t="s">
-        <v>2383</v>
+        <v>2362</v>
       </c>
       <c r="Y22" s="52"/>
       <c r="Z22" s="137" t="s">
@@ -31195,7 +31357,7 @@
       <c r="AJ25" s="25"/>
       <c r="AK25" s="168"/>
       <c r="AM25" s="25" t="s">
-        <v>2392</v>
+        <v>2371</v>
       </c>
       <c r="AN25" s="25"/>
       <c r="AO25" s="25"/>
@@ -31220,7 +31382,7 @@
       </c>
       <c r="AJ26" s="25"/>
       <c r="AK26" s="25" t="s">
-        <v>2393</v>
+        <v>2372</v>
       </c>
       <c r="AM26" s="25">
         <v>1000001</v>
@@ -31241,11 +31403,11 @@
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25" t="s">
-        <v>2376</v>
+        <v>2355</v>
       </c>
       <c r="T27" s="25"/>
       <c r="U27" s="25" t="s">
-        <v>2377</v>
+        <v>2356</v>
       </c>
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
@@ -31363,14 +31525,14 @@
         <v>724</v>
       </c>
       <c r="S29" s="25" t="s">
-        <v>2378</v>
+        <v>2357</v>
       </c>
       <c r="T29" s="25" t="s">
-        <v>2380</v>
+        <v>2359</v>
       </c>
       <c r="U29" s="25"/>
       <c r="V29" s="36" t="s">
-        <v>2384</v>
+        <v>2363</v>
       </c>
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
@@ -31420,10 +31582,10 @@
         <v>725</v>
       </c>
       <c r="S30" s="25" t="s">
-        <v>2379</v>
+        <v>2358</v>
       </c>
       <c r="T30" s="25" t="s">
-        <v>2381</v>
+        <v>2360</v>
       </c>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
@@ -31638,7 +31800,7 @@
       <c r="AJ34" s="25"/>
       <c r="AK34" s="168"/>
       <c r="AM34" s="25" t="s">
-        <v>2392</v>
+        <v>2371</v>
       </c>
       <c r="AN34" s="25"/>
     </row>
@@ -31649,7 +31811,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10" t="s">
-        <v>2358</v>
+        <v>2337</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -31685,7 +31847,7 @@
       </c>
       <c r="AJ35" s="25"/>
       <c r="AK35" s="25" t="s">
-        <v>2393</v>
+        <v>2372</v>
       </c>
       <c r="AM35" s="25">
         <v>1000001</v>
@@ -31699,7 +31861,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10" t="s">
-        <v>2359</v>
+        <v>2338</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -31803,13 +31965,13 @@
     </row>
     <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>2361</v>
+        <v>2340</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10" t="s">
-        <v>2363</v>
+        <v>2342</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -31840,13 +32002,13 @@
       </c>
       <c r="AE38" s="183"/>
       <c r="AF38" s="412" t="s">
-        <v>2303</v>
+        <v>2282</v>
       </c>
       <c r="AG38" s="183" t="s">
         <v>272</v>
       </c>
       <c r="AH38" s="137" t="s">
-        <v>2303</v>
+        <v>2282</v>
       </c>
       <c r="AI38" s="183"/>
       <c r="AJ38" s="25" t="s">
@@ -31863,11 +32025,11 @@
     </row>
     <row r="39" spans="1:40">
       <c r="C39" s="25" t="s">
-        <v>2360</v>
+        <v>2339</v>
       </c>
       <c r="D39" s="25"/>
       <c r="F39" s="25" t="s">
-        <v>2362</v>
+        <v>2341</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -32099,7 +32261,7 @@
         <v>866</v>
       </c>
       <c r="AG43" s="25" t="s">
-        <v>2303</v>
+        <v>2282</v>
       </c>
       <c r="AH43" s="25" t="s">
         <v>638</v>
@@ -32193,7 +32355,7 @@
       <c r="AE45" s="25"/>
       <c r="AF45" s="25"/>
       <c r="AG45" s="25" t="s">
-        <v>2394</v>
+        <v>2373</v>
       </c>
       <c r="AH45" s="25"/>
       <c r="AI45" s="25"/>
@@ -32822,7 +32984,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25" t="s">
-        <v>2398</v>
+        <v>2377</v>
       </c>
       <c r="J100" s="25"/>
       <c r="K100" s="32"/>
@@ -32849,7 +33011,7 @@
         <v>680</v>
       </c>
       <c r="I101" s="369" t="s">
-        <v>2396</v>
+        <v>2375</v>
       </c>
       <c r="J101" s="182"/>
       <c r="K101" s="32"/>
@@ -32891,7 +33053,7 @@
         <v>878</v>
       </c>
       <c r="I103" s="182" t="s">
-        <v>2401</v>
+        <v>2380</v>
       </c>
       <c r="J103" s="183"/>
       <c r="K103" s="32"/>
@@ -32908,7 +33070,7 @@
       <c r="G104" s="137"/>
       <c r="H104" s="137"/>
       <c r="I104" s="182" t="s">
-        <v>2397</v>
+        <v>2376</v>
       </c>
       <c r="J104" s="183"/>
       <c r="K104" s="32"/>
@@ -32970,7 +33132,7 @@
       <c r="H107" s="137"/>
       <c r="I107" s="182"/>
       <c r="J107" s="138" t="s">
-        <v>2399</v>
+        <v>2378</v>
       </c>
       <c r="K107" s="32"/>
     </row>
@@ -32984,7 +33146,7 @@
       <c r="H108" s="25"/>
       <c r="I108" s="182"/>
       <c r="J108" s="25" t="s">
-        <v>2400</v>
+        <v>2379</v>
       </c>
       <c r="K108" s="32"/>
     </row>
@@ -33907,15 +34069,15 @@
     </row>
     <row r="197" spans="3:12">
       <c r="I197" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="J197" s="132" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="198" spans="3:12">
       <c r="G198" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="199" spans="3:12">
@@ -33946,7 +34108,7 @@
       </c>
       <c r="J200" s="86"/>
       <c r="K200" s="36" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="L200" s="86"/>
     </row>
@@ -34299,17 +34461,17 @@
     </row>
     <row r="240" spans="1:15">
       <c r="I240" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="L240" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="415" t="s">
+      <c r="C241" s="419" t="s">
         <v>1657</v>
       </c>
-      <c r="D241" s="415"/>
+      <c r="D241" s="419"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -34423,23 +34585,23 @@
     </row>
     <row r="249" spans="1:12">
       <c r="B249" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="H249" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="250" spans="1:12">
       <c r="C250" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="E250" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="251" spans="1:12">
       <c r="C251" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -34456,24 +34618,24 @@
     </row>
     <row r="252" spans="1:12">
       <c r="C252" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D252">
         <v>1</v>
       </c>
       <c r="E252" s="39" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="J252">
         <v>1</v>
       </c>
       <c r="K252" s="39" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="253" spans="1:12">
       <c r="C253" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -34493,10 +34655,10 @@
         <v>3</v>
       </c>
       <c r="E254" s="39" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="F254" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="J254">
         <v>3</v>
@@ -34505,7 +34667,7 @@
         <v>164</v>
       </c>
       <c r="L254" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -34516,16 +34678,16 @@
         <v>34</v>
       </c>
       <c r="F255" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="J255">
         <v>4</v>
       </c>
       <c r="K255" s="39" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="L255" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -34536,10 +34698,10 @@
         <v>5</v>
       </c>
       <c r="E256" s="39" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="F256" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="J256">
         <v>5</v>
@@ -34548,15 +34710,15 @@
         <v>34</v>
       </c>
       <c r="L256" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="257" spans="1:11">
       <c r="E257" s="39" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="K257" s="39" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -34567,7 +34729,7 @@
         <v>1000000</v>
       </c>
       <c r="K258" s="39" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -34580,29 +34742,29 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B261" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="G261" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="262" spans="1:11">
       <c r="B262" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="264" spans="1:11">
       <c r="B264" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J264" t="s">
         <v>1854</v>
-      </c>
-      <c r="E264" t="s">
-        <v>1855</v>
-      </c>
-      <c r="J264" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -34678,12 +34840,12 @@
     </row>
     <row r="270" spans="1:11">
       <c r="D270" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="271" spans="1:11">
       <c r="G271" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="I271" t="s">
         <v>199</v>
@@ -34715,13 +34877,13 @@
     </row>
     <row r="279" spans="1:13">
       <c r="B279" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J279" t="s">
         <v>1854</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1855</v>
-      </c>
-      <c r="J279" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -34754,10 +34916,10 @@
         <v>199</v>
       </c>
       <c r="L281" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="M281" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -34808,12 +34970,12 @@
         <v>843</v>
       </c>
       <c r="K283" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="286" spans="1:13">
       <c r="D286" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
   </sheetData>
@@ -34848,12 +35010,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21">
-      <c r="C2" s="451" t="s">
+      <c r="C2" s="453" t="s">
         <v>1328</v>
       </c>
-      <c r="D2" s="451"/>
+      <c r="D2" s="453"/>
       <c r="F2" s="25" t="s">
-        <v>2426</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="3" spans="3:21">
@@ -34864,7 +35026,7 @@
         <v>655</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>2428</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="4" spans="3:21">
@@ -34872,7 +35034,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="214" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="5" spans="3:21">
@@ -34884,7 +35046,7 @@
       </c>
       <c r="F5" s="364"/>
       <c r="K5" s="364" t="s">
-        <v>2429</v>
+        <v>2408</v>
       </c>
       <c r="L5" s="364"/>
       <c r="O5" s="364"/>
@@ -34940,17 +35102,17 @@
     </row>
     <row r="11" spans="3:21">
       <c r="F11" s="36" t="s">
-        <v>2427</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="12" spans="3:21">
       <c r="G12" s="25" t="s">
-        <v>2430</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="13" spans="3:21">
       <c r="H13" s="25" t="s">
-        <v>2433</v>
+        <v>2412</v>
       </c>
       <c r="K13" s="406" t="s">
         <v>132</v>
@@ -34967,7 +35129,7 @@
     </row>
     <row r="14" spans="3:21">
       <c r="H14" s="25" t="s">
-        <v>2431</v>
+        <v>2410</v>
       </c>
       <c r="K14" s="25">
         <v>60</v>
@@ -34984,7 +35146,7 @@
     </row>
     <row r="17" spans="12:12">
       <c r="L17" s="25" t="s">
-        <v>2432</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -35104,7 +35266,7 @@
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="25" t="s">
-        <v>2411</v>
+        <v>2390</v>
       </c>
       <c r="L3" s="164" t="s">
         <v>48</v>
@@ -35134,7 +35296,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="167" t="s">
-        <v>2409</v>
+        <v>2388</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -35142,7 +35304,7 @@
         <v>32</v>
       </c>
       <c r="M4" s="167" t="s">
-        <v>2425</v>
+        <v>2404</v>
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -35182,7 +35344,7 @@
       <c r="I6" s="183"/>
       <c r="J6" s="25"/>
       <c r="K6" s="39" t="s">
-        <v>2419</v>
+        <v>2398</v>
       </c>
       <c r="L6" s="219"/>
       <c r="M6" s="220"/>
@@ -35218,10 +35380,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="214" t="s">
-        <v>2420</v>
+        <v>2399</v>
       </c>
       <c r="M7" s="214" t="s">
-        <v>2421</v>
+        <v>2400</v>
       </c>
       <c r="N7" s="214"/>
       <c r="P7" s="25"/>
@@ -35244,14 +35406,14 @@
         <v>32</v>
       </c>
       <c r="I8" s="167" t="s">
-        <v>2410</v>
+        <v>2389</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="112">
         <v>2</v>
       </c>
       <c r="L8" s="222" t="s">
-        <v>2422</v>
+        <v>2401</v>
       </c>
       <c r="M8" s="135"/>
       <c r="N8" s="26"/>
@@ -35274,7 +35436,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="214" t="s">
-        <v>2423</v>
+        <v>2402</v>
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -35305,17 +35467,17 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>2403</v>
+        <v>2382</v>
       </c>
       <c r="E12" t="s">
-        <v>2412</v>
+        <v>2391</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>696</v>
       </c>
       <c r="I12" s="10"/>
       <c r="K12" t="s">
-        <v>2404</v>
+        <v>2383</v>
       </c>
       <c r="N12" s="180"/>
     </row>
@@ -35329,27 +35491,27 @@
       </c>
       <c r="J13" s="180"/>
       <c r="K13" t="s">
-        <v>2405</v>
+        <v>2384</v>
       </c>
       <c r="N13" s="180"/>
     </row>
     <row r="14" spans="1:19">
       <c r="B14" t="s">
-        <v>2402</v>
+        <v>2381</v>
       </c>
       <c r="K14" t="s">
-        <v>2406</v>
+        <v>2385</v>
       </c>
       <c r="N14" s="180"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="10" t="s">
-        <v>2415</v>
+        <v>2394</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="K15" t="s">
-        <v>2407</v>
+        <v>2386</v>
       </c>
       <c r="N15" s="180"/>
     </row>
@@ -35358,22 +35520,22 @@
         <v>94</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>2416</v>
+        <v>2395</v>
       </c>
       <c r="C16" s="10"/>
       <c r="J16" s="180"/>
       <c r="K16" t="s">
-        <v>2408</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>2417</v>
+        <v>2396</v>
       </c>
       <c r="E17" t="s">
-        <v>2413</v>
+        <v>2392</v>
       </c>
       <c r="J17" s="180"/>
       <c r="K17" t="s">
@@ -35392,20 +35554,20 @@
       </c>
       <c r="C18" s="10"/>
       <c r="G18" t="s">
-        <v>2414</v>
+        <v>2393</v>
       </c>
       <c r="K18" t="s">
         <v>1076</v>
       </c>
       <c r="M18" t="s">
-        <v>2424</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>2418</v>
+        <v>2397</v>
       </c>
       <c r="K19" t="s">
         <v>1077</v>
@@ -35948,7 +36110,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="257" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>1403</v>
@@ -35973,7 +36135,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="36" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D3" s="187" t="s">
         <v>129</v>
@@ -36034,7 +36196,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="257"/>
       <c r="D6" s="187" t="s">
-        <v>1983</v>
+        <v>1962</v>
       </c>
       <c r="E6" s="381" t="s">
         <v>133</v>
@@ -36050,7 +36212,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="36" t="s">
-        <v>1969</v>
+        <v>1948</v>
       </c>
       <c r="D7" s="187"/>
       <c r="F7" s="302"/>
@@ -36062,12 +36224,12 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="36" t="s">
-        <v>1973</v>
+        <v>1952</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="96"/>
       <c r="F8" s="36" t="s">
-        <v>1972</v>
+        <v>1951</v>
       </c>
       <c r="G8" s="302"/>
       <c r="H8" s="302"/>
@@ -36085,7 +36247,7 @@
       <c r="D9" s="78"/>
       <c r="E9" s="96"/>
       <c r="F9" s="96" t="s">
-        <v>1975</v>
+        <v>1954</v>
       </c>
       <c r="G9" s="302"/>
       <c r="H9" s="302"/>
@@ -36097,13 +36259,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="36" t="s">
-        <v>1970</v>
+        <v>1949</v>
       </c>
       <c r="D10" s="78"/>
       <c r="E10" s="96"/>
       <c r="F10" s="302"/>
       <c r="G10" s="96" t="s">
-        <v>1982</v>
+        <v>1961</v>
       </c>
       <c r="H10" s="302"/>
       <c r="I10" s="302"/>
@@ -36114,17 +36276,17 @@
     </row>
     <row r="11" spans="1:13">
       <c r="B11" s="36" t="s">
-        <v>1971</v>
+        <v>1950</v>
       </c>
       <c r="D11" s="78"/>
       <c r="E11" s="96"/>
       <c r="F11" s="302"/>
       <c r="G11" s="106" t="s">
-        <v>1976</v>
+        <v>1955</v>
       </c>
       <c r="H11" s="302"/>
       <c r="I11" s="96" t="s">
-        <v>1980</v>
+        <v>1959</v>
       </c>
       <c r="J11" s="302"/>
       <c r="K11" s="170"/>
@@ -36133,7 +36295,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="36" t="s">
-        <v>1974</v>
+        <v>1953</v>
       </c>
       <c r="D12" s="315"/>
       <c r="E12" s="96"/>
@@ -36141,7 +36303,7 @@
       <c r="G12" s="302"/>
       <c r="H12" s="302"/>
       <c r="I12" s="96" t="s">
-        <v>1981</v>
+        <v>1960</v>
       </c>
       <c r="J12" s="302"/>
       <c r="K12" s="170"/>
@@ -36150,12 +36312,12 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="36" t="s">
-        <v>1972</v>
+        <v>1951</v>
       </c>
       <c r="D13" s="315"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96" t="s">
-        <v>1984</v>
+        <v>1963</v>
       </c>
       <c r="G13" s="302"/>
       <c r="H13" s="302"/>
@@ -36169,10 +36331,10 @@
       <c r="D14" s="78"/>
       <c r="E14" s="302"/>
       <c r="F14" s="381" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="G14" s="381" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="H14" s="302"/>
       <c r="I14" s="302"/>
@@ -36185,10 +36347,10 @@
       <c r="D15" s="78"/>
       <c r="E15" s="302"/>
       <c r="F15" s="381" t="s">
-        <v>1977</v>
+        <v>1956</v>
       </c>
       <c r="G15" s="96" t="s">
-        <v>1978</v>
+        <v>1957</v>
       </c>
       <c r="H15" s="302"/>
       <c r="I15" s="302"/>
@@ -36201,7 +36363,7 @@
       <c r="D16" s="79"/>
       <c r="E16" s="263"/>
       <c r="F16" s="263" t="s">
-        <v>1979</v>
+        <v>1958</v>
       </c>
       <c r="G16" s="263" t="s">
         <v>1422</v>
@@ -36220,7 +36382,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="257" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>1403</v>
@@ -36245,10 +36407,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="36" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D21" s="187" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="E21" s="381" t="s">
         <v>133</v>
@@ -36269,7 +36431,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="187" t="s">
-        <v>1989</v>
+        <v>1968</v>
       </c>
       <c r="E22" s="381" t="s">
         <v>851</v>
@@ -36288,7 +36450,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="D23" s="187" t="s">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="E23" s="381" t="s">
         <v>843</v>
@@ -36314,7 +36476,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="36" t="s">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="D25" s="187"/>
       <c r="F25" s="381"/>
@@ -36332,7 +36494,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1">
       <c r="A26" s="36" t="s">
-        <v>1986</v>
+        <v>1965</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="96"/>
@@ -36349,7 +36511,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="36" t="s">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="D27" s="78"/>
       <c r="E27" s="96"/>
@@ -36380,10 +36542,10 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="36" t="s">
-        <v>1991</v>
+        <v>1970</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>1992</v>
+        <v>1971</v>
       </c>
       <c r="D29" s="78"/>
       <c r="E29" s="96" t="s">
@@ -36403,10 +36565,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="36" t="s">
-        <v>1993</v>
+        <v>1972</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>1994</v>
+        <v>1973</v>
       </c>
       <c r="D30" s="315"/>
       <c r="E30" s="96">
@@ -36466,7 +36628,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1">
       <c r="A37" s="257" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>1403</v>
@@ -36491,10 +36653,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="B39" s="36" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D39" s="187" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="E39" s="381" t="s">
         <v>133</v>
@@ -36515,7 +36677,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="187" t="s">
-        <v>1989</v>
+        <v>1968</v>
       </c>
       <c r="E40" s="381" t="s">
         <v>851</v>
@@ -36534,7 +36696,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="D41" s="187" t="s">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="E41" s="381" t="s">
         <v>843</v>
@@ -36549,7 +36711,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="36" t="s">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="D42" s="187"/>
       <c r="E42" s="381"/>
@@ -36563,7 +36725,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="36" t="s">
-        <v>1986</v>
+        <v>1965</v>
       </c>
       <c r="D43" s="187"/>
       <c r="F43" s="381"/>
@@ -36581,7 +36743,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1">
       <c r="A44" s="36" t="s">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="96"/>
@@ -36609,7 +36771,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="36" t="s">
-        <v>1995</v>
+        <v>1974</v>
       </c>
       <c r="D46" s="78"/>
       <c r="E46" s="96"/>
@@ -36629,7 +36791,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1">
       <c r="A47" s="36" t="s">
-        <v>1996</v>
+        <v>1975</v>
       </c>
       <c r="D47" s="78"/>
       <c r="E47" s="96"/>
@@ -36647,7 +36809,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="36" t="s">
-        <v>1997</v>
+        <v>1976</v>
       </c>
       <c r="D48" s="315"/>
       <c r="E48" s="96"/>
@@ -36660,7 +36822,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="36" t="s">
-        <v>1998</v>
+        <v>1977</v>
       </c>
       <c r="D49" s="315"/>
       <c r="E49" s="96"/>
@@ -36674,7 +36836,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="36" t="s">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="381"/>
@@ -36688,7 +36850,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="36" t="s">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="D51" s="78"/>
       <c r="E51" s="381"/>
@@ -36702,7 +36864,7 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1">
       <c r="A52" s="36" t="s">
-        <v>2001</v>
+        <v>1980</v>
       </c>
       <c r="C52" s="96">
         <v>20</v>
@@ -36719,7 +36881,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="36" t="s">
-        <v>2002</v>
+        <v>1981</v>
       </c>
       <c r="C53" s="96" t="s">
         <v>164</v>
@@ -36727,7 +36889,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="36" t="s">
-        <v>2003</v>
+        <v>1982</v>
       </c>
       <c r="C54" s="96">
         <v>22</v>
@@ -36741,7 +36903,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1">
       <c r="A57" s="257" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>1403</v>
@@ -36767,10 +36929,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="B59" s="36" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D59" s="187" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="E59" s="381" t="s">
         <v>133</v>
@@ -36792,7 +36954,7 @@
         <v>37</v>
       </c>
       <c r="D60" s="187" t="s">
-        <v>1989</v>
+        <v>1968</v>
       </c>
       <c r="E60" s="381" t="s">
         <v>851</v>
@@ -36811,10 +36973,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="36" t="s">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="D61" s="187" t="s">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="E61" s="381" t="s">
         <v>843</v>
@@ -36828,7 +36990,7 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1">
       <c r="A62" s="36" t="s">
-        <v>1986</v>
+        <v>1965</v>
       </c>
       <c r="D62" s="187"/>
       <c r="E62" s="381"/>
@@ -36842,7 +37004,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="36" t="s">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="D63" s="187"/>
       <c r="F63" s="381"/>
@@ -36861,7 +37023,7 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1">
       <c r="A64" s="36" t="s">
-        <v>1995</v>
+        <v>1974</v>
       </c>
       <c r="D64" s="78"/>
       <c r="E64" s="96"/>
@@ -36878,7 +37040,7 @@
     </row>
     <row r="65" spans="1:13" ht="15.75" thickBot="1">
       <c r="A65" s="36" t="s">
-        <v>1996</v>
+        <v>1975</v>
       </c>
       <c r="D65" s="78"/>
       <c r="E65" s="96"/>
@@ -36893,10 +37055,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="36" t="s">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="D66" s="78"/>
       <c r="E66" s="96"/>
@@ -36917,10 +37079,10 @@
     </row>
     <row r="67" spans="1:13" ht="15.75" thickBot="1">
       <c r="A67" s="36" t="s">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>2020</v>
+        <v>1999</v>
       </c>
       <c r="D67" s="78"/>
       <c r="E67" s="96"/>
@@ -36939,7 +37101,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="36" t="s">
-        <v>2008</v>
+        <v>1987</v>
       </c>
       <c r="D68" s="315"/>
       <c r="E68" s="96"/>
@@ -36953,17 +37115,17 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="36" t="s">
-        <v>2009</v>
+        <v>1988</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="D69" s="315"/>
       <c r="E69" s="96" t="s">
         <v>68</v>
       </c>
       <c r="F69" s="96" t="s">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="G69" s="381"/>
       <c r="H69" s="381"/>
@@ -36975,21 +37137,21 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="36" t="s">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="C70" s="385" t="s">
         <v>132</v>
       </c>
       <c r="D70" s="78"/>
       <c r="E70" s="381" t="s">
-        <v>2004</v>
+        <v>1983</v>
       </c>
       <c r="F70" s="96" t="s">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="G70" s="381"/>
       <c r="H70" s="96" t="s">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="I70" s="381"/>
       <c r="J70" s="381"/>
@@ -36999,14 +37161,14 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="36" t="s">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="C71" s="385">
         <v>0</v>
       </c>
       <c r="D71" s="78"/>
       <c r="E71" s="381" t="s">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="F71" s="381"/>
       <c r="G71" s="96"/>
@@ -37018,7 +37180,7 @@
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
       <c r="A72" s="36" t="s">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="C72" s="385" t="s">
         <v>132</v>
@@ -37036,7 +37198,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="36" t="s">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="C73" s="385">
         <v>0</v>
@@ -37046,7 +37208,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="36" t="s">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="C74" s="385" t="s">
         <v>164</v>
@@ -37056,7 +37218,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="36" t="s">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="C75" s="385">
         <v>0</v>
@@ -37076,7 +37238,7 @@
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1">
       <c r="A77" s="257" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>1403</v>
@@ -37103,10 +37265,10 @@
     </row>
     <row r="79" spans="1:13">
       <c r="B79" s="36" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D79" s="187" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="E79" s="381" t="s">
         <v>133</v>
@@ -37129,7 +37291,7 @@
         <v>37</v>
       </c>
       <c r="D80" s="187" t="s">
-        <v>1989</v>
+        <v>1968</v>
       </c>
       <c r="E80" s="381" t="s">
         <v>851</v>
@@ -37149,10 +37311,10 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="36" t="s">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="D81" s="187" t="s">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="E81" s="381" t="s">
         <v>843</v>
@@ -37167,7 +37329,7 @@
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1">
       <c r="A82" s="36" t="s">
-        <v>1986</v>
+        <v>1965</v>
       </c>
       <c r="D82" s="187"/>
       <c r="E82" s="381"/>
@@ -37180,7 +37342,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="36" t="s">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="D83" s="187"/>
       <c r="F83" s="381"/>
@@ -37199,7 +37361,7 @@
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1">
       <c r="A84" s="36" t="s">
-        <v>1995</v>
+        <v>1974</v>
       </c>
       <c r="D84" s="78"/>
       <c r="E84" s="96"/>
@@ -37216,7 +37378,7 @@
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
       <c r="A85" s="36" t="s">
-        <v>1996</v>
+        <v>1975</v>
       </c>
       <c r="D85" s="78"/>
       <c r="E85" s="96"/>
@@ -37230,7 +37392,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="36" t="s">
-        <v>1997</v>
+        <v>1976</v>
       </c>
       <c r="D86" s="78"/>
       <c r="E86" s="96"/>
@@ -37250,11 +37412,11 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" s="313" t="s">
-        <v>2022</v>
+        <v>2001</v>
       </c>
       <c r="B87" s="313"/>
       <c r="C87" s="36" t="s">
-        <v>2023</v>
+        <v>2002</v>
       </c>
       <c r="D87" s="78"/>
       <c r="E87" s="96"/>
@@ -37272,7 +37434,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="36" t="s">
-        <v>2024</v>
+        <v>2003</v>
       </c>
       <c r="D88" s="315"/>
       <c r="E88" s="96"/>
@@ -37289,7 +37451,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="96" t="s">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="G89" s="381"/>
       <c r="H89" s="381"/>
@@ -37302,14 +37464,14 @@
       <c r="C90" s="385"/>
       <c r="D90" s="78"/>
       <c r="E90" s="381" t="s">
-        <v>2004</v>
+        <v>1983</v>
       </c>
       <c r="F90" s="96" t="s">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="G90" s="381"/>
       <c r="H90" s="96" t="s">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="I90" s="381"/>
       <c r="J90" s="381"/>
@@ -37320,7 +37482,7 @@
       <c r="C91" s="385"/>
       <c r="D91" s="78"/>
       <c r="E91" s="381" t="s">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="F91" s="381"/>
       <c r="G91" s="96"/>
@@ -37347,7 +37509,7 @@
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1">
       <c r="A94" s="257" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D94" s="36" t="s">
         <v>1403</v>
@@ -37365,7 +37527,7 @@
       </c>
       <c r="F95" s="76"/>
       <c r="G95" s="76" t="s">
-        <v>2029</v>
+        <v>2008</v>
       </c>
       <c r="H95" s="76"/>
       <c r="I95" s="76"/>
@@ -37374,16 +37536,16 @@
     </row>
     <row r="96" spans="1:13">
       <c r="B96" s="36" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D96" s="187" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="E96" s="381" t="s">
         <v>851</v>
       </c>
       <c r="G96" s="138" t="s">
-        <v>2031</v>
+        <v>2010</v>
       </c>
       <c r="H96" s="138" t="s">
         <v>133</v>
@@ -37401,7 +37563,7 @@
         <v>37</v>
       </c>
       <c r="D97" s="187" t="s">
-        <v>1989</v>
+        <v>1968</v>
       </c>
       <c r="E97" s="381" t="s">
         <v>851</v>
@@ -37419,10 +37581,10 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="36" t="s">
-        <v>1985</v>
+        <v>1964</v>
       </c>
       <c r="D98" s="187" t="s">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="E98" s="381" t="s">
         <v>851</v>
@@ -37436,7 +37598,7 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" thickBot="1">
       <c r="A99" s="36" t="s">
-        <v>1986</v>
+        <v>1965</v>
       </c>
       <c r="D99" s="187"/>
       <c r="E99" s="381"/>
@@ -37449,7 +37611,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="36" t="s">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="D100" s="187"/>
       <c r="E100" s="381" t="s">
@@ -37457,7 +37619,7 @@
       </c>
       <c r="F100" s="381"/>
       <c r="G100" s="381" t="s">
-        <v>2030</v>
+        <v>2009</v>
       </c>
       <c r="H100" s="381" t="s">
         <v>851</v>
@@ -37472,7 +37634,7 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" thickBot="1">
       <c r="A101" s="36" t="s">
-        <v>1995</v>
+        <v>1974</v>
       </c>
       <c r="D101" s="78"/>
       <c r="E101" s="96"/>
@@ -37488,7 +37650,7 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" thickBot="1">
       <c r="A102" s="36" t="s">
-        <v>1996</v>
+        <v>1975</v>
       </c>
       <c r="D102" s="78"/>
       <c r="E102" s="96" t="s">
@@ -37503,16 +37665,16 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="36" t="s">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="D103" s="78"/>
       <c r="E103" s="96"/>
       <c r="F103" s="381"/>
       <c r="G103" s="281" t="s">
-        <v>2031</v>
+        <v>2010</v>
       </c>
       <c r="H103" s="258" t="s">
         <v>843</v>
@@ -37527,14 +37689,14 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="36" t="s">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>2020</v>
+        <v>1999</v>
       </c>
       <c r="D104" s="78"/>
       <c r="E104" s="96" t="s">
-        <v>2032</v>
+        <v>2011</v>
       </c>
       <c r="F104" s="381"/>
       <c r="G104" s="385"/>
@@ -37549,7 +37711,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="36" t="s">
-        <v>2008</v>
+        <v>1987</v>
       </c>
       <c r="D105" s="315"/>
       <c r="E105" s="96"/>
@@ -37561,17 +37723,17 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="36" t="s">
-        <v>2009</v>
+        <v>1988</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="D106" s="315"/>
       <c r="E106" s="96" t="s">
         <v>68</v>
       </c>
       <c r="F106" s="96" t="s">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="G106" s="381"/>
       <c r="H106" s="381"/>
@@ -37581,22 +37743,22 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="36" t="s">
-        <v>2025</v>
+        <v>2004</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>2027</v>
+        <v>2006</v>
       </c>
       <c r="C107" s="385"/>
       <c r="D107" s="78"/>
       <c r="E107" s="381" t="s">
-        <v>2004</v>
+        <v>1983</v>
       </c>
       <c r="F107" s="96" t="s">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="G107" s="381"/>
       <c r="H107" s="96" t="s">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="I107" s="381"/>
       <c r="J107" s="381"/>
@@ -37604,15 +37766,15 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="36" t="s">
-        <v>2026</v>
+        <v>2005</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="C108" s="385"/>
       <c r="D108" s="78"/>
       <c r="E108" s="381" t="s">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="F108" s="381"/>
       <c r="G108" s="96"/>
@@ -38177,10 +38339,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="452" t="s">
+      <c r="B1" s="454" t="s">
         <v>1328</v>
       </c>
-      <c r="C1" s="452"/>
+      <c r="C1" s="454"/>
       <c r="E1" t="s">
         <v>1329</v>
       </c>
@@ -39602,18 +39764,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="453" t="s">
+      <c r="B3" s="455" t="s">
         <v>1353</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
-      <c r="H3" s="454"/>
-      <c r="I3" s="454"/>
-      <c r="J3" s="454"/>
-      <c r="K3" s="455"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="456"/>
+      <c r="F3" s="456"/>
+      <c r="G3" s="456"/>
+      <c r="H3" s="456"/>
+      <c r="I3" s="456"/>
+      <c r="J3" s="456"/>
+      <c r="K3" s="457"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -39728,24 +39890,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="456" t="s">
+      <c r="B15" s="458" t="s">
         <v>1354</v>
       </c>
-      <c r="C15" s="457"/>
-      <c r="D15" s="457"/>
-      <c r="E15" s="457"/>
-      <c r="F15" s="457"/>
-      <c r="G15" s="457"/>
-      <c r="H15" s="457"/>
-      <c r="I15" s="457"/>
-      <c r="J15" s="457"/>
-      <c r="K15" s="457"/>
-      <c r="L15" s="457"/>
-      <c r="M15" s="457"/>
-      <c r="N15" s="457"/>
-      <c r="O15" s="457"/>
-      <c r="P15" s="457"/>
-      <c r="Q15" s="457"/>
+      <c r="C15" s="459"/>
+      <c r="D15" s="459"/>
+      <c r="E15" s="459"/>
+      <c r="F15" s="459"/>
+      <c r="G15" s="459"/>
+      <c r="H15" s="459"/>
+      <c r="I15" s="459"/>
+      <c r="J15" s="459"/>
+      <c r="K15" s="459"/>
+      <c r="L15" s="459"/>
+      <c r="M15" s="459"/>
+      <c r="N15" s="459"/>
+      <c r="O15" s="459"/>
+      <c r="P15" s="459"/>
+      <c r="Q15" s="459"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -40026,7 +40188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -40039,10 +40201,10 @@
   <sheetData>
     <row r="1" spans="2:16">
       <c r="B1" s="36" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1"/>
@@ -40065,14 +40227,14 @@
         <v>838</v>
       </c>
       <c r="K3" s="76" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="L3" s="77"/>
       <c r="N3" s="377" t="s">
         <v>838</v>
       </c>
       <c r="O3" s="76" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="P3" s="77"/>
     </row>
@@ -40089,7 +40251,7 @@
     <row r="5" spans="2:16">
       <c r="B5" s="78"/>
       <c r="C5" s="36" t="s">
-        <v>2463</v>
+        <v>2442</v>
       </c>
       <c r="D5" s="70"/>
       <c r="F5" s="78"/>
@@ -40110,7 +40272,7 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="78" t="s">
-        <v>2464</v>
+        <v>2443</v>
       </c>
       <c r="D6" s="70"/>
       <c r="F6" s="78"/>
@@ -40121,7 +40283,7 @@
       <c r="P6" s="70"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="461" t="s">
+      <c r="B7" s="418" t="s">
         <v>1203</v>
       </c>
       <c r="C7" s="257" t="s">
@@ -40171,7 +40333,7 @@
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="78" t="s">
-        <v>2468</v>
+        <v>2447</v>
       </c>
       <c r="D11" s="70"/>
       <c r="F11" s="78"/>
@@ -40182,11 +40344,11 @@
       <c r="P11" s="70"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="461" t="s">
+      <c r="B12" s="418" t="s">
         <v>1204</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>2469</v>
+        <v>2448</v>
       </c>
       <c r="D12" s="70"/>
       <c r="F12" s="78"/>
@@ -40199,23 +40361,23 @@
     <row r="13" spans="2:16">
       <c r="B13" s="78"/>
       <c r="C13" s="257" t="s">
-        <v>2470</v>
+        <v>2449</v>
       </c>
       <c r="D13" s="70"/>
       <c r="F13" s="375"/>
       <c r="G13" s="257" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="313"/>
       <c r="J13" s="78"/>
       <c r="K13" s="257" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="L13" s="376"/>
       <c r="N13" s="78"/>
       <c r="O13" s="257" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="P13" s="70"/>
     </row>
@@ -40243,44 +40405,44 @@
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1">
       <c r="B16" s="378" t="s">
-        <v>2465</v>
+        <v>2444</v>
       </c>
       <c r="C16" s="379"/>
       <c r="D16" s="380"/>
       <c r="F16" s="378" t="s">
-        <v>2466</v>
+        <v>2445</v>
       </c>
       <c r="G16" s="379"/>
       <c r="H16" s="380"/>
       <c r="J16" s="378" t="s">
-        <v>2467</v>
+        <v>2446</v>
       </c>
       <c r="K16" s="379"/>
       <c r="L16" s="380"/>
       <c r="N16" s="378" t="s">
-        <v>2465</v>
+        <v>2444</v>
       </c>
       <c r="O16" s="379"/>
       <c r="P16" s="380"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="75" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="77"/>
       <c r="F17" s="75" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
       <c r="J17" s="75" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="K17" s="76"/>
       <c r="L17" s="77"/>
       <c r="N17" s="75" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="O17" s="76"/>
       <c r="P17" s="77"/>
@@ -40310,8 +40472,8 @@
       <c r="P19" s="70"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="460" t="s">
-        <v>2462</v>
+      <c r="B20" s="417" t="s">
+        <v>2441</v>
       </c>
       <c r="D20" s="70"/>
       <c r="F20" s="78"/>
@@ -40346,17 +40508,17 @@
     <row r="22" spans="2:16" ht="15.75" thickBot="1">
       <c r="B22" s="79"/>
       <c r="C22" s="80" t="s">
-        <v>2471</v>
+        <v>2450</v>
       </c>
       <c r="D22" s="81"/>
       <c r="F22" s="79"/>
       <c r="G22" s="80" t="s">
-        <v>2472</v>
+        <v>2451</v>
       </c>
       <c r="H22" s="81"/>
       <c r="J22" s="79"/>
       <c r="K22" s="80" t="s">
-        <v>2473</v>
+        <v>2452</v>
       </c>
       <c r="L22" s="81"/>
       <c r="N22" s="79"/>
@@ -40567,7 +40729,7 @@
     </row>
     <row r="77" spans="4:14" ht="15.75" thickBot="1">
       <c r="D77" s="36" t="s">
-        <v>2474</v>
+        <v>2453</v>
       </c>
       <c r="K77" s="36" t="s">
         <v>416</v>
@@ -40599,20 +40761,20 @@
       <c r="D81" s="78"/>
       <c r="G81" s="70"/>
       <c r="K81" s="78" t="s">
-        <v>2478</v>
+        <v>2457</v>
       </c>
       <c r="L81" s="36" t="s">
-        <v>2476</v>
+        <v>2455</v>
       </c>
       <c r="N81" s="70"/>
     </row>
     <row r="82" spans="4:14">
       <c r="D82" s="78"/>
       <c r="E82" s="37" t="s">
-        <v>2475</v>
+        <v>2454</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>2477</v>
+        <v>2456</v>
       </c>
       <c r="G82" s="70"/>
       <c r="K82" s="78"/>
@@ -40747,75 +40909,80 @@
       <c r="M214" s="371"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="437"/>
-      <c r="E223" s="437"/>
+      <c r="D223" s="441"/>
+      <c r="E223" s="441"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="437"/>
-      <c r="E227" s="437"/>
-      <c r="G227" s="437"/>
-      <c r="H227" s="437"/>
-      <c r="J227" s="437"/>
-      <c r="K227" s="437"/>
+      <c r="D227" s="441"/>
+      <c r="E227" s="441"/>
+      <c r="G227" s="441"/>
+      <c r="H227" s="441"/>
+      <c r="J227" s="441"/>
+      <c r="K227" s="441"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="438"/>
+      <c r="D273" s="443"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="438"/>
+      <c r="D274" s="443"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="438"/>
+      <c r="D275" s="443"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="438"/>
+      <c r="D276" s="443"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="438"/>
+      <c r="D277" s="443"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="438"/>
+      <c r="D278" s="443"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="439"/>
-      <c r="C287" s="437"/>
-      <c r="D287" s="437"/>
+      <c r="B287" s="442"/>
+      <c r="C287" s="441"/>
+      <c r="D287" s="441"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="438"/>
-      <c r="I288" s="439"/>
+      <c r="B288" s="443"/>
+      <c r="I288" s="442"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="438"/>
-      <c r="I289" s="438"/>
-      <c r="N289" s="439"/>
+      <c r="B289" s="443"/>
+      <c r="I289" s="443"/>
+      <c r="N289" s="442"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="438"/>
-      <c r="F290" s="437"/>
-      <c r="G290" s="437"/>
-      <c r="H290" s="437"/>
-      <c r="I290" s="438"/>
-      <c r="N290" s="438"/>
+      <c r="B290" s="443"/>
+      <c r="F290" s="441"/>
+      <c r="G290" s="441"/>
+      <c r="H290" s="441"/>
+      <c r="I290" s="443"/>
+      <c r="N290" s="443"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="438"/>
-      <c r="C291" s="437"/>
-      <c r="D291" s="437"/>
-      <c r="I291" s="438"/>
-      <c r="K291" s="437"/>
-      <c r="L291" s="437"/>
-      <c r="M291" s="437"/>
-      <c r="N291" s="438"/>
+      <c r="B291" s="443"/>
+      <c r="C291" s="441"/>
+      <c r="D291" s="441"/>
+      <c r="I291" s="443"/>
+      <c r="K291" s="441"/>
+      <c r="L291" s="441"/>
+      <c r="M291" s="441"/>
+      <c r="N291" s="443"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="438"/>
+      <c r="N292" s="443"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -40823,11 +40990,6 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41693,7 +41855,7 @@
         <v>21</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="48" spans="2:15">
@@ -41725,7 +41887,7 @@
         <v>7</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="49" spans="2:12">
@@ -41754,13 +41916,13 @@
         <v>1</v>
       </c>
       <c r="J49" s="364" t="s">
-        <v>2068</v>
+        <v>2047</v>
       </c>
       <c r="K49" s="342">
         <v>5</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="50" spans="2:12">
@@ -41789,13 +41951,13 @@
         <v>1</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>2069</v>
+        <v>2048</v>
       </c>
       <c r="K50" s="339">
         <v>23</v>
       </c>
       <c r="L50" s="36" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="51" spans="2:12">
@@ -41824,61 +41986,61 @@
         <v>0</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>2070</v>
+        <v>2049</v>
       </c>
       <c r="K51" s="339">
         <v>18</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="L52" s="25" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="C53" s="25" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="C54" s="25" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="L54" s="36" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="C55" s="25" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="56" spans="2:12">
       <c r="C56" s="25" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="58" spans="2:12">
       <c r="D58" s="25" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>1181</v>
@@ -41886,24 +42048,24 @@
     </row>
     <row r="59" spans="2:12">
       <c r="C59" s="25" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="60" spans="2:12">
       <c r="C60" s="25" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>1362</v>
@@ -41914,18 +42076,18 @@
     </row>
     <row r="61" spans="2:12">
       <c r="C61" s="25" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="62" spans="2:12">
       <c r="C62" s="25" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="219" spans="2:11">
@@ -42149,8 +42311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42176,148 +42338,152 @@
       <c r="C2" s="76"/>
       <c r="D2" s="77"/>
       <c r="F2" s="75" t="s">
-        <v>1700</v>
+        <v>2487</v>
       </c>
       <c r="G2" s="76"/>
       <c r="H2" s="77"/>
       <c r="J2" s="75" t="s">
-        <v>1959</v>
+        <v>1056</v>
       </c>
       <c r="K2" s="76"/>
       <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="78"/>
+      <c r="B3" s="78" t="s">
+        <v>1396</v>
+      </c>
       <c r="C3" s="303" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="270" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F3" s="78"/>
+        <v>2482</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>1396</v>
+      </c>
       <c r="G3" s="36" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>1953</v>
-      </c>
-      <c r="J3" s="78"/>
+        <v>2488</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>1396</v>
+      </c>
       <c r="K3" s="36" t="s">
         <v>42</v>
       </c>
       <c r="L3" s="70" t="s">
-        <v>32</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="78" t="s">
-        <v>1396</v>
-      </c>
+      <c r="B4" s="78"/>
       <c r="C4" s="303" t="s">
-        <v>42</v>
+        <v>2487</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>1396</v>
-      </c>
+        <v>2483</v>
+      </c>
+      <c r="F4" s="78"/>
       <c r="G4" s="36" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J4" s="78" t="s">
-        <v>1396</v>
-      </c>
+        <v>2489</v>
+      </c>
+      <c r="J4" s="78"/>
       <c r="K4" s="36" t="s">
-        <v>1700</v>
+        <v>2487</v>
       </c>
       <c r="L4" s="270" t="s">
-        <v>43</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="78"/>
       <c r="C5" s="303" t="s">
-        <v>1700</v>
+        <v>46</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>43</v>
+        <v>2493</v>
       </c>
       <c r="F5" s="78"/>
       <c r="G5" s="36" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>1720</v>
+        <v>2490</v>
       </c>
       <c r="J5" s="78"/>
       <c r="K5" s="36" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="70" t="s">
-        <v>1395</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="78"/>
       <c r="C6" s="303" t="s">
-        <v>1701</v>
+        <v>1056</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>1951</v>
+        <v>2484</v>
       </c>
       <c r="F6" s="78"/>
       <c r="G6" s="36" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="70" t="s">
-        <v>1955</v>
+        <v>2491</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="36" t="s">
-        <v>942</v>
+        <v>2210</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>1960</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="78"/>
       <c r="C7" s="303" t="s">
-        <v>1959</v>
+        <v>2495</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>1952</v>
+        <v>2485</v>
       </c>
       <c r="F7" s="78"/>
       <c r="G7" s="36" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>1956</v>
+        <v>2492</v>
       </c>
       <c r="J7" s="78"/>
       <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B8" s="79" t="s">
-        <v>1705</v>
-      </c>
+      <c r="B8" s="79"/>
       <c r="C8" s="283" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
+        <v>2498</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>2504</v>
+      </c>
       <c r="H8" s="81"/>
       <c r="J8" s="79" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="K8" s="80" t="s">
-        <v>1968</v>
+        <v>2502</v>
       </c>
       <c r="L8" s="81"/>
     </row>
@@ -42330,12 +42496,12 @@
         <v>1698</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>1701</v>
+        <v>2498</v>
       </c>
       <c r="G10" s="305"/>
       <c r="H10" s="77"/>
       <c r="J10" s="306" t="s">
-        <v>942</v>
+        <v>2495</v>
       </c>
       <c r="K10" s="307"/>
       <c r="L10" s="308"/>
@@ -42344,19 +42510,23 @@
       <c r="B11" s="36" t="s">
         <v>1691</v>
       </c>
-      <c r="F11" s="78"/>
+      <c r="F11" s="78" t="s">
+        <v>1396</v>
+      </c>
       <c r="G11" s="304" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="309"/>
+        <v>2482</v>
+      </c>
+      <c r="J11" s="309" t="s">
+        <v>1396</v>
+      </c>
       <c r="K11" s="276" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L11" s="310" t="s">
-        <v>1702</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -42365,73 +42535,60 @@
       </c>
       <c r="F12" s="78"/>
       <c r="G12" s="304" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>1957</v>
-      </c>
-      <c r="J12" s="309" t="s">
-        <v>1396</v>
-      </c>
+        <v>2499</v>
+      </c>
+      <c r="J12" s="309"/>
       <c r="K12" s="276" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="310" t="s">
-        <v>1703</v>
-      </c>
-      <c r="M12" s="248" t="s">
-        <v>1963</v>
-      </c>
+        <v>2496</v>
+      </c>
+      <c r="M12" s="248"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="36" t="s">
         <v>1693</v>
       </c>
-      <c r="F13" s="78" t="s">
-        <v>1396</v>
-      </c>
+      <c r="F13" s="78"/>
       <c r="G13" s="304" t="s">
-        <v>42</v>
+        <v>2501</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>1958</v>
+        <v>2500</v>
       </c>
       <c r="J13" s="309"/>
       <c r="K13" s="276" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="310" t="s">
-        <v>1961</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="36" t="s">
         <v>1694</v>
       </c>
       <c r="F14" s="78"/>
-      <c r="G14" s="304" t="s">
-        <v>1700</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>43</v>
-      </c>
+      <c r="G14" s="304"/>
+      <c r="H14" s="70"/>
       <c r="J14" s="309"/>
       <c r="K14" s="276"/>
       <c r="L14" s="310"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B15" s="248"/>
       <c r="F15" s="79"/>
-      <c r="G15" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="81" t="s">
-        <v>1395</v>
-      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
       <c r="J15" s="311" t="s">
-        <v>1964</v>
+        <v>1703</v>
       </c>
       <c r="K15" s="384" t="s">
-        <v>1965</v>
+        <v>2505</v>
       </c>
       <c r="L15" s="312"/>
     </row>
@@ -42442,39 +42599,49 @@
       <c r="C16" s="36" t="s">
         <v>1699</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>1705</v>
-      </c>
-      <c r="G16" s="304" t="s">
-        <v>1967</v>
-      </c>
+      <c r="G16" s="304"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="36" t="s">
         <v>1695</v>
       </c>
       <c r="J17" s="75" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="440"/>
+        <v>2210</v>
+      </c>
+      <c r="K17" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="464" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1">
       <c r="B18" s="36" t="s">
         <v>1696</v>
       </c>
       <c r="G18" s="304"/>
-      <c r="J18" s="79" t="s">
-        <v>1704</v>
-      </c>
-      <c r="K18" s="80"/>
-      <c r="L18" s="441"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="465" t="s">
+        <v>1701</v>
+      </c>
+      <c r="M18" s="248">
+        <v>45008</v>
+      </c>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="36" t="s">
         <v>1697</v>
       </c>
       <c r="G19" s="304"/>
+      <c r="J19" s="36" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>2503</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
       <c r="G20" s="304"/>
@@ -42487,9 +42654,6 @@
       <c r="O26" s="248"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L17:L18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -42547,7 +42711,7 @@
         <v>133</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>2046</v>
+        <v>2025</v>
       </c>
       <c r="Q3" s="32"/>
     </row>
@@ -42559,7 +42723,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>2047</v>
+        <v>2026</v>
       </c>
       <c r="Q4" s="32"/>
     </row>
@@ -42574,7 +42738,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>2033</v>
+        <v>2012</v>
       </c>
       <c r="F6" s="360" t="s">
         <v>129</v>
@@ -42591,7 +42755,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="137" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C7" s="137"/>
       <c r="D7" s="137"/>
@@ -42626,7 +42790,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
       <c r="C9" s="25" t="s">
-        <v>2036</v>
+        <v>2015</v>
       </c>
       <c r="F9" s="360" t="s">
         <v>1011</v>
@@ -42640,10 +42804,10 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
       <c r="A10" s="25" t="s">
-        <v>2052</v>
+        <v>2031</v>
       </c>
       <c r="C10" s="386" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D10" s="386"/>
       <c r="F10" s="360" t="s">
@@ -42659,7 +42823,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>2053</v>
+        <v>2032</v>
       </c>
       <c r="F11" s="360"/>
       <c r="G11" s="364"/>
@@ -42683,7 +42847,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
       <c r="B13" s="386" t="s">
-        <v>2037</v>
+        <v>2016</v>
       </c>
       <c r="C13" s="386"/>
       <c r="D13" s="386"/>
@@ -42695,11 +42859,11 @@
     </row>
     <row r="14" spans="1:17">
       <c r="C14" s="25" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="25" t="s">
-        <v>2048</v>
+        <v>2027</v>
       </c>
       <c r="Q14" s="32"/>
     </row>
@@ -42712,10 +42876,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="25" t="s">
-        <v>2054</v>
+        <v>2033</v>
       </c>
       <c r="C16" s="387" t="s">
-        <v>2038</v>
+        <v>2017</v>
       </c>
       <c r="D16" s="387"/>
       <c r="F16" s="31"/>
@@ -42723,7 +42887,7 @@
         <v>76</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>2044</v>
+        <v>2023</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
@@ -42732,50 +42896,50 @@
         <v>37</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>2055</v>
+        <v>2034</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="25" t="s">
-        <v>2041</v>
+        <v>2020</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>2045</v>
+        <v>2024</v>
       </c>
       <c r="Q17" s="32"/>
     </row>
     <row r="18" spans="1:17">
       <c r="F18" s="31"/>
       <c r="G18" s="137" t="s">
-        <v>2042</v>
+        <v>2021</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>2049</v>
+        <v>2028</v>
       </c>
       <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="387" t="s">
-        <v>2039</v>
+        <v>2018</v>
       </c>
       <c r="C19" s="387"/>
       <c r="D19" s="387"/>
       <c r="E19" s="387"/>
       <c r="F19" s="31"/>
       <c r="G19" s="36" t="s">
-        <v>2050</v>
+        <v>2029</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>2051</v>
+        <v>2030</v>
       </c>
       <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="25" t="s">
-        <v>2034</v>
+        <v>2013</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="271" t="s">
-        <v>2043</v>
+        <v>2022</v>
       </c>
       <c r="H20" s="271"/>
       <c r="I20" s="271"/>
@@ -42786,11 +42950,11 @@
     </row>
     <row r="21" spans="1:17">
       <c r="C21" s="25" t="s">
-        <v>2040</v>
+        <v>2019</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="271" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H21" s="271"/>
       <c r="I21" s="271"/>
@@ -42801,7 +42965,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="C22" s="25" t="s">
-        <v>2035</v>
+        <v>2014</v>
       </c>
       <c r="F22" s="31"/>
       <c r="Q22" s="32"/>
@@ -42865,7 +43029,7 @@
         <v>133</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>2046</v>
+        <v>2025</v>
       </c>
       <c r="Q28" s="32"/>
     </row>
@@ -42877,7 +43041,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>2047</v>
+        <v>2026</v>
       </c>
       <c r="Q29" s="32"/>
     </row>
@@ -42892,13 +43056,13 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="25" t="s">
-        <v>2033</v>
+        <v>2012</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>2063</v>
+        <v>2042</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>2056</v>
+        <v>2035</v>
       </c>
       <c r="F31" s="360" t="s">
         <v>129</v>
@@ -42915,7 +43079,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="B32" s="137" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C32" s="137"/>
       <c r="D32" s="137"/>
@@ -42936,10 +43100,10 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="25" t="s">
-        <v>2052</v>
+        <v>2031</v>
       </c>
       <c r="C33" s="386" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F33" s="360" t="s">
         <v>130</v>
@@ -42967,7 +43131,7 @@
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1">
       <c r="C35" s="25" t="s">
-        <v>2036</v>
+        <v>2015</v>
       </c>
       <c r="D35" s="386"/>
       <c r="F35" s="360" t="s">
@@ -42993,7 +43157,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="D37" s="25" t="s">
-        <v>2064</v>
+        <v>2043</v>
       </c>
       <c r="F37" s="360"/>
       <c r="G37" s="364"/>
@@ -43007,7 +43171,7 @@
     </row>
     <row r="38" spans="1:17" ht="15.75" thickBot="1">
       <c r="B38" s="386" t="s">
-        <v>2037</v>
+        <v>2016</v>
       </c>
       <c r="C38" s="386"/>
       <c r="D38" s="386"/>
@@ -43019,11 +43183,11 @@
     </row>
     <row r="39" spans="1:17">
       <c r="C39" s="25" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="25" t="s">
-        <v>2048</v>
+        <v>2027</v>
       </c>
       <c r="Q39" s="32"/>
     </row>
@@ -43036,10 +43200,10 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="25" t="s">
-        <v>2054</v>
+        <v>2033</v>
       </c>
       <c r="C41" s="387" t="s">
-        <v>2038</v>
+        <v>2017</v>
       </c>
       <c r="D41" s="387"/>
       <c r="F41" s="31"/>
@@ -43047,7 +43211,7 @@
         <v>76</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>2044</v>
+        <v>2023</v>
       </c>
       <c r="Q41" s="32"/>
     </row>
@@ -43058,49 +43222,49 @@
       <c r="C42" s="36"/>
       <c r="F42" s="31"/>
       <c r="G42" s="25" t="s">
-        <v>2041</v>
+        <v>2020</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>2045</v>
+        <v>2024</v>
       </c>
       <c r="Q42" s="32"/>
     </row>
     <row r="43" spans="1:17">
       <c r="D43" s="25" t="s">
-        <v>2065</v>
+        <v>2044</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="137" t="s">
-        <v>2042</v>
+        <v>2021</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>2049</v>
+        <v>2028</v>
       </c>
       <c r="Q43" s="32"/>
     </row>
     <row r="44" spans="1:17">
       <c r="B44" s="387" t="s">
-        <v>2039</v>
+        <v>2018</v>
       </c>
       <c r="C44" s="387"/>
       <c r="D44" s="387"/>
       <c r="E44" s="387"/>
       <c r="F44" s="31"/>
       <c r="G44" s="36" t="s">
-        <v>2050</v>
+        <v>2029</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>2051</v>
+        <v>2030</v>
       </c>
       <c r="Q44" s="32"/>
     </row>
     <row r="45" spans="1:17">
       <c r="C45" s="25" t="s">
-        <v>2034</v>
+        <v>2013</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="271" t="s">
-        <v>2043</v>
+        <v>2022</v>
       </c>
       <c r="H45" s="271"/>
       <c r="I45" s="271"/>
@@ -43111,11 +43275,11 @@
     </row>
     <row r="46" spans="1:17">
       <c r="C46" s="25" t="s">
-        <v>2040</v>
+        <v>2019</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="271" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H46" s="271"/>
       <c r="I46" s="271"/>
@@ -43123,17 +43287,17 @@
         <v>164</v>
       </c>
       <c r="L46" s="25" t="s">
-        <v>2054</v>
+        <v>2033</v>
       </c>
       <c r="Q46" s="32"/>
     </row>
     <row r="47" spans="1:17">
       <c r="C47" s="25" t="s">
-        <v>2035</v>
+        <v>2014</v>
       </c>
       <c r="F47" s="31"/>
       <c r="L47" s="25" t="s">
-        <v>2061</v>
+        <v>2040</v>
       </c>
       <c r="Q47" s="32"/>
     </row>
@@ -43148,7 +43312,7 @@
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34" t="s">
-        <v>2062</v>
+        <v>2041</v>
       </c>
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
@@ -43194,18 +43358,18 @@
     </row>
     <row r="61" spans="1:11">
       <c r="G61" s="25" t="s">
-        <v>2057</v>
+        <v>2036</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>2059</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="G62" s="25" t="s">
-        <v>2058</v>
+        <v>2037</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>2060</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="68" spans="11:14">
@@ -43231,10 +43395,10 @@
         <v>1</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>2066</v>
+        <v>2045</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>2067</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="93" spans="7:17">
@@ -43561,23 +43725,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="443" t="s">
+      <c r="A1" s="445" t="s">
         <v>1107</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="I1" s="443" t="s">
+      <c r="B1" s="445"/>
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="445"/>
+      <c r="F1" s="445"/>
+      <c r="I1" s="445" t="s">
         <v>1117</v>
       </c>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="443"/>
-      <c r="O1" s="443"/>
+      <c r="J1" s="445"/>
+      <c r="K1" s="445"/>
+      <c r="L1" s="445"/>
+      <c r="M1" s="445"/>
+      <c r="N1" s="445"/>
+      <c r="O1" s="445"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -43727,28 +43891,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="424" t="s">
+      <c r="A12" s="428" t="s">
         <v>1119</v>
       </c>
-      <c r="B12" s="442"/>
-      <c r="C12" s="442"/>
-      <c r="D12" s="442"/>
-      <c r="E12" s="442"/>
-      <c r="F12" s="442"/>
-      <c r="G12" s="442"/>
-      <c r="H12" s="425"/>
-      <c r="I12" s="424" t="s">
+      <c r="B12" s="444"/>
+      <c r="C12" s="444"/>
+      <c r="D12" s="444"/>
+      <c r="E12" s="444"/>
+      <c r="F12" s="444"/>
+      <c r="G12" s="444"/>
+      <c r="H12" s="429"/>
+      <c r="I12" s="428" t="s">
         <v>1119</v>
       </c>
-      <c r="J12" s="442"/>
-      <c r="K12" s="442"/>
-      <c r="L12" s="442"/>
-      <c r="M12" s="442"/>
-      <c r="N12" s="442"/>
-      <c r="O12" s="442"/>
-      <c r="P12" s="442"/>
-      <c r="Q12" s="442"/>
-      <c r="R12" s="425"/>
+      <c r="J12" s="444"/>
+      <c r="K12" s="444"/>
+      <c r="L12" s="444"/>
+      <c r="M12" s="444"/>
+      <c r="N12" s="444"/>
+      <c r="O12" s="444"/>
+      <c r="P12" s="444"/>
+      <c r="Q12" s="444"/>
+      <c r="R12" s="429"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -43976,14 +44140,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="443" t="s">
+      <c r="A24" s="445" t="s">
         <v>1107</v>
       </c>
-      <c r="B24" s="443"/>
-      <c r="C24" s="443"/>
-      <c r="D24" s="443"/>
-      <c r="E24" s="443"/>
-      <c r="F24" s="443"/>
+      <c r="B24" s="445"/>
+      <c r="C24" s="445"/>
+      <c r="D24" s="445"/>
+      <c r="E24" s="445"/>
+      <c r="F24" s="445"/>
       <c r="H24" s="195" t="s">
         <v>1117</v>
       </c>
@@ -43993,11 +44157,11 @@
       <c r="L24" s="195"/>
       <c r="M24" s="195"/>
       <c r="N24" s="195"/>
-      <c r="P24" s="443" t="s">
+      <c r="P24" s="445" t="s">
         <v>1155</v>
       </c>
-      <c r="Q24" s="443"/>
-      <c r="R24" s="443"/>
+      <c r="Q24" s="445"/>
+      <c r="R24" s="445"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -44237,28 +44401,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="424" t="s">
+      <c r="A35" s="428" t="s">
         <v>1156</v>
       </c>
-      <c r="B35" s="442"/>
-      <c r="C35" s="442"/>
-      <c r="D35" s="442"/>
-      <c r="E35" s="442"/>
-      <c r="F35" s="442"/>
-      <c r="G35" s="442"/>
-      <c r="H35" s="425"/>
-      <c r="I35" s="424" t="s">
+      <c r="B35" s="444"/>
+      <c r="C35" s="444"/>
+      <c r="D35" s="444"/>
+      <c r="E35" s="444"/>
+      <c r="F35" s="444"/>
+      <c r="G35" s="444"/>
+      <c r="H35" s="429"/>
+      <c r="I35" s="428" t="s">
         <v>543</v>
       </c>
-      <c r="J35" s="442"/>
-      <c r="K35" s="442"/>
-      <c r="L35" s="442"/>
-      <c r="M35" s="442"/>
-      <c r="N35" s="442"/>
-      <c r="O35" s="442"/>
-      <c r="P35" s="442"/>
-      <c r="Q35" s="442"/>
-      <c r="R35" s="425"/>
+      <c r="J35" s="444"/>
+      <c r="K35" s="444"/>
+      <c r="L35" s="444"/>
+      <c r="M35" s="444"/>
+      <c r="N35" s="444"/>
+      <c r="O35" s="444"/>
+      <c r="P35" s="444"/>
+      <c r="Q35" s="444"/>
+      <c r="R35" s="429"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">
@@ -44502,7 +44666,7 @@
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
       <c r="F46" s="73" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="G46" s="74" t="s">
         <v>1005</v>
@@ -44556,7 +44720,7 @@
     <row r="48" spans="1:20">
       <c r="A48" s="36"/>
       <c r="B48" s="36" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
@@ -44568,7 +44732,7 @@
         <v>133</v>
       </c>
       <c r="H48" s="320" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="I48" s="320"/>
       <c r="J48" s="36"/>
@@ -44605,7 +44769,7 @@
       <c r="I49" s="320"/>
       <c r="J49" s="36"/>
       <c r="K49" s="79" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="L49" s="80" t="s">
         <v>961</v>
@@ -44647,12 +44811,12 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="322" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B51" s="322"/>
       <c r="C51" s="322"/>
       <c r="D51" s="36" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E51" s="36"/>
       <c r="F51" s="187" t="s">
@@ -44678,7 +44842,7 @@
     <row r="52" spans="1:20">
       <c r="A52" s="322"/>
       <c r="B52" s="138" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C52" s="138"/>
       <c r="D52" s="138"/>
@@ -44705,7 +44869,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="36" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B53" s="322"/>
       <c r="C53" s="322" t="s">
@@ -44755,23 +44919,23 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="323" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B55" s="322"/>
       <c r="C55" s="323" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="78"/>
       <c r="G55" s="36" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="H55" s="36"/>
       <c r="I55" s="320"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
@@ -44790,17 +44954,17 @@
       </c>
       <c r="C56" s="322"/>
       <c r="D56" s="36" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="E56" s="36"/>
       <c r="F56" s="78"/>
       <c r="G56" s="36" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="H56" s="36"/>
       <c r="I56" s="320"/>
       <c r="J56" s="36" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
@@ -44816,7 +44980,7 @@
     <row r="57" spans="1:20">
       <c r="A57" s="322"/>
       <c r="B57" s="323" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C57" s="323"/>
       <c r="D57" s="323"/>
@@ -44841,13 +45005,13 @@
       <c r="A58" s="322"/>
       <c r="B58" s="322"/>
       <c r="C58" s="322" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D58" s="260"/>
       <c r="E58" s="260"/>
       <c r="F58" s="78"/>
       <c r="G58" s="36" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
@@ -44867,13 +45031,13 @@
       <c r="A59" s="322"/>
       <c r="B59" s="322"/>
       <c r="C59" s="322" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D59" s="36"/>
       <c r="E59" s="36"/>
       <c r="F59" s="78"/>
       <c r="G59" s="36" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
@@ -44923,7 +45087,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="78"/>
       <c r="G61" s="36" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
@@ -44941,7 +45105,7 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="36" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -44949,7 +45113,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="78"/>
       <c r="G62" s="36" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
@@ -44975,7 +45139,7 @@
       <c r="E63" s="260"/>
       <c r="F63" s="321"/>
       <c r="G63" s="36" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
@@ -44993,7 +45157,7 @@
     </row>
     <row r="64" spans="1:20" ht="15.75" thickBot="1">
       <c r="A64" s="36" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B64" s="36"/>
       <c r="D64" s="36"/>
@@ -45020,7 +45184,7 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="138" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B65" s="138"/>
       <c r="C65" s="52"/>
@@ -45044,7 +45208,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="36" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B66" s="36"/>
       <c r="D66" s="36"/>
@@ -45097,13 +45261,13 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="I68" s="36" t="s">
         <v>70</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
@@ -45150,7 +45314,7 @@
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="L70" s="36"/>
       <c r="M70" s="36"/>
@@ -45174,7 +45338,7 @@
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="L71" s="36"/>
       <c r="M71" s="36"/>
@@ -45198,7 +45362,7 @@
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="L72" s="36"/>
       <c r="M72" s="320"/>
@@ -45222,7 +45386,7 @@
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="L73" s="36"/>
       <c r="M73" s="320"/>
@@ -45265,7 +45429,7 @@
       <c r="D75" s="182"/>
       <c r="E75" s="36"/>
       <c r="F75" s="73" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="G75" s="74" t="s">
         <v>1005</v>
@@ -45317,7 +45481,7 @@
     <row r="77" spans="1:20">
       <c r="A77" s="182"/>
       <c r="B77" s="182" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C77" s="182"/>
       <c r="D77" s="182"/>
@@ -45364,7 +45528,7 @@
       <c r="I78" s="320"/>
       <c r="J78" s="36"/>
       <c r="K78" s="329" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="L78" s="330" t="s">
         <v>961</v>
@@ -45406,7 +45570,7 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="182" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B80" s="182"/>
       <c r="C80" s="182"/>
@@ -45431,7 +45595,7 @@
     <row r="81" spans="1:20">
       <c r="A81" s="182"/>
       <c r="B81" s="182" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C81" s="182"/>
       <c r="D81" s="182"/>
@@ -45518,7 +45682,7 @@
       <c r="A84" s="182"/>
       <c r="B84" s="182"/>
       <c r="C84" s="182" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D84" s="182"/>
       <c r="E84" s="36"/>
@@ -45528,7 +45692,7 @@
       <c r="I84" s="320"/>
       <c r="J84" s="36"/>
       <c r="K84" s="329" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="L84" s="330" t="s">
         <v>961</v>
@@ -45569,7 +45733,7 @@
     <row r="86" spans="1:20">
       <c r="A86" s="182"/>
       <c r="B86" s="182" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C86" s="182"/>
       <c r="D86" s="182"/>
@@ -45618,7 +45782,7 @@
       <c r="A88" s="182"/>
       <c r="B88" s="182"/>
       <c r="C88" s="182" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D88" s="182"/>
       <c r="E88" s="36"/>
@@ -45644,7 +45808,7 @@
       <c r="A89" s="182"/>
       <c r="B89" s="182"/>
       <c r="C89" s="182" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D89" s="182"/>
       <c r="E89" s="36"/>
@@ -45652,7 +45816,7 @@
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
       <c r="I89" s="138" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
@@ -45680,7 +45844,7 @@
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
       <c r="I90" s="36" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
@@ -45696,7 +45860,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="182" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B91" s="182"/>
       <c r="C91" s="182"/>
@@ -45706,7 +45870,7 @@
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
       <c r="I91" s="36" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
@@ -45746,7 +45910,7 @@
     </row>
     <row r="93" spans="1:20" ht="15.75" thickBot="1">
       <c r="A93" s="182" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B93" s="182"/>
       <c r="C93" s="180"/>
@@ -45772,7 +45936,7 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="182" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B94" s="182"/>
       <c r="C94" s="180"/>
@@ -45796,7 +45960,7 @@
     </row>
     <row r="95" spans="1:20" ht="15.75" thickBot="1">
       <c r="A95" s="36" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B95" s="36"/>
       <c r="D95" s="36"/>
@@ -45830,7 +45994,7 @@
       <c r="H96" s="36"/>
       <c r="I96" s="333"/>
       <c r="J96" s="75" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="K96" s="77"/>
       <c r="L96" s="36"/>
@@ -45878,7 +46042,7 @@
       <c r="H98" s="36"/>
       <c r="I98" s="334"/>
       <c r="J98" s="78" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="K98" s="70"/>
       <c r="L98" s="36"/>
@@ -45920,7 +46084,7 @@
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
       <c r="F100" s="75" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G100" s="77"/>
       <c r="H100" s="36"/>
@@ -45972,7 +46136,7 @@
       <c r="H102" s="37"/>
       <c r="I102" s="335"/>
       <c r="J102" s="75" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="K102" s="77"/>
       <c r="L102" s="36"/>
@@ -46108,7 +46272,7 @@
       <c r="H108" s="36"/>
       <c r="I108" s="334"/>
       <c r="J108" s="75" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="K108" s="77"/>
       <c r="L108" s="36"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -9504,6 +9504,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9574,10 +9592,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9624,24 +9642,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9999,13 +9999,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
-      <c r="H3" s="425" t="s">
+      <c r="H3" s="431" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="426"/>
-      <c r="J3" s="426"/>
-      <c r="K3" s="426"/>
-      <c r="L3" s="427"/>
+      <c r="I3" s="432"/>
+      <c r="J3" s="432"/>
+      <c r="K3" s="432"/>
+      <c r="L3" s="433"/>
       <c r="Q3" t="s">
         <v>2429</v>
       </c>
@@ -10037,20 +10037,20 @@
       <c r="F6" s="4" t="s">
         <v>1675</v>
       </c>
-      <c r="G6" s="428" t="s">
+      <c r="G6" s="434" t="s">
         <v>1189</v>
       </c>
-      <c r="H6" s="429"/>
+      <c r="H6" s="435"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="428" t="s">
+      <c r="J6" s="434" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="429"/>
+      <c r="K6" s="435"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="428" t="s">
+      <c r="M6" s="434" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="429"/>
+      <c r="N6" s="435"/>
       <c r="P6" t="s">
         <v>2421</v>
       </c>
@@ -10084,20 +10084,20 @@
       <c r="F8" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="G8" s="430" t="s">
+      <c r="G8" s="436" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="431"/>
+      <c r="H8" s="437"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="430" t="s">
+      <c r="J8" s="436" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="431"/>
+      <c r="K8" s="437"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="430" t="s">
+      <c r="M8" s="436" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="431"/>
+      <c r="N8" s="437"/>
       <c r="P8" t="s">
         <v>2423</v>
       </c>
@@ -10123,29 +10123,29 @@
       <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="421" t="s">
+      <c r="F10" s="427" t="s">
         <v>1687</v>
       </c>
-      <c r="G10" s="422"/>
-      <c r="H10" s="422"/>
-      <c r="I10" s="422"/>
-      <c r="J10" s="422"/>
-      <c r="K10" s="422"/>
-      <c r="L10" s="422"/>
-      <c r="M10" s="422"/>
-      <c r="N10" s="422"/>
+      <c r="G10" s="428"/>
+      <c r="H10" s="428"/>
+      <c r="I10" s="428"/>
+      <c r="J10" s="428"/>
+      <c r="K10" s="428"/>
+      <c r="L10" s="428"/>
+      <c r="M10" s="428"/>
+      <c r="N10" s="428"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="423"/>
-      <c r="G11" s="424"/>
-      <c r="H11" s="424"/>
-      <c r="I11" s="424"/>
-      <c r="J11" s="424"/>
-      <c r="K11" s="424"/>
-      <c r="L11" s="424"/>
-      <c r="M11" s="424"/>
-      <c r="N11" s="424"/>
+      <c r="F11" s="429"/>
+      <c r="G11" s="430"/>
+      <c r="H11" s="430"/>
+      <c r="I11" s="430"/>
+      <c r="J11" s="430"/>
+      <c r="K11" s="430"/>
+      <c r="L11" s="430"/>
+      <c r="M11" s="430"/>
+      <c r="N11" s="430"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -10393,8 +10393,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="419"/>
-      <c r="E23" s="420"/>
+      <c r="D23" s="425"/>
+      <c r="E23" s="426"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -10540,19 +10540,19 @@
       <c r="H30" s="232">
         <v>64</v>
       </c>
-      <c r="I30" s="460">
+      <c r="I30" s="419">
         <v>32</v>
       </c>
       <c r="J30" s="372">
         <v>16</v>
       </c>
-      <c r="K30" s="461">
+      <c r="K30" s="420">
         <v>8</v>
       </c>
-      <c r="L30" s="462">
+      <c r="L30" s="421">
         <v>4</v>
       </c>
-      <c r="M30" s="460">
+      <c r="M30" s="419">
         <v>2</v>
       </c>
       <c r="N30" s="372">
@@ -10777,7 +10777,7 @@
       <c r="J36" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="K36" s="463" t="s">
+      <c r="K36" s="422" t="s">
         <v>2472</v>
       </c>
       <c r="L36" s="146" t="s">
@@ -21067,34 +21067,34 @@
       <c r="E10" t="s">
         <v>1882</v>
       </c>
-      <c r="G10" s="432" t="s">
+      <c r="G10" s="438" t="s">
         <v>1889</v>
       </c>
-      <c r="H10" s="433"/>
-      <c r="I10" s="434"/>
+      <c r="H10" s="439"/>
+      <c r="I10" s="440"/>
       <c r="K10" s="28" t="s">
         <v>1899</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="435"/>
-      <c r="H11" s="436"/>
-      <c r="I11" s="437"/>
+      <c r="G11" s="441"/>
+      <c r="H11" s="442"/>
+      <c r="I11" s="443"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="435"/>
-      <c r="H12" s="436"/>
-      <c r="I12" s="437"/>
+      <c r="G12" s="441"/>
+      <c r="H12" s="442"/>
+      <c r="I12" s="443"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="438"/>
-      <c r="H13" s="439"/>
-      <c r="I13" s="440"/>
+      <c r="G13" s="444"/>
+      <c r="H13" s="445"/>
+      <c r="I13" s="446"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="279"/>
-      <c r="L3" s="446" t="s">
+      <c r="L3" s="452" t="s">
         <v>1498</v>
       </c>
       <c r="M3" s="170"/>
@@ -22045,7 +22045,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="447"/>
+      <c r="L4" s="453"/>
       <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -22065,12 +22065,12 @@
       <c r="K5" s="280" t="s">
         <v>1497</v>
       </c>
-      <c r="L5" s="447"/>
+      <c r="L5" s="453"/>
       <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="187"/>
-      <c r="L6" s="447"/>
+      <c r="L6" s="453"/>
       <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13">
@@ -22083,7 +22083,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="279"/>
-      <c r="L7" s="447"/>
+      <c r="L7" s="453"/>
       <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13">
@@ -22101,7 +22101,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="447"/>
+      <c r="L8" s="453"/>
       <c r="M8" s="170"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -22115,7 +22115,7 @@
       <c r="K9" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="447"/>
+      <c r="L9" s="453"/>
       <c r="M9" s="170"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -22123,7 +22123,7 @@
         <v>1481</v>
       </c>
       <c r="F10" s="187"/>
-      <c r="L10" s="447"/>
+      <c r="L10" s="453"/>
       <c r="M10" s="170"/>
     </row>
     <row r="11" spans="1:13">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="279"/>
-      <c r="L11" s="447"/>
+      <c r="L11" s="453"/>
       <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13">
@@ -22150,7 +22150,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="447"/>
+      <c r="L12" s="453"/>
       <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -22167,7 +22167,7 @@
       <c r="K13" s="263" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="448"/>
+      <c r="L13" s="454"/>
       <c r="M13" s="170"/>
     </row>
     <row r="14" spans="1:13">
@@ -22189,10 +22189,10 @@
       <c r="D15" s="258"/>
       <c r="E15" s="258"/>
       <c r="F15" s="187"/>
-      <c r="J15" s="441" t="s">
+      <c r="J15" s="447" t="s">
         <v>1487</v>
       </c>
-      <c r="K15" s="441"/>
+      <c r="K15" s="447"/>
       <c r="L15" s="69" t="s">
         <v>539</v>
       </c>
@@ -22212,8 +22212,8 @@
       <c r="G16" s="96" t="s">
         <v>1489</v>
       </c>
-      <c r="J16" s="441"/>
-      <c r="K16" s="441"/>
+      <c r="J16" s="447"/>
+      <c r="K16" s="447"/>
       <c r="L16" s="69" t="s">
         <v>50</v>
       </c>
@@ -22291,48 +22291,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="442"/>
+      <c r="K22" s="449"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="443"/>
+      <c r="K23" s="448"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="443"/>
+      <c r="K24" s="448"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="443"/>
+      <c r="K25" s="448"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="443"/>
+      <c r="K26" s="448"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="443"/>
+      <c r="K27" s="448"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="443"/>
+      <c r="K28" s="448"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="443"/>
+      <c r="K29" s="448"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="443"/>
+      <c r="K30" s="448"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="443"/>
+      <c r="K31" s="448"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="443"/>
+      <c r="K32" s="448"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="276"/>
@@ -30816,18 +30816,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="450" t="s">
+      <c r="B8" s="456" t="s">
         <v>1629</v>
       </c>
-      <c r="C8" s="450"/>
-      <c r="F8" s="450" t="s">
+      <c r="C8" s="456"/>
+      <c r="F8" s="456" t="s">
         <v>1630</v>
       </c>
-      <c r="G8" s="450"/>
-      <c r="I8" s="450" t="s">
+      <c r="G8" s="456"/>
+      <c r="I8" s="456" t="s">
         <v>1630</v>
       </c>
-      <c r="J8" s="450"/>
+      <c r="J8" s="456"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="R8" t="b">
@@ -30850,18 +30850,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="451" t="s">
+      <c r="F9" s="457" t="s">
         <v>1631</v>
       </c>
-      <c r="G9" s="451"/>
-      <c r="I9" s="451" t="s">
+      <c r="G9" s="457"/>
+      <c r="I9" s="457" t="s">
         <v>1265</v>
       </c>
-      <c r="J9" s="451"/>
-      <c r="M9" s="452" t="s">
+      <c r="J9" s="457"/>
+      <c r="M9" s="458" t="s">
         <v>1630</v>
       </c>
-      <c r="N9" s="452"/>
+      <c r="N9" s="458"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30909,19 +30909,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="449" t="s">
+      <c r="E11" s="455" t="s">
         <v>1633</v>
       </c>
-      <c r="F11" s="449"/>
-      <c r="G11" s="449"/>
-      <c r="H11" s="449"/>
-      <c r="I11" s="449"/>
-      <c r="J11" s="449"/>
-      <c r="K11" s="449"/>
-      <c r="L11" s="449"/>
-      <c r="M11" s="449"/>
-      <c r="N11" s="449"/>
-      <c r="O11" s="449"/>
+      <c r="F11" s="455"/>
+      <c r="G11" s="455"/>
+      <c r="H11" s="455"/>
+      <c r="I11" s="455"/>
+      <c r="J11" s="455"/>
+      <c r="K11" s="455"/>
+      <c r="L11" s="455"/>
+      <c r="M11" s="455"/>
+      <c r="N11" s="455"/>
+      <c r="O11" s="455"/>
       <c r="R11" t="s">
         <v>1872</v>
       </c>
@@ -34468,10 +34468,10 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="419" t="s">
+      <c r="C241" s="425" t="s">
         <v>1657</v>
       </c>
-      <c r="D241" s="419"/>
+      <c r="D241" s="425"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -35010,10 +35010,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21">
-      <c r="C2" s="453" t="s">
+      <c r="C2" s="459" t="s">
         <v>1328</v>
       </c>
-      <c r="D2" s="453"/>
+      <c r="D2" s="459"/>
       <c r="F2" s="25" t="s">
         <v>2405</v>
       </c>
@@ -38339,10 +38339,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="454" t="s">
+      <c r="B1" s="460" t="s">
         <v>1328</v>
       </c>
-      <c r="C1" s="454"/>
+      <c r="C1" s="460"/>
       <c r="E1" t="s">
         <v>1329</v>
       </c>
@@ -39764,18 +39764,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="455" t="s">
+      <c r="B3" s="461" t="s">
         <v>1353</v>
       </c>
-      <c r="C3" s="456"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="456"/>
-      <c r="F3" s="456"/>
-      <c r="G3" s="456"/>
-      <c r="H3" s="456"/>
-      <c r="I3" s="456"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="457"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="462"/>
+      <c r="E3" s="462"/>
+      <c r="F3" s="462"/>
+      <c r="G3" s="462"/>
+      <c r="H3" s="462"/>
+      <c r="I3" s="462"/>
+      <c r="J3" s="462"/>
+      <c r="K3" s="463"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -39890,24 +39890,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="458" t="s">
+      <c r="B15" s="464" t="s">
         <v>1354</v>
       </c>
-      <c r="C15" s="459"/>
-      <c r="D15" s="459"/>
-      <c r="E15" s="459"/>
-      <c r="F15" s="459"/>
-      <c r="G15" s="459"/>
-      <c r="H15" s="459"/>
-      <c r="I15" s="459"/>
-      <c r="J15" s="459"/>
-      <c r="K15" s="459"/>
-      <c r="L15" s="459"/>
-      <c r="M15" s="459"/>
-      <c r="N15" s="459"/>
-      <c r="O15" s="459"/>
-      <c r="P15" s="459"/>
-      <c r="Q15" s="459"/>
+      <c r="C15" s="465"/>
+      <c r="D15" s="465"/>
+      <c r="E15" s="465"/>
+      <c r="F15" s="465"/>
+      <c r="G15" s="465"/>
+      <c r="H15" s="465"/>
+      <c r="I15" s="465"/>
+      <c r="J15" s="465"/>
+      <c r="K15" s="465"/>
+      <c r="L15" s="465"/>
+      <c r="M15" s="465"/>
+      <c r="N15" s="465"/>
+      <c r="O15" s="465"/>
+      <c r="P15" s="465"/>
+      <c r="Q15" s="465"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -40909,80 +40909,75 @@
       <c r="M214" s="371"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="441"/>
-      <c r="E223" s="441"/>
+      <c r="D223" s="447"/>
+      <c r="E223" s="447"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="441"/>
-      <c r="E227" s="441"/>
-      <c r="G227" s="441"/>
-      <c r="H227" s="441"/>
-      <c r="J227" s="441"/>
-      <c r="K227" s="441"/>
+      <c r="D227" s="447"/>
+      <c r="E227" s="447"/>
+      <c r="G227" s="447"/>
+      <c r="H227" s="447"/>
+      <c r="J227" s="447"/>
+      <c r="K227" s="447"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="443"/>
+      <c r="D273" s="448"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="443"/>
+      <c r="D274" s="448"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="443"/>
+      <c r="D275" s="448"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="443"/>
+      <c r="D276" s="448"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="443"/>
+      <c r="D277" s="448"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="443"/>
+      <c r="D278" s="448"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="442"/>
-      <c r="C287" s="441"/>
-      <c r="D287" s="441"/>
+      <c r="B287" s="449"/>
+      <c r="C287" s="447"/>
+      <c r="D287" s="447"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="443"/>
-      <c r="I288" s="442"/>
+      <c r="B288" s="448"/>
+      <c r="I288" s="449"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="443"/>
-      <c r="I289" s="443"/>
-      <c r="N289" s="442"/>
+      <c r="B289" s="448"/>
+      <c r="I289" s="448"/>
+      <c r="N289" s="449"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="443"/>
-      <c r="F290" s="441"/>
-      <c r="G290" s="441"/>
-      <c r="H290" s="441"/>
-      <c r="I290" s="443"/>
-      <c r="N290" s="443"/>
+      <c r="B290" s="448"/>
+      <c r="F290" s="447"/>
+      <c r="G290" s="447"/>
+      <c r="H290" s="447"/>
+      <c r="I290" s="448"/>
+      <c r="N290" s="448"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="443"/>
-      <c r="C291" s="441"/>
-      <c r="D291" s="441"/>
-      <c r="I291" s="443"/>
-      <c r="K291" s="441"/>
-      <c r="L291" s="441"/>
-      <c r="M291" s="441"/>
-      <c r="N291" s="443"/>
+      <c r="B291" s="448"/>
+      <c r="C291" s="447"/>
+      <c r="D291" s="447"/>
+      <c r="I291" s="448"/>
+      <c r="K291" s="447"/>
+      <c r="L291" s="447"/>
+      <c r="M291" s="447"/>
+      <c r="N291" s="448"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="443"/>
+      <c r="N292" s="448"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -40990,6 +40985,11 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42312,7 +42312,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42611,7 +42611,7 @@
       <c r="K17" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="464" t="s">
+      <c r="L17" s="423" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -42624,7 +42624,7 @@
       <c r="K18" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="465" t="s">
+      <c r="L18" s="424" t="s">
         <v>1701</v>
       </c>
       <c r="M18" s="248">
@@ -43725,23 +43725,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="445" t="s">
+      <c r="A1" s="451" t="s">
         <v>1107</v>
       </c>
-      <c r="B1" s="445"/>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="445"/>
-      <c r="F1" s="445"/>
-      <c r="I1" s="445" t="s">
+      <c r="B1" s="451"/>
+      <c r="C1" s="451"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="I1" s="451" t="s">
         <v>1117</v>
       </c>
-      <c r="J1" s="445"/>
-      <c r="K1" s="445"/>
-      <c r="L1" s="445"/>
-      <c r="M1" s="445"/>
-      <c r="N1" s="445"/>
-      <c r="O1" s="445"/>
+      <c r="J1" s="451"/>
+      <c r="K1" s="451"/>
+      <c r="L1" s="451"/>
+      <c r="M1" s="451"/>
+      <c r="N1" s="451"/>
+      <c r="O1" s="451"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -43891,28 +43891,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="428" t="s">
+      <c r="A12" s="434" t="s">
         <v>1119</v>
       </c>
-      <c r="B12" s="444"/>
-      <c r="C12" s="444"/>
-      <c r="D12" s="444"/>
-      <c r="E12" s="444"/>
-      <c r="F12" s="444"/>
-      <c r="G12" s="444"/>
-      <c r="H12" s="429"/>
-      <c r="I12" s="428" t="s">
+      <c r="B12" s="450"/>
+      <c r="C12" s="450"/>
+      <c r="D12" s="450"/>
+      <c r="E12" s="450"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="450"/>
+      <c r="H12" s="435"/>
+      <c r="I12" s="434" t="s">
         <v>1119</v>
       </c>
-      <c r="J12" s="444"/>
-      <c r="K12" s="444"/>
-      <c r="L12" s="444"/>
-      <c r="M12" s="444"/>
-      <c r="N12" s="444"/>
-      <c r="O12" s="444"/>
-      <c r="P12" s="444"/>
-      <c r="Q12" s="444"/>
-      <c r="R12" s="429"/>
+      <c r="J12" s="450"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="450"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="450"/>
+      <c r="O12" s="450"/>
+      <c r="P12" s="450"/>
+      <c r="Q12" s="450"/>
+      <c r="R12" s="435"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -44140,14 +44140,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="445" t="s">
+      <c r="A24" s="451" t="s">
         <v>1107</v>
       </c>
-      <c r="B24" s="445"/>
-      <c r="C24" s="445"/>
-      <c r="D24" s="445"/>
-      <c r="E24" s="445"/>
-      <c r="F24" s="445"/>
+      <c r="B24" s="451"/>
+      <c r="C24" s="451"/>
+      <c r="D24" s="451"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="451"/>
       <c r="H24" s="195" t="s">
         <v>1117</v>
       </c>
@@ -44157,11 +44157,11 @@
       <c r="L24" s="195"/>
       <c r="M24" s="195"/>
       <c r="N24" s="195"/>
-      <c r="P24" s="445" t="s">
+      <c r="P24" s="451" t="s">
         <v>1155</v>
       </c>
-      <c r="Q24" s="445"/>
-      <c r="R24" s="445"/>
+      <c r="Q24" s="451"/>
+      <c r="R24" s="451"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -44401,28 +44401,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="428" t="s">
+      <c r="A35" s="434" t="s">
         <v>1156</v>
       </c>
-      <c r="B35" s="444"/>
-      <c r="C35" s="444"/>
-      <c r="D35" s="444"/>
-      <c r="E35" s="444"/>
-      <c r="F35" s="444"/>
-      <c r="G35" s="444"/>
-      <c r="H35" s="429"/>
-      <c r="I35" s="428" t="s">
+      <c r="B35" s="450"/>
+      <c r="C35" s="450"/>
+      <c r="D35" s="450"/>
+      <c r="E35" s="450"/>
+      <c r="F35" s="450"/>
+      <c r="G35" s="450"/>
+      <c r="H35" s="435"/>
+      <c r="I35" s="434" t="s">
         <v>543</v>
       </c>
-      <c r="J35" s="444"/>
-      <c r="K35" s="444"/>
-      <c r="L35" s="444"/>
-      <c r="M35" s="444"/>
-      <c r="N35" s="444"/>
-      <c r="O35" s="444"/>
-      <c r="P35" s="444"/>
-      <c r="Q35" s="444"/>
-      <c r="R35" s="429"/>
+      <c r="J35" s="450"/>
+      <c r="K35" s="450"/>
+      <c r="L35" s="450"/>
+      <c r="M35" s="450"/>
+      <c r="N35" s="450"/>
+      <c r="O35" s="450"/>
+      <c r="P35" s="450"/>
+      <c r="Q35" s="450"/>
+      <c r="R35" s="435"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -9592,10 +9592,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9940,7 +9940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD165"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G34" sqref="G34:G36"/>
     </sheetView>
   </sheetViews>
@@ -22291,48 +22291,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="449"/>
+      <c r="K22" s="448"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="448"/>
+      <c r="K23" s="449"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="448"/>
+      <c r="K24" s="449"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="448"/>
+      <c r="K25" s="449"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="448"/>
+      <c r="K26" s="449"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="448"/>
+      <c r="K27" s="449"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="448"/>
+      <c r="K28" s="449"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="448"/>
+      <c r="K29" s="449"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="448"/>
+      <c r="K30" s="449"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="448"/>
+      <c r="K31" s="449"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="448"/>
+      <c r="K32" s="449"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="276"/>
@@ -36089,7 +36089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A64" sqref="A64:B68"/>
     </sheetView>
   </sheetViews>
@@ -40921,63 +40921,68 @@
       <c r="K227" s="447"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="448"/>
+      <c r="D273" s="449"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="448"/>
+      <c r="D274" s="449"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="448"/>
+      <c r="D275" s="449"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="448"/>
+      <c r="D276" s="449"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="448"/>
+      <c r="D277" s="449"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="448"/>
+      <c r="D278" s="449"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="449"/>
+      <c r="B287" s="448"/>
       <c r="C287" s="447"/>
       <c r="D287" s="447"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="448"/>
-      <c r="I288" s="449"/>
+      <c r="B288" s="449"/>
+      <c r="I288" s="448"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="448"/>
-      <c r="I289" s="448"/>
-      <c r="N289" s="449"/>
+      <c r="B289" s="449"/>
+      <c r="I289" s="449"/>
+      <c r="N289" s="448"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="448"/>
+      <c r="B290" s="449"/>
       <c r="F290" s="447"/>
       <c r="G290" s="447"/>
       <c r="H290" s="447"/>
-      <c r="I290" s="448"/>
-      <c r="N290" s="448"/>
+      <c r="I290" s="449"/>
+      <c r="N290" s="449"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="448"/>
+      <c r="B291" s="449"/>
       <c r="C291" s="447"/>
       <c r="D291" s="447"/>
-      <c r="I291" s="448"/>
+      <c r="I291" s="449"/>
       <c r="K291" s="447"/>
       <c r="L291" s="447"/>
       <c r="M291" s="447"/>
-      <c r="N291" s="448"/>
+      <c r="N291" s="449"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="448"/>
+      <c r="N292" s="449"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -40985,11 +40990,6 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42311,8 +42311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="2538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4758" uniqueCount="2540">
   <si>
     <t>USER</t>
   </si>
@@ -8076,6 +8076,12 @@
   </si>
   <si>
     <t>garbage collection</t>
+  </si>
+  <si>
+    <t>21/10</t>
+  </si>
+  <si>
+    <t>21%10</t>
   </si>
 </sst>
 </file>
@@ -9589,6 +9595,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9659,10 +9683,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9710,24 +9734,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10084,13 +10090,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
-      <c r="H3" s="428" t="s">
+      <c r="H3" s="436" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="429"/>
-      <c r="J3" s="429"/>
-      <c r="K3" s="429"/>
-      <c r="L3" s="430"/>
+      <c r="I3" s="437"/>
+      <c r="J3" s="437"/>
+      <c r="K3" s="437"/>
+      <c r="L3" s="438"/>
       <c r="Q3" t="s">
         <v>2362</v>
       </c>
@@ -10122,20 +10128,20 @@
       <c r="F6" s="4" t="s">
         <v>1675</v>
       </c>
-      <c r="G6" s="431" t="s">
+      <c r="G6" s="439" t="s">
         <v>1189</v>
       </c>
-      <c r="H6" s="432"/>
+      <c r="H6" s="440"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="431" t="s">
+      <c r="J6" s="439" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="432"/>
+      <c r="K6" s="440"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="431" t="s">
+      <c r="M6" s="439" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="432"/>
+      <c r="N6" s="440"/>
       <c r="P6" t="s">
         <v>2354</v>
       </c>
@@ -10169,20 +10175,20 @@
       <c r="F8" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="G8" s="433" t="s">
+      <c r="G8" s="441" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="434"/>
+      <c r="H8" s="442"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="433" t="s">
+      <c r="J8" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="434"/>
+      <c r="K8" s="442"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="433" t="s">
+      <c r="M8" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="434"/>
+      <c r="N8" s="442"/>
       <c r="P8" t="s">
         <v>2356</v>
       </c>
@@ -10208,29 +10214,29 @@
       <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="424" t="s">
+      <c r="F10" s="432" t="s">
         <v>1687</v>
       </c>
-      <c r="G10" s="425"/>
-      <c r="H10" s="425"/>
-      <c r="I10" s="425"/>
-      <c r="J10" s="425"/>
-      <c r="K10" s="425"/>
-      <c r="L10" s="425"/>
-      <c r="M10" s="425"/>
-      <c r="N10" s="425"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="433"/>
+      <c r="I10" s="433"/>
+      <c r="J10" s="433"/>
+      <c r="K10" s="433"/>
+      <c r="L10" s="433"/>
+      <c r="M10" s="433"/>
+      <c r="N10" s="433"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="426"/>
-      <c r="G11" s="427"/>
-      <c r="H11" s="427"/>
-      <c r="I11" s="427"/>
-      <c r="J11" s="427"/>
-      <c r="K11" s="427"/>
-      <c r="L11" s="427"/>
-      <c r="M11" s="427"/>
-      <c r="N11" s="427"/>
+      <c r="F11" s="434"/>
+      <c r="G11" s="435"/>
+      <c r="H11" s="435"/>
+      <c r="I11" s="435"/>
+      <c r="J11" s="435"/>
+      <c r="K11" s="435"/>
+      <c r="L11" s="435"/>
+      <c r="M11" s="435"/>
+      <c r="N11" s="435"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -10478,8 +10484,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="422"/>
-      <c r="E23" s="423"/>
+      <c r="D23" s="430"/>
+      <c r="E23" s="431"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -21152,34 +21158,34 @@
       <c r="E10" t="s">
         <v>1880</v>
       </c>
-      <c r="G10" s="435" t="s">
+      <c r="G10" s="443" t="s">
         <v>1887</v>
       </c>
-      <c r="H10" s="436"/>
-      <c r="I10" s="437"/>
+      <c r="H10" s="444"/>
+      <c r="I10" s="445"/>
       <c r="K10" s="28" t="s">
         <v>1897</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="438"/>
-      <c r="H11" s="439"/>
-      <c r="I11" s="440"/>
+      <c r="G11" s="446"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="448"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="438"/>
-      <c r="H12" s="439"/>
-      <c r="I12" s="440"/>
+      <c r="G12" s="446"/>
+      <c r="H12" s="447"/>
+      <c r="I12" s="448"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="441"/>
-      <c r="H13" s="442"/>
-      <c r="I13" s="443"/>
+      <c r="G13" s="449"/>
+      <c r="H13" s="450"/>
+      <c r="I13" s="451"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
@@ -22108,7 +22114,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="279"/>
-      <c r="L3" s="449" t="s">
+      <c r="L3" s="457" t="s">
         <v>1498</v>
       </c>
       <c r="M3" s="170"/>
@@ -22130,7 +22136,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="450"/>
+      <c r="L4" s="458"/>
       <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -22150,12 +22156,12 @@
       <c r="K5" s="280" t="s">
         <v>1497</v>
       </c>
-      <c r="L5" s="450"/>
+      <c r="L5" s="458"/>
       <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="187"/>
-      <c r="L6" s="450"/>
+      <c r="L6" s="458"/>
       <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13">
@@ -22168,7 +22174,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="279"/>
-      <c r="L7" s="450"/>
+      <c r="L7" s="458"/>
       <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13">
@@ -22186,7 +22192,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="450"/>
+      <c r="L8" s="458"/>
       <c r="M8" s="170"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -22200,7 +22206,7 @@
       <c r="K9" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="450"/>
+      <c r="L9" s="458"/>
       <c r="M9" s="170"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -22208,7 +22214,7 @@
         <v>1481</v>
       </c>
       <c r="F10" s="187"/>
-      <c r="L10" s="450"/>
+      <c r="L10" s="458"/>
       <c r="M10" s="170"/>
     </row>
     <row r="11" spans="1:13">
@@ -22221,7 +22227,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="279"/>
-      <c r="L11" s="450"/>
+      <c r="L11" s="458"/>
       <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13">
@@ -22235,7 +22241,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="450"/>
+      <c r="L12" s="458"/>
       <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -22252,7 +22258,7 @@
       <c r="K13" s="263" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="451"/>
+      <c r="L13" s="459"/>
       <c r="M13" s="170"/>
     </row>
     <row r="14" spans="1:13">
@@ -22274,10 +22280,10 @@
       <c r="D15" s="258"/>
       <c r="E15" s="258"/>
       <c r="F15" s="187"/>
-      <c r="J15" s="444" t="s">
+      <c r="J15" s="452" t="s">
         <v>1487</v>
       </c>
-      <c r="K15" s="444"/>
+      <c r="K15" s="452"/>
       <c r="L15" s="69" t="s">
         <v>539</v>
       </c>
@@ -22297,8 +22303,8 @@
       <c r="G16" s="96" t="s">
         <v>1489</v>
       </c>
-      <c r="J16" s="444"/>
-      <c r="K16" s="444"/>
+      <c r="J16" s="452"/>
+      <c r="K16" s="452"/>
       <c r="L16" s="69" t="s">
         <v>50</v>
       </c>
@@ -22376,48 +22382,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="446"/>
+      <c r="K22" s="453"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="445"/>
+      <c r="K23" s="454"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="445"/>
+      <c r="K24" s="454"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="445"/>
+      <c r="K25" s="454"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="445"/>
+      <c r="K26" s="454"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="445"/>
+      <c r="K27" s="454"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="445"/>
+      <c r="K28" s="454"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="445"/>
+      <c r="K29" s="454"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="445"/>
+      <c r="K30" s="454"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="445"/>
+      <c r="K31" s="454"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="445"/>
+      <c r="K32" s="454"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="276"/>
@@ -30901,18 +30907,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="453" t="s">
+      <c r="B8" s="461" t="s">
         <v>1629</v>
       </c>
-      <c r="C8" s="453"/>
-      <c r="F8" s="453" t="s">
+      <c r="C8" s="461"/>
+      <c r="F8" s="461" t="s">
         <v>1630</v>
       </c>
-      <c r="G8" s="453"/>
-      <c r="I8" s="453" t="s">
+      <c r="G8" s="461"/>
+      <c r="I8" s="461" t="s">
         <v>1630</v>
       </c>
-      <c r="J8" s="453"/>
+      <c r="J8" s="461"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="R8" t="b">
@@ -30935,18 +30941,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="454" t="s">
+      <c r="F9" s="462" t="s">
         <v>1631</v>
       </c>
-      <c r="G9" s="454"/>
-      <c r="I9" s="454" t="s">
+      <c r="G9" s="462"/>
+      <c r="I9" s="462" t="s">
         <v>1265</v>
       </c>
-      <c r="J9" s="454"/>
-      <c r="M9" s="455" t="s">
+      <c r="J9" s="462"/>
+      <c r="M9" s="463" t="s">
         <v>1630</v>
       </c>
-      <c r="N9" s="455"/>
+      <c r="N9" s="463"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30994,19 +31000,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="452" t="s">
+      <c r="E11" s="460" t="s">
         <v>1633</v>
       </c>
-      <c r="F11" s="452"/>
-      <c r="G11" s="452"/>
-      <c r="H11" s="452"/>
-      <c r="I11" s="452"/>
-      <c r="J11" s="452"/>
-      <c r="K11" s="452"/>
-      <c r="L11" s="452"/>
-      <c r="M11" s="452"/>
-      <c r="N11" s="452"/>
-      <c r="O11" s="452"/>
+      <c r="F11" s="460"/>
+      <c r="G11" s="460"/>
+      <c r="H11" s="460"/>
+      <c r="I11" s="460"/>
+      <c r="J11" s="460"/>
+      <c r="K11" s="460"/>
+      <c r="L11" s="460"/>
+      <c r="M11" s="460"/>
+      <c r="N11" s="460"/>
+      <c r="O11" s="460"/>
       <c r="R11" t="s">
         <v>1870</v>
       </c>
@@ -34553,10 +34559,10 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="422" t="s">
+      <c r="C241" s="430" t="s">
         <v>1657</v>
       </c>
-      <c r="D241" s="422"/>
+      <c r="D241" s="430"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -35095,10 +35101,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21">
-      <c r="C2" s="456" t="s">
+      <c r="C2" s="464" t="s">
         <v>1328</v>
       </c>
-      <c r="D2" s="456"/>
+      <c r="D2" s="464"/>
       <c r="F2" s="25" t="s">
         <v>2338</v>
       </c>
@@ -36172,10 +36178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:S234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:H57"/>
+    <sheetView tabSelected="1" topLeftCell="M23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36475,12 +36481,12 @@
       <c r="L16" s="302"/>
       <c r="M16" s="302"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:19">
       <c r="A17" s="36" t="s">
         <v>2459</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="257" t="s">
         <v>1704</v>
       </c>
@@ -36488,7 +36494,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
       <c r="B19" s="36" t="s">
         <v>137</v>
       </c>
@@ -36505,7 +36511,7 @@
       <c r="J19" s="76"/>
       <c r="K19" s="77"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:19">
       <c r="B20" s="36" t="s">
         <v>2439</v>
       </c>
@@ -36527,7 +36533,7 @@
       </c>
       <c r="K20" s="70"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1">
       <c r="A21" s="36" t="s">
         <v>37</v>
       </c>
@@ -36549,7 +36555,7 @@
       <c r="K21" s="170"/>
       <c r="L21" s="421"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>2443</v>
       </c>
@@ -36567,7 +36573,7 @@
       <c r="K22" s="170"/>
       <c r="L22" s="421"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:19">
       <c r="A23" s="36" t="s">
         <v>92</v>
       </c>
@@ -36591,7 +36597,7 @@
       <c r="K23" s="170"/>
       <c r="L23" s="421"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1">
       <c r="A24" s="36" t="s">
         <v>2440</v>
       </c>
@@ -36607,7 +36613,7 @@
       </c>
       <c r="K24" s="70"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:19">
       <c r="A25" s="36" t="s">
         <v>2441</v>
       </c>
@@ -36619,8 +36625,14 @@
       <c r="J25" s="421"/>
       <c r="K25" s="170"/>
       <c r="L25" s="421"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="R25" s="36" t="s">
+        <v>2538</v>
+      </c>
+      <c r="S25" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="36" t="s">
         <v>2442</v>
       </c>
@@ -36633,8 +36645,14 @@
       <c r="J26" s="421"/>
       <c r="K26" s="170"/>
       <c r="L26" s="421"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="R26" s="36" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S26" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="D27" s="78"/>
       <c r="F27" s="421"/>
       <c r="G27" s="96"/>
@@ -36644,7 +36662,7 @@
       <c r="K27" s="170"/>
       <c r="L27" s="421"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:19">
       <c r="A28" s="36" t="s">
         <v>2454</v>
       </c>
@@ -36657,8 +36675,11 @@
       <c r="J28" s="421"/>
       <c r="K28" s="170"/>
       <c r="L28" s="421"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="R28" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="36" t="s">
         <v>2456</v>
       </c>
@@ -36671,8 +36692,14 @@
       <c r="J29" s="421"/>
       <c r="K29" s="170"/>
       <c r="L29" s="421"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="Q29" s="36">
+        <v>10</v>
+      </c>
+      <c r="R29" s="36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="36" t="s">
         <v>2460</v>
       </c>
@@ -36688,8 +36715,11 @@
       <c r="J30" s="421"/>
       <c r="K30" s="170"/>
       <c r="L30" s="421"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="R30" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="36" t="s">
         <v>2462</v>
       </c>
@@ -36705,8 +36735,11 @@
       <c r="J31" s="421"/>
       <c r="K31" s="170"/>
       <c r="L31" s="421"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="R31" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="36" t="s">
         <v>2463</v>
       </c>
@@ -37149,7 +37182,7 @@
       <c r="E63" s="96"/>
       <c r="F63" s="421"/>
       <c r="G63" s="106"/>
-      <c r="H63" s="463" t="s">
+      <c r="H63" s="422" t="s">
         <v>2490</v>
       </c>
       <c r="I63" s="96"/>
@@ -37177,15 +37210,15 @@
       </c>
       <c r="D65" s="315"/>
       <c r="E65" s="96"/>
-      <c r="F65" s="464" t="s">
+      <c r="F65" s="423" t="s">
         <v>2485</v>
       </c>
       <c r="G65" s="421"/>
-      <c r="H65" s="464" t="s">
+      <c r="H65" s="423" t="s">
         <v>2487</v>
       </c>
       <c r="I65" s="421"/>
-      <c r="J65" s="464" t="s">
+      <c r="J65" s="423" t="s">
         <v>2486</v>
       </c>
       <c r="K65" s="170"/>
@@ -37909,7 +37942,7 @@
       <c r="E119" s="421"/>
       <c r="F119" s="96"/>
       <c r="G119" s="421"/>
-      <c r="H119" s="468" t="s">
+      <c r="H119" s="427" t="s">
         <v>2450</v>
       </c>
       <c r="I119" s="83" t="s">
@@ -37935,7 +37968,7 @@
       <c r="K120" s="70"/>
     </row>
     <row r="121" spans="1:12" ht="15.75" thickBot="1">
-      <c r="D121" s="469" t="s">
+      <c r="D121" s="428" t="s">
         <v>2530</v>
       </c>
       <c r="E121" s="83" t="s">
@@ -37960,7 +37993,7 @@
       <c r="E122" s="188"/>
       <c r="F122" s="189"/>
       <c r="G122" s="421"/>
-      <c r="H122" s="470" t="s">
+      <c r="H122" s="429" t="s">
         <v>2528</v>
       </c>
       <c r="I122" s="83" t="s">
@@ -37992,7 +38025,7 @@
       <c r="B124" s="36" t="s">
         <v>2527</v>
       </c>
-      <c r="D124" s="469" t="s">
+      <c r="D124" s="428" t="s">
         <v>2531</v>
       </c>
       <c r="E124" s="83" t="s">
@@ -38013,7 +38046,7 @@
       <c r="E125" s="188"/>
       <c r="F125" s="189"/>
       <c r="G125" s="421"/>
-      <c r="H125" s="470" t="s">
+      <c r="H125" s="429" t="s">
         <v>2529</v>
       </c>
       <c r="I125" s="83" t="s">
@@ -38039,7 +38072,7 @@
       <c r="L126" s="421"/>
     </row>
     <row r="127" spans="1:12">
-      <c r="D127" s="469" t="s">
+      <c r="D127" s="428" t="s">
         <v>2532</v>
       </c>
       <c r="E127" s="83" t="s">
@@ -38214,7 +38247,7 @@
         <v>2502</v>
       </c>
       <c r="H158" s="136"/>
-      <c r="I158" s="465"/>
+      <c r="I158" s="424"/>
       <c r="J158" s="377"/>
       <c r="L158" s="136"/>
     </row>
@@ -38239,7 +38272,7 @@
       <c r="E161" s="286" t="s">
         <v>2500</v>
       </c>
-      <c r="F161" s="465"/>
+      <c r="F161" s="424"/>
       <c r="G161" s="136"/>
       <c r="I161" s="377"/>
       <c r="J161" s="286" t="s">
@@ -38252,7 +38285,7 @@
       <c r="D162" s="258"/>
       <c r="E162" s="377"/>
       <c r="F162" s="377"/>
-      <c r="G162" s="466"/>
+      <c r="G162" s="425"/>
       <c r="I162" s="377"/>
       <c r="J162" s="377"/>
     </row>
@@ -38260,7 +38293,7 @@
       <c r="D163" s="258"/>
       <c r="E163" s="377"/>
       <c r="F163" s="377"/>
-      <c r="G163" s="466"/>
+      <c r="G163" s="425"/>
     </row>
     <row r="164" spans="3:12">
       <c r="D164" s="258"/>
@@ -38315,30 +38348,30 @@
       <c r="E169" s="421" t="s">
         <v>2504</v>
       </c>
-      <c r="F169" s="467" t="s">
+      <c r="F169" s="426" t="s">
         <v>2101</v>
       </c>
-      <c r="G169" s="466"/>
+      <c r="G169" s="425"/>
       <c r="H169" s="36" t="s">
         <v>2505</v>
       </c>
-      <c r="I169" s="466" t="s">
+      <c r="I169" s="425" t="s">
         <v>2509</v>
       </c>
-      <c r="J169" s="466"/>
+      <c r="J169" s="425"/>
       <c r="K169" s="36" t="s">
         <v>2508</v>
       </c>
     </row>
     <row r="170" spans="3:12">
       <c r="D170" s="258"/>
-      <c r="E170" s="466" t="s">
+      <c r="E170" s="425" t="s">
         <v>2512</v>
       </c>
       <c r="F170" s="421"/>
     </row>
     <row r="171" spans="3:12">
-      <c r="E171" s="466" t="s">
+      <c r="E171" s="425" t="s">
         <v>2512</v>
       </c>
       <c r="F171" s="421"/>
@@ -38347,10 +38380,10 @@
       <c r="C172" s="36" t="s">
         <v>2492</v>
       </c>
-      <c r="D172" s="466" t="s">
+      <c r="D172" s="425" t="s">
         <v>2509</v>
       </c>
-      <c r="E172" s="466"/>
+      <c r="E172" s="425"/>
       <c r="F172" s="36" t="s">
         <v>2513</v>
       </c>
@@ -38754,10 +38787,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="457" t="s">
+      <c r="B1" s="465" t="s">
         <v>1328</v>
       </c>
-      <c r="C1" s="457"/>
+      <c r="C1" s="465"/>
       <c r="E1" t="s">
         <v>1329</v>
       </c>
@@ -40179,18 +40212,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="458" t="s">
+      <c r="B3" s="466" t="s">
         <v>1353</v>
       </c>
-      <c r="C3" s="459"/>
-      <c r="D3" s="459"/>
-      <c r="E3" s="459"/>
-      <c r="F3" s="459"/>
-      <c r="G3" s="459"/>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="459"/>
-      <c r="K3" s="460"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="467"/>
+      <c r="F3" s="467"/>
+      <c r="G3" s="467"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="467"/>
+      <c r="J3" s="467"/>
+      <c r="K3" s="468"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -40305,24 +40338,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="461" t="s">
+      <c r="B15" s="469" t="s">
         <v>1354</v>
       </c>
-      <c r="C15" s="462"/>
-      <c r="D15" s="462"/>
-      <c r="E15" s="462"/>
-      <c r="F15" s="462"/>
-      <c r="G15" s="462"/>
-      <c r="H15" s="462"/>
-      <c r="I15" s="462"/>
-      <c r="J15" s="462"/>
-      <c r="K15" s="462"/>
-      <c r="L15" s="462"/>
-      <c r="M15" s="462"/>
-      <c r="N15" s="462"/>
-      <c r="O15" s="462"/>
-      <c r="P15" s="462"/>
-      <c r="Q15" s="462"/>
+      <c r="C15" s="470"/>
+      <c r="D15" s="470"/>
+      <c r="E15" s="470"/>
+      <c r="F15" s="470"/>
+      <c r="G15" s="470"/>
+      <c r="H15" s="470"/>
+      <c r="I15" s="470"/>
+      <c r="J15" s="470"/>
+      <c r="K15" s="470"/>
+      <c r="L15" s="470"/>
+      <c r="M15" s="470"/>
+      <c r="N15" s="470"/>
+      <c r="O15" s="470"/>
+      <c r="P15" s="470"/>
+      <c r="Q15" s="470"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -41324,75 +41357,80 @@
       <c r="M214" s="367"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="444"/>
-      <c r="E223" s="444"/>
+      <c r="D223" s="452"/>
+      <c r="E223" s="452"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="444"/>
-      <c r="E227" s="444"/>
-      <c r="G227" s="444"/>
-      <c r="H227" s="444"/>
-      <c r="J227" s="444"/>
-      <c r="K227" s="444"/>
+      <c r="D227" s="452"/>
+      <c r="E227" s="452"/>
+      <c r="G227" s="452"/>
+      <c r="H227" s="452"/>
+      <c r="J227" s="452"/>
+      <c r="K227" s="452"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="445"/>
+      <c r="D273" s="454"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="445"/>
+      <c r="D274" s="454"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="445"/>
+      <c r="D275" s="454"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="445"/>
+      <c r="D276" s="454"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="445"/>
+      <c r="D277" s="454"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="445"/>
+      <c r="D278" s="454"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="446"/>
-      <c r="C287" s="444"/>
-      <c r="D287" s="444"/>
+      <c r="B287" s="453"/>
+      <c r="C287" s="452"/>
+      <c r="D287" s="452"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="445"/>
-      <c r="I288" s="446"/>
+      <c r="B288" s="454"/>
+      <c r="I288" s="453"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="445"/>
-      <c r="I289" s="445"/>
-      <c r="N289" s="446"/>
+      <c r="B289" s="454"/>
+      <c r="I289" s="454"/>
+      <c r="N289" s="453"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="445"/>
-      <c r="F290" s="444"/>
-      <c r="G290" s="444"/>
-      <c r="H290" s="444"/>
-      <c r="I290" s="445"/>
-      <c r="N290" s="445"/>
+      <c r="B290" s="454"/>
+      <c r="F290" s="452"/>
+      <c r="G290" s="452"/>
+      <c r="H290" s="452"/>
+      <c r="I290" s="454"/>
+      <c r="N290" s="454"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="445"/>
-      <c r="C291" s="444"/>
-      <c r="D291" s="444"/>
-      <c r="I291" s="445"/>
-      <c r="K291" s="444"/>
-      <c r="L291" s="444"/>
-      <c r="M291" s="444"/>
-      <c r="N291" s="445"/>
+      <c r="B291" s="454"/>
+      <c r="C291" s="452"/>
+      <c r="D291" s="452"/>
+      <c r="I291" s="454"/>
+      <c r="K291" s="452"/>
+      <c r="L291" s="452"/>
+      <c r="M291" s="452"/>
+      <c r="N291" s="454"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="445"/>
+      <c r="N292" s="454"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -41400,11 +41438,6 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44140,23 +44173,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="456" t="s">
         <v>1107</v>
       </c>
-      <c r="B1" s="448"/>
-      <c r="C1" s="448"/>
-      <c r="D1" s="448"/>
-      <c r="E1" s="448"/>
-      <c r="F1" s="448"/>
-      <c r="I1" s="448" t="s">
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="I1" s="456" t="s">
         <v>1117</v>
       </c>
-      <c r="J1" s="448"/>
-      <c r="K1" s="448"/>
-      <c r="L1" s="448"/>
-      <c r="M1" s="448"/>
-      <c r="N1" s="448"/>
-      <c r="O1" s="448"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -44306,28 +44339,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="431" t="s">
+      <c r="A12" s="439" t="s">
         <v>1119</v>
       </c>
-      <c r="B12" s="447"/>
-      <c r="C12" s="447"/>
-      <c r="D12" s="447"/>
-      <c r="E12" s="447"/>
-      <c r="F12" s="447"/>
-      <c r="G12" s="447"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="431" t="s">
+      <c r="B12" s="455"/>
+      <c r="C12" s="455"/>
+      <c r="D12" s="455"/>
+      <c r="E12" s="455"/>
+      <c r="F12" s="455"/>
+      <c r="G12" s="455"/>
+      <c r="H12" s="440"/>
+      <c r="I12" s="439" t="s">
         <v>1119</v>
       </c>
-      <c r="J12" s="447"/>
-      <c r="K12" s="447"/>
-      <c r="L12" s="447"/>
-      <c r="M12" s="447"/>
-      <c r="N12" s="447"/>
-      <c r="O12" s="447"/>
-      <c r="P12" s="447"/>
-      <c r="Q12" s="447"/>
-      <c r="R12" s="432"/>
+      <c r="J12" s="455"/>
+      <c r="K12" s="455"/>
+      <c r="L12" s="455"/>
+      <c r="M12" s="455"/>
+      <c r="N12" s="455"/>
+      <c r="O12" s="455"/>
+      <c r="P12" s="455"/>
+      <c r="Q12" s="455"/>
+      <c r="R12" s="440"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -44555,14 +44588,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="448" t="s">
+      <c r="A24" s="456" t="s">
         <v>1107</v>
       </c>
-      <c r="B24" s="448"/>
-      <c r="C24" s="448"/>
-      <c r="D24" s="448"/>
-      <c r="E24" s="448"/>
-      <c r="F24" s="448"/>
+      <c r="B24" s="456"/>
+      <c r="C24" s="456"/>
+      <c r="D24" s="456"/>
+      <c r="E24" s="456"/>
+      <c r="F24" s="456"/>
       <c r="H24" s="195" t="s">
         <v>1117</v>
       </c>
@@ -44572,11 +44605,11 @@
       <c r="L24" s="195"/>
       <c r="M24" s="195"/>
       <c r="N24" s="195"/>
-      <c r="P24" s="448" t="s">
+      <c r="P24" s="456" t="s">
         <v>1155</v>
       </c>
-      <c r="Q24" s="448"/>
-      <c r="R24" s="448"/>
+      <c r="Q24" s="456"/>
+      <c r="R24" s="456"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -44816,28 +44849,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="431" t="s">
+      <c r="A35" s="439" t="s">
         <v>1156</v>
       </c>
-      <c r="B35" s="447"/>
-      <c r="C35" s="447"/>
-      <c r="D35" s="447"/>
-      <c r="E35" s="447"/>
-      <c r="F35" s="447"/>
-      <c r="G35" s="447"/>
-      <c r="H35" s="432"/>
-      <c r="I35" s="431" t="s">
+      <c r="B35" s="455"/>
+      <c r="C35" s="455"/>
+      <c r="D35" s="455"/>
+      <c r="E35" s="455"/>
+      <c r="F35" s="455"/>
+      <c r="G35" s="455"/>
+      <c r="H35" s="440"/>
+      <c r="I35" s="439" t="s">
         <v>543</v>
       </c>
-      <c r="J35" s="447"/>
-      <c r="K35" s="447"/>
-      <c r="L35" s="447"/>
-      <c r="M35" s="447"/>
-      <c r="N35" s="447"/>
-      <c r="O35" s="447"/>
-      <c r="P35" s="447"/>
-      <c r="Q35" s="447"/>
-      <c r="R35" s="432"/>
+      <c r="J35" s="455"/>
+      <c r="K35" s="455"/>
+      <c r="L35" s="455"/>
+      <c r="M35" s="455"/>
+      <c r="N35" s="455"/>
+      <c r="O35" s="455"/>
+      <c r="P35" s="455"/>
+      <c r="Q35" s="455"/>
+      <c r="R35" s="440"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="2387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2490">
   <si>
     <t>USER</t>
   </si>
@@ -7579,6 +7579,315 @@
   </si>
   <si>
     <t>method : 3</t>
+  </si>
+  <si>
+    <t>implements from father , mother</t>
+  </si>
+  <si>
+    <t>sysout(singer);</t>
+  </si>
+  <si>
+    <t>Icar</t>
+  </si>
+  <si>
+    <t>drive();</t>
+  </si>
+  <si>
+    <t>start();</t>
+  </si>
+  <si>
+    <t>takeTurn();</t>
+  </si>
+  <si>
+    <t>stop();</t>
+  </si>
+  <si>
+    <t>4 incomplete methods</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>inherited 4 incomplete methods</t>
+  </si>
+  <si>
+    <t>start() { … }</t>
+  </si>
+  <si>
+    <t>drive(){ …. }</t>
+  </si>
+  <si>
+    <t>takeTurn(){…}</t>
+  </si>
+  <si>
+    <t>1 incomplete…. 3 complete methods</t>
+  </si>
+  <si>
+    <t>AdvancedNissan</t>
+  </si>
+  <si>
+    <t>inherited 1 incomplete… 3 complete methods</t>
+  </si>
+  <si>
+    <t>100% incomplete/abstract</t>
+  </si>
+  <si>
+    <t>partially incomplete/abstract</t>
+  </si>
+  <si>
+    <t>stop(){ … }</t>
+  </si>
+  <si>
+    <t>4 complete methods</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Abstract class</t>
+  </si>
+  <si>
+    <t>Concrete class</t>
+  </si>
+  <si>
+    <t>Imusic</t>
+  </si>
+  <si>
+    <t>play();</t>
+  </si>
+  <si>
+    <t>volume();</t>
+  </si>
+  <si>
+    <t>play …..</t>
+  </si>
+  <si>
+    <t>drive ….</t>
+  </si>
+  <si>
+    <t>inherited 5 incomplete methods</t>
+  </si>
+  <si>
+    <t>3 incomplete , 2 complete methods</t>
+  </si>
+  <si>
+    <t>NissanGenx</t>
+  </si>
+  <si>
+    <t>inherited 3 incomplete, 2 complete methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume… </t>
+  </si>
+  <si>
+    <t>start …</t>
+  </si>
+  <si>
+    <t>1 incomplete, 4 complete</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>NissanGenY</t>
+  </si>
+  <si>
+    <t>inherited 1 incomplete, 4 complete</t>
+  </si>
+  <si>
+    <t>CONCRETE</t>
+  </si>
+  <si>
+    <t>stop ….</t>
+  </si>
+  <si>
+    <t>5 complete methods</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>IphoneX is covered with Iphone3 body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iphone3 i3=IphoneX </t>
+  </si>
+  <si>
+    <t>Inside the iphone body</t>
+  </si>
+  <si>
+    <t>FEATURES available are limited to the parent body Iphone3</t>
+  </si>
+  <si>
+    <t>Iiphone</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>browse</t>
+  </si>
+  <si>
+    <t>call …</t>
+  </si>
+  <si>
+    <t>text …</t>
+  </si>
+  <si>
+    <t>Iphone5</t>
+  </si>
+  <si>
+    <t>browse…</t>
+  </si>
+  <si>
+    <t>inherited 3 incom</t>
+  </si>
+  <si>
+    <t>1 compl, 2 incom</t>
+  </si>
+  <si>
+    <t>inherited 1 com, 2 inco</t>
+  </si>
+  <si>
+    <t>2 com, 1 incom</t>
+  </si>
+  <si>
+    <t>inherited 2 com, 1 inc</t>
+  </si>
+  <si>
+    <t>3 com</t>
+  </si>
+  <si>
+    <t>Iphone3 i3=new Iphone4();</t>
+  </si>
+  <si>
+    <t>LHS = RHS</t>
+  </si>
+  <si>
+    <t>RHS can be CHILD of LHS</t>
+  </si>
+  <si>
+    <t>RHS should be Concrete/complete</t>
+  </si>
+  <si>
+    <t>iphone4 is abstract/incomplete</t>
+  </si>
+  <si>
+    <t>Iphone5 i5=new Iphone3();</t>
+  </si>
+  <si>
+    <t>Iphone3 i3=new Nissan();</t>
+  </si>
+  <si>
+    <t>Nissan n=new NissanGenx();;</t>
+  </si>
+  <si>
+    <t>Icar ic=new NissanGeny();</t>
+  </si>
+  <si>
+    <t>iphone3 i3=new Iphone5();</t>
+  </si>
+  <si>
+    <t>RHS is Parent of LHS</t>
+  </si>
+  <si>
+    <t>RHS not a child of LHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHS is not concrete </t>
+  </si>
+  <si>
+    <t>i3.call</t>
+  </si>
+  <si>
+    <t>i3.text</t>
+  </si>
+  <si>
+    <t>i3.browse</t>
+  </si>
+  <si>
+    <t>text,browse</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>i3.map</t>
+  </si>
+  <si>
+    <t>OVERRIDE</t>
+  </si>
+  <si>
+    <t>Mother.super.eat();</t>
+  </si>
+  <si>
+    <t>Ipayment</t>
+  </si>
+  <si>
+    <t>collectAddress();</t>
+  </si>
+  <si>
+    <t>makePayment();</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>crypto</t>
+  </si>
+  <si>
+    <t>collectAddress(){}</t>
+  </si>
+  <si>
+    <t>makePayment() {}</t>
+  </si>
+  <si>
+    <t>Code changes flexibility - NO</t>
+  </si>
+  <si>
+    <t>collet email id too</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>giveDiscount();</t>
+  </si>
+  <si>
+    <t>new feature</t>
+  </si>
+  <si>
+    <t>Abstract = GENERALIZATION</t>
+  </si>
+  <si>
+    <t>AbstractPaymet</t>
+  </si>
+  <si>
+    <t>collect email id</t>
+  </si>
+  <si>
+    <t>add email id too</t>
+  </si>
+  <si>
+    <t>giveDiscount()</t>
   </si>
 </sst>
 </file>
@@ -8297,7 +8606,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9109,6 +9418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9179,10 +9489,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9230,8 +9540,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9588,13 +9905,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
-      <c r="H3" s="435" t="s">
+      <c r="H3" s="436" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="436"/>
-      <c r="J3" s="436"/>
-      <c r="K3" s="436"/>
-      <c r="L3" s="437"/>
+      <c r="I3" s="437"/>
+      <c r="J3" s="437"/>
+      <c r="K3" s="437"/>
+      <c r="L3" s="438"/>
       <c r="Q3" t="s">
         <v>2155</v>
       </c>
@@ -9626,20 +9943,20 @@
       <c r="F6" s="4" t="s">
         <v>1662</v>
       </c>
-      <c r="G6" s="438" t="s">
+      <c r="G6" s="439" t="s">
         <v>1178</v>
       </c>
-      <c r="H6" s="439"/>
+      <c r="H6" s="440"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="438" t="s">
+      <c r="J6" s="439" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="439"/>
+      <c r="K6" s="440"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="438" t="s">
+      <c r="M6" s="439" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="439"/>
+      <c r="N6" s="440"/>
       <c r="P6" t="s">
         <v>2147</v>
       </c>
@@ -9673,20 +9990,20 @@
       <c r="F8" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="G8" s="440" t="s">
+      <c r="G8" s="441" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="441"/>
+      <c r="H8" s="442"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="440" t="s">
+      <c r="J8" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="441"/>
+      <c r="K8" s="442"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="440" t="s">
+      <c r="M8" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="441"/>
+      <c r="N8" s="442"/>
       <c r="P8" t="s">
         <v>2149</v>
       </c>
@@ -9712,29 +10029,29 @@
       <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="431" t="s">
+      <c r="F10" s="432" t="s">
         <v>1674</v>
       </c>
-      <c r="G10" s="432"/>
-      <c r="H10" s="432"/>
-      <c r="I10" s="432"/>
-      <c r="J10" s="432"/>
-      <c r="K10" s="432"/>
-      <c r="L10" s="432"/>
-      <c r="M10" s="432"/>
-      <c r="N10" s="432"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="433"/>
+      <c r="I10" s="433"/>
+      <c r="J10" s="433"/>
+      <c r="K10" s="433"/>
+      <c r="L10" s="433"/>
+      <c r="M10" s="433"/>
+      <c r="N10" s="433"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="433"/>
-      <c r="G11" s="434"/>
-      <c r="H11" s="434"/>
-      <c r="I11" s="434"/>
-      <c r="J11" s="434"/>
-      <c r="K11" s="434"/>
-      <c r="L11" s="434"/>
-      <c r="M11" s="434"/>
-      <c r="N11" s="434"/>
+      <c r="F11" s="434"/>
+      <c r="G11" s="435"/>
+      <c r="H11" s="435"/>
+      <c r="I11" s="435"/>
+      <c r="J11" s="435"/>
+      <c r="K11" s="435"/>
+      <c r="L11" s="435"/>
+      <c r="M11" s="435"/>
+      <c r="N11" s="435"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -9982,8 +10299,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="429"/>
-      <c r="E23" s="430"/>
+      <c r="D23" s="430"/>
+      <c r="E23" s="431"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -18096,15 +18413,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:H45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="36"/>
     <col min="6" max="6" width="11.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="36" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
@@ -18368,10 +18685,10 @@
       <c r="G28" s="80"/>
       <c r="H28" s="80"/>
       <c r="I28" s="81"/>
-      <c r="K28" s="470" t="s">
+      <c r="K28" s="429" t="s">
         <v>2374</v>
       </c>
-      <c r="L28" s="470"/>
+      <c r="L28" s="429"/>
       <c r="M28" s="36" t="s">
         <v>2376</v>
       </c>
@@ -18395,7 +18712,7 @@
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
     </row>
-    <row r="33" spans="6:31">
+    <row r="33" spans="3:31">
       <c r="F33" s="78" t="s">
         <v>2380</v>
       </c>
@@ -18405,31 +18722,31 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="34" spans="6:31">
+    <row r="34" spans="3:31">
       <c r="F34" s="78"/>
       <c r="G34" s="36" t="s">
         <v>2381</v>
       </c>
       <c r="H34" s="70"/>
     </row>
-    <row r="35" spans="6:31" ht="15.75" thickBot="1">
+    <row r="35" spans="3:31" ht="15.75" thickBot="1">
       <c r="F35" s="79" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
-    <row r="36" spans="6:31" ht="15.75" thickBot="1">
+    <row r="36" spans="3:31" ht="15.75" thickBot="1">
       <c r="G36" s="138"/>
     </row>
-    <row r="37" spans="6:31">
+    <row r="37" spans="3:31">
       <c r="F37" s="75" t="s">
         <v>1008</v>
       </c>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
-    <row r="38" spans="6:31">
+    <row r="38" spans="3:31">
       <c r="F38" s="78" t="s">
         <v>342</v>
       </c>
@@ -18439,14 +18756,14 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="39" spans="6:31">
+    <row r="39" spans="3:31">
       <c r="F39" s="78"/>
       <c r="G39" s="36" t="s">
         <v>2382</v>
       </c>
       <c r="H39" s="70"/>
     </row>
-    <row r="40" spans="6:31" ht="15.75" thickBot="1">
+    <row r="40" spans="3:31" ht="15.75" thickBot="1">
       <c r="F40" s="79" t="s">
         <v>37</v>
       </c>
@@ -18454,17 +18771,17 @@
       <c r="H40" s="81"/>
       <c r="N40" s="138"/>
     </row>
-    <row r="41" spans="6:31" ht="15.75" thickBot="1">
+    <row r="41" spans="3:31" ht="15.75" thickBot="1">
       <c r="AE41" s="252"/>
     </row>
-    <row r="42" spans="6:31">
+    <row r="42" spans="3:31">
       <c r="F42" s="75" t="s">
         <v>345</v>
       </c>
       <c r="G42" s="76"/>
       <c r="H42" s="77"/>
     </row>
-    <row r="43" spans="6:31">
+    <row r="43" spans="3:31">
       <c r="F43" s="78" t="s">
         <v>366</v>
       </c>
@@ -18474,7 +18791,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="44" spans="6:31">
+    <row r="44" spans="3:31">
       <c r="F44" s="78"/>
       <c r="G44" s="36" t="s">
         <v>2383</v>
@@ -18482,7 +18799,7 @@
       <c r="H44" s="70"/>
       <c r="AE44" s="256"/>
     </row>
-    <row r="45" spans="6:31" ht="15.75" thickBot="1">
+    <row r="45" spans="3:31" ht="15.75" thickBot="1">
       <c r="F45" s="79" t="s">
         <v>37</v>
       </c>
@@ -18491,63 +18808,178 @@
       <c r="J45" s="386"/>
       <c r="AE45" s="252"/>
     </row>
-    <row r="46" spans="6:31">
+    <row r="46" spans="3:31">
       <c r="AE46" s="256"/>
     </row>
-    <row r="48" spans="6:31">
+    <row r="47" spans="3:31" ht="15.75" thickBot="1"/>
+    <row r="48" spans="3:31">
+      <c r="C48" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
+      <c r="H48" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="77"/>
       <c r="AE48" s="256"/>
     </row>
     <row r="49" spans="1:45">
+      <c r="C49" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="F49" s="70"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" s="70"/>
       <c r="AE49" s="252"/>
       <c r="AH49" s="252"/>
     </row>
+    <row r="50" spans="1:45">
+      <c r="C50" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="F50" s="70"/>
+      <c r="H50" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="K50" s="70"/>
+    </row>
     <row r="51" spans="1:45">
+      <c r="C51" s="78"/>
+      <c r="D51" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="F51" s="70"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="K51" s="70"/>
       <c r="Z51" s="138"/>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:45" ht="15.75" thickBot="1">
+      <c r="C52" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="H52" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="81"/>
       <c r="Z52" s="138"/>
       <c r="AA52" s="138"/>
     </row>
     <row r="53" spans="1:45">
       <c r="Z53" s="272"/>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:45" ht="15.75" thickBot="1">
       <c r="L54" s="391"/>
       <c r="Z54" s="272"/>
       <c r="AE54" s="138"/>
       <c r="AS54" s="256"/>
     </row>
     <row r="55" spans="1:45">
+      <c r="E55" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="F55" s="76" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G55" s="388"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="77"/>
       <c r="L55" s="391"/>
     </row>
     <row r="56" spans="1:45">
+      <c r="E56" s="78"/>
+      <c r="F56" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="I56" s="70"/>
       <c r="L56" s="391"/>
       <c r="AK56" s="138"/>
     </row>
     <row r="57" spans="1:45">
+      <c r="E57" s="78"/>
+      <c r="G57" s="36" t="s">
+        <v>2388</v>
+      </c>
+      <c r="I57" s="70"/>
+      <c r="K57" s="36" t="s">
+        <v>2371</v>
+      </c>
       <c r="L57" s="391"/>
     </row>
     <row r="58" spans="1:45">
       <c r="A58" s="393"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="70"/>
+      <c r="K58" s="36" t="s">
+        <v>2372</v>
+      </c>
       <c r="L58" s="391"/>
     </row>
     <row r="59" spans="1:45">
       <c r="A59" s="393"/>
+      <c r="E59" s="78" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="I59" s="70"/>
+      <c r="K59" s="429" t="s">
+        <v>2374</v>
+      </c>
       <c r="L59" s="391"/>
     </row>
     <row r="60" spans="1:45">
       <c r="A60" s="393"/>
+      <c r="E60" s="78"/>
+      <c r="G60" s="36" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I60" s="70"/>
       <c r="L60" s="391"/>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:45" ht="15.75" thickBot="1">
       <c r="B61" s="272"/>
       <c r="C61" s="272"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="81"/>
       <c r="L61" s="391"/>
     </row>
     <row r="62" spans="1:45">
       <c r="A62" s="272"/>
-      <c r="B62" s="272"/>
+      <c r="B62" s="272" t="s">
+        <v>2408</v>
+      </c>
       <c r="C62" s="272"/>
+      <c r="D62" s="36" t="s">
+        <v>2403</v>
+      </c>
+      <c r="G62" s="479" t="s">
+        <v>2389</v>
+      </c>
       <c r="K62" s="387"/>
       <c r="L62" s="391"/>
     </row>
@@ -18555,25 +18987,40 @@
       <c r="A63" s="138"/>
       <c r="B63" s="138"/>
       <c r="C63" s="272"/>
+      <c r="G63" s="329" t="s">
+        <v>2391</v>
+      </c>
       <c r="L63" s="391"/>
     </row>
     <row r="64" spans="1:45">
       <c r="A64" s="138"/>
       <c r="B64" s="272"/>
       <c r="C64" s="272"/>
+      <c r="G64" s="329" t="s">
+        <v>2390</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>2394</v>
+      </c>
       <c r="L64" s="391"/>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="272"/>
       <c r="B65" s="272"/>
       <c r="C65" s="272"/>
+      <c r="G65" s="329" t="s">
+        <v>2392</v>
+      </c>
       <c r="L65" s="391"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" ht="15.75" thickBot="1">
       <c r="A66" s="138"/>
+      <c r="G66" s="331" t="s">
+        <v>2393</v>
+      </c>
       <c r="L66" s="391"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" ht="15.75" thickBot="1">
       <c r="A67" s="138"/>
       <c r="B67" s="138"/>
       <c r="C67" s="138"/>
@@ -18584,14 +19031,28 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="138"/>
-      <c r="B68" s="138"/>
+      <c r="B68" s="138" t="s">
+        <v>2409</v>
+      </c>
       <c r="C68" s="138"/>
+      <c r="D68" s="36" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G68" s="471" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>2396</v>
+      </c>
       <c r="L68" s="391"/>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="272"/>
       <c r="B69" s="272"/>
       <c r="C69" s="272"/>
+      <c r="G69" s="329" t="s">
+        <v>2397</v>
+      </c>
       <c r="L69" s="391"/>
       <c r="P69" s="428"/>
     </row>
@@ -18599,15 +19060,24 @@
       <c r="A70" s="138"/>
       <c r="B70" s="138"/>
       <c r="C70" s="138"/>
+      <c r="G70" s="329" t="s">
+        <v>2398</v>
+      </c>
       <c r="L70" s="391"/>
       <c r="P70" s="428"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" ht="15.75" thickBot="1">
       <c r="A71" s="317"/>
+      <c r="G71" s="331" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H71" s="36" t="s">
+        <v>2400</v>
+      </c>
       <c r="L71" s="391"/>
       <c r="P71" s="428"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" ht="15.75" thickBot="1">
       <c r="A72" s="272"/>
       <c r="K72" s="387"/>
       <c r="L72" s="392"/>
@@ -18617,6 +19087,15 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="138"/>
+      <c r="B73" s="36" t="s">
+        <v>2410</v>
+      </c>
+      <c r="G73" s="471" t="s">
+        <v>2401</v>
+      </c>
+      <c r="H73" s="36" t="s">
+        <v>2402</v>
+      </c>
       <c r="L73" s="391"/>
       <c r="M73" s="428"/>
       <c r="O73" s="428"/>
@@ -18626,12 +19105,24 @@
       <c r="T73" s="428"/>
     </row>
     <row r="74" spans="1:20">
+      <c r="G74" s="329"/>
       <c r="O74" s="428"/>
       <c r="P74" s="428"/>
       <c r="S74" s="428"/>
       <c r="T74" s="428"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="75" spans="1:20" ht="15.75" thickBot="1">
+      <c r="D75" s="36" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G75" s="331" t="s">
+        <v>2405</v>
+      </c>
+      <c r="H75" s="36" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" thickBot="1">
       <c r="K77" s="387"/>
       <c r="L77" s="256"/>
       <c r="M77" s="256"/>
@@ -18639,108 +19130,320 @@
     <row r="78" spans="1:20">
       <c r="A78" s="387"/>
       <c r="B78" s="256"/>
+      <c r="D78" s="75" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E78" s="77"/>
+      <c r="G78" s="75" t="s">
+        <v>2389</v>
+      </c>
+      <c r="H78" s="77"/>
+      <c r="L78" s="75" t="s">
+        <v>2437</v>
+      </c>
+      <c r="M78" s="77"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="B79" s="36" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D79" s="78"/>
+      <c r="E79" s="70" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G79" s="78" t="s">
+        <v>2390</v>
+      </c>
+      <c r="H79" s="70"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="70" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="80" spans="1:20">
-      <c r="L80" s="391"/>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="L81" s="391"/>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="L82" s="391"/>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="L83" s="391"/>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="D80" s="78"/>
+      <c r="E80" s="70" t="s">
+        <v>2413</v>
+      </c>
+      <c r="G80" s="78" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H80" s="70"/>
+      <c r="K80" s="36" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L80" s="78"/>
+      <c r="M80" s="70" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="D81" s="78"/>
+      <c r="E81" s="70"/>
+      <c r="G81" s="78" t="s">
+        <v>2393</v>
+      </c>
+      <c r="H81" s="70"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="70" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="15.75" thickBot="1">
+      <c r="D82" s="79"/>
+      <c r="E82" s="81"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="81"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="81"/>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="84" spans="1:17">
       <c r="A84" s="393"/>
-      <c r="L84" s="391"/>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="F84" s="328" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>2416</v>
+      </c>
+      <c r="K84" s="36" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L84" s="75" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M84" s="77"/>
+      <c r="N84" s="36" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" thickBot="1">
       <c r="A85" s="393"/>
-      <c r="L85" s="391"/>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="D85" s="36" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F85" s="329"/>
+      <c r="L85" s="79" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M85" s="81"/>
+      <c r="N85" s="36" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="393"/>
-      <c r="L86" s="391"/>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="D86" s="36" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F86" s="329" t="s">
+        <v>2414</v>
+      </c>
+      <c r="N86" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="O86" s="36" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" thickBot="1">
       <c r="B87" s="272"/>
       <c r="C87" s="272"/>
-      <c r="L87" s="391"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="F87" s="329" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" thickBot="1">
       <c r="A88" s="272"/>
       <c r="B88" s="272"/>
       <c r="C88" s="272"/>
-      <c r="K88" s="387"/>
-      <c r="L88" s="391"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="F88" s="331"/>
+      <c r="G88" s="36" t="s">
+        <v>2417</v>
+      </c>
+      <c r="K88" s="387" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L88" s="75" t="s">
+        <v>1780</v>
+      </c>
+      <c r="M88" s="77"/>
+      <c r="N88" s="36" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" thickBot="1">
       <c r="A89" s="312"/>
       <c r="B89" s="138"/>
       <c r="C89" s="272"/>
-      <c r="L89" s="391"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="L89" s="79" t="s">
+        <v>2441</v>
+      </c>
+      <c r="M89" s="81"/>
+      <c r="N89" s="36" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" thickBot="1">
       <c r="A90" s="138"/>
       <c r="B90" s="272"/>
       <c r="C90" s="272"/>
-      <c r="L90" s="391"/>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="F90" s="328" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="272"/>
       <c r="B91" s="272"/>
       <c r="C91" s="272"/>
-      <c r="L91" s="391"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="D91" s="36" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F91" s="329" t="s">
+        <v>2421</v>
+      </c>
+      <c r="K91" s="36" t="s">
+        <v>2427</v>
+      </c>
+      <c r="L91" s="75" t="s">
+        <v>2442</v>
+      </c>
+      <c r="M91" s="77"/>
+      <c r="N91" s="36" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" thickBot="1">
       <c r="A92" s="138"/>
-      <c r="L92" s="391"/>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="D92" s="36" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F92" s="331" t="s">
+        <v>2420</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L92" s="78" t="s">
+        <v>2443</v>
+      </c>
+      <c r="M92" s="70"/>
+      <c r="N92" s="36" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="15.75" thickBot="1">
       <c r="A93" s="138"/>
       <c r="B93" s="138"/>
       <c r="C93" s="138"/>
       <c r="D93" s="182"/>
       <c r="K93" s="387"/>
-      <c r="L93" s="392"/>
-      <c r="M93" s="256"/>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="L93" s="476" t="s">
+        <v>2467</v>
+      </c>
+      <c r="M93" s="477"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="138"/>
       <c r="B94" s="138"/>
       <c r="C94" s="138"/>
-      <c r="L94" s="391"/>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="F94" s="328" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>2426</v>
+      </c>
+      <c r="K94" s="138" t="s">
+        <v>2450</v>
+      </c>
+      <c r="L94" s="138"/>
+      <c r="M94" s="138"/>
+      <c r="N94" s="36" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="272"/>
       <c r="B95" s="272"/>
       <c r="C95" s="272"/>
-      <c r="L95" s="391"/>
-      <c r="P95" s="428"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="D95" s="36" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F95" s="329"/>
+      <c r="K95" s="272" t="s">
+        <v>2459</v>
+      </c>
+      <c r="L95" s="272"/>
+      <c r="M95" s="272"/>
+      <c r="N95" s="299" t="s">
+        <v>2463</v>
+      </c>
+      <c r="O95" s="120" t="s">
+        <v>2464</v>
+      </c>
+      <c r="P95" s="475" t="s">
+        <v>2465</v>
+      </c>
+      <c r="Q95" s="478" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" thickBot="1">
       <c r="A96" s="272"/>
       <c r="B96" s="138"/>
       <c r="C96" s="138"/>
-      <c r="L96" s="391"/>
+      <c r="F96" s="331" t="s">
+        <v>2428</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>2429</v>
+      </c>
+      <c r="K96" s="138" t="s">
+        <v>2455</v>
+      </c>
+      <c r="N96" s="36" t="s">
+        <v>2460</v>
+      </c>
       <c r="P96" s="428"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="272"/>
-      <c r="L97" s="391"/>
+      <c r="K97" s="138" t="s">
+        <v>2456</v>
+      </c>
+      <c r="N97" s="36" t="s">
+        <v>2461</v>
+      </c>
       <c r="P97" s="428"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="138"/>
-      <c r="K98" s="387"/>
-      <c r="L98" s="392"/>
-      <c r="M98" s="250"/>
+      <c r="C98" s="36" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="K98" s="474" t="s">
+        <v>2457</v>
+      </c>
+      <c r="L98" s="138"/>
+      <c r="M98" s="257"/>
+      <c r="N98" s="36" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="138"/>
-      <c r="L99" s="391"/>
+      <c r="E99" s="36" t="s">
+        <v>2453</v>
+      </c>
+      <c r="K99" s="272" t="s">
+        <v>2458</v>
+      </c>
       <c r="M99" s="428"/>
       <c r="O99" s="428"/>
       <c r="P99" s="428"/>
@@ -18757,86 +19460,424 @@
     <row r="104" spans="1:16">
       <c r="A104" s="387"/>
       <c r="B104" s="256"/>
+      <c r="D104" s="36" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G104" s="36" t="s">
+        <v>1782</v>
+      </c>
+      <c r="L104" s="36" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="15.75" thickBot="1">
+      <c r="L105" s="36" t="s">
+        <v>2434</v>
+      </c>
     </row>
     <row r="106" spans="1:16">
-      <c r="C106" s="348"/>
-      <c r="D106" s="348"/>
-      <c r="E106" s="348"/>
-      <c r="L106" s="348"/>
-      <c r="M106" s="471"/>
-      <c r="N106" s="348"/>
+      <c r="C106" s="344"/>
+      <c r="D106" s="345"/>
+      <c r="E106" s="346"/>
+      <c r="G106" s="73" t="s">
+        <v>2432</v>
+      </c>
+      <c r="H106" s="77"/>
+      <c r="L106" s="473"/>
+      <c r="M106" s="472"/>
+      <c r="N106" s="346"/>
     </row>
     <row r="107" spans="1:16">
-      <c r="C107" s="348"/>
+      <c r="C107" s="347"/>
       <c r="D107" s="348"/>
-      <c r="E107" s="348"/>
-      <c r="L107" s="348"/>
+      <c r="E107" s="349"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="70"/>
+      <c r="L107" s="347"/>
       <c r="M107" s="348"/>
-      <c r="N107" s="348"/>
+      <c r="N107" s="349"/>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="C108" s="78"/>
+      <c r="E108" s="70"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="70"/>
+      <c r="L108" s="78"/>
+      <c r="N108" s="70"/>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="C109" s="78"/>
+      <c r="E109" s="70"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="70"/>
+      <c r="L109" s="78"/>
+      <c r="N109" s="70"/>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="C110" s="78" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E110" s="70"/>
+      <c r="G110" s="78" t="s">
+        <v>2430</v>
+      </c>
+      <c r="H110" s="70"/>
+      <c r="L110" s="78"/>
+      <c r="N110" s="70"/>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="C111" s="78"/>
+      <c r="E111" s="70"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="70"/>
+      <c r="L111" s="78" t="s">
+        <v>2430</v>
+      </c>
+      <c r="N111" s="70"/>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="C112" s="78"/>
+      <c r="E112" s="70"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="70"/>
+      <c r="L112" s="78"/>
+      <c r="N112" s="70"/>
+    </row>
+    <row r="113" spans="3:14">
+      <c r="C113" s="78"/>
+      <c r="E113" s="70"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="70"/>
+      <c r="L113" s="78"/>
+      <c r="N113" s="70"/>
+    </row>
+    <row r="114" spans="3:14">
+      <c r="C114" s="78" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E114" s="70"/>
+      <c r="G114" s="78" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H114" s="70"/>
+      <c r="L114" s="78" t="s">
+        <v>2431</v>
+      </c>
+      <c r="N114" s="70"/>
+    </row>
+    <row r="115" spans="3:14">
+      <c r="C115" s="78"/>
+      <c r="E115" s="70"/>
+      <c r="G115" s="78"/>
+      <c r="H115" s="70"/>
+      <c r="L115" s="78"/>
+      <c r="N115" s="70"/>
+    </row>
+    <row r="116" spans="3:14">
+      <c r="C116" s="78"/>
+      <c r="E116" s="70"/>
+      <c r="G116" s="78"/>
+      <c r="H116" s="70"/>
+      <c r="L116" s="78"/>
+      <c r="N116" s="70"/>
     </row>
     <row r="117" spans="3:14">
-      <c r="C117" s="348"/>
+      <c r="C117" s="347"/>
       <c r="D117" s="348"/>
-      <c r="E117" s="348"/>
-      <c r="L117" s="348"/>
+      <c r="E117" s="349"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="70"/>
+      <c r="L117" s="347"/>
       <c r="M117" s="348"/>
-      <c r="N117" s="348"/>
-    </row>
-    <row r="118" spans="3:14">
-      <c r="C118" s="348"/>
-      <c r="D118" s="348"/>
-      <c r="E118" s="348"/>
-      <c r="L118" s="348"/>
-      <c r="M118" s="348"/>
-      <c r="N118" s="348"/>
+      <c r="N117" s="349"/>
+    </row>
+    <row r="118" spans="3:14" ht="15.75" thickBot="1">
+      <c r="C118" s="350"/>
+      <c r="D118" s="351"/>
+      <c r="E118" s="352"/>
+      <c r="G118" s="79"/>
+      <c r="H118" s="81"/>
+      <c r="L118" s="350"/>
+      <c r="M118" s="351"/>
+      <c r="N118" s="352"/>
+    </row>
+    <row r="120" spans="3:14">
+      <c r="L120" s="36" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="121" spans="3:14">
+      <c r="L121" s="36" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="122" spans="3:14">
+      <c r="J122" s="36" t="s">
+        <v>2436</v>
+      </c>
     </row>
     <row r="123" spans="3:14">
       <c r="L123" s="256"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="125" spans="3:14" ht="15.75" thickBot="1"/>
+    <row r="126" spans="3:14">
+      <c r="G126" s="75" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H126" s="77"/>
+    </row>
+    <row r="127" spans="3:14">
+      <c r="G127" s="78" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H127" s="70"/>
+      <c r="I127" s="36" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="128" spans="3:14">
+      <c r="G128" s="78" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H128" s="70"/>
+      <c r="I128" s="36" t="s">
+        <v>2481</v>
+      </c>
+      <c r="N128" s="36" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" ht="15.75" thickBot="1">
+      <c r="G129" s="79" t="s">
+        <v>2473</v>
+      </c>
+      <c r="H129" s="81"/>
+    </row>
+    <row r="131" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B131" s="36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E131" s="36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H131" s="36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="K131" s="36" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132" s="75" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C132" s="77"/>
+      <c r="E132" s="75" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F132" s="77"/>
+      <c r="H132" s="75" t="s">
+        <v>2476</v>
+      </c>
+      <c r="I132" s="77"/>
+      <c r="K132" s="75" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L132" s="77"/>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="B133" s="78"/>
+      <c r="C133" s="70"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="70"/>
+      <c r="H133" s="78"/>
+      <c r="I133" s="70"/>
+      <c r="K133" s="78"/>
+      <c r="L133" s="70"/>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134" s="78" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C134" s="70"/>
+      <c r="E134" s="78" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F134" s="70"/>
       <c r="G134" s="272"/>
-    </row>
-    <row r="135" spans="2:7">
+      <c r="H134" s="78" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I134" s="70"/>
+      <c r="K134" s="78" t="s">
+        <v>2478</v>
+      </c>
+      <c r="L134" s="70"/>
+    </row>
+    <row r="135" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B135" s="79" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C135" s="81"/>
+      <c r="E135" s="79" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F135" s="81"/>
       <c r="G135" s="272"/>
-    </row>
-    <row r="136" spans="2:7">
+      <c r="H135" s="79" t="s">
+        <v>2479</v>
+      </c>
+      <c r="I135" s="81"/>
+      <c r="K135" s="79" t="s">
+        <v>2479</v>
+      </c>
+      <c r="L135" s="81"/>
+    </row>
+    <row r="136" spans="2:13">
       <c r="B136" s="138"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:13">
       <c r="G138" s="272"/>
-    </row>
-    <row r="139" spans="2:7">
+      <c r="M138" s="36" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13">
       <c r="G139" s="272"/>
     </row>
-    <row r="141" spans="2:7">
-      <c r="G141" s="272"/>
-    </row>
-    <row r="142" spans="2:7">
-      <c r="G142" s="272"/>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="G143" s="272"/>
-    </row>
-    <row r="144" spans="2:7">
-      <c r="G144" s="272"/>
-    </row>
-    <row r="145" spans="7:12">
-      <c r="G145" s="272"/>
-      <c r="L145" s="138"/>
-    </row>
-    <row r="146" spans="7:12">
-      <c r="G146" s="272"/>
-    </row>
-    <row r="147" spans="7:12">
-      <c r="G147" s="272"/>
-    </row>
-    <row r="152" spans="7:12">
+    <row r="140" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="141" spans="2:13">
+      <c r="G141" s="75" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H141" s="77"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="F142" s="394">
+        <v>0.1</v>
+      </c>
+      <c r="G142" s="78" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H142" s="70"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="G143" s="78" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H143" s="70"/>
+      <c r="I143" s="36" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" ht="15.75" thickBot="1">
+      <c r="G144" s="79" t="s">
+        <v>2473</v>
+      </c>
+      <c r="H144" s="81"/>
+    </row>
+    <row r="146" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="147" spans="2:12">
+      <c r="G147" s="75" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H147" s="77"/>
+    </row>
+    <row r="148" spans="2:12">
+      <c r="G148" s="78"/>
+      <c r="H148" s="70"/>
+    </row>
+    <row r="149" spans="2:12">
+      <c r="G149" s="78" t="s">
+        <v>2478</v>
+      </c>
+      <c r="H149" s="70"/>
+      <c r="I149" s="36" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" ht="15.75" thickBot="1">
+      <c r="G150" s="79" t="s">
+        <v>2489</v>
+      </c>
+      <c r="H150" s="81"/>
+    </row>
+    <row r="152" spans="2:12">
       <c r="G152" s="138"/>
     </row>
-    <row r="155" spans="7:12">
-      <c r="G155" s="138"/>
-    </row>
-    <row r="159" spans="7:12">
+    <row r="153" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B153" s="36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E153" s="36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H153" s="36" t="s">
+        <v>2482</v>
+      </c>
+      <c r="K153" s="36" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12">
+      <c r="B154" s="75" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C154" s="77"/>
+      <c r="E154" s="75" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F154" s="77"/>
+      <c r="H154" s="75" t="s">
+        <v>2476</v>
+      </c>
+      <c r="I154" s="77"/>
+      <c r="K154" s="75" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L154" s="77"/>
+    </row>
+    <row r="155" spans="2:12">
+      <c r="B155" s="78"/>
+      <c r="C155" s="70"/>
+      <c r="E155" s="78"/>
+      <c r="F155" s="70"/>
+      <c r="H155" s="78"/>
+      <c r="I155" s="70"/>
+      <c r="K155" s="78"/>
+      <c r="L155" s="70"/>
+    </row>
+    <row r="156" spans="2:12">
+      <c r="B156" s="78"/>
+      <c r="C156" s="70"/>
+      <c r="E156" s="78"/>
+      <c r="F156" s="70"/>
+      <c r="G156" s="272"/>
+      <c r="H156" s="78"/>
+      <c r="I156" s="70"/>
+      <c r="K156" s="78"/>
+      <c r="L156" s="70"/>
+    </row>
+    <row r="157" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B157" s="79" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C157" s="81"/>
+      <c r="E157" s="79" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F157" s="81"/>
+      <c r="G157" s="272"/>
+      <c r="H157" s="79" t="s">
+        <v>2479</v>
+      </c>
+      <c r="I157" s="81"/>
+      <c r="K157" s="79" t="s">
+        <v>2479</v>
+      </c>
+      <c r="L157" s="81"/>
+    </row>
+    <row r="159" spans="2:12">
       <c r="G159" s="272"/>
     </row>
     <row r="177" spans="15:15">
@@ -19540,34 +20581,34 @@
       <c r="E10" t="s">
         <v>1861</v>
       </c>
-      <c r="G10" s="442" t="s">
+      <c r="G10" s="443" t="s">
         <v>1868</v>
       </c>
-      <c r="H10" s="443"/>
-      <c r="I10" s="444"/>
+      <c r="H10" s="444"/>
+      <c r="I10" s="445"/>
       <c r="K10" s="28" t="s">
         <v>1878</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="445"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="447"/>
+      <c r="G11" s="446"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="448"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="445"/>
-      <c r="H12" s="446"/>
-      <c r="I12" s="447"/>
+      <c r="G12" s="446"/>
+      <c r="H12" s="447"/>
+      <c r="I12" s="448"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="448"/>
-      <c r="H13" s="449"/>
-      <c r="I13" s="450"/>
+      <c r="G13" s="449"/>
+      <c r="H13" s="450"/>
+      <c r="I13" s="451"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
@@ -20496,7 +21537,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="278"/>
-      <c r="L3" s="456" t="s">
+      <c r="L3" s="457" t="s">
         <v>1485</v>
       </c>
       <c r="M3" s="170"/>
@@ -20518,7 +21559,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="457"/>
+      <c r="L4" s="458"/>
       <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -20538,12 +21579,12 @@
       <c r="K5" s="279" t="s">
         <v>1484</v>
       </c>
-      <c r="L5" s="457"/>
+      <c r="L5" s="458"/>
       <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="187"/>
-      <c r="L6" s="457"/>
+      <c r="L6" s="458"/>
       <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13">
@@ -20556,7 +21597,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="278"/>
-      <c r="L7" s="457"/>
+      <c r="L7" s="458"/>
       <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13">
@@ -20574,7 +21615,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="457"/>
+      <c r="L8" s="458"/>
       <c r="M8" s="170"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -20588,7 +21629,7 @@
       <c r="K9" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="457"/>
+      <c r="L9" s="458"/>
       <c r="M9" s="170"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -20596,7 +21637,7 @@
         <v>1468</v>
       </c>
       <c r="F10" s="187"/>
-      <c r="L10" s="457"/>
+      <c r="L10" s="458"/>
       <c r="M10" s="170"/>
     </row>
     <row r="11" spans="1:13">
@@ -20609,7 +21650,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="278"/>
-      <c r="L11" s="457"/>
+      <c r="L11" s="458"/>
       <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13">
@@ -20623,7 +21664,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="457"/>
+      <c r="L12" s="458"/>
       <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -20640,7 +21681,7 @@
       <c r="K13" s="262" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="458"/>
+      <c r="L13" s="459"/>
       <c r="M13" s="170"/>
     </row>
     <row r="14" spans="1:13">
@@ -20662,10 +21703,10 @@
       <c r="D15" s="257"/>
       <c r="E15" s="257"/>
       <c r="F15" s="187"/>
-      <c r="J15" s="451" t="s">
+      <c r="J15" s="452" t="s">
         <v>1474</v>
       </c>
-      <c r="K15" s="451"/>
+      <c r="K15" s="452"/>
       <c r="L15" s="69" t="s">
         <v>536</v>
       </c>
@@ -20685,8 +21726,8 @@
       <c r="G16" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="J16" s="451"/>
-      <c r="K16" s="451"/>
+      <c r="J16" s="452"/>
+      <c r="K16" s="452"/>
       <c r="L16" s="69" t="s">
         <v>50</v>
       </c>
@@ -20764,7 +21805,7 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="452"/>
+      <c r="K22" s="454"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
@@ -29289,18 +30330,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="460" t="s">
+      <c r="B8" s="461" t="s">
         <v>1616</v>
       </c>
-      <c r="C8" s="460"/>
-      <c r="F8" s="460" t="s">
+      <c r="C8" s="461"/>
+      <c r="F8" s="461" t="s">
         <v>1617</v>
       </c>
-      <c r="G8" s="460"/>
-      <c r="I8" s="460" t="s">
+      <c r="G8" s="461"/>
+      <c r="I8" s="461" t="s">
         <v>1617</v>
       </c>
-      <c r="J8" s="460"/>
+      <c r="J8" s="461"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="R8" t="b">
@@ -29323,18 +30364,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="461" t="s">
+      <c r="F9" s="462" t="s">
         <v>1618</v>
       </c>
-      <c r="G9" s="461"/>
-      <c r="I9" s="461" t="s">
+      <c r="G9" s="462"/>
+      <c r="I9" s="462" t="s">
         <v>1254</v>
       </c>
-      <c r="J9" s="461"/>
-      <c r="M9" s="462" t="s">
+      <c r="J9" s="462"/>
+      <c r="M9" s="463" t="s">
         <v>1617</v>
       </c>
-      <c r="N9" s="462"/>
+      <c r="N9" s="463"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -29382,19 +30423,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="459" t="s">
+      <c r="E11" s="460" t="s">
         <v>1620</v>
       </c>
-      <c r="F11" s="459"/>
-      <c r="G11" s="459"/>
-      <c r="H11" s="459"/>
-      <c r="I11" s="459"/>
-      <c r="J11" s="459"/>
-      <c r="K11" s="459"/>
-      <c r="L11" s="459"/>
-      <c r="M11" s="459"/>
-      <c r="N11" s="459"/>
-      <c r="O11" s="459"/>
+      <c r="F11" s="460"/>
+      <c r="G11" s="460"/>
+      <c r="H11" s="460"/>
+      <c r="I11" s="460"/>
+      <c r="J11" s="460"/>
+      <c r="K11" s="460"/>
+      <c r="L11" s="460"/>
+      <c r="M11" s="460"/>
+      <c r="N11" s="460"/>
+      <c r="O11" s="460"/>
       <c r="R11" t="s">
         <v>1851</v>
       </c>
@@ -32941,10 +33982,10 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="429" t="s">
+      <c r="C241" s="430" t="s">
         <v>1644</v>
       </c>
-      <c r="D241" s="429"/>
+      <c r="D241" s="430"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -33483,10 +34524,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21">
-      <c r="C2" s="463" t="s">
+      <c r="C2" s="464" t="s">
         <v>1317</v>
       </c>
-      <c r="D2" s="463"/>
+      <c r="D2" s="464"/>
       <c r="F2" s="25" t="s">
         <v>2131</v>
       </c>
@@ -37169,10 +38210,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="464" t="s">
+      <c r="B1" s="465" t="s">
         <v>1317</v>
       </c>
-      <c r="C1" s="464"/>
+      <c r="C1" s="465"/>
       <c r="E1" t="s">
         <v>1318</v>
       </c>
@@ -38594,18 +39635,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="465" t="s">
+      <c r="B3" s="466" t="s">
         <v>1342</v>
       </c>
-      <c r="C3" s="466"/>
-      <c r="D3" s="466"/>
-      <c r="E3" s="466"/>
-      <c r="F3" s="466"/>
-      <c r="G3" s="466"/>
-      <c r="H3" s="466"/>
-      <c r="I3" s="466"/>
-      <c r="J3" s="466"/>
-      <c r="K3" s="467"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="467"/>
+      <c r="F3" s="467"/>
+      <c r="G3" s="467"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="467"/>
+      <c r="J3" s="467"/>
+      <c r="K3" s="468"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -38720,24 +39761,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="468" t="s">
+      <c r="B15" s="469" t="s">
         <v>1343</v>
       </c>
-      <c r="C15" s="469"/>
-      <c r="D15" s="469"/>
-      <c r="E15" s="469"/>
-      <c r="F15" s="469"/>
-      <c r="G15" s="469"/>
-      <c r="H15" s="469"/>
-      <c r="I15" s="469"/>
-      <c r="J15" s="469"/>
-      <c r="K15" s="469"/>
-      <c r="L15" s="469"/>
-      <c r="M15" s="469"/>
-      <c r="N15" s="469"/>
-      <c r="O15" s="469"/>
-      <c r="P15" s="469"/>
-      <c r="Q15" s="469"/>
+      <c r="C15" s="470"/>
+      <c r="D15" s="470"/>
+      <c r="E15" s="470"/>
+      <c r="F15" s="470"/>
+      <c r="G15" s="470"/>
+      <c r="H15" s="470"/>
+      <c r="I15" s="470"/>
+      <c r="J15" s="470"/>
+      <c r="K15" s="470"/>
+      <c r="L15" s="470"/>
+      <c r="M15" s="470"/>
+      <c r="N15" s="470"/>
+      <c r="O15" s="470"/>
+      <c r="P15" s="470"/>
+      <c r="Q15" s="470"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -39739,16 +40780,16 @@
       <c r="M214" s="366"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="451"/>
-      <c r="E223" s="451"/>
+      <c r="D223" s="452"/>
+      <c r="E223" s="452"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="451"/>
-      <c r="E227" s="451"/>
-      <c r="G227" s="451"/>
-      <c r="H227" s="451"/>
-      <c r="J227" s="451"/>
-      <c r="K227" s="451"/>
+      <c r="D227" s="452"/>
+      <c r="E227" s="452"/>
+      <c r="G227" s="452"/>
+      <c r="H227" s="452"/>
+      <c r="J227" s="452"/>
+      <c r="K227" s="452"/>
     </row>
     <row r="273" spans="2:9">
       <c r="D273" s="453"/>
@@ -39769,35 +40810,35 @@
       <c r="D278" s="453"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="452"/>
-      <c r="C287" s="451"/>
-      <c r="D287" s="451"/>
+      <c r="B287" s="454"/>
+      <c r="C287" s="452"/>
+      <c r="D287" s="452"/>
     </row>
     <row r="288" spans="2:9">
       <c r="B288" s="453"/>
-      <c r="I288" s="452"/>
+      <c r="I288" s="454"/>
     </row>
     <row r="289" spans="2:14">
       <c r="B289" s="453"/>
       <c r="I289" s="453"/>
-      <c r="N289" s="452"/>
+      <c r="N289" s="454"/>
     </row>
     <row r="290" spans="2:14">
       <c r="B290" s="453"/>
-      <c r="F290" s="451"/>
-      <c r="G290" s="451"/>
-      <c r="H290" s="451"/>
+      <c r="F290" s="452"/>
+      <c r="G290" s="452"/>
+      <c r="H290" s="452"/>
       <c r="I290" s="453"/>
       <c r="N290" s="453"/>
     </row>
     <row r="291" spans="2:14">
       <c r="B291" s="453"/>
-      <c r="C291" s="451"/>
-      <c r="D291" s="451"/>
+      <c r="C291" s="452"/>
+      <c r="D291" s="452"/>
       <c r="I291" s="453"/>
-      <c r="K291" s="451"/>
-      <c r="L291" s="451"/>
-      <c r="M291" s="451"/>
+      <c r="K291" s="452"/>
+      <c r="L291" s="452"/>
+      <c r="M291" s="452"/>
       <c r="N291" s="453"/>
     </row>
     <row r="292" spans="2:14">
@@ -39808,11 +40849,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -39820,6 +40856,11 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42561,23 +43602,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="455" t="s">
+      <c r="A1" s="456" t="s">
         <v>1099</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="I1" s="455" t="s">
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="I1" s="456" t="s">
         <v>1109</v>
       </c>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="455"/>
-      <c r="M1" s="455"/>
-      <c r="N1" s="455"/>
-      <c r="O1" s="455"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -42727,28 +43768,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="438" t="s">
+      <c r="A12" s="439" t="s">
         <v>1111</v>
       </c>
-      <c r="B12" s="454"/>
-      <c r="C12" s="454"/>
-      <c r="D12" s="454"/>
-      <c r="E12" s="454"/>
-      <c r="F12" s="454"/>
-      <c r="G12" s="454"/>
-      <c r="H12" s="439"/>
-      <c r="I12" s="438" t="s">
+      <c r="B12" s="455"/>
+      <c r="C12" s="455"/>
+      <c r="D12" s="455"/>
+      <c r="E12" s="455"/>
+      <c r="F12" s="455"/>
+      <c r="G12" s="455"/>
+      <c r="H12" s="440"/>
+      <c r="I12" s="439" t="s">
         <v>1111</v>
       </c>
-      <c r="J12" s="454"/>
-      <c r="K12" s="454"/>
-      <c r="L12" s="454"/>
-      <c r="M12" s="454"/>
-      <c r="N12" s="454"/>
-      <c r="O12" s="454"/>
-      <c r="P12" s="454"/>
-      <c r="Q12" s="454"/>
-      <c r="R12" s="439"/>
+      <c r="J12" s="455"/>
+      <c r="K12" s="455"/>
+      <c r="L12" s="455"/>
+      <c r="M12" s="455"/>
+      <c r="N12" s="455"/>
+      <c r="O12" s="455"/>
+      <c r="P12" s="455"/>
+      <c r="Q12" s="455"/>
+      <c r="R12" s="440"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -42976,14 +44017,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="455" t="s">
+      <c r="A24" s="456" t="s">
         <v>1099</v>
       </c>
-      <c r="B24" s="455"/>
-      <c r="C24" s="455"/>
-      <c r="D24" s="455"/>
-      <c r="E24" s="455"/>
-      <c r="F24" s="455"/>
+      <c r="B24" s="456"/>
+      <c r="C24" s="456"/>
+      <c r="D24" s="456"/>
+      <c r="E24" s="456"/>
+      <c r="F24" s="456"/>
       <c r="H24" s="195" t="s">
         <v>1109</v>
       </c>
@@ -42993,11 +44034,11 @@
       <c r="L24" s="195"/>
       <c r="M24" s="195"/>
       <c r="N24" s="195"/>
-      <c r="P24" s="455" t="s">
+      <c r="P24" s="456" t="s">
         <v>1147</v>
       </c>
-      <c r="Q24" s="455"/>
-      <c r="R24" s="455"/>
+      <c r="Q24" s="456"/>
+      <c r="R24" s="456"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -43237,28 +44278,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="438" t="s">
+      <c r="A35" s="439" t="s">
         <v>1148</v>
       </c>
-      <c r="B35" s="454"/>
-      <c r="C35" s="454"/>
-      <c r="D35" s="454"/>
-      <c r="E35" s="454"/>
-      <c r="F35" s="454"/>
-      <c r="G35" s="454"/>
-      <c r="H35" s="439"/>
-      <c r="I35" s="438" t="s">
+      <c r="B35" s="455"/>
+      <c r="C35" s="455"/>
+      <c r="D35" s="455"/>
+      <c r="E35" s="455"/>
+      <c r="F35" s="455"/>
+      <c r="G35" s="455"/>
+      <c r="H35" s="440"/>
+      <c r="I35" s="439" t="s">
         <v>540</v>
       </c>
-      <c r="J35" s="454"/>
-      <c r="K35" s="454"/>
-      <c r="L35" s="454"/>
-      <c r="M35" s="454"/>
-      <c r="N35" s="454"/>
-      <c r="O35" s="454"/>
-      <c r="P35" s="454"/>
-      <c r="Q35" s="454"/>
-      <c r="R35" s="439"/>
+      <c r="J35" s="455"/>
+      <c r="K35" s="455"/>
+      <c r="L35" s="455"/>
+      <c r="M35" s="455"/>
+      <c r="N35" s="455"/>
+      <c r="O35" s="455"/>
+      <c r="P35" s="455"/>
+      <c r="Q35" s="455"/>
+      <c r="R35" s="440"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -9419,6 +9419,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9489,10 +9498,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9540,15 +9549,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9905,13 +9905,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
-      <c r="H3" s="436" t="s">
+      <c r="H3" s="445" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="437"/>
-      <c r="J3" s="437"/>
-      <c r="K3" s="437"/>
-      <c r="L3" s="438"/>
+      <c r="I3" s="446"/>
+      <c r="J3" s="446"/>
+      <c r="K3" s="446"/>
+      <c r="L3" s="447"/>
       <c r="Q3" t="s">
         <v>2155</v>
       </c>
@@ -9943,20 +9943,20 @@
       <c r="F6" s="4" t="s">
         <v>1662</v>
       </c>
-      <c r="G6" s="439" t="s">
+      <c r="G6" s="448" t="s">
         <v>1178</v>
       </c>
-      <c r="H6" s="440"/>
+      <c r="H6" s="449"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="439" t="s">
+      <c r="J6" s="448" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="440"/>
+      <c r="K6" s="449"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="439" t="s">
+      <c r="M6" s="448" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="440"/>
+      <c r="N6" s="449"/>
       <c r="P6" t="s">
         <v>2147</v>
       </c>
@@ -9990,20 +9990,20 @@
       <c r="F8" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="G8" s="441" t="s">
+      <c r="G8" s="450" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="442"/>
+      <c r="H8" s="451"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="441" t="s">
+      <c r="J8" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="442"/>
+      <c r="K8" s="451"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="441" t="s">
+      <c r="M8" s="450" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="442"/>
+      <c r="N8" s="451"/>
       <c r="P8" t="s">
         <v>2149</v>
       </c>
@@ -10029,29 +10029,29 @@
       <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="432" t="s">
+      <c r="F10" s="441" t="s">
         <v>1674</v>
       </c>
-      <c r="G10" s="433"/>
-      <c r="H10" s="433"/>
-      <c r="I10" s="433"/>
-      <c r="J10" s="433"/>
-      <c r="K10" s="433"/>
-      <c r="L10" s="433"/>
-      <c r="M10" s="433"/>
-      <c r="N10" s="433"/>
+      <c r="G10" s="442"/>
+      <c r="H10" s="442"/>
+      <c r="I10" s="442"/>
+      <c r="J10" s="442"/>
+      <c r="K10" s="442"/>
+      <c r="L10" s="442"/>
+      <c r="M10" s="442"/>
+      <c r="N10" s="442"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="434"/>
-      <c r="G11" s="435"/>
-      <c r="H11" s="435"/>
-      <c r="I11" s="435"/>
-      <c r="J11" s="435"/>
-      <c r="K11" s="435"/>
-      <c r="L11" s="435"/>
-      <c r="M11" s="435"/>
-      <c r="N11" s="435"/>
+      <c r="F11" s="443"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="444"/>
+      <c r="I11" s="444"/>
+      <c r="J11" s="444"/>
+      <c r="K11" s="444"/>
+      <c r="L11" s="444"/>
+      <c r="M11" s="444"/>
+      <c r="N11" s="444"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -10299,8 +10299,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="430"/>
-      <c r="E23" s="431"/>
+      <c r="D23" s="439"/>
+      <c r="E23" s="440"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -18977,7 +18977,7 @@
       <c r="D62" s="36" t="s">
         <v>2403</v>
       </c>
-      <c r="G62" s="479" t="s">
+      <c r="G62" s="438" t="s">
         <v>2389</v>
       </c>
       <c r="K62" s="387"/>
@@ -19038,7 +19038,7 @@
       <c r="D68" s="36" t="s">
         <v>2404</v>
       </c>
-      <c r="G68" s="471" t="s">
+      <c r="G68" s="430" t="s">
         <v>2395</v>
       </c>
       <c r="H68" s="36" t="s">
@@ -19090,7 +19090,7 @@
       <c r="B73" s="36" t="s">
         <v>2410</v>
       </c>
-      <c r="G73" s="471" t="s">
+      <c r="G73" s="430" t="s">
         <v>2401</v>
       </c>
       <c r="H73" s="36" t="s">
@@ -19341,10 +19341,10 @@
       <c r="C93" s="138"/>
       <c r="D93" s="182"/>
       <c r="K93" s="387"/>
-      <c r="L93" s="476" t="s">
+      <c r="L93" s="435" t="s">
         <v>2467</v>
       </c>
-      <c r="M93" s="477"/>
+      <c r="M93" s="436"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="138"/>
@@ -19384,10 +19384,10 @@
       <c r="O95" s="120" t="s">
         <v>2464</v>
       </c>
-      <c r="P95" s="475" t="s">
+      <c r="P95" s="434" t="s">
         <v>2465</v>
       </c>
-      <c r="Q95" s="478" t="s">
+      <c r="Q95" s="437" t="s">
         <v>2468</v>
       </c>
     </row>
@@ -19427,7 +19427,7 @@
       <c r="E98" s="36" t="s">
         <v>2452</v>
       </c>
-      <c r="K98" s="474" t="s">
+      <c r="K98" s="433" t="s">
         <v>2457</v>
       </c>
       <c r="L98" s="138"/>
@@ -19483,8 +19483,8 @@
         <v>2432</v>
       </c>
       <c r="H106" s="77"/>
-      <c r="L106" s="473"/>
-      <c r="M106" s="472"/>
+      <c r="L106" s="432"/>
+      <c r="M106" s="431"/>
       <c r="N106" s="346"/>
     </row>
     <row r="107" spans="1:16">
@@ -20581,34 +20581,34 @@
       <c r="E10" t="s">
         <v>1861</v>
       </c>
-      <c r="G10" s="443" t="s">
+      <c r="G10" s="452" t="s">
         <v>1868</v>
       </c>
-      <c r="H10" s="444"/>
-      <c r="I10" s="445"/>
+      <c r="H10" s="453"/>
+      <c r="I10" s="454"/>
       <c r="K10" s="28" t="s">
         <v>1878</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="446"/>
-      <c r="H11" s="447"/>
-      <c r="I11" s="448"/>
+      <c r="G11" s="455"/>
+      <c r="H11" s="456"/>
+      <c r="I11" s="457"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="446"/>
-      <c r="H12" s="447"/>
-      <c r="I12" s="448"/>
+      <c r="G12" s="455"/>
+      <c r="H12" s="456"/>
+      <c r="I12" s="457"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="449"/>
-      <c r="H13" s="450"/>
-      <c r="I13" s="451"/>
+      <c r="G13" s="458"/>
+      <c r="H13" s="459"/>
+      <c r="I13" s="460"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
@@ -21537,7 +21537,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="278"/>
-      <c r="L3" s="457" t="s">
+      <c r="L3" s="466" t="s">
         <v>1485</v>
       </c>
       <c r="M3" s="170"/>
@@ -21559,7 +21559,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="458"/>
+      <c r="L4" s="467"/>
       <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21579,12 +21579,12 @@
       <c r="K5" s="279" t="s">
         <v>1484</v>
       </c>
-      <c r="L5" s="458"/>
+      <c r="L5" s="467"/>
       <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="187"/>
-      <c r="L6" s="458"/>
+      <c r="L6" s="467"/>
       <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13">
@@ -21597,7 +21597,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="278"/>
-      <c r="L7" s="458"/>
+      <c r="L7" s="467"/>
       <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13">
@@ -21615,7 +21615,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="458"/>
+      <c r="L8" s="467"/>
       <c r="M8" s="170"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21629,7 +21629,7 @@
       <c r="K9" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="458"/>
+      <c r="L9" s="467"/>
       <c r="M9" s="170"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21637,7 +21637,7 @@
         <v>1468</v>
       </c>
       <c r="F10" s="187"/>
-      <c r="L10" s="458"/>
+      <c r="L10" s="467"/>
       <c r="M10" s="170"/>
     </row>
     <row r="11" spans="1:13">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="278"/>
-      <c r="L11" s="458"/>
+      <c r="L11" s="467"/>
       <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13">
@@ -21664,7 +21664,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="458"/>
+      <c r="L12" s="467"/>
       <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21681,7 +21681,7 @@
       <c r="K13" s="262" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="459"/>
+      <c r="L13" s="468"/>
       <c r="M13" s="170"/>
     </row>
     <row r="14" spans="1:13">
@@ -21703,10 +21703,10 @@
       <c r="D15" s="257"/>
       <c r="E15" s="257"/>
       <c r="F15" s="187"/>
-      <c r="J15" s="452" t="s">
+      <c r="J15" s="461" t="s">
         <v>1474</v>
       </c>
-      <c r="K15" s="452"/>
+      <c r="K15" s="461"/>
       <c r="L15" s="69" t="s">
         <v>536</v>
       </c>
@@ -21726,8 +21726,8 @@
       <c r="G16" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="J16" s="452"/>
-      <c r="K16" s="452"/>
+      <c r="J16" s="461"/>
+      <c r="K16" s="461"/>
       <c r="L16" s="69" t="s">
         <v>50</v>
       </c>
@@ -21805,48 +21805,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="454"/>
+      <c r="K22" s="462"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="453"/>
+      <c r="K23" s="463"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="453"/>
+      <c r="K24" s="463"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="453"/>
+      <c r="K25" s="463"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="453"/>
+      <c r="K26" s="463"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="453"/>
+      <c r="K27" s="463"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="453"/>
+      <c r="K28" s="463"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="453"/>
+      <c r="K29" s="463"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="453"/>
+      <c r="K30" s="463"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="453"/>
+      <c r="K31" s="463"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="453"/>
+      <c r="K32" s="463"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="275"/>
@@ -30330,18 +30330,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="461" t="s">
+      <c r="B8" s="470" t="s">
         <v>1616</v>
       </c>
-      <c r="C8" s="461"/>
-      <c r="F8" s="461" t="s">
+      <c r="C8" s="470"/>
+      <c r="F8" s="470" t="s">
         <v>1617</v>
       </c>
-      <c r="G8" s="461"/>
-      <c r="I8" s="461" t="s">
+      <c r="G8" s="470"/>
+      <c r="I8" s="470" t="s">
         <v>1617</v>
       </c>
-      <c r="J8" s="461"/>
+      <c r="J8" s="470"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="R8" t="b">
@@ -30364,18 +30364,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="462" t="s">
+      <c r="F9" s="471" t="s">
         <v>1618</v>
       </c>
-      <c r="G9" s="462"/>
-      <c r="I9" s="462" t="s">
+      <c r="G9" s="471"/>
+      <c r="I9" s="471" t="s">
         <v>1254</v>
       </c>
-      <c r="J9" s="462"/>
-      <c r="M9" s="463" t="s">
+      <c r="J9" s="471"/>
+      <c r="M9" s="472" t="s">
         <v>1617</v>
       </c>
-      <c r="N9" s="463"/>
+      <c r="N9" s="472"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30423,19 +30423,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="460" t="s">
+      <c r="E11" s="469" t="s">
         <v>1620</v>
       </c>
-      <c r="F11" s="460"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="460"/>
-      <c r="I11" s="460"/>
-      <c r="J11" s="460"/>
-      <c r="K11" s="460"/>
-      <c r="L11" s="460"/>
-      <c r="M11" s="460"/>
-      <c r="N11" s="460"/>
-      <c r="O11" s="460"/>
+      <c r="F11" s="469"/>
+      <c r="G11" s="469"/>
+      <c r="H11" s="469"/>
+      <c r="I11" s="469"/>
+      <c r="J11" s="469"/>
+      <c r="K11" s="469"/>
+      <c r="L11" s="469"/>
+      <c r="M11" s="469"/>
+      <c r="N11" s="469"/>
+      <c r="O11" s="469"/>
       <c r="R11" t="s">
         <v>1851</v>
       </c>
@@ -33982,10 +33982,10 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="430" t="s">
+      <c r="C241" s="439" t="s">
         <v>1644</v>
       </c>
-      <c r="D241" s="430"/>
+      <c r="D241" s="439"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -34524,10 +34524,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21">
-      <c r="C2" s="464" t="s">
+      <c r="C2" s="473" t="s">
         <v>1317</v>
       </c>
-      <c r="D2" s="464"/>
+      <c r="D2" s="473"/>
       <c r="F2" s="25" t="s">
         <v>2131</v>
       </c>
@@ -38210,10 +38210,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="465" t="s">
+      <c r="B1" s="474" t="s">
         <v>1317</v>
       </c>
-      <c r="C1" s="465"/>
+      <c r="C1" s="474"/>
       <c r="E1" t="s">
         <v>1318</v>
       </c>
@@ -39635,18 +39635,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="466" t="s">
+      <c r="B3" s="475" t="s">
         <v>1342</v>
       </c>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="467"/>
-      <c r="J3" s="467"/>
-      <c r="K3" s="468"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="476"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="477"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -39761,24 +39761,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="469" t="s">
+      <c r="B15" s="478" t="s">
         <v>1343</v>
       </c>
-      <c r="C15" s="470"/>
-      <c r="D15" s="470"/>
-      <c r="E15" s="470"/>
-      <c r="F15" s="470"/>
-      <c r="G15" s="470"/>
-      <c r="H15" s="470"/>
-      <c r="I15" s="470"/>
-      <c r="J15" s="470"/>
-      <c r="K15" s="470"/>
-      <c r="L15" s="470"/>
-      <c r="M15" s="470"/>
-      <c r="N15" s="470"/>
-      <c r="O15" s="470"/>
-      <c r="P15" s="470"/>
-      <c r="Q15" s="470"/>
+      <c r="C15" s="479"/>
+      <c r="D15" s="479"/>
+      <c r="E15" s="479"/>
+      <c r="F15" s="479"/>
+      <c r="G15" s="479"/>
+      <c r="H15" s="479"/>
+      <c r="I15" s="479"/>
+      <c r="J15" s="479"/>
+      <c r="K15" s="479"/>
+      <c r="L15" s="479"/>
+      <c r="M15" s="479"/>
+      <c r="N15" s="479"/>
+      <c r="O15" s="479"/>
+      <c r="P15" s="479"/>
+      <c r="Q15" s="479"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -40780,75 +40780,80 @@
       <c r="M214" s="366"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="452"/>
-      <c r="E223" s="452"/>
+      <c r="D223" s="461"/>
+      <c r="E223" s="461"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="452"/>
-      <c r="E227" s="452"/>
-      <c r="G227" s="452"/>
-      <c r="H227" s="452"/>
-      <c r="J227" s="452"/>
-      <c r="K227" s="452"/>
+      <c r="D227" s="461"/>
+      <c r="E227" s="461"/>
+      <c r="G227" s="461"/>
+      <c r="H227" s="461"/>
+      <c r="J227" s="461"/>
+      <c r="K227" s="461"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="453"/>
+      <c r="D273" s="463"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="453"/>
+      <c r="D274" s="463"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="453"/>
+      <c r="D275" s="463"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="453"/>
+      <c r="D276" s="463"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="453"/>
+      <c r="D277" s="463"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="453"/>
+      <c r="D278" s="463"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="454"/>
-      <c r="C287" s="452"/>
-      <c r="D287" s="452"/>
+      <c r="B287" s="462"/>
+      <c r="C287" s="461"/>
+      <c r="D287" s="461"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="453"/>
-      <c r="I288" s="454"/>
+      <c r="B288" s="463"/>
+      <c r="I288" s="462"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="453"/>
-      <c r="I289" s="453"/>
-      <c r="N289" s="454"/>
+      <c r="B289" s="463"/>
+      <c r="I289" s="463"/>
+      <c r="N289" s="462"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="453"/>
-      <c r="F290" s="452"/>
-      <c r="G290" s="452"/>
-      <c r="H290" s="452"/>
-      <c r="I290" s="453"/>
-      <c r="N290" s="453"/>
+      <c r="B290" s="463"/>
+      <c r="F290" s="461"/>
+      <c r="G290" s="461"/>
+      <c r="H290" s="461"/>
+      <c r="I290" s="463"/>
+      <c r="N290" s="463"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="453"/>
-      <c r="C291" s="452"/>
-      <c r="D291" s="452"/>
-      <c r="I291" s="453"/>
-      <c r="K291" s="452"/>
-      <c r="L291" s="452"/>
-      <c r="M291" s="452"/>
-      <c r="N291" s="453"/>
+      <c r="B291" s="463"/>
+      <c r="C291" s="461"/>
+      <c r="D291" s="461"/>
+      <c r="I291" s="463"/>
+      <c r="K291" s="461"/>
+      <c r="L291" s="461"/>
+      <c r="M291" s="461"/>
+      <c r="N291" s="463"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="453"/>
+      <c r="N292" s="463"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -40856,11 +40861,6 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43602,23 +43602,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="465" t="s">
         <v>1099</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="I1" s="456" t="s">
+      <c r="B1" s="465"/>
+      <c r="C1" s="465"/>
+      <c r="D1" s="465"/>
+      <c r="E1" s="465"/>
+      <c r="F1" s="465"/>
+      <c r="I1" s="465" t="s">
         <v>1109</v>
       </c>
-      <c r="J1" s="456"/>
-      <c r="K1" s="456"/>
-      <c r="L1" s="456"/>
-      <c r="M1" s="456"/>
-      <c r="N1" s="456"/>
-      <c r="O1" s="456"/>
+      <c r="J1" s="465"/>
+      <c r="K1" s="465"/>
+      <c r="L1" s="465"/>
+      <c r="M1" s="465"/>
+      <c r="N1" s="465"/>
+      <c r="O1" s="465"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -43768,28 +43768,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="439" t="s">
+      <c r="A12" s="448" t="s">
         <v>1111</v>
       </c>
-      <c r="B12" s="455"/>
-      <c r="C12" s="455"/>
-      <c r="D12" s="455"/>
-      <c r="E12" s="455"/>
-      <c r="F12" s="455"/>
-      <c r="G12" s="455"/>
-      <c r="H12" s="440"/>
-      <c r="I12" s="439" t="s">
+      <c r="B12" s="464"/>
+      <c r="C12" s="464"/>
+      <c r="D12" s="464"/>
+      <c r="E12" s="464"/>
+      <c r="F12" s="464"/>
+      <c r="G12" s="464"/>
+      <c r="H12" s="449"/>
+      <c r="I12" s="448" t="s">
         <v>1111</v>
       </c>
-      <c r="J12" s="455"/>
-      <c r="K12" s="455"/>
-      <c r="L12" s="455"/>
-      <c r="M12" s="455"/>
-      <c r="N12" s="455"/>
-      <c r="O12" s="455"/>
-      <c r="P12" s="455"/>
-      <c r="Q12" s="455"/>
-      <c r="R12" s="440"/>
+      <c r="J12" s="464"/>
+      <c r="K12" s="464"/>
+      <c r="L12" s="464"/>
+      <c r="M12" s="464"/>
+      <c r="N12" s="464"/>
+      <c r="O12" s="464"/>
+      <c r="P12" s="464"/>
+      <c r="Q12" s="464"/>
+      <c r="R12" s="449"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -44017,14 +44017,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="456" t="s">
+      <c r="A24" s="465" t="s">
         <v>1099</v>
       </c>
-      <c r="B24" s="456"/>
-      <c r="C24" s="456"/>
-      <c r="D24" s="456"/>
-      <c r="E24" s="456"/>
-      <c r="F24" s="456"/>
+      <c r="B24" s="465"/>
+      <c r="C24" s="465"/>
+      <c r="D24" s="465"/>
+      <c r="E24" s="465"/>
+      <c r="F24" s="465"/>
       <c r="H24" s="195" t="s">
         <v>1109</v>
       </c>
@@ -44034,11 +44034,11 @@
       <c r="L24" s="195"/>
       <c r="M24" s="195"/>
       <c r="N24" s="195"/>
-      <c r="P24" s="456" t="s">
+      <c r="P24" s="465" t="s">
         <v>1147</v>
       </c>
-      <c r="Q24" s="456"/>
-      <c r="R24" s="456"/>
+      <c r="Q24" s="465"/>
+      <c r="R24" s="465"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -44278,28 +44278,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="439" t="s">
+      <c r="A35" s="448" t="s">
         <v>1148</v>
       </c>
-      <c r="B35" s="455"/>
-      <c r="C35" s="455"/>
-      <c r="D35" s="455"/>
-      <c r="E35" s="455"/>
-      <c r="F35" s="455"/>
-      <c r="G35" s="455"/>
-      <c r="H35" s="440"/>
-      <c r="I35" s="439" t="s">
+      <c r="B35" s="464"/>
+      <c r="C35" s="464"/>
+      <c r="D35" s="464"/>
+      <c r="E35" s="464"/>
+      <c r="F35" s="464"/>
+      <c r="G35" s="464"/>
+      <c r="H35" s="449"/>
+      <c r="I35" s="448" t="s">
         <v>540</v>
       </c>
-      <c r="J35" s="455"/>
-      <c r="K35" s="455"/>
-      <c r="L35" s="455"/>
-      <c r="M35" s="455"/>
-      <c r="N35" s="455"/>
-      <c r="O35" s="455"/>
-      <c r="P35" s="455"/>
-      <c r="Q35" s="455"/>
-      <c r="R35" s="440"/>
+      <c r="J35" s="464"/>
+      <c r="K35" s="464"/>
+      <c r="L35" s="464"/>
+      <c r="M35" s="464"/>
+      <c r="N35" s="464"/>
+      <c r="O35" s="464"/>
+      <c r="P35" s="464"/>
+      <c r="Q35" s="464"/>
+      <c r="R35" s="449"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" firstSheet="19" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,21 @@
     <sheet name="null pointer" sheetId="34" r:id="rId25"/>
     <sheet name="exception_handling" sheetId="22" r:id="rId26"/>
     <sheet name="threads" sheetId="23" r:id="rId27"/>
-    <sheet name="collection" sheetId="24" r:id="rId28"/>
-    <sheet name="collection2" sheetId="25" r:id="rId29"/>
-    <sheet name="col-unique" sheetId="26" r:id="rId30"/>
-    <sheet name="file" sheetId="27" r:id="rId31"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId32"/>
-    <sheet name="Sheet2" sheetId="30" r:id="rId33"/>
-    <sheet name="Sheet3" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet5" sheetId="35" r:id="rId28"/>
+    <sheet name="collection" sheetId="24" r:id="rId29"/>
+    <sheet name="collection2" sheetId="25" r:id="rId30"/>
+    <sheet name="col-unique" sheetId="26" r:id="rId31"/>
+    <sheet name="file" sheetId="27" r:id="rId32"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId33"/>
+    <sheet name="Sheet2" sheetId="30" r:id="rId34"/>
+    <sheet name="Sheet3" sheetId="31" r:id="rId35"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="2535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="2574">
   <si>
     <t>USER</t>
   </si>
@@ -8023,6 +8024,123 @@
   </si>
   <si>
     <t>ohn</t>
+  </si>
+  <si>
+    <t>product p2=new product();</t>
+  </si>
+  <si>
+    <t>product p;</t>
+  </si>
+  <si>
+    <t>p2=#abc</t>
+  </si>
+  <si>
+    <t>p=null</t>
+  </si>
+  <si>
+    <t>name[1]="john";</t>
+  </si>
+  <si>
+    <t>name[3]="jane";</t>
+  </si>
+  <si>
+    <t>Vector&lt;String&gt; names=new Vector&lt;String&gt;();</t>
+  </si>
+  <si>
+    <t>names.add(25);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upon exceeding current size.. </t>
+  </si>
+  <si>
+    <t>coll will transfer all data into new array double the size</t>
+  </si>
+  <si>
+    <t>names.add("andy");</t>
+  </si>
+  <si>
+    <t>sysout( names.get(2) );</t>
+  </si>
+  <si>
+    <t>names.add(1,"ron");</t>
+  </si>
+  <si>
+    <t>polymorphism</t>
+  </si>
+  <si>
+    <t>RACE CONDITION</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>1 billion</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>rom</t>
+  </si>
+  <si>
+    <t>FacebookCustomer</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.remove("ron");</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.add(2,"charlie");</t>
+  </si>
+  <si>
+    <t>realign all billion names</t>
+  </si>
+  <si>
+    <t>1 level up</t>
+  </si>
+  <si>
+    <t>charlie</t>
+  </si>
+  <si>
+    <t>realign all billions names</t>
+  </si>
+  <si>
+    <t>1 level down</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.add("john");</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.add("jane");</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.add("mike");</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.remove("jane");</t>
+  </si>
+  <si>
+    <t>Facebookcustomer.add("charlie",1);</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.get(3);</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.next.next.next.next</t>
+  </si>
+  <si>
+    <t>#bb</t>
+  </si>
+  <si>
+    <t>FacebookCustomer.next.next.next</t>
   </si>
 </sst>
 </file>
@@ -8741,7 +8859,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9572,6 +9690,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9639,10 +9775,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9690,18 +9826,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10058,13 +10185,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="453" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="448"/>
-      <c r="J3" s="448"/>
-      <c r="K3" s="448"/>
-      <c r="L3" s="449"/>
+      <c r="I3" s="454"/>
+      <c r="J3" s="454"/>
+      <c r="K3" s="454"/>
+      <c r="L3" s="455"/>
       <c r="Q3" t="s">
         <v>2092</v>
       </c>
@@ -10096,20 +10223,20 @@
       <c r="F6" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="G6" s="450" t="s">
+      <c r="G6" s="456" t="s">
         <v>1178</v>
       </c>
-      <c r="H6" s="451"/>
+      <c r="H6" s="457"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="450" t="s">
+      <c r="J6" s="456" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="451"/>
+      <c r="K6" s="457"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="450" t="s">
+      <c r="M6" s="456" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="451"/>
+      <c r="N6" s="457"/>
       <c r="P6" t="s">
         <v>2084</v>
       </c>
@@ -10143,20 +10270,20 @@
       <c r="F8" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="G8" s="452" t="s">
+      <c r="G8" s="458" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="453"/>
+      <c r="H8" s="459"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="452" t="s">
+      <c r="J8" s="458" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="453"/>
+      <c r="K8" s="459"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="452" t="s">
+      <c r="M8" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="453"/>
+      <c r="N8" s="459"/>
       <c r="P8" t="s">
         <v>2086</v>
       </c>
@@ -10182,29 +10309,29 @@
       <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="443" t="s">
+      <c r="F10" s="449" t="s">
         <v>1672</v>
       </c>
-      <c r="G10" s="444"/>
-      <c r="H10" s="444"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="444"/>
-      <c r="K10" s="444"/>
-      <c r="L10" s="444"/>
-      <c r="M10" s="444"/>
-      <c r="N10" s="444"/>
+      <c r="G10" s="450"/>
+      <c r="H10" s="450"/>
+      <c r="I10" s="450"/>
+      <c r="J10" s="450"/>
+      <c r="K10" s="450"/>
+      <c r="L10" s="450"/>
+      <c r="M10" s="450"/>
+      <c r="N10" s="450"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="445"/>
-      <c r="G11" s="446"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="446"/>
-      <c r="K11" s="446"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="446"/>
-      <c r="N11" s="446"/>
+      <c r="F11" s="451"/>
+      <c r="G11" s="452"/>
+      <c r="H11" s="452"/>
+      <c r="I11" s="452"/>
+      <c r="J11" s="452"/>
+      <c r="K11" s="452"/>
+      <c r="L11" s="452"/>
+      <c r="M11" s="452"/>
+      <c r="N11" s="452"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -10452,8 +10579,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="441"/>
-      <c r="E23" s="442"/>
+      <c r="D23" s="447"/>
+      <c r="E23" s="448"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -20734,34 +20861,34 @@
       <c r="E10" t="s">
         <v>1846</v>
       </c>
-      <c r="G10" s="454" t="s">
+      <c r="G10" s="460" t="s">
         <v>1853</v>
       </c>
-      <c r="H10" s="455"/>
-      <c r="I10" s="456"/>
+      <c r="H10" s="461"/>
+      <c r="I10" s="462"/>
       <c r="K10" s="28" t="s">
         <v>1863</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="457"/>
-      <c r="H11" s="458"/>
-      <c r="I11" s="459"/>
+      <c r="G11" s="463"/>
+      <c r="H11" s="464"/>
+      <c r="I11" s="465"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="457"/>
-      <c r="H12" s="458"/>
-      <c r="I12" s="459"/>
+      <c r="G12" s="463"/>
+      <c r="H12" s="464"/>
+      <c r="I12" s="465"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="460"/>
-      <c r="H13" s="461"/>
-      <c r="I13" s="462"/>
+      <c r="G13" s="466"/>
+      <c r="H13" s="467"/>
+      <c r="I13" s="468"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
@@ -21690,7 +21817,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="278"/>
-      <c r="L3" s="468" t="s">
+      <c r="L3" s="474" t="s">
         <v>1485</v>
       </c>
       <c r="M3" s="170"/>
@@ -21712,7 +21839,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="469"/>
+      <c r="L4" s="475"/>
       <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21732,12 +21859,12 @@
       <c r="K5" s="279" t="s">
         <v>1484</v>
       </c>
-      <c r="L5" s="469"/>
+      <c r="L5" s="475"/>
       <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="187"/>
-      <c r="L6" s="469"/>
+      <c r="L6" s="475"/>
       <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13">
@@ -21750,7 +21877,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="278"/>
-      <c r="L7" s="469"/>
+      <c r="L7" s="475"/>
       <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13">
@@ -21768,7 +21895,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="469"/>
+      <c r="L8" s="475"/>
       <c r="M8" s="170"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21782,7 +21909,7 @@
       <c r="K9" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="469"/>
+      <c r="L9" s="475"/>
       <c r="M9" s="170"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21790,7 +21917,7 @@
         <v>1468</v>
       </c>
       <c r="F10" s="187"/>
-      <c r="L10" s="469"/>
+      <c r="L10" s="475"/>
       <c r="M10" s="170"/>
     </row>
     <row r="11" spans="1:13">
@@ -21803,7 +21930,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="278"/>
-      <c r="L11" s="469"/>
+      <c r="L11" s="475"/>
       <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13">
@@ -21817,7 +21944,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="469"/>
+      <c r="L12" s="475"/>
       <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21834,7 +21961,7 @@
       <c r="K13" s="262" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="470"/>
+      <c r="L13" s="476"/>
       <c r="M13" s="170"/>
     </row>
     <row r="14" spans="1:13">
@@ -21856,10 +21983,10 @@
       <c r="D15" s="257"/>
       <c r="E15" s="257"/>
       <c r="F15" s="187"/>
-      <c r="J15" s="463" t="s">
+      <c r="J15" s="469" t="s">
         <v>1474</v>
       </c>
-      <c r="K15" s="463"/>
+      <c r="K15" s="469"/>
       <c r="L15" s="69" t="s">
         <v>536</v>
       </c>
@@ -21879,8 +22006,8 @@
       <c r="G16" s="96" t="s">
         <v>1476</v>
       </c>
-      <c r="J16" s="463"/>
-      <c r="K16" s="463"/>
+      <c r="J16" s="469"/>
+      <c r="K16" s="469"/>
       <c r="L16" s="69" t="s">
         <v>50</v>
       </c>
@@ -21958,48 +22085,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="464"/>
+      <c r="K22" s="471"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="465"/>
+      <c r="K23" s="470"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="465"/>
+      <c r="K24" s="470"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="465"/>
+      <c r="K25" s="470"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="465"/>
+      <c r="K26" s="470"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="465"/>
+      <c r="K27" s="470"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="465"/>
+      <c r="K28" s="470"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="465"/>
+      <c r="K29" s="470"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="465"/>
+      <c r="K30" s="470"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="465"/>
+      <c r="K31" s="470"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="465"/>
+      <c r="K32" s="470"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="275"/>
@@ -24192,8 +24319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J93" sqref="I93:J94"/>
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25029,7 +25156,9 @@
     <row r="62" spans="1:14">
       <c r="C62" s="96"/>
       <c r="D62" s="440"/>
-      <c r="E62" s="440"/>
+      <c r="E62" s="442" t="s">
+        <v>2549</v>
+      </c>
       <c r="F62" s="440"/>
       <c r="G62" s="440"/>
       <c r="H62" s="440"/>
@@ -25071,20 +25200,20 @@
     </row>
     <row r="67" spans="1:11">
       <c r="D67" s="440"/>
-      <c r="E67" s="482"/>
+      <c r="E67" s="443"/>
       <c r="F67" s="440"/>
-      <c r="G67" s="482"/>
-      <c r="I67" s="482"/>
+      <c r="G67" s="443"/>
+      <c r="I67" s="443"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="317"/>
-      <c r="E68" s="483" t="s">
+      <c r="E68" s="444" t="s">
         <v>2503</v>
       </c>
-      <c r="G68" s="483" t="s">
+      <c r="G68" s="444" t="s">
         <v>2504</v>
       </c>
-      <c r="I68" s="483" t="s">
+      <c r="I68" s="444" t="s">
         <v>2505</v>
       </c>
     </row>
@@ -25135,19 +25264,19 @@
     <row r="76" spans="1:11">
       <c r="A76" s="252"/>
       <c r="D76" s="440"/>
-      <c r="E76" s="482"/>
+      <c r="E76" s="443"/>
       <c r="F76" s="440"/>
-      <c r="G76" s="482"/>
-      <c r="I76" s="482"/>
+      <c r="G76" s="443"/>
+      <c r="I76" s="443"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="E77" s="483" t="s">
+      <c r="E77" s="444" t="s">
         <v>2503</v>
       </c>
-      <c r="G77" s="483" t="s">
+      <c r="G77" s="444" t="s">
         <v>2504</v>
       </c>
-      <c r="I77" s="483" t="s">
+      <c r="I77" s="444" t="s">
         <v>2505</v>
       </c>
     </row>
@@ -25194,7 +25323,7 @@
       <c r="C85" s="250"/>
       <c r="D85" s="250"/>
       <c r="E85" s="250"/>
-      <c r="F85" s="484" t="s">
+      <c r="F85" s="445" t="s">
         <v>32</v>
       </c>
       <c r="G85" s="250" t="s">
@@ -25356,7 +25485,7 @@
       <c r="E97" s="440">
         <v>-1</v>
       </c>
-      <c r="F97" s="485" t="s">
+      <c r="F97" s="446" t="s">
         <v>2519</v>
       </c>
       <c r="G97" s="80"/>
@@ -30530,10 +30659,744 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D4" s="441">
+        <v>0</v>
+      </c>
+      <c r="E4" s="488"/>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="287" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="D5" s="441">
+        <v>1</v>
+      </c>
+      <c r="E5" s="488" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="287" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="441">
+        <v>2</v>
+      </c>
+      <c r="E6" s="488"/>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="D7" s="441">
+        <v>3</v>
+      </c>
+      <c r="E7" s="488" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="441">
+        <v>4</v>
+      </c>
+      <c r="E8" s="488"/>
+      <c r="I8" s="52" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="I9" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" t="s">
+        <v>2540</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2545</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="I12" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="I13" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="G14" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="F19" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2558</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13">
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>2553</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2559</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13">
+      <c r="E28" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>2554</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13">
+      <c r="E29" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13">
+      <c r="E30" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="D33" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2566</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="E36" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="D37" t="s">
+        <v>859</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>635</v>
+      </c>
+      <c r="H37" t="s">
+        <v>859</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J37" t="s">
+        <v>635</v>
+      </c>
+      <c r="L37" t="s">
+        <v>859</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N37" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H38" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="E44" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="G46" t="s">
+        <v>2570</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="B49" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="52"/>
+      <c r="J49" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="N49" s="39" t="s">
+        <v>815</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>859</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s">
+        <v>635</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>859</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>635</v>
+      </c>
+      <c r="I50" t="s">
+        <v>859</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K50" t="s">
+        <v>635</v>
+      </c>
+      <c r="M50" t="s">
+        <v>859</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O50" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>859</v>
+      </c>
+      <c r="R50" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S50" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2572</v>
+      </c>
+      <c r="M51" t="s">
+        <v>133</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="S51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="E57" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="489"/>
+      <c r="B58" s="489"/>
+      <c r="C58" s="489"/>
+      <c r="D58" s="489"/>
+      <c r="E58" s="489"/>
+      <c r="F58" s="489"/>
+      <c r="G58" s="489"/>
+      <c r="H58" s="489"/>
+      <c r="I58" s="489"/>
+      <c r="J58" s="489"/>
+      <c r="K58" s="489"/>
+      <c r="L58" s="489"/>
+      <c r="M58" s="489"/>
+      <c r="N58" s="489"/>
+      <c r="O58" s="489"/>
+      <c r="P58" s="489"/>
+      <c r="Q58" s="489"/>
+      <c r="R58" s="489"/>
+      <c r="S58" s="489"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="489"/>
+      <c r="B59" s="489"/>
+      <c r="C59" s="489"/>
+      <c r="D59" s="489"/>
+      <c r="E59" s="489"/>
+      <c r="F59" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G59" s="489"/>
+      <c r="H59" s="489"/>
+      <c r="I59" s="489"/>
+      <c r="J59" s="489" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K59" s="489"/>
+      <c r="L59" s="489"/>
+      <c r="M59" s="489"/>
+      <c r="N59" s="489" t="s">
+        <v>199</v>
+      </c>
+      <c r="O59" s="489"/>
+      <c r="P59" s="489"/>
+      <c r="Q59" s="489"/>
+      <c r="R59" s="489"/>
+      <c r="S59" s="489"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="489"/>
+      <c r="B60" s="489"/>
+      <c r="C60" s="489"/>
+      <c r="D60" s="489"/>
+      <c r="E60" s="489"/>
+      <c r="F60" s="489"/>
+      <c r="G60" s="489"/>
+      <c r="H60" s="489"/>
+      <c r="I60" s="489"/>
+      <c r="J60" s="489"/>
+      <c r="K60" s="489"/>
+      <c r="L60" s="489"/>
+      <c r="M60" s="489"/>
+      <c r="N60" s="489"/>
+      <c r="O60" s="489"/>
+      <c r="P60" s="489"/>
+      <c r="Q60" s="489"/>
+      <c r="R60" s="489"/>
+      <c r="S60" s="489"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="489"/>
+      <c r="B61" s="490" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="489"/>
+      <c r="D61" s="489"/>
+      <c r="E61" s="489"/>
+      <c r="F61" s="490" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="489"/>
+      <c r="H61" s="489"/>
+      <c r="I61" s="489"/>
+      <c r="J61" s="490" t="s">
+        <v>199</v>
+      </c>
+      <c r="K61" s="489"/>
+      <c r="L61" s="489"/>
+      <c r="M61" s="489"/>
+      <c r="N61" s="490" t="s">
+        <v>815</v>
+      </c>
+      <c r="O61" s="489"/>
+      <c r="P61" s="489"/>
+      <c r="Q61" s="489"/>
+      <c r="R61" s="490" t="s">
+        <v>1628</v>
+      </c>
+      <c r="S61" s="489"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="489" t="s">
+        <v>859</v>
+      </c>
+      <c r="B62" s="489" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="489" t="s">
+        <v>635</v>
+      </c>
+      <c r="D62" s="489"/>
+      <c r="E62" s="489" t="s">
+        <v>859</v>
+      </c>
+      <c r="F62" s="489" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G62" s="489" t="s">
+        <v>635</v>
+      </c>
+      <c r="H62" s="489"/>
+      <c r="I62" s="489" t="s">
+        <v>859</v>
+      </c>
+      <c r="J62" s="489" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K62" s="489" t="s">
+        <v>635</v>
+      </c>
+      <c r="L62" s="489"/>
+      <c r="M62" s="489" t="s">
+        <v>859</v>
+      </c>
+      <c r="N62" s="489" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O62" s="489" t="s">
+        <v>635</v>
+      </c>
+      <c r="P62" s="489"/>
+      <c r="Q62" s="489" t="s">
+        <v>859</v>
+      </c>
+      <c r="R62" s="489" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S62" s="489" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="489" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="489"/>
+      <c r="C63" s="149" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D63" s="489"/>
+      <c r="E63" s="149" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F63" s="489"/>
+      <c r="G63" s="489" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H63" s="489"/>
+      <c r="I63" s="489" t="s">
+        <v>133</v>
+      </c>
+      <c r="J63" s="489"/>
+      <c r="K63" s="489" t="s">
+        <v>134</v>
+      </c>
+      <c r="L63" s="489"/>
+      <c r="M63" s="489" t="s">
+        <v>133</v>
+      </c>
+      <c r="N63" s="489"/>
+      <c r="O63" s="489" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P63" s="489"/>
+      <c r="Q63" s="489" t="s">
+        <v>1023</v>
+      </c>
+      <c r="R63" s="489"/>
+      <c r="S63" s="489" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="489"/>
+      <c r="B64" s="489"/>
+      <c r="C64" s="489"/>
+      <c r="D64" s="489"/>
+      <c r="E64" s="489"/>
+      <c r="F64" s="489"/>
+      <c r="G64" s="489"/>
+      <c r="H64" s="489"/>
+      <c r="I64" s="489"/>
+      <c r="J64" s="489"/>
+      <c r="K64" s="489"/>
+      <c r="L64" s="489"/>
+      <c r="M64" s="489"/>
+      <c r="N64" s="489"/>
+      <c r="O64" s="489"/>
+      <c r="P64" s="489"/>
+      <c r="Q64" s="489"/>
+      <c r="R64" s="489"/>
+      <c r="S64" s="489"/>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="489"/>
+      <c r="D66" s="490" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E66" s="489"/>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="489" t="s">
+        <v>859</v>
+      </c>
+      <c r="D67" s="489" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E67" s="489" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="489"/>
+      <c r="E68" s="149" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP286"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M6" sqref="M1:N6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30612,7 +31475,7 @@
         <v>42</v>
       </c>
       <c r="N2" s="213" t="s">
-        <v>1831</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
         <v>1832</v>
@@ -30654,10 +31517,10 @@
       </c>
       <c r="K3" s="39"/>
       <c r="M3" s="213" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N3" s="213" t="s">
         <v>132</v>
-      </c>
-      <c r="N3" s="213">
-        <v>60</v>
       </c>
       <c r="Q3" t="s">
         <v>1832</v>
@@ -30702,10 +31565,10 @@
       </c>
       <c r="K4" s="39"/>
       <c r="M4" s="213" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N4" s="213" t="s">
         <v>164</v>
-      </c>
-      <c r="N4" s="213">
-        <v>70</v>
       </c>
       <c r="Q4" t="s">
         <v>1833</v>
@@ -30753,10 +31616,10 @@
       </c>
       <c r="K5" s="39"/>
       <c r="M5" s="213" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" s="213">
-        <v>25</v>
+        <v>1236</v>
+      </c>
+      <c r="N5" s="213" t="s">
+        <v>537</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -30796,10 +31659,10 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="M6" s="213" t="s">
-        <v>537</v>
+        <v>132</v>
       </c>
       <c r="N6" s="213">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
         <v>1834</v>
@@ -30838,18 +31701,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="472" t="s">
+      <c r="B8" s="478" t="s">
         <v>1614</v>
       </c>
-      <c r="C8" s="472"/>
-      <c r="F8" s="472" t="s">
+      <c r="C8" s="478"/>
+      <c r="F8" s="478" t="s">
         <v>1615</v>
       </c>
-      <c r="G8" s="472"/>
-      <c r="I8" s="472" t="s">
+      <c r="G8" s="478"/>
+      <c r="I8" s="478" t="s">
         <v>1615</v>
       </c>
-      <c r="J8" s="472"/>
+      <c r="J8" s="478"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="R8" t="b">
@@ -30872,18 +31735,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="473" t="s">
+      <c r="F9" s="479" t="s">
         <v>1616</v>
       </c>
-      <c r="G9" s="473"/>
-      <c r="I9" s="473" t="s">
+      <c r="G9" s="479"/>
+      <c r="I9" s="479" t="s">
         <v>1254</v>
       </c>
-      <c r="J9" s="473"/>
-      <c r="M9" s="474" t="s">
+      <c r="J9" s="479"/>
+      <c r="M9" s="480" t="s">
         <v>1615</v>
       </c>
-      <c r="N9" s="474"/>
+      <c r="N9" s="480"/>
       <c r="AA9">
         <v>1000000</v>
       </c>
@@ -30931,19 +31794,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="471" t="s">
+      <c r="E11" s="477" t="s">
         <v>1618</v>
       </c>
-      <c r="F11" s="471"/>
-      <c r="G11" s="471"/>
-      <c r="H11" s="471"/>
-      <c r="I11" s="471"/>
-      <c r="J11" s="471"/>
-      <c r="K11" s="471"/>
-      <c r="L11" s="471"/>
-      <c r="M11" s="471"/>
-      <c r="N11" s="471"/>
-      <c r="O11" s="471"/>
+      <c r="F11" s="477"/>
+      <c r="G11" s="477"/>
+      <c r="H11" s="477"/>
+      <c r="I11" s="477"/>
+      <c r="J11" s="477"/>
+      <c r="K11" s="477"/>
+      <c r="L11" s="477"/>
+      <c r="M11" s="477"/>
+      <c r="N11" s="477"/>
+      <c r="O11" s="477"/>
       <c r="R11" t="s">
         <v>1836</v>
       </c>
@@ -34490,10 +35353,10 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="441" t="s">
+      <c r="C241" s="447" t="s">
         <v>1642</v>
       </c>
-      <c r="D241" s="441"/>
+      <c r="D241" s="447"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -35013,218 +35876,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:U125"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="25"/>
-    <col min="3" max="3" width="10.140625" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:21">
-      <c r="C2" s="475" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D2" s="475"/>
-      <c r="F2" s="25" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="3" spans="3:21">
-      <c r="C3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="4" spans="3:21">
-      <c r="C4" s="213" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="213" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21">
-      <c r="C5" s="213" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="213">
-        <v>60</v>
-      </c>
-      <c r="F5" s="359"/>
-      <c r="K5" s="359" t="s">
-        <v>2071</v>
-      </c>
-      <c r="L5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="359"/>
-      <c r="S5" s="359"/>
-      <c r="T5" s="359"/>
-      <c r="U5" s="359"/>
-    </row>
-    <row r="6" spans="3:21">
-      <c r="C6" s="213" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="213">
-        <v>70</v>
-      </c>
-      <c r="K6" s="213" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21">
-      <c r="C7" s="213" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="213">
-        <v>25</v>
-      </c>
-      <c r="K7" s="213" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="3:21">
-      <c r="C8" s="213" t="s">
-        <v>537</v>
-      </c>
-      <c r="D8" s="213">
-        <v>67</v>
-      </c>
-      <c r="K8" s="213" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21">
-      <c r="K9" s="213" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21">
-      <c r="K10" s="213" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21">
-      <c r="F11" s="36" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21">
-      <c r="G12" s="25" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21">
-      <c r="H13" s="25" t="s">
-        <v>2075</v>
-      </c>
-      <c r="K13" s="398" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="14" spans="3:21">
-      <c r="H14" s="25" t="s">
-        <v>2073</v>
-      </c>
-      <c r="K14" s="25">
-        <v>60</v>
-      </c>
-      <c r="L14" s="25">
-        <v>70</v>
-      </c>
-      <c r="M14" s="25">
-        <v>25</v>
-      </c>
-      <c r="N14" s="36">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" s="25" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="359"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="359"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="359"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="359"/>
-    </row>
-    <row r="117" spans="5:9">
-      <c r="E117" s="359"/>
-      <c r="F117" s="359"/>
-      <c r="I117" s="359"/>
-    </row>
-    <row r="118" spans="5:9">
-      <c r="E118" s="359"/>
-      <c r="F118" s="359"/>
-      <c r="I118" s="359"/>
-    </row>
-    <row r="119" spans="5:9">
-      <c r="E119" s="359"/>
-      <c r="F119" s="359"/>
-      <c r="I119" s="359"/>
-    </row>
-    <row r="120" spans="5:9">
-      <c r="E120" s="359"/>
-      <c r="F120" s="359"/>
-      <c r="I120" s="359"/>
-    </row>
-    <row r="121" spans="5:9">
-      <c r="E121" s="359"/>
-      <c r="F121" s="359"/>
-      <c r="I121" s="359"/>
-    </row>
-    <row r="122" spans="5:9">
-      <c r="E122" s="360"/>
-      <c r="F122" s="360"/>
-    </row>
-    <row r="124" spans="5:9">
-      <c r="E124" s="95"/>
-      <c r="F124" s="96"/>
-    </row>
-    <row r="125" spans="5:9">
-      <c r="E125" s="95"/>
-      <c r="F125" s="96"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -37829,6 +38480,218 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:U125"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="25"/>
+    <col min="3" max="3" width="10.140625" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:21">
+      <c r="C2" s="481" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D2" s="481"/>
+      <c r="F2" s="25" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="3" spans="3:21">
+      <c r="C3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="213" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="213" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21">
+      <c r="C5" s="213" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="213">
+        <v>60</v>
+      </c>
+      <c r="F5" s="359"/>
+      <c r="K5" s="359" t="s">
+        <v>2071</v>
+      </c>
+      <c r="L5" s="359"/>
+      <c r="O5" s="359"/>
+      <c r="P5" s="359"/>
+      <c r="Q5" s="359"/>
+      <c r="R5" s="359"/>
+      <c r="S5" s="359"/>
+      <c r="T5" s="359"/>
+      <c r="U5" s="359"/>
+    </row>
+    <row r="6" spans="3:21">
+      <c r="C6" s="213" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="213">
+        <v>70</v>
+      </c>
+      <c r="K6" s="213" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="213" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="213">
+        <v>25</v>
+      </c>
+      <c r="K7" s="213" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21">
+      <c r="C8" s="213" t="s">
+        <v>537</v>
+      </c>
+      <c r="D8" s="213">
+        <v>67</v>
+      </c>
+      <c r="K8" s="213" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="K9" s="213" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="K10" s="213" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21">
+      <c r="F11" s="36" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21">
+      <c r="G12" s="25" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="H13" s="25" t="s">
+        <v>2075</v>
+      </c>
+      <c r="K13" s="398" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="H14" s="25" t="s">
+        <v>2073</v>
+      </c>
+      <c r="K14" s="25">
+        <v>60</v>
+      </c>
+      <c r="L14" s="25">
+        <v>70</v>
+      </c>
+      <c r="M14" s="25">
+        <v>25</v>
+      </c>
+      <c r="N14" s="36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="25" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="359"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="359"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="359"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="359"/>
+    </row>
+    <row r="117" spans="5:9">
+      <c r="E117" s="359"/>
+      <c r="F117" s="359"/>
+      <c r="I117" s="359"/>
+    </row>
+    <row r="118" spans="5:9">
+      <c r="E118" s="359"/>
+      <c r="F118" s="359"/>
+      <c r="I118" s="359"/>
+    </row>
+    <row r="119" spans="5:9">
+      <c r="E119" s="359"/>
+      <c r="F119" s="359"/>
+      <c r="I119" s="359"/>
+    </row>
+    <row r="120" spans="5:9">
+      <c r="E120" s="359"/>
+      <c r="F120" s="359"/>
+      <c r="I120" s="359"/>
+    </row>
+    <row r="121" spans="5:9">
+      <c r="E121" s="359"/>
+      <c r="F121" s="359"/>
+      <c r="I121" s="359"/>
+    </row>
+    <row r="122" spans="5:9">
+      <c r="E122" s="360"/>
+      <c r="F122" s="360"/>
+    </row>
+    <row r="124" spans="5:9">
+      <c r="E124" s="95"/>
+      <c r="F124" s="96"/>
+    </row>
+    <row r="125" spans="5:9">
+      <c r="E125" s="95"/>
+      <c r="F125" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S72"/>
   <sheetViews>
@@ -38707,7 +39570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M102"/>
   <sheetViews>
@@ -38718,10 +39581,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="476" t="s">
+      <c r="B1" s="482" t="s">
         <v>1317</v>
       </c>
-      <c r="C1" s="476"/>
+      <c r="C1" s="482"/>
       <c r="E1" t="s">
         <v>1318</v>
       </c>
@@ -39339,7 +40202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S39"/>
   <sheetViews>
@@ -39918,7 +40781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L16"/>
   <sheetViews>
@@ -40131,7 +40994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q43"/>
   <sheetViews>
@@ -40143,18 +41006,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="477" t="s">
+      <c r="B3" s="483" t="s">
         <v>1342</v>
       </c>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
-      <c r="J3" s="478"/>
-      <c r="K3" s="479"/>
+      <c r="C3" s="484"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="484"/>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="484"/>
+      <c r="I3" s="484"/>
+      <c r="J3" s="484"/>
+      <c r="K3" s="485"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -40269,24 +41132,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="480" t="s">
+      <c r="B15" s="486" t="s">
         <v>1343</v>
       </c>
-      <c r="C15" s="481"/>
-      <c r="D15" s="481"/>
-      <c r="E15" s="481"/>
-      <c r="F15" s="481"/>
-      <c r="G15" s="481"/>
-      <c r="H15" s="481"/>
-      <c r="I15" s="481"/>
-      <c r="J15" s="481"/>
-      <c r="K15" s="481"/>
-      <c r="L15" s="481"/>
-      <c r="M15" s="481"/>
-      <c r="N15" s="481"/>
-      <c r="O15" s="481"/>
-      <c r="P15" s="481"/>
-      <c r="Q15" s="481"/>
+      <c r="C15" s="487"/>
+      <c r="D15" s="487"/>
+      <c r="E15" s="487"/>
+      <c r="F15" s="487"/>
+      <c r="G15" s="487"/>
+      <c r="H15" s="487"/>
+      <c r="I15" s="487"/>
+      <c r="J15" s="487"/>
+      <c r="K15" s="487"/>
+      <c r="L15" s="487"/>
+      <c r="M15" s="487"/>
+      <c r="N15" s="487"/>
+      <c r="O15" s="487"/>
+      <c r="P15" s="487"/>
+      <c r="Q15" s="487"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -41288,80 +42151,75 @@
       <c r="M214" s="366"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="463"/>
-      <c r="E223" s="463"/>
+      <c r="D223" s="469"/>
+      <c r="E223" s="469"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="463"/>
-      <c r="E227" s="463"/>
-      <c r="G227" s="463"/>
-      <c r="H227" s="463"/>
-      <c r="J227" s="463"/>
-      <c r="K227" s="463"/>
+      <c r="D227" s="469"/>
+      <c r="E227" s="469"/>
+      <c r="G227" s="469"/>
+      <c r="H227" s="469"/>
+      <c r="J227" s="469"/>
+      <c r="K227" s="469"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="465"/>
+      <c r="D273" s="470"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="465"/>
+      <c r="D274" s="470"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="465"/>
+      <c r="D275" s="470"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="465"/>
+      <c r="D276" s="470"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="465"/>
+      <c r="D277" s="470"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="465"/>
+      <c r="D278" s="470"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="464"/>
-      <c r="C287" s="463"/>
-      <c r="D287" s="463"/>
+      <c r="B287" s="471"/>
+      <c r="C287" s="469"/>
+      <c r="D287" s="469"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="465"/>
-      <c r="I288" s="464"/>
+      <c r="B288" s="470"/>
+      <c r="I288" s="471"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="465"/>
-      <c r="I289" s="465"/>
-      <c r="N289" s="464"/>
+      <c r="B289" s="470"/>
+      <c r="I289" s="470"/>
+      <c r="N289" s="471"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="465"/>
-      <c r="F290" s="463"/>
-      <c r="G290" s="463"/>
-      <c r="H290" s="463"/>
-      <c r="I290" s="465"/>
-      <c r="N290" s="465"/>
+      <c r="B290" s="470"/>
+      <c r="F290" s="469"/>
+      <c r="G290" s="469"/>
+      <c r="H290" s="469"/>
+      <c r="I290" s="470"/>
+      <c r="N290" s="470"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="465"/>
-      <c r="C291" s="463"/>
-      <c r="D291" s="463"/>
-      <c r="I291" s="465"/>
-      <c r="K291" s="463"/>
-      <c r="L291" s="463"/>
-      <c r="M291" s="463"/>
-      <c r="N291" s="465"/>
+      <c r="B291" s="470"/>
+      <c r="C291" s="469"/>
+      <c r="D291" s="469"/>
+      <c r="I291" s="470"/>
+      <c r="K291" s="469"/>
+      <c r="L291" s="469"/>
+      <c r="M291" s="469"/>
+      <c r="N291" s="470"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="465"/>
+      <c r="N292" s="470"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -41369,6 +42227,11 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44110,23 +44973,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="467" t="s">
+      <c r="A1" s="473" t="s">
         <v>1099</v>
       </c>
-      <c r="B1" s="467"/>
-      <c r="C1" s="467"/>
-      <c r="D1" s="467"/>
-      <c r="E1" s="467"/>
-      <c r="F1" s="467"/>
-      <c r="I1" s="467" t="s">
+      <c r="B1" s="473"/>
+      <c r="C1" s="473"/>
+      <c r="D1" s="473"/>
+      <c r="E1" s="473"/>
+      <c r="F1" s="473"/>
+      <c r="I1" s="473" t="s">
         <v>1109</v>
       </c>
-      <c r="J1" s="467"/>
-      <c r="K1" s="467"/>
-      <c r="L1" s="467"/>
-      <c r="M1" s="467"/>
-      <c r="N1" s="467"/>
-      <c r="O1" s="467"/>
+      <c r="J1" s="473"/>
+      <c r="K1" s="473"/>
+      <c r="L1" s="473"/>
+      <c r="M1" s="473"/>
+      <c r="N1" s="473"/>
+      <c r="O1" s="473"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -44276,28 +45139,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="450" t="s">
+      <c r="A12" s="456" t="s">
         <v>1111</v>
       </c>
-      <c r="B12" s="466"/>
-      <c r="C12" s="466"/>
-      <c r="D12" s="466"/>
-      <c r="E12" s="466"/>
-      <c r="F12" s="466"/>
-      <c r="G12" s="466"/>
-      <c r="H12" s="451"/>
-      <c r="I12" s="450" t="s">
+      <c r="B12" s="472"/>
+      <c r="C12" s="472"/>
+      <c r="D12" s="472"/>
+      <c r="E12" s="472"/>
+      <c r="F12" s="472"/>
+      <c r="G12" s="472"/>
+      <c r="H12" s="457"/>
+      <c r="I12" s="456" t="s">
         <v>1111</v>
       </c>
-      <c r="J12" s="466"/>
-      <c r="K12" s="466"/>
-      <c r="L12" s="466"/>
-      <c r="M12" s="466"/>
-      <c r="N12" s="466"/>
-      <c r="O12" s="466"/>
-      <c r="P12" s="466"/>
-      <c r="Q12" s="466"/>
-      <c r="R12" s="451"/>
+      <c r="J12" s="472"/>
+      <c r="K12" s="472"/>
+      <c r="L12" s="472"/>
+      <c r="M12" s="472"/>
+      <c r="N12" s="472"/>
+      <c r="O12" s="472"/>
+      <c r="P12" s="472"/>
+      <c r="Q12" s="472"/>
+      <c r="R12" s="457"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -44525,14 +45388,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="467" t="s">
+      <c r="A24" s="473" t="s">
         <v>1099</v>
       </c>
-      <c r="B24" s="467"/>
-      <c r="C24" s="467"/>
-      <c r="D24" s="467"/>
-      <c r="E24" s="467"/>
-      <c r="F24" s="467"/>
+      <c r="B24" s="473"/>
+      <c r="C24" s="473"/>
+      <c r="D24" s="473"/>
+      <c r="E24" s="473"/>
+      <c r="F24" s="473"/>
       <c r="H24" s="195" t="s">
         <v>1109</v>
       </c>
@@ -44542,11 +45405,11 @@
       <c r="L24" s="195"/>
       <c r="M24" s="195"/>
       <c r="N24" s="195"/>
-      <c r="P24" s="467" t="s">
+      <c r="P24" s="473" t="s">
         <v>1147</v>
       </c>
-      <c r="Q24" s="467"/>
-      <c r="R24" s="467"/>
+      <c r="Q24" s="473"/>
+      <c r="R24" s="473"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -44786,28 +45649,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="450" t="s">
+      <c r="A35" s="456" t="s">
         <v>1148</v>
       </c>
-      <c r="B35" s="466"/>
-      <c r="C35" s="466"/>
-      <c r="D35" s="466"/>
-      <c r="E35" s="466"/>
-      <c r="F35" s="466"/>
-      <c r="G35" s="466"/>
-      <c r="H35" s="451"/>
-      <c r="I35" s="450" t="s">
+      <c r="B35" s="472"/>
+      <c r="C35" s="472"/>
+      <c r="D35" s="472"/>
+      <c r="E35" s="472"/>
+      <c r="F35" s="472"/>
+      <c r="G35" s="472"/>
+      <c r="H35" s="457"/>
+      <c r="I35" s="456" t="s">
         <v>540</v>
       </c>
-      <c r="J35" s="466"/>
-      <c r="K35" s="466"/>
-      <c r="L35" s="466"/>
-      <c r="M35" s="466"/>
-      <c r="N35" s="466"/>
-      <c r="O35" s="466"/>
-      <c r="P35" s="466"/>
-      <c r="Q35" s="466"/>
-      <c r="R35" s="451"/>
+      <c r="J35" s="472"/>
+      <c r="K35" s="472"/>
+      <c r="L35" s="472"/>
+      <c r="M35" s="472"/>
+      <c r="N35" s="472"/>
+      <c r="O35" s="472"/>
+      <c r="P35" s="472"/>
+      <c r="Q35" s="472"/>
+      <c r="R35" s="457"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4792" uniqueCount="2513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="2517">
   <si>
     <t>USER</t>
   </si>
@@ -7977,6 +7977,18 @@
   </si>
   <si>
     <t>when we run out of memory - clean up/delete/remove unused unreferenced data from memory</t>
+  </si>
+  <si>
+    <t>FBCust f2;</t>
+  </si>
+  <si>
+    <t>declared and initialized</t>
+  </si>
+  <si>
+    <t>declared</t>
+  </si>
+  <si>
+    <t>null = nothing / no reference / no memory address</t>
   </si>
 </sst>
 </file>
@@ -8695,7 +8707,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="491">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9535,6 +9547,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9605,10 +9621,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9656,7 +9672,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10013,13 +10028,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
-      <c r="H3" s="455" t="s">
+      <c r="H3" s="457" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="456"/>
-      <c r="J3" s="456"/>
-      <c r="K3" s="456"/>
-      <c r="L3" s="457"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="458"/>
+      <c r="K3" s="458"/>
+      <c r="L3" s="459"/>
       <c r="Q3" t="s">
         <v>2051</v>
       </c>
@@ -10048,20 +10063,20 @@
       <c r="F6" s="4" t="s">
         <v>1653</v>
       </c>
-      <c r="G6" s="458" t="s">
+      <c r="G6" s="460" t="s">
         <v>1173</v>
       </c>
-      <c r="H6" s="459"/>
+      <c r="H6" s="461"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="458" t="s">
+      <c r="J6" s="460" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="459"/>
+      <c r="K6" s="461"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="458" t="s">
+      <c r="M6" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="459"/>
+      <c r="N6" s="461"/>
       <c r="P6" t="s">
         <v>2043</v>
       </c>
@@ -10092,20 +10107,20 @@
       <c r="F8" s="4" t="s">
         <v>1200</v>
       </c>
-      <c r="G8" s="460" t="s">
+      <c r="G8" s="462" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="461"/>
+      <c r="H8" s="463"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="460" t="s">
+      <c r="J8" s="462" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="461"/>
+      <c r="K8" s="463"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="460" t="s">
+      <c r="M8" s="462" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="461"/>
+      <c r="N8" s="463"/>
       <c r="P8" t="s">
         <v>2045</v>
       </c>
@@ -10131,29 +10146,29 @@
       <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="451" t="s">
+      <c r="F10" s="453" t="s">
         <v>1664</v>
       </c>
-      <c r="G10" s="452"/>
-      <c r="H10" s="452"/>
-      <c r="I10" s="452"/>
-      <c r="J10" s="452"/>
-      <c r="K10" s="452"/>
-      <c r="L10" s="452"/>
-      <c r="M10" s="452"/>
-      <c r="N10" s="452"/>
+      <c r="G10" s="454"/>
+      <c r="H10" s="454"/>
+      <c r="I10" s="454"/>
+      <c r="J10" s="454"/>
+      <c r="K10" s="454"/>
+      <c r="L10" s="454"/>
+      <c r="M10" s="454"/>
+      <c r="N10" s="454"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="453"/>
-      <c r="G11" s="454"/>
-      <c r="H11" s="454"/>
-      <c r="I11" s="454"/>
-      <c r="J11" s="454"/>
-      <c r="K11" s="454"/>
-      <c r="L11" s="454"/>
-      <c r="M11" s="454"/>
-      <c r="N11" s="454"/>
+      <c r="F11" s="455"/>
+      <c r="G11" s="456"/>
+      <c r="H11" s="456"/>
+      <c r="I11" s="456"/>
+      <c r="J11" s="456"/>
+      <c r="K11" s="456"/>
+      <c r="L11" s="456"/>
+      <c r="M11" s="456"/>
+      <c r="N11" s="456"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -10406,8 +10421,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="449"/>
-      <c r="E23" s="450"/>
+      <c r="D23" s="451"/>
+      <c r="E23" s="452"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -20651,34 +20666,34 @@
       <c r="E10" t="s">
         <v>1829</v>
       </c>
-      <c r="G10" s="462" t="s">
+      <c r="G10" s="464" t="s">
         <v>1836</v>
       </c>
-      <c r="H10" s="463"/>
-      <c r="I10" s="464"/>
+      <c r="H10" s="465"/>
+      <c r="I10" s="466"/>
       <c r="K10" s="28" t="s">
         <v>1846</v>
       </c>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="G11" s="465"/>
-      <c r="H11" s="466"/>
-      <c r="I11" s="467"/>
+      <c r="G11" s="467"/>
+      <c r="H11" s="468"/>
+      <c r="I11" s="469"/>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G12" s="465"/>
-      <c r="H12" s="466"/>
-      <c r="I12" s="467"/>
+      <c r="G12" s="467"/>
+      <c r="H12" s="468"/>
+      <c r="I12" s="469"/>
       <c r="K12" s="33"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="G13" s="468"/>
-      <c r="H13" s="469"/>
-      <c r="I13" s="470"/>
+      <c r="G13" s="470"/>
+      <c r="H13" s="471"/>
+      <c r="I13" s="472"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="E14" t="s">
@@ -21607,7 +21622,7 @@
       </c>
       <c r="J3" s="83"/>
       <c r="K3" s="275"/>
-      <c r="L3" s="476" t="s">
+      <c r="L3" s="478" t="s">
         <v>1479</v>
       </c>
       <c r="M3" s="170"/>
@@ -21629,7 +21644,7 @@
       <c r="K4" s="69">
         <v>123</v>
       </c>
-      <c r="L4" s="477"/>
+      <c r="L4" s="479"/>
       <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
@@ -21649,12 +21664,12 @@
       <c r="K5" s="276" t="s">
         <v>1478</v>
       </c>
-      <c r="L5" s="477"/>
+      <c r="L5" s="479"/>
       <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="F6" s="186"/>
-      <c r="L6" s="477"/>
+      <c r="L6" s="479"/>
       <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13">
@@ -21667,7 +21682,7 @@
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="275"/>
-      <c r="L7" s="477"/>
+      <c r="L7" s="479"/>
       <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13">
@@ -21685,7 +21700,7 @@
       <c r="K8" s="69">
         <v>111</v>
       </c>
-      <c r="L8" s="477"/>
+      <c r="L8" s="479"/>
       <c r="M8" s="170"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
@@ -21699,7 +21714,7 @@
       <c r="K9" s="260" t="s">
         <v>164</v>
       </c>
-      <c r="L9" s="477"/>
+      <c r="L9" s="479"/>
       <c r="M9" s="170"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
@@ -21707,7 +21722,7 @@
         <v>1462</v>
       </c>
       <c r="F10" s="186"/>
-      <c r="L10" s="477"/>
+      <c r="L10" s="479"/>
       <c r="M10" s="170"/>
     </row>
     <row r="11" spans="1:13">
@@ -21720,7 +21735,7 @@
       </c>
       <c r="J11" s="83"/>
       <c r="K11" s="275"/>
-      <c r="L11" s="477"/>
+      <c r="L11" s="479"/>
       <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13">
@@ -21734,7 +21749,7 @@
       <c r="K12" s="69">
         <v>222</v>
       </c>
-      <c r="L12" s="477"/>
+      <c r="L12" s="479"/>
       <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
@@ -21751,7 +21766,7 @@
       <c r="K13" s="260" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="478"/>
+      <c r="L13" s="480"/>
       <c r="M13" s="170"/>
     </row>
     <row r="14" spans="1:13">
@@ -21773,10 +21788,10 @@
       <c r="D15" s="255"/>
       <c r="E15" s="255"/>
       <c r="F15" s="186"/>
-      <c r="J15" s="471" t="s">
+      <c r="J15" s="473" t="s">
         <v>1468</v>
       </c>
-      <c r="K15" s="471"/>
+      <c r="K15" s="473"/>
       <c r="L15" s="69" t="s">
         <v>536</v>
       </c>
@@ -21796,8 +21811,8 @@
       <c r="G16" s="96" t="s">
         <v>1470</v>
       </c>
-      <c r="J16" s="471"/>
-      <c r="K16" s="471"/>
+      <c r="J16" s="473"/>
+      <c r="K16" s="473"/>
       <c r="L16" s="69" t="s">
         <v>50</v>
       </c>
@@ -21875,48 +21890,48 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
-      <c r="K22" s="472"/>
+      <c r="K22" s="475"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
-      <c r="K23" s="473"/>
+      <c r="K23" s="474"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
-      <c r="K24" s="473"/>
+      <c r="K24" s="474"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
-      <c r="K25" s="473"/>
+      <c r="K25" s="474"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
-      <c r="K26" s="473"/>
+      <c r="K26" s="474"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="K27" s="473"/>
+      <c r="K27" s="474"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="K28" s="473"/>
+      <c r="K28" s="474"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
-      <c r="K29" s="473"/>
+      <c r="K29" s="474"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="96"/>
-      <c r="K30" s="473"/>
+      <c r="K30" s="474"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="96"/>
-      <c r="K31" s="473"/>
+      <c r="K31" s="474"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="K32" s="473"/>
+      <c r="K32" s="474"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="272"/>
@@ -31487,18 +31502,18 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="B8" s="480" t="s">
+      <c r="B8" s="482" t="s">
         <v>1608</v>
       </c>
-      <c r="C8" s="480"/>
-      <c r="F8" s="480" t="s">
+      <c r="C8" s="482"/>
+      <c r="F8" s="482" t="s">
         <v>1609</v>
       </c>
-      <c r="G8" s="480"/>
-      <c r="I8" s="480" t="s">
+      <c r="G8" s="482"/>
+      <c r="I8" s="482" t="s">
         <v>1609</v>
       </c>
-      <c r="J8" s="480"/>
+      <c r="J8" s="482"/>
       <c r="M8" s="108"/>
       <c r="N8" s="39"/>
       <c r="AA8">
@@ -31518,18 +31533,18 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="F9" s="481" t="s">
+      <c r="F9" s="483" t="s">
         <v>1610</v>
       </c>
-      <c r="G9" s="481"/>
-      <c r="I9" s="481" t="s">
+      <c r="G9" s="483"/>
+      <c r="I9" s="483" t="s">
         <v>1249</v>
       </c>
-      <c r="J9" s="481"/>
-      <c r="M9" s="482" t="s">
+      <c r="J9" s="483"/>
+      <c r="M9" s="484" t="s">
         <v>1609</v>
       </c>
-      <c r="N9" s="482"/>
+      <c r="N9" s="484"/>
       <c r="P9" t="s">
         <v>2425</v>
       </c>
@@ -31580,19 +31595,19 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="E11" s="479" t="s">
+      <c r="E11" s="481" t="s">
         <v>1612</v>
       </c>
-      <c r="F11" s="479"/>
-      <c r="G11" s="479"/>
-      <c r="H11" s="479"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="479"/>
-      <c r="K11" s="479"/>
-      <c r="L11" s="479"/>
-      <c r="M11" s="479"/>
-      <c r="N11" s="479"/>
-      <c r="O11" s="479"/>
+      <c r="F11" s="481"/>
+      <c r="G11" s="481"/>
+      <c r="H11" s="481"/>
+      <c r="I11" s="481"/>
+      <c r="J11" s="481"/>
+      <c r="K11" s="481"/>
+      <c r="L11" s="481"/>
+      <c r="M11" s="481"/>
+      <c r="N11" s="481"/>
+      <c r="O11" s="481"/>
       <c r="AF11" s="104" t="s">
         <v>810</v>
       </c>
@@ -35128,10 +35143,10 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="C241" s="449" t="s">
+      <c r="C241" s="451" t="s">
         <v>1636</v>
       </c>
-      <c r="D241" s="449"/>
+      <c r="D241" s="451"/>
       <c r="E241" s="122" t="s">
         <v>30</v>
       </c>
@@ -35658,8 +35673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:D81"/>
+    <sheetView topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35693,7 +35708,7 @@
       <c r="E2" s="367" t="s">
         <v>781</v>
       </c>
-      <c r="F2" s="490" t="s">
+      <c r="F2" s="450" t="s">
         <v>2466</v>
       </c>
       <c r="G2" s="76"/>
@@ -35952,7 +35967,7 @@
       <c r="E19" s="367" t="s">
         <v>781</v>
       </c>
-      <c r="F19" s="490" t="s">
+      <c r="F19" s="450" t="s">
         <v>2466</v>
       </c>
       <c r="G19" s="76"/>
@@ -36255,7 +36270,7 @@
       <c r="E39" s="367" t="s">
         <v>781</v>
       </c>
-      <c r="F39" s="490" t="s">
+      <c r="F39" s="450" t="s">
         <v>2466</v>
       </c>
       <c r="G39" s="76"/>
@@ -36575,7 +36590,7 @@
       <c r="E59" s="367" t="s">
         <v>781</v>
       </c>
-      <c r="F59" s="490" t="s">
+      <c r="F59" s="450" t="s">
         <v>2466</v>
       </c>
       <c r="G59" s="76"/>
@@ -36883,7 +36898,7 @@
       <c r="F78" s="367" t="s">
         <v>781</v>
       </c>
-      <c r="G78" s="490" t="s">
+      <c r="G78" s="450" t="s">
         <v>2466</v>
       </c>
       <c r="H78" s="76"/>
@@ -37187,180 +37202,282 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:14">
       <c r="D97" s="440"/>
       <c r="E97" s="440"/>
       <c r="F97" s="96"/>
       <c r="I97" s="440"/>
       <c r="J97" s="440"/>
     </row>
-    <row r="98" spans="1:12">
-      <c r="D98" s="440"/>
-      <c r="E98" s="440"/>
-      <c r="F98" s="96"/>
-      <c r="G98" s="96"/>
-      <c r="H98" s="440"/>
-      <c r="I98" s="440"/>
-      <c r="J98" s="440"/>
-      <c r="K98" s="440"/>
-      <c r="L98" s="440"/>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="254"/>
-      <c r="D99" s="440"/>
-      <c r="E99" s="440"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="96"/>
-      <c r="H99" s="440"/>
-      <c r="I99" s="440"/>
-      <c r="J99" s="440"/>
-      <c r="K99" s="440"/>
-      <c r="L99" s="440"/>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="D100" s="440"/>
-      <c r="E100" s="440"/>
-      <c r="F100" s="96"/>
-      <c r="G100" s="440"/>
-      <c r="H100" s="96"/>
-      <c r="I100" s="440"/>
-      <c r="J100" s="440"/>
-      <c r="K100" s="440"/>
-      <c r="L100" s="440"/>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="C101" s="254"/>
-      <c r="D101" s="440"/>
-      <c r="F101" s="440"/>
-      <c r="G101" s="440"/>
-      <c r="H101" s="440"/>
-      <c r="I101" s="440"/>
-      <c r="J101" s="440"/>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="E102" s="96"/>
-      <c r="G102" s="440"/>
-      <c r="H102" s="440"/>
-      <c r="I102" s="440"/>
-      <c r="J102" s="440"/>
-      <c r="K102" s="440"/>
-      <c r="L102" s="440"/>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="C103" s="254"/>
-      <c r="E103" s="96"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="440"/>
-      <c r="H103" s="440"/>
-      <c r="I103" s="440"/>
-      <c r="J103" s="440"/>
-      <c r="K103" s="440"/>
-      <c r="L103" s="440"/>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="F104" s="440"/>
-      <c r="G104" s="96"/>
-      <c r="H104" s="440"/>
-      <c r="I104" s="440"/>
-      <c r="J104" s="440"/>
-      <c r="K104" s="440"/>
-      <c r="L104" s="440"/>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="E105" s="96"/>
-      <c r="F105" s="440"/>
-      <c r="G105" s="106"/>
-      <c r="H105" s="440"/>
-      <c r="I105" s="96"/>
-      <c r="J105" s="440"/>
-      <c r="K105" s="440"/>
-      <c r="L105" s="440"/>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="D106" s="96"/>
-      <c r="E106" s="96"/>
-      <c r="F106" s="440"/>
-      <c r="G106" s="440"/>
-      <c r="H106" s="440"/>
-      <c r="I106" s="96"/>
-      <c r="J106" s="440"/>
-      <c r="K106" s="440"/>
-      <c r="L106" s="440"/>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="D107" s="96"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="440"/>
+    <row r="98" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B98" s="254" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B99" s="36" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C99" s="313"/>
+      <c r="F99" s="367" t="s">
+        <v>781</v>
+      </c>
+      <c r="G99" s="450" t="s">
+        <v>2466</v>
+      </c>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76"/>
+      <c r="K99" s="76"/>
+      <c r="L99" s="76"/>
+      <c r="M99" s="76"/>
+      <c r="N99" s="77"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="B100" s="313"/>
+      <c r="C100" s="313" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="449"/>
+      <c r="F100" s="186" t="s">
+        <v>2484</v>
+      </c>
+      <c r="G100" s="96" t="s">
+        <v>832</v>
+      </c>
+      <c r="J100" s="449"/>
+      <c r="K100" s="449" t="s">
+        <v>832</v>
+      </c>
+      <c r="L100" s="83"/>
+      <c r="M100" s="84"/>
+      <c r="N100" s="70"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="254"/>
+      <c r="C101" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="E101" s="449"/>
+      <c r="F101" s="186" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G101" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="H101" s="96"/>
+      <c r="I101" s="449"/>
+      <c r="J101" s="449"/>
+      <c r="K101" s="449"/>
+      <c r="L101" s="186" t="s">
+        <v>32</v>
+      </c>
+      <c r="M101" s="170" t="s">
+        <v>132</v>
+      </c>
+      <c r="N101" s="170"/>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B102" s="313" t="s">
+        <v>278</v>
+      </c>
+      <c r="C102" s="313"/>
+      <c r="E102" s="449"/>
+      <c r="F102" s="316"/>
+      <c r="G102" s="96"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="449"/>
+      <c r="J102" s="449"/>
+      <c r="K102" s="449"/>
+      <c r="L102" s="187" t="s">
+        <v>41</v>
+      </c>
+      <c r="M102" s="188">
+        <v>10</v>
+      </c>
+      <c r="N102" s="170"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="B103" s="313" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C103" s="313"/>
+      <c r="E103" s="449"/>
+      <c r="F103" s="186"/>
+      <c r="G103" s="96" t="s">
+        <v>2516</v>
+      </c>
+      <c r="H103" s="449"/>
+      <c r="I103" s="96"/>
+      <c r="J103" s="449"/>
+      <c r="K103" s="449"/>
+      <c r="L103" s="449"/>
+      <c r="M103" s="449"/>
+      <c r="N103" s="170"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="B104" s="36" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C104" s="313"/>
+      <c r="E104" s="449"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="255"/>
+      <c r="H104" s="255"/>
+      <c r="I104" s="255"/>
+      <c r="J104" s="449"/>
+      <c r="K104" s="255"/>
+      <c r="L104" s="255"/>
+      <c r="M104" s="255"/>
+      <c r="N104" s="170"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="F105" s="310"/>
+      <c r="G105" s="255"/>
+      <c r="H105" s="255"/>
+      <c r="I105" s="255"/>
+      <c r="J105" s="449"/>
+      <c r="K105" s="255"/>
+      <c r="L105" s="255"/>
+      <c r="M105" s="255"/>
+      <c r="N105" s="170"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="B106" s="36" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F106" s="310"/>
+      <c r="G106" s="255"/>
+      <c r="H106" s="255"/>
+      <c r="I106" s="255"/>
+      <c r="J106" s="449"/>
+      <c r="K106" s="255"/>
+      <c r="L106" s="255"/>
+      <c r="M106" s="255"/>
+      <c r="N106" s="170"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="B107" s="36" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F107" s="78"/>
+      <c r="G107" s="96"/>
       <c r="H107" s="96"/>
-      <c r="I107" s="440"/>
-      <c r="J107" s="96"/>
-      <c r="K107" s="440"/>
-      <c r="L107" s="440"/>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="E108" s="440"/>
-      <c r="F108" s="96"/>
-      <c r="G108" s="440"/>
-      <c r="H108" s="440"/>
-      <c r="I108" s="440"/>
-      <c r="J108" s="440"/>
-      <c r="K108" s="440"/>
-      <c r="L108" s="440"/>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="I107" s="449"/>
+      <c r="J107" s="449"/>
+      <c r="K107" s="255"/>
+      <c r="L107" s="277"/>
+      <c r="M107" s="255"/>
+      <c r="N107" s="170"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="F108" s="310"/>
+      <c r="G108" s="449"/>
+      <c r="H108" s="106"/>
+      <c r="I108" s="449"/>
+      <c r="J108" s="96"/>
+      <c r="K108" s="255"/>
+      <c r="L108" s="255"/>
+      <c r="M108" s="255"/>
+      <c r="N108" s="170"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="C109" s="182"/>
       <c r="E109" s="96"/>
-      <c r="F109" s="96"/>
-      <c r="G109" s="96"/>
-      <c r="H109" s="440"/>
-      <c r="I109" s="440"/>
-      <c r="J109" s="440"/>
-      <c r="K109" s="440"/>
-      <c r="L109" s="440"/>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="E110" s="440"/>
-      <c r="F110" s="440"/>
-      <c r="G110" s="440"/>
-      <c r="H110" s="440"/>
-      <c r="I110" s="440"/>
-      <c r="J110" s="440"/>
-      <c r="K110" s="440"/>
-      <c r="L110" s="440"/>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="C112" s="374"/>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="D116" s="440"/>
-      <c r="E116" s="440"/>
-      <c r="F116" s="96"/>
-      <c r="I116" s="440"/>
-      <c r="J116" s="440"/>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="D117" s="440"/>
-      <c r="E117" s="440"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
-      <c r="H117" s="440"/>
-      <c r="I117" s="440"/>
-      <c r="J117" s="440"/>
-      <c r="K117" s="440"/>
-      <c r="L117" s="440"/>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="254"/>
-      <c r="D118" s="440"/>
-      <c r="E118" s="440"/>
+      <c r="F109" s="310" t="s">
+        <v>136</v>
+      </c>
+      <c r="G109" s="449"/>
+      <c r="H109" s="449" t="s">
+        <v>2486</v>
+      </c>
+      <c r="I109" s="449"/>
+      <c r="J109" s="96"/>
+      <c r="K109" s="255"/>
+      <c r="L109" s="255"/>
+      <c r="M109" s="255"/>
+      <c r="N109" s="170"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="C110" s="182"/>
+      <c r="E110" s="449"/>
+      <c r="F110" s="310" t="s">
+        <v>2488</v>
+      </c>
+      <c r="G110" s="96"/>
+      <c r="H110" s="449" t="s">
+        <v>2490</v>
+      </c>
+      <c r="I110" s="449"/>
+      <c r="J110" s="449" t="s">
+        <v>34</v>
+      </c>
+      <c r="K110" s="255"/>
+      <c r="L110" s="255"/>
+      <c r="M110" s="255"/>
+      <c r="N110" s="170"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="C111" s="182"/>
+      <c r="E111" s="449"/>
+      <c r="F111" s="186"/>
+      <c r="G111" s="96"/>
+      <c r="H111" s="449" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I111" s="449"/>
+      <c r="J111" s="449"/>
+      <c r="K111" s="449"/>
+      <c r="L111" s="449"/>
+      <c r="M111" s="449"/>
+      <c r="N111" s="170"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="C112" s="182"/>
+      <c r="E112" s="449"/>
+      <c r="F112" s="310"/>
+      <c r="G112" s="449"/>
+      <c r="H112" s="96"/>
+      <c r="I112" s="449"/>
+      <c r="J112" s="449" t="s">
+        <v>2511</v>
+      </c>
+      <c r="K112" s="449"/>
+      <c r="L112" s="449"/>
+      <c r="M112" s="449"/>
+      <c r="N112" s="170"/>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" thickBot="1">
+      <c r="E113" s="449"/>
+      <c r="F113" s="428" t="s">
+        <v>2512</v>
+      </c>
+      <c r="G113" s="260"/>
+      <c r="H113" s="260"/>
+      <c r="I113" s="260"/>
+      <c r="J113" s="260"/>
+      <c r="K113" s="260"/>
+      <c r="L113" s="260"/>
+      <c r="M113" s="260"/>
+      <c r="N113" s="188"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="E114" s="449"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="254"/>
+      <c r="C116" s="138"/>
+      <c r="D116" s="138"/>
+      <c r="N116" s="449"/>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="D118" s="449"/>
+      <c r="E118" s="449"/>
       <c r="F118" s="96"/>
-      <c r="G118" s="96"/>
-      <c r="H118" s="440"/>
-      <c r="I118" s="440"/>
-      <c r="J118" s="440"/>
-      <c r="K118" s="440"/>
-      <c r="L118" s="440"/>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="I118" s="449"/>
+      <c r="J118" s="449"/>
+    </row>
+    <row r="119" spans="1:14">
       <c r="D119" s="440"/>
       <c r="E119" s="440"/>
       <c r="F119" s="96"/>
@@ -37371,7 +37488,7 @@
       <c r="K119" s="440"/>
       <c r="L119" s="440"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:14">
       <c r="C120" s="254"/>
       <c r="D120" s="440"/>
       <c r="F120" s="440"/>
@@ -37380,7 +37497,7 @@
       <c r="I120" s="440"/>
       <c r="J120" s="440"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:14">
       <c r="E121" s="440"/>
       <c r="F121" s="440"/>
       <c r="G121" s="440"/>
@@ -37390,7 +37507,7 @@
       <c r="K121" s="440"/>
       <c r="L121" s="440"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:14">
       <c r="C122" s="254"/>
       <c r="D122" s="440"/>
       <c r="E122" s="440"/>
@@ -37401,7 +37518,7 @@
       <c r="K122" s="440"/>
       <c r="L122" s="440"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:14">
       <c r="F123" s="440"/>
       <c r="G123" s="96"/>
       <c r="H123" s="440"/>
@@ -37410,7 +37527,7 @@
       <c r="K123" s="440"/>
       <c r="L123" s="440"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:14">
       <c r="E124" s="440"/>
       <c r="F124" s="440"/>
       <c r="G124" s="106"/>
@@ -37420,7 +37537,7 @@
       <c r="K124" s="440"/>
       <c r="L124" s="440"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:14">
       <c r="D125" s="440"/>
       <c r="E125" s="440"/>
       <c r="F125" s="440"/>
@@ -37430,7 +37547,7 @@
       <c r="K125" s="440"/>
       <c r="L125" s="440"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:14">
       <c r="D126" s="96"/>
       <c r="F126" s="96"/>
       <c r="G126" s="440"/>
@@ -37440,7 +37557,7 @@
       <c r="K126" s="440"/>
       <c r="L126" s="440"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:14">
       <c r="E127" s="440"/>
       <c r="F127" s="440"/>
       <c r="G127" s="440"/>
@@ -37450,7 +37567,7 @@
       <c r="K127" s="440"/>
       <c r="L127" s="440"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:14">
       <c r="D128" s="440"/>
       <c r="E128" s="440"/>
       <c r="F128" s="440"/>
@@ -38013,10 +38130,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21">
-      <c r="C2" s="483" t="s">
+      <c r="C2" s="485" t="s">
         <v>1312</v>
       </c>
-      <c r="D2" s="483"/>
+      <c r="D2" s="485"/>
       <c r="F2" s="25" t="s">
         <v>2028</v>
       </c>
@@ -39112,10 +39229,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="484" t="s">
+      <c r="B1" s="486" t="s">
         <v>1312</v>
       </c>
-      <c r="C1" s="484"/>
+      <c r="C1" s="486"/>
       <c r="E1" t="s">
         <v>1313</v>
       </c>
@@ -40537,18 +40654,18 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B3" s="485" t="s">
+      <c r="B3" s="487" t="s">
         <v>1337</v>
       </c>
-      <c r="C3" s="486"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="486"/>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
-      <c r="H3" s="486"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="487"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="488"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="488"/>
+      <c r="K3" s="489"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="G4" t="s">
@@ -40663,24 +40780,24 @@
       <c r="L12" s="25"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="488" t="s">
+      <c r="B15" s="490" t="s">
         <v>1338</v>
       </c>
-      <c r="C15" s="489"/>
-      <c r="D15" s="489"/>
-      <c r="E15" s="489"/>
-      <c r="F15" s="489"/>
-      <c r="G15" s="489"/>
-      <c r="H15" s="489"/>
-      <c r="I15" s="489"/>
-      <c r="J15" s="489"/>
-      <c r="K15" s="489"/>
-      <c r="L15" s="489"/>
-      <c r="M15" s="489"/>
-      <c r="N15" s="489"/>
-      <c r="O15" s="489"/>
-      <c r="P15" s="489"/>
-      <c r="Q15" s="489"/>
+      <c r="C15" s="491"/>
+      <c r="D15" s="491"/>
+      <c r="E15" s="491"/>
+      <c r="F15" s="491"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="491"/>
+      <c r="J15" s="491"/>
+      <c r="K15" s="491"/>
+      <c r="L15" s="491"/>
+      <c r="M15" s="491"/>
+      <c r="N15" s="491"/>
+      <c r="O15" s="491"/>
+      <c r="P15" s="491"/>
+      <c r="Q15" s="491"/>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:17">
@@ -41740,80 +41857,75 @@
       <c r="M214" s="362"/>
     </row>
     <row r="223" spans="4:13">
-      <c r="D223" s="471"/>
-      <c r="E223" s="471"/>
+      <c r="D223" s="473"/>
+      <c r="E223" s="473"/>
     </row>
     <row r="227" spans="4:11">
-      <c r="D227" s="471"/>
-      <c r="E227" s="471"/>
-      <c r="G227" s="471"/>
-      <c r="H227" s="471"/>
-      <c r="J227" s="471"/>
-      <c r="K227" s="471"/>
+      <c r="D227" s="473"/>
+      <c r="E227" s="473"/>
+      <c r="G227" s="473"/>
+      <c r="H227" s="473"/>
+      <c r="J227" s="473"/>
+      <c r="K227" s="473"/>
     </row>
     <row r="273" spans="2:9">
-      <c r="D273" s="473"/>
+      <c r="D273" s="474"/>
     </row>
     <row r="274" spans="2:9">
-      <c r="D274" s="473"/>
+      <c r="D274" s="474"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="D275" s="473"/>
+      <c r="D275" s="474"/>
     </row>
     <row r="276" spans="2:9">
-      <c r="D276" s="473"/>
+      <c r="D276" s="474"/>
     </row>
     <row r="277" spans="2:9">
-      <c r="D277" s="473"/>
+      <c r="D277" s="474"/>
     </row>
     <row r="278" spans="2:9">
-      <c r="D278" s="473"/>
+      <c r="D278" s="474"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="472"/>
-      <c r="C287" s="471"/>
-      <c r="D287" s="471"/>
+      <c r="B287" s="475"/>
+      <c r="C287" s="473"/>
+      <c r="D287" s="473"/>
     </row>
     <row r="288" spans="2:9">
-      <c r="B288" s="473"/>
-      <c r="I288" s="472"/>
+      <c r="B288" s="474"/>
+      <c r="I288" s="475"/>
     </row>
     <row r="289" spans="2:14">
-      <c r="B289" s="473"/>
-      <c r="I289" s="473"/>
-      <c r="N289" s="472"/>
+      <c r="B289" s="474"/>
+      <c r="I289" s="474"/>
+      <c r="N289" s="475"/>
     </row>
     <row r="290" spans="2:14">
-      <c r="B290" s="473"/>
-      <c r="F290" s="471"/>
-      <c r="G290" s="471"/>
-      <c r="H290" s="471"/>
-      <c r="I290" s="473"/>
-      <c r="N290" s="473"/>
+      <c r="B290" s="474"/>
+      <c r="F290" s="473"/>
+      <c r="G290" s="473"/>
+      <c r="H290" s="473"/>
+      <c r="I290" s="474"/>
+      <c r="N290" s="474"/>
     </row>
     <row r="291" spans="2:14">
-      <c r="B291" s="473"/>
-      <c r="C291" s="471"/>
-      <c r="D291" s="471"/>
-      <c r="I291" s="473"/>
-      <c r="K291" s="471"/>
-      <c r="L291" s="471"/>
-      <c r="M291" s="471"/>
-      <c r="N291" s="473"/>
+      <c r="B291" s="474"/>
+      <c r="C291" s="473"/>
+      <c r="D291" s="473"/>
+      <c r="I291" s="474"/>
+      <c r="K291" s="473"/>
+      <c r="L291" s="473"/>
+      <c r="M291" s="473"/>
+      <c r="N291" s="474"/>
     </row>
     <row r="292" spans="2:14">
-      <c r="N292" s="473"/>
+      <c r="N292" s="474"/>
     </row>
     <row r="306" spans="6:6">
       <c r="F306" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D273:D278"/>
     <mergeCell ref="C287:D287"/>
     <mergeCell ref="C291:D291"/>
     <mergeCell ref="B287:B291"/>
@@ -41821,6 +41933,11 @@
     <mergeCell ref="N289:N292"/>
     <mergeCell ref="I288:I291"/>
     <mergeCell ref="F290:H290"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D273:D278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43148,8 +43265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43488,8 +43605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="N71" sqref="M71:N71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44550,23 +44667,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="475" t="s">
+      <c r="A1" s="477" t="s">
         <v>1094</v>
       </c>
-      <c r="B1" s="475"/>
-      <c r="C1" s="475"/>
-      <c r="D1" s="475"/>
-      <c r="E1" s="475"/>
-      <c r="F1" s="475"/>
-      <c r="I1" s="475" t="s">
+      <c r="B1" s="477"/>
+      <c r="C1" s="477"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="I1" s="477" t="s">
         <v>1104</v>
       </c>
-      <c r="J1" s="475"/>
-      <c r="K1" s="475"/>
-      <c r="L1" s="475"/>
-      <c r="M1" s="475"/>
-      <c r="N1" s="475"/>
-      <c r="O1" s="475"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
+      <c r="N1" s="477"/>
+      <c r="O1" s="477"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -44716,28 +44833,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="458" t="s">
+      <c r="A12" s="460" t="s">
         <v>1106</v>
       </c>
-      <c r="B12" s="474"/>
-      <c r="C12" s="474"/>
-      <c r="D12" s="474"/>
-      <c r="E12" s="474"/>
-      <c r="F12" s="474"/>
-      <c r="G12" s="474"/>
-      <c r="H12" s="459"/>
-      <c r="I12" s="458" t="s">
+      <c r="B12" s="476"/>
+      <c r="C12" s="476"/>
+      <c r="D12" s="476"/>
+      <c r="E12" s="476"/>
+      <c r="F12" s="476"/>
+      <c r="G12" s="476"/>
+      <c r="H12" s="461"/>
+      <c r="I12" s="460" t="s">
         <v>1106</v>
       </c>
-      <c r="J12" s="474"/>
-      <c r="K12" s="474"/>
-      <c r="L12" s="474"/>
-      <c r="M12" s="474"/>
-      <c r="N12" s="474"/>
-      <c r="O12" s="474"/>
-      <c r="P12" s="474"/>
-      <c r="Q12" s="474"/>
-      <c r="R12" s="459"/>
+      <c r="J12" s="476"/>
+      <c r="K12" s="476"/>
+      <c r="L12" s="476"/>
+      <c r="M12" s="476"/>
+      <c r="N12" s="476"/>
+      <c r="O12" s="476"/>
+      <c r="P12" s="476"/>
+      <c r="Q12" s="476"/>
+      <c r="R12" s="461"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="28" t="s">
@@ -44965,14 +45082,14 @@
       <c r="R21" s="35"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="475" t="s">
+      <c r="A24" s="477" t="s">
         <v>1094</v>
       </c>
-      <c r="B24" s="475"/>
-      <c r="C24" s="475"/>
-      <c r="D24" s="475"/>
-      <c r="E24" s="475"/>
-      <c r="F24" s="475"/>
+      <c r="B24" s="477"/>
+      <c r="C24" s="477"/>
+      <c r="D24" s="477"/>
+      <c r="E24" s="477"/>
+      <c r="F24" s="477"/>
       <c r="H24" s="194" t="s">
         <v>1104</v>
       </c>
@@ -44982,11 +45099,11 @@
       <c r="L24" s="194"/>
       <c r="M24" s="194"/>
       <c r="N24" s="194"/>
-      <c r="P24" s="475" t="s">
+      <c r="P24" s="477" t="s">
         <v>1142</v>
       </c>
-      <c r="Q24" s="475"/>
-      <c r="R24" s="475"/>
+      <c r="Q24" s="477"/>
+      <c r="R24" s="477"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="86" t="s">
@@ -45226,28 +45343,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A35" s="458" t="s">
+      <c r="A35" s="460" t="s">
         <v>1143</v>
       </c>
-      <c r="B35" s="474"/>
-      <c r="C35" s="474"/>
-      <c r="D35" s="474"/>
-      <c r="E35" s="474"/>
-      <c r="F35" s="474"/>
-      <c r="G35" s="474"/>
-      <c r="H35" s="459"/>
-      <c r="I35" s="458" t="s">
+      <c r="B35" s="476"/>
+      <c r="C35" s="476"/>
+      <c r="D35" s="476"/>
+      <c r="E35" s="476"/>
+      <c r="F35" s="476"/>
+      <c r="G35" s="476"/>
+      <c r="H35" s="461"/>
+      <c r="I35" s="460" t="s">
         <v>540</v>
       </c>
-      <c r="J35" s="474"/>
-      <c r="K35" s="474"/>
-      <c r="L35" s="474"/>
-      <c r="M35" s="474"/>
-      <c r="N35" s="474"/>
-      <c r="O35" s="474"/>
-      <c r="P35" s="474"/>
-      <c r="Q35" s="474"/>
-      <c r="R35" s="459"/>
+      <c r="J35" s="476"/>
+      <c r="K35" s="476"/>
+      <c r="L35" s="476"/>
+      <c r="M35" s="476"/>
+      <c r="N35" s="476"/>
+      <c r="O35" s="476"/>
+      <c r="P35" s="476"/>
+      <c r="Q35" s="476"/>
+      <c r="R35" s="461"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="28" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" tabRatio="601" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4825" uniqueCount="2523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="2518">
   <si>
     <t>USER</t>
   </si>
@@ -6594,31 +6594,7 @@
     <t>ex-nor</t>
   </si>
   <si>
-    <t>registerd pin</t>
-  </si>
-  <si>
-    <t>either / or</t>
-  </si>
-  <si>
     <t>reg pin == entered pin</t>
-  </si>
-  <si>
-    <t>if / else</t>
-  </si>
-  <si>
-    <t>1234 == 5678</t>
-  </si>
-  <si>
-    <t>Either OR</t>
-  </si>
-  <si>
-    <t>2 choice</t>
-  </si>
-  <si>
-    <t>multi choice</t>
-  </si>
-  <si>
-    <t>Loop</t>
   </si>
   <si>
     <t>Car c2=new Car();</t>
@@ -7994,6 +7970,15 @@
   </si>
   <si>
     <t>20 ^ 10</t>
+  </si>
+  <si>
+    <t>Enter Pin</t>
+  </si>
+  <si>
+    <t>Atm pin =1234</t>
+  </si>
+  <si>
+    <t>equality operator</t>
   </si>
 </sst>
 </file>
@@ -8712,7 +8697,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="491">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9554,6 +9539,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9621,10 +9615,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9670,12 +9664,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10034,13 +10022,13 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
-      <c r="H3" s="452" t="s">
+      <c r="H3" s="457" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="453"/>
-      <c r="J3" s="453"/>
-      <c r="K3" s="453"/>
-      <c r="L3" s="454"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="458"/>
+      <c r="K3" s="458"/>
+      <c r="L3" s="459"/>
       <c r="Q3" t="s">
         <v>2017</v>
       </c>
@@ -10051,7 +10039,7 @@
         <v>2006</v>
       </c>
       <c r="E5" t="s">
-        <v>2394</v>
+        <v>2386</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
@@ -10069,20 +10057,20 @@
       <c r="F6" s="4" t="s">
         <v>1653</v>
       </c>
-      <c r="G6" s="455" t="s">
+      <c r="G6" s="460" t="s">
         <v>1173</v>
       </c>
-      <c r="H6" s="456"/>
+      <c r="H6" s="461"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="455" t="s">
+      <c r="J6" s="460" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="456"/>
+      <c r="K6" s="461"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="455" t="s">
+      <c r="M6" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="456"/>
+      <c r="N6" s="461"/>
       <c r="P6" t="s">
         <v>2009</v>
       </c>
@@ -10113,20 +10101,20 @@
       <c r="F8" s="4" t="s">
         <v>1200</v>
       </c>
-      <c r="G8" s="457" t="s">
+      <c r="G8" s="462" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="458"/>
+      <c r="H8" s="463"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="457" t="s">
+      <c r="J8" s="462" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="458"/>
+      <c r="K8" s="463"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="457" t="s">
+      <c r="M8" s="462" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="458"/>
+      <c r="N8" s="463"/>
       <c r="P8" t="s">
         <v>2011</v>
       </c>
@@ -10152,29 +10140,29 @@
       <c r="Q9" s="119"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="F10" s="448" t="s">
+      <c r="F10" s="453" t="s">
         <v>1664</v>
       </c>
-      <c r="G10" s="449"/>
-      <c r="H10" s="449"/>
-      <c r="I10" s="449"/>
-      <c r="J10" s="449"/>
-      <c r="K10" s="449"/>
-      <c r="L10" s="449"/>
-      <c r="M10" s="449"/>
-      <c r="N10" s="449"/>
+      <c r="G10" s="454"/>
+      <c r="H10" s="454"/>
+      <c r="I10" s="454"/>
+      <c r="J10" s="454"/>
+      <c r="K10" s="454"/>
+      <c r="L10" s="454"/>
+      <c r="M10" s="454"/>
+      <c r="N10" s="454"/>
       <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" thickBot="1">
-      <c r="F11" s="450"/>
-      <c r="G11" s="451"/>
-      <c r="H11" s="451"/>
-      <c r="I11" s="451"/>
-      <c r="J11" s="451"/>
-      <c r="K11" s="451"/>
-      <c r="L11" s="451"/>
-      <c r="M11" s="451"/>
-      <c r="N11" s="451"/>
+      <c r="F11" s="455"/>
+      <c r="G11" s="456"/>
+      <c r="H11" s="456"/>
+      <c r="I11" s="456"/>
+      <c r="J11" s="456"/>
+      <c r="K11" s="456"/>
+      <c r="L11" s="456"/>
+      <c r="M11" s="456"/>
+      <c r="N11" s="456"/>
     </row>
     <row r="12" spans="2:18">
       <c r="D12" s="103" t="s">
@@ -10282,7 +10270,7 @@
       <c r="H17" s="113"/>
       <c r="I17" s="18"/>
       <c r="J17" s="370" t="s">
-        <v>2396</v>
+        <v>2388</v>
       </c>
       <c r="K17" s="369"/>
       <c r="L17" s="17" t="s">
@@ -10363,7 +10351,7 @@
       </c>
       <c r="I20" s="225"/>
       <c r="J20" s="427" t="s">
-        <v>2395</v>
+        <v>2387</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="17"/>
@@ -10390,7 +10378,7 @@
       <c r="K21" s="18"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17" t="s">
-        <v>2397</v>
+        <v>2389</v>
       </c>
       <c r="N21" s="18"/>
       <c r="P21" t="s">
@@ -10416,7 +10404,7 @@
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17" t="s">
-        <v>2398</v>
+        <v>2390</v>
       </c>
       <c r="N22" s="18"/>
       <c r="V22" t="s">
@@ -10427,8 +10415,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1">
-      <c r="D23" s="446"/>
-      <c r="E23" s="447"/>
+      <c r="D23" s="451"/>
+      <c r="E23" s="452"/>
       <c r="F23" s="118"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -10437,7 +10425,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19" t="s">
-        <v>2399</v>
+        <v>2391</v>
       </c>
       <c r="N23" s="20"/>
       <c r="V23" t="s">
@@ -10534,10 +10522,10 @@
     <row r="29" spans="1:24">
       <c r="G29" s="25"/>
       <c r="I29" t="s">
-        <v>2413</v>
+        <v>2405</v>
       </c>
       <c r="K29" t="s">
-        <v>2412</v>
+        <v>2404</v>
       </c>
       <c r="O29" t="s">
         <v>1856</v>
@@ -10759,7 +10747,7 @@
       </c>
       <c r="O34" s="145"/>
       <c r="P34" s="145" t="s">
-        <v>2416</v>
+        <v>2408</v>
       </c>
       <c r="Q34" s="145"/>
       <c r="V34" t="s">
@@ -10781,7 +10769,7 @@
       <c r="N35" s="146"/>
       <c r="O35" s="145"/>
       <c r="P35" s="89" t="s">
-        <v>2415</v>
+        <v>2407</v>
       </c>
       <c r="Q35" s="146"/>
       <c r="V35" t="s">
@@ -10866,7 +10854,7 @@
     </row>
     <row r="39" spans="1:24 16384:16384">
       <c r="B39" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
@@ -16104,8 +16092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16121,12 +16109,8 @@
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
-      <c r="C1" s="402" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D1" s="326">
-        <v>1234</v>
-      </c>
+      <c r="C1" s="402"/>
+      <c r="D1" s="326"/>
       <c r="E1" s="53"/>
       <c r="F1" s="63" t="s">
         <v>212</v>
@@ -16144,9 +16128,13 @@
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="D2" s="446" t="s">
+        <v>2516</v>
+      </c>
       <c r="E2" s="53"/>
-      <c r="F2" s="61"/>
+      <c r="F2" s="61" t="s">
+        <v>2515</v>
+      </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
@@ -16158,16 +16146,12 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="53"/>
-      <c r="B3" s="402" t="s">
-        <v>2071</v>
-      </c>
-      <c r="C3" s="402" t="s">
-        <v>2072</v>
-      </c>
+      <c r="B3" s="402"/>
+      <c r="C3" s="402"/>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
       <c r="F3" s="54">
-        <v>5678</v>
+        <v>1234</v>
       </c>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
@@ -16180,9 +16164,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="53"/>
-      <c r="B4" s="402" t="s">
-        <v>2073</v>
-      </c>
+      <c r="B4" s="402"/>
       <c r="C4" s="263"/>
       <c r="D4" s="53"/>
       <c r="E4" s="105"/>
@@ -16198,9 +16180,7 @@
     </row>
     <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="53"/>
-      <c r="B5" s="402" t="s">
-        <v>2074</v>
-      </c>
+      <c r="B5" s="402"/>
       <c r="C5" s="53"/>
       <c r="D5" s="61"/>
       <c r="E5" s="126" t="s">
@@ -16230,9 +16210,7 @@
       <c r="C6" s="53"/>
       <c r="D6" s="61"/>
       <c r="E6" s="326"/>
-      <c r="F6" s="402" t="s">
-        <v>2067</v>
-      </c>
+      <c r="F6" s="402"/>
       <c r="G6" s="53"/>
       <c r="H6" s="61"/>
       <c r="I6" s="53"/>
@@ -16250,9 +16228,7 @@
         <v>215</v>
       </c>
       <c r="E7" s="105"/>
-      <c r="F7" s="124" t="s">
-        <v>2069</v>
-      </c>
+      <c r="F7" s="124"/>
       <c r="G7" s="53"/>
       <c r="H7" s="61" t="s">
         <v>1452</v>
@@ -16274,8 +16250,8 @@
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="105"/>
-      <c r="F8" s="402" t="s">
-        <v>2068</v>
+      <c r="F8" s="446" t="s">
+        <v>2066</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="61"/>
@@ -16292,8 +16268,8 @@
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="124"/>
-      <c r="F9" s="402" t="s">
-        <v>2070</v>
+      <c r="F9" s="446" t="s">
+        <v>2517</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="61"/>
@@ -17542,7 +17518,7 @@
         <v>799</v>
       </c>
       <c r="D3" s="186" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
       <c r="E3" s="403" t="s">
         <v>133</v>
@@ -17565,7 +17541,7 @@
         <v>1760</v>
       </c>
       <c r="D4" s="186" t="s">
-        <v>2080</v>
+        <v>2072</v>
       </c>
       <c r="E4" s="403" t="s">
         <v>839</v>
@@ -17585,7 +17561,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="186" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
       <c r="E5" s="403" t="s">
         <v>831</v>
@@ -17630,7 +17606,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="36" t="s">
-        <v>2075</v>
+        <v>2067</v>
       </c>
       <c r="B8" s="138"/>
       <c r="D8" s="78"/>
@@ -17647,7 +17623,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="A9" s="36" t="s">
-        <v>2076</v>
+        <v>2068</v>
       </c>
       <c r="D9" s="78"/>
       <c r="I9" s="187" t="s">
@@ -17712,7 +17688,7 @@
     <row r="15" spans="1:13">
       <c r="D15" s="78"/>
       <c r="E15" s="36" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
       <c r="J15" s="373"/>
       <c r="K15" s="373"/>
@@ -17721,7 +17697,7 @@
     <row r="16" spans="1:13">
       <c r="D16" s="78"/>
       <c r="E16" s="36" t="s">
-        <v>2078</v>
+        <v>2070</v>
       </c>
       <c r="J16" s="373"/>
       <c r="K16" s="373"/>
@@ -17730,7 +17706,7 @@
     <row r="17" spans="1:13">
       <c r="D17" s="78"/>
       <c r="E17" s="36" t="s">
-        <v>2082</v>
+        <v>2074</v>
       </c>
       <c r="J17" s="373"/>
       <c r="K17" s="373"/>
@@ -17778,7 +17754,7 @@
         <v>799</v>
       </c>
       <c r="D22" s="186" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
       <c r="E22" s="403" t="s">
         <v>133</v>
@@ -17801,7 +17777,7 @@
         <v>1760</v>
       </c>
       <c r="D23" s="186" t="s">
-        <v>2080</v>
+        <v>2072</v>
       </c>
       <c r="E23" s="403" t="s">
         <v>839</v>
@@ -17811,17 +17787,17 @@
         <v>800</v>
       </c>
       <c r="J23" s="170" t="s">
-        <v>2090</v>
+        <v>2082</v>
       </c>
       <c r="K23" s="403"/>
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="C24" s="36" t="s">
-        <v>2091</v>
+        <v>2083</v>
       </c>
       <c r="D24" s="186" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
       <c r="E24" s="403" t="s">
         <v>831</v>
@@ -17839,7 +17815,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="B25" s="36" t="s">
-        <v>2083</v>
+        <v>2075</v>
       </c>
       <c r="D25" s="186"/>
       <c r="E25" s="403"/>
@@ -17853,7 +17829,7 @@
         <v>1894</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>2092</v>
+        <v>2084</v>
       </c>
       <c r="E26" s="403"/>
       <c r="F26" s="403"/>
@@ -17922,7 +17898,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="36" t="s">
-        <v>2084</v>
+        <v>2076</v>
       </c>
       <c r="D31" s="78"/>
       <c r="I31" s="186" t="s">
@@ -17936,11 +17912,11 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="36" t="s">
-        <v>2085</v>
+        <v>2077</v>
       </c>
       <c r="D32" s="78"/>
       <c r="E32" s="36" t="s">
-        <v>2088</v>
+        <v>2080</v>
       </c>
       <c r="I32" s="187" t="s">
         <v>1761</v>
@@ -17954,7 +17930,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="36" t="s">
-        <v>2086</v>
+        <v>2078</v>
       </c>
       <c r="D33" s="78"/>
       <c r="J33" s="403"/>
@@ -17964,7 +17940,7 @@
     <row r="34" spans="1:13">
       <c r="D34" s="78"/>
       <c r="E34" s="36" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
       <c r="J34" s="403"/>
       <c r="K34" s="403"/>
@@ -17973,7 +17949,7 @@
     <row r="35" spans="1:13">
       <c r="D35" s="78"/>
       <c r="E35" s="36" t="s">
-        <v>2087</v>
+        <v>2079</v>
       </c>
       <c r="J35" s="403"/>
       <c r="K35" s="403"/>
@@ -17982,7 +17958,7 @@
     <row r="36" spans="1:13">
       <c r="D36" s="78"/>
       <c r="E36" s="36" t="s">
-        <v>2089</v>
+        <v>2081</v>
       </c>
       <c r="J36" s="403"/>
       <c r="K36" s="403"/>
@@ -18533,7 +18509,7 @@
     </row>
     <row r="3" spans="3:15">
       <c r="C3" s="78" t="s">
-        <v>2095</v>
+        <v>2087</v>
       </c>
       <c r="F3" s="70"/>
       <c r="G3" s="138"/>
@@ -18545,12 +18521,12 @@
     <row r="4" spans="3:15">
       <c r="C4" s="78"/>
       <c r="D4" s="36" t="s">
-        <v>2096</v>
+        <v>2088</v>
       </c>
       <c r="F4" s="70"/>
       <c r="H4" s="78"/>
       <c r="I4" s="36" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
       <c r="K4" s="70"/>
     </row>
@@ -18582,7 +18558,7 @@
         <v>345</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>2098</v>
+        <v>2090</v>
       </c>
       <c r="G9" s="376"/>
       <c r="H9" s="76"/>
@@ -18599,17 +18575,17 @@
       </c>
       <c r="I11" s="70"/>
       <c r="K11" s="36" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="12" spans="3:15">
       <c r="E12" s="78"/>
       <c r="G12" s="36" t="s">
-        <v>2097</v>
+        <v>2089</v>
       </c>
       <c r="I12" s="70"/>
       <c r="K12" s="36" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="13" spans="3:15" ht="15.75" thickBot="1">
@@ -18624,12 +18600,12 @@
         <v>1763</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>2101</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="14" spans="3:15">
       <c r="K14" s="36" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="M14" s="36" t="s">
         <v>1764</v>
@@ -18640,7 +18616,7 @@
         <v>1762</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>2103</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="16" spans="3:15" ht="15.75" thickBot="1"/>
@@ -18672,12 +18648,12 @@
     <row r="19" spans="3:41">
       <c r="C19" s="78"/>
       <c r="D19" s="36" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
       <c r="F19" s="70"/>
       <c r="H19" s="78"/>
       <c r="I19" s="36" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
       <c r="K19" s="70"/>
     </row>
@@ -18720,7 +18696,7 @@
         <v>345</v>
       </c>
       <c r="F24" s="76" t="s">
-        <v>2098</v>
+        <v>2090</v>
       </c>
       <c r="G24" s="376"/>
       <c r="H24" s="76"/>
@@ -18749,17 +18725,17 @@
       </c>
       <c r="I26" s="70"/>
       <c r="K26" s="36" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="27" spans="3:41">
       <c r="E27" s="78"/>
       <c r="G27" s="36" t="s">
-        <v>2097</v>
+        <v>2089</v>
       </c>
       <c r="I27" s="70"/>
       <c r="K27" s="36" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="AA27" s="138"/>
       <c r="AB27" s="138"/>
@@ -18777,46 +18753,46 @@
       <c r="H28" s="80"/>
       <c r="I28" s="81"/>
       <c r="K28" s="404" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="L28" s="404"/>
       <c r="M28" s="36" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="29" spans="3:41" ht="23.25">
       <c r="K29" s="36" t="s">
-        <v>2105</v>
+        <v>2097</v>
       </c>
       <c r="O29" s="266"/>
     </row>
     <row r="30" spans="3:41">
       <c r="K30" s="36" t="s">
-        <v>2106</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="31" spans="3:41" ht="15.75" thickBot="1"/>
     <row r="32" spans="3:41">
       <c r="F32" s="75" t="s">
-        <v>2107</v>
+        <v>2099</v>
       </c>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
     </row>
     <row r="33" spans="3:31">
       <c r="F33" s="78" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="G33" s="138"/>
       <c r="H33" s="70"/>
       <c r="J33" s="36" t="s">
-        <v>2112</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="34" spans="3:31">
       <c r="F34" s="78"/>
       <c r="G34" s="36" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="H34" s="70"/>
     </row>
@@ -18844,13 +18820,13 @@
       <c r="G38" s="138"/>
       <c r="H38" s="70"/>
       <c r="J38" s="36" t="s">
-        <v>2113</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="39" spans="3:31">
       <c r="F39" s="78"/>
       <c r="G39" s="36" t="s">
-        <v>2110</v>
+        <v>2102</v>
       </c>
       <c r="H39" s="70"/>
     </row>
@@ -18879,13 +18855,13 @@
       <c r="G43" s="138"/>
       <c r="H43" s="70"/>
       <c r="J43" s="36" t="s">
-        <v>2114</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="44" spans="3:31">
       <c r="F44" s="78"/>
       <c r="G44" s="36" t="s">
-        <v>2111</v>
+        <v>2103</v>
       </c>
       <c r="H44" s="70"/>
       <c r="AE44" s="254"/>
@@ -18985,7 +18961,7 @@
         <v>345</v>
       </c>
       <c r="F55" s="76" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
       <c r="G55" s="376"/>
       <c r="H55" s="76"/>
@@ -19004,11 +18980,11 @@
     <row r="57" spans="1:45">
       <c r="E57" s="78"/>
       <c r="G57" s="36" t="s">
-        <v>2116</v>
+        <v>2108</v>
       </c>
       <c r="I57" s="70"/>
       <c r="K57" s="36" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
       <c r="L57" s="378"/>
     </row>
@@ -19020,21 +18996,21 @@
       </c>
       <c r="I58" s="70"/>
       <c r="K58" s="36" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="L58" s="378"/>
     </row>
     <row r="59" spans="1:45">
       <c r="A59" s="380"/>
       <c r="E59" s="78" t="s">
-        <v>2197</v>
+        <v>2189</v>
       </c>
       <c r="F59" s="36" t="s">
         <v>366</v>
       </c>
       <c r="I59" s="70"/>
       <c r="K59" s="404" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="L59" s="378"/>
     </row>
@@ -19042,7 +19018,7 @@
       <c r="A60" s="380"/>
       <c r="E60" s="78"/>
       <c r="G60" s="36" t="s">
-        <v>2198</v>
+        <v>2190</v>
       </c>
       <c r="I60" s="70"/>
       <c r="L60" s="378"/>
@@ -19062,14 +19038,14 @@
     <row r="62" spans="1:45">
       <c r="A62" s="267"/>
       <c r="B62" s="267" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
       <c r="C62" s="267"/>
       <c r="D62" s="36" t="s">
-        <v>2131</v>
+        <v>2123</v>
       </c>
       <c r="G62" s="413" t="s">
-        <v>2117</v>
+        <v>2109</v>
       </c>
       <c r="K62" s="375"/>
       <c r="L62" s="378"/>
@@ -19079,7 +19055,7 @@
       <c r="B63" s="138"/>
       <c r="C63" s="267"/>
       <c r="G63" s="323" t="s">
-        <v>2119</v>
+        <v>2111</v>
       </c>
       <c r="L63" s="378"/>
     </row>
@@ -19088,10 +19064,10 @@
       <c r="B64" s="267"/>
       <c r="C64" s="267"/>
       <c r="G64" s="323" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>2122</v>
+        <v>2114</v>
       </c>
       <c r="L64" s="378"/>
     </row>
@@ -19100,14 +19076,14 @@
       <c r="B65" s="267"/>
       <c r="C65" s="267"/>
       <c r="G65" s="323" t="s">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="L65" s="378"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" thickBot="1">
       <c r="A66" s="138"/>
       <c r="G66" s="325" t="s">
-        <v>2121</v>
+        <v>2113</v>
       </c>
       <c r="L66" s="378"/>
     </row>
@@ -19123,17 +19099,17 @@
     <row r="68" spans="1:20">
       <c r="A68" s="138"/>
       <c r="B68" s="138" t="s">
-        <v>2137</v>
+        <v>2129</v>
       </c>
       <c r="C68" s="138"/>
       <c r="D68" s="36" t="s">
-        <v>2132</v>
+        <v>2124</v>
       </c>
       <c r="G68" s="405" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="L68" s="378"/>
     </row>
@@ -19142,7 +19118,7 @@
       <c r="B69" s="267"/>
       <c r="C69" s="267"/>
       <c r="G69" s="323" t="s">
-        <v>2125</v>
+        <v>2117</v>
       </c>
       <c r="L69" s="378"/>
       <c r="P69" s="403"/>
@@ -19152,7 +19128,7 @@
       <c r="B70" s="138"/>
       <c r="C70" s="138"/>
       <c r="G70" s="323" t="s">
-        <v>2126</v>
+        <v>2118</v>
       </c>
       <c r="L70" s="378"/>
       <c r="P70" s="403"/>
@@ -19160,10 +19136,10 @@
     <row r="71" spans="1:20" ht="15.75" thickBot="1">
       <c r="A71" s="311"/>
       <c r="G71" s="325" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>2128</v>
+        <v>2120</v>
       </c>
       <c r="L71" s="378"/>
       <c r="P71" s="403"/>
@@ -19179,13 +19155,13 @@
     <row r="73" spans="1:20">
       <c r="A73" s="138"/>
       <c r="B73" s="36" t="s">
-        <v>2138</v>
+        <v>2130</v>
       </c>
       <c r="G73" s="405" t="s">
-        <v>2129</v>
+        <v>2121</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>2130</v>
+        <v>2122</v>
       </c>
       <c r="L73" s="378"/>
       <c r="M73" s="403"/>
@@ -19204,13 +19180,13 @@
     </row>
     <row r="75" spans="1:20" ht="15.75" thickBot="1">
       <c r="D75" s="36" t="s">
-        <v>2135</v>
+        <v>2127</v>
       </c>
       <c r="G75" s="325" t="s">
-        <v>2133</v>
+        <v>2125</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>2134</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="15.75" thickBot="1">
@@ -19222,28 +19198,28 @@
       <c r="A78" s="375"/>
       <c r="B78" s="254"/>
       <c r="D78" s="75" t="s">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="E78" s="77"/>
       <c r="G78" s="75" t="s">
-        <v>2117</v>
+        <v>2109</v>
       </c>
       <c r="H78" s="77"/>
       <c r="L78" s="75" t="s">
-        <v>2165</v>
+        <v>2157</v>
       </c>
       <c r="M78" s="77"/>
     </row>
     <row r="79" spans="1:20">
       <c r="B79" s="36" t="s">
-        <v>2152</v>
+        <v>2144</v>
       </c>
       <c r="D79" s="78"/>
       <c r="E79" s="70" t="s">
-        <v>2140</v>
+        <v>2132</v>
       </c>
       <c r="G79" s="78" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="H79" s="70"/>
       <c r="L79" s="78"/>
@@ -19254,30 +19230,30 @@
     <row r="80" spans="1:20">
       <c r="D80" s="78"/>
       <c r="E80" s="70" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
       <c r="G80" s="78" t="s">
-        <v>2119</v>
+        <v>2111</v>
       </c>
       <c r="H80" s="70"/>
       <c r="K80" s="36" t="s">
-        <v>2152</v>
+        <v>2144</v>
       </c>
       <c r="L80" s="78"/>
       <c r="M80" s="70" t="s">
-        <v>2166</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="D81" s="78"/>
       <c r="E81" s="70"/>
       <c r="G81" s="78" t="s">
-        <v>2121</v>
+        <v>2113</v>
       </c>
       <c r="H81" s="70"/>
       <c r="L81" s="78"/>
       <c r="M81" s="70" t="s">
-        <v>2167</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="15.75" thickBot="1">
@@ -19292,10 +19268,10 @@
     <row r="84" spans="1:17">
       <c r="A84" s="380"/>
       <c r="F84" s="322" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>2144</v>
+        <v>2136</v>
       </c>
       <c r="K84" s="36" t="s">
         <v>1455</v>
@@ -19305,21 +19281,21 @@
       </c>
       <c r="M84" s="77"/>
       <c r="N84" s="36" t="s">
-        <v>2172</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="15.75" thickBot="1">
       <c r="A85" s="380"/>
       <c r="D85" s="36" t="s">
-        <v>2151</v>
+        <v>2143</v>
       </c>
       <c r="F85" s="323"/>
       <c r="L85" s="79" t="s">
-        <v>2168</v>
+        <v>2160</v>
       </c>
       <c r="M85" s="81"/>
       <c r="N85" s="36" t="s">
-        <v>2173</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -19328,20 +19304,20 @@
         <v>1456</v>
       </c>
       <c r="F86" s="323" t="s">
-        <v>2142</v>
+        <v>2134</v>
       </c>
       <c r="N86" s="36" t="s">
         <v>33</v>
       </c>
       <c r="O86" s="36" t="s">
-        <v>2194</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="15.75" thickBot="1">
       <c r="B87" s="267"/>
       <c r="C87" s="267"/>
       <c r="F87" s="323" t="s">
-        <v>2143</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15.75" thickBot="1">
@@ -19350,7 +19326,7 @@
       <c r="C88" s="267"/>
       <c r="F88" s="325"/>
       <c r="G88" s="36" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="K88" s="375" t="s">
         <v>1455</v>
@@ -19360,7 +19336,7 @@
       </c>
       <c r="M88" s="77"/>
       <c r="N88" s="36" t="s">
-        <v>2174</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="15.75" thickBot="1">
@@ -19368,11 +19344,11 @@
       <c r="B89" s="138"/>
       <c r="C89" s="267"/>
       <c r="L89" s="79" t="s">
-        <v>2169</v>
+        <v>2161</v>
       </c>
       <c r="M89" s="81"/>
       <c r="N89" s="36" t="s">
-        <v>2175</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15.75" thickBot="1">
@@ -19380,10 +19356,10 @@
       <c r="B90" s="267"/>
       <c r="C90" s="267"/>
       <c r="F90" s="322" t="s">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -19391,20 +19367,20 @@
       <c r="B91" s="267"/>
       <c r="C91" s="267"/>
       <c r="D91" s="36" t="s">
-        <v>2151</v>
+        <v>2143</v>
       </c>
       <c r="F91" s="323" t="s">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="K91" s="36" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="L91" s="75" t="s">
-        <v>2170</v>
+        <v>2162</v>
       </c>
       <c r="M91" s="77"/>
       <c r="N91" s="36" t="s">
-        <v>2176</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15.75" thickBot="1">
@@ -19413,17 +19389,17 @@
         <v>1456</v>
       </c>
       <c r="F92" s="325" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>2150</v>
+        <v>2142</v>
       </c>
       <c r="L92" s="78" t="s">
-        <v>2171</v>
+        <v>2163</v>
       </c>
       <c r="M92" s="70"/>
       <c r="N92" s="36" t="s">
-        <v>2177</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="15.75" thickBot="1">
@@ -19433,7 +19409,7 @@
       <c r="D93" s="182"/>
       <c r="K93" s="375"/>
       <c r="L93" s="410" t="s">
-        <v>2195</v>
+        <v>2187</v>
       </c>
       <c r="M93" s="411"/>
     </row>
@@ -19442,18 +19418,18 @@
       <c r="B94" s="138"/>
       <c r="C94" s="138"/>
       <c r="F94" s="322" t="s">
-        <v>2153</v>
+        <v>2145</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>2154</v>
+        <v>2146</v>
       </c>
       <c r="K94" s="138" t="s">
-        <v>2178</v>
+        <v>2170</v>
       </c>
       <c r="L94" s="138"/>
       <c r="M94" s="138"/>
       <c r="N94" s="36" t="s">
-        <v>2182</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -19461,25 +19437,25 @@
       <c r="B95" s="267"/>
       <c r="C95" s="267"/>
       <c r="D95" s="36" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="F95" s="323"/>
       <c r="K95" s="267" t="s">
-        <v>2187</v>
+        <v>2179</v>
       </c>
       <c r="L95" s="267"/>
       <c r="M95" s="267"/>
       <c r="N95" s="294" t="s">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="O95" s="120" t="s">
-        <v>2192</v>
+        <v>2184</v>
       </c>
       <c r="P95" s="409" t="s">
-        <v>2193</v>
+        <v>2185</v>
       </c>
       <c r="Q95" s="412" t="s">
-        <v>2196</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15.75" thickBot="1">
@@ -19487,53 +19463,53 @@
       <c r="B96" s="138"/>
       <c r="C96" s="138"/>
       <c r="F96" s="325" t="s">
-        <v>2156</v>
+        <v>2148</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="K96" s="138" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="N96" s="36" t="s">
-        <v>2188</v>
+        <v>2180</v>
       </c>
       <c r="P96" s="403"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="267"/>
       <c r="K97" s="138" t="s">
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="N97" s="36" t="s">
-        <v>2189</v>
+        <v>2181</v>
       </c>
       <c r="P97" s="403"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="138"/>
       <c r="C98" s="36" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
       <c r="E98" s="36" t="s">
-        <v>2180</v>
+        <v>2172</v>
       </c>
       <c r="K98" s="408" t="s">
-        <v>2185</v>
+        <v>2177</v>
       </c>
       <c r="L98" s="138"/>
       <c r="M98" s="255"/>
       <c r="N98" s="36" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="138"/>
       <c r="E99" s="36" t="s">
-        <v>2181</v>
+        <v>2173</v>
       </c>
       <c r="K99" s="267" t="s">
-        <v>2186</v>
+        <v>2178</v>
       </c>
       <c r="M99" s="403"/>
       <c r="O99" s="403"/>
@@ -19558,12 +19534,12 @@
         <v>1768</v>
       </c>
       <c r="L104" s="36" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="15.75" thickBot="1">
       <c r="L105" s="36" t="s">
-        <v>2162</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -19571,7 +19547,7 @@
       <c r="D106" s="339"/>
       <c r="E106" s="340"/>
       <c r="G106" s="73" t="s">
-        <v>2160</v>
+        <v>2152</v>
       </c>
       <c r="H106" s="77"/>
       <c r="L106" s="407"/>
@@ -19606,11 +19582,11 @@
     </row>
     <row r="110" spans="1:16">
       <c r="C110" s="78" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="E110" s="70"/>
       <c r="G110" s="78" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="H110" s="70"/>
       <c r="L110" s="78"/>
@@ -19622,7 +19598,7 @@
       <c r="G111" s="78"/>
       <c r="H111" s="70"/>
       <c r="L111" s="78" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="N111" s="70"/>
     </row>
@@ -19644,15 +19620,15 @@
     </row>
     <row r="114" spans="3:14">
       <c r="C114" s="78" t="s">
-        <v>2159</v>
+        <v>2151</v>
       </c>
       <c r="E114" s="70"/>
       <c r="G114" s="78" t="s">
-        <v>2159</v>
+        <v>2151</v>
       </c>
       <c r="H114" s="70"/>
       <c r="L114" s="78" t="s">
-        <v>2159</v>
+        <v>2151</v>
       </c>
       <c r="N114" s="70"/>
     </row>
@@ -19694,7 +19670,7 @@
     </row>
     <row r="120" spans="3:14">
       <c r="L120" s="36" t="s">
-        <v>2163</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="121" spans="3:14">
@@ -19704,7 +19680,7 @@
     </row>
     <row r="122" spans="3:14">
       <c r="J122" s="36" t="s">
-        <v>2164</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="123" spans="3:14">
@@ -19713,66 +19689,66 @@
     <row r="125" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="126" spans="3:14">
       <c r="G126" s="75" t="s">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="H126" s="77"/>
     </row>
     <row r="127" spans="3:14">
       <c r="G127" s="78" t="s">
-        <v>2211</v>
+        <v>2203</v>
       </c>
       <c r="H127" s="70"/>
       <c r="I127" s="36" t="s">
-        <v>2212</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="128" spans="3:14">
       <c r="G128" s="78" t="s">
-        <v>2200</v>
+        <v>2192</v>
       </c>
       <c r="H128" s="70"/>
       <c r="I128" s="36" t="s">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="N128" s="36" t="s">
-        <v>2208</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="129" spans="2:13" ht="15.75" thickBot="1">
       <c r="G129" s="79" t="s">
-        <v>2201</v>
+        <v>2193</v>
       </c>
       <c r="H129" s="81"/>
     </row>
     <row r="131" spans="2:13" ht="15.75" thickBot="1">
       <c r="B131" s="36" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="E131" s="36" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="H131" s="36" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="K131" s="36" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="132" spans="2:13">
       <c r="B132" s="75" t="s">
-        <v>2202</v>
+        <v>2194</v>
       </c>
       <c r="C132" s="77"/>
       <c r="E132" s="75" t="s">
-        <v>2203</v>
+        <v>2195</v>
       </c>
       <c r="F132" s="77"/>
       <c r="H132" s="75" t="s">
-        <v>2204</v>
+        <v>2196</v>
       </c>
       <c r="I132" s="77"/>
       <c r="K132" s="75" t="s">
-        <v>2205</v>
+        <v>2197</v>
       </c>
       <c r="L132" s="77"/>
     </row>
@@ -19788,39 +19764,39 @@
     </row>
     <row r="134" spans="2:13">
       <c r="B134" s="78" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="C134" s="70"/>
       <c r="E134" s="78" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="F134" s="70"/>
       <c r="G134" s="267"/>
       <c r="H134" s="78" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="I134" s="70"/>
       <c r="K134" s="78" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="L134" s="70"/>
     </row>
     <row r="135" spans="2:13" ht="15.75" thickBot="1">
       <c r="B135" s="79" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="C135" s="81"/>
       <c r="E135" s="79" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="F135" s="81"/>
       <c r="G135" s="267"/>
       <c r="H135" s="79" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="I135" s="81"/>
       <c r="K135" s="79" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="L135" s="81"/>
     </row>
@@ -19830,7 +19806,7 @@
     <row r="138" spans="2:13">
       <c r="G138" s="267"/>
       <c r="M138" s="36" t="s">
-        <v>2213</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="139" spans="2:13">
@@ -19839,7 +19815,7 @@
     <row r="140" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="141" spans="2:13">
       <c r="G141" s="75" t="s">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="H141" s="77"/>
     </row>
@@ -19848,29 +19824,29 @@
         <v>0.1</v>
       </c>
       <c r="G142" s="78" t="s">
-        <v>2211</v>
+        <v>2203</v>
       </c>
       <c r="H142" s="70"/>
     </row>
     <row r="143" spans="2:13">
       <c r="G143" s="78" t="s">
-        <v>2200</v>
+        <v>2192</v>
       </c>
       <c r="H143" s="70"/>
       <c r="I143" s="36" t="s">
-        <v>2215</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="15.75" thickBot="1">
       <c r="G144" s="79" t="s">
-        <v>2201</v>
+        <v>2193</v>
       </c>
       <c r="H144" s="81"/>
     </row>
     <row r="146" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="147" spans="2:12">
       <c r="G147" s="75" t="s">
-        <v>2214</v>
+        <v>2206</v>
       </c>
       <c r="H147" s="77"/>
     </row>
@@ -19880,16 +19856,16 @@
     </row>
     <row r="149" spans="2:12">
       <c r="G149" s="78" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="H149" s="70"/>
       <c r="I149" s="36" t="s">
-        <v>2216</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="150" spans="2:12" ht="15.75" thickBot="1">
       <c r="G150" s="79" t="s">
-        <v>2217</v>
+        <v>2209</v>
       </c>
       <c r="H150" s="81"/>
     </row>
@@ -19898,33 +19874,33 @@
     </row>
     <row r="153" spans="2:12" ht="15.75" thickBot="1">
       <c r="B153" s="36" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="E153" s="36" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="H153" s="36" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="K153" s="36" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="154" spans="2:12">
       <c r="B154" s="75" t="s">
-        <v>2202</v>
+        <v>2194</v>
       </c>
       <c r="C154" s="77"/>
       <c r="E154" s="75" t="s">
-        <v>2203</v>
+        <v>2195</v>
       </c>
       <c r="F154" s="77"/>
       <c r="H154" s="75" t="s">
-        <v>2204</v>
+        <v>2196</v>
       </c>
       <c r="I154" s="77"/>
       <c r="K154" s="75" t="s">
-        <v>2205</v>
+ 